--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+  <si>
+    <t>11/22/2020</t>
+  </si>
+  <si>
+    <t>11/21/2020</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
   <si>
     <t>11/19/2020</t>
   </si>
@@ -900,24 +909,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E267"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -934,13 +943,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>42101</v>
+        <v>43862</v>
       </c>
       <c r="C3" s="4">
-        <v>38489</v>
+        <v>41348</v>
       </c>
       <c r="D3" s="4">
-        <v>3612</v>
+        <v>2514</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -949,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>34137</v>
+        <v>55326</v>
       </c>
       <c r="C4" s="4">
-        <v>30323</v>
+        <v>51292</v>
       </c>
       <c r="D4" s="4">
-        <v>3814</v>
+        <v>4034</v>
       </c>
       <c r="E4" s="5">
-        <v>0.079214374787439062</v>
+        <v>0.070969145952219745</v>
       </c>
     </row>
     <row r="5">
@@ -966,16 +975,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>29503</v>
+        <v>52581</v>
       </c>
       <c r="C5" s="4">
-        <v>28577</v>
+        <v>49233</v>
       </c>
       <c r="D5" s="4">
-        <v>926</v>
+        <v>3348</v>
       </c>
       <c r="E5" s="5">
-        <v>0.092572552877520906</v>
+        <v>0.073079775399936431</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>35255</v>
+        <v>49210</v>
       </c>
       <c r="C6" s="4">
-        <v>34291</v>
+        <v>45152</v>
       </c>
       <c r="D6" s="4">
-        <v>964</v>
+        <v>4058</v>
       </c>
       <c r="E6" s="5">
-        <v>0.087140237582715455</v>
+        <v>0.078360101437024515</v>
       </c>
     </row>
     <row r="7">
@@ -1000,16 +1009,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>40636</v>
+        <v>34577</v>
       </c>
       <c r="C7" s="4">
-        <v>38103</v>
+        <v>30501</v>
       </c>
       <c r="D7" s="4">
-        <v>2533</v>
+        <v>4076</v>
       </c>
       <c r="E7" s="5">
-        <v>0.080554445707963246</v>
+        <v>0.078158618964223173</v>
       </c>
     </row>
     <row r="8">
@@ -1017,16 +1026,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>48267</v>
+        <v>29512</v>
       </c>
       <c r="C8" s="4">
-        <v>44460</v>
+        <v>28632</v>
       </c>
       <c r="D8" s="4">
-        <v>3807</v>
+        <v>880</v>
       </c>
       <c r="E8" s="5">
-        <v>0.077063550036523015</v>
+        <v>0.093683833349620507</v>
       </c>
     </row>
     <row r="9">
@@ -1034,16 +1043,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>46417</v>
+        <v>35582</v>
       </c>
       <c r="C9" s="4">
-        <v>43244</v>
+        <v>34658</v>
       </c>
       <c r="D9" s="4">
-        <v>3173</v>
+        <v>924</v>
       </c>
       <c r="E9" s="5">
-        <v>0.07802396110080706</v>
+        <v>0.087565117111385052</v>
       </c>
     </row>
     <row r="10">
@@ -1051,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>41207</v>
+        <v>40844</v>
       </c>
       <c r="C10" s="4">
-        <v>37691</v>
+        <v>38306</v>
       </c>
       <c r="D10" s="4">
-        <v>3516</v>
+        <v>2538</v>
       </c>
       <c r="E10" s="5">
-        <v>0.076091401697167979</v>
+        <v>0.080563207835935111</v>
       </c>
     </row>
     <row r="11">
@@ -1068,16 +1077,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>29171</v>
+        <v>48223</v>
       </c>
       <c r="C11" s="4">
-        <v>25713</v>
+        <v>44455</v>
       </c>
       <c r="D11" s="4">
-        <v>3458</v>
+        <v>3768</v>
       </c>
       <c r="E11" s="5">
-        <v>0.07754498826393115</v>
+        <v>0.077305202054029923</v>
       </c>
     </row>
     <row r="12">
@@ -1085,16 +1094,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>26351</v>
+        <v>46422</v>
       </c>
       <c r="C12" s="4">
-        <v>25613</v>
+        <v>43251</v>
       </c>
       <c r="D12" s="4">
-        <v>738</v>
+        <v>3171</v>
       </c>
       <c r="E12" s="5">
-        <v>0.080959640535986518</v>
+        <v>0.078078453951485716</v>
       </c>
     </row>
     <row r="13">
@@ -1102,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>34448</v>
+        <v>41210</v>
       </c>
       <c r="C13" s="4">
-        <v>33679</v>
+        <v>37692</v>
       </c>
       <c r="D13" s="4">
-        <v>769</v>
+        <v>3518</v>
       </c>
       <c r="E13" s="5">
-        <v>0.075318341912760767</v>
+        <v>0.07606029637199796</v>
       </c>
     </row>
     <row r="14">
@@ -1119,16 +1128,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>40049</v>
+        <v>29174</v>
       </c>
       <c r="C14" s="4">
-        <v>38093</v>
+        <v>25716</v>
       </c>
       <c r="D14" s="4">
-        <v>1956</v>
+        <v>3458</v>
       </c>
       <c r="E14" s="5">
-        <v>0.065477983254020836</v>
+        <v>0.077564733823784968</v>
       </c>
     </row>
     <row r="15">
@@ -1136,16 +1145,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>44842</v>
+        <v>26349</v>
       </c>
       <c r="C15" s="4">
-        <v>41765</v>
+        <v>25611</v>
       </c>
       <c r="D15" s="4">
-        <v>3077</v>
+        <v>738</v>
       </c>
       <c r="E15" s="5">
-        <v>0.058883276600417263</v>
+        <v>0.080940157227659237</v>
       </c>
     </row>
     <row r="16">
@@ -1153,16 +1162,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>47565</v>
+        <v>34447</v>
       </c>
       <c r="C16" s="4">
-        <v>45098</v>
+        <v>33678</v>
       </c>
       <c r="D16" s="4">
-        <v>2467</v>
+        <v>769</v>
       </c>
       <c r="E16" s="5">
-        <v>0.066601722723543894</v>
+        <v>0.075296987217128145</v>
       </c>
     </row>
     <row r="17">
@@ -1170,16 +1179,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>43258</v>
+        <v>40048</v>
       </c>
       <c r="C17" s="4">
-        <v>40495</v>
+        <v>38092</v>
       </c>
       <c r="D17" s="4">
-        <v>2763</v>
+        <v>1956</v>
       </c>
       <c r="E17" s="5">
-        <v>0.064689500171006983</v>
+        <v>0.065472067459719924</v>
       </c>
     </row>
     <row r="18">
@@ -1187,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>25510</v>
+        <v>44844</v>
       </c>
       <c r="C18" s="4">
-        <v>22371</v>
+        <v>41767</v>
       </c>
       <c r="D18" s="4">
-        <v>3139</v>
+        <v>3077</v>
       </c>
       <c r="E18" s="5">
-        <v>0.065500717272533038</v>
+        <v>0.058834834175269052</v>
       </c>
     </row>
     <row r="19">
@@ -1204,16 +1213,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>26651</v>
+        <v>47566</v>
       </c>
       <c r="C19" s="4">
-        <v>26088</v>
+        <v>45099</v>
       </c>
       <c r="D19" s="4">
-        <v>563</v>
+        <v>2467</v>
       </c>
       <c r="E19" s="5">
-        <v>0.074491354050596342</v>
+        <v>0.066507765646624639</v>
       </c>
     </row>
     <row r="20">
@@ -1221,16 +1230,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>33477</v>
+        <v>43258</v>
       </c>
       <c r="C20" s="4">
-        <v>32656</v>
+        <v>40495</v>
       </c>
       <c r="D20" s="4">
-        <v>821</v>
+        <v>2763</v>
       </c>
       <c r="E20" s="5">
-        <v>0.067962403776634206</v>
+        <v>0.064570466030320045</v>
       </c>
     </row>
     <row r="21">
@@ -1238,16 +1247,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>38957</v>
+        <v>25511</v>
       </c>
       <c r="C21" s="4">
-        <v>37097</v>
+        <v>22372</v>
       </c>
       <c r="D21" s="4">
-        <v>1860</v>
+        <v>3139</v>
       </c>
       <c r="E21" s="5">
-        <v>0.063534956794972508</v>
+        <v>0.065562267374458472</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1264,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>44934</v>
+        <v>26650</v>
       </c>
       <c r="C22" s="4">
-        <v>41929</v>
+        <v>26087</v>
       </c>
       <c r="D22" s="4">
-        <v>3005</v>
+        <v>563</v>
       </c>
       <c r="E22" s="5">
-        <v>0.059556427191186229</v>
+        <v>0.074520321848566121</v>
       </c>
     </row>
     <row r="23">
@@ -1272,16 +1281,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>45534</v>
+        <v>33478</v>
       </c>
       <c r="C23" s="4">
-        <v>43057</v>
+        <v>32657</v>
       </c>
       <c r="D23" s="4">
-        <v>2477</v>
+        <v>821</v>
       </c>
       <c r="E23" s="5">
-        <v>0.060593558324394205</v>
+        <v>0.067908321639664926</v>
       </c>
     </row>
     <row r="24">
@@ -1289,16 +1298,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>38788</v>
+        <v>38983</v>
       </c>
       <c r="C24" s="4">
-        <v>36624</v>
+        <v>37123</v>
       </c>
       <c r="D24" s="4">
-        <v>2164</v>
+        <v>1860</v>
       </c>
       <c r="E24" s="5">
-        <v>0.059425243092326947</v>
+        <v>0.063451696963988571</v>
       </c>
     </row>
     <row r="25">
@@ -1306,16 +1315,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>23935</v>
+        <v>45025</v>
       </c>
       <c r="C25" s="4">
-        <v>21589</v>
+        <v>42020</v>
       </c>
       <c r="D25" s="4">
-        <v>2346</v>
+        <v>3005</v>
       </c>
       <c r="E25" s="5">
-        <v>0.064313490876458268</v>
+        <v>0.059602076124567471</v>
       </c>
     </row>
     <row r="26">
@@ -1323,16 +1332,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>25468</v>
+        <v>45534</v>
       </c>
       <c r="C26" s="4">
-        <v>25051</v>
+        <v>43057</v>
       </c>
       <c r="D26" s="4">
-        <v>417</v>
+        <v>2477</v>
       </c>
       <c r="E26" s="5">
-        <v>0.070385310891640004</v>
+        <v>0.060453884361021927</v>
       </c>
     </row>
     <row r="27">
@@ -1340,16 +1349,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>30472</v>
+        <v>38792</v>
       </c>
       <c r="C27" s="4">
-        <v>29989</v>
+        <v>36628</v>
       </c>
       <c r="D27" s="4">
-        <v>483</v>
+        <v>2164</v>
       </c>
       <c r="E27" s="5">
-        <v>0.075113272644136836</v>
+        <v>0.059421197091539459</v>
       </c>
     </row>
     <row r="28">
@@ -1357,16 +1366,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>37764</v>
+        <v>23936</v>
       </c>
       <c r="C28" s="4">
-        <v>36579</v>
+        <v>21590</v>
       </c>
       <c r="D28" s="4">
-        <v>1185</v>
+        <v>2346</v>
       </c>
       <c r="E28" s="5">
-        <v>0.062177447861435135</v>
+        <v>0.064327485380116955</v>
       </c>
     </row>
     <row r="29">
@@ -1374,16 +1383,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>40617</v>
+        <v>25467</v>
       </c>
       <c r="C29" s="4">
-        <v>38707</v>
+        <v>25050</v>
       </c>
       <c r="D29" s="4">
-        <v>1910</v>
+        <v>417</v>
       </c>
       <c r="E29" s="5">
-        <v>0.063908059955610955</v>
+        <v>0.070282800185442751</v>
       </c>
     </row>
     <row r="30">
@@ -1391,16 +1400,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>46379</v>
+        <v>30472</v>
       </c>
       <c r="C30" s="4">
-        <v>44987</v>
+        <v>29989</v>
       </c>
       <c r="D30" s="4">
-        <v>1392</v>
+        <v>483</v>
       </c>
       <c r="E30" s="5">
-        <v>0.063740912095175142</v>
+        <v>0.075237976472544377</v>
       </c>
     </row>
     <row r="31">
@@ -1408,16 +1417,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>36468</v>
+        <v>37763</v>
       </c>
       <c r="C31" s="4">
-        <v>34725</v>
+        <v>36578</v>
       </c>
       <c r="D31" s="4">
-        <v>1743</v>
+        <v>1185</v>
       </c>
       <c r="E31" s="5">
-        <v>0.059144305990877354</v>
+        <v>0.062135716556572115</v>
       </c>
     </row>
     <row r="32">
@@ -1425,16 +1434,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>18358</v>
+        <v>40617</v>
       </c>
       <c r="C32" s="4">
-        <v>16519</v>
+        <v>38707</v>
       </c>
       <c r="D32" s="4">
-        <v>1839</v>
+        <v>1910</v>
       </c>
       <c r="E32" s="5">
-        <v>0.061713821977940904</v>
+        <v>0.063896403927409792</v>
       </c>
     </row>
     <row r="33">
@@ -1442,16 +1451,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>23352</v>
+        <v>46379</v>
       </c>
       <c r="C33" s="4">
-        <v>23016</v>
+        <v>44987</v>
       </c>
       <c r="D33" s="4">
-        <v>336</v>
+        <v>1392</v>
       </c>
       <c r="E33" s="5">
-        <v>0.077015920455198575</v>
+        <v>0.063713961047541026</v>
       </c>
     </row>
     <row r="34">
@@ -1459,16 +1468,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>32966</v>
+        <v>36468</v>
       </c>
       <c r="C34" s="4">
-        <v>32574</v>
+        <v>34724</v>
       </c>
       <c r="D34" s="4">
-        <v>392</v>
+        <v>1744</v>
       </c>
       <c r="E34" s="5">
-        <v>0.073962299192125547</v>
+        <v>0.059049704624159705</v>
       </c>
     </row>
     <row r="35">
@@ -1476,16 +1485,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>34491</v>
+        <v>18358</v>
       </c>
       <c r="C35" s="4">
-        <v>33616</v>
+        <v>16519</v>
       </c>
       <c r="D35" s="4">
-        <v>875</v>
+        <v>1839</v>
       </c>
       <c r="E35" s="5">
-        <v>0.058695207580612176</v>
+        <v>0.061748432312799702</v>
       </c>
     </row>
     <row r="36">
@@ -1493,16 +1502,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>41549</v>
+        <v>23352</v>
       </c>
       <c r="C36" s="4">
-        <v>40054</v>
+        <v>23016</v>
       </c>
       <c r="D36" s="4">
-        <v>1495</v>
+        <v>336</v>
       </c>
       <c r="E36" s="5">
-        <v>0.061055015570444467</v>
+        <v>0.077029202115428838</v>
       </c>
     </row>
     <row r="37">
@@ -1510,16 +1519,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>42279</v>
+        <v>32965</v>
       </c>
       <c r="C37" s="4">
-        <v>41160</v>
+        <v>32573</v>
       </c>
       <c r="D37" s="4">
-        <v>1119</v>
+        <v>392</v>
       </c>
       <c r="E37" s="5">
-        <v>0.06550958067203555</v>
+        <v>0.073976037893563662</v>
       </c>
     </row>
     <row r="38">
@@ -1527,16 +1536,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>34256</v>
+        <v>34490</v>
       </c>
       <c r="C38" s="4">
-        <v>32807</v>
+        <v>33615</v>
       </c>
       <c r="D38" s="4">
-        <v>1449</v>
+        <v>875</v>
       </c>
       <c r="E38" s="5">
-        <v>0.060773178988751772</v>
+        <v>0.05865712338104976</v>
       </c>
     </row>
     <row r="39">
@@ -1544,16 +1553,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>21624</v>
+        <v>41551</v>
       </c>
       <c r="C39" s="4">
-        <v>20492</v>
+        <v>40056</v>
       </c>
       <c r="D39" s="4">
-        <v>1132</v>
+        <v>1495</v>
       </c>
       <c r="E39" s="5">
-        <v>0.066776834672876137</v>
+        <v>0.061096786365637382</v>
       </c>
     </row>
     <row r="40">
@@ -1561,16 +1570,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>21601</v>
+        <v>42279</v>
       </c>
       <c r="C40" s="4">
-        <v>21323</v>
+        <v>41160</v>
       </c>
       <c r="D40" s="4">
-        <v>278</v>
+        <v>1119</v>
       </c>
       <c r="E40" s="5">
-        <v>0.067777194405994945</v>
+        <v>0.06553829078801332</v>
       </c>
     </row>
     <row r="41">
@@ -1578,16 +1587,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>32574</v>
+        <v>34255</v>
       </c>
       <c r="C41" s="4">
-        <v>32235</v>
+        <v>32806</v>
       </c>
       <c r="D41" s="4">
-        <v>339</v>
+        <v>1449</v>
       </c>
       <c r="E41" s="5">
-        <v>0.070244551314847026</v>
+        <v>0.060675568662789107</v>
       </c>
     </row>
     <row r="42">
@@ -1595,16 +1604,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>37219</v>
+        <v>21624</v>
       </c>
       <c r="C42" s="4">
-        <v>36212</v>
+        <v>20492</v>
       </c>
       <c r="D42" s="4">
-        <v>1007</v>
+        <v>1132</v>
       </c>
       <c r="E42" s="5">
-        <v>0.056476683937823832</v>
+        <v>0.066756777051888566</v>
       </c>
     </row>
     <row r="43">
@@ -1612,16 +1621,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>42410</v>
+        <v>21602</v>
       </c>
       <c r="C43" s="4">
-        <v>41135</v>
+        <v>21324</v>
       </c>
       <c r="D43" s="4">
-        <v>1275</v>
+        <v>278</v>
       </c>
       <c r="E43" s="5">
-        <v>0.055368738404452687</v>
+        <v>0.067767490693900923</v>
       </c>
     </row>
     <row r="44">
@@ -1629,16 +1638,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>40915</v>
+        <v>32574</v>
       </c>
       <c r="C44" s="4">
-        <v>40020</v>
+        <v>32235</v>
       </c>
       <c r="D44" s="4">
-        <v>895</v>
+        <v>339</v>
       </c>
       <c r="E44" s="5">
-        <v>0.050320366746199836</v>
+        <v>0.070186208307755266</v>
       </c>
     </row>
     <row r="45">
@@ -1646,16 +1655,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>34440</v>
+        <v>37220</v>
       </c>
       <c r="C45" s="4">
-        <v>33418</v>
+        <v>36213</v>
       </c>
       <c r="D45" s="4">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="E45" s="5">
-        <v>0.057514280086665356</v>
+        <v>0.056440192048633896</v>
       </c>
     </row>
     <row r="46">
@@ -1663,16 +1672,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>17757</v>
+        <v>42410</v>
       </c>
       <c r="C46" s="4">
-        <v>16842</v>
+        <v>41135</v>
       </c>
       <c r="D46" s="4">
-        <v>915</v>
+        <v>1275</v>
       </c>
       <c r="E46" s="5">
-        <v>0.057004794442976327</v>
+        <v>0.055528184321112881</v>
       </c>
     </row>
     <row r="47">
@@ -1680,16 +1689,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>18036</v>
+        <v>40914</v>
       </c>
       <c r="C47" s="4">
-        <v>17783</v>
+        <v>40019</v>
       </c>
       <c r="D47" s="4">
-        <v>253</v>
+        <v>895</v>
       </c>
       <c r="E47" s="5">
-        <v>0.06471133065761038</v>
+        <v>0.050190358732371709</v>
       </c>
     </row>
     <row r="48">
@@ -1697,16 +1706,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>26990</v>
+        <v>34440</v>
       </c>
       <c r="C48" s="4">
-        <v>26697</v>
+        <v>33418</v>
       </c>
       <c r="D48" s="4">
-        <v>293</v>
+        <v>1022</v>
       </c>
       <c r="E48" s="5">
-        <v>0.078992955306617388</v>
+        <v>0.057437366588023821</v>
       </c>
     </row>
     <row r="49">
@@ -1714,16 +1723,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>32471</v>
+        <v>17757</v>
       </c>
       <c r="C49" s="4">
-        <v>31836</v>
+        <v>16842</v>
       </c>
       <c r="D49" s="4">
-        <v>635</v>
+        <v>915</v>
       </c>
       <c r="E49" s="5">
-        <v>0.062164137397360389</v>
+        <v>0.056913025416367689</v>
       </c>
     </row>
     <row r="50">
@@ -1731,16 +1740,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>36028</v>
+        <v>18036</v>
       </c>
       <c r="C50" s="4">
-        <v>35411</v>
+        <v>17783</v>
       </c>
       <c r="D50" s="4">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="E50" s="5">
-        <v>0.061205081176550505</v>
+        <v>0.064790818215475748</v>
       </c>
     </row>
     <row r="51">
@@ -1748,16 +1757,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>40621</v>
+        <v>26990</v>
       </c>
       <c r="C51" s="4">
-        <v>39873</v>
+        <v>26697</v>
       </c>
       <c r="D51" s="4">
-        <v>748</v>
+        <v>293</v>
       </c>
       <c r="E51" s="5">
-        <v>0.054744525547445258</v>
+        <v>0.078841048135749742</v>
       </c>
     </row>
     <row r="52">
@@ -1765,16 +1774,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>29214</v>
+        <v>32471</v>
       </c>
       <c r="C52" s="4">
-        <v>28550</v>
+        <v>31836</v>
       </c>
       <c r="D52" s="4">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E52" s="5">
-        <v>0.054554624674269379</v>
+        <v>0.062094730965774898</v>
       </c>
     </row>
     <row r="53">
@@ -1782,16 +1791,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>14197</v>
+        <v>36028</v>
       </c>
       <c r="C53" s="4">
-        <v>13652</v>
+        <v>35411</v>
       </c>
       <c r="D53" s="4">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="E53" s="5">
-        <v>0.058039334955393353</v>
+        <v>0.061203706846804033</v>
       </c>
     </row>
     <row r="54">
@@ -1799,16 +1808,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>13895</v>
+        <v>40621</v>
       </c>
       <c r="C54" s="4">
-        <v>13783</v>
+        <v>39873</v>
       </c>
       <c r="D54" s="4">
-        <v>112</v>
+        <v>748</v>
       </c>
       <c r="E54" s="5">
-        <v>0.066653597333856104</v>
+        <v>0.054753218560617482</v>
       </c>
     </row>
     <row r="55">
@@ -1816,16 +1825,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>26001</v>
+        <v>29214</v>
       </c>
       <c r="C55" s="4">
-        <v>25904</v>
+        <v>28550</v>
       </c>
       <c r="D55" s="4">
-        <v>97</v>
+        <v>664</v>
       </c>
       <c r="E55" s="5">
-        <v>0.060026098303610262</v>
+        <v>0.054477214799876758</v>
       </c>
     </row>
     <row r="56">
@@ -1833,16 +1842,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>31552</v>
+        <v>14197</v>
       </c>
       <c r="C56" s="4">
-        <v>31221</v>
+        <v>13652</v>
       </c>
       <c r="D56" s="4">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="E56" s="5">
-        <v>0.053211241454975106</v>
+        <v>0.058146608536956301</v>
       </c>
     </row>
     <row r="57">
@@ -1850,16 +1859,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>36113</v>
+        <v>13895</v>
       </c>
       <c r="C57" s="4">
-        <v>35782</v>
+        <v>13783</v>
       </c>
       <c r="D57" s="4">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="E57" s="5">
-        <v>0.049589883800410114</v>
+        <v>0.06666231392008358</v>
       </c>
     </row>
     <row r="58">
@@ -1867,16 +1876,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>38427</v>
+        <v>26001</v>
       </c>
       <c r="C58" s="4">
-        <v>38063</v>
+        <v>25904</v>
       </c>
       <c r="D58" s="4">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="E58" s="5">
-        <v>0.045743786769119943</v>
+        <v>0.059944911568570597</v>
       </c>
     </row>
     <row r="59">
@@ -1884,16 +1893,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>28541</v>
+        <v>31552</v>
       </c>
       <c r="C59" s="4">
-        <v>28167</v>
+        <v>31221</v>
       </c>
       <c r="D59" s="4">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E59" s="5">
-        <v>0.049131036141680198</v>
+        <v>0.053150684931506847</v>
       </c>
     </row>
     <row r="60">
@@ -1901,16 +1910,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>12621</v>
+        <v>36113</v>
       </c>
       <c r="C60" s="4">
-        <v>12306</v>
+        <v>35782</v>
       </c>
       <c r="D60" s="4">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E60" s="5">
-        <v>0.048545123332184532</v>
+        <v>0.049591578659557746</v>
       </c>
     </row>
     <row r="61">
@@ -1918,12 +1927,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+        <v>38427</v>
+      </c>
+      <c r="C61" s="4">
+        <v>38063</v>
+      </c>
+      <c r="D61" s="4">
+        <v>364</v>
+      </c>
       <c r="E61" s="5">
-        <v>0.05399607746996813</v>
+        <v>0.045734177595054465</v>
       </c>
     </row>
     <row r="62">
@@ -1931,12 +1944,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>24679</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+        <v>28541</v>
+      </c>
+      <c r="C62" s="4">
+        <v>28167</v>
+      </c>
+      <c r="D62" s="4">
+        <v>374</v>
+      </c>
       <c r="E62" s="5">
-        <v>0.052948636651870641</v>
+        <v>0.049080860266730746</v>
       </c>
     </row>
     <row r="63">
@@ -1944,12 +1961,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>27403</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+        <v>12621</v>
+      </c>
+      <c r="C63" s="4">
+        <v>12306</v>
+      </c>
+      <c r="D63" s="4">
+        <v>315</v>
+      </c>
       <c r="E63" s="5">
-        <v>0.052942523471490727</v>
+        <v>0.048554685576402225</v>
       </c>
     </row>
     <row r="64">
@@ -1957,12 +1978,12 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>34441</v>
+        <v>16001</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5">
-        <v>0.046127220711334016</v>
+        <v>0.053986151112200502</v>
       </c>
     </row>
     <row r="65">
@@ -1970,12 +1991,12 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>37607</v>
+        <v>24679</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5">
-        <v>0.047267159310298915</v>
+        <v>0.05280841891720553</v>
       </c>
     </row>
     <row r="66">
@@ -1983,12 +2004,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>28506</v>
+        <v>27403</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5">
-        <v>0.047602413464591931</v>
+        <v>0.052978616237007191</v>
       </c>
     </row>
     <row r="67">
@@ -1996,12 +2017,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>15629</v>
+        <v>34441</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5">
-        <v>0.057043719639139484</v>
+        <v>0.046133738387085378</v>
       </c>
     </row>
     <row r="68">
@@ -2009,12 +2030,12 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>18342</v>
+        <v>37607</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5">
-        <v>0.057191977077363898</v>
+        <v>0.047237284188816071</v>
       </c>
     </row>
     <row r="69">
@@ -2022,12 +2043,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>26203</v>
+        <v>28506</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5">
-        <v>0.049552103413085385</v>
+        <v>0.047552580655394472</v>
       </c>
     </row>
     <row r="70">
@@ -2035,12 +2056,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>33367</v>
+        <v>15629</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5">
-        <v>0.047607105538140022</v>
+        <v>0.057048998288067365</v>
       </c>
     </row>
     <row r="71">
@@ -2048,12 +2069,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>38681</v>
+        <v>18342</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>0.049843249145795909</v>
+        <v>0.057146129180027483</v>
       </c>
     </row>
     <row r="72">
@@ -2061,12 +2082,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>33872</v>
+        <v>26203</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.050281792135008344</v>
+        <v>0.049540868382269586</v>
       </c>
     </row>
     <row r="73">
@@ -2074,12 +2095,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>15536</v>
+        <v>33367</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.051527141777441873</v>
+        <v>0.047605115773635374</v>
       </c>
     </row>
     <row r="74">
@@ -2087,12 +2108,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>10621</v>
+        <v>38681</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.064416467135243682</v>
+        <v>0.049837982530290224</v>
       </c>
     </row>
     <row r="75">
@@ -2100,12 +2121,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>15250</v>
+        <v>33872</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.070915230755909608</v>
+        <v>0.050221705085065571</v>
       </c>
     </row>
     <row r="76">
@@ -2113,12 +2134,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>25209</v>
+        <v>15536</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.059088735569369492</v>
+        <v>0.051531723800631361</v>
       </c>
     </row>
     <row r="77">
@@ -2126,12 +2147,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>28779</v>
+        <v>10621</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.056664490252774931</v>
+        <v>0.064381658175081055</v>
       </c>
     </row>
     <row r="78">
@@ -2139,12 +2160,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>32622</v>
+        <v>15250</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.059846876895087935</v>
+        <v>0.070890677746039993</v>
       </c>
     </row>
     <row r="79">
@@ -2152,12 +2173,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>36879</v>
+        <v>25209</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.053442209387240258</v>
+        <v>0.059132809832707411</v>
       </c>
     </row>
     <row r="80">
@@ -2165,12 +2186,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>28887</v>
+        <v>28779</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.063383681633216088</v>
+        <v>0.056609932385171369</v>
       </c>
     </row>
     <row r="81">
@@ -2178,12 +2199,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>15065</v>
+        <v>32622</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.065652173913043482</v>
+        <v>0.059804441749412567</v>
       </c>
     </row>
     <row r="82">
@@ -2191,12 +2212,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>18622</v>
+        <v>36879</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.076405789675931854</v>
+        <v>0.053368270921091913</v>
       </c>
     </row>
     <row r="83">
@@ -2204,12 +2225,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>25044</v>
+        <v>28887</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.065857688144476734</v>
+        <v>0.063374939659333843</v>
       </c>
     </row>
     <row r="84">
@@ -2217,12 +2238,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>30979</v>
+        <v>15065</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.077031243133980756</v>
+        <v>0.065634338494974187</v>
       </c>
     </row>
     <row r="85">
@@ -2230,12 +2251,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>34871</v>
+        <v>18622</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.059971768501714054</v>
+        <v>0.076391112249471732</v>
       </c>
     </row>
     <row r="86">
@@ -2243,12 +2264,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>35721</v>
+        <v>25044</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.062604258659601605</v>
+        <v>0.065857688144476734</v>
       </c>
     </row>
     <row r="87">
@@ -2256,12 +2277,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>31132</v>
+        <v>30979</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.071072361502188153</v>
+        <v>0.076990683775707502</v>
       </c>
     </row>
     <row r="88">
@@ -2269,12 +2290,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>14920</v>
+        <v>34871</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.065368493659468355</v>
+        <v>0.059932334461092314</v>
       </c>
     </row>
     <row r="89">
@@ -2282,12 +2303,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>13120</v>
+        <v>35721</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.080292464965134383</v>
+        <v>0.062569503499705637</v>
       </c>
     </row>
     <row r="90">
@@ -2295,12 +2316,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>24169</v>
+        <v>31132</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.073177981215075502</v>
+        <v>0.070999898280948021</v>
       </c>
     </row>
     <row r="91">
@@ -2308,12 +2329,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>24904</v>
+        <v>14920</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.064148431649887677</v>
+        <v>0.065313046705190059</v>
       </c>
     </row>
     <row r="92">
@@ -2321,12 +2342,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>25761</v>
+        <v>13120</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.064058290007969337</v>
+        <v>0.080281594801326739</v>
       </c>
     </row>
     <row r="93">
@@ -2334,12 +2355,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>26022</v>
+        <v>24169</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.069137729223566133</v>
+        <v>0.07304606240713224</v>
       </c>
     </row>
     <row r="94">
@@ -2347,12 +2368,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>25739</v>
+        <v>24904</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.075915509577941229</v>
+        <v>0.064176683442166121</v>
       </c>
     </row>
     <row r="95">
@@ -2360,12 +2381,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>10893</v>
+        <v>25761</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.065410452009563927</v>
+        <v>0.064036418816388468</v>
       </c>
     </row>
     <row r="96">
@@ -2373,12 +2394,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>13862</v>
+        <v>26022</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.069016918834314669</v>
+        <v>0.069051613154917493</v>
       </c>
     </row>
     <row r="97">
@@ -2386,12 +2407,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>23021</v>
+        <v>25739</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.063032367972742753</v>
+        <v>0.075812984153198856</v>
       </c>
     </row>
     <row r="98">
@@ -2399,12 +2420,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>25652</v>
+        <v>10893</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.063917132082676978</v>
+        <v>0.065406728525075425</v>
       </c>
     </row>
     <row r="99">
@@ -2412,12 +2433,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>22856</v>
+        <v>13862</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.063633513949218581</v>
+        <v>0.068952664927320162</v>
       </c>
     </row>
     <row r="100">
@@ -2425,12 +2446,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>30068</v>
+        <v>23021</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.059374477337347381</v>
+        <v>0.063117715220503037</v>
       </c>
     </row>
     <row r="101">
@@ -2438,12 +2459,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>26715</v>
+        <v>25652</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.064218563799267339</v>
+        <v>0.063907980145093551</v>
       </c>
     </row>
     <row r="102">
@@ -2451,12 +2472,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>15704</v>
+        <v>22856</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.062017318043529134</v>
+        <v>0.063642063776424215</v>
       </c>
     </row>
     <row r="103">
@@ -2464,12 +2485,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>17137</v>
+        <v>30068</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.064400584795321639</v>
+        <v>0.059285893469353625</v>
       </c>
     </row>
     <row r="104">
@@ -2477,12 +2498,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>19182</v>
+        <v>26715</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.052502810288963829</v>
+        <v>0.064227068067449461</v>
       </c>
     </row>
     <row r="105">
@@ -2490,12 +2511,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>21031</v>
+        <v>15704</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.059590745690847081</v>
+        <v>0.062013689814543964</v>
       </c>
     </row>
     <row r="106">
@@ -2503,12 +2524,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>21840</v>
+        <v>17137</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.068111888111888105</v>
+        <v>0.064254385964912286</v>
       </c>
     </row>
     <row r="107">
@@ -2516,12 +2537,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>23469</v>
+        <v>19182</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.07082076448606546</v>
+        <v>0.052509754645856756</v>
       </c>
     </row>
     <row r="108">
@@ -2529,12 +2550,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>19558</v>
+        <v>21031</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.075705526807844495</v>
+        <v>0.059609360604385479</v>
       </c>
     </row>
     <row r="109">
@@ -2542,12 +2563,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>11613</v>
+        <v>21840</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.07664308770002061</v>
+        <v>0.068102363305831345</v>
       </c>
     </row>
     <row r="110">
@@ -2555,12 +2576,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>19740</v>
+        <v>23469</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.067857593738164371</v>
+        <v>0.070814387971007975</v>
       </c>
     </row>
     <row r="111">
@@ -2568,12 +2589,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>23480</v>
+        <v>19558</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.072968758401892778</v>
+        <v>0.075712111328549686</v>
       </c>
     </row>
     <row r="112">
@@ -2581,12 +2602,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>23091</v>
+        <v>11613</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.068611481316945555</v>
+        <v>0.076690696876072773</v>
       </c>
     </row>
     <row r="113">
@@ -2594,12 +2615,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>23947</v>
+        <v>19740</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.066622826846409924</v>
+        <v>0.067861877406729373</v>
       </c>
     </row>
     <row r="114">
@@ -2607,12 +2628,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>25438</v>
+        <v>23480</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.072344554121319501</v>
+        <v>0.072956989247311824</v>
       </c>
     </row>
     <row r="115">
@@ -2620,12 +2641,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>25175</v>
+        <v>23091</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.074917292163210136</v>
+        <v>0.068618255417880233</v>
       </c>
     </row>
     <row r="116">
@@ -2633,12 +2654,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>20426</v>
+        <v>23947</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.069559228650137736</v>
+        <v>0.066614613298265804</v>
       </c>
     </row>
     <row r="117">
@@ -2646,12 +2667,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>18738</v>
+        <v>25438</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.071886973180076627</v>
+        <v>0.072326248313090424</v>
       </c>
     </row>
     <row r="118">
@@ -2659,12 +2680,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25642</v>
+        <v>25175</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.076776165011459133</v>
+        <v>0.074938618652812872</v>
       </c>
     </row>
     <row r="119">
@@ -2672,12 +2693,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>23879</v>
+        <v>20426</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.078508568781843452</v>
+        <v>0.069581346051934292</v>
       </c>
     </row>
     <row r="120">
@@ -2685,12 +2706,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>22113</v>
+        <v>18738</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.07479949345715492</v>
+        <v>0.07185944082726925</v>
       </c>
     </row>
     <row r="121">
@@ -2698,12 +2719,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>26648</v>
+        <v>25642</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.084591114522043154</v>
+        <v>0.076765169236644865</v>
       </c>
     </row>
     <row r="122">
@@ -2711,12 +2732,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>25652</v>
+        <v>23879</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.078034789734420976</v>
+        <v>0.078465885404604196</v>
       </c>
     </row>
     <row r="123">
@@ -2724,12 +2745,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>19982</v>
+        <v>22113</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.07610738255033557</v>
+        <v>0.07475412603942426</v>
       </c>
     </row>
     <row r="124">
@@ -2737,12 +2758,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>21111</v>
+        <v>26648</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.080926246870787602</v>
+        <v>0.084654731457800517</v>
       </c>
     </row>
     <row r="125">
@@ -2750,12 +2771,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>24440</v>
+        <v>25652</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.069389839162624464</v>
+        <v>0.077974815587512111</v>
       </c>
     </row>
     <row r="126">
@@ -2763,12 +2784,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>25799</v>
+        <v>19982</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.080740080249665627</v>
+        <v>0.076076255258211767</v>
       </c>
     </row>
     <row r="127">
@@ -2776,12 +2797,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>28220</v>
+        <v>21111</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.084337811900191934</v>
+        <v>0.080849424567823958</v>
       </c>
     </row>
     <row r="128">
@@ -2789,12 +2810,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>22271</v>
+        <v>24440</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.07306258583480478</v>
+        <v>0.069375670018888155</v>
       </c>
     </row>
     <row r="129">
@@ -2802,12 +2823,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>23132</v>
+        <v>25799</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.087214546835683429</v>
+        <v>0.080750880634948952</v>
       </c>
     </row>
     <row r="130">
@@ -2815,12 +2836,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>23193</v>
+        <v>28220</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.078379384128756169</v>
+        <v>0.084289717115111504</v>
       </c>
     </row>
     <row r="131">
@@ -2828,12 +2849,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>18874</v>
+        <v>22271</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.096217407271391844</v>
+        <v>0.073087485288348367</v>
       </c>
     </row>
     <row r="132">
@@ -2841,12 +2862,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>27022</v>
+        <v>23132</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.092338202573280445</v>
+        <v>0.087210406380554495</v>
       </c>
     </row>
     <row r="133">
@@ -2854,12 +2875,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>24483</v>
+        <v>23193</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.091216968940778034</v>
+        <v>0.078375738406437509</v>
       </c>
     </row>
     <row r="134">
@@ -2867,12 +2888,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>22280</v>
+        <v>18874</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.095865952479055078</v>
+        <v>0.096222455403987411</v>
       </c>
     </row>
     <row r="135">
@@ -2880,12 +2901,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>23660</v>
+        <v>27022</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.093611153669373379</v>
+        <v>0.092320340458458258</v>
       </c>
     </row>
     <row r="136">
@@ -2893,12 +2914,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>18338</v>
+        <v>24483</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.085221585221585225</v>
+        <v>0.091261530234838018</v>
       </c>
     </row>
     <row r="137">
@@ -2906,12 +2927,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>14821</v>
+        <v>22280</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.088461062275597371</v>
+        <v>0.095783160111716503</v>
       </c>
     </row>
     <row r="138">
@@ -2919,12 +2940,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>17129</v>
+        <v>23660</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.092022452798094914</v>
+        <v>0.093532897425418884</v>
       </c>
     </row>
     <row r="139">
@@ -2932,12 +2953,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>18885</v>
+        <v>18338</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.084227497637182416</v>
+        <v>0.085358085358085353</v>
       </c>
     </row>
     <row r="140">
@@ -2945,12 +2966,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>16908</v>
+        <v>14821</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.08920468115595892</v>
+        <v>0.088466538723456944</v>
       </c>
     </row>
     <row r="141">
@@ -2958,12 +2979,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>20409</v>
+        <v>17129</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.091636502190893504</v>
+        <v>0.092061601293286818</v>
       </c>
     </row>
     <row r="142">
@@ -2971,12 +2992,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>21474</v>
+        <v>18885</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.10440947419302862</v>
+        <v>0.084246232552966691</v>
       </c>
     </row>
     <row r="143">
@@ -2984,12 +3005,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>21911</v>
+        <v>16908</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.083204400893931579</v>
+        <v>0.089225991399904447</v>
       </c>
     </row>
     <row r="144">
@@ -2997,12 +3018,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>18461</v>
+        <v>20409</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.095758218451749741</v>
+        <v>0.091572998031371061</v>
       </c>
     </row>
     <row r="145">
@@ -3010,12 +3031,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>16374</v>
+        <v>21474</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.087774569003237948</v>
+        <v>0.10444635377510471</v>
       </c>
     </row>
     <row r="146">
@@ -3023,12 +3044,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>17548</v>
+        <v>21911</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.081842472118959106</v>
+        <v>0.083271247635967674</v>
       </c>
     </row>
     <row r="147">
@@ -3036,12 +3057,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>20411</v>
+        <v>18461</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.094716718804310041</v>
+        <v>0.095669687814702919</v>
       </c>
     </row>
     <row r="148">
@@ -3049,12 +3070,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>19149</v>
+        <v>16374</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.098949567639719113</v>
+        <v>0.087854392719635979</v>
       </c>
     </row>
     <row r="149">
@@ -3062,12 +3083,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>21238</v>
+        <v>17548</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.096541691463333995</v>
+        <v>0.081856736187765067</v>
       </c>
     </row>
     <row r="150">
@@ -3075,12 +3096,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>18527</v>
+        <v>20411</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.077381723914452361</v>
+        <v>0.094700260642919198</v>
       </c>
     </row>
     <row r="151">
@@ -3088,12 +3109,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>15713</v>
+        <v>19149</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.08256201406886339</v>
+        <v>0.098961054036798418</v>
       </c>
     </row>
     <row r="152">
@@ -3101,12 +3122,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>11253</v>
+        <v>21238</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.090219324244220508</v>
+        <v>0.096554460683817206</v>
       </c>
     </row>
     <row r="153">
@@ -3114,12 +3135,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>18129</v>
+        <v>18527</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.084219256578451335</v>
+        <v>0.077381723914452361</v>
       </c>
     </row>
     <row r="154">
@@ -3127,12 +3148,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>15400</v>
+        <v>15713</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.094428152492668616</v>
+        <v>0.082518518518518519</v>
       </c>
     </row>
     <row r="155">
@@ -3140,12 +3161,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>24377</v>
+        <v>11253</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.095670191483280931</v>
+        <v>0.090424271154301961</v>
       </c>
     </row>
     <row r="156">
@@ -3153,12 +3174,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>21412</v>
+        <v>18129</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.085734614016364286</v>
+        <v>0.084193864475766947</v>
       </c>
     </row>
     <row r="157">
@@ -3166,12 +3187,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>17071</v>
+        <v>15400</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.082758158547209013</v>
+        <v>0.094320263832905829</v>
       </c>
     </row>
     <row r="158">
@@ -3179,12 +3200,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>13726</v>
+        <v>24377</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.080512546716497602</v>
+        <v>0.095642857142857141</v>
       </c>
     </row>
     <row r="159">
@@ -3192,12 +3213,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>12694</v>
+        <v>21412</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.085714285714285715</v>
       </c>
     </row>
     <row r="160">
@@ -3205,12 +3226,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>13541</v>
+        <v>17071</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.082567458275126834</v>
+        <v>0.082758158547209013</v>
       </c>
     </row>
     <row r="161">
@@ -3218,12 +3239,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>16049</v>
+        <v>13726</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.091694878628538506</v>
+        <v>0.080469583778014941</v>
       </c>
     </row>
     <row r="162">
@@ -3231,12 +3252,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>22126</v>
+        <v>12694</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.092497216035634738</v>
+        <v>0.090544986411099981</v>
       </c>
     </row>
     <row r="163">
@@ -3244,12 +3265,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>19471</v>
+        <v>13541</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.09843489843489843</v>
+        <v>0.082531050194752695</v>
       </c>
     </row>
     <row r="164">
@@ -3257,12 +3278,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>15356</v>
+        <v>16049</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.084585912172119068</v>
+        <v>0.091655266757865936</v>
       </c>
     </row>
     <row r="165">
@@ -3270,12 +3291,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>15719</v>
+        <v>22126</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.076511016777845164</v>
+        <v>0.09247790689583188</v>
       </c>
     </row>
     <row r="166">
@@ -3283,12 +3304,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>9326</v>
+        <v>19471</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.086917019987886132</v>
+        <v>0.09843489843489843</v>
       </c>
     </row>
     <row r="167">
@@ -3296,12 +3317,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>12929</v>
+        <v>15356</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.090213049267643147</v>
+        <v>0.084592145015105744</v>
       </c>
     </row>
     <row r="168">
@@ -3309,12 +3330,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>15790</v>
+        <v>15719</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.093557785691162187</v>
+        <v>0.076495553759094587</v>
       </c>
     </row>
     <row r="169">
@@ -3322,12 +3343,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>12921</v>
+        <v>9326</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.097808067784122307</v>
+        <v>0.086877554109278041</v>
       </c>
     </row>
     <row r="170">
@@ -3335,12 +3356,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>18746</v>
+        <v>12929</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.08633861825351187</v>
+        <v>0.090168025286973888</v>
       </c>
     </row>
     <row r="171">
@@ -3348,12 +3369,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>12966</v>
+        <v>15790</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.093527508090614886</v>
       </c>
     </row>
     <row r="172">
@@ -3361,12 +3382,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>12313</v>
+        <v>12921</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.078050369083803736</v>
+        <v>0.097808067784122307</v>
       </c>
     </row>
     <row r="173">
@@ -3374,12 +3395,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>4552</v>
+        <v>18746</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.078734742994670787</v>
+        <v>0.08633152620338426</v>
       </c>
     </row>
     <row r="174">
@@ -3387,12 +3408,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>13931</v>
+        <v>12966</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.081086818085332205</v>
+        <v>0.089438468705005505</v>
       </c>
     </row>
     <row r="175">
@@ -3400,12 +3421,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>11978</v>
+        <v>12313</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.08187645687645688</v>
+        <v>0.078050369083803736</v>
       </c>
     </row>
     <row r="176">
@@ -3413,12 +3434,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>16706</v>
+        <v>4552</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.099362497252143328</v>
+        <v>0.07856283307546845</v>
       </c>
     </row>
     <row r="177">
@@ -3426,12 +3447,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>10116</v>
+        <v>13931</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.089918256130790186</v>
+        <v>0.081078212883370471</v>
       </c>
     </row>
     <row r="178">
@@ -3439,12 +3460,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>11573</v>
+        <v>11978</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.081884409907722194</v>
       </c>
     </row>
     <row r="179">
@@ -3452,12 +3473,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>3571</v>
+        <v>16706</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.070648683365446371</v>
+        <v>0.099384344766930519</v>
       </c>
     </row>
     <row r="180">
@@ -3465,12 +3486,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>7748</v>
+        <v>10116</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.076412590064467198</v>
+        <v>0.089926423835044053</v>
       </c>
     </row>
     <row r="181">
@@ -3478,12 +3499,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>7154</v>
+        <v>11573</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.081908726029433623</v>
+        <v>0.076506024096385544</v>
       </c>
     </row>
     <row r="182">
@@ -3491,12 +3512,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>9046</v>
+        <v>3571</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.087705559906029754</v>
+        <v>0.070603337612323486</v>
       </c>
     </row>
     <row r="183">
@@ -3504,12 +3525,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>11829</v>
+        <v>7748</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.097255949490043708</v>
+        <v>0.076427081357860804</v>
       </c>
     </row>
     <row r="184">
@@ -3517,12 +3538,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>10185</v>
+        <v>7154</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.082893745290128107</v>
+        <v>0.081996434937611412</v>
       </c>
     </row>
     <row r="185">
@@ -3530,12 +3551,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>12313</v>
+        <v>9046</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.073151217281975087</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="186">
@@ -3543,12 +3564,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>8647</v>
+        <v>11829</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.063018242122719739</v>
+        <v>0.097244142284812429</v>
       </c>
     </row>
     <row r="187">
@@ -3556,12 +3577,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>8397</v>
+        <v>10185</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.055911473500291207</v>
+        <v>0.082788944723618085</v>
       </c>
     </row>
     <row r="188">
@@ -3569,12 +3590,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>9508</v>
+        <v>12313</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.060979365568216815</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="189">
@@ -3582,12 +3603,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>10708</v>
+        <v>8647</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.062995026708417751</v>
       </c>
     </row>
     <row r="190">
@@ -3595,12 +3616,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>13923</v>
+        <v>8397</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.068512353250394259</v>
+        <v>0.055922330097087379</v>
       </c>
     </row>
     <row r="191">
@@ -3608,12 +3629,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>9317</v>
+        <v>9508</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.067103109656301146</v>
+        <v>0.060969976905311779</v>
       </c>
     </row>
     <row r="192">
@@ -3621,12 +3642,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>7919</v>
+        <v>10708</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.071903911702645679</v>
+        <v>0.07079025757841248</v>
       </c>
     </row>
     <row r="193">
@@ -3634,12 +3655,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>6686</v>
+        <v>13923</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.054336989032901295</v>
+        <v>0.068512353250394259</v>
       </c>
     </row>
     <row r="194">
@@ -3647,12 +3668,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>2741</v>
+        <v>9317</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.041620626151012891</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="195">
@@ -3660,12 +3681,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>5318</v>
+        <v>7919</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.064431137724550905</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="196">
@@ -3673,12 +3694,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>7457</v>
+        <v>6686</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.082508250825082508</v>
+        <v>0.054336989032901295</v>
       </c>
     </row>
     <row r="197">
@@ -3686,12 +3707,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>7917</v>
+        <v>2741</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.072498217256952699</v>
+        <v>0.041267501842299187</v>
       </c>
     </row>
     <row r="198">
@@ -3699,12 +3720,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>6871</v>
+        <v>5318</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.083057942278034813</v>
+        <v>0.064477468839884949</v>
       </c>
     </row>
     <row r="199">
@@ -3712,12 +3733,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>9330</v>
+        <v>7457</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.080554580554580549</v>
+        <v>0.082527705729780715</v>
       </c>
     </row>
     <row r="200">
@@ -3725,12 +3746,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>5972</v>
+        <v>7917</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.071381142098273578</v>
+        <v>0.07251545411317166</v>
       </c>
     </row>
     <row r="201">
@@ -3738,12 +3759,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>2701</v>
+        <v>6871</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.064839219820769636</v>
+        <v>0.083076245041868668</v>
       </c>
     </row>
     <row r="202">
@@ -3751,12 +3772,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>5202</v>
+        <v>9330</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.063245033112582782</v>
+        <v>0.080554580554580549</v>
       </c>
     </row>
     <row r="203">
@@ -3764,12 +3785,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>5961</v>
+        <v>5972</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.077615008995116933</v>
+        <v>0.071381142098273578</v>
       </c>
     </row>
     <row r="204">
@@ -3777,12 +3798,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>5490</v>
+        <v>2701</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.070293563156477237</v>
+        <v>0.064839219820769636</v>
       </c>
     </row>
     <row r="205">
@@ -3790,12 +3811,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>6598</v>
+        <v>5202</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.073512906846240178</v>
+        <v>0.063265982113282548</v>
       </c>
     </row>
     <row r="206">
@@ -3803,12 +3824,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>5318</v>
+        <v>5961</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.097416020671834622</v>
+        <v>0.077595066803699903</v>
       </c>
     </row>
     <row r="207">
@@ -3816,12 +3837,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>3751</v>
+        <v>5490</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.080487804878048783</v>
+        <v>0.070043103448275856</v>
       </c>
     </row>
     <row r="208">
@@ -3829,12 +3850,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>2134</v>
+        <v>6598</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.073793490460157124</v>
       </c>
     </row>
     <row r="209">
@@ -3842,12 +3863,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>2985</v>
+        <v>5318</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.12921348314606743</v>
+        <v>0.097416020671834622</v>
       </c>
     </row>
     <row r="210">
@@ -3855,12 +3876,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>5298</v>
+        <v>3751</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.087874659400544966</v>
+        <v>0.080117244748412308</v>
       </c>
     </row>
     <row r="211">
@@ -3868,12 +3889,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>4788</v>
+        <v>2134</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="212">
@@ -3881,12 +3902,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>6406</v>
+        <v>2985</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.11584089323098395</v>
+        <v>0.12926189584113901</v>
       </c>
     </row>
     <row r="213">
@@ -3894,12 +3915,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>7796</v>
+        <v>5298</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.10538486950776346</v>
+        <v>0.087874659400544966</v>
       </c>
     </row>
     <row r="214">
@@ -3907,12 +3928,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>4520</v>
+        <v>4788</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.10854893138357705</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="215">
@@ -3920,12 +3941,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>773</v>
+        <v>6406</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.11584089323098395</v>
       </c>
     </row>
     <row r="216">
@@ -3933,12 +3954,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>2592</v>
+        <v>7796</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.12836624775583483</v>
+        <v>0.10538486950776346</v>
       </c>
     </row>
     <row r="217">
@@ -3946,12 +3967,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>3600</v>
+        <v>4520</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.13947895791583168</v>
+        <v>0.10854893138357705</v>
       </c>
     </row>
     <row r="218">
@@ -3959,12 +3980,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>2472</v>
+        <v>773</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.11855203619909502</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="219">
@@ -3972,12 +3993,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>3576</v>
+        <v>2592</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.15919282511210761</v>
+        <v>0.12842388863942525</v>
       </c>
     </row>
     <row r="220">
@@ -3985,12 +4006,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>3215</v>
+        <v>3600</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.12741935483870967</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="221">
@@ -3998,12 +4019,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>1968</v>
+        <v>2472</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.11141304347826086</v>
+        <v>0.11855203619909502</v>
       </c>
     </row>
     <row r="222">
@@ -4011,12 +4032,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>1298</v>
+        <v>3576</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="223">
@@ -4024,12 +4045,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>7999</v>
+        <v>3215</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.16261998870694522</v>
+        <v>0.12741935483870967</v>
       </c>
     </row>
     <row r="224">
@@ -4037,12 +4058,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>2875</v>
+        <v>1968</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.11283185840707964</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="225">
@@ -4050,12 +4071,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>10211</v>
+        <v>1298</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.083985179086043638</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="226">
@@ -4063,12 +4084,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>5262</v>
+        <v>7999</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.091735179575941156</v>
+        <v>0.16271186440677965</v>
       </c>
     </row>
     <row r="227">
@@ -4076,12 +4097,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2431</v>
+        <v>2875</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.0901394422310757</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="228">
@@ -4089,12 +4110,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>913</v>
+        <v>10211</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.084019769357495888</v>
       </c>
     </row>
     <row r="229">
@@ -4102,12 +4123,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>852</v>
+        <v>5262</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.078694817658349334</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="230">
@@ -4115,12 +4136,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.081988804741521232</v>
+        <v>0.090229312063808575</v>
       </c>
     </row>
     <row r="231">
@@ -4128,12 +4149,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>7629</v>
+        <v>913</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.084626755358462674</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="232">
@@ -4141,12 +4162,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>3404</v>
+        <v>852</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.080656185919343815</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="233">
@@ -4154,12 +4175,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>2883</v>
+        <v>1343</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.068027210884353748</v>
+        <v>0.081988804741521232</v>
       </c>
     </row>
     <row r="234">
@@ -4167,12 +4188,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>3435</v>
+        <v>7629</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.074540503744043571</v>
+        <v>0.084626755358462674</v>
       </c>
     </row>
     <row r="235">
@@ -4180,40 +4201,46 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2787</v>
+        <v>3404</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="5"/>
+      <c r="E235" s="5">
+        <v>0.08068376068376068</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2082</v>
+        <v>2883</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="5"/>
+      <c r="E236" s="5">
+        <v>0.068027210884353748</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>1638</v>
+        <v>3435</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="5"/>
+      <c r="E237" s="5">
+        <v>0.074540503744043571</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2910</v>
+        <v>2787</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -4224,7 +4251,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2667</v>
+        <v>2082</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -4235,7 +4262,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2793</v>
+        <v>1638</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -4246,7 +4273,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2446</v>
+        <v>2910</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -4257,7 +4284,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>529</v>
+        <v>2667</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -4268,7 +4295,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2163</v>
+        <v>2793</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -4279,7 +4306,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>1389</v>
+        <v>2446</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -4290,7 +4317,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2192</v>
+        <v>529</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4301,7 +4328,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>943</v>
+        <v>2163</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4312,7 +4339,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1696</v>
+        <v>1389</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4323,7 +4350,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>205</v>
+        <v>2192</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4334,7 +4361,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>295</v>
+        <v>943</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4345,7 +4372,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>936</v>
+        <v>1696</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4355,7 +4382,9 @@
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B251" s="4"/>
+      <c r="B251" s="4">
+        <v>205</v>
+      </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5"/>
@@ -4364,7 +4393,9 @@
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B252" s="4"/>
+      <c r="B252" s="4">
+        <v>295</v>
+      </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5"/>
@@ -4373,7 +4404,9 @@
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B253" s="4"/>
+      <c r="B253" s="4">
+        <v>936</v>
+      </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5"/>
@@ -4477,6 +4510,33 @@
       <c r="D264" s="4"/>
       <c r="E264" s="5"/>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+  <si>
+    <t>11/23/2020</t>
+  </si>
   <si>
     <t>11/22/2020</t>
   </si>
@@ -909,24 +912,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E268"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -943,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>43862</v>
+        <v>32911</v>
       </c>
       <c r="C3" s="4">
-        <v>41348</v>
+        <v>31654</v>
       </c>
       <c r="D3" s="4">
-        <v>2514</v>
+        <v>1257</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -958,16 +961,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>55326</v>
+        <v>46049</v>
       </c>
       <c r="C4" s="4">
-        <v>51292</v>
+        <v>43467</v>
       </c>
       <c r="D4" s="4">
-        <v>4034</v>
+        <v>2582</v>
       </c>
       <c r="E4" s="5">
-        <v>0.070969145952219745</v>
+        <v>0.065869746988324915</v>
       </c>
     </row>
     <row r="5">
@@ -975,16 +978,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>52581</v>
+        <v>55551</v>
       </c>
       <c r="C5" s="4">
-        <v>49233</v>
+        <v>51524</v>
       </c>
       <c r="D5" s="4">
-        <v>3348</v>
+        <v>4027</v>
       </c>
       <c r="E5" s="5">
-        <v>0.073079775399936431</v>
+        <v>0.072515503077732774</v>
       </c>
     </row>
     <row r="6">
@@ -992,16 +995,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>49210</v>
+        <v>52808</v>
       </c>
       <c r="C6" s="4">
-        <v>45152</v>
+        <v>49466</v>
       </c>
       <c r="D6" s="4">
-        <v>4058</v>
+        <v>3342</v>
       </c>
       <c r="E6" s="5">
-        <v>0.078360101437024515</v>
+        <v>0.073525064403057561</v>
       </c>
     </row>
     <row r="7">
@@ -1009,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>34577</v>
+        <v>49614</v>
       </c>
       <c r="C7" s="4">
-        <v>30501</v>
+        <v>45557</v>
       </c>
       <c r="D7" s="4">
-        <v>4076</v>
+        <v>4057</v>
       </c>
       <c r="E7" s="5">
-        <v>0.078158618964223173</v>
+        <v>0.0786178107606679</v>
       </c>
     </row>
     <row r="8">
@@ -1026,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>29512</v>
+        <v>34599</v>
       </c>
       <c r="C8" s="4">
-        <v>28632</v>
+        <v>30557</v>
       </c>
       <c r="D8" s="4">
-        <v>880</v>
+        <v>4042</v>
       </c>
       <c r="E8" s="5">
-        <v>0.093683833349620507</v>
+        <v>0.077956386292834898</v>
       </c>
     </row>
     <row r="9">
@@ -1043,16 +1046,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>35582</v>
+        <v>29492</v>
       </c>
       <c r="C9" s="4">
-        <v>34658</v>
+        <v>28632</v>
       </c>
       <c r="D9" s="4">
-        <v>924</v>
+        <v>860</v>
       </c>
       <c r="E9" s="5">
-        <v>0.087565117111385052</v>
+        <v>0.093517223432976609</v>
       </c>
     </row>
     <row r="10">
@@ -1060,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>40844</v>
+        <v>35584</v>
       </c>
       <c r="C10" s="4">
-        <v>38306</v>
+        <v>34666</v>
       </c>
       <c r="D10" s="4">
-        <v>2538</v>
+        <v>918</v>
       </c>
       <c r="E10" s="5">
-        <v>0.080563207835935111</v>
+        <v>0.087670470359031444</v>
       </c>
     </row>
     <row r="11">
@@ -1077,16 +1080,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>48223</v>
+        <v>40849</v>
       </c>
       <c r="C11" s="4">
-        <v>44455</v>
+        <v>38310</v>
       </c>
       <c r="D11" s="4">
-        <v>3768</v>
+        <v>2539</v>
       </c>
       <c r="E11" s="5">
-        <v>0.077305202054029923</v>
+        <v>0.080555810608147399</v>
       </c>
     </row>
     <row r="12">
@@ -1094,16 +1097,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>46422</v>
+        <v>48222</v>
       </c>
       <c r="C12" s="4">
-        <v>43251</v>
+        <v>44454</v>
       </c>
       <c r="D12" s="4">
-        <v>3171</v>
+        <v>3768</v>
       </c>
       <c r="E12" s="5">
-        <v>0.078078453951485716</v>
+        <v>0.077258010494585236</v>
       </c>
     </row>
     <row r="13">
@@ -1111,16 +1114,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>41210</v>
+        <v>46422</v>
       </c>
       <c r="C13" s="4">
-        <v>37692</v>
+        <v>43251</v>
       </c>
       <c r="D13" s="4">
-        <v>3518</v>
+        <v>3171</v>
       </c>
       <c r="E13" s="5">
-        <v>0.07606029637199796</v>
+        <v>0.078097622027534425</v>
       </c>
     </row>
     <row r="14">
@@ -1128,16 +1131,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>29174</v>
+        <v>41211</v>
       </c>
       <c r="C14" s="4">
-        <v>25716</v>
+        <v>37693</v>
       </c>
       <c r="D14" s="4">
-        <v>3458</v>
+        <v>3518</v>
       </c>
       <c r="E14" s="5">
-        <v>0.077564733823784968</v>
+        <v>0.076042810799765007</v>
       </c>
     </row>
     <row r="15">
@@ -1145,16 +1148,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>26349</v>
+        <v>29173</v>
       </c>
       <c r="C15" s="4">
-        <v>25611</v>
+        <v>25715</v>
       </c>
       <c r="D15" s="4">
-        <v>738</v>
+        <v>3458</v>
       </c>
       <c r="E15" s="5">
-        <v>0.080940157227659237</v>
+        <v>0.077562487328757201</v>
       </c>
     </row>
     <row r="16">
@@ -1162,16 +1165,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>34447</v>
+        <v>26350</v>
       </c>
       <c r="C16" s="4">
-        <v>33678</v>
+        <v>25612</v>
       </c>
       <c r="D16" s="4">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="E16" s="5">
-        <v>0.075296987217128145</v>
+        <v>0.080930419089633041</v>
       </c>
     </row>
     <row r="17">
@@ -1179,16 +1182,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>40048</v>
+        <v>34446</v>
       </c>
       <c r="C17" s="4">
-        <v>38092</v>
+        <v>33677</v>
       </c>
       <c r="D17" s="4">
-        <v>1956</v>
+        <v>769</v>
       </c>
       <c r="E17" s="5">
-        <v>0.065472067459719924</v>
+        <v>0.075293586269196022</v>
       </c>
     </row>
     <row r="18">
@@ -1196,16 +1199,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>44844</v>
+        <v>40048</v>
       </c>
       <c r="C18" s="4">
-        <v>41767</v>
+        <v>38092</v>
       </c>
       <c r="D18" s="4">
-        <v>3077</v>
+        <v>1956</v>
       </c>
       <c r="E18" s="5">
-        <v>0.058834834175269052</v>
+        <v>0.065476011203806889</v>
       </c>
     </row>
     <row r="19">
@@ -1213,16 +1216,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>47566</v>
+        <v>44845</v>
       </c>
       <c r="C19" s="4">
-        <v>45099</v>
+        <v>41768</v>
       </c>
       <c r="D19" s="4">
-        <v>2467</v>
+        <v>3077</v>
       </c>
       <c r="E19" s="5">
-        <v>0.066507765646624639</v>
+        <v>0.058834834175269052</v>
       </c>
     </row>
     <row r="20">
@@ -1230,16 +1233,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>43258</v>
+        <v>47565</v>
       </c>
       <c r="C20" s="4">
-        <v>40495</v>
+        <v>45098</v>
       </c>
       <c r="D20" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E20" s="5">
-        <v>0.064570466030320045</v>
+        <v>0.066504356740133261</v>
       </c>
     </row>
     <row r="21">
@@ -1247,16 +1250,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>25511</v>
+        <v>43258</v>
       </c>
       <c r="C21" s="4">
-        <v>22372</v>
+        <v>40495</v>
       </c>
       <c r="D21" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E21" s="5">
-        <v>0.065562267374458472</v>
+        <v>0.064572042380743128</v>
       </c>
     </row>
     <row r="22">
@@ -1264,16 +1267,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C22" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D22" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E22" s="5">
-        <v>0.074520321848566121</v>
+        <v>0.065562267374458472</v>
       </c>
     </row>
     <row r="23">
@@ -1281,16 +1284,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>33478</v>
+        <v>26650</v>
       </c>
       <c r="C23" s="4">
-        <v>32657</v>
+        <v>26087</v>
       </c>
       <c r="D23" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E23" s="5">
-        <v>0.067908321639664926</v>
+        <v>0.074517247070473677</v>
       </c>
     </row>
     <row r="24">
@@ -1298,16 +1301,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>38983</v>
+        <v>33478</v>
       </c>
       <c r="C24" s="4">
-        <v>37123</v>
+        <v>32657</v>
       </c>
       <c r="D24" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E24" s="5">
-        <v>0.063451696963988571</v>
+        <v>0.067908321639664926</v>
       </c>
     </row>
     <row r="25">
@@ -1315,16 +1318,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>45025</v>
+        <v>38983</v>
       </c>
       <c r="C25" s="4">
-        <v>42020</v>
+        <v>37123</v>
       </c>
       <c r="D25" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E25" s="5">
-        <v>0.059602076124567471</v>
+        <v>0.063455681497064279</v>
       </c>
     </row>
     <row r="26">
@@ -1332,16 +1335,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>45534</v>
+        <v>45025</v>
       </c>
       <c r="C26" s="4">
-        <v>43057</v>
+        <v>42020</v>
       </c>
       <c r="D26" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E26" s="5">
-        <v>0.060453884361021927</v>
+        <v>0.059600357544476804</v>
       </c>
     </row>
     <row r="27">
@@ -1349,16 +1352,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>38792</v>
+        <v>45534</v>
       </c>
       <c r="C27" s="4">
-        <v>36628</v>
+        <v>43057</v>
       </c>
       <c r="D27" s="4">
-        <v>2164</v>
+        <v>2477</v>
       </c>
       <c r="E27" s="5">
-        <v>0.059421197091539459</v>
+        <v>0.060453884361021927</v>
       </c>
     </row>
     <row r="28">
@@ -1366,16 +1369,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>23936</v>
+        <v>38792</v>
       </c>
       <c r="C28" s="4">
-        <v>21590</v>
+        <v>36628</v>
       </c>
       <c r="D28" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E28" s="5">
-        <v>0.064327485380116955</v>
+        <v>0.059421197091539459</v>
       </c>
     </row>
     <row r="29">
@@ -1383,16 +1386,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>25467</v>
+        <v>23936</v>
       </c>
       <c r="C29" s="4">
-        <v>25050</v>
+        <v>21590</v>
       </c>
       <c r="D29" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E29" s="5">
-        <v>0.070282800185442751</v>
+        <v>0.06432962286094035</v>
       </c>
     </row>
     <row r="30">
@@ -1400,16 +1403,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>30472</v>
+        <v>25467</v>
       </c>
       <c r="C30" s="4">
-        <v>29989</v>
+        <v>25050</v>
       </c>
       <c r="D30" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E30" s="5">
-        <v>0.075237976472544377</v>
+        <v>0.070286058695349804</v>
       </c>
     </row>
     <row r="31">
@@ -1417,16 +1420,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>37763</v>
+        <v>30472</v>
       </c>
       <c r="C31" s="4">
-        <v>36578</v>
+        <v>29989</v>
       </c>
       <c r="D31" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E31" s="5">
-        <v>0.062135716556572115</v>
+        <v>0.075196408529741868</v>
       </c>
     </row>
     <row r="32">
@@ -1434,16 +1437,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>40617</v>
+        <v>37763</v>
       </c>
       <c r="C32" s="4">
-        <v>38707</v>
+        <v>36578</v>
       </c>
       <c r="D32" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E32" s="5">
-        <v>0.063896403927409792</v>
+        <v>0.0621181622347</v>
       </c>
     </row>
     <row r="33">
@@ -1451,16 +1454,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>46379</v>
+        <v>40617</v>
       </c>
       <c r="C33" s="4">
-        <v>44987</v>
+        <v>38707</v>
       </c>
       <c r="D33" s="4">
-        <v>1392</v>
+        <v>1910</v>
       </c>
       <c r="E33" s="5">
-        <v>0.063713961047541026</v>
+        <v>0.063896403927409792</v>
       </c>
     </row>
     <row r="34">
@@ -1468,16 +1471,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>36468</v>
+        <v>46379</v>
       </c>
       <c r="C34" s="4">
-        <v>34724</v>
+        <v>44987</v>
       </c>
       <c r="D34" s="4">
-        <v>1744</v>
+        <v>1392</v>
       </c>
       <c r="E34" s="5">
-        <v>0.059049704624159705</v>
+        <v>0.063710593768992949</v>
       </c>
     </row>
     <row r="35">
@@ -1485,16 +1488,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>18358</v>
+        <v>36468</v>
       </c>
       <c r="C35" s="4">
-        <v>16519</v>
+        <v>34724</v>
       </c>
       <c r="D35" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E35" s="5">
-        <v>0.061748432312799702</v>
+        <v>0.059049704624159705</v>
       </c>
     </row>
     <row r="36">
@@ -1502,16 +1505,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>23352</v>
+        <v>18358</v>
       </c>
       <c r="C36" s="4">
-        <v>23016</v>
+        <v>16519</v>
       </c>
       <c r="D36" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E36" s="5">
-        <v>0.077029202115428838</v>
+        <v>0.061746154697355317</v>
       </c>
     </row>
     <row r="37">
@@ -1519,16 +1522,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>32965</v>
+        <v>23352</v>
       </c>
       <c r="C37" s="4">
-        <v>32573</v>
+        <v>23016</v>
       </c>
       <c r="D37" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E37" s="5">
-        <v>0.073976037893563662</v>
+        <v>0.077015920455198575</v>
       </c>
     </row>
     <row r="38">
@@ -1536,16 +1539,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>34490</v>
+        <v>32965</v>
       </c>
       <c r="C38" s="4">
-        <v>33615</v>
+        <v>32573</v>
       </c>
       <c r="D38" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E38" s="5">
-        <v>0.05865712338104976</v>
+        <v>0.073979473366460782</v>
       </c>
     </row>
     <row r="39">
@@ -1553,16 +1556,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>41551</v>
+        <v>34490</v>
       </c>
       <c r="C39" s="4">
-        <v>40056</v>
+        <v>33615</v>
       </c>
       <c r="D39" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E39" s="5">
-        <v>0.061096786365637382</v>
+        <v>0.058659122669484302</v>
       </c>
     </row>
     <row r="40">
@@ -1570,16 +1573,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>42279</v>
+        <v>41551</v>
       </c>
       <c r="C40" s="4">
-        <v>41160</v>
+        <v>40056</v>
       </c>
       <c r="D40" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E40" s="5">
-        <v>0.06553829078801332</v>
+        <v>0.061096786365637382</v>
       </c>
     </row>
     <row r="41">
@@ -1587,16 +1590,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>34255</v>
+        <v>42279</v>
       </c>
       <c r="C41" s="4">
-        <v>32806</v>
+        <v>41160</v>
       </c>
       <c r="D41" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E41" s="5">
-        <v>0.060675568662789107</v>
+        <v>0.065540109326007942</v>
       </c>
     </row>
     <row r="42">
@@ -1604,16 +1607,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>21624</v>
+        <v>34255</v>
       </c>
       <c r="C42" s="4">
-        <v>20492</v>
+        <v>32806</v>
       </c>
       <c r="D42" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E42" s="5">
-        <v>0.066756777051888566</v>
+        <v>0.060672255140212433</v>
       </c>
     </row>
     <row r="43">
@@ -1621,16 +1624,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>21602</v>
+        <v>21624</v>
       </c>
       <c r="C43" s="4">
-        <v>21324</v>
+        <v>20492</v>
       </c>
       <c r="D43" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E43" s="5">
-        <v>0.067767490693900923</v>
+        <v>0.066749258550137025</v>
       </c>
     </row>
     <row r="44">
@@ -1638,16 +1641,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>32574</v>
+        <v>21602</v>
       </c>
       <c r="C44" s="4">
-        <v>32235</v>
+        <v>21324</v>
       </c>
       <c r="D44" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E44" s="5">
-        <v>0.070186208307755266</v>
+        <v>0.067761023096010689</v>
       </c>
     </row>
     <row r="45">
@@ -1655,16 +1658,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>37220</v>
+        <v>32574</v>
       </c>
       <c r="C45" s="4">
-        <v>36213</v>
+        <v>32235</v>
       </c>
       <c r="D45" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E45" s="5">
-        <v>0.056440192048633896</v>
+        <v>0.07018261803672822</v>
       </c>
     </row>
     <row r="46">
@@ -1672,16 +1675,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>42410</v>
+        <v>37220</v>
       </c>
       <c r="C46" s="4">
-        <v>41135</v>
+        <v>36213</v>
       </c>
       <c r="D46" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E46" s="5">
-        <v>0.055528184321112881</v>
+        <v>0.05644994126995094</v>
       </c>
     </row>
     <row r="47">
@@ -1689,16 +1692,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>40914</v>
+        <v>42410</v>
       </c>
       <c r="C47" s="4">
-        <v>40019</v>
+        <v>41135</v>
       </c>
       <c r="D47" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E47" s="5">
-        <v>0.050190358732371709</v>
+        <v>0.055526575088390422</v>
       </c>
     </row>
     <row r="48">
@@ -1706,16 +1709,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>34440</v>
+        <v>40914</v>
       </c>
       <c r="C48" s="4">
-        <v>33418</v>
+        <v>40019</v>
       </c>
       <c r="D48" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E48" s="5">
-        <v>0.057437366588023821</v>
+        <v>0.05019305019305019</v>
       </c>
     </row>
     <row r="49">
@@ -1723,16 +1726,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>17757</v>
+        <v>34440</v>
       </c>
       <c r="C49" s="4">
-        <v>16842</v>
+        <v>33418</v>
       </c>
       <c r="D49" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E49" s="5">
-        <v>0.056913025416367689</v>
+        <v>0.057440593225099715</v>
       </c>
     </row>
     <row r="50">
@@ -1740,16 +1743,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>18036</v>
+        <v>17757</v>
       </c>
       <c r="C50" s="4">
-        <v>17783</v>
+        <v>16842</v>
       </c>
       <c r="D50" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E50" s="5">
-        <v>0.064790818215475748</v>
+        <v>0.056908727011819794</v>
       </c>
     </row>
     <row r="51">
@@ -1757,16 +1760,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>26990</v>
+        <v>18036</v>
       </c>
       <c r="C51" s="4">
-        <v>26697</v>
+        <v>17783</v>
       </c>
       <c r="D51" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E51" s="5">
-        <v>0.078841048135749742</v>
+        <v>0.064786820509656326</v>
       </c>
     </row>
     <row r="52">
@@ -1774,16 +1777,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>32471</v>
+        <v>26990</v>
       </c>
       <c r="C52" s="4">
-        <v>31836</v>
+        <v>26697</v>
       </c>
       <c r="D52" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E52" s="5">
-        <v>0.062094730965774898</v>
+        <v>0.078836497951174464</v>
       </c>
     </row>
     <row r="53">
@@ -1791,16 +1794,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>36028</v>
+        <v>32471</v>
       </c>
       <c r="C53" s="4">
-        <v>35411</v>
+        <v>31836</v>
       </c>
       <c r="D53" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E53" s="5">
-        <v>0.061203706846804033</v>
+        <v>0.062092064582617658</v>
       </c>
     </row>
     <row r="54">
@@ -1808,16 +1811,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>40621</v>
+        <v>36028</v>
       </c>
       <c r="C54" s="4">
-        <v>39873</v>
+        <v>35411</v>
       </c>
       <c r="D54" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E54" s="5">
-        <v>0.054753218560617482</v>
+        <v>0.06120578450675538</v>
       </c>
     </row>
     <row r="55">
@@ -1825,16 +1828,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>29214</v>
+        <v>40621</v>
       </c>
       <c r="C55" s="4">
-        <v>28550</v>
+        <v>39873</v>
       </c>
       <c r="D55" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E55" s="5">
-        <v>0.054477214799876758</v>
+        <v>0.054759822693966169</v>
       </c>
     </row>
     <row r="56">
@@ -1842,16 +1845,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>14197</v>
+        <v>29214</v>
       </c>
       <c r="C56" s="4">
-        <v>13652</v>
+        <v>28550</v>
       </c>
       <c r="D56" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E56" s="5">
-        <v>0.058146608536956301</v>
+        <v>0.054474163282453435</v>
       </c>
     </row>
     <row r="57">
@@ -1859,16 +1862,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>13895</v>
+        <v>14197</v>
       </c>
       <c r="C57" s="4">
-        <v>13783</v>
+        <v>13652</v>
       </c>
       <c r="D57" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E57" s="5">
-        <v>0.06666231392008358</v>
+        <v>0.058134820070957931</v>
       </c>
     </row>
     <row r="58">
@@ -1876,16 +1879,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>26001</v>
+        <v>13895</v>
       </c>
       <c r="C58" s="4">
-        <v>25904</v>
+        <v>13783</v>
       </c>
       <c r="D58" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E58" s="5">
-        <v>0.059944911568570597</v>
+        <v>0.066657961741855454</v>
       </c>
     </row>
     <row r="59">
@@ -1893,16 +1896,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>31552</v>
+        <v>26001</v>
       </c>
       <c r="C59" s="4">
-        <v>31221</v>
+        <v>25904</v>
       </c>
       <c r="D59" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5">
-        <v>0.053150684931506847</v>
+        <v>0.059927536231884057</v>
       </c>
     </row>
     <row r="60">
@@ -1910,16 +1913,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>36113</v>
+        <v>31552</v>
       </c>
       <c r="C60" s="4">
-        <v>35782</v>
+        <v>31221</v>
       </c>
       <c r="D60" s="4">
         <v>331</v>
       </c>
       <c r="E60" s="5">
-        <v>0.049591578659557746</v>
+        <v>0.053155165872781691</v>
       </c>
     </row>
     <row r="61">
@@ -1927,16 +1930,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>38427</v>
+        <v>36113</v>
       </c>
       <c r="C61" s="4">
-        <v>38063</v>
+        <v>35782</v>
       </c>
       <c r="D61" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E61" s="5">
-        <v>0.045734177595054465</v>
+        <v>0.049594968725433231</v>
       </c>
     </row>
     <row r="62">
@@ -1944,16 +1947,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>28541</v>
+        <v>38427</v>
       </c>
       <c r="C62" s="4">
-        <v>28167</v>
+        <v>38063</v>
       </c>
       <c r="D62" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E62" s="5">
-        <v>0.049080860266730746</v>
+        <v>0.04573692266138471</v>
       </c>
     </row>
     <row r="63">
@@ -1961,16 +1964,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>12621</v>
+        <v>28541</v>
       </c>
       <c r="C63" s="4">
-        <v>12306</v>
+        <v>28167</v>
       </c>
       <c r="D63" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E63" s="5">
-        <v>0.048554685576402225</v>
+        <v>0.049080860266730746</v>
       </c>
     </row>
     <row r="64">
@@ -1978,12 +1981,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+        <v>12621</v>
+      </c>
+      <c r="C64" s="4">
+        <v>12306</v>
+      </c>
+      <c r="D64" s="4">
+        <v>315</v>
+      </c>
       <c r="E64" s="5">
-        <v>0.053986151112200502</v>
+        <v>0.048554685576402225</v>
       </c>
     </row>
     <row r="65">
@@ -1991,12 +1998,12 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5">
-        <v>0.05280841891720553</v>
+        <v>0.053982843137254904</v>
       </c>
     </row>
     <row r="66">
@@ -2004,12 +2011,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5">
-        <v>0.052978616237007191</v>
+        <v>0.052795031055900624</v>
       </c>
     </row>
     <row r="67">
@@ -2017,12 +2024,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5">
-        <v>0.046133738387085378</v>
+        <v>0.052981042219983517</v>
       </c>
     </row>
     <row r="68">
@@ -2030,12 +2037,12 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5">
-        <v>0.047237284188816071</v>
+        <v>0.046192965108066114</v>
       </c>
     </row>
     <row r="69">
@@ -2043,12 +2050,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5">
-        <v>0.047552580655394472</v>
+        <v>0.047230999501080992</v>
       </c>
     </row>
     <row r="70">
@@ -2056,12 +2063,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5">
-        <v>0.057048998288067365</v>
+        <v>0.047552580655394472</v>
       </c>
     </row>
     <row r="71">
@@ -2069,12 +2076,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>0.057146129180027483</v>
+        <v>0.057046358841491625</v>
       </c>
     </row>
     <row r="72">
@@ -2082,12 +2089,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.049540868382269586</v>
+        <v>0.057136314192477243</v>
       </c>
     </row>
     <row r="73">
@@ -2095,12 +2102,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.047605115773635374</v>
+        <v>0.049538060420563398</v>
       </c>
     </row>
     <row r="74">
@@ -2108,12 +2115,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.049837982530290224</v>
+        <v>0.04760312617545033</v>
       </c>
     </row>
     <row r="75">
@@ -2121,12 +2128,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.050221705085065571</v>
+        <v>0.049827452637509685</v>
       </c>
     </row>
     <row r="76">
@@ -2134,12 +2141,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.051531723800631361</v>
+        <v>0.050220125786163521</v>
       </c>
     </row>
     <row r="77">
@@ -2147,12 +2154,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.064381658175081055</v>
+        <v>0.051531723800631361</v>
       </c>
     </row>
     <row r="78">
@@ -2160,12 +2167,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.070890677746039993</v>
+        <v>0.064381658175081055</v>
       </c>
     </row>
     <row r="79">
@@ -2173,12 +2180,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.059132809832707411</v>
+        <v>0.070884542149904792</v>
       </c>
     </row>
     <row r="80">
@@ -2186,12 +2193,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.056609932385171369</v>
+        <v>0.05912877236105421</v>
       </c>
     </row>
     <row r="81">
@@ -2199,12 +2206,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.059804441749412567</v>
+        <v>0.056617852812237662</v>
       </c>
     </row>
     <row r="82">
@@ -2212,12 +2219,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.053368270921091913</v>
+        <v>0.059804441749412567</v>
       </c>
     </row>
     <row r="83">
@@ -2225,12 +2232,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.063374939659333843</v>
+        <v>0.053368270921091913</v>
       </c>
     </row>
     <row r="84">
@@ -2238,12 +2245,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.065634338494974187</v>
+        <v>0.063372754542633525</v>
       </c>
     </row>
     <row r="85">
@@ -2251,12 +2258,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.076391112249471732</v>
+        <v>0.065583568789393615</v>
       </c>
     </row>
     <row r="86">
@@ -2264,12 +2271,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.065857688144476734</v>
+        <v>0.076405789675931854</v>
       </c>
     </row>
     <row r="87">
@@ -2277,12 +2284,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.076990683775707502</v>
+        <v>0.065850185132440897</v>
       </c>
     </row>
     <row r="88">
@@ -2290,12 +2297,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.059932334461092314</v>
+        <v>0.076987300610801071</v>
       </c>
     </row>
     <row r="89">
@@ -2303,12 +2310,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.062569503499705637</v>
+        <v>0.059934748459338626</v>
       </c>
     </row>
     <row r="90">
@@ -2316,12 +2323,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.070999898280948021</v>
+        <v>0.062569503499705637</v>
       </c>
     </row>
     <row r="91">
@@ -2329,12 +2336,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.065313046705190059</v>
+        <v>0.070999898280948021</v>
       </c>
     </row>
     <row r="92">
@@ -2342,12 +2349,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.080281594801326739</v>
+        <v>0.065316509383946564</v>
       </c>
     </row>
     <row r="93">
@@ -2355,12 +2362,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.07304606240713224</v>
+        <v>0.080281594801326739</v>
       </c>
     </row>
     <row r="94">
@@ -2368,12 +2375,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.064176683442166121</v>
+        <v>0.073041721145845714</v>
       </c>
     </row>
     <row r="95">
@@ -2381,12 +2388,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.064036418816388468</v>
+        <v>0.064137758921886695</v>
       </c>
     </row>
     <row r="96">
@@ -2394,12 +2401,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.069051613154917493</v>
+        <v>0.064021846317226738</v>
       </c>
     </row>
     <row r="97">
@@ -2407,12 +2414,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.075812984153198856</v>
+        <v>0.069048919403916678</v>
       </c>
     </row>
     <row r="98">
@@ -2420,12 +2427,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.065406728525075425</v>
+        <v>0.075807022372508165</v>
       </c>
     </row>
     <row r="99">
@@ -2433,12 +2440,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.068952664927320162</v>
+        <v>0.065406728525075425</v>
       </c>
     </row>
     <row r="100">
@@ -2446,12 +2453,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.063117715220503037</v>
+        <v>0.068952664927320162</v>
       </c>
     </row>
     <row r="101">
@@ -2459,12 +2466,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.063907980145093551</v>
+        <v>0.063122017723244717</v>
       </c>
     </row>
     <row r="102">
@@ -2472,12 +2479,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.063642063776424215</v>
+        <v>0.063895781637717128</v>
       </c>
     </row>
     <row r="103">
@@ -2485,12 +2492,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.059285893469353625</v>
+        <v>0.063647764937740756</v>
       </c>
     </row>
     <row r="104">
@@ -2498,12 +2505,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.064227068067449461</v>
+        <v>0.05928837228749425</v>
       </c>
     </row>
     <row r="105">
@@ -2511,12 +2518,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.062013689814543964</v>
+        <v>0.064224233061134409</v>
       </c>
     </row>
     <row r="106">
@@ -2524,12 +2531,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.064254385964912286</v>
+        <v>0.062010062010062011</v>
       </c>
     </row>
     <row r="107">
@@ -2537,12 +2544,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.052509754645856756</v>
+        <v>0.064254385964912286</v>
       </c>
     </row>
     <row r="108">
@@ -2550,12 +2557,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.059609360604385479</v>
+        <v>0.052506282237799233</v>
       </c>
     </row>
     <row r="109">
@@ -2563,12 +2570,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.068102363305831345</v>
+        <v>0.05960386918470751</v>
       </c>
     </row>
     <row r="110">
@@ -2576,12 +2583,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.070814387971007975</v>
+        <v>0.068096014914938247</v>
       </c>
     </row>
     <row r="111">
@@ -2589,12 +2596,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.075712111328549686</v>
+        <v>0.070801638385020474</v>
       </c>
     </row>
     <row r="112">
@@ -2602,12 +2609,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.076690696876072773</v>
+        <v>0.075708818925030438</v>
       </c>
     </row>
     <row r="113">
@@ -2615,12 +2622,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.067861877406729373</v>
+        <v>0.07668016750188783</v>
       </c>
     </row>
     <row r="114">
@@ -2628,12 +2635,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.072956989247311824</v>
+        <v>0.067857593738164371</v>
       </c>
     </row>
     <row r="115">
@@ -2641,12 +2648,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.068618255417880233</v>
+        <v>0.072953067039406488</v>
       </c>
     </row>
     <row r="116">
@@ -2654,12 +2661,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.066614613298265804</v>
+        <v>0.068618255417880233</v>
       </c>
     </row>
     <row r="117">
@@ -2667,12 +2674,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.072326248313090424</v>
+        <v>0.066614613298265804</v>
       </c>
     </row>
     <row r="118">
@@ -2680,12 +2687,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.074938618652812872</v>
+        <v>0.072326248313090424</v>
       </c>
     </row>
     <row r="119">
@@ -2693,12 +2700,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.069581346051934292</v>
+        <v>0.074933285892190005</v>
       </c>
     </row>
     <row r="120">
@@ -2706,12 +2713,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.07185944082726925</v>
+        <v>0.069581346051934292</v>
       </c>
     </row>
     <row r="121">
@@ -2719,12 +2726,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.076765169236644865</v>
+        <v>0.071856000765953373</v>
       </c>
     </row>
     <row r="122">
@@ -2732,12 +2739,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.078465885404604196</v>
+        <v>0.076761504678250908</v>
       </c>
     </row>
     <row r="123">
@@ -2745,12 +2752,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.07475412603942426</v>
+        <v>0.078465885404604196</v>
       </c>
     </row>
     <row r="124">
@@ -2758,12 +2765,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.084654731457800517</v>
+        <v>0.074711915917437005</v>
       </c>
     </row>
     <row r="125">
@@ -2771,12 +2778,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.077974815587512111</v>
+        <v>0.084647515130849879</v>
       </c>
     </row>
     <row r="126">
@@ -2784,12 +2791,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.076076255258211767</v>
+        <v>0.077974815587512111</v>
       </c>
     </row>
     <row r="127">
@@ -2797,12 +2804,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.080849424567823958</v>
+        <v>0.076066043223410443</v>
       </c>
     </row>
     <row r="128">
@@ -2810,12 +2817,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.069375670018888155</v>
+        <v>0.080841638981173872</v>
       </c>
     </row>
     <row r="129">
@@ -2823,12 +2830,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.080750880634948952</v>
+        <v>0.069379211762303453</v>
       </c>
     </row>
     <row r="130">
@@ -2836,12 +2843,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.084289717115111504</v>
+        <v>0.08074728018548244</v>
       </c>
     </row>
     <row r="131">
@@ -2849,12 +2856,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.073087485288348367</v>
+        <v>0.084292952556425604</v>
       </c>
     </row>
     <row r="132">
@@ -2862,12 +2869,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.087210406380554495</v>
+        <v>0.073084618100506066</v>
       </c>
     </row>
     <row r="133">
@@ -2875,12 +2882,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.078375738406437509</v>
+        <v>0.087214546835683429</v>
       </c>
     </row>
     <row r="134">
@@ -2888,12 +2895,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.096222455403987411</v>
+        <v>0.078361158908059336</v>
       </c>
     </row>
     <row r="135">
@@ -2901,12 +2908,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.092320340458458258</v>
+        <v>0.096217407271391844</v>
       </c>
     </row>
     <row r="136">
@@ -2914,12 +2921,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.091261530234838018</v>
+        <v>0.092320340458458258</v>
       </c>
     </row>
     <row r="137">
@@ -2927,12 +2934,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.095783160111716503</v>
+        <v>0.091265597147950087</v>
       </c>
     </row>
     <row r="138">
@@ -2940,12 +2947,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.093532897425418884</v>
+        <v>0.095774389964748435</v>
       </c>
     </row>
     <row r="139">
@@ -2953,12 +2960,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.085358085358085353</v>
+        <v>0.093528119732338974</v>
       </c>
     </row>
     <row r="140">
@@ -2966,12 +2973,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.088466538723456944</v>
+        <v>0.085358085358085353</v>
       </c>
     </row>
     <row r="141">
@@ -2979,12 +2986,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.092061601293286818</v>
+        <v>0.088439163262780049</v>
       </c>
     </row>
     <row r="142">
@@ -2992,12 +2999,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.084246232552966691</v>
+        <v>0.092077270019572804</v>
       </c>
     </row>
     <row r="143">
@@ -3005,12 +3012,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.089225991399904447</v>
+        <v>0.0841906244786743</v>
       </c>
     </row>
     <row r="144">
@@ -3018,12 +3025,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.091572998031371061</v>
+        <v>0.089225991399904447</v>
       </c>
     </row>
     <row r="145">
@@ -3031,12 +3038,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.10444635377510471</v>
+        <v>0.091572998031371061</v>
       </c>
     </row>
     <row r="146">
@@ -3044,12 +3051,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.083271247635967674</v>
+        <v>0.10444635377510471</v>
       </c>
     </row>
     <row r="147">
@@ -3057,12 +3064,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.095669687814702919</v>
+        <v>0.08327602017423201</v>
       </c>
     </row>
     <row r="148">
@@ -3070,12 +3077,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.087854392719635979</v>
+        <v>0.095654478007419177</v>
       </c>
     </row>
     <row r="149">
@@ -3083,12 +3090,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.081856736187765067</v>
+        <v>0.087862081036142473</v>
       </c>
     </row>
     <row r="150">
@@ -3096,12 +3103,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.094700260642919198</v>
+        <v>0.08184722625617194</v>
       </c>
     </row>
     <row r="151">
@@ -3109,12 +3116,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.098961054036798418</v>
+        <v>0.094689291712515208</v>
       </c>
     </row>
     <row r="152">
@@ -3122,12 +3129,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.096554460683817206</v>
+        <v>0.098966798235430697</v>
       </c>
     </row>
     <row r="153">
@@ -3135,12 +3142,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.077381723914452361</v>
+        <v>0.096554460683817206</v>
       </c>
     </row>
     <row r="154">
@@ -3148,12 +3155,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.082518518518518519</v>
+        <v>0.077366681785783709</v>
       </c>
     </row>
     <row r="155">
@@ -3161,12 +3168,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.090424271154301961</v>
+        <v>0.082518518518518519</v>
       </c>
     </row>
     <row r="156">
@@ -3174,12 +3181,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.084193864475766947</v>
+        <v>0.090424271154301961</v>
       </c>
     </row>
     <row r="157">
@@ -3187,12 +3194,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.094320263832905829</v>
+        <v>0.084181174165347802</v>
       </c>
     </row>
     <row r="158">
@@ -3200,12 +3207,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.095642857142857141</v>
+        <v>0.094306440976038686</v>
       </c>
     </row>
     <row r="159">
@@ -3213,12 +3220,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.085714285714285715</v>
+        <v>0.095636025998142984</v>
       </c>
     </row>
     <row r="160">
@@ -3226,12 +3233,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.082758158547209013</v>
+        <v>0.085699045812837077</v>
       </c>
     </row>
     <row r="161">
@@ -3239,12 +3246,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.080469583778014941</v>
+        <v>0.082752613240418119</v>
       </c>
     </row>
     <row r="162">
@@ -3252,12 +3259,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.090544986411099981</v>
+        <v>0.080460996691921888</v>
       </c>
     </row>
     <row r="163">
@@ -3265,12 +3272,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.082531050194752695</v>
+        <v>0.090544986411099981</v>
       </c>
     </row>
     <row r="164">
@@ -3278,12 +3285,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.091655266757865936</v>
+        <v>0.082537115978244896</v>
       </c>
     </row>
     <row r="165">
@@ -3291,12 +3298,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.09247790689583188</v>
+        <v>0.091642070405298398</v>
       </c>
     </row>
     <row r="166">
@@ -3304,12 +3311,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.09843489843489843</v>
+        <v>0.092484342379958243</v>
       </c>
     </row>
     <row r="167">
@@ -3317,12 +3324,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.084592145015105744</v>
+        <v>0.098421788639541846</v>
       </c>
     </row>
     <row r="168">
@@ -3330,12 +3337,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.076495553759094587</v>
+        <v>0.084585912172119068</v>
       </c>
     </row>
     <row r="169">
@@ -3343,12 +3350,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.086877554109278041</v>
+        <v>0.076495553759094587</v>
       </c>
     </row>
     <row r="170">
@@ -3356,12 +3363,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.090168025286973888</v>
+        <v>0.086890705419315775</v>
       </c>
     </row>
     <row r="171">
@@ -3369,12 +3376,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.093527508090614886</v>
+        <v>0.090123046225473888</v>
       </c>
     </row>
     <row r="172">
@@ -3382,12 +3389,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.097808067784122307</v>
+        <v>0.093507333908541851</v>
       </c>
     </row>
     <row r="173">
@@ -3395,12 +3402,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.08633152620338426</v>
+        <v>0.097790055248618779</v>
       </c>
     </row>
     <row r="174">
@@ -3408,12 +3415,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.089438468705005505</v>
+        <v>0.08633861825351187</v>
       </c>
     </row>
     <row r="175">
@@ -3421,12 +3428,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.078050369083803736</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="176">
@@ -3434,12 +3441,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.07856283307546845</v>
+        <v>0.07803342739309746</v>
       </c>
     </row>
     <row r="177">
@@ -3447,12 +3454,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.081078212883370471</v>
+        <v>0.07856283307546845</v>
       </c>
     </row>
     <row r="178">
@@ -3460,12 +3467,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.081884409907722194</v>
+        <v>0.081078212883370471</v>
       </c>
     </row>
     <row r="179">
@@ -3473,12 +3480,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.099384344766930519</v>
+        <v>0.081884409907722194</v>
       </c>
     </row>
     <row r="180">
@@ -3486,12 +3493,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.089926423835044053</v>
+        <v>0.099384344766930519</v>
       </c>
     </row>
     <row r="181">
@@ -3499,12 +3506,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.076506024096385544</v>
+        <v>0.089926423835044053</v>
       </c>
     </row>
     <row r="182">
@@ -3512,12 +3519,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.070603337612323486</v>
+        <v>0.076471473731747702</v>
       </c>
     </row>
     <row r="183">
@@ -3525,12 +3532,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.076427081357860804</v>
+        <v>0.070592010267928773</v>
       </c>
     </row>
     <row r="184">
@@ -3538,12 +3545,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.081996434937611412</v>
+        <v>0.076412590064467198</v>
       </c>
     </row>
     <row r="185">
@@ -3551,12 +3558,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.08771929824561403</v>
+        <v>0.08186005051255385</v>
       </c>
     </row>
     <row r="186">
@@ -3564,12 +3571,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.097244142284812429</v>
+        <v>0.087733040889863695</v>
       </c>
     </row>
     <row r="187">
@@ -3577,12 +3584,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.082788944723618085</v>
+        <v>0.09723233794610342</v>
       </c>
     </row>
     <row r="188">
@@ -3590,12 +3597,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082788944723618085</v>
       </c>
     </row>
     <row r="189">
@@ -3603,12 +3610,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.062995026708417751</v>
+        <v>0.073184676958261863</v>
       </c>
     </row>
     <row r="190">
@@ -3616,12 +3623,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.055922330097087379</v>
+        <v>0.062983425414364635</v>
       </c>
     </row>
     <row r="191">
@@ -3629,12 +3636,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.060969976905311779</v>
+        <v>0.055922330097087379</v>
       </c>
     </row>
     <row r="192">
@@ -3642,12 +3649,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.07079025757841248</v>
+        <v>0.060979365568216815</v>
       </c>
     </row>
     <row r="193">
@@ -3655,12 +3662,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.068512353250394259</v>
+        <v>0.070777855641205326</v>
       </c>
     </row>
     <row r="194">
@@ -3668,12 +3675,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.068512353250394259</v>
       </c>
     </row>
     <row r="195">
@@ -3681,12 +3688,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="196">
@@ -3694,12 +3701,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.054336989032901295</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="197">
@@ -3707,12 +3714,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.041267501842299187</v>
+        <v>0.054336989032901295</v>
       </c>
     </row>
     <row r="198">
@@ -3720,12 +3727,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.064477468839884949</v>
+        <v>0.041267501842299187</v>
       </c>
     </row>
     <row r="199">
@@ -3733,12 +3740,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.082527705729780715</v>
+        <v>0.064477468839884949</v>
       </c>
     </row>
     <row r="200">
@@ -3746,12 +3753,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.07251545411317166</v>
+        <v>0.082527705729780715</v>
       </c>
     </row>
     <row r="201">
@@ -3759,12 +3766,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.083076245041868668</v>
+        <v>0.07251545411317166</v>
       </c>
     </row>
     <row r="202">
@@ -3772,12 +3779,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.080554580554580549</v>
+        <v>0.083076245041868668</v>
       </c>
     </row>
     <row r="203">
@@ -3785,12 +3792,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.071381142098273578</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="204">
@@ -3798,12 +3805,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.064839219820769636</v>
+        <v>0.071381142098273578</v>
       </c>
     </row>
     <row r="205">
@@ -3811,12 +3818,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.063265982113282548</v>
+        <v>0.064839219820769636</v>
       </c>
     </row>
     <row r="206">
@@ -3824,12 +3831,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.077595066803699903</v>
+        <v>0.063265982113282548</v>
       </c>
     </row>
     <row r="207">
@@ -3837,12 +3844,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.070043103448275856</v>
+        <v>0.077595066803699903</v>
       </c>
     </row>
     <row r="208">
@@ -3850,12 +3857,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.073793490460157124</v>
+        <v>0.070043103448275856</v>
       </c>
     </row>
     <row r="209">
@@ -3863,12 +3870,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.097416020671834622</v>
+        <v>0.073793490460157124</v>
       </c>
     </row>
     <row r="210">
@@ -3876,12 +3883,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.080117244748412308</v>
+        <v>0.097416020671834622</v>
       </c>
     </row>
     <row r="211">
@@ -3889,12 +3896,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.080078125</v>
       </c>
     </row>
     <row r="212">
@@ -3902,12 +3909,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.12926189584113901</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="213">
@@ -3915,12 +3922,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.087874659400544966</v>
+        <v>0.12931034482758622</v>
       </c>
     </row>
     <row r="214">
@@ -3928,12 +3935,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087874659400544966</v>
       </c>
     </row>
     <row r="215">
@@ -3941,12 +3948,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.11584089323098395</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="216">
@@ -3954,12 +3961,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.10538486950776346</v>
+        <v>0.11584089323098395</v>
       </c>
     </row>
     <row r="217">
@@ -3967,12 +3974,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.10854893138357705</v>
+        <v>0.10538486950776346</v>
       </c>
     </row>
     <row r="218">
@@ -3980,12 +3987,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="219">
@@ -3993,12 +4000,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.12842388863942525</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="220">
@@ -4006,12 +4013,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12842388863942525</v>
       </c>
     </row>
     <row r="221">
@@ -4019,12 +4026,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.11855203619909502</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="222">
@@ -4032,12 +4039,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.11855203619909502</v>
       </c>
     </row>
     <row r="223">
@@ -4045,12 +4052,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.12741935483870967</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="224">
@@ -4058,12 +4065,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12741935483870967</v>
       </c>
     </row>
     <row r="225">
@@ -4071,12 +4078,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="226">
@@ -4084,12 +4091,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.16271186440677965</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="227">
@@ -4097,12 +4104,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.16271186440677965</v>
       </c>
     </row>
     <row r="228">
@@ -4110,12 +4117,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.084019769357495888</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="229">
@@ -4123,12 +4130,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084019769357495888</v>
       </c>
     </row>
     <row r="230">
@@ -4136,12 +4143,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.090229312063808575</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="231">
@@ -4149,12 +4156,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="232">
@@ -4162,12 +4169,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="233">
@@ -4175,12 +4182,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.081988804741521232</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="234">
@@ -4188,12 +4195,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.084626755358462674</v>
+        <v>0.081988804741521232</v>
       </c>
     </row>
     <row r="235">
@@ -4201,12 +4208,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.08068376068376068</v>
+        <v>0.084626755358462674</v>
       </c>
     </row>
     <row r="236">
@@ -4214,12 +4221,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.068027210884353748</v>
+        <v>0.08068376068376068</v>
       </c>
     </row>
     <row r="237">
@@ -4227,12 +4234,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.074540503744043571</v>
+        <v>0.068027210884353748</v>
       </c>
     </row>
     <row r="238">
@@ -4240,18 +4247,20 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="5"/>
+      <c r="E238" s="5">
+        <v>0.074540503744043571</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -4262,7 +4271,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -4273,7 +4282,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -4284,7 +4293,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -4295,7 +4304,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -4306,7 +4315,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -4317,7 +4326,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4328,7 +4337,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4339,7 +4348,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4350,7 +4359,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4361,7 +4370,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4372,7 +4381,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4383,7 +4392,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4394,7 +4403,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4405,7 +4414,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4415,7 +4424,9 @@
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B254" s="4"/>
+      <c r="B254" s="4">
+        <v>936</v>
+      </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5"/>
@@ -4537,6 +4548,15 @@
       <c r="D267" s="4"/>
       <c r="E267" s="5"/>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+  <si>
+    <t>11/24/2020</t>
+  </si>
   <si>
     <t>11/23/2020</t>
   </si>
@@ -912,24 +915,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E269"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2">
@@ -946,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>32911</v>
+        <v>36407</v>
       </c>
       <c r="C3" s="4">
-        <v>31654</v>
+        <v>35094</v>
       </c>
       <c r="D3" s="4">
-        <v>1257</v>
+        <v>1313</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -961,16 +964,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>46049</v>
+        <v>37499</v>
       </c>
       <c r="C4" s="4">
-        <v>43467</v>
+        <v>36141</v>
       </c>
       <c r="D4" s="4">
-        <v>2582</v>
+        <v>1358</v>
       </c>
       <c r="E4" s="5">
-        <v>0.065869746988324915</v>
+        <v>0.065175866157291526</v>
       </c>
     </row>
     <row r="5">
@@ -978,16 +981,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>55551</v>
+        <v>48119</v>
       </c>
       <c r="C5" s="4">
-        <v>51524</v>
+        <v>45161</v>
       </c>
       <c r="D5" s="4">
-        <v>4027</v>
+        <v>2958</v>
       </c>
       <c r="E5" s="5">
-        <v>0.072515503077732774</v>
+        <v>0.066813961293209531</v>
       </c>
     </row>
     <row r="6">
@@ -995,16 +998,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>52808</v>
+        <v>56541</v>
       </c>
       <c r="C6" s="4">
-        <v>49466</v>
+        <v>51875</v>
       </c>
       <c r="D6" s="4">
-        <v>3342</v>
+        <v>4666</v>
       </c>
       <c r="E6" s="5">
-        <v>0.073525064403057561</v>
+        <v>0.073281758044623835</v>
       </c>
     </row>
     <row r="7">
@@ -1012,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>49614</v>
+        <v>53248</v>
       </c>
       <c r="C7" s="4">
-        <v>45557</v>
+        <v>49658</v>
       </c>
       <c r="D7" s="4">
-        <v>4057</v>
+        <v>3590</v>
       </c>
       <c r="E7" s="5">
-        <v>0.0786178107606679</v>
+        <v>0.073247135498791124</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1032,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>34599</v>
+        <v>49732</v>
       </c>
       <c r="C8" s="4">
-        <v>30557</v>
+        <v>45567</v>
       </c>
       <c r="D8" s="4">
-        <v>4042</v>
+        <v>4165</v>
       </c>
       <c r="E8" s="5">
-        <v>0.077956386292834898</v>
+        <v>0.078676996926186363</v>
       </c>
     </row>
     <row r="9">
@@ -1046,16 +1049,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>29492</v>
+        <v>34703</v>
       </c>
       <c r="C9" s="4">
-        <v>28632</v>
+        <v>30557</v>
       </c>
       <c r="D9" s="4">
-        <v>860</v>
+        <v>4146</v>
       </c>
       <c r="E9" s="5">
-        <v>0.093517223432976609</v>
+        <v>0.077894265009836386</v>
       </c>
     </row>
     <row r="10">
@@ -1063,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>35584</v>
+        <v>29491</v>
       </c>
       <c r="C10" s="4">
-        <v>34666</v>
+        <v>28632</v>
       </c>
       <c r="D10" s="4">
-        <v>918</v>
+        <v>859</v>
       </c>
       <c r="E10" s="5">
-        <v>0.087670470359031444</v>
+        <v>0.093575237352061386</v>
       </c>
     </row>
     <row r="11">
@@ -1080,16 +1083,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>40849</v>
+        <v>35580</v>
       </c>
       <c r="C11" s="4">
-        <v>38310</v>
+        <v>34663</v>
       </c>
       <c r="D11" s="4">
-        <v>2539</v>
+        <v>917</v>
       </c>
       <c r="E11" s="5">
-        <v>0.080555810608147399</v>
+        <v>0.087630710508528484</v>
       </c>
     </row>
     <row r="12">
@@ -1097,16 +1100,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>48222</v>
+        <v>40849</v>
       </c>
       <c r="C12" s="4">
-        <v>44454</v>
+        <v>38310</v>
       </c>
       <c r="D12" s="4">
-        <v>3768</v>
+        <v>2539</v>
       </c>
       <c r="E12" s="5">
-        <v>0.077258010494585236</v>
+        <v>0.080583950541715119</v>
       </c>
     </row>
     <row r="13">
@@ -1114,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>46422</v>
+        <v>48220</v>
       </c>
       <c r="C13" s="4">
-        <v>43251</v>
+        <v>44452</v>
       </c>
       <c r="D13" s="4">
-        <v>3171</v>
+        <v>3768</v>
       </c>
       <c r="E13" s="5">
-        <v>0.078097622027534425</v>
+        <v>0.077281607591403845</v>
       </c>
     </row>
     <row r="14">
@@ -1131,16 +1134,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>41211</v>
+        <v>46420</v>
       </c>
       <c r="C14" s="4">
-        <v>37693</v>
+        <v>43250</v>
       </c>
       <c r="D14" s="4">
-        <v>3518</v>
+        <v>3170</v>
       </c>
       <c r="E14" s="5">
-        <v>0.076042810799765007</v>
+        <v>0.078047559449311646</v>
       </c>
     </row>
     <row r="15">
@@ -1148,16 +1151,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>29173</v>
+        <v>41204</v>
       </c>
       <c r="C15" s="4">
-        <v>25715</v>
+        <v>37686</v>
       </c>
       <c r="D15" s="4">
-        <v>3458</v>
+        <v>3518</v>
       </c>
       <c r="E15" s="5">
-        <v>0.077562487328757201</v>
+        <v>0.076040868454661556</v>
       </c>
     </row>
     <row r="16">
@@ -1165,16 +1168,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>26350</v>
+        <v>29172</v>
       </c>
       <c r="C16" s="4">
-        <v>25612</v>
+        <v>25714</v>
       </c>
       <c r="D16" s="4">
-        <v>738</v>
+        <v>3458</v>
       </c>
       <c r="E16" s="5">
-        <v>0.080930419089633041</v>
+        <v>0.077330784603353894</v>
       </c>
     </row>
     <row r="17">
@@ -1182,16 +1185,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>34446</v>
+        <v>26350</v>
       </c>
       <c r="C17" s="4">
-        <v>33677</v>
+        <v>25612</v>
       </c>
       <c r="D17" s="4">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="E17" s="5">
-        <v>0.075293586269196022</v>
+        <v>0.080920683294570542</v>
       </c>
     </row>
     <row r="18">
@@ -1199,16 +1202,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>40048</v>
+        <v>34438</v>
       </c>
       <c r="C18" s="4">
-        <v>38092</v>
+        <v>33669</v>
       </c>
       <c r="D18" s="4">
-        <v>1956</v>
+        <v>769</v>
       </c>
       <c r="E18" s="5">
-        <v>0.065476011203806889</v>
+        <v>0.075351444198345607</v>
       </c>
     </row>
     <row r="19">
@@ -1216,16 +1219,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>44845</v>
+        <v>40048</v>
       </c>
       <c r="C19" s="4">
-        <v>41768</v>
+        <v>38092</v>
       </c>
       <c r="D19" s="4">
-        <v>3077</v>
+        <v>1956</v>
       </c>
       <c r="E19" s="5">
-        <v>0.058834834175269052</v>
+        <v>0.065449835848317817</v>
       </c>
     </row>
     <row r="20">
@@ -1233,16 +1236,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>47565</v>
+        <v>44844</v>
       </c>
       <c r="C20" s="4">
-        <v>45098</v>
+        <v>41768</v>
       </c>
       <c r="D20" s="4">
-        <v>2467</v>
+        <v>3076</v>
       </c>
       <c r="E20" s="5">
-        <v>0.066504356740133261</v>
+        <v>0.058831603799483885</v>
       </c>
     </row>
     <row r="21">
@@ -1250,16 +1253,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>43258</v>
+        <v>47564</v>
       </c>
       <c r="C21" s="4">
-        <v>40495</v>
+        <v>45097</v>
       </c>
       <c r="D21" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E21" s="5">
-        <v>0.064572042380743128</v>
+        <v>0.066528332820985761</v>
       </c>
     </row>
     <row r="22">
@@ -1267,16 +1270,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>25511</v>
+        <v>43251</v>
       </c>
       <c r="C22" s="4">
-        <v>22372</v>
+        <v>40488</v>
       </c>
       <c r="D22" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E22" s="5">
-        <v>0.065562267374458472</v>
+        <v>0.064523216639812503</v>
       </c>
     </row>
     <row r="23">
@@ -1284,16 +1287,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C23" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D23" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E23" s="5">
-        <v>0.074517247070473677</v>
+        <v>0.065539757124549944</v>
       </c>
     </row>
     <row r="24">
@@ -1301,16 +1304,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>33478</v>
+        <v>26650</v>
       </c>
       <c r="C24" s="4">
-        <v>32657</v>
+        <v>26087</v>
       </c>
       <c r="D24" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E24" s="5">
-        <v>0.067908321639664926</v>
+        <v>0.074552355804934398</v>
       </c>
     </row>
     <row r="25">
@@ -1318,16 +1321,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>38983</v>
+        <v>33471</v>
       </c>
       <c r="C25" s="4">
-        <v>37123</v>
+        <v>32650</v>
       </c>
       <c r="D25" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E25" s="5">
-        <v>0.063455681497064279</v>
+        <v>0.06790254687699307</v>
       </c>
     </row>
     <row r="26">
@@ -1335,16 +1338,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>45025</v>
+        <v>38983</v>
       </c>
       <c r="C26" s="4">
-        <v>42020</v>
+        <v>37123</v>
       </c>
       <c r="D26" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E26" s="5">
-        <v>0.059600357544476804</v>
+        <v>0.063467638099425308</v>
       </c>
     </row>
     <row r="27">
@@ -1352,16 +1355,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>45534</v>
+        <v>45025</v>
       </c>
       <c r="C27" s="4">
-        <v>43057</v>
+        <v>42020</v>
       </c>
       <c r="D27" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E27" s="5">
-        <v>0.060453884361021927</v>
+        <v>0.059596920681601939</v>
       </c>
     </row>
     <row r="28">
@@ -1369,16 +1372,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>38792</v>
+        <v>45534</v>
       </c>
       <c r="C28" s="4">
-        <v>36628</v>
+        <v>43057</v>
       </c>
       <c r="D28" s="4">
-        <v>2164</v>
+        <v>2477</v>
       </c>
       <c r="E28" s="5">
-        <v>0.059421197091539459</v>
+        <v>0.060453884361021927</v>
       </c>
     </row>
     <row r="29">
@@ -1386,16 +1389,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>23936</v>
+        <v>38786</v>
       </c>
       <c r="C29" s="4">
-        <v>21590</v>
+        <v>36622</v>
       </c>
       <c r="D29" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E29" s="5">
-        <v>0.06432962286094035</v>
+        <v>0.059414044632754758</v>
       </c>
     </row>
     <row r="30">
@@ -1403,16 +1406,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C30" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D30" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E30" s="5">
-        <v>0.070286058695349804</v>
+        <v>0.064333898248762164</v>
       </c>
     </row>
     <row r="31">
@@ -1420,16 +1423,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>30472</v>
+        <v>25467</v>
       </c>
       <c r="C31" s="4">
-        <v>29989</v>
+        <v>25050</v>
       </c>
       <c r="D31" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E31" s="5">
-        <v>0.075196408529741868</v>
+        <v>0.070302355778148765</v>
       </c>
     </row>
     <row r="32">
@@ -1437,16 +1440,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>37763</v>
+        <v>30465</v>
       </c>
       <c r="C32" s="4">
-        <v>36578</v>
+        <v>29982</v>
       </c>
       <c r="D32" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E32" s="5">
-        <v>0.0621181622347</v>
+        <v>0.075187032418952623</v>
       </c>
     </row>
     <row r="33">
@@ -1454,16 +1457,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>40617</v>
+        <v>37762</v>
       </c>
       <c r="C33" s="4">
-        <v>38707</v>
+        <v>36577</v>
       </c>
       <c r="D33" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E33" s="5">
-        <v>0.063896403927409792</v>
+        <v>0.06211618550151761</v>
       </c>
     </row>
     <row r="34">
@@ -1471,16 +1474,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>46379</v>
+        <v>40617</v>
       </c>
       <c r="C34" s="4">
-        <v>44987</v>
+        <v>38707</v>
       </c>
       <c r="D34" s="4">
-        <v>1392</v>
+        <v>1910</v>
       </c>
       <c r="E34" s="5">
-        <v>0.063710593768992949</v>
+        <v>0.063890577507598786</v>
       </c>
     </row>
     <row r="35">
@@ -1488,16 +1491,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>36468</v>
+        <v>46378</v>
       </c>
       <c r="C35" s="4">
-        <v>34724</v>
+        <v>44987</v>
       </c>
       <c r="D35" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E35" s="5">
-        <v>0.059049704624159705</v>
+        <v>0.063682485995137941</v>
       </c>
     </row>
     <row r="36">
@@ -1505,16 +1508,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>18358</v>
+        <v>36461</v>
       </c>
       <c r="C36" s="4">
-        <v>16519</v>
+        <v>34717</v>
       </c>
       <c r="D36" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E36" s="5">
-        <v>0.061746154697355317</v>
+        <v>0.059073663840297407</v>
       </c>
     </row>
     <row r="37">
@@ -1522,16 +1525,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>23352</v>
+        <v>18358</v>
       </c>
       <c r="C37" s="4">
-        <v>23016</v>
+        <v>16519</v>
       </c>
       <c r="D37" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E37" s="5">
-        <v>0.077015920455198575</v>
+        <v>0.061720652254113481</v>
       </c>
     </row>
     <row r="38">
@@ -1539,16 +1542,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>32965</v>
+        <v>23352</v>
       </c>
       <c r="C38" s="4">
-        <v>32573</v>
+        <v>23016</v>
       </c>
       <c r="D38" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E38" s="5">
-        <v>0.073979473366460782</v>
+        <v>0.077015920455198575</v>
       </c>
     </row>
     <row r="39">
@@ -1556,16 +1559,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>34490</v>
+        <v>32965</v>
       </c>
       <c r="C39" s="4">
-        <v>33615</v>
+        <v>32573</v>
       </c>
       <c r="D39" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E39" s="5">
-        <v>0.058659122669484302</v>
+        <v>0.074012165111203981</v>
       </c>
     </row>
     <row r="40">
@@ -1573,16 +1576,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>41551</v>
+        <v>34487</v>
       </c>
       <c r="C40" s="4">
-        <v>40056</v>
+        <v>33612</v>
       </c>
       <c r="D40" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E40" s="5">
-        <v>0.061096786365637382</v>
+        <v>0.058625038344865196</v>
       </c>
     </row>
     <row r="41">
@@ -1590,16 +1593,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>42279</v>
+        <v>41547</v>
       </c>
       <c r="C41" s="4">
-        <v>41160</v>
+        <v>40052</v>
       </c>
       <c r="D41" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E41" s="5">
-        <v>0.065540109326007942</v>
+        <v>0.061094865264283246</v>
       </c>
     </row>
     <row r="42">
@@ -1607,16 +1610,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>34255</v>
+        <v>42278</v>
       </c>
       <c r="C42" s="4">
-        <v>32806</v>
+        <v>41159</v>
       </c>
       <c r="D42" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E42" s="5">
-        <v>0.060672255140212433</v>
+        <v>0.065638350995949626</v>
       </c>
     </row>
     <row r="43">
@@ -1624,16 +1627,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>21624</v>
+        <v>34255</v>
       </c>
       <c r="C43" s="4">
-        <v>20492</v>
+        <v>32806</v>
       </c>
       <c r="D43" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E43" s="5">
-        <v>0.066749258550137025</v>
+        <v>0.060577921013819848</v>
       </c>
     </row>
     <row r="44">
@@ -1641,16 +1644,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>21602</v>
+        <v>21624</v>
       </c>
       <c r="C44" s="4">
-        <v>21324</v>
+        <v>20492</v>
       </c>
       <c r="D44" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E44" s="5">
-        <v>0.067761023096010689</v>
+        <v>0.066746752759216155</v>
       </c>
     </row>
     <row r="45">
@@ -1658,16 +1661,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>32574</v>
+        <v>21602</v>
       </c>
       <c r="C45" s="4">
-        <v>32235</v>
+        <v>21324</v>
       </c>
       <c r="D45" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E45" s="5">
-        <v>0.07018261803672822</v>
+        <v>0.067716535433070865</v>
       </c>
     </row>
     <row r="46">
@@ -1675,16 +1678,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>37220</v>
+        <v>32567</v>
       </c>
       <c r="C46" s="4">
-        <v>36213</v>
+        <v>32228</v>
       </c>
       <c r="D46" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E46" s="5">
-        <v>0.05644994126995094</v>
+        <v>0.070168260624968032</v>
       </c>
     </row>
     <row r="47">
@@ -1692,16 +1695,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>42410</v>
+        <v>37220</v>
       </c>
       <c r="C47" s="4">
-        <v>41135</v>
+        <v>36213</v>
       </c>
       <c r="D47" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E47" s="5">
-        <v>0.055526575088390422</v>
+        <v>0.056486439799619967</v>
       </c>
     </row>
     <row r="48">
@@ -1709,16 +1712,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>40914</v>
+        <v>42410</v>
       </c>
       <c r="C48" s="4">
-        <v>40019</v>
+        <v>41135</v>
       </c>
       <c r="D48" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E48" s="5">
-        <v>0.05019305019305019</v>
+        <v>0.055545897079276776</v>
       </c>
     </row>
     <row r="49">
@@ -1726,16 +1729,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>34440</v>
+        <v>40908</v>
       </c>
       <c r="C49" s="4">
-        <v>33418</v>
+        <v>40013</v>
       </c>
       <c r="D49" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E49" s="5">
-        <v>0.057440593225099715</v>
+        <v>0.050222555907116426</v>
       </c>
     </row>
     <row r="50">
@@ -1743,16 +1746,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>17757</v>
+        <v>34439</v>
       </c>
       <c r="C50" s="4">
-        <v>16842</v>
+        <v>33417</v>
       </c>
       <c r="D50" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E50" s="5">
-        <v>0.056908727011819794</v>
+        <v>0.057362773189505029</v>
       </c>
     </row>
     <row r="51">
@@ -1760,16 +1763,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>18036</v>
+        <v>17757</v>
       </c>
       <c r="C51" s="4">
-        <v>17783</v>
+        <v>16842</v>
       </c>
       <c r="D51" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E51" s="5">
-        <v>0.064786820509656326</v>
+        <v>0.056904429256504171</v>
       </c>
     </row>
     <row r="52">
@@ -1777,16 +1780,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>26990</v>
+        <v>18036</v>
       </c>
       <c r="C52" s="4">
-        <v>26697</v>
+        <v>17783</v>
       </c>
       <c r="D52" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E52" s="5">
-        <v>0.078836497951174464</v>
+        <v>0.064790818215475748</v>
       </c>
     </row>
     <row r="53">
@@ -1794,16 +1797,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>32471</v>
+        <v>26990</v>
       </c>
       <c r="C53" s="4">
-        <v>31836</v>
+        <v>26697</v>
       </c>
       <c r="D53" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E53" s="5">
-        <v>0.062092064582617658</v>
+        <v>0.078836497951174464</v>
       </c>
     </row>
     <row r="54">
@@ -1811,16 +1814,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>36028</v>
+        <v>32471</v>
       </c>
       <c r="C54" s="4">
-        <v>35411</v>
+        <v>31836</v>
       </c>
       <c r="D54" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E54" s="5">
-        <v>0.06120578450675538</v>
+        <v>0.062073406310367028</v>
       </c>
     </row>
     <row r="55">
@@ -1828,16 +1831,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>40621</v>
+        <v>36027</v>
       </c>
       <c r="C55" s="4">
-        <v>39873</v>
+        <v>35410</v>
       </c>
       <c r="D55" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E55" s="5">
-        <v>0.054759822693966169</v>
+        <v>0.061195397617350572</v>
       </c>
     </row>
     <row r="56">
@@ -1845,16 +1848,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>29214</v>
+        <v>40621</v>
       </c>
       <c r="C56" s="4">
-        <v>28550</v>
+        <v>39873</v>
       </c>
       <c r="D56" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E56" s="5">
-        <v>0.054474163282453435</v>
+        <v>0.054764776839565744</v>
       </c>
     </row>
     <row r="57">
@@ -1862,16 +1865,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>14197</v>
+        <v>29214</v>
       </c>
       <c r="C57" s="4">
-        <v>13652</v>
+        <v>28550</v>
       </c>
       <c r="D57" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E57" s="5">
-        <v>0.058134820070957931</v>
+        <v>0.0544711121068698</v>
       </c>
     </row>
     <row r="58">
@@ -1879,16 +1882,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>13895</v>
+        <v>14197</v>
       </c>
       <c r="C58" s="4">
-        <v>13783</v>
+        <v>13652</v>
       </c>
       <c r="D58" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E58" s="5">
-        <v>0.066657961741855454</v>
+        <v>0.058134820070957931</v>
       </c>
     </row>
     <row r="59">
@@ -1896,16 +1899,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>26001</v>
+        <v>13895</v>
       </c>
       <c r="C59" s="4">
-        <v>25904</v>
+        <v>13783</v>
       </c>
       <c r="D59" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E59" s="5">
-        <v>0.059927536231884057</v>
+        <v>0.066649259090018925</v>
       </c>
     </row>
     <row r="60">
@@ -1913,16 +1916,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>31552</v>
+        <v>26001</v>
       </c>
       <c r="C60" s="4">
-        <v>31221</v>
+        <v>25904</v>
       </c>
       <c r="D60" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E60" s="5">
-        <v>0.053155165872781691</v>
+        <v>0.059923193971451343</v>
       </c>
     </row>
     <row r="61">
@@ -1930,16 +1933,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>36113</v>
+        <v>31552</v>
       </c>
       <c r="C61" s="4">
-        <v>35782</v>
+        <v>31221</v>
       </c>
       <c r="D61" s="4">
         <v>331</v>
       </c>
       <c r="E61" s="5">
-        <v>0.049594968725433231</v>
+        <v>0.053124209461168734</v>
       </c>
     </row>
     <row r="62">
@@ -1947,16 +1950,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>38427</v>
+        <v>36113</v>
       </c>
       <c r="C62" s="4">
-        <v>38063</v>
+        <v>35782</v>
       </c>
       <c r="D62" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E62" s="5">
-        <v>0.04573692266138471</v>
+        <v>0.049598359254828236</v>
       </c>
     </row>
     <row r="63">
@@ -1964,16 +1967,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>28541</v>
+        <v>38427</v>
       </c>
       <c r="C63" s="4">
-        <v>28167</v>
+        <v>38063</v>
       </c>
       <c r="D63" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E63" s="5">
-        <v>0.049080860266730746</v>
+        <v>0.045741040878804248</v>
       </c>
     </row>
     <row r="64">
@@ -1981,16 +1984,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>12621</v>
+        <v>28541</v>
       </c>
       <c r="C64" s="4">
-        <v>12306</v>
+        <v>28167</v>
       </c>
       <c r="D64" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E64" s="5">
-        <v>0.048554685576402225</v>
+        <v>0.049110897512916016</v>
       </c>
     </row>
     <row r="65">
@@ -1998,12 +2001,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+        <v>12621</v>
+      </c>
+      <c r="C65" s="4">
+        <v>12306</v>
+      </c>
+      <c r="D65" s="4">
+        <v>315</v>
+      </c>
       <c r="E65" s="5">
-        <v>0.053982843137254904</v>
+        <v>0.048547513540128019</v>
       </c>
     </row>
     <row r="66">
@@ -2011,12 +2018,12 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5">
-        <v>0.052795031055900624</v>
+        <v>0.053982843137254904</v>
       </c>
     </row>
     <row r="67">
@@ -2024,12 +2031,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5">
-        <v>0.052981042219983517</v>
+        <v>0.052798377384800657</v>
       </c>
     </row>
     <row r="68">
@@ -2037,12 +2044,12 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5">
-        <v>0.046192965108066114</v>
+        <v>0.052976190476190475</v>
       </c>
     </row>
     <row r="69">
@@ -2050,12 +2057,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5">
-        <v>0.047230999501080992</v>
+        <v>0.046192965108066114</v>
       </c>
     </row>
     <row r="70">
@@ -2063,12 +2070,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5">
-        <v>0.047552580655394472</v>
+        <v>0.047235712860089152</v>
       </c>
     </row>
     <row r="71">
@@ -2076,12 +2083,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>0.057046358841491625</v>
+        <v>0.047549563838223632</v>
       </c>
     </row>
     <row r="72">
@@ -2089,12 +2096,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.057136314192477243</v>
+        <v>0.057054277914025266</v>
       </c>
     </row>
     <row r="73">
@@ -2102,12 +2109,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.049538060420563398</v>
+        <v>0.057126502575844305</v>
       </c>
     </row>
     <row r="74">
@@ -2115,12 +2122,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.04760312617545033</v>
+        <v>0.049538060420563398</v>
       </c>
     </row>
     <row r="75">
@@ -2128,12 +2135,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.049827452637509685</v>
+        <v>0.047605115773635374</v>
       </c>
     </row>
     <row r="76">
@@ -2141,12 +2148,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.050220125786163521</v>
+        <v>0.049829207310631403</v>
       </c>
     </row>
     <row r="77">
@@ -2154,12 +2161,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.051531723800631361</v>
+        <v>0.050224863980878699</v>
       </c>
     </row>
     <row r="78">
@@ -2167,12 +2174,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.064381658175081055</v>
+        <v>0.051538598363571685</v>
       </c>
     </row>
     <row r="79">
@@ -2180,12 +2187,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.070884542149904792</v>
+        <v>0.064371719666563756</v>
       </c>
     </row>
     <row r="80">
@@ -2193,12 +2200,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.05912877236105421</v>
+        <v>0.070890677746039993</v>
       </c>
     </row>
     <row r="81">
@@ -2206,12 +2213,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.056617852812237662</v>
+        <v>0.059132809832707411</v>
       </c>
     </row>
     <row r="82">
@@ -2219,12 +2226,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.059804441749412567</v>
+        <v>0.056617852812237662</v>
       </c>
     </row>
     <row r="83">
@@ -2232,12 +2239,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.053368270921091913</v>
+        <v>0.059835537534578799</v>
       </c>
     </row>
     <row r="84">
@@ -2245,12 +2252,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.063372754542633525</v>
+        <v>0.053373581901413121</v>
       </c>
     </row>
     <row r="85">
@@ -2258,12 +2265,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.065583568789393615</v>
+        <v>0.063344827586206895</v>
       </c>
     </row>
     <row r="86">
@@ -2271,12 +2278,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.076405789675931854</v>
+        <v>0.06557287988265334</v>
       </c>
     </row>
     <row r="87">
@@ -2284,12 +2291,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.065850185132440897</v>
+        <v>0.076391112249471732</v>
       </c>
     </row>
     <row r="88">
@@ -2297,12 +2304,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.076987300610801071</v>
+        <v>0.06581644272375313</v>
       </c>
     </row>
     <row r="89">
@@ -2310,12 +2317,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.059934748459338626</v>
+        <v>0.076980535172898629</v>
       </c>
     </row>
     <row r="90">
@@ -2323,12 +2330,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.062569503499705637</v>
+        <v>0.059934748459338626</v>
       </c>
     </row>
     <row r="91">
@@ -2336,12 +2343,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.070999898280948021</v>
+        <v>0.062571550060510905</v>
       </c>
     </row>
     <row r="92">
@@ -2349,12 +2356,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.065316509383946564</v>
+        <v>0.071009528976906641</v>
       </c>
     </row>
     <row r="93">
@@ -2362,12 +2369,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.080281594801326739</v>
+        <v>0.065316509383946564</v>
       </c>
     </row>
     <row r="94">
@@ -2375,12 +2382,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.073041721145845714</v>
+        <v>0.080287029515299216</v>
       </c>
     </row>
     <row r="95">
@@ -2388,12 +2395,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.064137758921886695</v>
+        <v>0.073041721145845714</v>
       </c>
     </row>
     <row r="96">
@@ -2401,12 +2408,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.064021846317226738</v>
+        <v>0.064176683442166121</v>
       </c>
     </row>
     <row r="97">
@@ -2414,12 +2421,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.069048919403916678</v>
+        <v>0.064024274606485868</v>
       </c>
     </row>
     <row r="98">
@@ -2427,12 +2434,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.075807022372508165</v>
+        <v>0.069082540177874865</v>
       </c>
     </row>
     <row r="99">
@@ -2440,12 +2447,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.065406728525075425</v>
+        <v>0.075861255309108075</v>
       </c>
     </row>
     <row r="100">
@@ -2453,12 +2460,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.068952664927320162</v>
+        <v>0.065410452009563927</v>
       </c>
     </row>
     <row r="101">
@@ -2466,12 +2473,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.063122017723244717</v>
+        <v>0.068968088279153003</v>
       </c>
     </row>
     <row r="102">
@@ -2479,12 +2486,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.063895781637717128</v>
+        <v>0.063117715220503037</v>
       </c>
     </row>
     <row r="103">
@@ -2492,12 +2499,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.063647764937740756</v>
+        <v>0.063889684130165089</v>
       </c>
     </row>
     <row r="104">
@@ -2505,12 +2512,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.05928837228749425</v>
+        <v>0.063647764937740756</v>
       </c>
     </row>
     <row r="105">
@@ -2518,12 +2525,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.064224233061134409</v>
+        <v>0.059298289633253877</v>
       </c>
     </row>
     <row r="106">
@@ -2531,12 +2538,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.062010062010062011</v>
+        <v>0.064232738831008301</v>
       </c>
     </row>
     <row r="107">
@@ -2544,12 +2551,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.064254385964912286</v>
+        <v>0.062006434630008773</v>
       </c>
     </row>
     <row r="108">
@@ -2557,12 +2564,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.052506282237799233</v>
+        <v>0.064254385964912286</v>
       </c>
     </row>
     <row r="109">
@@ -2570,12 +2577,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.05960386918470751</v>
+        <v>0.052506282237799233</v>
       </c>
     </row>
     <row r="110">
@@ -2583,12 +2590,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.068096014914938247</v>
+        <v>0.05959014506101773</v>
       </c>
     </row>
     <row r="111">
@@ -2596,12 +2603,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.070801638385020474</v>
+        <v>0.068099188962431251</v>
       </c>
     </row>
     <row r="112">
@@ -2609,12 +2616,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.075708818925030438</v>
+        <v>0.070804825351098305</v>
       </c>
     </row>
     <row r="113">
@@ -2622,12 +2629,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.07668016750188783</v>
+        <v>0.075715404018439597</v>
       </c>
     </row>
     <row r="114">
@@ -2635,12 +2642,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.067857593738164371</v>
+        <v>0.07668016750188783</v>
       </c>
     </row>
     <row r="115">
@@ -2648,12 +2655,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.072953067039406488</v>
+        <v>0.067849028023226454</v>
       </c>
     </row>
     <row r="116">
@@ -2661,12 +2668,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.068618255417880233</v>
+        <v>0.072945223888620112</v>
       </c>
     </row>
     <row r="117">
@@ -2674,12 +2681,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.066614613298265804</v>
+        <v>0.06862841907771304</v>
       </c>
     </row>
     <row r="118">
@@ -2687,12 +2694,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.072326248313090424</v>
+        <v>0.066617350922615379</v>
       </c>
     </row>
     <row r="119">
@@ -2700,12 +2707,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.074933285892190005</v>
+        <v>0.072329298637763065</v>
       </c>
     </row>
     <row r="120">
@@ -2713,12 +2720,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.069581346051934292</v>
+        <v>0.074938618652812872</v>
       </c>
     </row>
     <row r="121">
@@ -2726,12 +2733,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.071856000765953373</v>
+        <v>0.069562913907284765</v>
       </c>
     </row>
     <row r="122">
@@ -2739,12 +2746,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.076761504678250908</v>
+        <v>0.071845682557916901</v>
       </c>
     </row>
     <row r="123">
@@ -2752,12 +2759,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.078465885404604196</v>
+        <v>0.076765169236644865</v>
       </c>
     </row>
     <row r="124">
@@ -2765,12 +2772,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.074711915917437005</v>
+        <v>0.078462251042149142</v>
       </c>
     </row>
     <row r="125">
@@ -2778,12 +2785,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.084647515130849879</v>
+        <v>0.074711915917437005</v>
       </c>
     </row>
     <row r="126">
@@ -2791,12 +2798,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.077974815587512111</v>
+        <v>0.084647515130849879</v>
       </c>
     </row>
     <row r="127">
@@ -2804,12 +2811,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.076066043223410443</v>
+        <v>0.077977720651242505</v>
       </c>
     </row>
     <row r="128">
@@ -2817,12 +2824,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.080841638981173872</v>
+        <v>0.076076255258211767</v>
       </c>
     </row>
     <row r="129">
@@ -2830,12 +2837,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.069379211762303453</v>
+        <v>0.080829963412285766</v>
       </c>
     </row>
     <row r="130">
@@ -2843,12 +2850,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.08074728018548244</v>
+        <v>0.069379211762303453</v>
       </c>
     </row>
     <row r="131">
@@ -2856,12 +2863,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.084292952556425604</v>
+        <v>0.080754481405511461</v>
       </c>
     </row>
     <row r="132">
@@ -2869,12 +2876,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.073084618100506066</v>
+        <v>0.084292952556425604</v>
       </c>
     </row>
     <row r="133">
@@ -2882,12 +2889,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.087214546835683429</v>
+        <v>0.073090352701165207</v>
       </c>
     </row>
     <row r="134">
@@ -2895,12 +2902,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.078361158908059336</v>
+        <v>0.087231112588442003</v>
       </c>
     </row>
     <row r="135">
@@ -2908,12 +2915,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.096217407271391844</v>
+        <v>0.078368447979163758</v>
       </c>
     </row>
     <row r="136">
@@ -2921,12 +2928,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.092320340458458258</v>
+        <v>0.096217407271391844</v>
       </c>
     </row>
     <row r="137">
@@ -2934,12 +2941,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.091265597147950087</v>
+        <v>0.092320340458458258</v>
       </c>
     </row>
     <row r="138">
@@ -2947,12 +2954,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.095774389964748435</v>
+        <v>0.091261530234838018</v>
       </c>
     </row>
     <row r="139">
@@ -2960,12 +2967,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.093528119732338974</v>
+        <v>0.095770005493499358</v>
       </c>
     </row>
     <row r="140">
@@ -2973,12 +2980,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.085358085358085353</v>
+        <v>0.093532897425418884</v>
       </c>
     </row>
     <row r="141">
@@ -2986,12 +2993,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.088439163262780049</v>
+        <v>0.085316467215725528</v>
       </c>
     </row>
     <row r="142">
@@ -2999,12 +3006,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.092077270019572804</v>
+        <v>0.088444636999442966</v>
       </c>
     </row>
     <row r="143">
@@ -3012,12 +3019,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.0841906244786743</v>
+        <v>0.092077270019572804</v>
       </c>
     </row>
     <row r="144">
@@ -3025,12 +3032,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.089225991399904447</v>
+        <v>0.084185943060498217</v>
       </c>
     </row>
     <row r="145">
@@ -3038,12 +3045,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.091572998031371061</v>
+        <v>0.089220662884443122</v>
       </c>
     </row>
     <row r="146">
@@ -3051,12 +3058,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.10444635377510471</v>
+        <v>0.091572998031371061</v>
       </c>
     </row>
     <row r="147">
@@ -3064,12 +3071,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.08327602017423201</v>
+        <v>0.10444635377510471</v>
       </c>
     </row>
     <row r="148">
@@ -3077,12 +3084,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.095654478007419177</v>
+        <v>0.083290341071940388</v>
       </c>
     </row>
     <row r="149">
@@ -3090,12 +3097,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.087862081036142473</v>
+        <v>0.095659547405797865</v>
       </c>
     </row>
     <row r="150">
@@ -3103,12 +3110,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.08184722625617194</v>
+        <v>0.087846705748534426</v>
       </c>
     </row>
     <row r="151">
@@ -3116,12 +3123,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.094689291712515208</v>
+        <v>0.0818614919823379</v>
       </c>
     </row>
     <row r="152">
@@ -3129,12 +3136,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.098966798235430697</v>
+        <v>0.094689291712515208</v>
       </c>
     </row>
     <row r="153">
@@ -3142,12 +3149,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.096554460683817206</v>
+        <v>0.098978288633461045</v>
       </c>
     </row>
     <row r="154">
@@ -3155,12 +3162,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.077366681785783709</v>
+        <v>0.096560846560846555</v>
       </c>
     </row>
     <row r="155">
@@ -3168,12 +3175,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.082518518518518519</v>
+        <v>0.077371695178849148</v>
       </c>
     </row>
     <row r="156">
@@ -3181,12 +3188,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.090424271154301961</v>
+        <v>0.08252463145418179</v>
       </c>
     </row>
     <row r="157">
@@ -3194,12 +3201,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.084181174165347802</v>
+        <v>0.090413556108543666</v>
       </c>
     </row>
     <row r="158">
@@ -3207,12 +3214,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.094306440976038686</v>
+        <v>0.084193864475766947</v>
       </c>
     </row>
     <row r="159">
@@ -3220,12 +3227,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.095636025998142984</v>
+        <v>0.094299531066822984</v>
       </c>
     </row>
     <row r="160">
@@ -3233,12 +3240,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.085699045812837077</v>
+        <v>0.095629195829167263</v>
       </c>
     </row>
     <row r="161">
@@ -3246,12 +3253,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.082752613240418119</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="162">
@@ -3259,12 +3266,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.080460996691921888</v>
+        <v>0.082752613240418119</v>
       </c>
     </row>
     <row r="163">
@@ -3272,12 +3279,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.090544986411099981</v>
+        <v>0.080469583778014941</v>
       </c>
     </row>
     <row r="164">
@@ -3285,12 +3292,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.082537115978244896</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="165">
@@ -3298,12 +3305,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.091642070405298398</v>
+        <v>0.082543182653436242</v>
       </c>
     </row>
     <row r="166">
@@ -3311,12 +3318,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.092484342379958243</v>
+        <v>0.091622282999856058</v>
       </c>
     </row>
     <row r="167">
@@ -3324,12 +3331,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.098421788639541846</v>
+        <v>0.092465038614068046</v>
       </c>
     </row>
     <row r="168">
@@ -3337,12 +3344,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.084585912172119068</v>
+        <v>0.09843489843489843</v>
       </c>
     </row>
     <row r="169">
@@ -3350,12 +3357,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.076495553759094587</v>
+        <v>0.08457968024755029</v>
       </c>
     </row>
     <row r="170">
@@ -3363,12 +3370,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.086890705419315775</v>
+        <v>0.076480096989290772</v>
       </c>
     </row>
     <row r="171">
@@ -3376,12 +3383,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.090123046225473888</v>
+        <v>0.08690386071158214</v>
       </c>
     </row>
     <row r="172">
@@ -3389,12 +3396,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.093507333908541851</v>
+        <v>0.090115554077645696</v>
       </c>
     </row>
     <row r="173">
@@ -3402,12 +3409,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.097790055248618779</v>
+        <v>0.093487168427862838</v>
       </c>
     </row>
     <row r="174">
@@ -3415,12 +3422,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.08633861825351187</v>
+        <v>0.097799060686987752</v>
       </c>
     </row>
     <row r="175">
@@ -3428,12 +3435,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.08943089430894309</v>
+        <v>0.086352805849971237</v>
       </c>
     </row>
     <row r="176">
@@ -3441,12 +3448,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.07803342739309746</v>
+        <v>0.089423321195698194</v>
       </c>
     </row>
     <row r="177">
@@ -3454,12 +3461,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.07856283307546845</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="178">
@@ -3467,12 +3474,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.081078212883370471</v>
+        <v>0.078576341127922972</v>
       </c>
     </row>
     <row r="179">
@@ -3480,12 +3487,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.081884409907722194</v>
+        <v>0.08106960950764007</v>
       </c>
     </row>
     <row r="180">
@@ -3493,12 +3500,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.099384344766930519</v>
+        <v>0.081868505389919397</v>
       </c>
     </row>
     <row r="181">
@@ -3506,12 +3513,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.089926423835044053</v>
+        <v>0.099373419808728158</v>
       </c>
     </row>
     <row r="182">
@@ -3519,12 +3526,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.076471473731747702</v>
+        <v>0.089934593023255807</v>
       </c>
     </row>
     <row r="183">
@@ -3532,12 +3539,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.070592010267928773</v>
+        <v>0.076471473731747702</v>
       </c>
     </row>
     <row r="184">
@@ -3545,12 +3552,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.076412590064467198</v>
+        <v>0.070580686557587424</v>
       </c>
     </row>
     <row r="185">
@@ -3558,12 +3565,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.08186005051255385</v>
+        <v>0.076398104265402847</v>
       </c>
     </row>
     <row r="186">
@@ -3571,12 +3578,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.087733040889863695</v>
+        <v>0.08186005051255385</v>
       </c>
     </row>
     <row r="187">
@@ -3584,12 +3591,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.09723233794610342</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="188">
@@ -3597,12 +3604,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.082788944723618085</v>
+        <v>0.097220536472872918</v>
       </c>
     </row>
     <row r="189">
@@ -3610,12 +3617,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.073184676958261863</v>
+        <v>0.082778545408868226</v>
       </c>
     </row>
     <row r="190">
@@ -3623,12 +3630,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.062983425414364635</v>
+        <v>0.073176309169906237</v>
       </c>
     </row>
     <row r="191">
@@ -3636,12 +3643,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.055922330097087379</v>
+        <v>0.063006632277081795</v>
       </c>
     </row>
     <row r="192">
@@ -3649,12 +3656,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.060979365568216815</v>
+        <v>0.055922330097087379</v>
       </c>
     </row>
     <row r="193">
@@ -3662,12 +3669,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.070777855641205326</v>
+        <v>0.060979365568216815</v>
       </c>
     </row>
     <row r="194">
@@ -3675,12 +3682,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.068512353250394259</v>
+        <v>0.07080266386260077</v>
       </c>
     </row>
     <row r="195">
@@ -3688,12 +3695,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.068512353250394259</v>
       </c>
     </row>
     <row r="196">
@@ -3701,12 +3708,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="197">
@@ -3714,12 +3721,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.054336989032901295</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="198">
@@ -3727,12 +3734,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.041267501842299187</v>
+        <v>0.054336989032901295</v>
       </c>
     </row>
     <row r="199">
@@ -3740,12 +3747,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.064477468839884949</v>
+        <v>0.041267501842299187</v>
       </c>
     </row>
     <row r="200">
@@ -3753,12 +3760,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.082527705729780715</v>
+        <v>0.064477468839884949</v>
       </c>
     </row>
     <row r="201">
@@ -3766,12 +3773,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.07251545411317166</v>
+        <v>0.082527705729780715</v>
       </c>
     </row>
     <row r="202">
@@ -3779,12 +3786,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.083076245041868668</v>
+        <v>0.072549952426260708</v>
       </c>
     </row>
     <row r="203">
@@ -3792,12 +3799,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083076245041868668</v>
       </c>
     </row>
     <row r="204">
@@ -3805,12 +3812,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.071381142098273578</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="205">
@@ -3818,12 +3825,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.064839219820769636</v>
+        <v>0.071404848887412817</v>
       </c>
     </row>
     <row r="206">
@@ -3831,12 +3838,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.063265982113282548</v>
+        <v>0.064839219820769636</v>
       </c>
     </row>
     <row r="207">
@@ -3844,12 +3851,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.077595066803699903</v>
+        <v>0.063265982113282548</v>
       </c>
     </row>
     <row r="208">
@@ -3857,12 +3864,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.070043103448275856</v>
+        <v>0.077615008995116933</v>
       </c>
     </row>
     <row r="209">
@@ -3870,12 +3877,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.073793490460157124</v>
+        <v>0.070043103448275856</v>
       </c>
     </row>
     <row r="210">
@@ -3883,12 +3890,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.097416020671834622</v>
+        <v>0.073793490460157124</v>
       </c>
     </row>
     <row r="211">
@@ -3896,12 +3903,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.080078125</v>
+        <v>0.097416020671834622</v>
       </c>
     </row>
     <row r="212">
@@ -3909,12 +3916,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.080078125</v>
       </c>
     </row>
     <row r="213">
@@ -3922,12 +3929,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.12931034482758622</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="214">
@@ -3935,12 +3942,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.087874659400544966</v>
+        <v>0.12931034482758622</v>
       </c>
     </row>
     <row r="215">
@@ -3948,12 +3955,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087874659400544966</v>
       </c>
     </row>
     <row r="216">
@@ -3961,12 +3968,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.11584089323098395</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="217">
@@ -3974,12 +3981,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.10538486950776346</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="218">
@@ -3987,12 +3994,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10538486950776346</v>
       </c>
     </row>
     <row r="219">
@@ -4000,12 +4007,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="220">
@@ -4013,12 +4020,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.12842388863942525</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="221">
@@ -4026,12 +4033,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12842388863942525</v>
       </c>
     </row>
     <row r="222">
@@ -4039,12 +4046,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.11855203619909502</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="223">
@@ -4052,12 +4059,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.11855203619909502</v>
       </c>
     </row>
     <row r="224">
@@ -4065,12 +4072,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.12741935483870967</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="225">
@@ -4078,12 +4085,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12741935483870967</v>
       </c>
     </row>
     <row r="226">
@@ -4091,12 +4098,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="227">
@@ -4104,12 +4111,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.16271186440677965</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="228">
@@ -4117,12 +4124,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.16271186440677965</v>
       </c>
     </row>
     <row r="229">
@@ -4130,12 +4137,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.084019769357495888</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="230">
@@ -4143,12 +4150,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084019769357495888</v>
       </c>
     </row>
     <row r="231">
@@ -4156,12 +4163,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="232">
@@ -4169,12 +4176,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="233">
@@ -4182,12 +4189,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="234">
@@ -4195,12 +4202,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.081988804741521232</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="235">
@@ -4208,12 +4215,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.084626755358462674</v>
+        <v>0.08201581027667984</v>
       </c>
     </row>
     <row r="236">
@@ -4221,12 +4228,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.08068376068376068</v>
+        <v>0.084626755358462674</v>
       </c>
     </row>
     <row r="237">
@@ -4234,12 +4241,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.068027210884353748</v>
+        <v>0.08068376068376068</v>
       </c>
     </row>
     <row r="238">
@@ -4247,12 +4254,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.074540503744043571</v>
+        <v>0.068027210884353748</v>
       </c>
     </row>
     <row r="239">
@@ -4260,18 +4267,20 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="5"/>
+      <c r="E239" s="5">
+        <v>0.074540503744043571</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -4282,7 +4291,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -4293,7 +4302,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -4304,7 +4313,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -4315,7 +4324,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -4326,7 +4335,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4337,7 +4346,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4348,7 +4357,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4359,7 +4368,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4370,7 +4379,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4381,7 +4390,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4392,7 +4401,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4403,7 +4412,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4414,7 +4423,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4425,7 +4434,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4435,7 +4444,9 @@
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B255" s="4"/>
+      <c r="B255" s="4">
+        <v>936</v>
+      </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5"/>
@@ -4557,6 +4568,15 @@
       <c r="D268" s="4"/>
       <c r="E268" s="5"/>
     </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+  <si>
+    <t>11/25/2020</t>
+  </si>
   <si>
     <t>11/24/2020</t>
   </si>
@@ -915,24 +918,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E270"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2">
@@ -949,13 +952,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>36407</v>
+        <v>41746</v>
       </c>
       <c r="C3" s="4">
-        <v>35094</v>
+        <v>36761</v>
       </c>
       <c r="D3" s="4">
-        <v>1313</v>
+        <v>4985</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -964,16 +967,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>37499</v>
+        <v>40636</v>
       </c>
       <c r="C4" s="4">
-        <v>36141</v>
+        <v>39218</v>
       </c>
       <c r="D4" s="4">
-        <v>1358</v>
+        <v>1418</v>
       </c>
       <c r="E4" s="5">
-        <v>0.065175866157291526</v>
+        <v>0.072531501755835573</v>
       </c>
     </row>
     <row r="5">
@@ -981,16 +984,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>48119</v>
+        <v>41146</v>
       </c>
       <c r="C5" s="4">
-        <v>45161</v>
+        <v>39720</v>
       </c>
       <c r="D5" s="4">
-        <v>2958</v>
+        <v>1426</v>
       </c>
       <c r="E5" s="5">
-        <v>0.066813961293209531</v>
+        <v>0.065468549422336333</v>
       </c>
     </row>
     <row r="6">
@@ -998,16 +1001,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>56541</v>
+        <v>51941</v>
       </c>
       <c r="C6" s="4">
-        <v>51875</v>
+        <v>48111</v>
       </c>
       <c r="D6" s="4">
-        <v>4666</v>
+        <v>3830</v>
       </c>
       <c r="E6" s="5">
-        <v>0.073281758044623835</v>
+        <v>0.06773637448614242</v>
       </c>
     </row>
     <row r="7">
@@ -1015,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>53248</v>
+        <v>57272</v>
       </c>
       <c r="C7" s="4">
-        <v>49658</v>
+        <v>52257</v>
       </c>
       <c r="D7" s="4">
-        <v>3590</v>
+        <v>5015</v>
       </c>
       <c r="E7" s="5">
-        <v>0.073247135498791124</v>
+        <v>0.069685731016982236</v>
       </c>
     </row>
     <row r="8">
@@ -1032,16 +1035,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>49732</v>
+        <v>53694</v>
       </c>
       <c r="C8" s="4">
-        <v>45567</v>
+        <v>49807</v>
       </c>
       <c r="D8" s="4">
-        <v>4165</v>
+        <v>3887</v>
       </c>
       <c r="E8" s="5">
-        <v>0.078676996926186363</v>
+        <v>0.072900955253896435</v>
       </c>
     </row>
     <row r="9">
@@ -1049,16 +1052,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>34703</v>
+        <v>50045</v>
       </c>
       <c r="C9" s="4">
-        <v>30557</v>
+        <v>45571</v>
       </c>
       <c r="D9" s="4">
-        <v>4146</v>
+        <v>4474</v>
       </c>
       <c r="E9" s="5">
-        <v>0.077894265009836386</v>
+        <v>0.078940731399747791</v>
       </c>
     </row>
     <row r="10">
@@ -1066,16 +1069,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>29491</v>
+        <v>34982</v>
       </c>
       <c r="C10" s="4">
-        <v>28632</v>
+        <v>30560</v>
       </c>
       <c r="D10" s="4">
-        <v>859</v>
+        <v>4422</v>
       </c>
       <c r="E10" s="5">
-        <v>0.093575237352061386</v>
+        <v>0.077955717167691965</v>
       </c>
     </row>
     <row r="11">
@@ -1083,16 +1086,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>35580</v>
+        <v>29498</v>
       </c>
       <c r="C11" s="4">
-        <v>34663</v>
+        <v>28639</v>
       </c>
       <c r="D11" s="4">
-        <v>917</v>
+        <v>859</v>
       </c>
       <c r="E11" s="5">
-        <v>0.087630710508528484</v>
+        <v>0.093628088426527964</v>
       </c>
     </row>
     <row r="12">
@@ -1100,16 +1103,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>40849</v>
+        <v>35573</v>
       </c>
       <c r="C12" s="4">
-        <v>38310</v>
+        <v>34658</v>
       </c>
       <c r="D12" s="4">
-        <v>2539</v>
+        <v>915</v>
       </c>
       <c r="E12" s="5">
-        <v>0.080583950541715119</v>
+        <v>0.087634194831013923</v>
       </c>
     </row>
     <row r="13">
@@ -1117,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>48220</v>
+        <v>40857</v>
       </c>
       <c r="C13" s="4">
-        <v>44452</v>
+        <v>38310</v>
       </c>
       <c r="D13" s="4">
-        <v>3768</v>
+        <v>2547</v>
       </c>
       <c r="E13" s="5">
-        <v>0.077281607591403845</v>
+        <v>0.080616025228866225</v>
       </c>
     </row>
     <row r="14">
@@ -1134,16 +1137,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>46420</v>
+        <v>48224</v>
       </c>
       <c r="C14" s="4">
-        <v>43250</v>
+        <v>44445</v>
       </c>
       <c r="D14" s="4">
-        <v>3170</v>
+        <v>3779</v>
       </c>
       <c r="E14" s="5">
-        <v>0.078047559449311646</v>
+        <v>0.077343902643257884</v>
       </c>
     </row>
     <row r="15">
@@ -1151,16 +1154,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>41204</v>
+        <v>46425</v>
       </c>
       <c r="C15" s="4">
-        <v>37686</v>
+        <v>43248</v>
       </c>
       <c r="D15" s="4">
-        <v>3518</v>
+        <v>3177</v>
       </c>
       <c r="E15" s="5">
-        <v>0.076040868454661556</v>
+        <v>0.078094093492576178</v>
       </c>
     </row>
     <row r="16">
@@ -1168,16 +1171,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>29172</v>
+        <v>41209</v>
       </c>
       <c r="C16" s="4">
-        <v>25714</v>
+        <v>37686</v>
       </c>
       <c r="D16" s="4">
-        <v>3458</v>
+        <v>3523</v>
       </c>
       <c r="E16" s="5">
-        <v>0.077330784603353894</v>
+        <v>0.076046695787672106</v>
       </c>
     </row>
     <row r="17">
@@ -1185,16 +1188,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>26350</v>
+        <v>29186</v>
       </c>
       <c r="C17" s="4">
-        <v>25612</v>
+        <v>25713</v>
       </c>
       <c r="D17" s="4">
-        <v>738</v>
+        <v>3473</v>
       </c>
       <c r="E17" s="5">
-        <v>0.080920683294570542</v>
+        <v>0.077304060707872324</v>
       </c>
     </row>
     <row r="18">
@@ -1202,16 +1205,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>34438</v>
+        <v>26350</v>
       </c>
       <c r="C18" s="4">
-        <v>33669</v>
+        <v>25612</v>
       </c>
       <c r="D18" s="4">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="E18" s="5">
-        <v>0.075351444198345607</v>
+        <v>0.08094779889343276</v>
       </c>
     </row>
     <row r="19">
@@ -1219,16 +1222,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>40048</v>
+        <v>34438</v>
       </c>
       <c r="C19" s="4">
-        <v>38092</v>
+        <v>33669</v>
       </c>
       <c r="D19" s="4">
-        <v>1956</v>
+        <v>769</v>
       </c>
       <c r="E19" s="5">
-        <v>0.065449835848317817</v>
+        <v>0.075393238112457059</v>
       </c>
     </row>
     <row r="20">
@@ -1236,16 +1239,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>44844</v>
+        <v>40050</v>
       </c>
       <c r="C20" s="4">
-        <v>41768</v>
+        <v>38089</v>
       </c>
       <c r="D20" s="4">
-        <v>3076</v>
+        <v>1961</v>
       </c>
       <c r="E20" s="5">
-        <v>0.058831603799483885</v>
+        <v>0.06536538345683475</v>
       </c>
     </row>
     <row r="21">
@@ -1253,16 +1256,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>47564</v>
+        <v>44852</v>
       </c>
       <c r="C21" s="4">
-        <v>45097</v>
+        <v>41768</v>
       </c>
       <c r="D21" s="4">
-        <v>2467</v>
+        <v>3084</v>
       </c>
       <c r="E21" s="5">
-        <v>0.066528332820985761</v>
+        <v>0.058796080261315914</v>
       </c>
     </row>
     <row r="22">
@@ -1270,16 +1273,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>43251</v>
+        <v>47563</v>
       </c>
       <c r="C22" s="4">
-        <v>40488</v>
+        <v>45096</v>
       </c>
       <c r="D22" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E22" s="5">
-        <v>0.064523216639812503</v>
+        <v>0.066584684753926163</v>
       </c>
     </row>
     <row r="23">
@@ -1287,16 +1290,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>25511</v>
+        <v>43251</v>
       </c>
       <c r="C23" s="4">
-        <v>22372</v>
+        <v>40488</v>
       </c>
       <c r="D23" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E23" s="5">
-        <v>0.065539757124549944</v>
+        <v>0.064479113259601067</v>
       </c>
     </row>
     <row r="24">
@@ -1304,16 +1307,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C24" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D24" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E24" s="5">
-        <v>0.074552355804934398</v>
+        <v>0.065533758428166097</v>
       </c>
     </row>
     <row r="25">
@@ -1321,16 +1324,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>33471</v>
+        <v>26650</v>
       </c>
       <c r="C25" s="4">
-        <v>32650</v>
+        <v>26087</v>
       </c>
       <c r="D25" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E25" s="5">
-        <v>0.06790254687699307</v>
+        <v>0.074552355804934398</v>
       </c>
     </row>
     <row r="26">
@@ -1338,16 +1341,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>38983</v>
+        <v>33471</v>
       </c>
       <c r="C26" s="4">
-        <v>37123</v>
+        <v>32650</v>
       </c>
       <c r="D26" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E26" s="5">
-        <v>0.063467638099425308</v>
+        <v>0.067908321639664926</v>
       </c>
     </row>
     <row r="27">
@@ -1355,16 +1358,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>45025</v>
+        <v>38983</v>
       </c>
       <c r="C27" s="4">
-        <v>42020</v>
+        <v>37123</v>
       </c>
       <c r="D27" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E27" s="5">
-        <v>0.059596920681601939</v>
+        <v>0.063467638099425308</v>
       </c>
     </row>
     <row r="28">
@@ -1372,16 +1375,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>45534</v>
+        <v>45024</v>
       </c>
       <c r="C28" s="4">
-        <v>43057</v>
+        <v>42019</v>
       </c>
       <c r="D28" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E28" s="5">
-        <v>0.060453884361021927</v>
+        <v>0.059600357544476804</v>
       </c>
     </row>
     <row r="29">
@@ -1389,16 +1392,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>38786</v>
+        <v>45533</v>
       </c>
       <c r="C29" s="4">
-        <v>36622</v>
+        <v>43056</v>
       </c>
       <c r="D29" s="4">
-        <v>2164</v>
+        <v>2477</v>
       </c>
       <c r="E29" s="5">
-        <v>0.059414044632754758</v>
+        <v>0.060424784589210252</v>
       </c>
     </row>
     <row r="30">
@@ -1406,16 +1409,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>23935</v>
+        <v>38786</v>
       </c>
       <c r="C30" s="4">
-        <v>21589</v>
+        <v>36622</v>
       </c>
       <c r="D30" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E30" s="5">
-        <v>0.064333898248762164</v>
+        <v>0.059418335901386746</v>
       </c>
     </row>
     <row r="31">
@@ -1423,16 +1426,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C31" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D31" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E31" s="5">
-        <v>0.070302355778148765</v>
+        <v>0.064336036155788909</v>
       </c>
     </row>
     <row r="32">
@@ -1440,16 +1443,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>30465</v>
+        <v>25467</v>
       </c>
       <c r="C32" s="4">
-        <v>29982</v>
+        <v>25050</v>
       </c>
       <c r="D32" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E32" s="5">
-        <v>0.075187032418952623</v>
+        <v>0.070295836038208284</v>
       </c>
     </row>
     <row r="33">
@@ -1457,16 +1460,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>37762</v>
+        <v>30465</v>
       </c>
       <c r="C33" s="4">
-        <v>36577</v>
+        <v>29982</v>
       </c>
       <c r="D33" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E33" s="5">
-        <v>0.06211618550151761</v>
+        <v>0.075099634672866164</v>
       </c>
     </row>
     <row r="34">
@@ -1474,16 +1477,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>40617</v>
+        <v>37761</v>
       </c>
       <c r="C34" s="4">
-        <v>38707</v>
+        <v>36576</v>
       </c>
       <c r="D34" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E34" s="5">
-        <v>0.063890577507598786</v>
+        <v>0.06212057037978258</v>
       </c>
     </row>
     <row r="35">
@@ -1491,16 +1494,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>46378</v>
+        <v>40615</v>
       </c>
       <c r="C35" s="4">
-        <v>44987</v>
+        <v>38705</v>
       </c>
       <c r="D35" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E35" s="5">
-        <v>0.063682485995137941</v>
+        <v>0.063913202042304884</v>
       </c>
     </row>
     <row r="36">
@@ -1508,16 +1511,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>36461</v>
+        <v>46377</v>
       </c>
       <c r="C36" s="4">
-        <v>34717</v>
+        <v>44986</v>
       </c>
       <c r="D36" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E36" s="5">
-        <v>0.059073663840297407</v>
+        <v>0.063690900922328819</v>
       </c>
     </row>
     <row r="37">
@@ -1525,16 +1528,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>18358</v>
+        <v>36461</v>
       </c>
       <c r="C37" s="4">
-        <v>16519</v>
+        <v>34717</v>
       </c>
       <c r="D37" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E37" s="5">
-        <v>0.061720652254113481</v>
+        <v>0.059094729870857635</v>
       </c>
     </row>
     <row r="38">
@@ -1542,16 +1545,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>23352</v>
+        <v>18358</v>
       </c>
       <c r="C38" s="4">
-        <v>23016</v>
+        <v>16519</v>
       </c>
       <c r="D38" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E38" s="5">
-        <v>0.077015920455198575</v>
+        <v>0.061725206611570251</v>
       </c>
     </row>
     <row r="39">
@@ -1559,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>32965</v>
+        <v>23351</v>
       </c>
       <c r="C39" s="4">
-        <v>32573</v>
+        <v>23015</v>
       </c>
       <c r="D39" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E39" s="5">
-        <v>0.074012165111203981</v>
+        <v>0.077002643374324789</v>
       </c>
     </row>
     <row r="40">
@@ -1576,16 +1579,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>34487</v>
+        <v>32965</v>
       </c>
       <c r="C40" s="4">
-        <v>33612</v>
+        <v>32573</v>
       </c>
       <c r="D40" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E40" s="5">
-        <v>0.058625038344865196</v>
+        <v>0.074008728758473391</v>
       </c>
     </row>
     <row r="41">
@@ -1593,16 +1596,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>41547</v>
+        <v>34487</v>
       </c>
       <c r="C41" s="4">
-        <v>40052</v>
+        <v>33612</v>
       </c>
       <c r="D41" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E41" s="5">
-        <v>0.061094865264283246</v>
+        <v>0.058629035006987761</v>
       </c>
     </row>
     <row r="42">
@@ -1610,16 +1613,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>42278</v>
+        <v>41547</v>
       </c>
       <c r="C42" s="4">
-        <v>41159</v>
+        <v>40052</v>
       </c>
       <c r="D42" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E42" s="5">
-        <v>0.065638350995949626</v>
+        <v>0.061098707587811704</v>
       </c>
     </row>
     <row r="43">
@@ -1627,16 +1630,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>34255</v>
+        <v>42278</v>
       </c>
       <c r="C43" s="4">
-        <v>32806</v>
+        <v>41159</v>
       </c>
       <c r="D43" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E43" s="5">
-        <v>0.060577921013819848</v>
+        <v>0.065610608666703651</v>
       </c>
     </row>
     <row r="44">
@@ -1644,16 +1647,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>21624</v>
+        <v>34255</v>
       </c>
       <c r="C44" s="4">
-        <v>20492</v>
+        <v>32806</v>
       </c>
       <c r="D44" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E44" s="5">
-        <v>0.066746752759216155</v>
+        <v>0.060610199120482912</v>
       </c>
     </row>
     <row r="45">
@@ -1661,16 +1664,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>21602</v>
+        <v>21624</v>
       </c>
       <c r="C45" s="4">
-        <v>21324</v>
+        <v>20492</v>
       </c>
       <c r="D45" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E45" s="5">
-        <v>0.067716535433070865</v>
+        <v>0.066709212403333579</v>
       </c>
     </row>
     <row r="46">
@@ -1678,16 +1681,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>32567</v>
+        <v>21602</v>
       </c>
       <c r="C46" s="4">
-        <v>32228</v>
+        <v>21324</v>
       </c>
       <c r="D46" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E46" s="5">
-        <v>0.070168260624968032</v>
+        <v>0.067710073006632635</v>
       </c>
     </row>
     <row r="47">
@@ -1695,16 +1698,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>37220</v>
+        <v>32567</v>
       </c>
       <c r="C47" s="4">
-        <v>36213</v>
+        <v>32228</v>
       </c>
       <c r="D47" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E47" s="5">
-        <v>0.056486439799619967</v>
+        <v>0.070171849427168573</v>
       </c>
     </row>
     <row r="48">
@@ -1712,16 +1715,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>42410</v>
+        <v>37220</v>
       </c>
       <c r="C48" s="4">
-        <v>41135</v>
+        <v>36213</v>
       </c>
       <c r="D48" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E48" s="5">
-        <v>0.055545897079276776</v>
+        <v>0.056526846797042361</v>
       </c>
     </row>
     <row r="49">
@@ -1729,16 +1732,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>40908</v>
+        <v>42410</v>
       </c>
       <c r="C49" s="4">
-        <v>40013</v>
+        <v>41135</v>
       </c>
       <c r="D49" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E49" s="5">
-        <v>0.050222555907116426</v>
+        <v>0.055599014921048823</v>
       </c>
     </row>
     <row r="50">
@@ -1746,16 +1749,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>34439</v>
+        <v>40907</v>
       </c>
       <c r="C50" s="4">
-        <v>33417</v>
+        <v>40012</v>
       </c>
       <c r="D50" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E50" s="5">
-        <v>0.057362773189505029</v>
+        <v>0.050152872391782441</v>
       </c>
     </row>
     <row r="51">
@@ -1763,16 +1766,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>17757</v>
+        <v>34439</v>
       </c>
       <c r="C51" s="4">
-        <v>16842</v>
+        <v>33417</v>
       </c>
       <c r="D51" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E51" s="5">
-        <v>0.056904429256504171</v>
+        <v>0.057361161830388495</v>
       </c>
     </row>
     <row r="52">
@@ -1780,16 +1783,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>18036</v>
+        <v>17757</v>
       </c>
       <c r="C52" s="4">
-        <v>17783</v>
+        <v>16842</v>
       </c>
       <c r="D52" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E52" s="5">
-        <v>0.064790818215475748</v>
+        <v>0.056902280622262498</v>
       </c>
     </row>
     <row r="53">
@@ -1797,16 +1800,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>26990</v>
+        <v>18036</v>
       </c>
       <c r="C53" s="4">
-        <v>26697</v>
+        <v>17783</v>
       </c>
       <c r="D53" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E53" s="5">
-        <v>0.078836497951174464</v>
+        <v>0.064726914067315997</v>
       </c>
     </row>
     <row r="54">
@@ -1814,16 +1817,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>32471</v>
+        <v>26990</v>
       </c>
       <c r="C54" s="4">
-        <v>31836</v>
+        <v>26697</v>
       </c>
       <c r="D54" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E54" s="5">
-        <v>0.062073406310367028</v>
+        <v>0.078827399157481673</v>
       </c>
     </row>
     <row r="55">
@@ -1831,16 +1834,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>36027</v>
+        <v>32471</v>
       </c>
       <c r="C55" s="4">
-        <v>35410</v>
+        <v>31836</v>
       </c>
       <c r="D55" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E55" s="5">
-        <v>0.061195397617350572</v>
+        <v>0.062081401339515715</v>
       </c>
     </row>
     <row r="56">
@@ -1848,16 +1851,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>40621</v>
+        <v>36026</v>
       </c>
       <c r="C56" s="4">
-        <v>39873</v>
+        <v>35409</v>
       </c>
       <c r="D56" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E56" s="5">
-        <v>0.054764776839565744</v>
+        <v>0.061189167175727956</v>
       </c>
     </row>
     <row r="57">
@@ -1865,16 +1868,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>29214</v>
+        <v>40621</v>
       </c>
       <c r="C57" s="4">
-        <v>28550</v>
+        <v>39873</v>
       </c>
       <c r="D57" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E57" s="5">
-        <v>0.0544711121068698</v>
+        <v>0.054720965309200606</v>
       </c>
     </row>
     <row r="58">
@@ -1882,16 +1885,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>14197</v>
+        <v>29214</v>
       </c>
       <c r="C58" s="4">
-        <v>13652</v>
+        <v>28550</v>
       </c>
       <c r="D58" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E58" s="5">
-        <v>0.058134820070957931</v>
+        <v>0.054550546065527866</v>
       </c>
     </row>
     <row r="59">
@@ -1899,16 +1902,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>13895</v>
+        <v>14197</v>
       </c>
       <c r="C59" s="4">
-        <v>13783</v>
+        <v>13652</v>
       </c>
       <c r="D59" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E59" s="5">
-        <v>0.066649259090018925</v>
+        <v>0.058125981857801649</v>
       </c>
     </row>
     <row r="60">
@@ -1916,16 +1919,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>26001</v>
+        <v>13895</v>
       </c>
       <c r="C60" s="4">
-        <v>25904</v>
+        <v>13783</v>
       </c>
       <c r="D60" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E60" s="5">
-        <v>0.059923193971451343</v>
+        <v>0.06663186060170985</v>
       </c>
     </row>
     <row r="61">
@@ -1933,16 +1936,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>31552</v>
+        <v>26001</v>
       </c>
       <c r="C61" s="4">
-        <v>31221</v>
+        <v>25904</v>
       </c>
       <c r="D61" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E61" s="5">
-        <v>0.053124209461168734</v>
+        <v>0.059927536231884057</v>
       </c>
     </row>
     <row r="62">
@@ -1950,16 +1953,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>36113</v>
+        <v>31552</v>
       </c>
       <c r="C62" s="4">
-        <v>35782</v>
+        <v>31221</v>
       </c>
       <c r="D62" s="4">
         <v>331</v>
       </c>
       <c r="E62" s="5">
-        <v>0.049598359254828236</v>
+        <v>0.053164130022344956</v>
       </c>
     </row>
     <row r="63">
@@ -1967,16 +1970,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>38427</v>
+        <v>36113</v>
       </c>
       <c r="C63" s="4">
-        <v>38063</v>
+        <v>35782</v>
       </c>
       <c r="D63" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E63" s="5">
-        <v>0.045741040878804248</v>
+        <v>0.049594968725433231</v>
       </c>
     </row>
     <row r="64">
@@ -1984,16 +1987,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>28541</v>
+        <v>38426</v>
       </c>
       <c r="C64" s="4">
-        <v>28167</v>
+        <v>38062</v>
       </c>
       <c r="D64" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E64" s="5">
-        <v>0.049110897512916016</v>
+        <v>0.045726123637673761</v>
       </c>
     </row>
     <row r="65">
@@ -2001,16 +2004,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>12621</v>
+        <v>28541</v>
       </c>
       <c r="C65" s="4">
-        <v>12306</v>
+        <v>28167</v>
       </c>
       <c r="D65" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E65" s="5">
-        <v>0.048547513540128019</v>
+        <v>0.049122701598365584</v>
       </c>
     </row>
     <row r="66">
@@ -2018,12 +2021,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+        <v>12621</v>
+      </c>
+      <c r="C66" s="4">
+        <v>12306</v>
+      </c>
+      <c r="D66" s="4">
+        <v>315</v>
+      </c>
       <c r="E66" s="5">
-        <v>0.053982843137254904</v>
+        <v>0.048505441473383565</v>
       </c>
     </row>
     <row r="67">
@@ -2031,12 +2038,12 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5">
-        <v>0.052798377384800657</v>
+        <v>0.05399607746996813</v>
       </c>
     </row>
     <row r="68">
@@ -2044,12 +2051,12 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5">
-        <v>0.052976190476190475</v>
+        <v>0.052795031055900624</v>
       </c>
     </row>
     <row r="69">
@@ -2057,12 +2064,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5">
-        <v>0.046192965108066114</v>
+        <v>0.053017122974086624</v>
       </c>
     </row>
     <row r="70">
@@ -2070,12 +2077,12 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5">
-        <v>0.047235712860089152</v>
+        <v>0.046188071612698188</v>
       </c>
     </row>
     <row r="71">
@@ -2083,12 +2090,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>0.047549563838223632</v>
+        <v>0.047251430853187809</v>
       </c>
     </row>
     <row r="72">
@@ -2096,12 +2103,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.057054277914025266</v>
+        <v>0.047552580655394472</v>
       </c>
     </row>
     <row r="73">
@@ -2109,12 +2116,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.057126502575844305</v>
+        <v>0.057048998288067365</v>
       </c>
     </row>
     <row r="74">
@@ -2122,12 +2129,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.049538060420563398</v>
+        <v>0.057113425660982028</v>
       </c>
     </row>
     <row r="75">
@@ -2135,12 +2142,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.047605115773635374</v>
+        <v>0.049540868382269586</v>
       </c>
     </row>
     <row r="76">
@@ -2148,12 +2155,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.049829207310631403</v>
+        <v>0.047599147477955621</v>
       </c>
     </row>
     <row r="77">
@@ -2161,12 +2168,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.050224863980878699</v>
+        <v>0.049830962107339061</v>
       </c>
     </row>
     <row r="78">
@@ -2174,12 +2181,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.051538598363571685</v>
+        <v>0.05022960306976159</v>
       </c>
     </row>
     <row r="79">
@@ -2187,12 +2194,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.064371719666563756</v>
+        <v>0.051559233061968947</v>
       </c>
     </row>
     <row r="80">
@@ -2200,12 +2207,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.070890677746039993</v>
+        <v>0.064361784225960797</v>
       </c>
     </row>
     <row r="81">
@@ -2213,12 +2220,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.059132809832707411</v>
+        <v>0.070890677746039993</v>
       </c>
     </row>
     <row r="82">
@@ -2226,12 +2233,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.056617852812237662</v>
+        <v>0.059144925556617947</v>
       </c>
     </row>
     <row r="83">
@@ -2239,12 +2246,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.059835537534578799</v>
+        <v>0.056620493447133997</v>
       </c>
     </row>
     <row r="84">
@@ -2252,12 +2259,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.053373581901413121</v>
+        <v>0.059842340635185329</v>
       </c>
     </row>
     <row r="85">
@@ -2265,12 +2272,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.063344827586206895</v>
+        <v>0.053397897250505789</v>
       </c>
     </row>
     <row r="86">
@@ -2278,12 +2285,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.06557287988265334</v>
+        <v>0.063336091573576059</v>
       </c>
     </row>
     <row r="87">
@@ -2291,12 +2298,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.076391112249471732</v>
+        <v>0.065576442464413784</v>
       </c>
     </row>
     <row r="88">
@@ -2304,12 +2311,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.06581644272375313</v>
+        <v>0.076391112249471732</v>
       </c>
     </row>
     <row r="89">
@@ -2317,12 +2324,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.076980535172898629</v>
+        <v>0.065812695701679483</v>
       </c>
     </row>
     <row r="90">
@@ -2330,12 +2337,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.059934748459338626</v>
+        <v>0.076990683775707502</v>
       </c>
     </row>
     <row r="91">
@@ -2343,12 +2350,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.062571550060510905</v>
+        <v>0.059887233185662504</v>
       </c>
     </row>
     <row r="92">
@@ -2356,12 +2363,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.071009528976906641</v>
+        <v>0.062571550060510905</v>
       </c>
     </row>
     <row r="93">
@@ -2369,12 +2376,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.065316509383946564</v>
+        <v>0.071021571021571028</v>
       </c>
     </row>
     <row r="94">
@@ -2382,12 +2389,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.080287029515299216</v>
+        <v>0.065319972429881773</v>
       </c>
     </row>
     <row r="95">
@@ -2395,12 +2402,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.073041721145845714</v>
+        <v>0.080365605958023015</v>
       </c>
     </row>
     <row r="96">
@@ -2408,12 +2415,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.064176683442166121</v>
+        <v>0.073041721145845714</v>
       </c>
     </row>
     <row r="97">
@@ -2421,12 +2428,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.064024274606485868</v>
+        <v>0.064187362203086656</v>
       </c>
     </row>
     <row r="98">
@@ -2434,12 +2441,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.069082540177874865</v>
+        <v>0.064067063687744188</v>
       </c>
     </row>
     <row r="99">
@@ -2447,12 +2454,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.075861255309108075</v>
+        <v>0.069082540177874865</v>
       </c>
     </row>
     <row r="100">
@@ -2460,12 +2467,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.065410452009563927</v>
+        <v>0.075876175117020023</v>
       </c>
     </row>
     <row r="101">
@@ -2473,12 +2480,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.068968088279153003</v>
+        <v>0.065414175918018791</v>
       </c>
     </row>
     <row r="102">
@@ -2486,12 +2493,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.063117715220503037</v>
+        <v>0.068968088279153003</v>
       </c>
     </row>
     <row r="103">
@@ -2499,12 +2506,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.063889684130165089</v>
+        <v>0.063113413304253005</v>
       </c>
     </row>
     <row r="104">
@@ -2512,12 +2519,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.063647764937740756</v>
+        <v>0.063886635812777329</v>
       </c>
     </row>
     <row r="105">
@@ -2525,12 +2532,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.059298289633253877</v>
+        <v>0.063639213578754086</v>
       </c>
     </row>
     <row r="106">
@@ -2538,12 +2545,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.064232738831008301</v>
+        <v>0.059303249550416125</v>
       </c>
     </row>
     <row r="107">
@@ -2551,12 +2558,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.062006434630008773</v>
+        <v>0.064258269663913792</v>
       </c>
     </row>
     <row r="108">
@@ -2564,12 +2571,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.064254385964912286</v>
+        <v>0.062010062010062011</v>
       </c>
     </row>
     <row r="109">
@@ -2577,12 +2584,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.052506282237799233</v>
+        <v>0.064254385964912286</v>
       </c>
     </row>
     <row r="110">
@@ -2590,12 +2597,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.05959014506101773</v>
+        <v>0.052506282237799233</v>
       </c>
     </row>
     <row r="111">
@@ -2603,12 +2610,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.068099188962431251</v>
+        <v>0.059592889380123422</v>
       </c>
     </row>
     <row r="112">
@@ -2616,12 +2623,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.070804825351098305</v>
+        <v>0.068102363305831345</v>
       </c>
     </row>
     <row r="113">
@@ -2629,12 +2636,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.075715404018439597</v>
+        <v>0.070817576084999098</v>
       </c>
     </row>
     <row r="114">
@@ -2642,12 +2649,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.07668016750188783</v>
+        <v>0.075721990257480859</v>
       </c>
     </row>
     <row r="115">
@@ -2655,12 +2662,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.067849028023226454</v>
+        <v>0.07667490389895662</v>
       </c>
     </row>
     <row r="116">
@@ -2668,12 +2675,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.072945223888620112</v>
+        <v>0.067836183504764308</v>
       </c>
     </row>
     <row r="117">
@@ -2681,12 +2688,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.06862841907771304</v>
+        <v>0.072964834928486932</v>
       </c>
     </row>
     <row r="118">
@@ -2694,12 +2701,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.066617350922615379</v>
+        <v>0.068638585748851913</v>
       </c>
     </row>
     <row r="119">
@@ -2707,12 +2714,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.072329298637763065</v>
+        <v>0.066685841071575311</v>
       </c>
     </row>
     <row r="120">
@@ -2720,12 +2727,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.074938618652812872</v>
+        <v>0.072338451155728026</v>
       </c>
     </row>
     <row r="121">
@@ -2733,12 +2740,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.069562913907284765</v>
+        <v>0.074946619217081845</v>
       </c>
     </row>
     <row r="122">
@@ -2746,12 +2753,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.071845682557916901</v>
+        <v>0.069562913907284765</v>
       </c>
     </row>
     <row r="123">
@@ -2759,12 +2766,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.076765169236644865</v>
+        <v>0.071856000765953373</v>
       </c>
     </row>
     <row r="124">
@@ -2772,12 +2779,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.078462251042149142</v>
+        <v>0.076768834144944148</v>
       </c>
     </row>
     <row r="125">
@@ -2785,12 +2792,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.074711915917437005</v>
+        <v>0.078458617016349402</v>
       </c>
     </row>
     <row r="126">
@@ -2798,12 +2805,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.084647515130849879</v>
+        <v>0.074718223648106721</v>
       </c>
     </row>
     <row r="127">
@@ -2811,12 +2818,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.077977720651242505</v>
+        <v>0.084658340082697472</v>
       </c>
     </row>
     <row r="128">
@@ -2824,12 +2831,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.076076255258211767</v>
+        <v>0.077986437141366716</v>
       </c>
     </row>
     <row r="129">
@@ -2837,12 +2844,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.080829963412285766</v>
+        <v>0.076076255258211767</v>
       </c>
     </row>
     <row r="130">
@@ -2850,12 +2857,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.069379211762303453</v>
+        <v>0.080785710846853792</v>
       </c>
     </row>
     <row r="131">
@@ -2863,12 +2870,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.080754481405511461</v>
+        <v>0.06939338235294118</v>
       </c>
     </row>
     <row r="132">
@@ -2876,12 +2883,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.084292952556425604</v>
+        <v>0.080758082497212932</v>
       </c>
     </row>
     <row r="133">
@@ -2889,12 +2896,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.073090352701165207</v>
+        <v>0.084299424184261035</v>
       </c>
     </row>
     <row r="134">
@@ -2902,12 +2909,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.087231112588442003</v>
+        <v>0.073096088201828377</v>
       </c>
     </row>
     <row r="135">
@@ -2915,12 +2922,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.078368447979163758</v>
+        <v>0.087222828925502108</v>
       </c>
     </row>
     <row r="136">
@@ -2928,12 +2935,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.096217407271391844</v>
+        <v>0.078368447979163758</v>
       </c>
     </row>
     <row r="137">
@@ -2941,12 +2948,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.092320340458458258</v>
+        <v>0.096237602980532092</v>
       </c>
     </row>
     <row r="138">
@@ -2954,12 +2961,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.091261530234838018</v>
+        <v>0.092324805339265847</v>
       </c>
     </row>
     <row r="139">
@@ -2967,12 +2974,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.095770005493499358</v>
+        <v>0.091277800062396927</v>
       </c>
     </row>
     <row r="140">
@@ -2980,12 +2987,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.093532897425418884</v>
+        <v>0.095770005493499358</v>
       </c>
     </row>
     <row r="141">
@@ -2993,12 +3000,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.085316467215725528</v>
+        <v>0.093523342527326594</v>
       </c>
     </row>
     <row r="142">
@@ -3006,12 +3013,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.088444636999442966</v>
+        <v>0.085286487962499435</v>
       </c>
     </row>
     <row r="143">
@@ -3019,12 +3026,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.092077270019572804</v>
+        <v>0.088493931136982909</v>
       </c>
     </row>
     <row r="144">
@@ -3032,12 +3039,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.084185943060498217</v>
+        <v>0.092085106382978718</v>
       </c>
     </row>
     <row r="145">
@@ -3045,12 +3052,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.089220662884443122</v>
+        <v>0.084204671857619581</v>
       </c>
     </row>
     <row r="146">
@@ -3058,12 +3065,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.091572998031371061</v>
+        <v>0.089210007762584337</v>
       </c>
     </row>
     <row r="147">
@@ -3071,12 +3078,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.10444635377510471</v>
+        <v>0.091590447154471538</v>
       </c>
     </row>
     <row r="148">
@@ -3084,12 +3091,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.083290341071940388</v>
+        <v>0.10445196283765641</v>
       </c>
     </row>
     <row r="149">
@@ -3097,12 +3104,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.095659547405797865</v>
+        <v>0.083309443265867783</v>
       </c>
     </row>
     <row r="150">
@@ -3110,12 +3117,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.087846705748534426</v>
+        <v>0.095664617341530631</v>
       </c>
     </row>
     <row r="151">
@@ -3123,12 +3130,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.0818614919823379</v>
+        <v>0.087862081036142473</v>
       </c>
     </row>
     <row r="152">
@@ -3136,12 +3143,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.094689291712515208</v>
+        <v>0.081866248329556676</v>
       </c>
     </row>
     <row r="153">
@@ -3149,12 +3156,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.098978288633461045</v>
+        <v>0.094711232114927879</v>
       </c>
     </row>
     <row r="154">
@@ -3162,12 +3169,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.096560846560846555</v>
+        <v>0.098966798235430697</v>
       </c>
     </row>
     <row r="155">
@@ -3175,12 +3182,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.077371695178849148</v>
+        <v>0.09660142819359957</v>
       </c>
     </row>
     <row r="156">
@@ -3188,12 +3195,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.08252463145418179</v>
+        <v>0.077386739257242848</v>
       </c>
     </row>
     <row r="157">
@@ -3201,12 +3208,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.090413556108543666</v>
+        <v>0.08252463145418179</v>
       </c>
     </row>
     <row r="158">
@@ -3214,12 +3221,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.084193864475766947</v>
+        <v>0.090413556108543666</v>
       </c>
     </row>
     <row r="159">
@@ -3227,12 +3234,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.094299531066822984</v>
+        <v>0.084212907117008448</v>
       </c>
     </row>
     <row r="160">
@@ -3240,12 +3247,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.095629195829167263</v>
+        <v>0.094244288224956063</v>
       </c>
     </row>
     <row r="161">
@@ -3253,12 +3260,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095622366635720921</v>
       </c>
     </row>
     <row r="162">
@@ -3266,12 +3273,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.082752613240418119</v>
+        <v>0.085704125177809384</v>
       </c>
     </row>
     <row r="163">
@@ -3279,12 +3286,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.080469583778014941</v>
+        <v>0.082763704597238974</v>
       </c>
     </row>
     <row r="164">
@@ -3292,12 +3299,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.080478172697192873</v>
       </c>
     </row>
     <row r="165">
@@ -3305,12 +3312,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.082543182653436242</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="166">
@@ -3318,12 +3325,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.091622282999856058</v>
+        <v>0.082555318679703005</v>
       </c>
     </row>
     <row r="167">
@@ -3331,12 +3338,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.092465038614068046</v>
+        <v>0.091622282999856058</v>
       </c>
     </row>
     <row r="168">
@@ -3344,12 +3351,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.09843489843489843</v>
+        <v>0.092465038614068046</v>
       </c>
     </row>
     <row r="169">
@@ -3357,12 +3364,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.08457968024755029</v>
+        <v>0.09841523505127181</v>
       </c>
     </row>
     <row r="170">
@@ -3370,12 +3377,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.076480096989290772</v>
+        <v>0.084585912172119068</v>
       </c>
     </row>
     <row r="171">
@@ -3383,12 +3390,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.08690386071158214</v>
+        <v>0.076495553759094587</v>
       </c>
     </row>
     <row r="172">
@@ -3396,12 +3403,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.090115554077645696</v>
+        <v>0.086890705419315775</v>
       </c>
     </row>
     <row r="173">
@@ -3409,12 +3416,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.093487168427862838</v>
+        <v>0.090115554077645696</v>
       </c>
     </row>
     <row r="174">
@@ -3422,12 +3429,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.097799060686987752</v>
+        <v>0.093497250080879973</v>
       </c>
     </row>
     <row r="175">
@@ -3435,12 +3442,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.086352805849971237</v>
+        <v>0.097790055248618779</v>
       </c>
     </row>
     <row r="176">
@@ -3448,12 +3455,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.089423321195698194</v>
+        <v>0.08636699810995152</v>
       </c>
     </row>
     <row r="177">
@@ -3461,12 +3468,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.089423321195698194</v>
       </c>
     </row>
     <row r="178">
@@ -3474,12 +3481,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.078576341127922972</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="179">
@@ -3487,12 +3494,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.08106960950764007</v>
+        <v>0.078576341127922972</v>
       </c>
     </row>
     <row r="180">
@@ -3500,12 +3507,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.081868505389919397</v>
+        <v>0.081078212883370471</v>
       </c>
     </row>
     <row r="181">
@@ -3513,12 +3520,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.099373419808728158</v>
+        <v>0.081860555447659744</v>
       </c>
     </row>
     <row r="182">
@@ -3526,12 +3533,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.089934593023255807</v>
+        <v>0.099362497252143328</v>
       </c>
     </row>
     <row r="183">
@@ -3539,12 +3546,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.076471473731747702</v>
+        <v>0.089934593023255807</v>
       </c>
     </row>
     <row r="184">
@@ -3552,12 +3559,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.070580686557587424</v>
+        <v>0.076494503839783165</v>
       </c>
     </row>
     <row r="185">
@@ -3565,12 +3572,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.076398104265402847</v>
+        <v>0.070580686557587424</v>
       </c>
     </row>
     <row r="186">
@@ -3578,12 +3585,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.08186005051255385</v>
+        <v>0.076412590064467198</v>
       </c>
     </row>
     <row r="187">
@@ -3591,12 +3598,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.08771929824561403</v>
+        <v>0.08186005051255385</v>
       </c>
     </row>
     <row r="188">
@@ -3604,12 +3611,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.097220536472872918</v>
+        <v>0.087746787840802254</v>
       </c>
     </row>
     <row r="189">
@@ -3617,12 +3624,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.082778545408868226</v>
+        <v>0.09723233794610342</v>
       </c>
     </row>
     <row r="190">
@@ -3630,12 +3637,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.073176309169906237</v>
+        <v>0.082799346651589389</v>
       </c>
     </row>
     <row r="191">
@@ -3643,12 +3650,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.063006632277081795</v>
+        <v>0.073184676958261863</v>
       </c>
     </row>
     <row r="192">
@@ -3656,12 +3663,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.055922330097087379</v>
+        <v>0.063029856247696275</v>
       </c>
     </row>
     <row r="193">
@@ -3669,12 +3676,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.060979365568216815</v>
+        <v>0.055922330097087379</v>
       </c>
     </row>
     <row r="194">
@@ -3682,12 +3689,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.07080266386260077</v>
+        <v>0.060988757123055598</v>
       </c>
     </row>
     <row r="195">
@@ -3695,12 +3702,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.068512353250394259</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="196">
@@ -3708,12 +3715,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.068524360322467573</v>
       </c>
     </row>
     <row r="197">
@@ -3721,12 +3728,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="198">
@@ -3734,12 +3741,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.054336989032901295</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="199">
@@ -3747,12 +3754,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.041267501842299187</v>
+        <v>0.054336989032901295</v>
       </c>
     </row>
     <row r="200">
@@ -3760,12 +3767,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.064477468839884949</v>
+        <v>0.041267501842299187</v>
       </c>
     </row>
     <row r="201">
@@ -3773,12 +3780,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.082527705729780715</v>
+        <v>0.064477468839884949</v>
       </c>
     </row>
     <row r="202">
@@ -3786,12 +3793,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.072549952426260708</v>
+        <v>0.08254716981132075</v>
       </c>
     </row>
     <row r="203">
@@ -3799,12 +3806,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.083076245041868668</v>
+        <v>0.072584483579247974</v>
       </c>
     </row>
     <row r="204">
@@ -3812,12 +3819,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083112874779541449</v>
       </c>
     </row>
     <row r="205">
@@ -3825,12 +3832,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.071404848887412817</v>
+        <v>0.080554580554580549</v>
       </c>
     </row>
     <row r="206">
@@ -3838,12 +3845,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.064839219820769636</v>
+        <v>0.071404848887412817</v>
       </c>
     </row>
     <row r="207">
@@ -3851,12 +3858,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.063265982113282548</v>
+        <v>0.064873417721518986</v>
       </c>
     </row>
     <row r="208">
@@ -3864,12 +3871,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.077615008995116933</v>
+        <v>0.063265982113282548</v>
       </c>
     </row>
     <row r="209">
@@ -3877,12 +3884,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.070043103448275856</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="210">
@@ -3890,12 +3897,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.073793490460157124</v>
+        <v>0.07006197790353004</v>
       </c>
     </row>
     <row r="211">
@@ -3903,12 +3910,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.097416020671834622</v>
+        <v>0.073772791023842918</v>
       </c>
     </row>
     <row r="212">
@@ -3916,12 +3923,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.080078125</v>
+        <v>0.097416020671834622</v>
       </c>
     </row>
     <row r="213">
@@ -3929,12 +3936,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.080039043435822355</v>
       </c>
     </row>
     <row r="214">
@@ -3942,12 +3949,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.12931034482758622</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="215">
@@ -3955,12 +3962,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.087874659400544966</v>
+        <v>0.12931034482758622</v>
       </c>
     </row>
     <row r="216">
@@ -3968,12 +3975,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="217">
@@ -3981,12 +3988,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.11588132635253054</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="218">
@@ -3994,12 +4001,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.10538486950776346</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="219">
@@ -4007,12 +4014,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10538486950776346</v>
       </c>
     </row>
     <row r="220">
@@ -4020,12 +4027,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="221">
@@ -4033,12 +4040,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.12842388863942525</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="222">
@@ -4046,12 +4053,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12848158131176998</v>
       </c>
     </row>
     <row r="223">
@@ -4059,12 +4066,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.11855203619909502</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="224">
@@ -4072,12 +4079,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="225">
@@ -4085,12 +4092,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.12741935483870967</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="226">
@@ -4098,12 +4105,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12741935483870967</v>
       </c>
     </row>
     <row r="227">
@@ -4111,12 +4118,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="228">
@@ -4124,12 +4131,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.16271186440677965</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="229">
@@ -4137,12 +4144,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.16280384397964953</v>
       </c>
     </row>
     <row r="230">
@@ -4150,12 +4157,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.084019769357495888</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="231">
@@ -4163,12 +4170,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084054388133498151</v>
       </c>
     </row>
     <row r="232">
@@ -4176,12 +4183,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="233">
@@ -4189,12 +4196,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="234">
@@ -4202,12 +4209,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="235">
@@ -4215,12 +4222,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.08201581027667984</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="236">
@@ -4228,12 +4235,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.084626755358462674</v>
+        <v>0.08201581027667984</v>
       </c>
     </row>
     <row r="237">
@@ -4241,12 +4248,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.08068376068376068</v>
+        <v>0.084626755358462674</v>
       </c>
     </row>
     <row r="238">
@@ -4254,12 +4261,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.068027210884353748</v>
+        <v>0.08068376068376068</v>
       </c>
     </row>
     <row r="239">
@@ -4267,12 +4274,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.074540503744043571</v>
+        <v>0.068073519400953034</v>
       </c>
     </row>
     <row r="240">
@@ -4280,18 +4287,20 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="5"/>
+      <c r="E240" s="5">
+        <v>0.074591280653950959</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -4302,7 +4311,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -4313,7 +4322,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -4324,7 +4333,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -4335,7 +4344,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4346,7 +4355,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4357,7 +4366,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4368,7 +4377,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4379,7 +4388,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4390,7 +4399,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4401,7 +4410,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4412,7 +4421,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4423,7 +4432,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4434,7 +4443,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4445,7 +4454,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4455,7 +4464,9 @@
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B256" s="4"/>
+      <c r="B256" s="4">
+        <v>936</v>
+      </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5"/>
@@ -4577,6 +4588,15 @@
       <c r="D269" s="4"/>
       <c r="E269" s="5"/>
     </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+  <si>
+    <t>11/29/2020</t>
+  </si>
+  <si>
+    <t>11/28/2020</t>
+  </si>
+  <si>
+    <t>11/27/2020</t>
+  </si>
+  <si>
+    <t>11/26/2020</t>
+  </si>
   <si>
     <t>11/25/2020</t>
   </si>
@@ -918,24 +930,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E274"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -952,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>41746</v>
+        <v>36343</v>
       </c>
       <c r="C3" s="4">
-        <v>36761</v>
+        <v>34620</v>
       </c>
       <c r="D3" s="4">
-        <v>4985</v>
+        <v>1723</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -967,16 +979,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>40636</v>
+        <v>40336</v>
       </c>
       <c r="C4" s="4">
-        <v>39218</v>
+        <v>39693</v>
       </c>
       <c r="D4" s="4">
-        <v>1418</v>
+        <v>643</v>
       </c>
       <c r="E4" s="5">
-        <v>0.072531501755835573</v>
+        <v>0.086139677666922487</v>
       </c>
     </row>
     <row r="5">
@@ -984,16 +996,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>41146</v>
+        <v>63536</v>
       </c>
       <c r="C5" s="4">
-        <v>39720</v>
+        <v>59597</v>
       </c>
       <c r="D5" s="4">
-        <v>1426</v>
+        <v>3939</v>
       </c>
       <c r="E5" s="5">
-        <v>0.065468549422336333</v>
+        <v>0.076813459593637945</v>
       </c>
     </row>
     <row r="6">
@@ -1001,16 +1013,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>51941</v>
+        <v>47989</v>
       </c>
       <c r="C6" s="4">
-        <v>48111</v>
+        <v>43016</v>
       </c>
       <c r="D6" s="4">
-        <v>3830</v>
+        <v>4973</v>
       </c>
       <c r="E6" s="5">
-        <v>0.06773637448614242</v>
+        <v>0.070468251479999258</v>
       </c>
     </row>
     <row r="7">
@@ -1018,16 +1030,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>57272</v>
+        <v>50731</v>
       </c>
       <c r="C7" s="4">
-        <v>52257</v>
+        <v>44924</v>
       </c>
       <c r="D7" s="4">
-        <v>5015</v>
+        <v>5807</v>
       </c>
       <c r="E7" s="5">
-        <v>0.069685731016982236</v>
+        <v>0.079043523650915964</v>
       </c>
     </row>
     <row r="8">
@@ -1035,16 +1047,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>53694</v>
+        <v>40691</v>
       </c>
       <c r="C8" s="4">
-        <v>49807</v>
+        <v>39337</v>
       </c>
       <c r="D8" s="4">
-        <v>3887</v>
+        <v>1354</v>
       </c>
       <c r="E8" s="5">
-        <v>0.072900955253896435</v>
+        <v>0.07200544464609801</v>
       </c>
     </row>
     <row r="9">
@@ -1052,16 +1064,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>50045</v>
+        <v>41917</v>
       </c>
       <c r="C9" s="4">
-        <v>45571</v>
+        <v>40461</v>
       </c>
       <c r="D9" s="4">
-        <v>4474</v>
+        <v>1456</v>
       </c>
       <c r="E9" s="5">
-        <v>0.078940731399747791</v>
+        <v>0.065772669220945087</v>
       </c>
     </row>
     <row r="10">
@@ -1069,16 +1081,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>34982</v>
+        <v>52406</v>
       </c>
       <c r="C10" s="4">
-        <v>30560</v>
+        <v>48702</v>
       </c>
       <c r="D10" s="4">
-        <v>4422</v>
+        <v>3704</v>
       </c>
       <c r="E10" s="5">
-        <v>0.077955717167691965</v>
+        <v>0.068564512734161226</v>
       </c>
     </row>
     <row r="11">
@@ -1086,16 +1098,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>29498</v>
+        <v>57231</v>
       </c>
       <c r="C11" s="4">
-        <v>28639</v>
+        <v>52377</v>
       </c>
       <c r="D11" s="4">
-        <v>859</v>
+        <v>4854</v>
       </c>
       <c r="E11" s="5">
-        <v>0.093628088426527964</v>
+        <v>0.069147327023639737</v>
       </c>
     </row>
     <row r="12">
@@ -1103,16 +1115,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>35573</v>
+        <v>53658</v>
       </c>
       <c r="C12" s="4">
-        <v>34658</v>
+        <v>49813</v>
       </c>
       <c r="D12" s="4">
-        <v>915</v>
+        <v>3845</v>
       </c>
       <c r="E12" s="5">
-        <v>0.087634194831013923</v>
+        <v>0.072837982046828897</v>
       </c>
     </row>
     <row r="13">
@@ -1120,16 +1132,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>40857</v>
+        <v>50115</v>
       </c>
       <c r="C13" s="4">
-        <v>38310</v>
+        <v>45604</v>
       </c>
       <c r="D13" s="4">
-        <v>2547</v>
+        <v>4511</v>
       </c>
       <c r="E13" s="5">
-        <v>0.080616025228866225</v>
+        <v>0.079059021214030661</v>
       </c>
     </row>
     <row r="14">
@@ -1137,16 +1149,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>48224</v>
+        <v>34991</v>
       </c>
       <c r="C14" s="4">
-        <v>44445</v>
+        <v>30563</v>
       </c>
       <c r="D14" s="4">
-        <v>3779</v>
+        <v>4428</v>
       </c>
       <c r="E14" s="5">
-        <v>0.077343902643257884</v>
+        <v>0.077365523710780315</v>
       </c>
     </row>
     <row r="15">
@@ -1154,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>46425</v>
+        <v>29498</v>
       </c>
       <c r="C15" s="4">
-        <v>43248</v>
+        <v>28639</v>
       </c>
       <c r="D15" s="4">
-        <v>3177</v>
+        <v>859</v>
       </c>
       <c r="E15" s="5">
-        <v>0.078094093492576178</v>
+        <v>0.087359806001818738</v>
       </c>
     </row>
     <row r="16">
@@ -1171,16 +1183,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>41209</v>
+        <v>35681</v>
       </c>
       <c r="C16" s="4">
-        <v>37686</v>
+        <v>34657</v>
       </c>
       <c r="D16" s="4">
-        <v>3523</v>
+        <v>1024</v>
       </c>
       <c r="E16" s="5">
-        <v>0.076046695787672106</v>
+        <v>0.087518390393256193</v>
       </c>
     </row>
     <row r="17">
@@ -1188,16 +1200,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>29186</v>
+        <v>40919</v>
       </c>
       <c r="C17" s="4">
-        <v>25713</v>
+        <v>38372</v>
       </c>
       <c r="D17" s="4">
-        <v>3473</v>
+        <v>2547</v>
       </c>
       <c r="E17" s="5">
-        <v>0.077304060707872324</v>
+        <v>0.080490045941807045</v>
       </c>
     </row>
     <row r="18">
@@ -1205,16 +1217,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>26350</v>
+        <v>48225</v>
       </c>
       <c r="C18" s="4">
-        <v>25612</v>
+        <v>44445</v>
       </c>
       <c r="D18" s="4">
-        <v>738</v>
+        <v>3780</v>
       </c>
       <c r="E18" s="5">
-        <v>0.08094779889343276</v>
+        <v>0.077418994725237916</v>
       </c>
     </row>
     <row r="19">
@@ -1222,16 +1234,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>34438</v>
+        <v>46480</v>
       </c>
       <c r="C19" s="4">
-        <v>33669</v>
+        <v>43302</v>
       </c>
       <c r="D19" s="4">
-        <v>769</v>
+        <v>3178</v>
       </c>
       <c r="E19" s="5">
-        <v>0.075393238112457059</v>
+        <v>0.07804206309464197</v>
       </c>
     </row>
     <row r="20">
@@ -1239,16 +1251,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>40050</v>
+        <v>41374</v>
       </c>
       <c r="C20" s="4">
-        <v>38089</v>
+        <v>37691</v>
       </c>
       <c r="D20" s="4">
-        <v>1961</v>
+        <v>3683</v>
       </c>
       <c r="E20" s="5">
-        <v>0.06536538345683475</v>
+        <v>0.076075028709965548</v>
       </c>
     </row>
     <row r="21">
@@ -1256,16 +1268,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>44852</v>
+        <v>29267</v>
       </c>
       <c r="C21" s="4">
-        <v>41768</v>
+        <v>25792</v>
       </c>
       <c r="D21" s="4">
-        <v>3084</v>
+        <v>3475</v>
       </c>
       <c r="E21" s="5">
-        <v>0.058796080261315914</v>
+        <v>0.077241299505308531</v>
       </c>
     </row>
     <row r="22">
@@ -1273,16 +1285,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>47563</v>
+        <v>26351</v>
       </c>
       <c r="C22" s="4">
-        <v>45096</v>
+        <v>25612</v>
       </c>
       <c r="D22" s="4">
-        <v>2467</v>
+        <v>739</v>
       </c>
       <c r="E22" s="5">
-        <v>0.066584684753926163</v>
+        <v>0.080921843687374748</v>
       </c>
     </row>
     <row r="23">
@@ -1290,16 +1302,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>43251</v>
+        <v>34442</v>
       </c>
       <c r="C23" s="4">
-        <v>40488</v>
+        <v>33672</v>
       </c>
       <c r="D23" s="4">
-        <v>2763</v>
+        <v>770</v>
       </c>
       <c r="E23" s="5">
-        <v>0.064479113259601067</v>
+        <v>0.075420510037981559</v>
       </c>
     </row>
     <row r="24">
@@ -1307,16 +1319,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>25511</v>
+        <v>40124</v>
       </c>
       <c r="C24" s="4">
-        <v>22372</v>
+        <v>38159</v>
       </c>
       <c r="D24" s="4">
-        <v>3139</v>
+        <v>1965</v>
       </c>
       <c r="E24" s="5">
-        <v>0.065533758428166097</v>
+        <v>0.06526778456814282</v>
       </c>
     </row>
     <row r="25">
@@ -1324,16 +1336,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>26650</v>
+        <v>44883</v>
       </c>
       <c r="C25" s="4">
-        <v>26087</v>
+        <v>41798</v>
       </c>
       <c r="D25" s="4">
-        <v>563</v>
+        <v>3085</v>
       </c>
       <c r="E25" s="5">
-        <v>0.074552355804934398</v>
+        <v>0.058828373778412213</v>
       </c>
     </row>
     <row r="26">
@@ -1341,16 +1353,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>33471</v>
+        <v>47558</v>
       </c>
       <c r="C26" s="4">
-        <v>32650</v>
+        <v>45091</v>
       </c>
       <c r="D26" s="4">
-        <v>821</v>
+        <v>2467</v>
       </c>
       <c r="E26" s="5">
-        <v>0.067908321639664926</v>
+        <v>0.066589802715859597</v>
       </c>
     </row>
     <row r="27">
@@ -1358,16 +1370,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>38983</v>
+        <v>43249</v>
       </c>
       <c r="C27" s="4">
-        <v>37123</v>
+        <v>40486</v>
       </c>
       <c r="D27" s="4">
-        <v>1860</v>
+        <v>2763</v>
       </c>
       <c r="E27" s="5">
-        <v>0.063467638099425308</v>
+        <v>0.0643310546875</v>
       </c>
     </row>
     <row r="28">
@@ -1375,16 +1387,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>45024</v>
+        <v>25511</v>
       </c>
       <c r="C28" s="4">
-        <v>42019</v>
+        <v>22372</v>
       </c>
       <c r="D28" s="4">
-        <v>3005</v>
+        <v>3139</v>
       </c>
       <c r="E28" s="5">
-        <v>0.059600357544476804</v>
+        <v>0.065493795164191848</v>
       </c>
     </row>
     <row r="29">
@@ -1392,16 +1404,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>45533</v>
+        <v>26650</v>
       </c>
       <c r="C29" s="4">
-        <v>43056</v>
+        <v>26087</v>
       </c>
       <c r="D29" s="4">
-        <v>2477</v>
+        <v>563</v>
       </c>
       <c r="E29" s="5">
-        <v>0.060424784589210252</v>
+        <v>0.074552355804934398</v>
       </c>
     </row>
     <row r="30">
@@ -1409,16 +1421,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>38786</v>
+        <v>33579</v>
       </c>
       <c r="C30" s="4">
-        <v>36622</v>
+        <v>32758</v>
       </c>
       <c r="D30" s="4">
-        <v>2164</v>
+        <v>821</v>
       </c>
       <c r="E30" s="5">
-        <v>0.059418335901386746</v>
+        <v>0.067911209389351926</v>
       </c>
     </row>
     <row r="31">
@@ -1426,16 +1438,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>23935</v>
+        <v>39047</v>
       </c>
       <c r="C31" s="4">
-        <v>21589</v>
+        <v>37187</v>
       </c>
       <c r="D31" s="4">
-        <v>2346</v>
+        <v>1860</v>
       </c>
       <c r="E31" s="5">
-        <v>0.064336036155788909</v>
+        <v>0.063440218586099689</v>
       </c>
     </row>
     <row r="32">
@@ -1443,16 +1455,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>25467</v>
+        <v>45062</v>
       </c>
       <c r="C32" s="4">
-        <v>25050</v>
+        <v>42057</v>
       </c>
       <c r="D32" s="4">
-        <v>417</v>
+        <v>3005</v>
       </c>
       <c r="E32" s="5">
-        <v>0.070295836038208284</v>
+        <v>0.059566370660823431</v>
       </c>
     </row>
     <row r="33">
@@ -1460,16 +1472,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>30465</v>
+        <v>45527</v>
       </c>
       <c r="C33" s="4">
-        <v>29982</v>
+        <v>43051</v>
       </c>
       <c r="D33" s="4">
-        <v>483</v>
+        <v>2476</v>
       </c>
       <c r="E33" s="5">
-        <v>0.075099634672866164</v>
+        <v>0.060435641391418854</v>
       </c>
     </row>
     <row r="34">
@@ -1477,16 +1489,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>37761</v>
+        <v>38785</v>
       </c>
       <c r="C34" s="4">
-        <v>36576</v>
+        <v>36621</v>
       </c>
       <c r="D34" s="4">
-        <v>1185</v>
+        <v>2164</v>
       </c>
       <c r="E34" s="5">
-        <v>0.06212057037978258</v>
+        <v>0.059398550550164929</v>
       </c>
     </row>
     <row r="35">
@@ -1494,16 +1506,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>40615</v>
+        <v>23935</v>
       </c>
       <c r="C35" s="4">
-        <v>38705</v>
+        <v>21589</v>
       </c>
       <c r="D35" s="4">
-        <v>1910</v>
+        <v>2346</v>
       </c>
       <c r="E35" s="5">
-        <v>0.063913202042304884</v>
+        <v>0.064254895453036837</v>
       </c>
     </row>
     <row r="36">
@@ -1511,16 +1523,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>46377</v>
+        <v>25467</v>
       </c>
       <c r="C36" s="4">
-        <v>44986</v>
+        <v>25050</v>
       </c>
       <c r="D36" s="4">
-        <v>1391</v>
+        <v>417</v>
       </c>
       <c r="E36" s="5">
-        <v>0.063690900922328819</v>
+        <v>0.070302355778148765</v>
       </c>
     </row>
     <row r="37">
@@ -1528,16 +1540,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>36461</v>
+        <v>30514</v>
       </c>
       <c r="C37" s="4">
-        <v>34717</v>
+        <v>30031</v>
       </c>
       <c r="D37" s="4">
-        <v>1744</v>
+        <v>483</v>
       </c>
       <c r="E37" s="5">
-        <v>0.059094729870857635</v>
+        <v>0.074929507380991869</v>
       </c>
     </row>
     <row r="38">
@@ -1545,16 +1557,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>18358</v>
+        <v>37816</v>
       </c>
       <c r="C38" s="4">
-        <v>16519</v>
+        <v>36631</v>
       </c>
       <c r="D38" s="4">
-        <v>1839</v>
+        <v>1185</v>
       </c>
       <c r="E38" s="5">
-        <v>0.061725206611570251</v>
+        <v>0.062129341993787064</v>
       </c>
     </row>
     <row r="39">
@@ -1562,16 +1574,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>23351</v>
+        <v>40625</v>
       </c>
       <c r="C39" s="4">
-        <v>23015</v>
+        <v>38715</v>
       </c>
       <c r="D39" s="4">
-        <v>336</v>
+        <v>1910</v>
       </c>
       <c r="E39" s="5">
-        <v>0.077002643374324789</v>
+        <v>0.063893783800206605</v>
       </c>
     </row>
     <row r="40">
@@ -1579,16 +1591,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>32965</v>
+        <v>46374</v>
       </c>
       <c r="C40" s="4">
-        <v>32573</v>
+        <v>44983</v>
       </c>
       <c r="D40" s="4">
-        <v>392</v>
+        <v>1391</v>
       </c>
       <c r="E40" s="5">
-        <v>0.074008728758473391</v>
+        <v>0.063672391017173049</v>
       </c>
     </row>
     <row r="41">
@@ -1596,16 +1608,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>34487</v>
+        <v>36459</v>
       </c>
       <c r="C41" s="4">
-        <v>33612</v>
+        <v>34715</v>
       </c>
       <c r="D41" s="4">
-        <v>875</v>
+        <v>1744</v>
       </c>
       <c r="E41" s="5">
-        <v>0.058629035006987761</v>
+        <v>0.059085699732586275</v>
       </c>
     </row>
     <row r="42">
@@ -1613,16 +1625,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>41547</v>
+        <v>18443</v>
       </c>
       <c r="C42" s="4">
-        <v>40052</v>
+        <v>16604</v>
       </c>
       <c r="D42" s="4">
-        <v>1495</v>
+        <v>1839</v>
       </c>
       <c r="E42" s="5">
-        <v>0.061098707587811704</v>
+        <v>0.06173932285903961</v>
       </c>
     </row>
     <row r="43">
@@ -1630,16 +1642,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>42278</v>
+        <v>23462</v>
       </c>
       <c r="C43" s="4">
-        <v>41159</v>
+        <v>23126</v>
       </c>
       <c r="D43" s="4">
-        <v>1119</v>
+        <v>336</v>
       </c>
       <c r="E43" s="5">
-        <v>0.065610608666703651</v>
+        <v>0.076962869295321298</v>
       </c>
     </row>
     <row r="44">
@@ -1647,16 +1659,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>34255</v>
+        <v>32977</v>
       </c>
       <c r="C44" s="4">
-        <v>32806</v>
+        <v>32585</v>
       </c>
       <c r="D44" s="4">
-        <v>1449</v>
+        <v>392</v>
       </c>
       <c r="E44" s="5">
-        <v>0.060610199120482912</v>
+        <v>0.074017355793772333</v>
       </c>
     </row>
     <row r="45">
@@ -1664,16 +1676,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>21624</v>
+        <v>34488</v>
       </c>
       <c r="C45" s="4">
-        <v>20492</v>
+        <v>33613</v>
       </c>
       <c r="D45" s="4">
-        <v>1132</v>
+        <v>875</v>
       </c>
       <c r="E45" s="5">
-        <v>0.066709212403333579</v>
+        <v>0.058661122094212287</v>
       </c>
     </row>
     <row r="46">
@@ -1681,16 +1693,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>21602</v>
+        <v>41561</v>
       </c>
       <c r="C46" s="4">
-        <v>21324</v>
+        <v>40066</v>
       </c>
       <c r="D46" s="4">
-        <v>278</v>
+        <v>1495</v>
       </c>
       <c r="E46" s="5">
-        <v>0.067710073006632635</v>
+        <v>0.061105173822845291</v>
       </c>
     </row>
     <row r="47">
@@ -1698,16 +1710,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>32567</v>
+        <v>42287</v>
       </c>
       <c r="C47" s="4">
-        <v>32228</v>
+        <v>41168</v>
       </c>
       <c r="D47" s="4">
-        <v>339</v>
+        <v>1119</v>
       </c>
       <c r="E47" s="5">
-        <v>0.070171849427168573</v>
+        <v>0.065544213913236435</v>
       </c>
     </row>
     <row r="48">
@@ -1715,16 +1727,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>37220</v>
+        <v>34304</v>
       </c>
       <c r="C48" s="4">
-        <v>36213</v>
+        <v>32855</v>
       </c>
       <c r="D48" s="4">
-        <v>1007</v>
+        <v>1449</v>
       </c>
       <c r="E48" s="5">
-        <v>0.056526846797042361</v>
+        <v>0.060775591518161726</v>
       </c>
     </row>
     <row r="49">
@@ -1732,16 +1744,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>42410</v>
+        <v>21658</v>
       </c>
       <c r="C49" s="4">
-        <v>41135</v>
+        <v>20526</v>
       </c>
       <c r="D49" s="4">
-        <v>1275</v>
+        <v>1132</v>
       </c>
       <c r="E49" s="5">
-        <v>0.055599014921048823</v>
+        <v>0.066386617658090161</v>
       </c>
     </row>
     <row r="50">
@@ -1749,16 +1761,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>40907</v>
+        <v>21640</v>
       </c>
       <c r="C50" s="4">
-        <v>40012</v>
+        <v>21362</v>
       </c>
       <c r="D50" s="4">
-        <v>895</v>
+        <v>278</v>
       </c>
       <c r="E50" s="5">
-        <v>0.050152872391782441</v>
+        <v>0.067814392674901039</v>
       </c>
     </row>
     <row r="51">
@@ -1766,16 +1778,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>34439</v>
+        <v>32578</v>
       </c>
       <c r="C51" s="4">
-        <v>33417</v>
+        <v>32239</v>
       </c>
       <c r="D51" s="4">
-        <v>1022</v>
+        <v>339</v>
       </c>
       <c r="E51" s="5">
-        <v>0.057361161830388495</v>
+        <v>0.069968312378615963</v>
       </c>
     </row>
     <row r="52">
@@ -1783,16 +1795,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>17757</v>
+        <v>37230</v>
       </c>
       <c r="C52" s="4">
-        <v>16842</v>
+        <v>36223</v>
       </c>
       <c r="D52" s="4">
-        <v>915</v>
+        <v>1007</v>
       </c>
       <c r="E52" s="5">
-        <v>0.056902280622262498</v>
+        <v>0.056522339617429737</v>
       </c>
     </row>
     <row r="53">
@@ -1800,16 +1812,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>18036</v>
+        <v>42460</v>
       </c>
       <c r="C53" s="4">
-        <v>17783</v>
+        <v>41185</v>
       </c>
       <c r="D53" s="4">
-        <v>253</v>
+        <v>1275</v>
       </c>
       <c r="E53" s="5">
-        <v>0.064726914067315997</v>
+        <v>0.05550566354761146</v>
       </c>
     </row>
     <row r="54">
@@ -1817,16 +1829,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>26990</v>
+        <v>40907</v>
       </c>
       <c r="C54" s="4">
-        <v>26697</v>
+        <v>40012</v>
       </c>
       <c r="D54" s="4">
-        <v>293</v>
+        <v>895</v>
       </c>
       <c r="E54" s="5">
-        <v>0.078827399157481673</v>
+        <v>0.050205165339126237</v>
       </c>
     </row>
     <row r="55">
@@ -1834,16 +1846,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>32471</v>
+        <v>34450</v>
       </c>
       <c r="C55" s="4">
-        <v>31836</v>
+        <v>33428</v>
       </c>
       <c r="D55" s="4">
-        <v>635</v>
+        <v>1022</v>
       </c>
       <c r="E55" s="5">
-        <v>0.062081401339515715</v>
+        <v>0.057353106392540161</v>
       </c>
     </row>
     <row r="56">
@@ -1851,16 +1863,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>36026</v>
+        <v>17807</v>
       </c>
       <c r="C56" s="4">
-        <v>35409</v>
+        <v>16892</v>
       </c>
       <c r="D56" s="4">
-        <v>617</v>
+        <v>915</v>
       </c>
       <c r="E56" s="5">
-        <v>0.061189167175727956</v>
+        <v>0.05683789696009655</v>
       </c>
     </row>
     <row r="57">
@@ -1868,16 +1880,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>40621</v>
+        <v>18049</v>
       </c>
       <c r="C57" s="4">
-        <v>39873</v>
+        <v>17796</v>
       </c>
       <c r="D57" s="4">
-        <v>748</v>
+        <v>253</v>
       </c>
       <c r="E57" s="5">
-        <v>0.054720965309200606</v>
+        <v>0.064760613716187077</v>
       </c>
     </row>
     <row r="58">
@@ -1885,16 +1897,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>29214</v>
+        <v>26991</v>
       </c>
       <c r="C58" s="4">
-        <v>28550</v>
+        <v>26698</v>
       </c>
       <c r="D58" s="4">
-        <v>664</v>
+        <v>293</v>
       </c>
       <c r="E58" s="5">
-        <v>0.054550546065527866</v>
+        <v>0.078751514452201007</v>
       </c>
     </row>
     <row r="59">
@@ -1902,16 +1914,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>14197</v>
+        <v>32527</v>
       </c>
       <c r="C59" s="4">
-        <v>13652</v>
+        <v>31892</v>
       </c>
       <c r="D59" s="4">
-        <v>545</v>
+        <v>635</v>
       </c>
       <c r="E59" s="5">
-        <v>0.058125981857801649</v>
+        <v>0.062060085836909869</v>
       </c>
     </row>
     <row r="60">
@@ -1919,16 +1931,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>13895</v>
+        <v>36046</v>
       </c>
       <c r="C60" s="4">
-        <v>13783</v>
+        <v>35429</v>
       </c>
       <c r="D60" s="4">
-        <v>112</v>
+        <v>617</v>
       </c>
       <c r="E60" s="5">
-        <v>0.06663186060170985</v>
+        <v>0.061180861893450969</v>
       </c>
     </row>
     <row r="61">
@@ -1936,16 +1948,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>26001</v>
+        <v>40628</v>
       </c>
       <c r="C61" s="4">
-        <v>25904</v>
+        <v>39880</v>
       </c>
       <c r="D61" s="4">
-        <v>97</v>
+        <v>748</v>
       </c>
       <c r="E61" s="5">
-        <v>0.059927536231884057</v>
+        <v>0.054694099191504766</v>
       </c>
     </row>
     <row r="62">
@@ -1953,16 +1965,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>31552</v>
+        <v>29245</v>
       </c>
       <c r="C62" s="4">
-        <v>31221</v>
+        <v>28581</v>
       </c>
       <c r="D62" s="4">
-        <v>331</v>
+        <v>664</v>
       </c>
       <c r="E62" s="5">
-        <v>0.053164130022344956</v>
+        <v>0.054504756575265809</v>
       </c>
     </row>
     <row r="63">
@@ -1970,16 +1982,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>36113</v>
+        <v>14220</v>
       </c>
       <c r="C63" s="4">
-        <v>35782</v>
+        <v>13675</v>
       </c>
       <c r="D63" s="4">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="E63" s="5">
-        <v>0.049594968725433231</v>
+        <v>0.058028938581402408</v>
       </c>
     </row>
     <row r="64">
@@ -1987,16 +1999,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>38426</v>
+        <v>13902</v>
       </c>
       <c r="C64" s="4">
-        <v>38062</v>
+        <v>13790</v>
       </c>
       <c r="D64" s="4">
-        <v>364</v>
+        <v>112</v>
       </c>
       <c r="E64" s="5">
-        <v>0.045726123637673761</v>
+        <v>0.066627512398851479</v>
       </c>
     </row>
     <row r="65">
@@ -2004,16 +2016,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>28541</v>
+        <v>26010</v>
       </c>
       <c r="C65" s="4">
-        <v>28167</v>
+        <v>25913</v>
       </c>
       <c r="D65" s="4">
-        <v>374</v>
+        <v>97</v>
       </c>
       <c r="E65" s="5">
-        <v>0.049122701598365584</v>
+        <v>0.060055056505360763</v>
       </c>
     </row>
     <row r="66">
@@ -2021,16 +2033,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>12621</v>
+        <v>31628</v>
       </c>
       <c r="C66" s="4">
-        <v>12306</v>
+        <v>31297</v>
       </c>
       <c r="D66" s="4">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E66" s="5">
-        <v>0.048505441473383565</v>
+        <v>0.053101820633850307</v>
       </c>
     </row>
     <row r="67">
@@ -2038,12 +2050,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+        <v>36161</v>
+      </c>
+      <c r="C67" s="4">
+        <v>35830</v>
+      </c>
+      <c r="D67" s="4">
+        <v>331</v>
+      </c>
       <c r="E67" s="5">
-        <v>0.05399607746996813</v>
+        <v>0.049567565719755236</v>
       </c>
     </row>
     <row r="68">
@@ -2051,12 +2067,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>24679</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+        <v>38437</v>
+      </c>
+      <c r="C68" s="4">
+        <v>38073</v>
+      </c>
+      <c r="D68" s="4">
+        <v>364</v>
+      </c>
       <c r="E68" s="5">
-        <v>0.052795031055900624</v>
+        <v>0.045746532989133698</v>
       </c>
     </row>
     <row r="69">
@@ -2064,12 +2084,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>27403</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+        <v>28564</v>
+      </c>
+      <c r="C69" s="4">
+        <v>28190</v>
+      </c>
+      <c r="D69" s="4">
+        <v>374</v>
+      </c>
       <c r="E69" s="5">
-        <v>0.053017122974086624</v>
+        <v>0.049121225777377195</v>
       </c>
     </row>
     <row r="70">
@@ -2077,12 +2101,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>34441</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C70" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D70" s="4">
+        <v>315</v>
+      </c>
       <c r="E70" s="5">
-        <v>0.046188071612698188</v>
+        <v>0.048491114064884558</v>
       </c>
     </row>
     <row r="71">
@@ -2090,12 +2118,12 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>37607</v>
+        <v>16001</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5">
-        <v>0.047251430853187809</v>
+        <v>0.054002697070001229</v>
       </c>
     </row>
     <row r="72">
@@ -2103,12 +2131,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>28506</v>
+        <v>24679</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.047552580655394472</v>
+        <v>0.052778305772033199</v>
       </c>
     </row>
     <row r="73">
@@ -2116,12 +2144,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>15629</v>
+        <v>27403</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.057048998288067365</v>
+        <v>0.052988011348036976</v>
       </c>
     </row>
     <row r="74">
@@ -2129,12 +2157,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>18342</v>
+        <v>34441</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.057113425660982028</v>
+        <v>0.046157103535888207</v>
       </c>
     </row>
     <row r="75">
@@ -2142,12 +2170,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>26203</v>
+        <v>37607</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.049540868382269586</v>
+        <v>0.047224716485416873</v>
       </c>
     </row>
     <row r="76">
@@ -2155,12 +2183,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>33367</v>
+        <v>28506</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.047599147477955621</v>
+        <v>0.047531470970605956</v>
       </c>
     </row>
     <row r="77">
@@ -2168,12 +2196,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>38681</v>
+        <v>15629</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.049830962107339061</v>
+        <v>0.056919951989659309</v>
       </c>
     </row>
     <row r="78">
@@ -2181,12 +2209,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>33872</v>
+        <v>18342</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.05022960306976159</v>
+        <v>0.057110157367668099</v>
       </c>
     </row>
     <row r="79">
@@ -2194,12 +2222,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>15536</v>
+        <v>26203</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.051559233061968947</v>
+        <v>0.049529638444973365</v>
       </c>
     </row>
     <row r="80">
@@ -2207,12 +2235,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>10621</v>
+        <v>33367</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.064361784225960797</v>
+        <v>0.047591192077884092</v>
       </c>
     </row>
     <row r="81">
@@ -2220,12 +2248,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>15250</v>
+        <v>38681</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.070890677746039993</v>
+        <v>0.049790633027200111</v>
       </c>
     </row>
     <row r="82">
@@ -2233,12 +2261,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>25209</v>
+        <v>33872</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.059144925556617947</v>
+        <v>0.050185406322669851</v>
       </c>
     </row>
     <row r="83">
@@ -2246,12 +2274,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>28779</v>
+        <v>15536</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.056620493447133997</v>
+        <v>0.051561526826230095</v>
       </c>
     </row>
     <row r="84">
@@ -2259,12 +2287,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>32622</v>
+        <v>10621</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.059842340635185329</v>
+        <v>0.064267550281266864</v>
       </c>
     </row>
     <row r="85">
@@ -2272,12 +2300,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>36879</v>
+        <v>15250</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.053397897250505789</v>
+        <v>0.070737605804111245</v>
       </c>
     </row>
     <row r="86">
@@ -2285,12 +2313,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>28887</v>
+        <v>25209</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.063336091573576059</v>
+        <v>0.059209178447039539</v>
       </c>
     </row>
     <row r="87">
@@ -2298,12 +2326,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>15065</v>
+        <v>28779</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.065576442464413784</v>
+        <v>0.056594098177241155</v>
       </c>
     </row>
     <row r="88">
@@ -2311,12 +2339,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>18622</v>
+        <v>32622</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.076391112249471732</v>
+        <v>0.059780552402572837</v>
       </c>
     </row>
     <row r="89">
@@ -2324,12 +2352,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>25044</v>
+        <v>36879</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.065812695701679483</v>
+        <v>0.053369576026784236</v>
       </c>
     </row>
     <row r="90">
@@ -2337,12 +2365,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>30979</v>
+        <v>28887</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.076990683775707502</v>
+        <v>0.063298990386272014</v>
       </c>
     </row>
     <row r="91">
@@ -2350,12 +2378,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>34871</v>
+        <v>15065</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.059887233185662504</v>
+        <v>0.06559426118145753</v>
       </c>
     </row>
     <row r="92">
@@ -2363,12 +2391,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>35721</v>
+        <v>18622</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.062571550060510905</v>
+        <v>0.076371551117085976</v>
       </c>
     </row>
     <row r="93">
@@ -2376,12 +2404,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>31132</v>
+        <v>25044</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.071021571021571028</v>
+        <v>0.065812695701679483</v>
       </c>
     </row>
     <row r="94">
@@ -2389,12 +2417,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>14920</v>
+        <v>30979</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.065319972429881773</v>
+        <v>0.076970389245233278</v>
       </c>
     </row>
     <row r="95">
@@ -2402,12 +2430,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>13120</v>
+        <v>34871</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.080365605958023015</v>
+        <v>0.05986794427892745</v>
       </c>
     </row>
     <row r="96">
@@ -2415,12 +2443,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>24169</v>
+        <v>35721</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.073041721145845714</v>
+        <v>0.062600163532297623</v>
       </c>
     </row>
     <row r="97">
@@ -2428,12 +2456,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>24904</v>
+        <v>31132</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.064187362203086656</v>
+        <v>0.070990270196969185</v>
       </c>
     </row>
     <row r="98">
@@ -2441,12 +2469,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>25761</v>
+        <v>14920</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.064067063687744188</v>
+        <v>0.065294648066620692</v>
       </c>
     </row>
     <row r="99">
@@ -2454,12 +2482,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>26022</v>
+        <v>13120</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.069082540177874865</v>
+        <v>0.080303338072990726</v>
       </c>
     </row>
     <row r="100">
@@ -2467,12 +2495,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>25739</v>
+        <v>24169</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.075876175117020023</v>
+        <v>0.073028700457543533</v>
       </c>
     </row>
     <row r="101">
@@ -2480,12 +2508,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>10893</v>
+        <v>24904</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.065414175918018791</v>
+        <v>0.064143094841930121</v>
       </c>
     </row>
     <row r="102">
@@ -2493,12 +2521,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>13862</v>
+        <v>25761</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.068968088279153003</v>
+        <v>0.064067063687744188</v>
       </c>
     </row>
     <row r="103">
@@ -2506,12 +2534,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>23021</v>
+        <v>26022</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.063113413304253005</v>
+        <v>0.069087930092845445</v>
       </c>
     </row>
     <row r="104">
@@ -2519,12 +2547,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>25652</v>
+        <v>25739</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.063886635812777329</v>
+        <v>0.075870206489675518</v>
       </c>
     </row>
     <row r="105">
@@ -2532,12 +2560,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>22856</v>
+        <v>10893</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.063639213578754086</v>
+        <v>0.065384396517384619</v>
       </c>
     </row>
     <row r="106">
@@ -2545,12 +2573,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>30068</v>
+        <v>13862</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.059303249550416125</v>
+        <v>0.06897837434750187</v>
       </c>
     </row>
     <row r="107">
@@ -2558,12 +2586,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>26715</v>
+        <v>23021</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.064258269663913792</v>
+        <v>0.063117715220503037</v>
       </c>
     </row>
     <row r="108">
@@ -2571,12 +2599,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>15704</v>
+        <v>25652</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.062010062010062011</v>
+        <v>0.063838923612767787</v>
       </c>
     </row>
     <row r="109">
@@ -2584,12 +2612,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>17137</v>
+        <v>22856</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.064254385964912286</v>
+        <v>0.063683998387746882</v>
       </c>
     </row>
     <row r="110">
@@ -2597,12 +2625,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>19182</v>
+        <v>30068</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.052506282237799233</v>
+        <v>0.059320615796519413</v>
       </c>
     </row>
     <row r="111">
@@ -2610,12 +2638,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>21031</v>
+        <v>26715</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.059592889380123422</v>
+        <v>0.06424124685416574</v>
       </c>
     </row>
     <row r="112">
@@ -2623,12 +2651,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>21840</v>
+        <v>15704</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.068102363305831345</v>
+        <v>0.062010062010062011</v>
       </c>
     </row>
     <row r="113">
@@ -2636,12 +2664,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>23469</v>
+        <v>17137</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.070817576084999098</v>
+        <v>0.06419536448051473</v>
       </c>
     </row>
     <row r="114">
@@ -2649,12 +2677,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>19558</v>
+        <v>19182</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.075721990257480859</v>
+        <v>0.052509754645856756</v>
       </c>
     </row>
     <row r="115">
@@ -2662,12 +2690,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>11613</v>
+        <v>21031</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.07667490389895662</v>
+        <v>0.059563294637921503</v>
       </c>
     </row>
     <row r="116">
@@ -2675,12 +2703,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>19740</v>
+        <v>21840</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.067836183504764308</v>
+        <v>0.068145800316957217</v>
       </c>
     </row>
     <row r="117">
@@ -2688,12 +2716,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>23480</v>
+        <v>23469</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.072964834928486932</v>
+        <v>0.070804825351098305</v>
       </c>
     </row>
     <row r="118">
@@ -2701,12 +2729,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>23091</v>
+        <v>19558</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.068638585748851913</v>
+        <v>0.075712111328549686</v>
       </c>
     </row>
     <row r="119">
@@ -2714,12 +2742,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>23947</v>
+        <v>11613</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.066685841071575311</v>
+        <v>0.076659117425022308</v>
       </c>
     </row>
     <row r="120">
@@ -2727,12 +2755,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>25438</v>
+        <v>19740</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.072338451155728026</v>
+        <v>0.067831903079252909</v>
       </c>
     </row>
     <row r="121">
@@ -2740,12 +2768,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>25175</v>
+        <v>23480</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.074946619217081845</v>
+        <v>0.072972682297268235</v>
       </c>
     </row>
     <row r="122">
@@ -2753,12 +2781,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>20426</v>
+        <v>23091</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.069562913907284765</v>
+        <v>0.068625030856578617</v>
       </c>
     </row>
     <row r="123">
@@ -2766,12 +2794,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>18738</v>
+        <v>23947</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.071856000765953373</v>
+        <v>0.066699543829367519</v>
       </c>
     </row>
     <row r="124">
@@ -2779,12 +2807,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>25642</v>
+        <v>25438</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.076768834144944148</v>
+        <v>0.072344554121319501</v>
       </c>
     </row>
     <row r="125">
@@ -2792,12 +2820,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23879</v>
+        <v>25175</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.078458617016349402</v>
+        <v>0.074933285892190005</v>
       </c>
     </row>
     <row r="126">
@@ -2805,12 +2833,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>22113</v>
+        <v>20426</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.074718223648106721</v>
+        <v>0.069518716577540107</v>
       </c>
     </row>
     <row r="127">
@@ -2818,12 +2846,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>26648</v>
+        <v>18738</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.084658340082697472</v>
+        <v>0.07183192955589586</v>
       </c>
     </row>
     <row r="128">
@@ -2831,12 +2859,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>25652</v>
+        <v>25642</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.077986437141366716</v>
+        <v>0.076757840469712152</v>
       </c>
     </row>
     <row r="129">
@@ -2844,12 +2872,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>19982</v>
+        <v>23879</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.076076255258211767</v>
+        <v>0.078440451935543623</v>
       </c>
     </row>
     <row r="130">
@@ -2857,12 +2885,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>21111</v>
+        <v>22113</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.080785710846853792</v>
+        <v>0.074732044898303651</v>
       </c>
     </row>
     <row r="131">
@@ -2870,12 +2898,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>24440</v>
+        <v>26648</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.06939338235294118</v>
+        <v>0.084679998294461267</v>
       </c>
     </row>
     <row r="132">
@@ -2883,12 +2911,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>25799</v>
+        <v>25652</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.080758082497212932</v>
+        <v>0.077957389749702025</v>
       </c>
     </row>
     <row r="133">
@@ -2896,12 +2924,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>28220</v>
+        <v>19982</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.084299424184261035</v>
+        <v>0.076055833929849673</v>
       </c>
     </row>
     <row r="134">
@@ -2909,12 +2937,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>22271</v>
+        <v>21111</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.073096088201828377</v>
+        <v>0.080777932893660045</v>
       </c>
     </row>
     <row r="135">
@@ -2922,12 +2950,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>23132</v>
+        <v>24440</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.087222828925502108</v>
+        <v>0.069386296334116207</v>
       </c>
     </row>
     <row r="136">
@@ -2935,12 +2963,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>23193</v>
+        <v>25799</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.078368447979163758</v>
+        <v>0.080750880634948952</v>
       </c>
     </row>
     <row r="137">
@@ -2948,12 +2976,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>18874</v>
+        <v>28220</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.096237602980532092</v>
+        <v>0.084296188246132581</v>
       </c>
     </row>
     <row r="138">
@@ -2961,12 +2989,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>27022</v>
+        <v>22271</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.092324805339265847</v>
+        <v>0.073090352701165207</v>
       </c>
     </row>
     <row r="139">
@@ -2974,12 +3002,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>24483</v>
+        <v>23132</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.091277800062396927</v>
+        <v>0.087202126649577522</v>
       </c>
     </row>
     <row r="140">
@@ -2987,12 +3015,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>22280</v>
+        <v>23193</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.095770005493499358</v>
+        <v>0.078390323331007206</v>
       </c>
     </row>
     <row r="141">
@@ -3000,12 +3028,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>23660</v>
+        <v>18874</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.093523342527326594</v>
+        <v>0.096222455403987411</v>
       </c>
     </row>
     <row r="142">
@@ -3013,12 +3041,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>18338</v>
+        <v>27022</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.085286487962499435</v>
+        <v>0.092311411992263059</v>
       </c>
     </row>
     <row r="143">
@@ -3026,12 +3054,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>14821</v>
+        <v>24483</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.088493931136982909</v>
+        <v>0.091253397495878449</v>
       </c>
     </row>
     <row r="144">
@@ -3039,12 +3067,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>17129</v>
+        <v>22280</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.092085106382978718</v>
+        <v>0.095748089157398505</v>
       </c>
     </row>
     <row r="145">
@@ -3052,12 +3080,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>18885</v>
+        <v>23660</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.084204671857619581</v>
+        <v>0.093509013839946892</v>
       </c>
     </row>
     <row r="146">
@@ -3065,12 +3093,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>16908</v>
+        <v>18338</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.089210007762584337</v>
+        <v>0.085274845285766288</v>
       </c>
     </row>
     <row r="147">
@@ -3078,12 +3106,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>20409</v>
+        <v>14821</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.091590447154471538</v>
+        <v>0.088472015849430416</v>
       </c>
     </row>
     <row r="148">
@@ -3091,12 +3119,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>21474</v>
+        <v>17129</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.10445196283765641</v>
+        <v>0.092100783112019066</v>
       </c>
     </row>
     <row r="149">
@@ -3104,12 +3132,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>21911</v>
+        <v>18885</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.083309443265867783</v>
+        <v>0.084297796572446029</v>
       </c>
     </row>
     <row r="150">
@@ -3117,12 +3145,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>18461</v>
+        <v>16908</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.095664617341530631</v>
+        <v>0.08920468115595892</v>
       </c>
     </row>
     <row r="151">
@@ -3130,12 +3158,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>16374</v>
+        <v>20409</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.087862081036142473</v>
+        <v>0.091538119723227326</v>
       </c>
     </row>
     <row r="152">
@@ -3143,12 +3171,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>17548</v>
+        <v>21474</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.081866248329556676</v>
+        <v>0.10445757250268528</v>
       </c>
     </row>
     <row r="153">
@@ -3156,12 +3184,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>20411</v>
+        <v>21911</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.094711232114927879</v>
+        <v>0.083295115799128641</v>
       </c>
     </row>
     <row r="154">
@@ -3169,12 +3197,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>19149</v>
+        <v>18461</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.098966798235430697</v>
+        <v>0.095664617341530631</v>
       </c>
     </row>
     <row r="155">
@@ -3182,12 +3210,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>21238</v>
+        <v>16374</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.09660142819359957</v>
+        <v>0.087815971311116944</v>
       </c>
     </row>
     <row r="156">
@@ -3195,12 +3223,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18527</v>
+        <v>17548</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.077386739257242848</v>
+        <v>0.081875762682317388</v>
       </c>
     </row>
     <row r="157">
@@ -3208,12 +3236,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>15713</v>
+        <v>20411</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.08252463145418179</v>
+        <v>0.094727694090382383</v>
       </c>
     </row>
     <row r="158">
@@ -3221,12 +3249,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>11253</v>
+        <v>19149</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.090413556108543666</v>
+        <v>0.098925979680696663</v>
       </c>
     </row>
     <row r="159">
@@ -3234,12 +3262,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>18129</v>
+        <v>21238</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.084212907117008448</v>
+        <v>0.096595041322314043</v>
       </c>
     </row>
     <row r="160">
@@ -3247,12 +3275,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>15400</v>
+        <v>18527</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.094244288224956063</v>
+        <v>0.077396771893433594</v>
       </c>
     </row>
     <row r="161">
@@ -3260,12 +3288,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>24377</v>
+        <v>15713</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.095622366635720921</v>
+        <v>0.082463542823302982</v>
       </c>
     </row>
     <row r="162">
@@ -3273,12 +3301,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>21412</v>
+        <v>11253</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.085704125177809384</v>
+        <v>0.090424271154301961</v>
       </c>
     </row>
     <row r="163">
@@ -3286,12 +3314,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>17071</v>
+        <v>18129</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.082763704597238974</v>
+        <v>0.08426372963186482</v>
       </c>
     </row>
     <row r="164">
@@ -3299,12 +3327,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>13726</v>
+        <v>15400</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.080478172697192873</v>
+        <v>0.094264996704021095</v>
       </c>
     </row>
     <row r="165">
@@ -3312,12 +3340,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>12694</v>
+        <v>24377</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.095636025998142984</v>
       </c>
     </row>
     <row r="166">
@@ -3325,12 +3353,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>13541</v>
+        <v>21412</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.082555318679703005</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="167">
@@ -3338,12 +3366,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>16049</v>
+        <v>17071</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.091622282999856058</v>
+        <v>0.082752613240418119</v>
       </c>
     </row>
     <row r="168">
@@ -3351,12 +3379,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>22126</v>
+        <v>13726</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.092465038614068046</v>
+        <v>0.080478172697192873</v>
       </c>
     </row>
     <row r="169">
@@ -3364,12 +3392,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>19471</v>
+        <v>12694</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.09841523505127181</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="170">
@@ -3377,12 +3405,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>15356</v>
+        <v>13541</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.084585912172119068</v>
+        <v>0.082531050194752695</v>
       </c>
     </row>
     <row r="171">
@@ -3390,12 +3418,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>15719</v>
+        <v>16049</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.076495553759094587</v>
+        <v>0.091595913081018845</v>
       </c>
     </row>
     <row r="172">
@@ -3403,12 +3431,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>9326</v>
+        <v>22126</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.086890705419315775</v>
+        <v>0.092439312791263828</v>
       </c>
     </row>
     <row r="173">
@@ -3416,12 +3444,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>12929</v>
+        <v>19471</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.090115554077645696</v>
+        <v>0.098395579522002535</v>
       </c>
     </row>
     <row r="174">
@@ -3429,12 +3457,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>15790</v>
+        <v>15356</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.093497250080879973</v>
+        <v>0.084529857889698842</v>
       </c>
     </row>
     <row r="175">
@@ -3442,12 +3470,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>12921</v>
+        <v>15719</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.097790055248618779</v>
+        <v>0.076472370946560259</v>
       </c>
     </row>
     <row r="176">
@@ -3455,12 +3483,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>18746</v>
+        <v>9326</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.08636699810995152</v>
+        <v>0.086864406779661021</v>
       </c>
     </row>
     <row r="177">
@@ -3468,12 +3496,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>12966</v>
+        <v>12929</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.089423321195698194</v>
+        <v>0.090100573518410776</v>
       </c>
     </row>
     <row r="178">
@@ -3481,12 +3509,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>12313</v>
+        <v>15790</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.093467011642949543</v>
       </c>
     </row>
     <row r="179">
@@ -3494,12 +3522,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>4552</v>
+        <v>12921</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.078576341127922972</v>
+        <v>0.097682119205298013</v>
       </c>
     </row>
     <row r="180">
@@ -3507,12 +3535,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>13931</v>
+        <v>18746</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.081078212883370471</v>
+        <v>0.086296083422284259</v>
       </c>
     </row>
     <row r="181">
@@ -3520,12 +3548,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>11978</v>
+        <v>12966</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.081860555447659744</v>
+        <v>0.089415749364944966</v>
       </c>
     </row>
     <row r="182">
@@ -3533,12 +3561,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>16706</v>
+        <v>12313</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.099362497252143328</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="183">
@@ -3546,12 +3574,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>10116</v>
+        <v>4552</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.089934593023255807</v>
+        <v>0.078535830898779857</v>
       </c>
     </row>
     <row r="184">
@@ -3559,12 +3587,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>11573</v>
+        <v>13931</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.076494503839783165</v>
+        <v>0.081052408232548265</v>
       </c>
     </row>
     <row r="185">
@@ -3572,12 +3600,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>3571</v>
+        <v>11978</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.070580686557587424</v>
+        <v>0.081836714882050285</v>
       </c>
     </row>
     <row r="186">
@@ -3585,12 +3613,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>7748</v>
+        <v>16706</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.076412590064467198</v>
+        <v>0.099307920465780505</v>
       </c>
     </row>
     <row r="187">
@@ -3598,12 +3626,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>7154</v>
+        <v>10116</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.08186005051255385</v>
+        <v>0.08994276369582993</v>
       </c>
     </row>
     <row r="188">
@@ -3611,12 +3639,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>9046</v>
+        <v>11573</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.087746787840802254</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="189">
@@ -3624,12 +3652,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>11829</v>
+        <v>3571</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.09723233794610342</v>
+        <v>0.070535428021801863</v>
       </c>
     </row>
     <row r="190">
@@ -3637,12 +3665,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>10185</v>
+        <v>7748</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.082799346651589389</v>
+        <v>0.076398104265402847</v>
       </c>
     </row>
     <row r="191">
@@ -3650,12 +3678,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>12313</v>
+        <v>7154</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.073184676958261863</v>
+        <v>0.081884381037301238</v>
       </c>
     </row>
     <row r="192">
@@ -3663,12 +3691,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>8647</v>
+        <v>9046</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.063029856247696275</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="193">
@@ -3676,12 +3704,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>8397</v>
+        <v>11829</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.055922330097087379</v>
+        <v>0.09723233794610342</v>
       </c>
     </row>
     <row r="194">
@@ -3689,12 +3717,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>9508</v>
+        <v>10185</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.060988757123055598</v>
+        <v>0.082778545408868226</v>
       </c>
     </row>
     <row r="195">
@@ -3702,12 +3730,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>10708</v>
+        <v>12313</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.073176309169906237</v>
       </c>
     </row>
     <row r="196">
@@ -3715,12 +3743,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>13923</v>
+        <v>8647</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.068524360322467573</v>
+        <v>0.063029856247696275</v>
       </c>
     </row>
     <row r="197">
@@ -3728,12 +3756,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>9317</v>
+        <v>8397</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.055933190910856474</v>
       </c>
     </row>
     <row r="198">
@@ -3741,12 +3769,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>7919</v>
+        <v>9508</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.060979365568216815</v>
       </c>
     </row>
     <row r="199">
@@ -3754,12 +3782,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>6686</v>
+        <v>10708</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.054336989032901295</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="200">
@@ -3767,12 +3795,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>2741</v>
+        <v>13923</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.041267501842299187</v>
+        <v>0.068536371603856269</v>
       </c>
     </row>
     <row r="201">
@@ -3780,12 +3808,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>5318</v>
+        <v>9317</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.064477468839884949</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="202">
@@ -3793,12 +3821,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>7457</v>
+        <v>7919</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.08254716981132075</v>
+        <v>0.071927260918980357</v>
       </c>
     </row>
     <row r="203">
@@ -3806,12 +3834,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>7917</v>
+        <v>6686</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.072584483579247974</v>
+        <v>0.054350536025928695</v>
       </c>
     </row>
     <row r="204">
@@ -3819,12 +3847,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>6871</v>
+        <v>2741</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.083112874779541449</v>
+        <v>0.041267501842299187</v>
       </c>
     </row>
     <row r="205">
@@ -3832,12 +3860,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>9330</v>
+        <v>5318</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.080554580554580549</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="206">
@@ -3845,12 +3873,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>5972</v>
+        <v>7457</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.071404848887412817</v>
+        <v>0.082527705729780715</v>
       </c>
     </row>
     <row r="207">
@@ -3858,12 +3886,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>2701</v>
+        <v>7917</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.064873417721518986</v>
+        <v>0.072601761485360627</v>
       </c>
     </row>
     <row r="208">
@@ -3871,12 +3899,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>5202</v>
+        <v>6871</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.063265982113282548</v>
+        <v>0.083112874779541449</v>
       </c>
     </row>
     <row r="209">
@@ -3884,12 +3912,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>5961</v>
+        <v>9330</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="210">
@@ -3897,12 +3925,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>5490</v>
+        <v>5972</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.07006197790353004</v>
+        <v>0.071713147410358571</v>
       </c>
     </row>
     <row r="211">
@@ -3910,12 +3938,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>6598</v>
+        <v>2701</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.073772791023842918</v>
+        <v>0.064873417721518986</v>
       </c>
     </row>
     <row r="212">
@@ -3923,12 +3951,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>5318</v>
+        <v>5202</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.097416020671834622</v>
+        <v>0.063307921776599274</v>
       </c>
     </row>
     <row r="213">
@@ -3936,12 +3964,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>3751</v>
+        <v>5961</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.080039043435822355</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="214">
@@ -3949,12 +3977,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>2134</v>
+        <v>5490</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.07006197790353004</v>
       </c>
     </row>
     <row r="215">
@@ -3962,12 +3990,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>2985</v>
+        <v>6598</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.12931034482758622</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="216">
@@ -3975,12 +4003,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5298</v>
+        <v>5318</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="217">
@@ -3988,12 +4016,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>4788</v>
+        <v>3751</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.080039043435822355</v>
       </c>
     </row>
     <row r="218">
@@ -4001,12 +4029,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>6406</v>
+        <v>2134</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.11588132635253054</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="219">
@@ -4014,12 +4042,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>7796</v>
+        <v>2985</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.10538486950776346</v>
+        <v>0.12931034482758622</v>
       </c>
     </row>
     <row r="220">
@@ -4027,12 +4055,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>4520</v>
+        <v>5298</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.087874659400544966</v>
       </c>
     </row>
     <row r="221">
@@ -4040,12 +4068,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>773</v>
+        <v>4788</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="222">
@@ -4053,12 +4081,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2592</v>
+        <v>6406</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.12848158131176998</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="223">
@@ -4066,12 +4094,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>3600</v>
+        <v>7796</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.10548941798941799</v>
       </c>
     </row>
     <row r="224">
@@ -4079,12 +4107,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>2472</v>
+        <v>4520</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="225">
@@ -4092,12 +4120,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>3576</v>
+        <v>773</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="226">
@@ -4105,12 +4133,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>3215</v>
+        <v>2592</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.12741935483870967</v>
+        <v>0.12853932584269662</v>
       </c>
     </row>
     <row r="227">
@@ -4118,12 +4146,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>1968</v>
+        <v>3600</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="228">
@@ -4131,12 +4159,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>1298</v>
+        <v>2472</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="229">
@@ -4144,12 +4172,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>7999</v>
+        <v>3576</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.16280384397964953</v>
+        <v>0.15919282511210761</v>
       </c>
     </row>
     <row r="230">
@@ -4157,12 +4185,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>2875</v>
+        <v>3215</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="231">
@@ -4170,12 +4198,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>10211</v>
+        <v>1968</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.084054388133498151</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="232">
@@ -4183,12 +4211,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>5262</v>
+        <v>1298</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="233">
@@ -4196,12 +4224,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>2431</v>
+        <v>7999</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.16280384397964953</v>
       </c>
     </row>
     <row r="234">
@@ -4209,12 +4237,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>913</v>
+        <v>2875</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="235">
@@ -4222,12 +4250,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>852</v>
+        <v>10211</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.084054388133498151</v>
       </c>
     </row>
     <row r="236">
@@ -4235,12 +4263,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>1343</v>
+        <v>5262</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.08201581027667984</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="237">
@@ -4248,12 +4276,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>7629</v>
+        <v>2431</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.084626755358462674</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="238">
@@ -4261,12 +4289,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3404</v>
+        <v>913</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.08068376068376068</v>
+        <v>0.12005928853754941</v>
       </c>
     </row>
     <row r="239">
@@ -4274,12 +4302,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2883</v>
+        <v>852</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.068073519400953034</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="240">
@@ -4287,12 +4315,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>3435</v>
+        <v>1343</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.074591280653950959</v>
+        <v>0.082042833607907747</v>
       </c>
     </row>
     <row r="241">
@@ -4300,51 +4328,59 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2787</v>
+        <v>7629</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="5"/>
+      <c r="E241" s="5">
+        <v>0.084658040665434378</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2082</v>
+        <v>3404</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="5"/>
+      <c r="E242" s="5">
+        <v>0.080711354309165526</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>1638</v>
+        <v>2883</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="5"/>
+      <c r="E243" s="5">
+        <v>0.068073519400953034</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2910</v>
+        <v>3435</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="5"/>
+      <c r="E244" s="5">
+        <v>0.074616695059625218</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2667</v>
+        <v>2787</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -4355,7 +4391,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2793</v>
+        <v>2082</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4366,7 +4402,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2446</v>
+        <v>1638</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4377,7 +4413,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>529</v>
+        <v>2910</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4388,7 +4424,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2163</v>
+        <v>2667</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4399,7 +4435,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1389</v>
+        <v>2793</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4410,7 +4446,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2192</v>
+        <v>2446</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4421,7 +4457,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>943</v>
+        <v>529</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4432,7 +4468,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>1696</v>
+        <v>2163</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4443,7 +4479,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>205</v>
+        <v>1389</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4454,7 +4490,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>295</v>
+        <v>2192</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4465,7 +4501,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4475,7 +4511,9 @@
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B257" s="4"/>
+      <c r="B257" s="4">
+        <v>1696</v>
+      </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5"/>
@@ -4484,7 +4522,9 @@
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B258" s="4"/>
+      <c r="B258" s="4">
+        <v>205</v>
+      </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5"/>
@@ -4493,7 +4533,9 @@
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B259" s="4"/>
+      <c r="B259" s="4">
+        <v>295</v>
+      </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="5"/>
@@ -4502,7 +4544,9 @@
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B260" s="4"/>
+      <c r="B260" s="4">
+        <v>936</v>
+      </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="5"/>
@@ -4597,6 +4641,42 @@
       <c r="D270" s="4"/>
       <c r="E270" s="5"/>
     </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+  <si>
+    <t>11/30/2020</t>
+  </si>
   <si>
     <t>11/29/2020</t>
   </si>
@@ -930,24 +933,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -964,13 +967,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>36343</v>
+        <v>26673</v>
       </c>
       <c r="C3" s="4">
-        <v>34620</v>
+        <v>25830</v>
       </c>
       <c r="D3" s="4">
-        <v>1723</v>
+        <v>843</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -979,16 +982,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>40336</v>
+        <v>38761</v>
       </c>
       <c r="C4" s="4">
-        <v>39693</v>
+        <v>37070</v>
       </c>
       <c r="D4" s="4">
-        <v>643</v>
+        <v>1691</v>
       </c>
       <c r="E4" s="5">
-        <v>0.086139677666922487</v>
+        <v>0.094815922523677279</v>
       </c>
     </row>
     <row r="5">
@@ -996,16 +999,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>63536</v>
+        <v>40328</v>
       </c>
       <c r="C5" s="4">
-        <v>59597</v>
+        <v>39692</v>
       </c>
       <c r="D5" s="4">
-        <v>3939</v>
+        <v>636</v>
       </c>
       <c r="E5" s="5">
-        <v>0.076813459593637945</v>
+        <v>0.088336684860672227</v>
       </c>
     </row>
     <row r="6">
@@ -1013,16 +1016,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>47989</v>
+        <v>63644</v>
       </c>
       <c r="C6" s="4">
-        <v>43016</v>
+        <v>59719</v>
       </c>
       <c r="D6" s="4">
-        <v>4973</v>
+        <v>3925</v>
       </c>
       <c r="E6" s="5">
-        <v>0.070468251479999258</v>
+        <v>0.076960154241645248</v>
       </c>
     </row>
     <row r="7">
@@ -1030,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>50731</v>
+        <v>48354</v>
       </c>
       <c r="C7" s="4">
-        <v>44924</v>
+        <v>43425</v>
       </c>
       <c r="D7" s="4">
-        <v>5807</v>
+        <v>4929</v>
       </c>
       <c r="E7" s="5">
-        <v>0.079043523650915964</v>
+        <v>0.070834406860760424</v>
       </c>
     </row>
     <row r="8">
@@ -1047,16 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>40691</v>
+        <v>50821</v>
       </c>
       <c r="C8" s="4">
-        <v>39337</v>
+        <v>44924</v>
       </c>
       <c r="D8" s="4">
-        <v>1354</v>
+        <v>5897</v>
       </c>
       <c r="E8" s="5">
-        <v>0.07200544464609801</v>
+        <v>0.079193932183224278</v>
       </c>
     </row>
     <row r="9">
@@ -1064,16 +1067,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>41917</v>
+        <v>40694</v>
       </c>
       <c r="C9" s="4">
-        <v>40461</v>
+        <v>39340</v>
       </c>
       <c r="D9" s="4">
-        <v>1456</v>
+        <v>1354</v>
       </c>
       <c r="E9" s="5">
-        <v>0.065772669220945087</v>
+        <v>0.071995284943555338</v>
       </c>
     </row>
     <row r="10">
@@ -1081,16 +1084,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>52406</v>
+        <v>41918</v>
       </c>
       <c r="C10" s="4">
-        <v>48702</v>
+        <v>40463</v>
       </c>
       <c r="D10" s="4">
-        <v>3704</v>
+        <v>1455</v>
       </c>
       <c r="E10" s="5">
-        <v>0.068564512734161226</v>
+        <v>0.065761216553485408</v>
       </c>
     </row>
     <row r="11">
@@ -1098,16 +1101,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>57231</v>
+        <v>52405</v>
       </c>
       <c r="C11" s="4">
-        <v>52377</v>
+        <v>48702</v>
       </c>
       <c r="D11" s="4">
-        <v>4854</v>
+        <v>3703</v>
       </c>
       <c r="E11" s="5">
-        <v>0.069147327023639737</v>
+        <v>0.068555494173046058</v>
       </c>
     </row>
     <row r="12">
@@ -1115,16 +1118,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>53658</v>
+        <v>57230</v>
       </c>
       <c r="C12" s="4">
-        <v>49813</v>
+        <v>52376</v>
       </c>
       <c r="D12" s="4">
-        <v>3845</v>
+        <v>4854</v>
       </c>
       <c r="E12" s="5">
-        <v>0.072837982046828897</v>
+        <v>0.069121237656921852</v>
       </c>
     </row>
     <row r="13">
@@ -1132,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>50115</v>
+        <v>53658</v>
       </c>
       <c r="C13" s="4">
-        <v>45604</v>
+        <v>49813</v>
       </c>
       <c r="D13" s="4">
-        <v>4511</v>
+        <v>3845</v>
       </c>
       <c r="E13" s="5">
-        <v>0.079059021214030661</v>
+        <v>0.072813604702240256</v>
       </c>
     </row>
     <row r="14">
@@ -1149,16 +1152,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>34991</v>
+        <v>50116</v>
       </c>
       <c r="C14" s="4">
-        <v>30563</v>
+        <v>45605</v>
       </c>
       <c r="D14" s="4">
-        <v>4428</v>
+        <v>4511</v>
       </c>
       <c r="E14" s="5">
-        <v>0.077365523710780315</v>
+        <v>0.079060681803860611</v>
       </c>
     </row>
     <row r="15">
@@ -1166,16 +1169,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>29498</v>
+        <v>34991</v>
       </c>
       <c r="C15" s="4">
-        <v>28639</v>
+        <v>30563</v>
       </c>
       <c r="D15" s="4">
-        <v>859</v>
+        <v>4428</v>
       </c>
       <c r="E15" s="5">
-        <v>0.087359806001818738</v>
+        <v>0.077384478672985785</v>
       </c>
     </row>
     <row r="16">
@@ -1183,16 +1186,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>35681</v>
+        <v>29498</v>
       </c>
       <c r="C16" s="4">
-        <v>34657</v>
+        <v>28639</v>
       </c>
       <c r="D16" s="4">
-        <v>1024</v>
+        <v>859</v>
       </c>
       <c r="E16" s="5">
-        <v>0.087518390393256193</v>
+        <v>0.087351862516291331</v>
       </c>
     </row>
     <row r="17">
@@ -1200,16 +1203,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>40919</v>
+        <v>35681</v>
       </c>
       <c r="C17" s="4">
-        <v>38372</v>
+        <v>34657</v>
       </c>
       <c r="D17" s="4">
-        <v>2547</v>
+        <v>1024</v>
       </c>
       <c r="E17" s="5">
-        <v>0.080490045941807045</v>
+        <v>0.087504472627519578</v>
       </c>
     </row>
     <row r="18">
@@ -1217,16 +1220,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>48225</v>
+        <v>40919</v>
       </c>
       <c r="C18" s="4">
-        <v>44445</v>
+        <v>38372</v>
       </c>
       <c r="D18" s="4">
-        <v>3780</v>
+        <v>2547</v>
       </c>
       <c r="E18" s="5">
-        <v>0.077418994725237916</v>
+        <v>0.080494976721391817</v>
       </c>
     </row>
     <row r="19">
@@ -1234,16 +1237,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>46480</v>
+        <v>48218</v>
       </c>
       <c r="C19" s="4">
-        <v>43302</v>
+        <v>44438</v>
       </c>
       <c r="D19" s="4">
-        <v>3178</v>
+        <v>3780</v>
       </c>
       <c r="E19" s="5">
-        <v>0.07804206309464197</v>
+        <v>0.077444742129939723</v>
       </c>
     </row>
     <row r="20">
@@ -1251,16 +1254,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>41374</v>
+        <v>46480</v>
       </c>
       <c r="C20" s="4">
-        <v>37691</v>
+        <v>43302</v>
       </c>
       <c r="D20" s="4">
-        <v>3683</v>
+        <v>3178</v>
       </c>
       <c r="E20" s="5">
-        <v>0.076075028709965548</v>
+        <v>0.078047925482635144</v>
       </c>
     </row>
     <row r="21">
@@ -1268,16 +1271,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>29267</v>
+        <v>41373</v>
       </c>
       <c r="C21" s="4">
-        <v>25792</v>
+        <v>37690</v>
       </c>
       <c r="D21" s="4">
-        <v>3475</v>
+        <v>3683</v>
       </c>
       <c r="E21" s="5">
-        <v>0.077241299505308531</v>
+        <v>0.07606532278642511</v>
       </c>
     </row>
     <row r="22">
@@ -1285,16 +1288,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>26351</v>
+        <v>29267</v>
       </c>
       <c r="C22" s="4">
-        <v>25612</v>
+        <v>25792</v>
       </c>
       <c r="D22" s="4">
-        <v>739</v>
+        <v>3475</v>
       </c>
       <c r="E22" s="5">
-        <v>0.080921843687374748</v>
+        <v>0.077248003703275087</v>
       </c>
     </row>
     <row r="23">
@@ -1302,16 +1305,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>34442</v>
+        <v>26351</v>
       </c>
       <c r="C23" s="4">
-        <v>33672</v>
+        <v>25612</v>
       </c>
       <c r="D23" s="4">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="E23" s="5">
-        <v>0.075420510037981559</v>
+        <v>0.080918600456895515</v>
       </c>
     </row>
     <row r="24">
@@ -1319,16 +1322,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>40124</v>
+        <v>34442</v>
       </c>
       <c r="C24" s="4">
-        <v>38159</v>
+        <v>33672</v>
       </c>
       <c r="D24" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E24" s="5">
-        <v>0.06526778456814282</v>
+        <v>0.075410280754102804</v>
       </c>
     </row>
     <row r="25">
@@ -1336,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>44883</v>
+        <v>40124</v>
       </c>
       <c r="C25" s="4">
-        <v>41798</v>
+        <v>38159</v>
       </c>
       <c r="D25" s="4">
-        <v>3085</v>
+        <v>1965</v>
       </c>
       <c r="E25" s="5">
-        <v>0.058828373778412213</v>
+        <v>0.06526189042745334</v>
       </c>
     </row>
     <row r="26">
@@ -1353,16 +1356,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>47558</v>
+        <v>44883</v>
       </c>
       <c r="C26" s="4">
-        <v>45091</v>
+        <v>41798</v>
       </c>
       <c r="D26" s="4">
-        <v>2467</v>
+        <v>3085</v>
       </c>
       <c r="E26" s="5">
-        <v>0.066589802715859597</v>
+        <v>0.05882514411199561</v>
       </c>
     </row>
     <row r="27">
@@ -1370,16 +1373,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>43249</v>
+        <v>47558</v>
       </c>
       <c r="C27" s="4">
-        <v>40486</v>
+        <v>45091</v>
       </c>
       <c r="D27" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E27" s="5">
-        <v>0.0643310546875</v>
+        <v>0.066586390653822505</v>
       </c>
     </row>
     <row r="28">
@@ -1387,16 +1390,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>25511</v>
+        <v>43249</v>
       </c>
       <c r="C28" s="4">
-        <v>22372</v>
+        <v>40486</v>
       </c>
       <c r="D28" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E28" s="5">
-        <v>0.065493795164191848</v>
+        <v>0.064329484143453533</v>
       </c>
     </row>
     <row r="29">
@@ -1404,16 +1407,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C29" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D29" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E29" s="5">
-        <v>0.074552355804934398</v>
+        <v>0.065489801518338969</v>
       </c>
     </row>
     <row r="30">
@@ -1421,16 +1424,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>33579</v>
+        <v>26650</v>
       </c>
       <c r="C30" s="4">
-        <v>32758</v>
+        <v>26087</v>
       </c>
       <c r="D30" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E30" s="5">
-        <v>0.067911209389351926</v>
+        <v>0.074555431777860295</v>
       </c>
     </row>
     <row r="31">
@@ -1438,16 +1441,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>39047</v>
+        <v>33579</v>
       </c>
       <c r="C31" s="4">
-        <v>37187</v>
+        <v>32758</v>
       </c>
       <c r="D31" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E31" s="5">
-        <v>0.063440218586099689</v>
+        <v>0.067899659863945583</v>
       </c>
     </row>
     <row r="32">
@@ -1455,16 +1458,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>45062</v>
+        <v>39047</v>
       </c>
       <c r="C32" s="4">
-        <v>42057</v>
+        <v>37187</v>
       </c>
       <c r="D32" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E32" s="5">
-        <v>0.059566370660823431</v>
+        <v>0.063438226242070225</v>
       </c>
     </row>
     <row r="33">
@@ -1472,16 +1475,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>45527</v>
+        <v>45062</v>
       </c>
       <c r="C33" s="4">
-        <v>43051</v>
+        <v>42057</v>
       </c>
       <c r="D33" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E33" s="5">
-        <v>0.060435641391418854</v>
+        <v>0.059552634613167302</v>
       </c>
     </row>
     <row r="34">
@@ -1489,16 +1492,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>38785</v>
+        <v>45527</v>
       </c>
       <c r="C34" s="4">
-        <v>36621</v>
+        <v>43051</v>
       </c>
       <c r="D34" s="4">
-        <v>2164</v>
+        <v>2476</v>
       </c>
       <c r="E34" s="5">
-        <v>0.059398550550164929</v>
+        <v>0.060437299388219803</v>
       </c>
     </row>
     <row r="35">
@@ -1506,16 +1509,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>23935</v>
+        <v>38785</v>
       </c>
       <c r="C35" s="4">
-        <v>21589</v>
+        <v>36621</v>
       </c>
       <c r="D35" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E35" s="5">
-        <v>0.064254895453036837</v>
+        <v>0.059391400645192355</v>
       </c>
     </row>
     <row r="36">
@@ -1523,16 +1526,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C36" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D36" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E36" s="5">
-        <v>0.070302355778148765</v>
+        <v>0.064239970800013271</v>
       </c>
     </row>
     <row r="37">
@@ -1540,16 +1543,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C37" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D37" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E37" s="5">
-        <v>0.074929507380991869</v>
+        <v>0.070305616101655616</v>
       </c>
     </row>
     <row r="38">
@@ -1557,16 +1560,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>37816</v>
+        <v>30514</v>
       </c>
       <c r="C38" s="4">
-        <v>36631</v>
+        <v>30031</v>
       </c>
       <c r="D38" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E38" s="5">
-        <v>0.062129341993787064</v>
+        <v>0.074923293805456509</v>
       </c>
     </row>
     <row r="39">
@@ -1574,16 +1577,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>40625</v>
+        <v>37816</v>
       </c>
       <c r="C39" s="4">
-        <v>38715</v>
+        <v>36631</v>
       </c>
       <c r="D39" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E39" s="5">
-        <v>0.063893783800206605</v>
+        <v>0.062127148858060643</v>
       </c>
     </row>
     <row r="40">
@@ -1591,16 +1594,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>46374</v>
+        <v>40625</v>
       </c>
       <c r="C40" s="4">
-        <v>44983</v>
+        <v>38715</v>
       </c>
       <c r="D40" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E40" s="5">
-        <v>0.063672391017173049</v>
+        <v>0.063897666504618381</v>
       </c>
     </row>
     <row r="41">
@@ -1608,16 +1611,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>36459</v>
+        <v>46374</v>
       </c>
       <c r="C41" s="4">
-        <v>34715</v>
+        <v>44983</v>
       </c>
       <c r="D41" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E41" s="5">
-        <v>0.059085699732586275</v>
+        <v>0.063672391017173049</v>
       </c>
     </row>
     <row r="42">
@@ -1625,16 +1628,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>18443</v>
+        <v>36459</v>
       </c>
       <c r="C42" s="4">
-        <v>16604</v>
+        <v>34715</v>
       </c>
       <c r="D42" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E42" s="5">
-        <v>0.06173932285903961</v>
+        <v>0.059082690299742786</v>
       </c>
     </row>
     <row r="43">
@@ -1642,16 +1645,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>23462</v>
+        <v>18443</v>
       </c>
       <c r="C43" s="4">
-        <v>23126</v>
+        <v>16604</v>
       </c>
       <c r="D43" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E43" s="5">
-        <v>0.076962869295321298</v>
+        <v>0.061718836411901339</v>
       </c>
     </row>
     <row r="44">
@@ -1659,16 +1662,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>32977</v>
+        <v>23462</v>
       </c>
       <c r="C44" s="4">
-        <v>32585</v>
+        <v>23126</v>
       </c>
       <c r="D44" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E44" s="5">
-        <v>0.074017355793772333</v>
+        <v>0.076967293211473248</v>
       </c>
     </row>
     <row r="45">
@@ -1676,16 +1679,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>34488</v>
+        <v>32977</v>
       </c>
       <c r="C45" s="4">
-        <v>33613</v>
+        <v>32585</v>
       </c>
       <c r="D45" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E45" s="5">
-        <v>0.058661122094212287</v>
+        <v>0.074010486752354873</v>
       </c>
     </row>
     <row r="46">
@@ -1693,16 +1696,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>41561</v>
+        <v>34488</v>
       </c>
       <c r="C46" s="4">
-        <v>40066</v>
+        <v>33613</v>
       </c>
       <c r="D46" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E46" s="5">
-        <v>0.061105173822845291</v>
+        <v>0.05865712338104976</v>
       </c>
     </row>
     <row r="47">
@@ -1710,16 +1713,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>42287</v>
+        <v>41561</v>
       </c>
       <c r="C47" s="4">
-        <v>41168</v>
+        <v>40066</v>
       </c>
       <c r="D47" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E47" s="5">
-        <v>0.065544213913236435</v>
+        <v>0.061099412263884087</v>
       </c>
     </row>
     <row r="48">
@@ -1727,16 +1730,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>34304</v>
+        <v>42287</v>
       </c>
       <c r="C48" s="4">
-        <v>32855</v>
+        <v>41168</v>
       </c>
       <c r="D48" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E48" s="5">
-        <v>0.060775591518161726</v>
+        <v>0.065547850208044378</v>
       </c>
     </row>
     <row r="49">
@@ -1744,16 +1747,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>21658</v>
+        <v>34304</v>
       </c>
       <c r="C49" s="4">
-        <v>20526</v>
+        <v>32855</v>
       </c>
       <c r="D49" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E49" s="5">
-        <v>0.066386617658090161</v>
+        <v>0.060767299716219164</v>
       </c>
     </row>
     <row r="50">
@@ -1761,16 +1764,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>21640</v>
+        <v>21658</v>
       </c>
       <c r="C50" s="4">
-        <v>21362</v>
+        <v>20526</v>
       </c>
       <c r="D50" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E50" s="5">
-        <v>0.067814392674901039</v>
+        <v>0.06637168141592921</v>
       </c>
     </row>
     <row r="51">
@@ -1778,16 +1781,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>32578</v>
+        <v>21640</v>
       </c>
       <c r="C51" s="4">
-        <v>32239</v>
+        <v>21362</v>
       </c>
       <c r="D51" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E51" s="5">
-        <v>0.069968312378615963</v>
+        <v>0.067811158798283255</v>
       </c>
     </row>
     <row r="52">
@@ -1795,16 +1798,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>37230</v>
+        <v>32578</v>
       </c>
       <c r="C52" s="4">
-        <v>36223</v>
+        <v>32239</v>
       </c>
       <c r="D52" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E52" s="5">
-        <v>0.056522339617429737</v>
+        <v>0.069961161079313161</v>
       </c>
     </row>
     <row r="53">
@@ -1812,16 +1815,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>42460</v>
+        <v>37230</v>
       </c>
       <c r="C53" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D53" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E53" s="5">
-        <v>0.05550566354761146</v>
+        <v>0.056522339617429737</v>
       </c>
     </row>
     <row r="54">
@@ -1829,16 +1832,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>40907</v>
+        <v>42460</v>
       </c>
       <c r="C54" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D54" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E54" s="5">
-        <v>0.050205165339126237</v>
+        <v>0.055500840044029894</v>
       </c>
     </row>
     <row r="55">
@@ -1846,16 +1849,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>34450</v>
+        <v>40907</v>
       </c>
       <c r="C55" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D55" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E55" s="5">
-        <v>0.057353106392540161</v>
+        <v>0.050206511827495574</v>
       </c>
     </row>
     <row r="56">
@@ -1863,16 +1866,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C56" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D56" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E56" s="5">
-        <v>0.05683789696009655</v>
+        <v>0.057353106392540161</v>
       </c>
     </row>
     <row r="57">
@@ -1880,16 +1883,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C57" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D57" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E57" s="5">
-        <v>0.064760613716187077</v>
+        <v>0.056818610262790788</v>
       </c>
     </row>
     <row r="58">
@@ -1897,16 +1900,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C58" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D58" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E58" s="5">
-        <v>0.078751514452201007</v>
+        <v>0.064760613716187077</v>
       </c>
     </row>
     <row r="59">
@@ -1914,16 +1917,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C59" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D59" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E59" s="5">
-        <v>0.062060085836909869</v>
+        <v>0.078742428612633406</v>
       </c>
     </row>
     <row r="60">
@@ -1931,16 +1934,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C60" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D60" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E60" s="5">
-        <v>0.061180861893450969</v>
+        <v>0.062049433573635425</v>
       </c>
     </row>
     <row r="61">
@@ -1948,16 +1951,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>40628</v>
+        <v>36046</v>
       </c>
       <c r="C61" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D61" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E61" s="5">
-        <v>0.054694099191504766</v>
+        <v>0.061174634411155976</v>
       </c>
     </row>
     <row r="62">
@@ -1965,16 +1968,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>29245</v>
+        <v>40628</v>
       </c>
       <c r="C62" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D62" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E62" s="5">
-        <v>0.054504756575265809</v>
+        <v>0.054690799396681748</v>
       </c>
     </row>
     <row r="63">
@@ -1982,16 +1985,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C63" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D63" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E63" s="5">
-        <v>0.058028938581402408</v>
+        <v>0.054504756575265809</v>
       </c>
     </row>
     <row r="64">
@@ -1999,16 +2002,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C64" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D64" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E64" s="5">
-        <v>0.066627512398851479</v>
+        <v>0.058014263314956252</v>
       </c>
     </row>
     <row r="65">
@@ -2016,16 +2019,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C65" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D65" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E65" s="5">
-        <v>0.060055056505360763</v>
+        <v>0.066623164763458406</v>
       </c>
     </row>
     <row r="66">
@@ -2033,16 +2036,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>31628</v>
+        <v>26010</v>
       </c>
       <c r="C66" s="4">
-        <v>31297</v>
+        <v>25913</v>
       </c>
       <c r="D66" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5">
-        <v>0.053101820633850307</v>
+        <v>0.060055056505360763</v>
       </c>
     </row>
     <row r="67">
@@ -2050,16 +2053,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>36161</v>
+        <v>31628</v>
       </c>
       <c r="C67" s="4">
-        <v>35830</v>
+        <v>31297</v>
       </c>
       <c r="D67" s="4">
         <v>331</v>
       </c>
       <c r="E67" s="5">
-        <v>0.049567565719755236</v>
+        <v>0.053097345132743362</v>
       </c>
     </row>
     <row r="68">
@@ -2067,16 +2070,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C68" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D68" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E68" s="5">
-        <v>0.045746532989133698</v>
+        <v>0.049567565719755236</v>
       </c>
     </row>
     <row r="69">
@@ -2084,16 +2087,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C69" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D69" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E69" s="5">
-        <v>0.049121225777377195</v>
+        <v>0.045741040878804248</v>
       </c>
     </row>
     <row r="70">
@@ -2101,16 +2104,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C70" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D70" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E70" s="5">
-        <v>0.048491114064884558</v>
+        <v>0.049115323380095527</v>
       </c>
     </row>
     <row r="71">
@@ -2118,12 +2121,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C71" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D71" s="4">
+        <v>315</v>
+      </c>
       <c r="E71" s="5">
-        <v>0.054002697070001229</v>
+        <v>0.04848634014275166</v>
       </c>
     </row>
     <row r="72">
@@ -2131,12 +2138,12 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5">
-        <v>0.052778305772033199</v>
+        <v>0.054002697070001229</v>
       </c>
     </row>
     <row r="73">
@@ -2144,12 +2151,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.052988011348036976</v>
+        <v>0.052771618625277163</v>
       </c>
     </row>
     <row r="74">
@@ -2157,12 +2164,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.046157103535888207</v>
+        <v>0.052988011348036976</v>
       </c>
     </row>
     <row r="75">
@@ -2170,12 +2177,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.047224716485416873</v>
+        <v>0.046147332768839963</v>
       </c>
     </row>
     <row r="76">
@@ -2183,12 +2190,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.047531470970605956</v>
+        <v>0.047224716485416873</v>
       </c>
     </row>
     <row r="77">
@@ -2196,12 +2203,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.056919951989659309</v>
+        <v>0.047526949904882689</v>
       </c>
     </row>
     <row r="78">
@@ -2209,12 +2216,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.057110157367668099</v>
+        <v>0.056906816818202796</v>
       </c>
     </row>
     <row r="79">
@@ -2222,12 +2229,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.049529638444973365</v>
+        <v>0.057110157367668099</v>
       </c>
     </row>
     <row r="80">
@@ -2235,12 +2242,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.047591192077884092</v>
+        <v>0.049521219332540084</v>
       </c>
     </row>
     <row r="81">
@@ -2248,12 +2255,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.049790633027200111</v>
+        <v>0.047579263962571533</v>
       </c>
     </row>
     <row r="82">
@@ -2261,12 +2268,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.050185406322669851</v>
+        <v>0.0497606981981982</v>
       </c>
     </row>
     <row r="83">
@@ -2274,12 +2281,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.051561526826230095</v>
+        <v>0.050182252388134743</v>
       </c>
     </row>
     <row r="84">
@@ -2287,12 +2294,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.064267550281266864</v>
+        <v>0.051556939501779357</v>
       </c>
     </row>
     <row r="85">
@@ -2300,12 +2307,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.070737605804111245</v>
+        <v>0.064262598243180771</v>
       </c>
     </row>
     <row r="86">
@@ -2313,12 +2320,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.059209178447039539</v>
+        <v>0.070725388601036263</v>
       </c>
     </row>
     <row r="87">
@@ -2326,12 +2333,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.056594098177241155</v>
+        <v>0.0592051352089593</v>
       </c>
     </row>
     <row r="88">
@@ -2339,12 +2346,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.059780552402572837</v>
+        <v>0.056586184394518506</v>
       </c>
     </row>
     <row r="89">
@@ -2352,12 +2359,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.053369576026784236</v>
+        <v>0.059780552402572837</v>
       </c>
     </row>
     <row r="90">
@@ -2365,12 +2372,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.063298990386272014</v>
+        <v>0.053366037986012131</v>
       </c>
     </row>
     <row r="91">
@@ -2378,12 +2385,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.06559426118145753</v>
+        <v>0.063285906225238567</v>
       </c>
     </row>
     <row r="92">
@@ -2391,12 +2398,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.076371551117085976</v>
+        <v>0.06559426118145753</v>
       </c>
     </row>
     <row r="93">
@@ -2404,12 +2411,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.065812695701679483</v>
+        <v>0.076366662399180649</v>
       </c>
     </row>
     <row r="94">
@@ -2417,12 +2424,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.076970389245233278</v>
+        <v>0.065808949106227935</v>
       </c>
     </row>
     <row r="95">
@@ -2430,12 +2437,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.05986794427892745</v>
+        <v>0.076970389245233278</v>
       </c>
     </row>
     <row r="96">
@@ -2443,12 +2450,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.062600163532297623</v>
+        <v>0.05986794427892745</v>
       </c>
     </row>
     <row r="97">
@@ -2456,12 +2463,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.070990270196969185</v>
+        <v>0.062598116169544735</v>
       </c>
     </row>
     <row r="98">
@@ -2469,12 +2476,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.065294648066620692</v>
+        <v>0.070990270196969185</v>
       </c>
     </row>
     <row r="99">
@@ -2482,12 +2489,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.080303338072990726</v>
+        <v>0.065294648066620692</v>
       </c>
     </row>
     <row r="100">
@@ -2495,12 +2502,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.073028700457543533</v>
+        <v>0.080303338072990726</v>
       </c>
     </row>
     <row r="101">
@@ -2508,12 +2515,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.064143094841930121</v>
+        <v>0.073007009623381247</v>
       </c>
     </row>
     <row r="102">
@@ -2521,12 +2528,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.064067063687744188</v>
+        <v>0.064135091294763552</v>
       </c>
     </row>
     <row r="103">
@@ -2534,12 +2541,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.069087930092845445</v>
+        <v>0.064067063687744188</v>
       </c>
     </row>
     <row r="104">
@@ -2547,12 +2554,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.075870206489675518</v>
+        <v>0.069085235030232103</v>
       </c>
     </row>
     <row r="105">
@@ -2560,12 +2567,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.065384396517384619</v>
+        <v>0.075873190685966013</v>
       </c>
     </row>
     <row r="106">
@@ -2573,12 +2580,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.06897837434750187</v>
+        <v>0.065391838825337209</v>
       </c>
     </row>
     <row r="107">
@@ -2586,12 +2593,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.063117715220503037</v>
+        <v>0.06897837434750187</v>
       </c>
     </row>
     <row r="108">
@@ -2599,12 +2606,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.063838923612767787</v>
+        <v>0.063122017723244717</v>
       </c>
     </row>
     <row r="109">
@@ -2612,12 +2619,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.063683998387746882</v>
+        <v>0.063826742355578878</v>
       </c>
     </row>
     <row r="110">
@@ -2625,12 +2632,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.059320615796519413</v>
+        <v>0.063725929243170623</v>
       </c>
     </row>
     <row r="111">
@@ -2638,12 +2645,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.06424124685416574</v>
+        <v>0.059320615796519413</v>
       </c>
     </row>
     <row r="112">
@@ -2651,12 +2658,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.062010062010062011</v>
+        <v>0.064238410596026488</v>
       </c>
     </row>
     <row r="113">
@@ -2664,12 +2671,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.06419536448051473</v>
+        <v>0.062002807674309782</v>
       </c>
     </row>
     <row r="114">
@@ -2677,12 +2684,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.052509754645856756</v>
+        <v>0.06419536448051473</v>
       </c>
     </row>
     <row r="115">
@@ -2690,12 +2697,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.059563294637921503</v>
+        <v>0.052478519497686713</v>
       </c>
     </row>
     <row r="116">
@@ -2703,12 +2710,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.068145800316957217</v>
+        <v>0.059560550923580084</v>
       </c>
     </row>
     <row r="117">
@@ -2716,12 +2723,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.070804825351098305</v>
+        <v>0.068148976833076955</v>
       </c>
     </row>
     <row r="118">
@@ -2729,12 +2736,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.075712111328549686</v>
+        <v>0.070808012604096332</v>
       </c>
     </row>
     <row r="119">
@@ -2742,12 +2749,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.076659117425022308</v>
+        <v>0.075708818925030438</v>
       </c>
     </row>
     <row r="120">
@@ -2755,12 +2762,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.067831903079252909</v>
+        <v>0.076659117425022308</v>
       </c>
     </row>
     <row r="121">
@@ -2768,12 +2775,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.072972682297268235</v>
+        <v>0.067836183504764308</v>
       </c>
     </row>
     <row r="122">
@@ -2781,12 +2788,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.068625030856578617</v>
+        <v>0.072976606614681361</v>
       </c>
     </row>
     <row r="123">
@@ -2794,12 +2801,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.066699543829367519</v>
+        <v>0.068625030856578617</v>
       </c>
     </row>
     <row r="124">
@@ -2807,12 +2814,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.072344554121319501</v>
+        <v>0.066699543829367519</v>
       </c>
     </row>
     <row r="125">
@@ -2820,12 +2827,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.074933285892190005</v>
+        <v>0.072344554121319501</v>
       </c>
     </row>
     <row r="126">
@@ -2833,12 +2840,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.069518716577540107</v>
+        <v>0.07492795389048991</v>
       </c>
     </row>
     <row r="127">
@@ -2846,12 +2853,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.07183192955589586</v>
+        <v>0.069518716577540107</v>
       </c>
     </row>
     <row r="128">
@@ -2859,12 +2866,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.076757840469712152</v>
+        <v>0.071828492128056656</v>
       </c>
     </row>
     <row r="129">
@@ -2872,12 +2879,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.078440451935543623</v>
+        <v>0.076757840469712152</v>
       </c>
     </row>
     <row r="130">
@@ -2885,12 +2892,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.074732044898303651</v>
+        <v>0.078436819928693793</v>
       </c>
     </row>
     <row r="131">
@@ -2898,12 +2905,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.084679998294461267</v>
+        <v>0.07471943295924395</v>
       </c>
     </row>
     <row r="132">
@@ -2911,12 +2918,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.077957389749702025</v>
+        <v>0.084672777659347692</v>
       </c>
     </row>
     <row r="133">
@@ -2924,12 +2931,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.076055833929849673</v>
+        <v>0.077954486200603371</v>
       </c>
     </row>
     <row r="134">
@@ -2937,12 +2944,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.080777932893660045</v>
+        <v>0.076055833929849673</v>
       </c>
     </row>
     <row r="135">
@@ -2950,12 +2957,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.069386296334116207</v>
+        <v>0.080777932893660045</v>
       </c>
     </row>
     <row r="136">
@@ -2963,12 +2970,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.080750880634948952</v>
+        <v>0.069382753867361008</v>
       </c>
     </row>
     <row r="137">
@@ -2976,12 +2983,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.084296188246132581</v>
+        <v>0.080750880634948952</v>
       </c>
     </row>
     <row r="138">
@@ -2989,12 +2996,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.073090352701165207</v>
+        <v>0.084299424184261035</v>
       </c>
     </row>
     <row r="139">
@@ -3002,12 +3009,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.087202126649577522</v>
+        <v>0.07309322033898305</v>
       </c>
     </row>
     <row r="140">
@@ -3015,12 +3022,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.078390323331007206</v>
+        <v>0.087185571903179881</v>
       </c>
     </row>
     <row r="141">
@@ -3028,12 +3035,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.096222455403987411</v>
+        <v>0.078390323331007206</v>
       </c>
     </row>
     <row r="142">
@@ -3041,12 +3048,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.092311411992263059</v>
+        <v>0.096197220036716491</v>
       </c>
     </row>
     <row r="143">
@@ -3054,12 +3061,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.091253397495878449</v>
+        <v>0.092315876009478215</v>
       </c>
     </row>
     <row r="144">
@@ -3067,12 +3074,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.095748089157398505</v>
+        <v>0.091253397495878449</v>
       </c>
     </row>
     <row r="145">
@@ -3080,12 +3087,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.093509013839946892</v>
+        <v>0.095748089157398505</v>
       </c>
     </row>
     <row r="146">
@@ -3093,12 +3100,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.085274845285766288</v>
+        <v>0.093509013839946892</v>
       </c>
     </row>
     <row r="147">
@@ -3106,12 +3113,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.088472015849430416</v>
+        <v>0.085282606717029211</v>
       </c>
     </row>
     <row r="148">
@@ -3119,12 +3126,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.092100783112019066</v>
+        <v>0.088482972136222915</v>
       </c>
     </row>
     <row r="149">
@@ -3132,12 +3139,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.084297796572446029</v>
+        <v>0.092100783112019066</v>
       </c>
     </row>
     <row r="150">
@@ -3145,12 +3152,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.08920468115595892</v>
+        <v>0.0842931063261559</v>
       </c>
     </row>
     <row r="151">
@@ -3158,12 +3165,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.091538119723227326</v>
+        <v>0.08920468115595892</v>
       </c>
     </row>
     <row r="152">
@@ -3171,12 +3178,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.10445757250268528</v>
+        <v>0.091543930929405784</v>
       </c>
     </row>
     <row r="153">
@@ -3184,12 +3191,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.083295115799128641</v>
+        <v>0.10445757250268528</v>
       </c>
     </row>
     <row r="154">
@@ -3197,12 +3204,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.095664617341530631</v>
+        <v>0.083290341071940388</v>
       </c>
     </row>
     <row r="155">
@@ -3210,12 +3217,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.087815971311116944</v>
+        <v>0.095654478007419177</v>
       </c>
     </row>
     <row r="156">
@@ -3223,12 +3230,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.081875762682317388</v>
+        <v>0.087815971311116944</v>
       </c>
     </row>
     <row r="157">
@@ -3236,12 +3243,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.094727694090382383</v>
+        <v>0.081875762682317388</v>
       </c>
     </row>
     <row r="158">
@@ -3249,12 +3256,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.098925979680696663</v>
+        <v>0.094716718804310041</v>
       </c>
     </row>
     <row r="159">
@@ -3262,12 +3269,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.096595041322314043</v>
+        <v>0.098925979680696663</v>
       </c>
     </row>
     <row r="160">
@@ -3275,12 +3282,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.077396771893433594</v>
+        <v>0.096595041322314043</v>
       </c>
     </row>
     <row r="161">
@@ -3288,12 +3295,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.082463542823302982</v>
+        <v>0.077396771893433594</v>
       </c>
     </row>
     <row r="162">
@@ -3301,12 +3308,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.090424271154301961</v>
+        <v>0.082463542823302982</v>
       </c>
     </row>
     <row r="163">
@@ -3314,12 +3321,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.08426372963186482</v>
+        <v>0.090337877889745108</v>
       </c>
     </row>
     <row r="164">
@@ -3327,12 +3334,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.094264996704021095</v>
+        <v>0.08426372963186482</v>
       </c>
     </row>
     <row r="165">
@@ -3340,12 +3347,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.095636025998142984</v>
+        <v>0.094258092866559257</v>
       </c>
     </row>
     <row r="166">
@@ -3353,12 +3360,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095636025998142984</v>
       </c>
     </row>
     <row r="167">
@@ -3366,12 +3373,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.082752613240418119</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="168">
@@ -3379,12 +3386,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.080478172697192873</v>
+        <v>0.082741524855956053</v>
       </c>
     </row>
     <row r="169">
@@ -3392,12 +3399,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.080478172697192873</v>
       </c>
     </row>
     <row r="170">
@@ -3405,12 +3412,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.082531050194752695</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="171">
@@ -3418,12 +3425,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.091595913081018845</v>
+        <v>0.082531050194752695</v>
       </c>
     </row>
     <row r="172">
@@ -3431,12 +3438,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.092439312791263828</v>
+        <v>0.091595913081018845</v>
       </c>
     </row>
     <row r="173">
@@ -3444,12 +3451,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.098395579522002535</v>
+        <v>0.092445742904841408</v>
       </c>
     </row>
     <row r="174">
@@ -3457,12 +3464,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.084529857889698842</v>
+        <v>0.098395579522002535</v>
       </c>
     </row>
     <row r="175">
@@ -3470,12 +3477,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.076472370946560259</v>
+        <v>0.084536082474226809</v>
       </c>
     </row>
     <row r="176">
@@ -3483,12 +3490,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.086864406779661021</v>
+        <v>0.076464646464646471</v>
       </c>
     </row>
     <row r="177">
@@ -3496,12 +3503,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.090100573518410776</v>
+        <v>0.086851263428657885</v>
       </c>
     </row>
     <row r="178">
@@ -3509,12 +3516,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.093467011642949543</v>
+        <v>0.090093085106382975</v>
       </c>
     </row>
     <row r="179">
@@ -3522,12 +3529,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.097682119205298013</v>
+        <v>0.093456936509647509</v>
       </c>
     </row>
     <row r="180">
@@ -3535,12 +3542,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.086296083422284259</v>
+        <v>0.097664153025565567</v>
       </c>
     </row>
     <row r="181">
@@ -3548,12 +3555,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.08630316965018886</v>
       </c>
     </row>
     <row r="182">
@@ -3561,12 +3568,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.089415749364944966</v>
       </c>
     </row>
     <row r="183">
@@ -3574,12 +3581,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.078535830898779857</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="184">
@@ -3587,12 +3594,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.081052408232548265</v>
+        <v>0.078549329666552078</v>
       </c>
     </row>
     <row r="185">
@@ -3600,12 +3607,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.081836714882050285</v>
+        <v>0.081052408232548265</v>
       </c>
     </row>
     <row r="186">
@@ -3613,12 +3620,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.099307920465780505</v>
+        <v>0.081836714882050285</v>
       </c>
     </row>
     <row r="187">
@@ -3626,12 +3633,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.08994276369582993</v>
+        <v>0.099307920465780505</v>
       </c>
     </row>
     <row r="188">
@@ -3639,12 +3646,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.08994276369582993</v>
       </c>
     </row>
     <row r="189">
@@ -3652,12 +3659,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.070535428021801863</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="190">
@@ -3665,12 +3672,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.076398104265402847</v>
+        <v>0.070535428021801863</v>
       </c>
     </row>
     <row r="191">
@@ -3678,12 +3685,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.081884381037301238</v>
+        <v>0.076398104265402847</v>
       </c>
     </row>
     <row r="192">
@@ -3691,12 +3698,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081896551724137928</v>
       </c>
     </row>
     <row r="193">
@@ -3704,12 +3711,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.09723233794610342</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="194">
@@ -3717,12 +3724,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.082778545408868226</v>
+        <v>0.09723233794610342</v>
       </c>
     </row>
     <row r="195">
@@ -3730,12 +3737,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.073176309169906237</v>
+        <v>0.082778545408868226</v>
       </c>
     </row>
     <row r="196">
@@ -3743,12 +3750,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.063029856247696275</v>
+        <v>0.073184676958261863</v>
       </c>
     </row>
     <row r="197">
@@ -3756,12 +3763,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.055933190910856474</v>
+        <v>0.063029856247696275</v>
       </c>
     </row>
     <row r="198">
@@ -3769,12 +3776,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.060979365568216815</v>
+        <v>0.055933190910856474</v>
       </c>
     </row>
     <row r="199">
@@ -3782,12 +3789,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.060988757123055598</v>
       </c>
     </row>
     <row r="200">
@@ -3795,12 +3802,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.068536371603856269</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="201">
@@ -3808,12 +3815,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.068536371603856269</v>
       </c>
     </row>
     <row r="202">
@@ -3821,12 +3828,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.071927260918980357</v>
+        <v>0.06709090909090909</v>
       </c>
     </row>
     <row r="203">
@@ -3834,12 +3841,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.054350536025928695</v>
+        <v>0.071927260918980357</v>
       </c>
     </row>
     <row r="204">
@@ -3847,12 +3854,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.041267501842299187</v>
+        <v>0.054350536025928695</v>
       </c>
     </row>
     <row r="205">
@@ -3860,12 +3867,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041282712863988207</v>
       </c>
     </row>
     <row r="206">
@@ -3873,12 +3880,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.082527705729780715</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="207">
@@ -3886,12 +3893,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.072601761485360627</v>
+        <v>0.082508250825082508</v>
       </c>
     </row>
     <row r="208">
@@ -3899,12 +3906,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.083112874779541449</v>
+        <v>0.072601761485360627</v>
       </c>
     </row>
     <row r="209">
@@ -3912,12 +3919,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083112874779541449</v>
       </c>
     </row>
     <row r="210">
@@ -3925,12 +3932,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.071713147410358571</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="211">
@@ -3938,12 +3945,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.064873417721518986</v>
+        <v>0.071404848887412817</v>
       </c>
     </row>
     <row r="212">
@@ -3951,12 +3958,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.063307921776599274</v>
+        <v>0.064873417721518986</v>
       </c>
     </row>
     <row r="213">
@@ -3964,12 +3971,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063307921776599274</v>
       </c>
     </row>
     <row r="214">
@@ -3977,12 +3984,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.07006197790353004</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="215">
@@ -3990,12 +3997,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.07006197790353004</v>
       </c>
     </row>
     <row r="216">
@@ -4003,12 +4010,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="217">
@@ -4016,12 +4023,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.080039043435822355</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="218">
@@ -4029,12 +4036,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="219">
@@ -4042,12 +4049,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.12931034482758622</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="220">
@@ -4055,12 +4062,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.087874659400544966</v>
+        <v>0.12931034482758622</v>
       </c>
     </row>
     <row r="221">
@@ -4068,12 +4075,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="222">
@@ -4081,12 +4088,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.11588132635253054</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="223">
@@ -4094,12 +4101,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.10548941798941799</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="224">
@@ -4107,12 +4114,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10548941798941799</v>
       </c>
     </row>
     <row r="225">
@@ -4120,12 +4127,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="226">
@@ -4133,12 +4140,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.12853932584269662</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="227">
@@ -4146,12 +4153,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12853932584269662</v>
       </c>
     </row>
     <row r="228">
@@ -4159,12 +4166,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13942307692307693</v>
       </c>
     </row>
     <row r="229">
@@ -4172,12 +4179,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.15919282511210761</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="230">
@@ -4185,12 +4192,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15919282511210761</v>
       </c>
     </row>
     <row r="231">
@@ -4198,12 +4205,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="232">
@@ -4211,12 +4218,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="233">
@@ -4224,12 +4231,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.16280384397964953</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="234">
@@ -4237,12 +4244,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.16280384397964953</v>
       </c>
     </row>
     <row r="235">
@@ -4250,12 +4257,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.084054388133498151</v>
+        <v>0.11288180610889774</v>
       </c>
     </row>
     <row r="236">
@@ -4263,12 +4270,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084054388133498151</v>
       </c>
     </row>
     <row r="237">
@@ -4276,12 +4283,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="238">
@@ -4289,12 +4296,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.12005928853754941</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="239">
@@ -4302,12 +4309,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12005928853754941</v>
       </c>
     </row>
     <row r="240">
@@ -4315,12 +4322,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.082042833607907747</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="241">
@@ -4328,12 +4335,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.082042833607907747</v>
       </c>
     </row>
     <row r="242">
@@ -4341,12 +4348,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.080711354309165526</v>
+        <v>0.084658040665434378</v>
       </c>
     </row>
     <row r="243">
@@ -4354,12 +4361,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.068073519400953034</v>
+        <v>0.080711354309165526</v>
       </c>
     </row>
     <row r="244">
@@ -4367,12 +4374,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.074616695059625218</v>
+        <v>0.068073519400953034</v>
       </c>
     </row>
     <row r="245">
@@ -4380,18 +4387,20 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="5"/>
+      <c r="E245" s="5">
+        <v>0.074616695059625218</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -4402,7 +4411,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4413,7 +4422,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4424,7 +4433,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4435,7 +4444,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4446,7 +4455,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4457,7 +4466,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4468,7 +4477,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4479,7 +4488,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4490,7 +4499,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4501,7 +4510,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4512,7 +4521,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4523,7 +4532,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4534,7 +4543,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4545,7 +4554,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4555,7 +4564,9 @@
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B261" s="4"/>
+      <c r="B261" s="4">
+        <v>936</v>
+      </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="5"/>
@@ -4677,6 +4688,15 @@
       <c r="D274" s="4"/>
       <c r="E274" s="5"/>
     </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+  <si>
+    <t>12/1/2020</t>
+  </si>
   <si>
     <t>11/30/2020</t>
   </si>
@@ -933,24 +936,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -967,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>26673</v>
+        <v>19565</v>
       </c>
       <c r="C3" s="4">
-        <v>25830</v>
+        <v>18231</v>
       </c>
       <c r="D3" s="4">
-        <v>843</v>
+        <v>1334</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -982,16 +985,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>38761</v>
+        <v>33021</v>
       </c>
       <c r="C4" s="4">
-        <v>37070</v>
+        <v>31852</v>
       </c>
       <c r="D4" s="4">
-        <v>1691</v>
+        <v>1169</v>
       </c>
       <c r="E4" s="5">
-        <v>0.094815922523677279</v>
+        <v>0.10163736925688625</v>
       </c>
     </row>
     <row r="5">
@@ -999,16 +1002,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>40328</v>
+        <v>39059</v>
       </c>
       <c r="C5" s="4">
-        <v>39692</v>
+        <v>37242</v>
       </c>
       <c r="D5" s="4">
-        <v>636</v>
+        <v>1817</v>
       </c>
       <c r="E5" s="5">
-        <v>0.088336684860672227</v>
+        <v>0.093060683517939974</v>
       </c>
     </row>
     <row r="6">
@@ -1016,16 +1019,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>63644</v>
+        <v>40401</v>
       </c>
       <c r="C6" s="4">
-        <v>59719</v>
+        <v>39693</v>
       </c>
       <c r="D6" s="4">
-        <v>3925</v>
+        <v>708</v>
       </c>
       <c r="E6" s="5">
-        <v>0.076960154241645248</v>
+        <v>0.088644562789898643</v>
       </c>
     </row>
     <row r="7">
@@ -1033,16 +1036,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>48354</v>
+        <v>64285</v>
       </c>
       <c r="C7" s="4">
-        <v>43425</v>
+        <v>60059</v>
       </c>
       <c r="D7" s="4">
-        <v>4929</v>
+        <v>4226</v>
       </c>
       <c r="E7" s="5">
-        <v>0.070834406860760424</v>
+        <v>0.076954807956732971</v>
       </c>
     </row>
     <row r="8">
@@ -1050,16 +1053,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>50821</v>
+        <v>48676</v>
       </c>
       <c r="C8" s="4">
-        <v>44924</v>
+        <v>43614</v>
       </c>
       <c r="D8" s="4">
-        <v>5897</v>
+        <v>5062</v>
       </c>
       <c r="E8" s="5">
-        <v>0.079193932183224278</v>
+        <v>0.070597960870763296</v>
       </c>
     </row>
     <row r="9">
@@ -1067,16 +1070,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>40694</v>
+        <v>50824</v>
       </c>
       <c r="C9" s="4">
-        <v>39340</v>
+        <v>44926</v>
       </c>
       <c r="D9" s="4">
-        <v>1354</v>
+        <v>5898</v>
       </c>
       <c r="E9" s="5">
-        <v>0.071995284943555338</v>
+        <v>0.079216248979490853</v>
       </c>
     </row>
     <row r="10">
@@ -1084,16 +1087,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>41918</v>
+        <v>40693</v>
       </c>
       <c r="C10" s="4">
-        <v>40463</v>
+        <v>39340</v>
       </c>
       <c r="D10" s="4">
-        <v>1455</v>
+        <v>1353</v>
       </c>
       <c r="E10" s="5">
-        <v>0.065761216553485408</v>
+        <v>0.072033898305084748</v>
       </c>
     </row>
     <row r="11">
@@ -1101,16 +1104,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>52405</v>
+        <v>41919</v>
       </c>
       <c r="C11" s="4">
-        <v>48702</v>
+        <v>40464</v>
       </c>
       <c r="D11" s="4">
-        <v>3703</v>
+        <v>1455</v>
       </c>
       <c r="E11" s="5">
-        <v>0.068555494173046058</v>
+        <v>0.065668436783610465</v>
       </c>
     </row>
     <row r="12">
@@ -1118,16 +1121,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>57230</v>
+        <v>52410</v>
       </c>
       <c r="C12" s="4">
-        <v>52376</v>
+        <v>48703</v>
       </c>
       <c r="D12" s="4">
-        <v>4854</v>
+        <v>3707</v>
       </c>
       <c r="E12" s="5">
-        <v>0.069121237656921852</v>
+        <v>0.068550084175084181</v>
       </c>
     </row>
     <row r="13">
@@ -1135,16 +1138,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>53658</v>
+        <v>57237</v>
       </c>
       <c r="C13" s="4">
-        <v>49813</v>
+        <v>52375</v>
       </c>
       <c r="D13" s="4">
-        <v>3845</v>
+        <v>4862</v>
       </c>
       <c r="E13" s="5">
-        <v>0.072813604702240256</v>
+        <v>0.069116757410768295</v>
       </c>
     </row>
     <row r="14">
@@ -1152,16 +1155,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>50116</v>
+        <v>53660</v>
       </c>
       <c r="C14" s="4">
-        <v>45605</v>
+        <v>49815</v>
       </c>
       <c r="D14" s="4">
-        <v>4511</v>
+        <v>3845</v>
       </c>
       <c r="E14" s="5">
-        <v>0.079060681803860611</v>
+        <v>0.072815127808224911</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1172,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>34991</v>
+        <v>50116</v>
       </c>
       <c r="C15" s="4">
-        <v>30563</v>
+        <v>45605</v>
       </c>
       <c r="D15" s="4">
-        <v>4428</v>
+        <v>4511</v>
       </c>
       <c r="E15" s="5">
-        <v>0.077384478672985785</v>
+        <v>0.079052379552232543</v>
       </c>
     </row>
     <row r="16">
@@ -1186,16 +1189,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>29498</v>
+        <v>34991</v>
       </c>
       <c r="C16" s="4">
-        <v>28639</v>
+        <v>30563</v>
       </c>
       <c r="D16" s="4">
-        <v>859</v>
+        <v>4428</v>
       </c>
       <c r="E16" s="5">
-        <v>0.087351862516291331</v>
+        <v>0.077395789629556511</v>
       </c>
     </row>
     <row r="17">
@@ -1203,16 +1206,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>35681</v>
+        <v>29497</v>
       </c>
       <c r="C17" s="4">
-        <v>34657</v>
+        <v>28638</v>
       </c>
       <c r="D17" s="4">
-        <v>1024</v>
+        <v>859</v>
       </c>
       <c r="E17" s="5">
-        <v>0.087504472627519578</v>
+        <v>0.087403365165984542</v>
       </c>
     </row>
     <row r="18">
@@ -1220,16 +1223,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>40919</v>
+        <v>35681</v>
       </c>
       <c r="C18" s="4">
-        <v>38372</v>
+        <v>34657</v>
       </c>
       <c r="D18" s="4">
-        <v>2547</v>
+        <v>1024</v>
       </c>
       <c r="E18" s="5">
-        <v>0.080494976721391817</v>
+        <v>0.087471671106516644</v>
       </c>
     </row>
     <row r="19">
@@ -1237,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>48218</v>
+        <v>40919</v>
       </c>
       <c r="C19" s="4">
-        <v>44438</v>
+        <v>38372</v>
       </c>
       <c r="D19" s="4">
-        <v>3780</v>
+        <v>2547</v>
       </c>
       <c r="E19" s="5">
-        <v>0.077444742129939723</v>
+        <v>0.08053547359392231</v>
       </c>
     </row>
     <row r="20">
@@ -1254,16 +1257,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>46480</v>
+        <v>48218</v>
       </c>
       <c r="C20" s="4">
-        <v>43302</v>
+        <v>44438</v>
       </c>
       <c r="D20" s="4">
-        <v>3178</v>
+        <v>3780</v>
       </c>
       <c r="E20" s="5">
-        <v>0.078047925482635144</v>
+        <v>0.077436097778769947</v>
       </c>
     </row>
     <row r="21">
@@ -1271,16 +1274,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>41373</v>
+        <v>46480</v>
       </c>
       <c r="C21" s="4">
-        <v>37690</v>
+        <v>43302</v>
       </c>
       <c r="D21" s="4">
-        <v>3683</v>
+        <v>3178</v>
       </c>
       <c r="E21" s="5">
-        <v>0.07606532278642511</v>
+        <v>0.078047925482635144</v>
       </c>
     </row>
     <row r="22">
@@ -1288,16 +1291,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>29267</v>
+        <v>41373</v>
       </c>
       <c r="C22" s="4">
-        <v>25792</v>
+        <v>37690</v>
       </c>
       <c r="D22" s="4">
-        <v>3475</v>
+        <v>3683</v>
       </c>
       <c r="E22" s="5">
-        <v>0.077248003703275087</v>
+        <v>0.076057559830586319</v>
       </c>
     </row>
     <row r="23">
@@ -1305,16 +1308,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>26351</v>
+        <v>29267</v>
       </c>
       <c r="C23" s="4">
-        <v>25612</v>
+        <v>25792</v>
       </c>
       <c r="D23" s="4">
-        <v>739</v>
+        <v>3475</v>
       </c>
       <c r="E23" s="5">
-        <v>0.080918600456895515</v>
+        <v>0.077250238694557757</v>
       </c>
     </row>
     <row r="24">
@@ -1322,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>34442</v>
+        <v>26351</v>
       </c>
       <c r="C24" s="4">
-        <v>33672</v>
+        <v>25612</v>
       </c>
       <c r="D24" s="4">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="E24" s="5">
-        <v>0.075410280754102804</v>
+        <v>0.080902388203237696</v>
       </c>
     </row>
     <row r="25">
@@ -1339,16 +1342,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>40124</v>
+        <v>34442</v>
       </c>
       <c r="C25" s="4">
-        <v>38159</v>
+        <v>33672</v>
       </c>
       <c r="D25" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E25" s="5">
-        <v>0.06526189042745334</v>
+        <v>0.07540687160940325</v>
       </c>
     </row>
     <row r="26">
@@ -1356,16 +1359,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>44883</v>
+        <v>40124</v>
       </c>
       <c r="C26" s="4">
-        <v>41798</v>
+        <v>38159</v>
       </c>
       <c r="D26" s="4">
-        <v>3085</v>
+        <v>1965</v>
       </c>
       <c r="E26" s="5">
-        <v>0.05882514411199561</v>
+        <v>0.065254033228991093</v>
       </c>
     </row>
     <row r="27">
@@ -1373,16 +1376,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>47558</v>
+        <v>44882</v>
       </c>
       <c r="C27" s="4">
-        <v>45091</v>
+        <v>41797</v>
       </c>
       <c r="D27" s="4">
-        <v>2467</v>
+        <v>3085</v>
       </c>
       <c r="E27" s="5">
-        <v>0.066586390653822505</v>
+        <v>0.058823529411764705</v>
       </c>
     </row>
     <row r="28">
@@ -1390,16 +1393,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>43249</v>
+        <v>47557</v>
       </c>
       <c r="C28" s="4">
-        <v>40486</v>
+        <v>45090</v>
       </c>
       <c r="D28" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E28" s="5">
-        <v>0.064329484143453533</v>
+        <v>0.066610304101657566</v>
       </c>
     </row>
     <row r="29">
@@ -1407,16 +1410,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>25511</v>
+        <v>43249</v>
       </c>
       <c r="C29" s="4">
-        <v>22372</v>
+        <v>40486</v>
       </c>
       <c r="D29" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E29" s="5">
-        <v>0.065489801518338969</v>
+        <v>0.064311350929023126</v>
       </c>
     </row>
     <row r="30">
@@ -1424,16 +1427,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C30" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D30" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E30" s="5">
-        <v>0.074555431777860295</v>
+        <v>0.065485808359501241</v>
       </c>
     </row>
     <row r="31">
@@ -1441,16 +1444,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>33579</v>
+        <v>26650</v>
       </c>
       <c r="C31" s="4">
-        <v>32758</v>
+        <v>26087</v>
       </c>
       <c r="D31" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E31" s="5">
-        <v>0.067899659863945583</v>
+        <v>0.074549280085812117</v>
       </c>
     </row>
     <row r="32">
@@ -1458,16 +1461,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>39047</v>
+        <v>33579</v>
       </c>
       <c r="C32" s="4">
-        <v>37187</v>
+        <v>32758</v>
       </c>
       <c r="D32" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E32" s="5">
-        <v>0.063438226242070225</v>
+        <v>0.067834070044202652</v>
       </c>
     </row>
     <row r="33">
@@ -1475,16 +1478,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>45062</v>
+        <v>39047</v>
       </c>
       <c r="C33" s="4">
-        <v>42057</v>
+        <v>37187</v>
       </c>
       <c r="D33" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E33" s="5">
-        <v>0.059552634613167302</v>
+        <v>0.063457673951268528</v>
       </c>
     </row>
     <row r="34">
@@ -1492,16 +1495,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>45527</v>
+        <v>45060</v>
       </c>
       <c r="C34" s="4">
-        <v>43051</v>
+        <v>42055</v>
       </c>
       <c r="D34" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E34" s="5">
-        <v>0.060437299388219803</v>
+        <v>0.059556068031132892</v>
       </c>
     </row>
     <row r="35">
@@ -1509,16 +1512,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>38785</v>
+        <v>45527</v>
       </c>
       <c r="C35" s="4">
-        <v>36621</v>
+        <v>43051</v>
       </c>
       <c r="D35" s="4">
-        <v>2164</v>
+        <v>2476</v>
       </c>
       <c r="E35" s="5">
-        <v>0.059391400645192355</v>
+        <v>0.060438957475994516</v>
       </c>
     </row>
     <row r="36">
@@ -1526,16 +1529,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>23935</v>
+        <v>38785</v>
       </c>
       <c r="C36" s="4">
-        <v>21589</v>
+        <v>36621</v>
       </c>
       <c r="D36" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E36" s="5">
-        <v>0.064239970800013271</v>
+        <v>0.059391400645192355</v>
       </c>
     </row>
     <row r="37">
@@ -1543,16 +1546,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C37" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D37" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E37" s="5">
-        <v>0.070305616101655616</v>
+        <v>0.064231445539298632</v>
       </c>
     </row>
     <row r="38">
@@ -1560,16 +1563,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C38" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D38" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E38" s="5">
-        <v>0.074923293805456509</v>
+        <v>0.070302355778148765</v>
       </c>
     </row>
     <row r="39">
@@ -1577,16 +1580,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>37816</v>
+        <v>30514</v>
       </c>
       <c r="C39" s="4">
-        <v>36631</v>
+        <v>30031</v>
       </c>
       <c r="D39" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E39" s="5">
-        <v>0.062127148858060643</v>
+        <v>0.074958540630182424</v>
       </c>
     </row>
     <row r="40">
@@ -1594,16 +1597,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>40625</v>
+        <v>37816</v>
       </c>
       <c r="C40" s="4">
-        <v>38715</v>
+        <v>36631</v>
       </c>
       <c r="D40" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E40" s="5">
-        <v>0.063897666504618381</v>
+        <v>0.062122763051074795</v>
       </c>
     </row>
     <row r="41">
@@ -1611,16 +1614,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>46374</v>
+        <v>40625</v>
       </c>
       <c r="C41" s="4">
-        <v>44983</v>
+        <v>38715</v>
       </c>
       <c r="D41" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E41" s="5">
-        <v>0.063672391017173049</v>
+        <v>0.063891842624943032</v>
       </c>
     </row>
     <row r="42">
@@ -1628,16 +1631,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>36459</v>
+        <v>46374</v>
       </c>
       <c r="C42" s="4">
-        <v>34715</v>
+        <v>44983</v>
       </c>
       <c r="D42" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E42" s="5">
-        <v>0.059082690299742786</v>
+        <v>0.063670708831999157</v>
       </c>
     </row>
     <row r="43">
@@ -1645,16 +1648,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>18443</v>
+        <v>36459</v>
       </c>
       <c r="C43" s="4">
-        <v>16604</v>
+        <v>34715</v>
       </c>
       <c r="D43" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E43" s="5">
-        <v>0.061718836411901339</v>
+        <v>0.059084194977843424</v>
       </c>
     </row>
     <row r="44">
@@ -1662,16 +1665,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>23462</v>
+        <v>18443</v>
       </c>
       <c r="C44" s="4">
-        <v>23126</v>
+        <v>16604</v>
       </c>
       <c r="D44" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E44" s="5">
-        <v>0.076967293211473248</v>
+        <v>0.061712010617120103</v>
       </c>
     </row>
     <row r="45">
@@ -1679,16 +1682,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>32977</v>
+        <v>23461</v>
       </c>
       <c r="C45" s="4">
-        <v>32585</v>
+        <v>23125</v>
       </c>
       <c r="D45" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E45" s="5">
-        <v>0.074010486752354873</v>
+        <v>0.076954022988505746</v>
       </c>
     </row>
     <row r="46">
@@ -1696,16 +1699,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>34488</v>
+        <v>32977</v>
       </c>
       <c r="C46" s="4">
-        <v>33613</v>
+        <v>32585</v>
       </c>
       <c r="D46" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E46" s="5">
-        <v>0.05865712338104976</v>
+        <v>0.074003618985756039</v>
       </c>
     </row>
     <row r="47">
@@ -1713,16 +1716,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>41561</v>
+        <v>34488</v>
       </c>
       <c r="C47" s="4">
-        <v>40066</v>
+        <v>33613</v>
       </c>
       <c r="D47" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E47" s="5">
-        <v>0.061099412263884087</v>
+        <v>0.058687206052757138</v>
       </c>
     </row>
     <row r="48">
@@ -1730,16 +1733,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>42287</v>
+        <v>41561</v>
       </c>
       <c r="C48" s="4">
-        <v>41168</v>
+        <v>40066</v>
       </c>
       <c r="D48" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E48" s="5">
-        <v>0.065547850208044378</v>
+        <v>0.061109015465861942</v>
       </c>
     </row>
     <row r="49">
@@ -1747,16 +1750,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>34304</v>
+        <v>42287</v>
       </c>
       <c r="C49" s="4">
-        <v>32855</v>
+        <v>41168</v>
       </c>
       <c r="D49" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E49" s="5">
-        <v>0.060767299716219164</v>
+        <v>0.065544213913236435</v>
       </c>
     </row>
     <row r="50">
@@ -1764,16 +1767,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>21658</v>
+        <v>34304</v>
       </c>
       <c r="C50" s="4">
-        <v>20526</v>
+        <v>32855</v>
       </c>
       <c r="D50" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E50" s="5">
-        <v>0.06637168141592921</v>
+        <v>0.06073669849931787</v>
       </c>
     </row>
     <row r="51">
@@ -1781,16 +1784,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>21640</v>
+        <v>21658</v>
       </c>
       <c r="C51" s="4">
-        <v>21362</v>
+        <v>20526</v>
       </c>
       <c r="D51" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E51" s="5">
-        <v>0.067811158798283255</v>
+        <v>0.066364215814930072</v>
       </c>
     </row>
     <row r="52">
@@ -1798,16 +1801,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>32578</v>
+        <v>21640</v>
       </c>
       <c r="C52" s="4">
-        <v>32239</v>
+        <v>21362</v>
       </c>
       <c r="D52" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E52" s="5">
-        <v>0.069961161079313161</v>
+        <v>0.067807925230079627</v>
       </c>
     </row>
     <row r="53">
@@ -1815,16 +1818,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>37230</v>
+        <v>32578</v>
       </c>
       <c r="C53" s="4">
-        <v>36223</v>
+        <v>32239</v>
       </c>
       <c r="D53" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E53" s="5">
-        <v>0.056522339617429737</v>
+        <v>0.069964736546225786</v>
       </c>
     </row>
     <row r="54">
@@ -1832,16 +1835,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>42460</v>
+        <v>37230</v>
       </c>
       <c r="C54" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D54" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E54" s="5">
-        <v>0.055500840044029894</v>
+        <v>0.056524291288284241</v>
       </c>
     </row>
     <row r="55">
@@ -1849,16 +1852,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>40907</v>
+        <v>42460</v>
       </c>
       <c r="C55" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D55" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E55" s="5">
-        <v>0.050206511827495574</v>
+        <v>0.05548958846187263</v>
       </c>
     </row>
     <row r="56">
@@ -1866,16 +1869,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>34450</v>
+        <v>40907</v>
       </c>
       <c r="C56" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D56" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E56" s="5">
-        <v>0.057353106392540161</v>
+        <v>0.050206511827495574</v>
       </c>
     </row>
     <row r="57">
@@ -1883,16 +1886,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C57" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D57" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E57" s="5">
-        <v>0.056818610262790788</v>
+        <v>0.057354717299104005</v>
       </c>
     </row>
     <row r="58">
@@ -1900,16 +1903,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C58" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D58" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E58" s="5">
-        <v>0.064760613716187077</v>
+        <v>0.056816468104358316</v>
       </c>
     </row>
     <row r="59">
@@ -1917,16 +1920,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C59" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D59" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E59" s="5">
-        <v>0.078742428612633406</v>
+        <v>0.064760613716187077</v>
       </c>
     </row>
     <row r="60">
@@ -1934,16 +1937,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C60" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D60" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E60" s="5">
-        <v>0.062049433573635425</v>
+        <v>0.078742428612633406</v>
       </c>
     </row>
     <row r="61">
@@ -1951,16 +1954,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C61" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D61" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E61" s="5">
-        <v>0.061174634411155976</v>
+        <v>0.062054759248133209</v>
       </c>
     </row>
     <row r="62">
@@ -1968,16 +1971,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>40628</v>
+        <v>36046</v>
       </c>
       <c r="C62" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D62" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E62" s="5">
-        <v>0.054690799396681748</v>
+        <v>0.061170483460559796</v>
       </c>
     </row>
     <row r="63">
@@ -1985,16 +1988,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>29245</v>
+        <v>40628</v>
       </c>
       <c r="C63" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D63" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E63" s="5">
-        <v>0.054504756575265809</v>
+        <v>0.054694099191504766</v>
       </c>
     </row>
     <row r="64">
@@ -2002,16 +2005,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C64" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D64" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E64" s="5">
-        <v>0.058014263314956252</v>
+        <v>0.054495607900184637</v>
       </c>
     </row>
     <row r="65">
@@ -2019,16 +2022,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C65" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D65" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E65" s="5">
-        <v>0.066623164763458406</v>
+        <v>0.058011329152336637</v>
       </c>
     </row>
     <row r="66">
@@ -2036,16 +2039,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C66" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D66" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E66" s="5">
-        <v>0.060055056505360763</v>
+        <v>0.066618817695419552</v>
       </c>
     </row>
     <row r="67">
@@ -2053,16 +2056,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>31628</v>
+        <v>26010</v>
       </c>
       <c r="C67" s="4">
-        <v>31297</v>
+        <v>25913</v>
       </c>
       <c r="D67" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E67" s="5">
-        <v>0.053097345132743362</v>
+        <v>0.06005940737520829</v>
       </c>
     </row>
     <row r="68">
@@ -2070,16 +2073,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>36161</v>
+        <v>31628</v>
       </c>
       <c r="C68" s="4">
-        <v>35830</v>
+        <v>31297</v>
       </c>
       <c r="D68" s="4">
         <v>331</v>
       </c>
       <c r="E68" s="5">
-        <v>0.049567565719755236</v>
+        <v>0.053099582788992371</v>
       </c>
     </row>
     <row r="69">
@@ -2087,16 +2090,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C69" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D69" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E69" s="5">
-        <v>0.045741040878804248</v>
+        <v>0.049565871333834687</v>
       </c>
     </row>
     <row r="70">
@@ -2104,16 +2107,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C70" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D70" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E70" s="5">
-        <v>0.049115323380095527</v>
+        <v>0.045742413782753552</v>
       </c>
     </row>
     <row r="71">
@@ -2121,16 +2124,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C71" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D71" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E71" s="5">
-        <v>0.04848634014275166</v>
+        <v>0.049088232643374287</v>
       </c>
     </row>
     <row r="72">
@@ -2138,12 +2141,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C72" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D72" s="4">
+        <v>315</v>
+      </c>
       <c r="E72" s="5">
-        <v>0.054002697070001229</v>
+        <v>0.048526010138294211</v>
       </c>
     </row>
     <row r="73">
@@ -2151,12 +2158,12 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5">
-        <v>0.052771618625277163</v>
+        <v>0.053999387067116149</v>
       </c>
     </row>
     <row r="74">
@@ -2164,12 +2171,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.052988011348036976</v>
+        <v>0.05275824941414909</v>
       </c>
     </row>
     <row r="75">
@@ -2177,12 +2184,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.046147332768839963</v>
+        <v>0.05298316251830161</v>
       </c>
     </row>
     <row r="76">
@@ -2190,12 +2197,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.047224716485416873</v>
+        <v>0.046150589231529177</v>
       </c>
     </row>
     <row r="77">
@@ -2203,12 +2210,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.047526949904882689</v>
+        <v>0.047221575604402911</v>
       </c>
     </row>
     <row r="78">
@@ -2216,12 +2223,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.056906816818202796</v>
+        <v>0.047517910353135101</v>
       </c>
     </row>
     <row r="79">
@@ -2229,12 +2236,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.057110157367668099</v>
+        <v>0.056891062612467125</v>
       </c>
     </row>
     <row r="80">
@@ -2242,12 +2249,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.049521219332540084</v>
+        <v>0.057113425660982028</v>
       </c>
     </row>
     <row r="81">
@@ -2255,12 +2262,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.047579263962571533</v>
+        <v>0.04951560818083961</v>
       </c>
     </row>
     <row r="82">
@@ -2268,12 +2275,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.0497606981981982</v>
+        <v>0.047569328433010358</v>
       </c>
     </row>
     <row r="83">
@@ -2281,12 +2288,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.050182252388134743</v>
+        <v>0.049758947109124818</v>
       </c>
     </row>
     <row r="84">
@@ -2294,12 +2301,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.051556939501779357</v>
+        <v>0.050175945708181478</v>
       </c>
     </row>
     <row r="85">
@@ -2307,12 +2314,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.064262598243180771</v>
+        <v>0.051556939501779357</v>
       </c>
     </row>
     <row r="86">
@@ -2320,12 +2327,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.070725388601036263</v>
+        <v>0.064257646968179372</v>
       </c>
     </row>
     <row r="87">
@@ -2333,12 +2340,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.0592051352089593</v>
+        <v>0.070713175617337254</v>
       </c>
     </row>
     <row r="88">
@@ -2346,12 +2353,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.056586184394518506</v>
+        <v>0.059197050389184762</v>
       </c>
     </row>
     <row r="89">
@@ -2359,12 +2366,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.059780552402572837</v>
+        <v>0.056565091790140715</v>
       </c>
     </row>
     <row r="90">
@@ -2372,12 +2379,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.053366037986012131</v>
+        <v>0.059780552402572837</v>
       </c>
     </row>
     <row r="91">
@@ -2385,12 +2392,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.063285906225238567</v>
+        <v>0.053366037986012131</v>
       </c>
     </row>
     <row r="92">
@@ -2398,12 +2405,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.06559426118145753</v>
+        <v>0.06327500688895013</v>
       </c>
     </row>
     <row r="93">
@@ -2411,12 +2418,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.076366662399180649</v>
+        <v>0.065587132532739234</v>
       </c>
     </row>
     <row r="94">
@@ -2424,12 +2431,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.065808949106227935</v>
+        <v>0.076376440460947506</v>
       </c>
     </row>
     <row r="95">
@@ -2437,12 +2444,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.076970389245233278</v>
+        <v>0.06581644272375313</v>
       </c>
     </row>
     <row r="96">
@@ -2450,12 +2457,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.05986794427892745</v>
+        <v>0.076960245991653853</v>
       </c>
     </row>
     <row r="97">
@@ -2463,12 +2470,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.062598116169544735</v>
+        <v>0.059789829689576038</v>
       </c>
     </row>
     <row r="98">
@@ -2476,12 +2483,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.070990270196969185</v>
+        <v>0.062673775800595341</v>
       </c>
     </row>
     <row r="99">
@@ -2489,12 +2496,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.065294648066620692</v>
+        <v>0.070980644723907665</v>
       </c>
     </row>
     <row r="100">
@@ -2502,12 +2509,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.080303338072990726</v>
+        <v>0.065344224037339554</v>
       </c>
     </row>
     <row r="101">
@@ -2515,12 +2522,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.073007009623381247</v>
+        <v>0.080308775731310941</v>
       </c>
     </row>
     <row r="102">
@@ -2528,12 +2535,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.064135091294763552</v>
+        <v>0.073024361259655376</v>
       </c>
     </row>
     <row r="103">
@@ -2541,12 +2548,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.064067063687744188</v>
+        <v>0.064176683442166121</v>
       </c>
     </row>
     <row r="104">
@@ -2554,12 +2561,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.069085235030232103</v>
+        <v>0.064071924433822688</v>
       </c>
     </row>
     <row r="105">
@@ -2567,12 +2574,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.075873190685966013</v>
+        <v>0.069090625365739483</v>
       </c>
     </row>
     <row r="106">
@@ -2580,12 +2587,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.065391838825337209</v>
+        <v>0.075864238801274242</v>
       </c>
     </row>
     <row r="107">
@@ -2593,12 +2600,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.06897837434750187</v>
+        <v>0.065395560614684115</v>
       </c>
     </row>
     <row r="108">
@@ -2606,12 +2613,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.063122017723244717</v>
+        <v>0.068983518532329036</v>
       </c>
     </row>
     <row r="109">
@@ -2619,12 +2626,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.063826742355578878</v>
+        <v>0.063117715220503037</v>
       </c>
     </row>
     <row r="110">
@@ -2632,12 +2639,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.063725929243170623</v>
+        <v>0.063829787234042548</v>
       </c>
     </row>
     <row r="111">
@@ -2645,12 +2652,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.059320615796519413</v>
+        <v>0.063725929243170623</v>
       </c>
     </row>
     <row r="112">
@@ -2658,12 +2665,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.064238410596026488</v>
+        <v>0.05933054393305439</v>
       </c>
     </row>
     <row r="113">
@@ -2671,12 +2678,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.062002807674309782</v>
+        <v>0.064238410596026488</v>
       </c>
     </row>
     <row r="114">
@@ -2684,12 +2691,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.06419536448051473</v>
+        <v>0.061995555035676685</v>
       </c>
     </row>
     <row r="115">
@@ -2697,12 +2704,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.052478519497686713</v>
+        <v>0.06419067115075304</v>
       </c>
     </row>
     <row r="116">
@@ -2710,12 +2717,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.059560550923580084</v>
+        <v>0.052485457429931257</v>
       </c>
     </row>
     <row r="117">
@@ -2723,12 +2730,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.068148976833076955</v>
+        <v>0.059563294637921503</v>
       </c>
     </row>
     <row r="118">
@@ -2736,12 +2743,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.070808012604096332</v>
+        <v>0.068155330753811014</v>
       </c>
     </row>
     <row r="119">
@@ -2749,12 +2756,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.075708818925030438</v>
+        <v>0.070811200144053302</v>
       </c>
     </row>
     <row r="120">
@@ -2762,12 +2769,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.076659117425022308</v>
+        <v>0.07571869699473753</v>
       </c>
     </row>
     <row r="121">
@@ -2775,12 +2782,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.067836183504764308</v>
+        <v>0.076664378860672622</v>
       </c>
     </row>
     <row r="122">
@@ -2788,12 +2795,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.072976606614681361</v>
+        <v>0.067836183504764308</v>
       </c>
     </row>
     <row r="123">
@@ -2801,12 +2808,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.068625030856578617</v>
+        <v>0.072976606614681361</v>
       </c>
     </row>
     <row r="124">
@@ -2814,12 +2821,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.066699543829367519</v>
+        <v>0.068618255417880233</v>
       </c>
     </row>
     <row r="125">
@@ -2827,12 +2834,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.072344554121319501</v>
+        <v>0.066696802827319795</v>
       </c>
     </row>
     <row r="126">
@@ -2840,12 +2847,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.07492795389048991</v>
+        <v>0.072341502509807226</v>
       </c>
     </row>
     <row r="127">
@@ -2853,12 +2860,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.069518716577540107</v>
+        <v>0.074925288174185284</v>
       </c>
     </row>
     <row r="128">
@@ -2866,12 +2873,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.071828492128056656</v>
+        <v>0.069529760643931376</v>
       </c>
     </row>
     <row r="129">
@@ -2879,12 +2886,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.076757840469712152</v>
+        <v>0.0718250550291894</v>
       </c>
     </row>
     <row r="130">
@@ -2892,12 +2899,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.078436819928693793</v>
+        <v>0.076757840469712152</v>
       </c>
     </row>
     <row r="131">
@@ -2905,12 +2912,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.07471943295924395</v>
+        <v>0.078440451935543623</v>
       </c>
     </row>
     <row r="132">
@@ -2918,12 +2925,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.084672777659347692</v>
+        <v>0.074713128585892671</v>
       </c>
     </row>
     <row r="133">
@@ -2931,12 +2938,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.077954486200603371</v>
+        <v>0.084669167803547066</v>
       </c>
     </row>
     <row r="134">
@@ -2944,12 +2951,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.076055833929849673</v>
+        <v>0.077960293515104112</v>
       </c>
     </row>
     <row r="135">
@@ -2957,12 +2964,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.080777932893660045</v>
+        <v>0.076066043223410443</v>
       </c>
     </row>
     <row r="136">
@@ -2970,12 +2977,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.069382753867361008</v>
+        <v>0.080774044478675269</v>
       </c>
     </row>
     <row r="137">
@@ -2983,12 +2990,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.080750880634948952</v>
+        <v>0.069379211762303453</v>
       </c>
     </row>
     <row r="138">
@@ -2996,12 +3003,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.084299424184261035</v>
+        <v>0.080750880634948952</v>
       </c>
     </row>
     <row r="139">
@@ -3009,12 +3016,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.07309322033898305</v>
+        <v>0.084305896805896813</v>
       </c>
     </row>
     <row r="140">
@@ -3022,12 +3029,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.087185571903179881</v>
+        <v>0.073098956289727693</v>
       </c>
     </row>
     <row r="141">
@@ -3035,12 +3042,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.078390323331007206</v>
+        <v>0.087210406380554495</v>
       </c>
     </row>
     <row r="142">
@@ -3048,12 +3055,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.096197220036716491</v>
+        <v>0.078386676590993673</v>
       </c>
     </row>
     <row r="143">
@@ -3061,12 +3068,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.092315876009478215</v>
+        <v>0.096197220036716491</v>
       </c>
     </row>
     <row r="144">
@@ -3074,12 +3081,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.091253397495878449</v>
+        <v>0.092311411992263059</v>
       </c>
     </row>
     <row r="145">
@@ -3087,12 +3094,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.095748089157398505</v>
+        <v>0.091257463684163626</v>
       </c>
     </row>
     <row r="146">
@@ -3100,12 +3107,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.093509013839946892</v>
+        <v>0.095748089157398505</v>
       </c>
     </row>
     <row r="147">
@@ -3113,12 +3120,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.085282606717029211</v>
+        <v>0.093518565810306958</v>
       </c>
     </row>
     <row r="148">
@@ -3126,12 +3133,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.088482972136222915</v>
+        <v>0.08529036956125978</v>
       </c>
     </row>
     <row r="149">
@@ -3139,12 +3146,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.092100783112019066</v>
+        <v>0.088488451297293949</v>
       </c>
     </row>
     <row r="150">
@@ -3152,12 +3159,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.0842931063261559</v>
+        <v>0.09211646517963562</v>
       </c>
     </row>
     <row r="151">
@@ -3165,12 +3172,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.08920468115595892</v>
+        <v>0.0842931063261559</v>
       </c>
     </row>
     <row r="152">
@@ -3178,12 +3185,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.091543930929405784</v>
+        <v>0.089199355185384202</v>
       </c>
     </row>
     <row r="153">
@@ -3191,12 +3198,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.10445757250268528</v>
+        <v>0.091549742873468357</v>
       </c>
     </row>
     <row r="154">
@@ -3204,12 +3211,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.083290341071940388</v>
+        <v>0.10446318277028842</v>
       </c>
     </row>
     <row r="155">
@@ -3217,12 +3224,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.095654478007419177</v>
+        <v>0.083290341071940388</v>
       </c>
     </row>
     <row r="156">
@@ -3230,12 +3237,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.087815971311116944</v>
+        <v>0.095644340822382365</v>
       </c>
     </row>
     <row r="157">
@@ -3243,12 +3250,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.081875762682317388</v>
+        <v>0.087808291061745675</v>
       </c>
     </row>
     <row r="158">
@@ -3256,12 +3263,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.094716718804310041</v>
+        <v>0.081880520688052072</v>
       </c>
     </row>
     <row r="159">
@@ -3269,12 +3276,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.098925979680696663</v>
+        <v>0.094738671920268858</v>
       </c>
     </row>
     <row r="160">
@@ -3282,12 +3289,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.096595041322314043</v>
+        <v>0.098931723176962374</v>
       </c>
     </row>
     <row r="161">
@@ -3295,12 +3302,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.077396771893433594</v>
+        <v>0.096614204470308163</v>
       </c>
     </row>
     <row r="162">
@@ -3308,12 +3315,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.082463542823302982</v>
+        <v>0.077406807131280383</v>
       </c>
     </row>
     <row r="163">
@@ -3321,12 +3328,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.090337877889745108</v>
+        <v>0.08245743893412287</v>
       </c>
     </row>
     <row r="164">
@@ -3334,12 +3341,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.08426372963186482</v>
+        <v>0.0903593027392387</v>
       </c>
     </row>
     <row r="165">
@@ -3347,12 +3354,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.094258092866559257</v>
+        <v>0.08426372963186482</v>
       </c>
     </row>
     <row r="166">
@@ -3360,12 +3367,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.095636025998142984</v>
+        <v>0.094278807413376312</v>
       </c>
     </row>
     <row r="167">
@@ -3373,12 +3380,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095622366635720921</v>
       </c>
     </row>
     <row r="168">
@@ -3386,12 +3393,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.082741524855956053</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="169">
@@ -3399,12 +3406,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.080478172697192873</v>
+        <v>0.082763704597238974</v>
       </c>
     </row>
     <row r="170">
@@ -3412,12 +3419,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="171">
@@ -3425,12 +3432,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.082531050194752695</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="172">
@@ -3438,12 +3445,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.091595913081018845</v>
+        <v>0.082531050194752695</v>
       </c>
     </row>
     <row r="173">
@@ -3451,12 +3458,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.092445742904841408</v>
+        <v>0.091537132987910191</v>
       </c>
     </row>
     <row r="174">
@@ -3464,12 +3471,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.098395579522002535</v>
+        <v>0.092528175873104218</v>
       </c>
     </row>
     <row r="175">
@@ -3477,12 +3484,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.084536082474226809</v>
+        <v>0.098402130492676432</v>
       </c>
     </row>
     <row r="176">
@@ -3490,12 +3497,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.076464646464646471</v>
+        <v>0.084529857889698842</v>
       </c>
     </row>
     <row r="177">
@@ -3503,12 +3510,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.086851263428657885</v>
+        <v>0.076464646464646471</v>
       </c>
     </row>
     <row r="178">
@@ -3516,12 +3523,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.090093085106382975</v>
+        <v>0.086851263428657885</v>
       </c>
     </row>
     <row r="179">
@@ -3529,12 +3536,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.093456936509647509</v>
+        <v>0.090085597939001075</v>
       </c>
     </row>
     <row r="180">
@@ -3542,12 +3549,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.097664153025565567</v>
+        <v>0.093456936509647509</v>
       </c>
     </row>
     <row r="181">
@@ -3555,12 +3562,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.08630316965018886</v>
+        <v>0.097664153025565567</v>
       </c>
     </row>
     <row r="182">
@@ -3568,12 +3575,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.08630316965018886</v>
       </c>
     </row>
     <row r="183">
@@ -3581,12 +3588,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.089423321195698194</v>
       </c>
     </row>
     <row r="184">
@@ -3594,12 +3601,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.078549329666552078</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="185">
@@ -3607,12 +3614,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.081052408232548265</v>
+        <v>0.07856283307546845</v>
       </c>
     </row>
     <row r="186">
@@ -3620,12 +3627,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.081836714882050285</v>
+        <v>0.081052408232548265</v>
       </c>
     </row>
     <row r="187">
@@ -3633,12 +3640,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.099307920465780505</v>
+        <v>0.081836714882050285</v>
       </c>
     </row>
     <row r="188">
@@ -3646,12 +3653,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.08994276369582993</v>
+        <v>0.099318831026148094</v>
       </c>
     </row>
     <row r="189">
@@ -3659,12 +3666,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.089959109495683781</v>
       </c>
     </row>
     <row r="190">
@@ -3672,12 +3679,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.070535428021801863</v>
+        <v>0.076506024096385544</v>
       </c>
     </row>
     <row r="191">
@@ -3685,12 +3692,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.076398104265402847</v>
+        <v>0.070535428021801863</v>
       </c>
     </row>
     <row r="192">
@@ -3698,12 +3705,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.081896551724137928</v>
+        <v>0.076398104265402847</v>
       </c>
     </row>
     <row r="193">
@@ -3711,12 +3718,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081896551724137928</v>
       </c>
     </row>
     <row r="194">
@@ -3724,12 +3731,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.09723233794610342</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="195">
@@ -3737,12 +3744,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.082778545408868226</v>
+        <v>0.097244142284812429</v>
       </c>
     </row>
     <row r="196">
@@ -3750,12 +3757,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.073184676958261863</v>
+        <v>0.082768148706355182</v>
       </c>
     </row>
     <row r="197">
@@ -3763,12 +3770,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.063029856247696275</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="198">
@@ -3776,12 +3783,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.055933190910856474</v>
+        <v>0.063041474654377885</v>
       </c>
     </row>
     <row r="199">
@@ -3789,12 +3796,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.060988757123055598</v>
+        <v>0.055933190910856474</v>
       </c>
     </row>
     <row r="200">
@@ -3802,12 +3809,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.060998151571164512</v>
       </c>
     </row>
     <row r="201">
@@ -3815,12 +3822,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.068536371603856269</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="202">
@@ -3828,12 +3835,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.06709090909090909</v>
+        <v>0.068536371603856269</v>
       </c>
     </row>
     <row r="203">
@@ -3841,12 +3848,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.071927260918980357</v>
+        <v>0.067103109656301146</v>
       </c>
     </row>
     <row r="204">
@@ -3854,12 +3861,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.054350536025928695</v>
+        <v>0.071927260918980357</v>
       </c>
     </row>
     <row r="205">
@@ -3867,12 +3874,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.041282712863988207</v>
+        <v>0.054350536025928695</v>
       </c>
     </row>
     <row r="206">
@@ -3880,12 +3887,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041282712863988207</v>
       </c>
     </row>
     <row r="207">
@@ -3893,12 +3900,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.082508250825082508</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="208">
@@ -3906,12 +3913,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.072601761485360627</v>
+        <v>0.082527705729780715</v>
       </c>
     </row>
     <row r="209">
@@ -3919,12 +3926,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.083112874779541449</v>
+        <v>0.072619047619047625</v>
       </c>
     </row>
     <row r="210">
@@ -3932,12 +3939,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083112874779541449</v>
       </c>
     </row>
     <row r="211">
@@ -3945,12 +3952,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.071404848887412817</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="212">
@@ -3958,12 +3965,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.064873417721518986</v>
+        <v>0.071404848887412817</v>
       </c>
     </row>
     <row r="213">
@@ -3971,12 +3978,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.063307921776599274</v>
+        <v>0.06490765171503958</v>
       </c>
     </row>
     <row r="214">
@@ -3984,12 +3991,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063349917081260365</v>
       </c>
     </row>
     <row r="215">
@@ -3997,12 +4004,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.07006197790353004</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="216">
@@ -4010,12 +4017,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.07006197790353004</v>
       </c>
     </row>
     <row r="217">
@@ -4023,12 +4030,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="218">
@@ -4036,12 +4043,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="219">
@@ -4049,12 +4056,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.079960994636762553</v>
       </c>
     </row>
     <row r="220">
@@ -4062,12 +4069,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.12931034482758622</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="221">
@@ -4075,12 +4082,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12935883014623173</v>
       </c>
     </row>
     <row r="222">
@@ -4088,12 +4095,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="223">
@@ -4101,12 +4108,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.11588132635253054</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="224">
@@ -4114,12 +4121,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.10548941798941799</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="225">
@@ -4127,12 +4134,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10545454545454545</v>
       </c>
     </row>
     <row r="226">
@@ -4140,12 +4147,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="227">
@@ -4153,12 +4160,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.12853932584269662</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="228">
@@ -4166,12 +4173,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.13942307692307693</v>
+        <v>0.12853932584269662</v>
       </c>
     </row>
     <row r="229">
@@ -4179,12 +4186,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13942307692307693</v>
       </c>
     </row>
     <row r="230">
@@ -4192,12 +4199,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.15919282511210761</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="231">
@@ -4205,12 +4212,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15919282511210761</v>
       </c>
     </row>
     <row r="232">
@@ -4218,12 +4225,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="233">
@@ -4231,12 +4238,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="234">
@@ -4244,12 +4251,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.16280384397964953</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="235">
@@ -4257,12 +4264,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.11288180610889774</v>
+        <v>0.16280384397964953</v>
       </c>
     </row>
     <row r="236">
@@ -4270,12 +4277,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.084054388133498151</v>
+        <v>0.11283185840707964</v>
       </c>
     </row>
     <row r="237">
@@ -4283,12 +4290,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084054388133498151</v>
       </c>
     </row>
     <row r="238">
@@ -4296,12 +4303,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="239">
@@ -4309,12 +4316,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.12005928853754941</v>
+        <v>0.090184354758345783</v>
       </c>
     </row>
     <row r="240">
@@ -4322,12 +4329,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="241">
@@ -4335,12 +4342,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.082042833607907747</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="242">
@@ -4348,12 +4355,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.082042833607907747</v>
       </c>
     </row>
     <row r="243">
@@ -4361,12 +4368,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.080711354309165526</v>
+        <v>0.084658040665434378</v>
       </c>
     </row>
     <row r="244">
@@ -4374,12 +4381,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.068073519400953034</v>
+        <v>0.080711354309165526</v>
       </c>
     </row>
     <row r="245">
@@ -4387,12 +4394,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.074616695059625218</v>
+        <v>0.068143100511073251</v>
       </c>
     </row>
     <row r="246">
@@ -4400,18 +4407,20 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="5"/>
+      <c r="E246" s="5">
+        <v>0.074616695059625218</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -4422,7 +4431,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4433,7 +4442,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4444,7 +4453,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4455,7 +4464,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4466,7 +4475,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4477,7 +4486,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4488,7 +4497,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4499,7 +4508,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4510,7 +4519,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4521,7 +4530,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4532,7 +4541,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4543,7 +4552,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4554,7 +4563,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4565,7 +4574,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4575,7 +4584,9 @@
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B262" s="4"/>
+      <c r="B262" s="4">
+        <v>936</v>
+      </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="5"/>
@@ -4697,6 +4708,15 @@
       <c r="D275" s="4"/>
       <c r="E275" s="5"/>
     </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+  <si>
+    <t>12/2/2020</t>
+  </si>
   <si>
     <t>12/1/2020</t>
   </si>
@@ -936,24 +939,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E277"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
@@ -970,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>19565</v>
+        <v>25740</v>
       </c>
       <c r="C3" s="4">
-        <v>18231</v>
+        <v>20645</v>
       </c>
       <c r="D3" s="4">
-        <v>1334</v>
+        <v>5095</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -985,16 +988,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>33021</v>
+        <v>23030</v>
       </c>
       <c r="C4" s="4">
-        <v>31852</v>
+        <v>21604</v>
       </c>
       <c r="D4" s="4">
-        <v>1169</v>
+        <v>1426</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10163736925688625</v>
+        <v>0.11420368838499344</v>
       </c>
     </row>
     <row r="5">
@@ -1002,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>39059</v>
+        <v>33711</v>
       </c>
       <c r="C5" s="4">
-        <v>37242</v>
+        <v>32506</v>
       </c>
       <c r="D5" s="4">
-        <v>1817</v>
+        <v>1205</v>
       </c>
       <c r="E5" s="5">
-        <v>0.093060683517939974</v>
+        <v>0.10293069871277252</v>
       </c>
     </row>
     <row r="6">
@@ -1019,16 +1022,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>40401</v>
+        <v>40249</v>
       </c>
       <c r="C6" s="4">
-        <v>39693</v>
+        <v>38243</v>
       </c>
       <c r="D6" s="4">
-        <v>708</v>
+        <v>2006</v>
       </c>
       <c r="E6" s="5">
-        <v>0.088644562789898643</v>
+        <v>0.09391185683714294</v>
       </c>
     </row>
     <row r="7">
@@ -1036,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>64285</v>
+        <v>40983</v>
       </c>
       <c r="C7" s="4">
-        <v>60059</v>
+        <v>40066</v>
       </c>
       <c r="D7" s="4">
-        <v>4226</v>
+        <v>917</v>
       </c>
       <c r="E7" s="5">
-        <v>0.076954807956732971</v>
+        <v>0.086928343993913609</v>
       </c>
     </row>
     <row r="8">
@@ -1053,16 +1056,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>48676</v>
+        <v>64982</v>
       </c>
       <c r="C8" s="4">
-        <v>43614</v>
+        <v>60347</v>
       </c>
       <c r="D8" s="4">
-        <v>5062</v>
+        <v>4635</v>
       </c>
       <c r="E8" s="5">
-        <v>0.070597960870763296</v>
+        <v>0.07653630013878461</v>
       </c>
     </row>
     <row r="9">
@@ -1070,16 +1073,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>50824</v>
+        <v>48939</v>
       </c>
       <c r="C9" s="4">
-        <v>44926</v>
+        <v>43790</v>
       </c>
       <c r="D9" s="4">
-        <v>5898</v>
+        <v>5149</v>
       </c>
       <c r="E9" s="5">
-        <v>0.079216248979490853</v>
+        <v>0.069965620656864902</v>
       </c>
     </row>
     <row r="10">
@@ -1087,16 +1090,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>40693</v>
+        <v>50894</v>
       </c>
       <c r="C10" s="4">
-        <v>39340</v>
+        <v>44991</v>
       </c>
       <c r="D10" s="4">
-        <v>1353</v>
+        <v>5903</v>
       </c>
       <c r="E10" s="5">
-        <v>0.072033898305084748</v>
+        <v>0.079054705460658042</v>
       </c>
     </row>
     <row r="11">
@@ -1104,16 +1107,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>41919</v>
+        <v>40873</v>
       </c>
       <c r="C11" s="4">
-        <v>40464</v>
+        <v>39398</v>
       </c>
       <c r="D11" s="4">
-        <v>1455</v>
+        <v>1475</v>
       </c>
       <c r="E11" s="5">
-        <v>0.065668436783610465</v>
+        <v>0.072099816580240478</v>
       </c>
     </row>
     <row r="12">
@@ -1121,16 +1124,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>52410</v>
+        <v>41956</v>
       </c>
       <c r="C12" s="4">
-        <v>48703</v>
+        <v>40501</v>
       </c>
       <c r="D12" s="4">
-        <v>3707</v>
+        <v>1455</v>
       </c>
       <c r="E12" s="5">
-        <v>0.068550084175084181</v>
+        <v>0.065790999768035263</v>
       </c>
     </row>
     <row r="13">
@@ -1138,16 +1141,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>57237</v>
+        <v>52484</v>
       </c>
       <c r="C13" s="4">
-        <v>52375</v>
+        <v>48764</v>
       </c>
       <c r="D13" s="4">
-        <v>4862</v>
+        <v>3720</v>
       </c>
       <c r="E13" s="5">
-        <v>0.069116757410768295</v>
+        <v>0.06861275476660092</v>
       </c>
     </row>
     <row r="14">
@@ -1155,16 +1158,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>53660</v>
+        <v>57382</v>
       </c>
       <c r="C14" s="4">
-        <v>49815</v>
+        <v>52407</v>
       </c>
       <c r="D14" s="4">
-        <v>3845</v>
+        <v>4975</v>
       </c>
       <c r="E14" s="5">
-        <v>0.072815127808224911</v>
+        <v>0.069224623755748921</v>
       </c>
     </row>
     <row r="15">
@@ -1172,16 +1175,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>50116</v>
+        <v>53662</v>
       </c>
       <c r="C15" s="4">
-        <v>45605</v>
+        <v>49817</v>
       </c>
       <c r="D15" s="4">
-        <v>4511</v>
+        <v>3845</v>
       </c>
       <c r="E15" s="5">
-        <v>0.079052379552232543</v>
+        <v>0.072925380625731978</v>
       </c>
     </row>
     <row r="16">
@@ -1189,16 +1192,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>34991</v>
+        <v>50117</v>
       </c>
       <c r="C16" s="4">
-        <v>30563</v>
+        <v>45606</v>
       </c>
       <c r="D16" s="4">
-        <v>4428</v>
+        <v>4511</v>
       </c>
       <c r="E16" s="5">
-        <v>0.077395789629556511</v>
+        <v>0.079068985799512645</v>
       </c>
     </row>
     <row r="17">
@@ -1206,16 +1209,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>29497</v>
+        <v>34991</v>
       </c>
       <c r="C17" s="4">
-        <v>28638</v>
+        <v>30563</v>
       </c>
       <c r="D17" s="4">
-        <v>859</v>
+        <v>4428</v>
       </c>
       <c r="E17" s="5">
-        <v>0.087403365165984542</v>
+        <v>0.077388149939540504</v>
       </c>
     </row>
     <row r="18">
@@ -1223,16 +1226,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>35681</v>
+        <v>29497</v>
       </c>
       <c r="C18" s="4">
-        <v>34657</v>
+        <v>28638</v>
       </c>
       <c r="D18" s="4">
-        <v>1024</v>
+        <v>859</v>
       </c>
       <c r="E18" s="5">
-        <v>0.087471671106516644</v>
+        <v>0.087367750932185406</v>
       </c>
     </row>
     <row r="19">
@@ -1240,16 +1243,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>40919</v>
+        <v>35681</v>
       </c>
       <c r="C19" s="4">
-        <v>38372</v>
+        <v>34657</v>
       </c>
       <c r="D19" s="4">
-        <v>2547</v>
+        <v>1024</v>
       </c>
       <c r="E19" s="5">
-        <v>0.08053547359392231</v>
+        <v>0.087449296110713434</v>
       </c>
     </row>
     <row r="20">
@@ -1257,16 +1260,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>48218</v>
+        <v>40919</v>
       </c>
       <c r="C20" s="4">
-        <v>44438</v>
+        <v>38372</v>
       </c>
       <c r="D20" s="4">
-        <v>3780</v>
+        <v>2547</v>
       </c>
       <c r="E20" s="5">
-        <v>0.077436097778769947</v>
+        <v>0.080551301684532922</v>
       </c>
     </row>
     <row r="21">
@@ -1274,16 +1277,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>46480</v>
+        <v>48217</v>
       </c>
       <c r="C21" s="4">
-        <v>43302</v>
+        <v>44437</v>
       </c>
       <c r="D21" s="4">
-        <v>3178</v>
+        <v>3780</v>
       </c>
       <c r="E21" s="5">
-        <v>0.078047925482635144</v>
+        <v>0.077431960921144447</v>
       </c>
     </row>
     <row r="22">
@@ -1291,16 +1294,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>41373</v>
+        <v>46489</v>
       </c>
       <c r="C22" s="4">
-        <v>37690</v>
+        <v>43311</v>
       </c>
       <c r="D22" s="4">
-        <v>3683</v>
+        <v>3178</v>
       </c>
       <c r="E22" s="5">
-        <v>0.076057559830586319</v>
+        <v>0.078036563986977212</v>
       </c>
     </row>
     <row r="23">
@@ -1308,16 +1311,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>29267</v>
+        <v>41372</v>
       </c>
       <c r="C23" s="4">
-        <v>25792</v>
+        <v>37689</v>
       </c>
       <c r="D23" s="4">
-        <v>3475</v>
+        <v>3683</v>
       </c>
       <c r="E23" s="5">
-        <v>0.077250238694557757</v>
+        <v>0.076090839499872415</v>
       </c>
     </row>
     <row r="24">
@@ -1325,16 +1328,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>26351</v>
+        <v>29267</v>
       </c>
       <c r="C24" s="4">
-        <v>25612</v>
+        <v>25792</v>
       </c>
       <c r="D24" s="4">
-        <v>739</v>
+        <v>3475</v>
       </c>
       <c r="E24" s="5">
-        <v>0.080902388203237696</v>
+        <v>0.077259179953123647</v>
       </c>
     </row>
     <row r="25">
@@ -1342,16 +1345,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>34442</v>
+        <v>26351</v>
       </c>
       <c r="C25" s="4">
-        <v>33672</v>
+        <v>25612</v>
       </c>
       <c r="D25" s="4">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="E25" s="5">
-        <v>0.07540687160940325</v>
+        <v>0.080912114775778463</v>
       </c>
     </row>
     <row r="26">
@@ -1359,16 +1362,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>40124</v>
+        <v>34442</v>
       </c>
       <c r="C26" s="4">
-        <v>38159</v>
+        <v>33672</v>
       </c>
       <c r="D26" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E26" s="5">
-        <v>0.065254033228991093</v>
+        <v>0.075385519829964276</v>
       </c>
     </row>
     <row r="27">
@@ -1376,16 +1379,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>44882</v>
+        <v>40124</v>
       </c>
       <c r="C27" s="4">
-        <v>41797</v>
+        <v>38159</v>
       </c>
       <c r="D27" s="4">
-        <v>3085</v>
+        <v>1965</v>
       </c>
       <c r="E27" s="5">
-        <v>0.058823529411764705</v>
+        <v>0.065272344267228402</v>
       </c>
     </row>
     <row r="28">
@@ -1393,16 +1396,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>47557</v>
+        <v>44882</v>
       </c>
       <c r="C28" s="4">
-        <v>45090</v>
+        <v>41797</v>
       </c>
       <c r="D28" s="4">
-        <v>2467</v>
+        <v>3085</v>
       </c>
       <c r="E28" s="5">
-        <v>0.066610304101657566</v>
+        <v>0.05884129599121362</v>
       </c>
     </row>
     <row r="29">
@@ -1410,16 +1413,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>43249</v>
+        <v>47557</v>
       </c>
       <c r="C29" s="4">
-        <v>40486</v>
+        <v>45090</v>
       </c>
       <c r="D29" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E29" s="5">
-        <v>0.064311350929023126</v>
+        <v>0.066617130851418183</v>
       </c>
     </row>
     <row r="30">
@@ -1427,16 +1430,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>25511</v>
+        <v>43249</v>
       </c>
       <c r="C30" s="4">
-        <v>22372</v>
+        <v>40486</v>
       </c>
       <c r="D30" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E30" s="5">
-        <v>0.065485808359501241</v>
+        <v>0.064338908558173605</v>
       </c>
     </row>
     <row r="31">
@@ -1444,16 +1447,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>26650</v>
+        <v>25511</v>
       </c>
       <c r="C31" s="4">
-        <v>26087</v>
+        <v>22372</v>
       </c>
       <c r="D31" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E31" s="5">
-        <v>0.074549280085812117</v>
+        <v>0.06544734034445969</v>
       </c>
     </row>
     <row r="32">
@@ -1461,16 +1464,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>33579</v>
+        <v>26650</v>
       </c>
       <c r="C32" s="4">
-        <v>32758</v>
+        <v>26087</v>
       </c>
       <c r="D32" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E32" s="5">
-        <v>0.067834070044202652</v>
+        <v>0.07448344125046398</v>
       </c>
     </row>
     <row r="33">
@@ -1478,16 +1481,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>39047</v>
+        <v>33579</v>
       </c>
       <c r="C33" s="4">
-        <v>37187</v>
+        <v>32758</v>
       </c>
       <c r="D33" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E33" s="5">
-        <v>0.063457673951268528</v>
+        <v>0.067870803229919258</v>
       </c>
     </row>
     <row r="34">
@@ -1495,16 +1498,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>45060</v>
+        <v>39047</v>
       </c>
       <c r="C34" s="4">
-        <v>42055</v>
+        <v>37187</v>
       </c>
       <c r="D34" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E34" s="5">
-        <v>0.059556068031132892</v>
+        <v>0.063459666530599423</v>
       </c>
     </row>
     <row r="35">
@@ -1512,16 +1515,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>45527</v>
+        <v>45060</v>
       </c>
       <c r="C35" s="4">
-        <v>43051</v>
+        <v>42055</v>
       </c>
       <c r="D35" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E35" s="5">
-        <v>0.060438957475994516</v>
+        <v>0.059566370660823431</v>
       </c>
     </row>
     <row r="36">
@@ -1529,16 +1532,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>38785</v>
+        <v>45527</v>
       </c>
       <c r="C36" s="4">
-        <v>36621</v>
+        <v>43051</v>
       </c>
       <c r="D36" s="4">
-        <v>2164</v>
+        <v>2476</v>
       </c>
       <c r="E36" s="5">
-        <v>0.059391400645192355</v>
+        <v>0.060466392318244168</v>
       </c>
     </row>
     <row r="37">
@@ -1546,16 +1549,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>23935</v>
+        <v>38784</v>
       </c>
       <c r="C37" s="4">
-        <v>21589</v>
+        <v>36620</v>
       </c>
       <c r="D37" s="4">
-        <v>2346</v>
+        <v>2164</v>
       </c>
       <c r="E37" s="5">
-        <v>0.064231445539298632</v>
+        <v>0.059375902918231728</v>
       </c>
     </row>
     <row r="38">
@@ -1563,16 +1566,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C38" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D38" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E38" s="5">
-        <v>0.070302355778148765</v>
+        <v>0.064239970800013271</v>
       </c>
     </row>
     <row r="39">
@@ -1580,16 +1583,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C39" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D39" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E39" s="5">
-        <v>0.074958540630182424</v>
+        <v>0.070312137655952872</v>
       </c>
     </row>
     <row r="40">
@@ -1597,16 +1600,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>37816</v>
+        <v>30514</v>
       </c>
       <c r="C40" s="4">
-        <v>36631</v>
+        <v>30031</v>
       </c>
       <c r="D40" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E40" s="5">
-        <v>0.062122763051074795</v>
+        <v>0.074915057595094064</v>
       </c>
     </row>
     <row r="41">
@@ -1614,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>40625</v>
+        <v>37816</v>
       </c>
       <c r="C41" s="4">
-        <v>38715</v>
+        <v>36631</v>
       </c>
       <c r="D41" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E41" s="5">
-        <v>0.063891842624943032</v>
+        <v>0.06212057037978258</v>
       </c>
     </row>
     <row r="42">
@@ -1631,16 +1634,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>46374</v>
+        <v>40625</v>
       </c>
       <c r="C42" s="4">
-        <v>44983</v>
+        <v>38715</v>
       </c>
       <c r="D42" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E42" s="5">
-        <v>0.063670708831999157</v>
+        <v>0.063897666504618381</v>
       </c>
     </row>
     <row r="43">
@@ -1648,16 +1651,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>36459</v>
+        <v>46374</v>
       </c>
       <c r="C43" s="4">
-        <v>34715</v>
+        <v>44983</v>
       </c>
       <c r="D43" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E43" s="5">
-        <v>0.059084194977843424</v>
+        <v>0.063693762713655455</v>
       </c>
     </row>
     <row r="44">
@@ -1665,16 +1668,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>18443</v>
+        <v>36459</v>
       </c>
       <c r="C44" s="4">
-        <v>16604</v>
+        <v>34715</v>
       </c>
       <c r="D44" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E44" s="5">
-        <v>0.061712010617120103</v>
+        <v>0.059064744536702157</v>
       </c>
     </row>
     <row r="45">
@@ -1682,16 +1685,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>23461</v>
+        <v>18443</v>
       </c>
       <c r="C45" s="4">
-        <v>23125</v>
+        <v>16604</v>
       </c>
       <c r="D45" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E45" s="5">
-        <v>0.076954022988505746</v>
+        <v>0.06174204725570423</v>
       </c>
     </row>
     <row r="46">
@@ -1699,16 +1702,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>32977</v>
+        <v>23461</v>
       </c>
       <c r="C46" s="4">
-        <v>32585</v>
+        <v>23125</v>
       </c>
       <c r="D46" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E46" s="5">
-        <v>0.074003618985756039</v>
+        <v>0.076905391424301639</v>
       </c>
     </row>
     <row r="47">
@@ -1716,16 +1719,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>34488</v>
+        <v>32977</v>
       </c>
       <c r="C47" s="4">
-        <v>33613</v>
+        <v>32585</v>
       </c>
       <c r="D47" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E47" s="5">
-        <v>0.058687206052757138</v>
+        <v>0.074000185580402708</v>
       </c>
     </row>
     <row r="48">
@@ -1733,16 +1736,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>41561</v>
+        <v>34488</v>
       </c>
       <c r="C48" s="4">
-        <v>40066</v>
+        <v>33613</v>
       </c>
       <c r="D48" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E48" s="5">
-        <v>0.061109015465861942</v>
+        <v>0.058695207580612176</v>
       </c>
     </row>
     <row r="49">
@@ -1750,16 +1753,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>42287</v>
+        <v>41561</v>
       </c>
       <c r="C49" s="4">
-        <v>41168</v>
+        <v>40066</v>
       </c>
       <c r="D49" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E49" s="5">
-        <v>0.065544213913236435</v>
+        <v>0.061262959472196045</v>
       </c>
     </row>
     <row r="50">
@@ -1767,16 +1770,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>34304</v>
+        <v>42287</v>
       </c>
       <c r="C50" s="4">
-        <v>32855</v>
+        <v>41168</v>
       </c>
       <c r="D50" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E50" s="5">
-        <v>0.06073669849931787</v>
+        <v>0.065389732786339944</v>
       </c>
     </row>
     <row r="51">
@@ -1784,16 +1787,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>21658</v>
+        <v>34304</v>
       </c>
       <c r="C51" s="4">
-        <v>20526</v>
+        <v>32855</v>
       </c>
       <c r="D51" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E51" s="5">
-        <v>0.066364215814930072</v>
+        <v>0.060729297450734208</v>
       </c>
     </row>
     <row r="52">
@@ -1801,16 +1804,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>21640</v>
+        <v>21658</v>
       </c>
       <c r="C52" s="4">
-        <v>21362</v>
+        <v>20526</v>
       </c>
       <c r="D52" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E52" s="5">
-        <v>0.067807925230079627</v>
+        <v>0.066369192695639137</v>
       </c>
     </row>
     <row r="53">
@@ -1818,16 +1821,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>32578</v>
+        <v>21640</v>
       </c>
       <c r="C53" s="4">
-        <v>32239</v>
+        <v>21362</v>
       </c>
       <c r="D53" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E53" s="5">
-        <v>0.069964736546225786</v>
+        <v>0.067817626859977109</v>
       </c>
     </row>
     <row r="54">
@@ -1835,16 +1838,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>37230</v>
+        <v>32578</v>
       </c>
       <c r="C54" s="4">
-        <v>36223</v>
+        <v>32239</v>
       </c>
       <c r="D54" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E54" s="5">
-        <v>0.056524291288284241</v>
+        <v>0.069968312378615963</v>
       </c>
     </row>
     <row r="55">
@@ -1852,16 +1855,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>42460</v>
+        <v>37230</v>
       </c>
       <c r="C55" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D55" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E55" s="5">
-        <v>0.05548958846187263</v>
+        <v>0.056530147109607014</v>
       </c>
     </row>
     <row r="56">
@@ -1869,16 +1872,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>40907</v>
+        <v>42460</v>
       </c>
       <c r="C56" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D56" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E56" s="5">
-        <v>0.050206511827495574</v>
+        <v>0.055497624840690533</v>
       </c>
     </row>
     <row r="57">
@@ -1886,16 +1889,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>34450</v>
+        <v>40907</v>
       </c>
       <c r="C57" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D57" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E57" s="5">
-        <v>0.057354717299104005</v>
+        <v>0.05021324535286071</v>
       </c>
     </row>
     <row r="58">
@@ -1903,16 +1906,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C58" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D58" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E58" s="5">
-        <v>0.056816468104358316</v>
+        <v>0.057362773189505029</v>
       </c>
     </row>
     <row r="59">
@@ -1920,16 +1923,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C59" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D59" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E59" s="5">
-        <v>0.064760613716187077</v>
+        <v>0.05682075258276148</v>
       </c>
     </row>
     <row r="60">
@@ -1937,16 +1940,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C60" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D60" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E60" s="5">
-        <v>0.078742428612633406</v>
+        <v>0.06479654747225648</v>
       </c>
     </row>
     <row r="61">
@@ -1954,16 +1957,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C61" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D61" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E61" s="5">
-        <v>0.062054759248133209</v>
+        <v>0.078733344869354557</v>
       </c>
     </row>
     <row r="62">
@@ -1971,16 +1974,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C62" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D62" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E62" s="5">
-        <v>0.061170483460559796</v>
+        <v>0.06206274947422636</v>
       </c>
     </row>
     <row r="63">
@@ -1988,16 +1991,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>40628</v>
+        <v>36046</v>
       </c>
       <c r="C63" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D63" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E63" s="5">
-        <v>0.054694099191504766</v>
+        <v>0.061189167175727956</v>
       </c>
     </row>
     <row r="64">
@@ -2005,16 +2008,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>29245</v>
+        <v>40628</v>
       </c>
       <c r="C64" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D64" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E64" s="5">
-        <v>0.054495607900184637</v>
+        <v>0.054699049630411826</v>
       </c>
     </row>
     <row r="65">
@@ -2022,16 +2025,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C65" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D65" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E65" s="5">
-        <v>0.058011329152336637</v>
+        <v>0.054498657117278422</v>
       </c>
     </row>
     <row r="66">
@@ -2039,16 +2042,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C66" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D66" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E66" s="5">
-        <v>0.066618817695419552</v>
+        <v>0.057972480777013356</v>
       </c>
     </row>
     <row r="67">
@@ -2056,16 +2059,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C67" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D67" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E67" s="5">
-        <v>0.06005940737520829</v>
+        <v>0.066623164763458406</v>
       </c>
     </row>
     <row r="68">
@@ -2073,16 +2076,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>31628</v>
+        <v>26010</v>
       </c>
       <c r="C68" s="4">
-        <v>31297</v>
+        <v>25913</v>
       </c>
       <c r="D68" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E68" s="5">
-        <v>0.053099582788992371</v>
+        <v>0.060063758875525286</v>
       </c>
     </row>
     <row r="69">
@@ -2090,16 +2093,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>36161</v>
+        <v>31628</v>
       </c>
       <c r="C69" s="4">
-        <v>35830</v>
+        <v>31297</v>
       </c>
       <c r="D69" s="4">
         <v>331</v>
       </c>
       <c r="E69" s="5">
-        <v>0.049565871333834687</v>
+        <v>0.053108535300316125</v>
       </c>
     </row>
     <row r="70">
@@ -2107,16 +2110,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C70" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D70" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E70" s="5">
-        <v>0.045742413782753552</v>
+        <v>0.049577734468492493</v>
       </c>
     </row>
     <row r="71">
@@ -2124,16 +2127,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C71" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D71" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E71" s="5">
-        <v>0.049088232643374287</v>
+        <v>0.045750652937468106</v>
       </c>
     </row>
     <row r="72">
@@ -2141,16 +2144,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C72" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D72" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E72" s="5">
-        <v>0.048526010138294211</v>
+        <v>0.049113315299068226</v>
       </c>
     </row>
     <row r="73">
@@ -2158,12 +2161,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C73" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D73" s="4">
+        <v>315</v>
+      </c>
       <c r="E73" s="5">
-        <v>0.053999387067116149</v>
+        <v>0.048549903983455614</v>
       </c>
     </row>
     <row r="74">
@@ -2171,12 +2178,12 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5">
-        <v>0.05275824941414909</v>
+        <v>0.054002697070001229</v>
       </c>
     </row>
     <row r="75">
@@ -2184,12 +2191,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.05298316251830161</v>
+        <v>0.052754908169727673</v>
       </c>
     </row>
     <row r="76">
@@ -2197,12 +2204,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.046150589231529177</v>
+        <v>0.052980738436198931</v>
       </c>
     </row>
     <row r="77">
@@ -2210,12 +2217,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.047221575604402911</v>
+        <v>0.046153846153846156</v>
       </c>
     </row>
     <row r="78">
@@ -2223,12 +2230,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.047517910353135101</v>
+        <v>0.047234141635897946</v>
       </c>
     </row>
     <row r="79">
@@ -2236,12 +2243,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.056891062612467125</v>
+        <v>0.047520923154958157</v>
       </c>
     </row>
     <row r="80">
@@ -2249,12 +2256,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.057113425660982028</v>
+        <v>0.056909443367488231</v>
       </c>
     </row>
     <row r="81">
@@ -2262,12 +2269,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.04951560818083961</v>
+        <v>0.057139585480361847</v>
       </c>
     </row>
     <row r="82">
@@ -2275,12 +2282,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.047569328433010358</v>
+        <v>0.049512803081803759</v>
       </c>
     </row>
     <row r="83">
@@ -2288,12 +2295,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.049758947109124818</v>
+        <v>0.047581251566546912</v>
       </c>
     </row>
     <row r="84">
@@ -2301,12 +2308,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.050175945708181478</v>
+        <v>0.049765952204976593</v>
       </c>
     </row>
     <row r="85">
@@ -2314,12 +2321,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.051556939501779357</v>
+        <v>0.050185406322669851</v>
       </c>
     </row>
     <row r="86">
@@ -2327,12 +2334,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.064257646968179372</v>
+        <v>0.051566114967075992</v>
       </c>
     </row>
     <row r="87">
@@ -2340,12 +2347,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.070713175617337254</v>
+        <v>0.064252696456086292</v>
       </c>
     </row>
     <row r="88">
@@ -2353,12 +2360,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.059197050389184762</v>
+        <v>0.070713175617337254</v>
       </c>
     </row>
     <row r="89">
@@ -2366,12 +2373,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.056565091790140715</v>
+        <v>0.059188967777170948</v>
       </c>
     </row>
     <row r="90">
@@ -2379,12 +2386,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.059780552402572837</v>
+        <v>0.056567727505708029</v>
       </c>
     </row>
     <row r="91">
@@ -2392,12 +2399,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.053366037986012131</v>
+        <v>0.059780552402572837</v>
       </c>
     </row>
     <row r="92">
@@ -2405,12 +2412,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.06327500688895013</v>
+        <v>0.053369576026784236</v>
       </c>
     </row>
     <row r="93">
@@ -2418,12 +2425,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.065587132532739234</v>
+        <v>0.063285906225238567</v>
       </c>
     </row>
     <row r="94">
@@ -2431,12 +2438,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.076376440460947506</v>
+        <v>0.065576442464413784</v>
       </c>
     </row>
     <row r="95">
@@ -2444,12 +2451,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.06581644272375313</v>
+        <v>0.076376440460947506</v>
       </c>
     </row>
     <row r="96">
@@ -2457,12 +2464,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.076960245991653853</v>
+        <v>0.065827686350435621</v>
       </c>
     </row>
     <row r="97">
@@ -2470,12 +2477,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.059789829689576038</v>
+        <v>0.076967007863638359</v>
       </c>
     </row>
     <row r="98">
@@ -2483,12 +2490,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.062673775800595341</v>
+        <v>0.059792237075213403</v>
       </c>
     </row>
     <row r="99">
@@ -2496,12 +2503,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.070980644723907665</v>
+        <v>0.062679926720753731</v>
       </c>
     </row>
     <row r="100">
@@ -2509,12 +2516,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.065344224037339554</v>
+        <v>0.071002305710023056</v>
       </c>
     </row>
     <row r="101">
@@ -2522,12 +2529,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.080308775731310941</v>
+        <v>0.065337293169282981</v>
       </c>
     </row>
     <row r="102">
@@ -2535,12 +2542,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.073024361259655376</v>
+        <v>0.080314214126091965</v>
       </c>
     </row>
     <row r="103">
@@ -2548,12 +2555,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.064176683442166121</v>
+        <v>0.073050404184498333</v>
       </c>
     </row>
     <row r="104">
@@ -2561,12 +2568,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.064071924433822688</v>
+        <v>0.06420071565282516</v>
       </c>
     </row>
     <row r="105">
@@ -2574,12 +2581,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.069090625365739483</v>
+        <v>0.064084079526483539</v>
       </c>
     </row>
     <row r="106">
@@ -2587,12 +2594,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.075864238801274242</v>
+        <v>0.069087930092845445</v>
       </c>
     </row>
     <row r="107">
@@ -2600,12 +2607,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.065395560614684115</v>
+        <v>0.075873190685966013</v>
       </c>
     </row>
     <row r="108">
@@ -2613,12 +2620,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.068983518532329036</v>
+        <v>0.065403005464480871</v>
       </c>
     </row>
     <row r="109">
@@ -2626,12 +2633,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.063117715220503037</v>
+        <v>0.068988663484486873</v>
       </c>
     </row>
     <row r="110">
@@ -2639,12 +2646,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.063829787234042548</v>
+        <v>0.06313062448868284</v>
       </c>
     </row>
     <row r="111">
@@ -2652,12 +2659,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.063725929243170623</v>
+        <v>0.063835877862595425</v>
       </c>
     </row>
     <row r="112">
@@ -2665,12 +2672,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.05933054393305439</v>
+        <v>0.063731637405947686</v>
       </c>
     </row>
     <row r="113">
@@ -2678,12 +2685,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.064238410596026488</v>
+        <v>0.059337992216596226</v>
       </c>
     </row>
     <row r="114">
@@ -2691,12 +2698,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.061995555035676685</v>
+        <v>0.0642226148409894</v>
       </c>
     </row>
     <row r="115">
@@ -2704,12 +2711,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.06419067115075304</v>
+        <v>0.062057670936421595</v>
       </c>
     </row>
     <row r="116">
@@ -2717,12 +2724,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.052485457429931257</v>
+        <v>0.064181286549707603</v>
       </c>
     </row>
     <row r="117">
@@ -2730,12 +2737,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.059563294637921503</v>
+        <v>0.052499338799259457</v>
       </c>
     </row>
     <row r="118">
@@ -2743,12 +2750,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.068155330753811014</v>
+        <v>0.059571527297857634</v>
       </c>
     </row>
     <row r="119">
@@ -2756,12 +2763,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.070811200144053302</v>
+        <v>0.068161685859480625</v>
       </c>
     </row>
     <row r="120">
@@ -2769,12 +2776,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.07571869699473753</v>
+        <v>0.070814387971007975</v>
       </c>
     </row>
     <row r="121">
@@ -2782,12 +2789,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.076664378860672622</v>
+        <v>0.075735166173655818</v>
       </c>
     </row>
     <row r="122">
@@ -2795,12 +2802,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.067836183504764308</v>
+        <v>0.076664378860672622</v>
       </c>
     </row>
     <row r="123">
@@ -2808,12 +2815,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.072976606614681361</v>
+        <v>0.067836183504764308</v>
       </c>
     </row>
     <row r="124">
@@ -2821,12 +2828,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.068618255417880233</v>
+        <v>0.072976606614681361</v>
       </c>
     </row>
     <row r="125">
@@ -2834,12 +2841,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.066696802827319795</v>
+        <v>0.06862841907771304</v>
       </c>
     </row>
     <row r="126">
@@ -2847,12 +2854,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.072341502509807226</v>
+        <v>0.066710510090838088</v>
       </c>
     </row>
     <row r="127">
@@ -2860,12 +2867,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.074925288174185284</v>
+        <v>0.072368976284918562</v>
       </c>
     </row>
     <row r="128">
@@ -2873,12 +2880,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.069529760643931376</v>
+        <v>0.074919957310565638</v>
       </c>
     </row>
     <row r="129">
@@ -2886,12 +2893,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.0718250550291894</v>
+        <v>0.069491525423728814</v>
       </c>
     </row>
     <row r="130">
@@ -2899,12 +2906,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.076757840469712152</v>
+        <v>0.0718729064982295</v>
       </c>
     </row>
     <row r="131">
@@ -2912,12 +2919,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.078440451935543623</v>
+        <v>0.076761504678250908</v>
       </c>
     </row>
     <row r="132">
@@ -2925,12 +2932,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.074713128585892671</v>
+        <v>0.078436819928693793</v>
       </c>
     </row>
     <row r="133">
@@ -2938,12 +2945,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.084669167803547066</v>
+        <v>0.074728891514409895</v>
       </c>
     </row>
     <row r="134">
@@ -2951,12 +2958,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.077960293515104112</v>
+        <v>0.084687220161187154</v>
       </c>
     </row>
     <row r="135">
@@ -2964,12 +2971,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.076066043223410443</v>
+        <v>0.077974815587512111</v>
       </c>
     </row>
     <row r="136">
@@ -2977,12 +2984,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.080774044478675269</v>
+        <v>0.076079659879167594</v>
       </c>
     </row>
     <row r="137">
@@ -2990,12 +2997,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.069379211762303453</v>
+        <v>0.080797380585516179</v>
       </c>
     </row>
     <row r="138">
@@ -3003,12 +3010,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.080750880634948952</v>
+        <v>0.06939338235294118</v>
       </c>
     </row>
     <row r="139">
@@ -3016,12 +3023,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.084305896805896813</v>
+        <v>0.080758082497212932</v>
       </c>
     </row>
     <row r="140">
@@ -3029,12 +3036,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.073098956289727693</v>
+        <v>0.084315607602226922</v>
       </c>
     </row>
     <row r="141">
@@ -3042,12 +3049,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.087210406380554495</v>
+        <v>0.073110430892394634</v>
       </c>
     </row>
     <row r="142">
@@ -3055,12 +3062,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.078386676590993673</v>
+        <v>0.087222828925502108</v>
       </c>
     </row>
     <row r="143">
@@ -3068,12 +3075,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.096197220036716491</v>
+        <v>0.078351091052900945</v>
       </c>
     </row>
     <row r="144">
@@ -3081,12 +3088,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.092311411992263059</v>
+        <v>0.096202266051195973</v>
       </c>
     </row>
     <row r="145">
@@ -3094,12 +3101,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.091257463684163626</v>
+        <v>0.092324805339265847</v>
       </c>
     </row>
     <row r="146">
@@ -3107,12 +3114,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.095748089157398505</v>
+        <v>0.091257463684163626</v>
       </c>
     </row>
     <row r="147">
@@ -3120,12 +3127,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.093518565810306958</v>
+        <v>0.095756854488030396</v>
       </c>
     </row>
     <row r="148">
@@ -3133,12 +3140,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.08529036956125978</v>
+        <v>0.093532897425418884</v>
       </c>
     </row>
     <row r="149">
@@ -3146,12 +3153,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.088488451297293949</v>
+        <v>0.085313666575616856</v>
       </c>
     </row>
     <row r="150">
@@ -3159,12 +3166,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.09211646517963562</v>
+        <v>0.088499411655415861</v>
       </c>
     </row>
     <row r="151">
@@ -3172,12 +3179,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.0842931063261559</v>
+        <v>0.092132152588555852</v>
       </c>
     </row>
     <row r="152">
@@ -3185,12 +3192,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.089199355185384202</v>
+        <v>0.084283727399165509</v>
       </c>
     </row>
     <row r="153">
@@ -3198,12 +3205,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.091549742873468357</v>
+        <v>0.08920468115595892</v>
       </c>
     </row>
     <row r="154">
@@ -3211,12 +3218,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.10446318277028842</v>
+        <v>0.091590447154471538</v>
       </c>
     </row>
     <row r="155">
@@ -3224,12 +3231,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.083290341071940388</v>
+        <v>0.10446318277028842</v>
       </c>
     </row>
     <row r="156">
@@ -3237,12 +3244,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.095644340822382365</v>
+        <v>0.083299891073783175</v>
       </c>
     </row>
     <row r="157">
@@ -3250,12 +3257,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.087808291061745675</v>
+        <v>0.095659547405797865</v>
       </c>
     </row>
     <row r="158">
@@ -3263,12 +3270,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.081880520688052072</v>
+        <v>0.087808291061745675</v>
       </c>
     </row>
     <row r="159">
@@ -3276,12 +3283,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.094738671920268858</v>
+        <v>0.08190431901412544</v>
       </c>
     </row>
     <row r="160">
@@ -3289,12 +3296,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.098931723176962374</v>
+        <v>0.094733182687293582</v>
       </c>
     </row>
     <row r="161">
@@ -3302,12 +3309,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.096614204470308163</v>
+        <v>0.098966198164711347</v>
       </c>
     </row>
     <row r="162">
@@ -3315,12 +3322,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.077406807131280383</v>
+        <v>0.096620593876066405</v>
       </c>
     </row>
     <row r="163">
@@ -3328,12 +3335,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.08245743893412287</v>
+        <v>0.077411825726141081</v>
       </c>
     </row>
     <row r="164">
@@ -3341,12 +3348,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.0903593027392387</v>
+        <v>0.08245743893412287</v>
       </c>
     </row>
     <row r="165">
@@ -3354,12 +3361,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.08426372963186482</v>
+        <v>0.090370018975332062</v>
       </c>
     </row>
     <row r="166">
@@ -3367,12 +3374,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.094278807413376312</v>
+        <v>0.084144592860916162</v>
       </c>
     </row>
     <row r="167">
@@ -3380,12 +3387,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.095622366635720921</v>
+        <v>0.094262295081967207</v>
       </c>
     </row>
     <row r="168">
@@ -3393,12 +3400,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095636025998142984</v>
       </c>
     </row>
     <row r="169">
@@ -3406,12 +3413,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.082763704597238974</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="170">
@@ -3419,12 +3426,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.082752613240418119</v>
       </c>
     </row>
     <row r="171">
@@ -3432,12 +3439,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.08050395045910741</v>
       </c>
     </row>
     <row r="172">
@@ -3445,12 +3452,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.082531050194752695</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="173">
@@ -3458,12 +3465,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.091537132987910191</v>
+        <v>0.082543182653436242</v>
       </c>
     </row>
     <row r="174">
@@ -3471,12 +3478,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.092528175873104218</v>
+        <v>0.091550309486109108</v>
       </c>
     </row>
     <row r="175">
@@ -3484,12 +3491,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.098402130492676432</v>
+        <v>0.092541052045644306</v>
       </c>
     </row>
     <row r="176">
@@ -3497,12 +3504,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.084529857889698842</v>
+        <v>0.098428343100692595</v>
       </c>
     </row>
     <row r="177">
@@ -3510,12 +3517,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.076464646464646471</v>
+        <v>0.084523634221764093</v>
       </c>
     </row>
     <row r="178">
@@ -3523,12 +3530,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.086851263428657885</v>
+        <v>0.076464646464646471</v>
       </c>
     </row>
     <row r="179">
@@ -3536,12 +3543,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.090085597939001075</v>
+        <v>0.086851263428657885</v>
       </c>
     </row>
     <row r="180">
@@ -3549,12 +3556,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.093456936509647509</v>
+        <v>0.090085597939001075</v>
       </c>
     </row>
     <row r="181">
@@ -3562,12 +3569,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.097664153025565567</v>
+        <v>0.093477088948787063</v>
       </c>
     </row>
     <row r="182">
@@ -3575,12 +3582,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.08630316965018886</v>
+        <v>0.097682119205298013</v>
       </c>
     </row>
     <row r="183">
@@ -3588,12 +3595,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.089423321195698194</v>
+        <v>0.086324435318275147</v>
       </c>
     </row>
     <row r="184">
@@ -3601,12 +3608,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.089438468705005505</v>
       </c>
     </row>
     <row r="185">
@@ -3614,12 +3621,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.07856283307546845</v>
+        <v>0.078024959305480202</v>
       </c>
     </row>
     <row r="186">
@@ -3627,12 +3634,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.081052408232548265</v>
+        <v>0.078522336769759449</v>
       </c>
     </row>
     <row r="187">
@@ -3640,12 +3647,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.081836714882050285</v>
+        <v>0.081061007957559675</v>
       </c>
     </row>
     <row r="188">
@@ -3653,12 +3660,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.099318831026148094</v>
+        <v>0.081812888198757761</v>
       </c>
     </row>
     <row r="189">
@@ -3666,12 +3673,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.089959109495683781</v>
+        <v>0.099318831026148094</v>
       </c>
     </row>
     <row r="190">
@@ -3679,12 +3686,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.076506024096385544</v>
+        <v>0.089950935853171002</v>
       </c>
     </row>
     <row r="191">
@@ -3692,12 +3699,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.070535428021801863</v>
+        <v>0.076494503839783165</v>
       </c>
     </row>
     <row r="192">
@@ -3705,12 +3712,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.076398104265402847</v>
+        <v>0.070535428021801863</v>
       </c>
     </row>
     <row r="193">
@@ -3718,12 +3725,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.081896551724137928</v>
+        <v>0.076383623957543598</v>
       </c>
     </row>
     <row r="194">
@@ -3731,12 +3738,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081896551724137928</v>
       </c>
     </row>
     <row r="195">
@@ -3744,12 +3751,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.097244142284812429</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="196">
@@ -3757,12 +3764,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.082768148706355182</v>
+        <v>0.097244142284812429</v>
       </c>
     </row>
     <row r="197">
@@ -3770,12 +3777,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082809751193767281</v>
       </c>
     </row>
     <row r="198">
@@ -3783,12 +3790,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.063041474654377885</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="199">
@@ -3796,12 +3803,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.055933190910856474</v>
+        <v>0.063018242122719739</v>
       </c>
     </row>
     <row r="200">
@@ -3809,12 +3816,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.060998151571164512</v>
+        <v>0.05596579867858531</v>
       </c>
     </row>
     <row r="201">
@@ -3822,12 +3829,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.061016949152542375</v>
       </c>
     </row>
     <row r="202">
@@ -3835,12 +3842,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.068536371603856269</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="203">
@@ -3848,12 +3855,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.067103109656301146</v>
+        <v>0.068548387096774188</v>
       </c>
     </row>
     <row r="204">
@@ -3861,12 +3868,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.071927260918980357</v>
+        <v>0.067115314659876316</v>
       </c>
     </row>
     <row r="205">
@@ -3874,12 +3881,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.054350536025928695</v>
+        <v>0.071950625304531432</v>
       </c>
     </row>
     <row r="206">
@@ -3887,12 +3894,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.041282712863988207</v>
+        <v>0.054350536025928695</v>
       </c>
     </row>
     <row r="207">
@@ -3900,12 +3907,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041297935103244837</v>
       </c>
     </row>
     <row r="208">
@@ -3913,12 +3920,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.082527705729780715</v>
+        <v>0.06471716203259828</v>
       </c>
     </row>
     <row r="209">
@@ -3926,12 +3933,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.072619047619047625</v>
+        <v>0.08254716981132075</v>
       </c>
     </row>
     <row r="210">
@@ -3939,12 +3946,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.083112874779541449</v>
+        <v>0.072653644592663172</v>
       </c>
     </row>
     <row r="211">
@@ -3952,12 +3959,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083131201764057333</v>
       </c>
     </row>
     <row r="212">
@@ -3965,12 +3972,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.071404848887412817</v>
+        <v>0.080540445692226709</v>
       </c>
     </row>
     <row r="213">
@@ -3978,12 +3985,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.06490765171503958</v>
+        <v>0.071428571428571425</v>
       </c>
     </row>
     <row r="214">
@@ -3991,12 +3998,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.063349917081260365</v>
+        <v>0.064941921858500534</v>
       </c>
     </row>
     <row r="215">
@@ -4004,12 +4011,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063349917081260365</v>
       </c>
     </row>
     <row r="216">
@@ -4017,12 +4024,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.07006197790353004</v>
+        <v>0.077615008995116933</v>
       </c>
     </row>
     <row r="217">
@@ -4030,12 +4037,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.070080862533692723</v>
       </c>
     </row>
     <row r="218">
@@ -4043,12 +4050,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="219">
@@ -4056,12 +4063,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.079960994636762553</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="220">
@@ -4069,12 +4076,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.079960994636762553</v>
       </c>
     </row>
     <row r="221">
@@ -4082,12 +4089,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.12935883014623173</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="222">
@@ -4095,12 +4102,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12940735183795948</v>
       </c>
     </row>
     <row r="223">
@@ -4108,12 +4115,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="224">
@@ -4121,12 +4128,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.11588132635253054</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="225">
@@ -4134,12 +4141,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.10545454545454545</v>
+        <v>0.11592178770949721</v>
       </c>
     </row>
     <row r="226">
@@ -4147,12 +4154,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10545454545454545</v>
       </c>
     </row>
     <row r="227">
@@ -4160,12 +4167,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="228">
@@ -4173,12 +4180,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.12853932584269662</v>
+        <v>0.089660743134087242</v>
       </c>
     </row>
     <row r="229">
@@ -4186,12 +4193,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.13942307692307693</v>
+        <v>0.12859712230215828</v>
       </c>
     </row>
     <row r="230">
@@ -4199,12 +4206,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13942307692307693</v>
       </c>
     </row>
     <row r="231">
@@ -4212,12 +4219,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.15919282511210761</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="232">
@@ -4225,12 +4232,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15919282511210761</v>
       </c>
     </row>
     <row r="233">
@@ -4238,12 +4245,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="234">
@@ -4251,12 +4258,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="235">
@@ -4264,12 +4271,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.16280384397964953</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="236">
@@ -4277,12 +4284,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.11283185840707964</v>
+        <v>0.16280384397964953</v>
       </c>
     </row>
     <row r="237">
@@ -4290,12 +4297,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.084054388133498151</v>
+        <v>0.11283185840707964</v>
       </c>
     </row>
     <row r="238">
@@ -4303,12 +4310,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084123711340206186</v>
       </c>
     </row>
     <row r="239">
@@ -4316,12 +4323,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.090184354758345783</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="240">
@@ -4329,12 +4336,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090229312063808575</v>
       </c>
     </row>
     <row r="241">
@@ -4342,12 +4349,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="242">
@@ -4355,12 +4362,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.082042833607907747</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="243">
@@ -4368,12 +4375,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.082042833607907747</v>
       </c>
     </row>
     <row r="244">
@@ -4381,12 +4388,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.080711354309165526</v>
+        <v>0.084658040665434378</v>
       </c>
     </row>
     <row r="245">
@@ -4394,12 +4401,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.068143100511073251</v>
+        <v>0.080711354309165526</v>
       </c>
     </row>
     <row r="246">
@@ -4407,12 +4414,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.074616695059625218</v>
+        <v>0.068143100511073251</v>
       </c>
     </row>
     <row r="247">
@@ -4420,18 +4427,20 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="5"/>
+      <c r="E247" s="5">
+        <v>0.074616695059625218</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -4442,7 +4451,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4453,7 +4462,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4464,7 +4473,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4475,7 +4484,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4486,7 +4495,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4497,7 +4506,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4508,7 +4517,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4519,7 +4528,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4530,7 +4539,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4541,7 +4550,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4552,7 +4561,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4563,7 +4572,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4574,7 +4583,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4585,7 +4594,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4595,7 +4604,9 @@
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B263" s="4"/>
+      <c r="B263" s="4">
+        <v>936</v>
+      </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="5"/>
@@ -4717,6 +4728,15 @@
       <c r="D276" s="4"/>
       <c r="E276" s="5"/>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+  <si>
+    <t>12/3/2020</t>
+  </si>
   <si>
     <t>12/2/2020</t>
   </si>
@@ -939,24 +942,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E278"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2">
@@ -973,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>25740</v>
+        <v>43652</v>
       </c>
       <c r="C3" s="4">
-        <v>20645</v>
+        <v>39285</v>
       </c>
       <c r="D3" s="4">
-        <v>5095</v>
+        <v>4367</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -988,16 +991,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>23030</v>
+        <v>29813</v>
       </c>
       <c r="C4" s="4">
-        <v>21604</v>
+        <v>24364</v>
       </c>
       <c r="D4" s="4">
-        <v>1426</v>
+        <v>5449</v>
       </c>
       <c r="E4" s="5">
-        <v>0.11420368838499344</v>
+        <v>0.10119282483989438</v>
       </c>
     </row>
     <row r="5">
@@ -1005,16 +1008,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>33711</v>
+        <v>23301</v>
       </c>
       <c r="C5" s="4">
-        <v>32506</v>
+        <v>21905</v>
       </c>
       <c r="D5" s="4">
-        <v>1205</v>
+        <v>1396</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10293069871277252</v>
+        <v>0.11824396042966925</v>
       </c>
     </row>
     <row r="6">
@@ -1022,16 +1025,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>40249</v>
+        <v>34551</v>
       </c>
       <c r="C6" s="4">
-        <v>38243</v>
+        <v>33348</v>
       </c>
       <c r="D6" s="4">
-        <v>2006</v>
+        <v>1203</v>
       </c>
       <c r="E6" s="5">
-        <v>0.09391185683714294</v>
+        <v>0.10112677384376031</v>
       </c>
     </row>
     <row r="7">
@@ -1039,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>40983</v>
+        <v>41081</v>
       </c>
       <c r="C7" s="4">
-        <v>40066</v>
+        <v>38954</v>
       </c>
       <c r="D7" s="4">
-        <v>917</v>
+        <v>2127</v>
       </c>
       <c r="E7" s="5">
-        <v>0.086928343993913609</v>
+        <v>0.092023979793676394</v>
       </c>
     </row>
     <row r="8">
@@ -1056,16 +1059,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>64982</v>
+        <v>41219</v>
       </c>
       <c r="C8" s="4">
-        <v>60347</v>
+        <v>40302</v>
       </c>
       <c r="D8" s="4">
-        <v>4635</v>
+        <v>917</v>
       </c>
       <c r="E8" s="5">
-        <v>0.07653630013878461</v>
+        <v>0.086569669837716842</v>
       </c>
     </row>
     <row r="9">
@@ -1073,16 +1076,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>48939</v>
+        <v>65502</v>
       </c>
       <c r="C9" s="4">
-        <v>43790</v>
+        <v>60640</v>
       </c>
       <c r="D9" s="4">
-        <v>5149</v>
+        <v>4862</v>
       </c>
       <c r="E9" s="5">
-        <v>0.069965620656864902</v>
+        <v>0.076477009141765584</v>
       </c>
     </row>
     <row r="10">
@@ -1090,16 +1093,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>50894</v>
+        <v>49496</v>
       </c>
       <c r="C10" s="4">
-        <v>44991</v>
+        <v>44146</v>
       </c>
       <c r="D10" s="4">
-        <v>5903</v>
+        <v>5350</v>
       </c>
       <c r="E10" s="5">
-        <v>0.079054705460658042</v>
+        <v>0.069825254076186297</v>
       </c>
     </row>
     <row r="11">
@@ -1107,16 +1110,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>40873</v>
+        <v>51402</v>
       </c>
       <c r="C11" s="4">
-        <v>39398</v>
+        <v>45221</v>
       </c>
       <c r="D11" s="4">
-        <v>1475</v>
+        <v>6181</v>
       </c>
       <c r="E11" s="5">
-        <v>0.072099816580240478</v>
+        <v>0.079054705460658042</v>
       </c>
     </row>
     <row r="12">
@@ -1124,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41956</v>
+        <v>41350</v>
       </c>
       <c r="C12" s="4">
-        <v>40501</v>
+        <v>39867</v>
       </c>
       <c r="D12" s="4">
-        <v>1455</v>
+        <v>1483</v>
       </c>
       <c r="E12" s="5">
-        <v>0.065790999768035263</v>
+        <v>0.072171018365452116</v>
       </c>
     </row>
     <row r="13">
@@ -1141,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>52484</v>
+        <v>42186</v>
       </c>
       <c r="C13" s="4">
-        <v>48764</v>
+        <v>40729</v>
       </c>
       <c r="D13" s="4">
-        <v>3720</v>
+        <v>1457</v>
       </c>
       <c r="E13" s="5">
-        <v>0.06861275476660092</v>
+        <v>0.065808546413869073</v>
       </c>
     </row>
     <row r="14">
@@ -1158,16 +1161,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>57382</v>
+        <v>53118</v>
       </c>
       <c r="C14" s="4">
-        <v>52407</v>
+        <v>49254</v>
       </c>
       <c r="D14" s="4">
-        <v>4975</v>
+        <v>3864</v>
       </c>
       <c r="E14" s="5">
-        <v>0.069224623755748921</v>
+        <v>0.068601930004470041</v>
       </c>
     </row>
     <row r="15">
@@ -1175,16 +1178,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>53662</v>
+        <v>58111</v>
       </c>
       <c r="C15" s="4">
-        <v>49817</v>
+        <v>53005</v>
       </c>
       <c r="D15" s="4">
-        <v>3845</v>
+        <v>5106</v>
       </c>
       <c r="E15" s="5">
-        <v>0.072925380625731978</v>
+        <v>0.0692179772368961</v>
       </c>
     </row>
     <row r="16">
@@ -1192,16 +1195,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>50117</v>
+        <v>53773</v>
       </c>
       <c r="C16" s="4">
-        <v>45606</v>
+        <v>49819</v>
       </c>
       <c r="D16" s="4">
-        <v>4511</v>
+        <v>3954</v>
       </c>
       <c r="E16" s="5">
-        <v>0.079068985799512645</v>
+        <v>0.072923855532551179</v>
       </c>
     </row>
     <row r="17">
@@ -1209,16 +1212,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>34991</v>
+        <v>50118</v>
       </c>
       <c r="C17" s="4">
-        <v>30563</v>
+        <v>45607</v>
       </c>
       <c r="D17" s="4">
-        <v>4428</v>
+        <v>4511</v>
       </c>
       <c r="E17" s="5">
-        <v>0.077388149939540504</v>
+        <v>0.079044658236356757</v>
       </c>
     </row>
     <row r="18">
@@ -1226,16 +1229,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>29497</v>
+        <v>34997</v>
       </c>
       <c r="C18" s="4">
-        <v>28638</v>
+        <v>30563</v>
       </c>
       <c r="D18" s="4">
-        <v>859</v>
+        <v>4434</v>
       </c>
       <c r="E18" s="5">
-        <v>0.087367750932185406</v>
+        <v>0.077405186665679665</v>
       </c>
     </row>
     <row r="19">
@@ -1243,16 +1246,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>35681</v>
+        <v>29497</v>
       </c>
       <c r="C19" s="4">
-        <v>34657</v>
+        <v>28638</v>
       </c>
       <c r="D19" s="4">
-        <v>1024</v>
+        <v>859</v>
       </c>
       <c r="E19" s="5">
-        <v>0.087449296110713434</v>
+        <v>0.0873624541513838</v>
       </c>
     </row>
     <row r="20">
@@ -1260,16 +1263,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>40919</v>
+        <v>35680</v>
       </c>
       <c r="C20" s="4">
-        <v>38372</v>
+        <v>34657</v>
       </c>
       <c r="D20" s="4">
-        <v>2547</v>
+        <v>1023</v>
       </c>
       <c r="E20" s="5">
-        <v>0.080551301684532922</v>
+        <v>0.087445818586710147</v>
       </c>
     </row>
     <row r="21">
@@ -1277,16 +1280,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>48217</v>
+        <v>40949</v>
       </c>
       <c r="C21" s="4">
-        <v>44437</v>
+        <v>38377</v>
       </c>
       <c r="D21" s="4">
-        <v>3780</v>
+        <v>2572</v>
       </c>
       <c r="E21" s="5">
-        <v>0.077431960921144447</v>
+        <v>0.080513275962392425</v>
       </c>
     </row>
     <row r="22">
@@ -1294,16 +1297,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>46489</v>
+        <v>48224</v>
       </c>
       <c r="C22" s="4">
-        <v>43311</v>
+        <v>44441</v>
       </c>
       <c r="D22" s="4">
-        <v>3178</v>
+        <v>3783</v>
       </c>
       <c r="E22" s="5">
-        <v>0.078036563986977212</v>
+        <v>0.077423316308018644</v>
       </c>
     </row>
     <row r="23">
@@ -1311,16 +1314,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>41372</v>
+        <v>46489</v>
       </c>
       <c r="C23" s="4">
-        <v>37689</v>
+        <v>43311</v>
       </c>
       <c r="D23" s="4">
-        <v>3683</v>
+        <v>3178</v>
       </c>
       <c r="E23" s="5">
-        <v>0.076090839499872415</v>
+        <v>0.077992336013224139</v>
       </c>
     </row>
     <row r="24">
@@ -1328,16 +1331,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>29267</v>
+        <v>41394</v>
       </c>
       <c r="C24" s="4">
-        <v>25792</v>
+        <v>37711</v>
       </c>
       <c r="D24" s="4">
-        <v>3475</v>
+        <v>3683</v>
       </c>
       <c r="E24" s="5">
-        <v>0.077259179953123647</v>
+        <v>0.076102490812576556</v>
       </c>
     </row>
     <row r="25">
@@ -1345,16 +1348,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>26351</v>
+        <v>29267</v>
       </c>
       <c r="C25" s="4">
-        <v>25612</v>
+        <v>25792</v>
       </c>
       <c r="D25" s="4">
-        <v>739</v>
+        <v>3475</v>
       </c>
       <c r="E25" s="5">
-        <v>0.080912114775778463</v>
+        <v>0.07716772197646514</v>
       </c>
     </row>
     <row r="26">
@@ -1362,16 +1365,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>34442</v>
+        <v>26352</v>
       </c>
       <c r="C26" s="4">
-        <v>33672</v>
+        <v>25612</v>
       </c>
       <c r="D26" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E26" s="5">
-        <v>0.075385519829964276</v>
+        <v>0.080912114775778463</v>
       </c>
     </row>
     <row r="27">
@@ -1379,16 +1382,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>40124</v>
+        <v>34444</v>
       </c>
       <c r="C27" s="4">
-        <v>38159</v>
+        <v>33674</v>
       </c>
       <c r="D27" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E27" s="5">
-        <v>0.065272344267228402</v>
+        <v>0.075354850375192114</v>
       </c>
     </row>
     <row r="28">
@@ -1396,16 +1399,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>44882</v>
+        <v>40125</v>
       </c>
       <c r="C28" s="4">
-        <v>41797</v>
+        <v>38160</v>
       </c>
       <c r="D28" s="4">
-        <v>3085</v>
+        <v>1965</v>
       </c>
       <c r="E28" s="5">
-        <v>0.05884129599121362</v>
+        <v>0.065280202251249017</v>
       </c>
     </row>
     <row r="29">
@@ -1413,16 +1416,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>47557</v>
+        <v>44882</v>
       </c>
       <c r="C29" s="4">
-        <v>45090</v>
+        <v>41797</v>
       </c>
       <c r="D29" s="4">
-        <v>2467</v>
+        <v>3085</v>
       </c>
       <c r="E29" s="5">
-        <v>0.066617130851418183</v>
+        <v>0.058868753432180121</v>
       </c>
     </row>
     <row r="30">
@@ -1430,16 +1433,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>43249</v>
+        <v>47557</v>
       </c>
       <c r="C30" s="4">
-        <v>40486</v>
+        <v>45090</v>
       </c>
       <c r="D30" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E30" s="5">
-        <v>0.064338908558173605</v>
+        <v>0.066584684753926163</v>
       </c>
     </row>
     <row r="31">
@@ -1447,16 +1450,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>25511</v>
+        <v>43250</v>
       </c>
       <c r="C31" s="4">
-        <v>22372</v>
+        <v>40487</v>
       </c>
       <c r="D31" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E31" s="5">
-        <v>0.06544734034445969</v>
+        <v>0.064345193035579104</v>
       </c>
     </row>
     <row r="32">
@@ -1464,16 +1467,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>26650</v>
+        <v>25512</v>
       </c>
       <c r="C32" s="4">
-        <v>26087</v>
+        <v>22373</v>
       </c>
       <c r="D32" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E32" s="5">
-        <v>0.07448344125046398</v>
+        <v>0.065420845654360876</v>
       </c>
     </row>
     <row r="33">
@@ -1481,16 +1484,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>33579</v>
+        <v>26650</v>
       </c>
       <c r="C33" s="4">
-        <v>32758</v>
+        <v>26087</v>
       </c>
       <c r="D33" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E33" s="5">
-        <v>0.067870803229919258</v>
+        <v>0.07451239124159828</v>
       </c>
     </row>
     <row r="34">
@@ -1498,16 +1501,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>39047</v>
+        <v>33579</v>
       </c>
       <c r="C34" s="4">
-        <v>37187</v>
+        <v>32758</v>
       </c>
       <c r="D34" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E34" s="5">
-        <v>0.063459666530599423</v>
+        <v>0.067879457644408558</v>
       </c>
     </row>
     <row r="35">
@@ -1515,16 +1518,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>45060</v>
+        <v>39048</v>
       </c>
       <c r="C35" s="4">
-        <v>42055</v>
+        <v>37188</v>
       </c>
       <c r="D35" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E35" s="5">
-        <v>0.059566370660823431</v>
+        <v>0.063473618090452266</v>
       </c>
     </row>
     <row r="36">
@@ -1532,16 +1535,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>45527</v>
+        <v>45059</v>
       </c>
       <c r="C36" s="4">
-        <v>43051</v>
+        <v>42054</v>
       </c>
       <c r="D36" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E36" s="5">
-        <v>0.060466392318244168</v>
+        <v>0.059552634613167302</v>
       </c>
     </row>
     <row r="37">
@@ -1549,16 +1552,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>38784</v>
+        <v>45528</v>
       </c>
       <c r="C37" s="4">
-        <v>36620</v>
+        <v>43051</v>
       </c>
       <c r="D37" s="4">
-        <v>2164</v>
+        <v>2477</v>
       </c>
       <c r="E37" s="5">
-        <v>0.059375902918231728</v>
+        <v>0.060473028590243103</v>
       </c>
     </row>
     <row r="38">
@@ -1566,16 +1569,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>23935</v>
+        <v>38786</v>
       </c>
       <c r="C38" s="4">
-        <v>21589</v>
+        <v>36621</v>
       </c>
       <c r="D38" s="4">
-        <v>2346</v>
+        <v>2165</v>
       </c>
       <c r="E38" s="5">
-        <v>0.064239970800013271</v>
+        <v>0.059395690381605873</v>
       </c>
     </row>
     <row r="39">
@@ -1583,16 +1586,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C39" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D39" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E39" s="5">
-        <v>0.070312137655952872</v>
+        <v>0.064208919564640296</v>
       </c>
     </row>
     <row r="40">
@@ -1600,16 +1603,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C40" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D40" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E40" s="5">
-        <v>0.074915057595094064</v>
+        <v>0.070272276079595533</v>
       </c>
     </row>
     <row r="41">
@@ -1617,16 +1620,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>37816</v>
+        <v>30514</v>
       </c>
       <c r="C41" s="4">
-        <v>36631</v>
+        <v>30031</v>
       </c>
       <c r="D41" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E41" s="5">
-        <v>0.06212057037978258</v>
+        <v>0.074918161853064269</v>
       </c>
     </row>
     <row r="42">
@@ -1634,16 +1637,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>40625</v>
+        <v>37816</v>
       </c>
       <c r="C42" s="4">
-        <v>38715</v>
+        <v>36631</v>
       </c>
       <c r="D42" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E42" s="5">
-        <v>0.063897666504618381</v>
+        <v>0.062129341993787064</v>
       </c>
     </row>
     <row r="43">
@@ -1651,16 +1654,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>46374</v>
+        <v>40625</v>
       </c>
       <c r="C43" s="4">
-        <v>44983</v>
+        <v>38715</v>
       </c>
       <c r="D43" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E43" s="5">
-        <v>0.063693762713655455</v>
+        <v>0.063897666504618381</v>
       </c>
     </row>
     <row r="44">
@@ -1668,16 +1671,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>36459</v>
+        <v>46374</v>
       </c>
       <c r="C44" s="4">
-        <v>34715</v>
+        <v>44983</v>
       </c>
       <c r="D44" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E44" s="5">
-        <v>0.059064744536702157</v>
+        <v>0.063652210659764411</v>
       </c>
     </row>
     <row r="45">
@@ -1685,16 +1688,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>18443</v>
+        <v>36459</v>
       </c>
       <c r="C45" s="4">
-        <v>16604</v>
+        <v>34715</v>
       </c>
       <c r="D45" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06174204725570423</v>
+        <v>0.059153064602378347</v>
       </c>
     </row>
     <row r="46">
@@ -1702,16 +1705,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>23461</v>
+        <v>18443</v>
       </c>
       <c r="C46" s="4">
-        <v>23125</v>
+        <v>16604</v>
       </c>
       <c r="D46" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E46" s="5">
-        <v>0.076905391424301639</v>
+        <v>0.061645098256092615</v>
       </c>
     </row>
     <row r="47">
@@ -1719,16 +1722,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>32977</v>
+        <v>23461</v>
       </c>
       <c r="C47" s="4">
-        <v>32585</v>
+        <v>23125</v>
       </c>
       <c r="D47" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E47" s="5">
-        <v>0.074000185580402708</v>
+        <v>0.07688329598345113</v>
       </c>
     </row>
     <row r="48">
@@ -1736,16 +1739,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>34488</v>
+        <v>32977</v>
       </c>
       <c r="C48" s="4">
-        <v>33613</v>
+        <v>32585</v>
       </c>
       <c r="D48" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E48" s="5">
-        <v>0.058695207580612176</v>
+        <v>0.074075792012616534</v>
       </c>
     </row>
     <row r="49">
@@ -1753,16 +1756,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>41561</v>
+        <v>34489</v>
       </c>
       <c r="C49" s="4">
-        <v>40066</v>
+        <v>33614</v>
       </c>
       <c r="D49" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E49" s="5">
-        <v>0.061262959472196045</v>
+        <v>0.058709281722774974</v>
       </c>
     </row>
     <row r="50">
@@ -1770,16 +1773,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>42287</v>
+        <v>41561</v>
       </c>
       <c r="C50" s="4">
-        <v>41168</v>
+        <v>40066</v>
       </c>
       <c r="D50" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E50" s="5">
-        <v>0.065389732786339944</v>
+        <v>0.061180241327300149</v>
       </c>
     </row>
     <row r="51">
@@ -1787,16 +1790,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>34304</v>
+        <v>42287</v>
       </c>
       <c r="C51" s="4">
-        <v>32855</v>
+        <v>41168</v>
       </c>
       <c r="D51" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E51" s="5">
-        <v>0.060729297450734208</v>
+        <v>0.065391545391545389</v>
       </c>
     </row>
     <row r="52">
@@ -1804,16 +1807,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>21658</v>
+        <v>34304</v>
       </c>
       <c r="C52" s="4">
-        <v>20526</v>
+        <v>32855</v>
       </c>
       <c r="D52" s="4">
-        <v>1132</v>
+        <v>1449</v>
       </c>
       <c r="E52" s="5">
-        <v>0.066369192695639137</v>
+        <v>0.060732612730647451</v>
       </c>
     </row>
     <row r="53">
@@ -1821,16 +1824,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>21640</v>
+        <v>21657</v>
       </c>
       <c r="C53" s="4">
-        <v>21362</v>
+        <v>20525</v>
       </c>
       <c r="D53" s="4">
-        <v>278</v>
+        <v>1132</v>
       </c>
       <c r="E53" s="5">
-        <v>0.067817626859977109</v>
+        <v>0.066361727654469099</v>
       </c>
     </row>
     <row r="54">
@@ -1838,16 +1841,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>32578</v>
+        <v>21640</v>
       </c>
       <c r="C54" s="4">
-        <v>32239</v>
+        <v>21362</v>
       </c>
       <c r="D54" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E54" s="5">
-        <v>0.069968312378615963</v>
+        <v>0.067782865865292877</v>
       </c>
     </row>
     <row r="55">
@@ -1855,16 +1858,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>37230</v>
+        <v>32578</v>
       </c>
       <c r="C55" s="4">
-        <v>36223</v>
+        <v>32239</v>
       </c>
       <c r="D55" s="4">
-        <v>1007</v>
+        <v>339</v>
       </c>
       <c r="E55" s="5">
-        <v>0.056530147109607014</v>
+        <v>0.069975465140053164</v>
       </c>
     </row>
     <row r="56">
@@ -1872,16 +1875,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>42460</v>
+        <v>37229</v>
       </c>
       <c r="C56" s="4">
-        <v>41185</v>
+        <v>36222</v>
       </c>
       <c r="D56" s="4">
-        <v>1275</v>
+        <v>1007</v>
       </c>
       <c r="E56" s="5">
-        <v>0.055497624840690533</v>
+        <v>0.056526243093922651</v>
       </c>
     </row>
     <row r="57">
@@ -1889,16 +1892,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>40907</v>
+        <v>42460</v>
       </c>
       <c r="C57" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D57" s="4">
-        <v>895</v>
+        <v>1275</v>
       </c>
       <c r="E57" s="5">
-        <v>0.05021324535286071</v>
+        <v>0.055504055619930479</v>
       </c>
     </row>
     <row r="58">
@@ -1906,16 +1909,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>34450</v>
+        <v>40908</v>
       </c>
       <c r="C58" s="4">
-        <v>33428</v>
+        <v>40013</v>
       </c>
       <c r="D58" s="4">
-        <v>1022</v>
+        <v>895</v>
       </c>
       <c r="E58" s="5">
-        <v>0.057362773189505029</v>
+        <v>0.050219980684622814</v>
       </c>
     </row>
     <row r="59">
@@ -1923,16 +1926,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C59" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D59" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E59" s="5">
-        <v>0.05682075258276148</v>
+        <v>0.057370831343241648</v>
       </c>
     </row>
     <row r="60">
@@ -1940,16 +1943,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C60" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D60" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E60" s="5">
-        <v>0.06479654747225648</v>
+        <v>0.056825037707390648</v>
       </c>
     </row>
     <row r="61">
@@ -1957,16 +1960,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C61" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D61" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E61" s="5">
-        <v>0.078733344869354557</v>
+        <v>0.064760613716187077</v>
       </c>
     </row>
     <row r="62">
@@ -1974,16 +1977,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C62" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D62" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E62" s="5">
-        <v>0.06206274947422636</v>
+        <v>0.078737886479003233</v>
       </c>
     </row>
     <row r="63">
@@ -1991,16 +1994,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C63" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D63" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E63" s="5">
-        <v>0.061189167175727956</v>
+        <v>0.062057422428221966</v>
       </c>
     </row>
     <row r="64">
@@ -2008,16 +2011,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>40628</v>
+        <v>36046</v>
       </c>
       <c r="C64" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D64" s="4">
-        <v>748</v>
+        <v>617</v>
       </c>
       <c r="E64" s="5">
-        <v>0.054699049630411826</v>
+        <v>0.061187090643771001</v>
       </c>
     </row>
     <row r="65">
@@ -2025,16 +2028,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>29245</v>
+        <v>40628</v>
       </c>
       <c r="C65" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D65" s="4">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="E65" s="5">
-        <v>0.054498657117278422</v>
+        <v>0.054684201001387461</v>
       </c>
     </row>
     <row r="66">
@@ -2042,16 +2045,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C66" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D66" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E66" s="5">
-        <v>0.057972480777013356</v>
+        <v>0.054500181853789555</v>
       </c>
     </row>
     <row r="67">
@@ -2059,16 +2062,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C67" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D67" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E67" s="5">
-        <v>0.066623164763458406</v>
+        <v>0.057978346655873723</v>
       </c>
     </row>
     <row r="68">
@@ -2076,16 +2079,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C68" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D68" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E68" s="5">
-        <v>0.060063758875525286</v>
+        <v>0.066614471194623867</v>
       </c>
     </row>
     <row r="69">
@@ -2093,16 +2096,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>31628</v>
+        <v>26010</v>
       </c>
       <c r="C69" s="4">
-        <v>31297</v>
+        <v>25913</v>
       </c>
       <c r="D69" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E69" s="5">
-        <v>0.053108535300316125</v>
+        <v>0.06005940737520829</v>
       </c>
     </row>
     <row r="70">
@@ -2110,16 +2113,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>36161</v>
+        <v>31628</v>
       </c>
       <c r="C70" s="4">
-        <v>35830</v>
+        <v>31297</v>
       </c>
       <c r="D70" s="4">
         <v>331</v>
       </c>
       <c r="E70" s="5">
-        <v>0.049577734468492493</v>
+        <v>0.053104058667341004</v>
       </c>
     </row>
     <row r="71">
@@ -2127,16 +2130,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C71" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D71" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E71" s="5">
-        <v>0.045750652937468106</v>
+        <v>0.049582820407604977</v>
       </c>
     </row>
     <row r="72">
@@ -2144,16 +2147,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C72" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D72" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E72" s="5">
-        <v>0.049113315299068226</v>
+        <v>0.045752026418492943</v>
       </c>
     </row>
     <row r="73">
@@ -2161,16 +2164,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C73" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D73" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E73" s="5">
-        <v>0.048549903983455614</v>
+        <v>0.049119220826068656</v>
       </c>
     </row>
     <row r="74">
@@ -2178,12 +2181,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C74" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D74" s="4">
+        <v>315</v>
+      </c>
       <c r="E74" s="5">
-        <v>0.054002697070001229</v>
+        <v>0.04854273335959039</v>
       </c>
     </row>
     <row r="75">
@@ -2191,12 +2198,12 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5">
-        <v>0.052754908169727673</v>
+        <v>0.054002697070001229</v>
       </c>
     </row>
     <row r="76">
@@ -2204,12 +2211,12 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5">
-        <v>0.052980738436198931</v>
+        <v>0.052761591081834307</v>
       </c>
     </row>
     <row r="77">
@@ -2217,12 +2224,12 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5">
-        <v>0.046153846153846156</v>
+        <v>0.05298316251830161</v>
       </c>
     </row>
     <row r="78">
@@ -2230,12 +2237,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.047234141635897946</v>
+        <v>0.046140821221955695</v>
       </c>
     </row>
     <row r="79">
@@ -2243,12 +2250,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.047520923154958157</v>
+        <v>0.04724199880231552</v>
       </c>
     </row>
     <row r="80">
@@ -2256,12 +2263,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.056909443367488231</v>
+        <v>0.047526949904882689</v>
       </c>
     </row>
     <row r="81">
@@ -2269,12 +2276,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.057139585480361847</v>
+        <v>0.056909443367488231</v>
       </c>
     </row>
     <row r="82">
@@ -2282,12 +2289,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.049512803081803759</v>
+        <v>0.057139585480361847</v>
       </c>
     </row>
     <row r="83">
@@ -2295,12 +2302,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.047581251566546912</v>
+        <v>0.04951560818083961</v>
       </c>
     </row>
     <row r="84">
@@ -2308,12 +2315,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.049765952204976593</v>
+        <v>0.047593180678589336</v>
       </c>
     </row>
     <row r="85">
@@ -2321,12 +2328,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.050185406322669851</v>
+        <v>0.049765952204976593</v>
       </c>
     </row>
     <row r="86">
@@ -2334,12 +2341,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.051566114967075992</v>
+        <v>0.050186983438609722</v>
       </c>
     </row>
     <row r="87">
@@ -2347,12 +2354,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.064252696456086292</v>
+        <v>0.051579884290164663</v>
       </c>
     </row>
     <row r="88">
@@ -2360,12 +2367,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.070713175617337254</v>
+        <v>0.064242797719919892</v>
       </c>
     </row>
     <row r="89">
@@ -2373,12 +2380,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.059188967777170948</v>
+        <v>0.070694864048338371</v>
       </c>
     </row>
     <row r="90">
@@ -2386,12 +2393,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.056567727505708029</v>
+        <v>0.059188967777170948</v>
       </c>
     </row>
     <row r="91">
@@ -2399,12 +2406,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.059780552402572837</v>
+        <v>0.056567727505708029</v>
       </c>
     </row>
     <row r="92">
@@ -2412,12 +2419,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.053369576026784236</v>
+        <v>0.059780552402572837</v>
       </c>
     </row>
     <row r="93">
@@ -2425,12 +2432,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.063285906225238567</v>
+        <v>0.053373114536714734</v>
       </c>
     </row>
     <row r="94">
@@ -2438,12 +2445,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.065576442464413784</v>
+        <v>0.06329680931706981</v>
       </c>
     </row>
     <row r="95">
@@ -2451,12 +2458,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.076376440460947506</v>
+        <v>0.065583568789393615</v>
       </c>
     </row>
     <row r="96">
@@ -2464,12 +2471,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.065827686350435621</v>
+        <v>0.076386221027020099</v>
       </c>
     </row>
     <row r="97">
@@ -2477,12 +2484,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.076967007863638359</v>
+        <v>0.065835184236004332</v>
       </c>
     </row>
     <row r="98">
@@ -2490,12 +2497,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.059792237075213403</v>
+        <v>0.076963626779124938</v>
       </c>
     </row>
     <row r="99">
@@ -2503,12 +2510,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.062679926720753731</v>
+        <v>0.059761597938144333</v>
       </c>
     </row>
     <row r="100">
@@ -2516,12 +2523,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.071002305710023056</v>
+        <v>0.062673775800595341</v>
       </c>
     </row>
     <row r="101">
@@ -2529,12 +2536,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.065337293169282981</v>
+        <v>0.071009528976906641</v>
       </c>
     </row>
     <row r="102">
@@ -2542,12 +2549,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.080314214126091965</v>
+        <v>0.065326899623521922</v>
       </c>
     </row>
     <row r="103">
@@ -2555,12 +2562,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.073050404184498333</v>
+        <v>0.080314214126091965</v>
       </c>
     </row>
     <row r="104">
@@ -2568,12 +2575,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.06420071565282516</v>
+        <v>0.073054746478036017</v>
       </c>
     </row>
     <row r="105">
@@ -2581,12 +2588,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.064084079526483539</v>
+        <v>0.064203387009528559</v>
       </c>
     </row>
     <row r="106">
@@ -2594,12 +2601,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.069087930092845445</v>
+        <v>0.064081648139014305</v>
       </c>
     </row>
     <row r="107">
@@ -2607,12 +2614,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.075873190685966013</v>
+        <v>0.069101408560614933</v>
       </c>
     </row>
     <row r="108">
@@ -2620,12 +2627,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.065403005464480871</v>
+        <v>0.075879159782865233</v>
       </c>
     </row>
     <row r="109">
@@ -2633,12 +2640,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.068988663484486873</v>
+        <v>0.065417900250512417</v>
       </c>
     </row>
     <row r="110">
@@ -2646,12 +2653,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.06313062448868284</v>
+        <v>0.068998955691481428</v>
       </c>
     </row>
     <row r="111">
@@ -2659,12 +2666,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.063835877862595425</v>
+        <v>0.063143539038527111</v>
       </c>
     </row>
     <row r="112">
@@ -2672,12 +2679,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.063731637405947686</v>
+        <v>0.0638419696535929</v>
       </c>
     </row>
     <row r="113">
@@ -2685,12 +2692,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.059337992216596226</v>
+        <v>0.063737346591418081</v>
       </c>
     </row>
     <row r="114">
@@ -2698,12 +2705,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.0642226148409894</v>
+        <v>0.059355378819589785</v>
       </c>
     </row>
     <row r="115">
@@ -2711,12 +2718,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.062057670936421595</v>
+        <v>0.06423112603260149</v>
       </c>
     </row>
     <row r="116">
@@ -2724,12 +2731,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.064181286549707603</v>
+        <v>0.062057670936421595</v>
       </c>
     </row>
     <row r="117">
@@ -2737,12 +2744,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.052499338799259457</v>
+        <v>0.064226216571679082</v>
       </c>
     </row>
     <row r="118">
@@ -2750,12 +2757,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.059571527297857634</v>
+        <v>0.052502810288963829</v>
       </c>
     </row>
     <row r="119">
@@ -2763,12 +2770,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.068161685859480625</v>
+        <v>0.059577017002257752</v>
       </c>
     </row>
     <row r="120">
@@ -2776,12 +2783,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.070814387971007975</v>
+        <v>0.068142624096947102</v>
       </c>
     </row>
     <row r="121">
@@ -2789,12 +2796,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.075735166173655818</v>
+        <v>0.070823953174245835</v>
       </c>
     </row>
     <row r="122">
@@ -2802,12 +2809,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.076664378860672622</v>
+        <v>0.075738460869186938</v>
       </c>
     </row>
     <row r="123">
@@ -2815,12 +2822,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.067836183504764308</v>
+        <v>0.076601002127805615</v>
       </c>
     </row>
     <row r="124">
@@ -2828,12 +2835,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.072976606614681361</v>
+        <v>0.067836183504764308</v>
       </c>
     </row>
     <row r="125">
@@ -2841,12 +2848,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.06862841907771304</v>
+        <v>0.072988382099827886</v>
       </c>
     </row>
     <row r="126">
@@ -2854,12 +2861,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.066710510090838088</v>
+        <v>0.068625030856578617</v>
       </c>
     </row>
     <row r="127">
@@ -2867,12 +2874,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.072368976284918562</v>
+        <v>0.066713252219664579</v>
       </c>
     </row>
     <row r="128">
@@ -2880,12 +2887,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.074919957310565638</v>
+        <v>0.072350658116773534</v>
       </c>
     </row>
     <row r="129">
@@ -2893,12 +2900,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.069491525423728814</v>
+        <v>0.074925288174185284</v>
       </c>
     </row>
     <row r="130">
@@ -2906,12 +2913,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.0718729064982295</v>
+        <v>0.069491525423728814</v>
       </c>
     </row>
     <row r="131">
@@ -2919,12 +2926,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.076761504678250908</v>
+        <v>0.071876345886969423</v>
       </c>
     </row>
     <row r="132">
@@ -2932,12 +2939,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.078436819928693793</v>
+        <v>0.076772499403198857</v>
       </c>
     </row>
     <row r="133">
@@ -2945,12 +2952,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.074728891514409895</v>
+        <v>0.078425925925925927</v>
       </c>
     </row>
     <row r="134">
@@ -2958,12 +2965,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.084687220161187154</v>
+        <v>0.074735198548339446</v>
       </c>
     </row>
     <row r="135">
@@ -2971,12 +2978,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.077974815587512111</v>
+        <v>0.084690831556503199</v>
       </c>
     </row>
     <row r="136">
@@ -2984,12 +2991,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.076079659879167594</v>
+        <v>0.077980625931445599</v>
       </c>
     </row>
     <row r="137">
@@ -2997,12 +3004,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.080797380585516179</v>
+        <v>0.076079659879167594</v>
       </c>
     </row>
     <row r="138">
@@ -3010,12 +3017,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.06939338235294118</v>
+        <v>0.080805162284503518</v>
       </c>
     </row>
     <row r="139">
@@ -3023,12 +3030,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.080758082497212932</v>
+        <v>0.069400469819221738</v>
       </c>
     </row>
     <row r="140">
@@ -3036,12 +3043,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.084315607602226922</v>
+        <v>0.080761683910096319</v>
       </c>
     </row>
     <row r="141">
@@ -3049,12 +3056,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.073110430892394634</v>
+        <v>0.084322082709365281</v>
       </c>
     </row>
     <row r="142">
@@ -3062,12 +3069,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.087222828925502108</v>
+        <v>0.073104693140794222</v>
       </c>
     </row>
     <row r="143">
@@ -3075,12 +3082,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.078351091052900945</v>
+        <v>0.087243541033434652</v>
       </c>
     </row>
     <row r="144">
@@ -3088,12 +3095,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.096202266051195973</v>
+        <v>0.078354736646193926</v>
       </c>
     </row>
     <row r="145">
@@ -3101,12 +3108,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.092324805339265847</v>
+        <v>0.096202266051195973</v>
       </c>
     </row>
     <row r="146">
@@ -3114,12 +3121,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.091257463684163626</v>
+        <v>0.092333736396614269</v>
       </c>
     </row>
     <row r="147">
@@ -3127,12 +3134,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.095756854488030396</v>
+        <v>0.091277800062396927</v>
       </c>
     </row>
     <row r="148">
@@ -3140,12 +3147,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.093532897425418884</v>
+        <v>0.095756854488030396</v>
       </c>
     </row>
     <row r="149">
@@ -3153,12 +3160,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.085313666575616856</v>
+        <v>0.093518565810306958</v>
       </c>
     </row>
     <row r="150">
@@ -3166,12 +3173,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.088499411655415861</v>
+        <v>0.085321435075578225</v>
       </c>
     </row>
     <row r="151">
@@ -3179,12 +3186,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.092132152588555852</v>
+        <v>0.088504892852718939</v>
       </c>
     </row>
     <row r="152">
@@ -3192,12 +3199,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.084283727399165509</v>
+        <v>0.092124308216262232</v>
       </c>
     </row>
     <row r="153">
@@ -3205,12 +3212,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.08920468115595892</v>
+        <v>0.084297796572446029</v>
       </c>
     </row>
     <row r="154">
@@ -3218,12 +3225,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.091590447154471538</v>
+        <v>0.089199355185384202</v>
       </c>
     </row>
     <row r="155">
@@ -3231,12 +3238,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.10446318277028842</v>
+        <v>0.091596265006669633</v>
       </c>
     </row>
     <row r="156">
@@ -3244,12 +3251,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.083299891073783175</v>
+        <v>0.1044687936405629</v>
       </c>
     </row>
     <row r="157">
@@ -3257,12 +3264,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.095659547405797865</v>
+        <v>0.083318997648947762</v>
       </c>
     </row>
     <row r="158">
@@ -3270,12 +3277,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.087808291061745675</v>
+        <v>0.095644340822382365</v>
       </c>
     </row>
     <row r="159">
@@ -3283,12 +3290,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.08190431901412544</v>
+        <v>0.08779293459251486</v>
       </c>
     </row>
     <row r="160">
@@ -3296,12 +3303,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.094733182687293582</v>
+        <v>0.081909080339495413</v>
       </c>
     </row>
     <row r="161">
@@ -3309,12 +3316,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.098966198164711347</v>
+        <v>0.094686214289853396</v>
       </c>
     </row>
     <row r="162">
@@ -3322,12 +3329,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.096620593876066405</v>
+        <v>0.098971946332113606</v>
       </c>
     </row>
     <row r="163">
@@ -3335,12 +3342,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.077411825726141081</v>
+        <v>0.096614204470308163</v>
       </c>
     </row>
     <row r="164">
@@ -3348,12 +3355,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.08245743893412287</v>
+        <v>0.077411825726141081</v>
       </c>
     </row>
     <row r="165">
@@ -3361,12 +3368,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.090370018975332062</v>
+        <v>0.082451335948486415</v>
       </c>
     </row>
     <row r="166">
@@ -3374,12 +3381,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.084144592860916162</v>
+        <v>0.090370018975332062</v>
       </c>
     </row>
     <row r="167">
@@ -3387,12 +3394,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.094262295081967207</v>
+        <v>0.084150943396226419</v>
       </c>
     </row>
     <row r="168">
@@ -3400,12 +3407,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.095636025998142984</v>
+        <v>0.094255396999634103</v>
       </c>
     </row>
     <row r="169">
@@ -3413,12 +3420,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095629195829167263</v>
       </c>
     </row>
     <row r="170">
@@ -3426,12 +3433,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.082752613240418119</v>
+        <v>0.085699045812837077</v>
       </c>
     </row>
     <row r="171">
@@ -3439,12 +3446,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.08050395045910741</v>
+        <v>0.082763704597238974</v>
       </c>
     </row>
     <row r="172">
@@ -3452,12 +3459,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="173">
@@ -3465,12 +3472,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.082543182653436242</v>
+        <v>0.090532036613272318</v>
       </c>
     </row>
     <row r="174">
@@ -3478,12 +3485,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.091550309486109108</v>
+        <v>0.082543182653436242</v>
       </c>
     </row>
     <row r="175">
@@ -3491,12 +3498,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.092541052045644306</v>
+        <v>0.091543720762864336</v>
       </c>
     </row>
     <row r="176">
@@ -3504,12 +3511,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.098428343100692595</v>
+        <v>0.092541052045644306</v>
       </c>
     </row>
     <row r="177">
@@ -3517,12 +3524,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.084523634221764093</v>
+        <v>0.09843489843489843</v>
       </c>
     </row>
     <row r="178">
@@ -3530,12 +3537,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.076464646464646471</v>
+        <v>0.084523634221764093</v>
       </c>
     </row>
     <row r="179">
@@ -3543,12 +3550,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.086851263428657885</v>
+        <v>0.076472370946560259</v>
       </c>
     </row>
     <row r="180">
@@ -3556,12 +3563,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.090085597939001075</v>
+        <v>0.086877554109278041</v>
       </c>
     </row>
     <row r="181">
@@ -3569,12 +3576,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.093477088948787063</v>
+        <v>0.090085597939001075</v>
       </c>
     </row>
     <row r="182">
@@ -3582,12 +3589,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.097682119205298013</v>
+        <v>0.093467011642949543</v>
       </c>
     </row>
     <row r="183">
@@ -3595,12 +3602,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.086324435318275147</v>
+        <v>0.097673135289248592</v>
       </c>
     </row>
     <row r="184">
@@ -3608,12 +3615,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.089438468705005505</v>
+        <v>0.086324435318275147</v>
       </c>
     </row>
     <row r="185">
@@ -3621,12 +3628,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.078024959305480202</v>
+        <v>0.089438468705005505</v>
       </c>
     </row>
     <row r="186">
@@ -3634,12 +3641,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.078522336769759449</v>
+        <v>0.078008028642725394</v>
       </c>
     </row>
     <row r="187">
@@ -3647,12 +3654,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.081061007957559675</v>
+        <v>0.078535830898779857</v>
       </c>
     </row>
     <row r="188">
@@ -3660,12 +3667,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.081812888198757761</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="189">
@@ -3673,12 +3680,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.099318831026148094</v>
+        <v>0.081804949053857351</v>
       </c>
     </row>
     <row r="190">
@@ -3686,12 +3693,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.089950935853171002</v>
+        <v>0.099318831026148094</v>
       </c>
     </row>
     <row r="191">
@@ -3699,12 +3706,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.076494503839783165</v>
+        <v>0.089959109495683781</v>
       </c>
     </row>
     <row r="192">
@@ -3712,12 +3719,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.070535428021801863</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="193">
@@ -3725,12 +3732,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.076383623957543598</v>
+        <v>0.070546737213403876</v>
       </c>
     </row>
     <row r="194">
@@ -3738,12 +3745,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.081896551724137928</v>
+        <v>0.076383623957543598</v>
       </c>
     </row>
     <row r="195">
@@ -3751,12 +3758,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.08187221396731055</v>
       </c>
     </row>
     <row r="196">
@@ -3764,12 +3771,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.097244142284812429</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="197">
@@ -3777,12 +3784,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.082809751193767281</v>
+        <v>0.097255949490043708</v>
       </c>
     </row>
     <row r="198">
@@ -3790,12 +3797,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082809751193767281</v>
       </c>
     </row>
     <row r="199">
@@ -3803,12 +3810,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.063018242122719739</v>
+        <v>0.07316794329484394</v>
       </c>
     </row>
     <row r="200">
@@ -3816,12 +3823,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.05596579867858531</v>
+        <v>0.063006632277081795</v>
       </c>
     </row>
     <row r="201">
@@ -3829,12 +3836,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.061016949152542375</v>
+        <v>0.055782312925170066</v>
       </c>
     </row>
     <row r="202">
@@ -3842,12 +3849,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.061007548913880758</v>
       </c>
     </row>
     <row r="203">
@@ -3855,12 +3862,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.068548387096774188</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="204">
@@ -3868,12 +3875,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.067115314659876316</v>
+        <v>0.068572430726061034</v>
       </c>
     </row>
     <row r="205">
@@ -3881,12 +3888,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.071950625304531432</v>
+        <v>0.067115314659876316</v>
       </c>
     </row>
     <row r="206">
@@ -3894,12 +3901,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.054350536025928695</v>
+        <v>0.071962313190383362</v>
       </c>
     </row>
     <row r="207">
@@ -3907,12 +3914,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.041297935103244837</v>
+        <v>0.054350536025928695</v>
       </c>
     </row>
     <row r="208">
@@ -3920,12 +3927,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.06471716203259828</v>
+        <v>0.041297935103244837</v>
       </c>
     </row>
     <row r="209">
@@ -3933,12 +3940,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.08254716981132075</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="210">
@@ -3946,12 +3953,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.072653644592663172</v>
+        <v>0.08254716981132075</v>
       </c>
     </row>
     <row r="211">
@@ -3959,12 +3966,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.083131201764057333</v>
+        <v>0.072670955444365026</v>
       </c>
     </row>
     <row r="212">
@@ -3972,12 +3979,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.080540445692226709</v>
+        <v>0.083131201764057333</v>
       </c>
     </row>
     <row r="213">
@@ -3985,12 +3992,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.071428571428571425</v>
+        <v>0.080498070852332515</v>
       </c>
     </row>
     <row r="214">
@@ -3998,12 +4005,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.064941921858500534</v>
+        <v>0.071119973413094048</v>
       </c>
     </row>
     <row r="215">
@@ -4011,12 +4018,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.063349917081260365</v>
+        <v>0.064941921858500534</v>
       </c>
     </row>
     <row r="216">
@@ -4024,12 +4031,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.077615008995116933</v>
+        <v>0.063349917081260365</v>
       </c>
     </row>
     <row r="217">
@@ -4037,12 +4044,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.070080862533692723</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="218">
@@ -4050,12 +4057,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.070080862533692723</v>
       </c>
     </row>
     <row r="219">
@@ -4063,12 +4070,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.073814201515576758</v>
       </c>
     </row>
     <row r="220">
@@ -4076,12 +4083,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.079960994636762553</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="221">
@@ -4089,12 +4096,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.079960994636762553</v>
       </c>
     </row>
     <row r="222">
@@ -4102,12 +4109,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.12940735183795948</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="223">
@@ -4115,12 +4122,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12940735183795948</v>
       </c>
     </row>
     <row r="224">
@@ -4128,12 +4135,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="225">
@@ -4141,12 +4148,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.11592178770949721</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="226">
@@ -4154,12 +4161,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.10545454545454545</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="227">
@@ -4167,12 +4174,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10545454545454545</v>
       </c>
     </row>
     <row r="228">
@@ -4180,12 +4187,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.089660743134087242</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="229">
@@ -4193,12 +4200,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.12859712230215828</v>
+        <v>0.089733225545675019</v>
       </c>
     </row>
     <row r="230">
@@ -4206,12 +4213,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.13942307692307693</v>
+        <v>0.12859712230215828</v>
       </c>
     </row>
     <row r="231">
@@ -4219,12 +4226,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13947895791583168</v>
       </c>
     </row>
     <row r="232">
@@ -4232,12 +4239,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.15919282511210761</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="233">
@@ -4245,12 +4252,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="234">
@@ -4258,12 +4265,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="235">
@@ -4271,12 +4278,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="236">
@@ -4284,12 +4291,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.16280384397964953</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="237">
@@ -4297,12 +4304,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.11283185840707964</v>
+        <v>0.16298811544991512</v>
       </c>
     </row>
     <row r="238">
@@ -4310,12 +4317,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.084123711340206186</v>
+        <v>0.11283185840707964</v>
       </c>
     </row>
     <row r="239">
@@ -4323,12 +4330,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.084193148988856784</v>
       </c>
     </row>
     <row r="240">
@@ -4336,12 +4343,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.090229312063808575</v>
+        <v>0.091774891774891773</v>
       </c>
     </row>
     <row r="241">
@@ -4349,12 +4356,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090229312063808575</v>
       </c>
     </row>
     <row r="242">
@@ -4362,12 +4369,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="243">
@@ -4375,12 +4382,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.082042833607907747</v>
+        <v>0.078732597215554492</v>
       </c>
     </row>
     <row r="244">
@@ -4388,12 +4395,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.082042833607907747</v>
       </c>
     </row>
     <row r="245">
@@ -4401,12 +4408,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.080711354309165526</v>
+        <v>0.084658040665434378</v>
       </c>
     </row>
     <row r="246">
@@ -4414,12 +4421,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.068143100511073251</v>
+        <v>0.080738966814916185</v>
       </c>
     </row>
     <row r="247">
@@ -4427,12 +4434,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.074616695059625218</v>
+        <v>0.068166325835037497</v>
       </c>
     </row>
     <row r="248">
@@ -4440,18 +4447,20 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="5"/>
+      <c r="E248" s="5">
+        <v>0.074616695059625218</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -4462,7 +4471,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -4473,7 +4482,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -4484,7 +4493,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4495,7 +4504,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4506,7 +4515,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4517,7 +4526,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4528,7 +4537,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4539,7 +4548,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4550,7 +4559,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4561,7 +4570,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4572,7 +4581,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4583,7 +4592,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4594,7 +4603,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4605,7 +4614,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4615,7 +4624,9 @@
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B264" s="4"/>
+      <c r="B264" s="4">
+        <v>936</v>
+      </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="5"/>
@@ -4737,6 +4748,15 @@
       <c r="D277" s="4"/>
       <c r="E277" s="5"/>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+  <si>
+    <t>12/6/2020</t>
+  </si>
+  <si>
+    <t>12/5/2020</t>
+  </si>
+  <si>
+    <t>12/4/2020</t>
+  </si>
   <si>
     <t>12/3/2020</t>
   </si>
@@ -942,24 +951,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E281"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -976,13 +985,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>43652</v>
+        <v>46942</v>
       </c>
       <c r="C3" s="4">
-        <v>39285</v>
+        <v>44324</v>
       </c>
       <c r="D3" s="4">
-        <v>4367</v>
+        <v>2618</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -991,16 +1000,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>29813</v>
+        <v>59193</v>
       </c>
       <c r="C4" s="4">
-        <v>24364</v>
+        <v>54135</v>
       </c>
       <c r="D4" s="4">
-        <v>5449</v>
+        <v>5058</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10119282483989438</v>
+        <v>0.10373272839760775</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1017,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>23301</v>
+        <v>56479</v>
       </c>
       <c r="C5" s="4">
-        <v>21905</v>
+        <v>50033</v>
       </c>
       <c r="D5" s="4">
-        <v>1396</v>
+        <v>6446</v>
       </c>
       <c r="E5" s="5">
-        <v>0.11824396042966925</v>
+        <v>0.10086646490609842</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1034,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>34551</v>
+        <v>50841</v>
       </c>
       <c r="C6" s="4">
-        <v>33348</v>
+        <v>45933</v>
       </c>
       <c r="D6" s="4">
-        <v>1203</v>
+        <v>4908</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10112677384376031</v>
+        <v>0.10191386567690298</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1051,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>41081</v>
+        <v>31608</v>
       </c>
       <c r="C7" s="4">
-        <v>38954</v>
+        <v>25446</v>
       </c>
       <c r="D7" s="4">
-        <v>2127</v>
+        <v>6162</v>
       </c>
       <c r="E7" s="5">
-        <v>0.092023979793676394</v>
+        <v>0.10149482357912529</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1068,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>41219</v>
+        <v>24232</v>
       </c>
       <c r="C8" s="4">
-        <v>40302</v>
+        <v>22719</v>
       </c>
       <c r="D8" s="4">
-        <v>917</v>
+        <v>1513</v>
       </c>
       <c r="E8" s="5">
-        <v>0.086569669837716842</v>
+        <v>0.11377147976219562</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1085,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>65502</v>
+        <v>34889</v>
       </c>
       <c r="C9" s="4">
-        <v>60640</v>
+        <v>33398</v>
       </c>
       <c r="D9" s="4">
-        <v>4862</v>
+        <v>1491</v>
       </c>
       <c r="E9" s="5">
-        <v>0.076477009141765584</v>
+        <v>0.099949934003914248</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1102,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>49496</v>
+        <v>41393</v>
       </c>
       <c r="C10" s="4">
-        <v>44146</v>
+        <v>38992</v>
       </c>
       <c r="D10" s="4">
-        <v>5350</v>
+        <v>2401</v>
       </c>
       <c r="E10" s="5">
-        <v>0.069825254076186297</v>
+        <v>0.091492337630746781</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1119,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>51402</v>
+        <v>41416</v>
       </c>
       <c r="C11" s="4">
-        <v>45221</v>
+        <v>40398</v>
       </c>
       <c r="D11" s="4">
-        <v>6181</v>
+        <v>1018</v>
       </c>
       <c r="E11" s="5">
-        <v>0.079054705460658042</v>
+        <v>0.086544111474859395</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1136,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41350</v>
+        <v>66001</v>
       </c>
       <c r="C12" s="4">
-        <v>39867</v>
+        <v>60825</v>
       </c>
       <c r="D12" s="4">
-        <v>1483</v>
+        <v>5176</v>
       </c>
       <c r="E12" s="5">
-        <v>0.072171018365452116</v>
+        <v>0.076469785220240269</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1153,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>42186</v>
+        <v>49996</v>
       </c>
       <c r="C13" s="4">
-        <v>40729</v>
+        <v>44321</v>
       </c>
       <c r="D13" s="4">
-        <v>1457</v>
+        <v>5675</v>
       </c>
       <c r="E13" s="5">
-        <v>0.065808546413869073</v>
+        <v>0.069752567523116843</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>53118</v>
+        <v>51699</v>
       </c>
       <c r="C14" s="4">
-        <v>49254</v>
+        <v>45409</v>
       </c>
       <c r="D14" s="4">
-        <v>3864</v>
+        <v>6290</v>
       </c>
       <c r="E14" s="5">
-        <v>0.068601930004470041</v>
+        <v>0.078972078082530275</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1187,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>58111</v>
+        <v>41472</v>
       </c>
       <c r="C15" s="4">
-        <v>53005</v>
+        <v>39898</v>
       </c>
       <c r="D15" s="4">
-        <v>5106</v>
+        <v>1574</v>
       </c>
       <c r="E15" s="5">
-        <v>0.0692179772368961</v>
+        <v>0.072055563096692463</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1204,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>53773</v>
+        <v>42262</v>
       </c>
       <c r="C16" s="4">
-        <v>49819</v>
+        <v>40805</v>
       </c>
       <c r="D16" s="4">
-        <v>3954</v>
+        <v>1457</v>
       </c>
       <c r="E16" s="5">
-        <v>0.072923855532551179</v>
+        <v>0.065662563359884143</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1221,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>50118</v>
+        <v>53356</v>
       </c>
       <c r="C17" s="4">
-        <v>45607</v>
+        <v>49258</v>
       </c>
       <c r="D17" s="4">
-        <v>4511</v>
+        <v>4098</v>
       </c>
       <c r="E17" s="5">
-        <v>0.079044658236356757</v>
+        <v>0.068535252705684571</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1238,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>34997</v>
+        <v>58267</v>
       </c>
       <c r="C18" s="4">
-        <v>30563</v>
+        <v>53079</v>
       </c>
       <c r="D18" s="4">
-        <v>4434</v>
+        <v>5188</v>
       </c>
       <c r="E18" s="5">
-        <v>0.077405186665679665</v>
+        <v>0.069262011752506056</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1255,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>29497</v>
+        <v>53742</v>
       </c>
       <c r="C19" s="4">
-        <v>28638</v>
+        <v>49787</v>
       </c>
       <c r="D19" s="4">
-        <v>859</v>
+        <v>3955</v>
       </c>
       <c r="E19" s="5">
-        <v>0.0873624541513838</v>
+        <v>0.072916666666666671</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1272,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>35680</v>
+        <v>50262</v>
       </c>
       <c r="C20" s="4">
-        <v>34657</v>
+        <v>45749</v>
       </c>
       <c r="D20" s="4">
-        <v>1023</v>
+        <v>4513</v>
       </c>
       <c r="E20" s="5">
-        <v>0.087445818586710147</v>
+        <v>0.078988808868918889</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1289,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>40949</v>
+        <v>35205</v>
       </c>
       <c r="C21" s="4">
-        <v>38377</v>
+        <v>30684</v>
       </c>
       <c r="D21" s="4">
-        <v>2572</v>
+        <v>4521</v>
       </c>
       <c r="E21" s="5">
-        <v>0.080513275962392425</v>
+        <v>0.077344250974202139</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1306,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>48224</v>
+        <v>29526</v>
       </c>
       <c r="C22" s="4">
-        <v>44441</v>
+        <v>28666</v>
       </c>
       <c r="D22" s="4">
-        <v>3783</v>
+        <v>860</v>
       </c>
       <c r="E22" s="5">
-        <v>0.077423316308018644</v>
+        <v>0.087254218802072292</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1323,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>46489</v>
+        <v>35702</v>
       </c>
       <c r="C23" s="4">
-        <v>43311</v>
+        <v>34678</v>
       </c>
       <c r="D23" s="4">
-        <v>3178</v>
+        <v>1024</v>
       </c>
       <c r="E23" s="5">
-        <v>0.077992336013224139</v>
+        <v>0.08720514653323802</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1340,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>41394</v>
+        <v>40953</v>
       </c>
       <c r="C24" s="4">
-        <v>37711</v>
+        <v>38377</v>
       </c>
       <c r="D24" s="4">
-        <v>3683</v>
+        <v>2576</v>
       </c>
       <c r="E24" s="5">
-        <v>0.076102490812576556</v>
+        <v>0.08044183342512698</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1357,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>29267</v>
+        <v>48263</v>
       </c>
       <c r="C25" s="4">
-        <v>25792</v>
+        <v>44479</v>
       </c>
       <c r="D25" s="4">
-        <v>3475</v>
+        <v>3784</v>
       </c>
       <c r="E25" s="5">
-        <v>0.07716772197646514</v>
+        <v>0.077365175906034644</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1374,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>26352</v>
+        <v>46504</v>
       </c>
       <c r="C26" s="4">
-        <v>25612</v>
+        <v>43323</v>
       </c>
       <c r="D26" s="4">
-        <v>740</v>
+        <v>3181</v>
       </c>
       <c r="E26" s="5">
-        <v>0.080912114775778463</v>
+        <v>0.077990382688839913</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1391,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>34444</v>
+        <v>41464</v>
       </c>
       <c r="C27" s="4">
-        <v>33674</v>
+        <v>37781</v>
       </c>
       <c r="D27" s="4">
-        <v>770</v>
+        <v>3683</v>
       </c>
       <c r="E27" s="5">
-        <v>0.075354850375192114</v>
+        <v>0.076079191754260644</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1408,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>40125</v>
+        <v>29462</v>
       </c>
       <c r="C28" s="4">
-        <v>38160</v>
+        <v>25888</v>
       </c>
       <c r="D28" s="4">
-        <v>1965</v>
+        <v>3574</v>
       </c>
       <c r="E28" s="5">
-        <v>0.065280202251249017</v>
+        <v>0.077107528745594262</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1425,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>44882</v>
+        <v>26386</v>
       </c>
       <c r="C29" s="4">
-        <v>41797</v>
+        <v>25646</v>
       </c>
       <c r="D29" s="4">
-        <v>3085</v>
+        <v>740</v>
       </c>
       <c r="E29" s="5">
-        <v>0.058868753432180121</v>
+        <v>0.080857028434120945</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1442,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>47557</v>
+        <v>34480</v>
       </c>
       <c r="C30" s="4">
-        <v>45090</v>
+        <v>33710</v>
       </c>
       <c r="D30" s="4">
-        <v>2467</v>
+        <v>770</v>
       </c>
       <c r="E30" s="5">
-        <v>0.066584684753926163</v>
+        <v>0.075266389741737397</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1459,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>43250</v>
+        <v>40126</v>
       </c>
       <c r="C31" s="4">
-        <v>40487</v>
+        <v>38161</v>
       </c>
       <c r="D31" s="4">
-        <v>2763</v>
+        <v>1965</v>
       </c>
       <c r="E31" s="5">
-        <v>0.064345193035579104</v>
+        <v>0.065238968929527477</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1476,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>25512</v>
+        <v>44916</v>
       </c>
       <c r="C32" s="4">
-        <v>22373</v>
+        <v>41831</v>
       </c>
       <c r="D32" s="4">
-        <v>3139</v>
+        <v>3085</v>
       </c>
       <c r="E32" s="5">
-        <v>0.065420845654360876</v>
+        <v>0.058918770581778267</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1493,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>26650</v>
+        <v>47591</v>
       </c>
       <c r="C33" s="4">
-        <v>26087</v>
+        <v>45124</v>
       </c>
       <c r="D33" s="4">
-        <v>563</v>
+        <v>2467</v>
       </c>
       <c r="E33" s="5">
-        <v>0.07451239124159828</v>
+        <v>0.066540313492470041</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1510,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>33579</v>
+        <v>43316</v>
       </c>
       <c r="C34" s="4">
-        <v>32758</v>
+        <v>40553</v>
       </c>
       <c r="D34" s="4">
-        <v>821</v>
+        <v>2763</v>
       </c>
       <c r="E34" s="5">
-        <v>0.067879457644408558</v>
+        <v>0.064276824715097977</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1527,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>39048</v>
+        <v>25525</v>
       </c>
       <c r="C35" s="4">
-        <v>37188</v>
+        <v>22386</v>
       </c>
       <c r="D35" s="4">
-        <v>1860</v>
+        <v>3139</v>
       </c>
       <c r="E35" s="5">
-        <v>0.063473618090452266</v>
+        <v>0.065398915097214599</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1544,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>45059</v>
+        <v>26673</v>
       </c>
       <c r="C36" s="4">
-        <v>42054</v>
+        <v>26110</v>
       </c>
       <c r="D36" s="4">
-        <v>3005</v>
+        <v>563</v>
       </c>
       <c r="E36" s="5">
-        <v>0.059552634613167302</v>
+        <v>0.074481678413915342</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1561,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>45528</v>
+        <v>33589</v>
       </c>
       <c r="C37" s="4">
-        <v>43051</v>
+        <v>32768</v>
       </c>
       <c r="D37" s="4">
-        <v>2477</v>
+        <v>821</v>
       </c>
       <c r="E37" s="5">
-        <v>0.060473028590243103</v>
+        <v>0.067808131877469521</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1578,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>38786</v>
+        <v>39052</v>
       </c>
       <c r="C38" s="4">
-        <v>36621</v>
+        <v>37192</v>
       </c>
       <c r="D38" s="4">
-        <v>2165</v>
+        <v>1860</v>
       </c>
       <c r="E38" s="5">
-        <v>0.059395690381605873</v>
+        <v>0.063416318714092867</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1595,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>23935</v>
+        <v>45095</v>
       </c>
       <c r="C39" s="4">
-        <v>21589</v>
+        <v>42090</v>
       </c>
       <c r="D39" s="4">
-        <v>2346</v>
+        <v>3005</v>
       </c>
       <c r="E39" s="5">
-        <v>0.064208919564640296</v>
+        <v>0.059553993315662093</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1612,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>25467</v>
+        <v>45528</v>
       </c>
       <c r="C40" s="4">
-        <v>25050</v>
+        <v>43051</v>
       </c>
       <c r="D40" s="4">
-        <v>417</v>
+        <v>2477</v>
       </c>
       <c r="E40" s="5">
-        <v>0.070272276079595533</v>
+        <v>0.060478006750267543</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1629,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>30514</v>
+        <v>38835</v>
       </c>
       <c r="C41" s="4">
-        <v>30031</v>
+        <v>36670</v>
       </c>
       <c r="D41" s="4">
-        <v>483</v>
+        <v>2165</v>
       </c>
       <c r="E41" s="5">
-        <v>0.074918161853064269</v>
+        <v>0.059393063583815027</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1646,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>37816</v>
+        <v>23935</v>
       </c>
       <c r="C42" s="4">
-        <v>36631</v>
+        <v>21589</v>
       </c>
       <c r="D42" s="4">
-        <v>1185</v>
+        <v>2346</v>
       </c>
       <c r="E42" s="5">
-        <v>0.062129341993787064</v>
+        <v>0.064234786934173435</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1663,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>40625</v>
+        <v>25467</v>
       </c>
       <c r="C43" s="4">
-        <v>38715</v>
+        <v>25050</v>
       </c>
       <c r="D43" s="4">
-        <v>1910</v>
+        <v>417</v>
       </c>
       <c r="E43" s="5">
-        <v>0.063897666504618381</v>
+        <v>0.070305616101655616</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1680,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>46374</v>
+        <v>30514</v>
       </c>
       <c r="C44" s="4">
-        <v>44983</v>
+        <v>30031</v>
       </c>
       <c r="D44" s="4">
-        <v>1391</v>
+        <v>483</v>
       </c>
       <c r="E44" s="5">
-        <v>0.063652210659764411</v>
+        <v>0.074915057595094064</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1697,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>36459</v>
+        <v>37818</v>
       </c>
       <c r="C45" s="4">
-        <v>34715</v>
+        <v>36633</v>
       </c>
       <c r="D45" s="4">
-        <v>1744</v>
+        <v>1185</v>
       </c>
       <c r="E45" s="5">
-        <v>0.059153064602378347</v>
+        <v>0.062146892655367235</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1714,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>18443</v>
+        <v>40652</v>
       </c>
       <c r="C46" s="4">
-        <v>16604</v>
+        <v>38742</v>
       </c>
       <c r="D46" s="4">
-        <v>1839</v>
+        <v>1910</v>
       </c>
       <c r="E46" s="5">
-        <v>0.061645098256092615</v>
+        <v>0.064231317697745691</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1731,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>23461</v>
+        <v>46374</v>
       </c>
       <c r="C47" s="4">
-        <v>23125</v>
+        <v>44983</v>
       </c>
       <c r="D47" s="4">
-        <v>336</v>
+        <v>1391</v>
       </c>
       <c r="E47" s="5">
-        <v>0.07688329598345113</v>
+        <v>0.063609272396423958</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1748,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>32977</v>
+        <v>36504</v>
       </c>
       <c r="C48" s="4">
-        <v>32585</v>
+        <v>34760</v>
       </c>
       <c r="D48" s="4">
-        <v>392</v>
+        <v>1744</v>
       </c>
       <c r="E48" s="5">
-        <v>0.074075792012616534</v>
+        <v>0.058750127330141594</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1765,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>34489</v>
+        <v>18443</v>
       </c>
       <c r="C49" s="4">
-        <v>33614</v>
+        <v>16604</v>
       </c>
       <c r="D49" s="4">
-        <v>875</v>
+        <v>1839</v>
       </c>
       <c r="E49" s="5">
-        <v>0.058709281722774974</v>
+        <v>0.061642825541955465</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1782,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>41561</v>
+        <v>23462</v>
       </c>
       <c r="C50" s="4">
-        <v>40066</v>
+        <v>23126</v>
       </c>
       <c r="D50" s="4">
-        <v>1495</v>
+        <v>336</v>
       </c>
       <c r="E50" s="5">
-        <v>0.061180241327300149</v>
+        <v>0.076936336474373701</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1799,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>42287</v>
+        <v>32977</v>
       </c>
       <c r="C51" s="4">
-        <v>41168</v>
+        <v>32585</v>
       </c>
       <c r="D51" s="4">
-        <v>1119</v>
+        <v>392</v>
       </c>
       <c r="E51" s="5">
-        <v>0.065391545391545389</v>
+        <v>0.074082664563714803</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1816,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>34304</v>
+        <v>34489</v>
       </c>
       <c r="C52" s="4">
-        <v>32855</v>
+        <v>33614</v>
       </c>
       <c r="D52" s="4">
-        <v>1449</v>
+        <v>875</v>
       </c>
       <c r="E52" s="5">
-        <v>0.060732612730647451</v>
+        <v>0.058711282243500189</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1833,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>21657</v>
+        <v>41560</v>
       </c>
       <c r="C53" s="4">
-        <v>20525</v>
+        <v>40065</v>
       </c>
       <c r="D53" s="4">
-        <v>1132</v>
+        <v>1495</v>
       </c>
       <c r="E53" s="5">
-        <v>0.066361727654469099</v>
+        <v>0.061178318931657504</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1850,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>21640</v>
+        <v>42287</v>
       </c>
       <c r="C54" s="4">
-        <v>21362</v>
+        <v>41168</v>
       </c>
       <c r="D54" s="4">
-        <v>278</v>
+        <v>1119</v>
       </c>
       <c r="E54" s="5">
-        <v>0.067782865865292877</v>
+        <v>0.065402423133438692</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1867,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>32578</v>
+        <v>34303</v>
       </c>
       <c r="C55" s="4">
-        <v>32239</v>
+        <v>32854</v>
       </c>
       <c r="D55" s="4">
-        <v>339</v>
+        <v>1449</v>
       </c>
       <c r="E55" s="5">
-        <v>0.069975465140053164</v>
+        <v>0.060718575952822977</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1884,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>37229</v>
+        <v>21671</v>
       </c>
       <c r="C56" s="4">
-        <v>36222</v>
+        <v>20538</v>
       </c>
       <c r="D56" s="4">
-        <v>1007</v>
+        <v>1133</v>
       </c>
       <c r="E56" s="5">
-        <v>0.056526243093922651</v>
+        <v>0.066364215814930072</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1901,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>42460</v>
+        <v>21641</v>
       </c>
       <c r="C57" s="4">
-        <v>41185</v>
+        <v>21363</v>
       </c>
       <c r="D57" s="4">
-        <v>1275</v>
+        <v>278</v>
       </c>
       <c r="E57" s="5">
-        <v>0.055504055619930479</v>
+        <v>0.067798226375512541</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1918,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>40908</v>
+        <v>32579</v>
       </c>
       <c r="C58" s="4">
-        <v>40013</v>
+        <v>32240</v>
       </c>
       <c r="D58" s="4">
-        <v>895</v>
+        <v>339</v>
       </c>
       <c r="E58" s="5">
-        <v>0.050219980684622814</v>
+        <v>0.069924350848497241</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1935,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>34450</v>
+        <v>37232</v>
       </c>
       <c r="C59" s="4">
-        <v>33428</v>
+        <v>36223</v>
       </c>
       <c r="D59" s="4">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E59" s="5">
-        <v>0.057370831343241648</v>
+        <v>0.056467747499137633</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1952,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>17807</v>
+        <v>42460</v>
       </c>
       <c r="C60" s="4">
-        <v>16892</v>
+        <v>41185</v>
       </c>
       <c r="D60" s="4">
-        <v>915</v>
+        <v>1275</v>
       </c>
       <c r="E60" s="5">
-        <v>0.056825037707390648</v>
+        <v>0.05550566354761146</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1969,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>18049</v>
+        <v>40909</v>
       </c>
       <c r="C61" s="4">
-        <v>17796</v>
+        <v>40012</v>
       </c>
       <c r="D61" s="4">
-        <v>253</v>
+        <v>897</v>
       </c>
       <c r="E61" s="5">
-        <v>0.064760613716187077</v>
+        <v>0.050207969944988592</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1986,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>26991</v>
+        <v>34450</v>
       </c>
       <c r="C62" s="4">
-        <v>26698</v>
+        <v>33428</v>
       </c>
       <c r="D62" s="4">
-        <v>293</v>
+        <v>1022</v>
       </c>
       <c r="E62" s="5">
-        <v>0.078737886479003233</v>
+        <v>0.05739663265592939</v>
       </c>
     </row>
     <row r="63">
@@ -1994,16 +2003,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>32527</v>
+        <v>17807</v>
       </c>
       <c r="C63" s="4">
-        <v>31892</v>
+        <v>16892</v>
       </c>
       <c r="D63" s="4">
-        <v>635</v>
+        <v>915</v>
       </c>
       <c r="E63" s="5">
-        <v>0.062057422428221966</v>
+        <v>0.056818610262790788</v>
       </c>
     </row>
     <row r="64">
@@ -2011,16 +2020,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>36046</v>
+        <v>18049</v>
       </c>
       <c r="C64" s="4">
-        <v>35429</v>
+        <v>17796</v>
       </c>
       <c r="D64" s="4">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="E64" s="5">
-        <v>0.061187090643771001</v>
+        <v>0.064776579352850541</v>
       </c>
     </row>
     <row r="65">
@@ -2028,16 +2037,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>40628</v>
+        <v>26991</v>
       </c>
       <c r="C65" s="4">
-        <v>39880</v>
+        <v>26698</v>
       </c>
       <c r="D65" s="4">
-        <v>748</v>
+        <v>293</v>
       </c>
       <c r="E65" s="5">
-        <v>0.054684201001387461</v>
+        <v>0.078737886479003233</v>
       </c>
     </row>
     <row r="66">
@@ -2045,16 +2054,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>29245</v>
+        <v>32527</v>
       </c>
       <c r="C66" s="4">
-        <v>28581</v>
+        <v>31892</v>
       </c>
       <c r="D66" s="4">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E66" s="5">
-        <v>0.054500181853789555</v>
+        <v>0.06206807743486286</v>
       </c>
     </row>
     <row r="67">
@@ -2062,16 +2071,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>14220</v>
+        <v>36046</v>
       </c>
       <c r="C67" s="4">
-        <v>13675</v>
+        <v>35429</v>
       </c>
       <c r="D67" s="4">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="E67" s="5">
-        <v>0.057978346655873723</v>
+        <v>0.061178785925146757</v>
       </c>
     </row>
     <row r="68">
@@ -2079,16 +2088,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>13902</v>
+        <v>40627</v>
       </c>
       <c r="C68" s="4">
-        <v>13790</v>
+        <v>39880</v>
       </c>
       <c r="D68" s="4">
-        <v>112</v>
+        <v>747</v>
       </c>
       <c r="E68" s="5">
-        <v>0.066614471194623867</v>
+        <v>0.054650741947158889</v>
       </c>
     </row>
     <row r="69">
@@ -2096,16 +2105,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>26010</v>
+        <v>29245</v>
       </c>
       <c r="C69" s="4">
-        <v>25913</v>
+        <v>28581</v>
       </c>
       <c r="D69" s="4">
-        <v>97</v>
+        <v>664</v>
       </c>
       <c r="E69" s="5">
-        <v>0.06005940737520829</v>
+        <v>0.054536801142249222</v>
       </c>
     </row>
     <row r="70">
@@ -2113,16 +2122,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>31628</v>
+        <v>14220</v>
       </c>
       <c r="C70" s="4">
-        <v>31297</v>
+        <v>13675</v>
       </c>
       <c r="D70" s="4">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="E70" s="5">
-        <v>0.053104058667341004</v>
+        <v>0.058011329152336637</v>
       </c>
     </row>
     <row r="71">
@@ -2130,16 +2139,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>36161</v>
+        <v>13902</v>
       </c>
       <c r="C71" s="4">
-        <v>35830</v>
+        <v>13790</v>
       </c>
       <c r="D71" s="4">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="E71" s="5">
-        <v>0.049582820407604977</v>
+        <v>0.066627512398851479</v>
       </c>
     </row>
     <row r="72">
@@ -2147,16 +2156,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>38437</v>
+        <v>26010</v>
       </c>
       <c r="C72" s="4">
-        <v>38073</v>
+        <v>25913</v>
       </c>
       <c r="D72" s="4">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="E72" s="5">
-        <v>0.045752026418492943</v>
+        <v>0.060050706265845709</v>
       </c>
     </row>
     <row r="73">
@@ -2164,16 +2173,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>28564</v>
+        <v>31627</v>
       </c>
       <c r="C73" s="4">
-        <v>28190</v>
+        <v>31296</v>
       </c>
       <c r="D73" s="4">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E73" s="5">
-        <v>0.049119220826068656</v>
+        <v>0.053115251665120981</v>
       </c>
     </row>
     <row r="74">
@@ -2181,16 +2190,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>12649</v>
+        <v>36161</v>
       </c>
       <c r="C74" s="4">
-        <v>12334</v>
+        <v>35830</v>
       </c>
       <c r="D74" s="4">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E74" s="5">
-        <v>0.04854273335959039</v>
+        <v>0.04956726986624705</v>
       </c>
     </row>
     <row r="75">
@@ -2198,12 +2207,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+        <v>38437</v>
+      </c>
+      <c r="C75" s="4">
+        <v>38073</v>
+      </c>
+      <c r="D75" s="4">
+        <v>364</v>
+      </c>
       <c r="E75" s="5">
-        <v>0.054002697070001229</v>
+        <v>0.045753399981986853</v>
       </c>
     </row>
     <row r="76">
@@ -2211,12 +2224,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>24679</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+        <v>28564</v>
+      </c>
+      <c r="C76" s="4">
+        <v>28190</v>
+      </c>
+      <c r="D76" s="4">
+        <v>374</v>
+      </c>
       <c r="E76" s="5">
-        <v>0.052761591081834307</v>
+        <v>0.04917589027911453</v>
       </c>
     </row>
     <row r="77">
@@ -2224,12 +2241,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>27403</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C77" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D77" s="4">
+        <v>315</v>
+      </c>
       <c r="E77" s="5">
-        <v>0.05298316251830161</v>
+        <v>0.048569036008078423</v>
       </c>
     </row>
     <row r="78">
@@ -2237,12 +2258,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>34441</v>
+        <v>16001</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5">
-        <v>0.046140821221955695</v>
+        <v>0.054002697070001229</v>
       </c>
     </row>
     <row r="79">
@@ -2250,12 +2271,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>37607</v>
+        <v>24679</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.04724199880231552</v>
+        <v>0.052831622957050552</v>
       </c>
     </row>
     <row r="80">
@@ -2263,12 +2284,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>28506</v>
+        <v>27403</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.047526949904882689</v>
+        <v>0.052978314575898987</v>
       </c>
     </row>
     <row r="81">
@@ -2276,12 +2297,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>15629</v>
+        <v>34441</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.056909443367488231</v>
+        <v>0.046175027359056729</v>
       </c>
     </row>
     <row r="82">
@@ -2289,12 +2310,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>18342</v>
+        <v>37607</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.057139585480361847</v>
+        <v>0.047292574965886777</v>
       </c>
     </row>
     <row r="83">
@@ -2302,12 +2323,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>26203</v>
+        <v>28506</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.04951560818083961</v>
+        <v>0.047535992896556099</v>
       </c>
     </row>
     <row r="84">
@@ -2315,12 +2336,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>33367</v>
+        <v>15629</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.047593180678589336</v>
+        <v>0.056873788200535499</v>
       </c>
     </row>
     <row r="85">
@@ -2328,12 +2349,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>38681</v>
+        <v>18342</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.049765952204976593</v>
+        <v>0.057129772740282789</v>
       </c>
     </row>
     <row r="86">
@@ -2341,12 +2362,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>33872</v>
+        <v>26203</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.050186983438609722</v>
+        <v>0.049512803081803759</v>
       </c>
     </row>
     <row r="87">
@@ -2354,12 +2375,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>15536</v>
+        <v>33367</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.051579884290164663</v>
+        <v>0.047579263962571533</v>
       </c>
     </row>
     <row r="88">
@@ -2367,12 +2388,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>10621</v>
+        <v>38681</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.064242797719919892</v>
+        <v>0.04976420074611107</v>
       </c>
     </row>
     <row r="89">
@@ -2380,12 +2401,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>15250</v>
+        <v>33872</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.070694864048338371</v>
+        <v>0.050191715381230753</v>
       </c>
     </row>
     <row r="90">
@@ -2393,12 +2414,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>25209</v>
+        <v>15536</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.059188967777170948</v>
+        <v>0.051607445008460234</v>
       </c>
     </row>
     <row r="91">
@@ -2406,12 +2427,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>28779</v>
+        <v>10621</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.056567727505708029</v>
+        <v>0.064237849495494104</v>
       </c>
     </row>
     <row r="92">
@@ -2419,12 +2440,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>32622</v>
+        <v>15250</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.059780552402572837</v>
+        <v>0.070670463370437489</v>
       </c>
     </row>
     <row r="93">
@@ -2432,12 +2453,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>36879</v>
+        <v>25209</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.053373114536714734</v>
+        <v>0.059217266580151626</v>
       </c>
     </row>
     <row r="94">
@@ -2445,12 +2466,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>28887</v>
+        <v>28779</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.06329680931706981</v>
+        <v>0.056575636126386428</v>
       </c>
     </row>
     <row r="95">
@@ -2458,12 +2479,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>15065</v>
+        <v>32622</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.065583568789393615</v>
+        <v>0.059785076434085059</v>
       </c>
     </row>
     <row r="96">
@@ -2471,12 +2492,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>18622</v>
+        <v>36879</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.076386221027020099</v>
+        <v>0.053385503017441473</v>
       </c>
     </row>
     <row r="97">
@@ -2484,12 +2505,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>25044</v>
+        <v>28887</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.065835184236004332</v>
+        <v>0.063314262080374994</v>
       </c>
     </row>
     <row r="98">
@@ -2497,12 +2518,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>30979</v>
+        <v>15065</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.076963626779124938</v>
+        <v>0.065626359286646369</v>
       </c>
     </row>
     <row r="99">
@@ -2510,12 +2531,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>34871</v>
+        <v>18622</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.059761597938144333</v>
+        <v>0.076396004098360656</v>
       </c>
     </row>
     <row r="100">
@@ -2523,12 +2544,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>35721</v>
+        <v>25044</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.062673775800595341</v>
+        <v>0.065838933819341611</v>
       </c>
     </row>
     <row r="101">
@@ -2536,12 +2557,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>31132</v>
+        <v>30979</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.071009528976906641</v>
+        <v>0.076987300610801071</v>
       </c>
     </row>
     <row r="102">
@@ -2549,12 +2570,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>14920</v>
+        <v>34871</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.065326899623521922</v>
+        <v>0.059756785052750262</v>
       </c>
     </row>
     <row r="103">
@@ -2562,12 +2583,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>13120</v>
+        <v>35721</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.080314214126091965</v>
+        <v>0.062696335078534032</v>
       </c>
     </row>
     <row r="104">
@@ -2575,12 +2596,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>24169</v>
+        <v>31132</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.073054746478036017</v>
+        <v>0.070975618027060941</v>
       </c>
     </row>
     <row r="105">
@@ -2588,12 +2609,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>24904</v>
+        <v>14920</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.064203387009528559</v>
+        <v>0.065301575513235371</v>
       </c>
     </row>
     <row r="106">
@@ -2601,12 +2622,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>25761</v>
+        <v>13120</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.064081648139014305</v>
+        <v>0.080319653257483414</v>
       </c>
     </row>
     <row r="107">
@@ -2614,12 +2635,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>26022</v>
+        <v>24169</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.069101408560614933</v>
+        <v>0.073072120815744102</v>
       </c>
     </row>
     <row r="108">
@@ -2627,12 +2648,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>25739</v>
+        <v>24904</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.075879159782865233</v>
+        <v>0.064211402413649601</v>
       </c>
     </row>
     <row r="109">
@@ -2640,12 +2661,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>10893</v>
+        <v>25761</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.065417900250512417</v>
+        <v>0.064103537270381053</v>
       </c>
     </row>
     <row r="110">
@@ -2653,12 +2674,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>13862</v>
+        <v>26022</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.068998955691481428</v>
+        <v>0.069104104885281722</v>
       </c>
     </row>
     <row r="111">
@@ -2666,12 +2687,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>23021</v>
+        <v>25739</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.063143539038527111</v>
+        <v>0.075888115189425231</v>
       </c>
     </row>
     <row r="112">
@@ -2679,12 +2700,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>25652</v>
+        <v>10893</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.0638419696535929</v>
+        <v>0.065406728525075425</v>
       </c>
     </row>
     <row r="113">
@@ -2692,12 +2713,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>22856</v>
+        <v>13862</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.063737346591418081</v>
+        <v>0.069009250969859742</v>
       </c>
     </row>
     <row r="114">
@@ -2705,12 +2726,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>30068</v>
+        <v>23021</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.059355378819589785</v>
+        <v>0.063152151674282203</v>
       </c>
     </row>
     <row r="115">
@@ -2718,12 +2739,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>26715</v>
+        <v>25652</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.06423112603260149</v>
+        <v>0.063791211412758245</v>
       </c>
     </row>
     <row r="116">
@@ -2731,12 +2752,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>15704</v>
+        <v>22856</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.062057670936421595</v>
+        <v>0.063734491870829038</v>
       </c>
     </row>
     <row r="117">
@@ -2744,12 +2765,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>17137</v>
+        <v>30068</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.064226216571679082</v>
+        <v>0.059380234505862647</v>
       </c>
     </row>
     <row r="118">
@@ -2757,12 +2778,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>19182</v>
+        <v>26715</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.052502810288963829</v>
+        <v>0.06427939876215738</v>
       </c>
     </row>
     <row r="119">
@@ -2770,12 +2791,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>21031</v>
+        <v>15704</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.059577017002257752</v>
+        <v>0.062116160729952623</v>
       </c>
     </row>
     <row r="120">
@@ -2783,12 +2804,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>21840</v>
+        <v>17137</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.068142624096947102</v>
+        <v>0.064148462044275587</v>
       </c>
     </row>
     <row r="121">
@@ -2796,12 +2817,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>23469</v>
+        <v>19182</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.070823953174245835</v>
+        <v>0.052499338799259457</v>
       </c>
     </row>
     <row r="122">
@@ -2809,12 +2830,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>19558</v>
+        <v>21031</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.075738460869186938</v>
+        <v>0.059577017002257752</v>
       </c>
     </row>
     <row r="123">
@@ -2822,12 +2843,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>11613</v>
+        <v>21840</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.076601002127805615</v>
+        <v>0.068152153645347754</v>
       </c>
     </row>
     <row r="124">
@@ -2835,12 +2856,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>19740</v>
+        <v>23469</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.067836183504764308</v>
+        <v>0.070836710798883179</v>
       </c>
     </row>
     <row r="125">
@@ -2848,12 +2869,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23480</v>
+        <v>19558</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.072988382099827886</v>
+        <v>0.075764828756690897</v>
       </c>
     </row>
     <row r="126">
@@ -2861,12 +2882,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>23091</v>
+        <v>11613</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.068625030856578617</v>
+        <v>0.076595744680851063</v>
       </c>
     </row>
     <row r="127">
@@ -2874,12 +2895,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>23947</v>
+        <v>19740</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.066713252219664579</v>
+        <v>0.067840464470528841</v>
       </c>
     </row>
     <row r="128">
@@ -2887,12 +2908,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>25438</v>
+        <v>23480</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.072350658116773534</v>
+        <v>0.072996234534696072</v>
       </c>
     </row>
     <row r="129">
@@ -2900,12 +2921,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>25175</v>
+        <v>23091</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.074925288174185284</v>
+        <v>0.068572274881516584</v>
       </c>
     </row>
     <row r="130">
@@ -2913,12 +2934,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>20426</v>
+        <v>23947</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.069491525423728814</v>
+        <v>0.066713252219664579</v>
       </c>
     </row>
     <row r="131">
@@ -2926,12 +2947,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>18738</v>
+        <v>25438</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.071876345886969423</v>
+        <v>0.072396470935877408</v>
       </c>
     </row>
     <row r="132">
@@ -2939,12 +2960,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>25642</v>
+        <v>25175</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.076772499403198857</v>
+        <v>0.074938618652812872</v>
       </c>
     </row>
     <row r="133">
@@ -2952,12 +2973,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23879</v>
+        <v>20426</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.078425925925925927</v>
+        <v>0.069506251324433138</v>
       </c>
     </row>
     <row r="134">
@@ -2965,12 +2986,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>22113</v>
+        <v>18738</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.074735198548339446</v>
+        <v>0.071845403233521482</v>
       </c>
     </row>
     <row r="135">
@@ -2978,12 +2999,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>26648</v>
+        <v>25642</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.084690831556503199</v>
+        <v>0.076779830969775101</v>
       </c>
     </row>
     <row r="136">
@@ -2991,12 +3012,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>25652</v>
+        <v>23879</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.077980625931445599</v>
+        <v>0.078440451935543623</v>
       </c>
     </row>
     <row r="137">
@@ -3004,12 +3025,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>19982</v>
+        <v>22113</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.076079659879167594</v>
+        <v>0.074718223648106721</v>
       </c>
     </row>
     <row r="138">
@@ -3017,12 +3038,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>21111</v>
+        <v>26648</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.080805162284503518</v>
+        <v>0.084737807739898446</v>
       </c>
     </row>
     <row r="139">
@@ -3030,12 +3051,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>24440</v>
+        <v>25652</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.069400469819221738</v>
+        <v>0.078000968956136105</v>
       </c>
     </row>
     <row r="140">
@@ -3043,12 +3064,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>25799</v>
+        <v>19982</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.080761683910096319</v>
+        <v>0.076096687555953446</v>
       </c>
     </row>
     <row r="141">
@@ -3056,12 +3077,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>28220</v>
+        <v>21111</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.084322082709365281</v>
+        <v>0.080824623091373254</v>
       </c>
     </row>
     <row r="142">
@@ -3069,12 +3090,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>22271</v>
+        <v>24440</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.073104693140794222</v>
+        <v>0.069414649095924</v>
       </c>
     </row>
     <row r="143">
@@ -3082,12 +3103,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>23132</v>
+        <v>25799</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.087243541033434652</v>
+        <v>0.080765285644204612</v>
       </c>
     </row>
     <row r="144">
@@ -3095,12 +3116,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>23193</v>
+        <v>28220</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.078354736646193926</v>
+        <v>0.084354473168670535</v>
       </c>
     </row>
     <row r="145">
@@ -3108,12 +3129,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>18874</v>
+        <v>22271</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.096202266051195973</v>
+        <v>0.073110430892394634</v>
       </c>
     </row>
     <row r="146">
@@ -3121,12 +3142,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>27022</v>
+        <v>23132</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.092333736396614269</v>
+        <v>0.087282742900560359</v>
       </c>
     </row>
     <row r="147">
@@ -3134,12 +3155,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>24483</v>
+        <v>23193</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.091277800062396927</v>
+        <v>0.078314653769241502</v>
       </c>
     </row>
     <row r="148">
@@ -3147,12 +3168,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>22280</v>
+        <v>18874</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.095756854488030396</v>
+        <v>0.09621235966845032</v>
       </c>
     </row>
     <row r="149">
@@ -3160,12 +3181,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>23660</v>
+        <v>27022</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.093518565810306958</v>
+        <v>0.092382103990326481</v>
       </c>
     </row>
     <row r="150">
@@ -3173,12 +3194,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>18338</v>
+        <v>24483</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.085321435075578225</v>
+        <v>0.091326644370122625</v>
       </c>
     </row>
     <row r="151">
@@ -3186,12 +3207,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>14821</v>
+        <v>22280</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.088504892852718939</v>
+        <v>0.095774389964748435</v>
       </c>
     </row>
     <row r="152">
@@ -3199,12 +3220,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>17129</v>
+        <v>23660</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.092124308216262232</v>
+        <v>0.093528119732338974</v>
       </c>
     </row>
     <row r="153">
@@ -3212,12 +3233,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>18885</v>
+        <v>18338</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.084297796572446029</v>
+        <v>0.085321435075578225</v>
       </c>
     </row>
     <row r="154">
@@ -3225,12 +3246,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>16908</v>
+        <v>14821</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.089199355185384202</v>
+        <v>0.088521340519110453</v>
       </c>
     </row>
     <row r="155">
@@ -3238,12 +3259,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>20409</v>
+        <v>17129</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.091596265006669633</v>
+        <v>0.092100783112019066</v>
       </c>
     </row>
     <row r="156">
@@ -3251,12 +3272,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>21474</v>
+        <v>18885</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.1044687936405629</v>
+        <v>0.084307178631051749</v>
       </c>
     </row>
     <row r="157">
@@ -3264,12 +3285,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>21911</v>
+        <v>16908</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.083318997648947762</v>
+        <v>0.089188705151931225</v>
       </c>
     </row>
     <row r="158">
@@ -3277,12 +3298,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>18461</v>
+        <v>20409</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.095644340822382365</v>
+        <v>0.091585102326172618</v>
       </c>
     </row>
     <row r="159">
@@ -3290,12 +3311,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>16374</v>
+        <v>21474</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.08779293459251486</v>
+        <v>0.10454496615450735</v>
       </c>
     </row>
     <row r="160">
@@ -3303,12 +3324,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>17548</v>
+        <v>21911</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.081909080339495413</v>
+        <v>0.083314220183486234</v>
       </c>
     </row>
     <row r="161">
@@ -3316,12 +3337,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>20411</v>
+        <v>18461</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.094686214289853396</v>
+        <v>0.095679830373707919</v>
       </c>
     </row>
     <row r="162">
@@ -3329,12 +3350,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>19149</v>
+        <v>16374</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.098971946332113606</v>
+        <v>0.087785258371950683</v>
       </c>
     </row>
     <row r="163">
@@ -3342,12 +3363,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>21238</v>
+        <v>17548</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.096614204470308163</v>
+        <v>0.081932895272431236</v>
       </c>
     </row>
     <row r="164">
@@ -3355,12 +3376,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>18527</v>
+        <v>20411</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.077411825726141081</v>
+        <v>0.094697189220515787</v>
       </c>
     </row>
     <row r="165">
@@ -3368,12 +3389,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>15713</v>
+        <v>19149</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.082451335948486415</v>
+        <v>0.098960450664963118</v>
       </c>
     </row>
     <row r="166">
@@ -3381,12 +3402,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>11253</v>
+        <v>21238</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.090370018975332062</v>
+        <v>0.096639767164968915</v>
       </c>
     </row>
     <row r="167">
@@ -3394,12 +3415,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>18129</v>
+        <v>18527</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.084150943396226419</v>
+        <v>0.077386739257242848</v>
       </c>
     </row>
     <row r="168">
@@ -3407,12 +3428,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>15400</v>
+        <v>15713</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.094255396999634103</v>
+        <v>0.082451335948486415</v>
       </c>
     </row>
     <row r="169">
@@ -3420,12 +3441,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>24377</v>
+        <v>11253</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.095629195829167263</v>
+        <v>0.090370018975332062</v>
       </c>
     </row>
     <row r="170">
@@ -3433,12 +3454,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>21412</v>
+        <v>18129</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.085699045812837077</v>
+        <v>0.084150943396226419</v>
       </c>
     </row>
     <row r="171">
@@ -3446,12 +3467,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>17071</v>
+        <v>15400</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.082763704597238974</v>
+        <v>0.094200248665252687</v>
       </c>
     </row>
     <row r="172">
@@ -3459,12 +3480,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>13726</v>
+        <v>24377</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.09559505961305062</v>
       </c>
     </row>
     <row r="173">
@@ -3472,12 +3493,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>12694</v>
+        <v>21412</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.090532036613272318</v>
+        <v>0.085688888888888884</v>
       </c>
     </row>
     <row r="174">
@@ -3485,12 +3506,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>13541</v>
+        <v>17071</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.082543182653436242</v>
+        <v>0.082769251390657467</v>
       </c>
     </row>
     <row r="175">
@@ -3498,12 +3519,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>16049</v>
+        <v>13726</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.091543720762864336</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="176">
@@ -3511,12 +3532,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>22126</v>
+        <v>12694</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.092541052045644306</v>
+        <v>0.090623213264722696</v>
       </c>
     </row>
     <row r="177">
@@ -3524,12 +3545,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>19471</v>
+        <v>13541</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.09843489843489843</v>
+        <v>0.082537115978244896</v>
       </c>
     </row>
     <row r="178">
@@ -3537,12 +3558,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>15356</v>
+        <v>16049</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.084523634221764093</v>
+        <v>0.091523960282054978</v>
       </c>
     </row>
     <row r="179">
@@ -3550,12 +3571,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>15719</v>
+        <v>22126</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.076472370946560259</v>
+        <v>0.092586146884789416</v>
       </c>
     </row>
     <row r="180">
@@ -3563,12 +3584,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>9326</v>
+        <v>19471</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.086877554109278041</v>
+        <v>0.09841523505127181</v>
       </c>
     </row>
     <row r="181">
@@ -3576,12 +3597,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>12929</v>
+        <v>15356</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.090085597939001075</v>
+        <v>0.084498748711909322</v>
       </c>
     </row>
     <row r="182">
@@ -3589,12 +3610,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>15790</v>
+        <v>15719</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.093467011642949543</v>
+        <v>0.076279725916968966</v>
       </c>
     </row>
     <row r="183">
@@ -3602,12 +3623,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>12921</v>
+        <v>9326</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.097673135289248592</v>
+        <v>0.086890705419315775</v>
       </c>
     </row>
     <row r="184">
@@ -3615,12 +3636,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>18746</v>
+        <v>12929</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.086324435318275147</v>
+        <v>0.090018269390466699</v>
       </c>
     </row>
     <row r="185">
@@ -3628,12 +3649,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>12966</v>
+        <v>15790</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.089438468705005505</v>
+        <v>0.09344686354817848</v>
       </c>
     </row>
     <row r="186">
@@ -3641,12 +3662,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>12313</v>
+        <v>12921</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.078008028642725394</v>
+        <v>0.097673135289248592</v>
       </c>
     </row>
     <row r="187">
@@ -3654,12 +3675,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>4552</v>
+        <v>18746</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.078535830898779857</v>
+        <v>0.08630316965018886</v>
       </c>
     </row>
     <row r="188">
@@ -3667,12 +3688,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>13931</v>
+        <v>12966</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.080954907161803716</v>
+        <v>0.089438468705005505</v>
       </c>
     </row>
     <row r="189">
@@ -3680,12 +3701,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>11978</v>
+        <v>12313</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.081804949053857351</v>
+        <v>0.077891082664352351</v>
       </c>
     </row>
     <row r="190">
@@ -3693,12 +3714,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>16706</v>
+        <v>4552</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.099318831026148094</v>
+        <v>0.078508847277100155</v>
       </c>
     </row>
     <row r="191">
@@ -3706,12 +3727,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>10116</v>
+        <v>13931</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.089959109495683781</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="192">
@@ -3719,12 +3740,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>11573</v>
+        <v>11978</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.081773207876612672</v>
       </c>
     </row>
     <row r="193">
@@ -3732,12 +3753,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>3571</v>
+        <v>16706</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.070546737213403876</v>
+        <v>0.099035933391761616</v>
       </c>
     </row>
     <row r="194">
@@ -3745,12 +3766,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>7748</v>
+        <v>10116</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.076383623957543598</v>
+        <v>0.089967284623773167</v>
       </c>
     </row>
     <row r="195">
@@ -3758,12 +3779,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>7154</v>
+        <v>11573</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.08187221396731055</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="196">
@@ -3771,12 +3792,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>9046</v>
+        <v>3571</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.070512820512820512</v>
       </c>
     </row>
     <row r="197">
@@ -3784,12 +3805,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>11829</v>
+        <v>7748</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.097255949490043708</v>
+        <v>0.07636914913776767</v>
       </c>
     </row>
     <row r="198">
@@ -3797,12 +3818,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>10185</v>
+        <v>7154</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.082809751193767281</v>
+        <v>0.08182358182358182</v>
       </c>
     </row>
     <row r="199">
@@ -3810,12 +3831,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>12313</v>
+        <v>9046</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.07316794329484394</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="200">
@@ -3823,12 +3844,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>8647</v>
+        <v>11829</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.063006632277081795</v>
+        <v>0.097244142284812429</v>
       </c>
     </row>
     <row r="201">
@@ -3836,12 +3857,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>8397</v>
+        <v>10185</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.055782312925170066</v>
+        <v>0.082840980515399121</v>
       </c>
     </row>
     <row r="202">
@@ -3849,12 +3870,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>9508</v>
+        <v>12313</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.061007548913880758</v>
+        <v>0.073151217281975087</v>
       </c>
     </row>
     <row r="203">
@@ -3862,12 +3883,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>10708</v>
+        <v>8647</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.063018242122719739</v>
       </c>
     </row>
     <row r="204">
@@ -3875,12 +3896,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>13923</v>
+        <v>8397</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.068572430726061034</v>
+        <v>0.055782312925170066</v>
       </c>
     </row>
     <row r="205">
@@ -3888,12 +3909,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>9317</v>
+        <v>9508</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.067115314659876316</v>
+        <v>0.060998151571164512</v>
       </c>
     </row>
     <row r="206">
@@ -3901,12 +3922,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>7919</v>
+        <v>10708</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.071962313190383362</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="207">
@@ -3914,12 +3935,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>6686</v>
+        <v>13923</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.054350536025928695</v>
+        <v>0.068548387096774188</v>
       </c>
     </row>
     <row r="208">
@@ -3927,12 +3948,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>2741</v>
+        <v>9317</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.041297935103244837</v>
+        <v>0.067127524104056757</v>
       </c>
     </row>
     <row r="209">
@@ -3940,12 +3961,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>5318</v>
+        <v>7919</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.071927260918980357</v>
       </c>
     </row>
     <row r="210">
@@ -3953,12 +3974,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>7457</v>
+        <v>6686</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.08254716981132075</v>
+        <v>0.05439121756487026</v>
       </c>
     </row>
     <row r="211">
@@ -3966,12 +3987,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>7917</v>
+        <v>2741</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.072670955444365026</v>
+        <v>0.041313168572482475</v>
       </c>
     </row>
     <row r="212">
@@ -3979,12 +4000,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>6871</v>
+        <v>5318</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.083131201764057333</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="213">
@@ -3992,12 +4013,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>9330</v>
+        <v>7457</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.080498070852332515</v>
+        <v>0.08256664307619721</v>
       </c>
     </row>
     <row r="214">
@@ -4005,12 +4026,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5972</v>
+        <v>7917</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.071119973413094048</v>
+        <v>0.072722937529804479</v>
       </c>
     </row>
     <row r="215">
@@ -4018,12 +4039,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>2701</v>
+        <v>6871</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.064941921858500534</v>
+        <v>0.083204590598101966</v>
       </c>
     </row>
     <row r="216">
@@ -4031,12 +4052,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5202</v>
+        <v>9330</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.063349917081260365</v>
+        <v>0.080526315789473682</v>
       </c>
     </row>
     <row r="217">
@@ -4044,12 +4065,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>5961</v>
+        <v>5972</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.071143617021276598</v>
       </c>
     </row>
     <row r="218">
@@ -4057,12 +4078,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>5490</v>
+        <v>2701</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.070080862533692723</v>
+        <v>0.06490765171503958</v>
       </c>
     </row>
     <row r="219">
@@ -4070,12 +4091,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>6598</v>
+        <v>5202</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.073814201515576758</v>
+        <v>0.063370935633709352</v>
       </c>
     </row>
     <row r="220">
@@ -4083,12 +4104,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5318</v>
+        <v>5961</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="221">
@@ -4096,12 +4117,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>3751</v>
+        <v>5490</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.079960994636762553</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="222">
@@ -4109,12 +4130,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2134</v>
+        <v>6598</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.11082693947144075</v>
+        <v>0.073731426969442113</v>
       </c>
     </row>
     <row r="223">
@@ -4122,12 +4143,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>2985</v>
+        <v>5318</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.12940735183795948</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="224">
@@ -4135,12 +4156,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>5298</v>
+        <v>3751</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="225">
@@ -4148,12 +4169,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>4788</v>
+        <v>2134</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.11077971878994461</v>
       </c>
     </row>
     <row r="226">
@@ -4161,12 +4182,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>6406</v>
+        <v>2985</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.12945590994371481</v>
       </c>
     </row>
     <row r="227">
@@ -4174,12 +4195,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>7796</v>
+        <v>5298</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.10545454545454545</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="228">
@@ -4187,12 +4208,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>4520</v>
+        <v>4788</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="229">
@@ -4200,12 +4221,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>773</v>
+        <v>6406</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.089733225545675019</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="230">
@@ -4213,12 +4234,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>2592</v>
+        <v>7796</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.12859712230215828</v>
+        <v>0.10545454545454545</v>
       </c>
     </row>
     <row r="231">
@@ -4226,12 +4247,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>3600</v>
+        <v>4520</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.13947895791583168</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="232">
@@ -4239,12 +4260,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>2472</v>
+        <v>773</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.089733225545675019</v>
       </c>
     </row>
     <row r="233">
@@ -4252,12 +4273,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>3576</v>
+        <v>2592</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.12865497076023391</v>
       </c>
     </row>
     <row r="234">
@@ -4265,12 +4286,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>3215</v>
+        <v>3600</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="235">
@@ -4278,12 +4299,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>1968</v>
+        <v>2472</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="236">
@@ -4291,12 +4312,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>1298</v>
+        <v>3576</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="237">
@@ -4304,12 +4325,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>7999</v>
+        <v>3215</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.16298811544991512</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="238">
@@ -4317,12 +4338,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2875</v>
+        <v>1968</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.11283185840707964</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="239">
@@ -4330,12 +4351,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>10211</v>
+        <v>1298</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.084193148988856784</v>
+        <v>0.11217183770883055</v>
       </c>
     </row>
     <row r="240">
@@ -4343,12 +4364,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>5262</v>
+        <v>7999</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.091774891774891773</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="241">
@@ -4356,12 +4377,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2431</v>
+        <v>2875</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.090229312063808575</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="242">
@@ -4369,12 +4390,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>913</v>
+        <v>10211</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.084227910817506191</v>
       </c>
     </row>
     <row r="243">
@@ -4382,12 +4403,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>852</v>
+        <v>5262</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.078732597215554492</v>
+        <v>0.091655858192823167</v>
       </c>
     </row>
     <row r="244">
@@ -4395,12 +4416,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.082042833607907747</v>
+        <v>0.090274314214463844</v>
       </c>
     </row>
     <row r="245">
@@ -4408,12 +4429,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>7629</v>
+        <v>913</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="246">
@@ -4421,12 +4442,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>3404</v>
+        <v>852</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.080738966814916185</v>
+        <v>0.078770413064361194</v>
       </c>
     </row>
     <row r="247">
@@ -4434,12 +4455,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2883</v>
+        <v>1343</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.068166325835037497</v>
+        <v>0.082069874752801586</v>
       </c>
     </row>
     <row r="248">
@@ -4447,12 +4468,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>3435</v>
+        <v>7629</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.074616695059625218</v>
+        <v>0.084658040665434378</v>
       </c>
     </row>
     <row r="249">
@@ -4460,40 +4481,46 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2787</v>
+        <v>3404</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="5"/>
+      <c r="E249" s="5">
+        <v>0.080738966814916185</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2082</v>
+        <v>2883</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="5"/>
+      <c r="E250" s="5">
+        <v>0.068189566996249576</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>1638</v>
+        <v>3435</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="5"/>
+      <c r="E251" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2910</v>
+        <v>2787</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -4504,7 +4531,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2667</v>
+        <v>2082</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4515,7 +4542,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2793</v>
+        <v>1638</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4526,7 +4553,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2446</v>
+        <v>2910</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4537,7 +4564,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>529</v>
+        <v>2667</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4548,7 +4575,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2163</v>
+        <v>2793</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4559,7 +4586,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>1389</v>
+        <v>2446</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4570,7 +4597,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2192</v>
+        <v>529</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4581,7 +4608,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>943</v>
+        <v>2163</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4592,7 +4619,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>1696</v>
+        <v>1389</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4603,7 +4630,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>205</v>
+        <v>2192</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4614,7 +4641,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>295</v>
+        <v>943</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4625,7 +4652,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>936</v>
+        <v>1696</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4635,7 +4662,9 @@
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B265" s="4"/>
+      <c r="B265" s="4">
+        <v>205</v>
+      </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="5"/>
@@ -4644,7 +4673,9 @@
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B266" s="4"/>
+      <c r="B266" s="4">
+        <v>295</v>
+      </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="5"/>
@@ -4653,7 +4684,9 @@
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="4"/>
+      <c r="B267" s="4">
+        <v>936</v>
+      </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="5"/>
@@ -4757,6 +4790,33 @@
       <c r="D278" s="4"/>
       <c r="E278" s="5"/>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="5"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+  <si>
+    <t>12/7/2020</t>
+  </si>
   <si>
     <t>12/6/2020</t>
   </si>
@@ -951,24 +954,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E282"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -985,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>46942</v>
+        <v>40541</v>
       </c>
       <c r="C3" s="4">
-        <v>44324</v>
+        <v>39422</v>
       </c>
       <c r="D3" s="4">
-        <v>2618</v>
+        <v>1119</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1000,16 +1003,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>59193</v>
+        <v>50485</v>
       </c>
       <c r="C4" s="4">
-        <v>54135</v>
+        <v>47644</v>
       </c>
       <c r="D4" s="4">
-        <v>5058</v>
+        <v>2841</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10373272839760775</v>
+        <v>0.10472956585010915</v>
       </c>
     </row>
     <row r="5">
@@ -1017,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>56479</v>
+        <v>59415</v>
       </c>
       <c r="C5" s="4">
-        <v>50033</v>
+        <v>54183</v>
       </c>
       <c r="D5" s="4">
-        <v>6446</v>
+        <v>5232</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10086646490609842</v>
+        <v>0.10387508747375787</v>
       </c>
     </row>
     <row r="6">
@@ -1034,16 +1037,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>50841</v>
+        <v>56468</v>
       </c>
       <c r="C6" s="4">
-        <v>45933</v>
+        <v>50026</v>
       </c>
       <c r="D6" s="4">
-        <v>4908</v>
+        <v>6442</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10191386567690298</v>
+        <v>0.1011129235407074</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1054,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31608</v>
+        <v>50840</v>
       </c>
       <c r="C7" s="4">
-        <v>25446</v>
+        <v>45933</v>
       </c>
       <c r="D7" s="4">
-        <v>6162</v>
+        <v>4907</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10149482357912529</v>
+        <v>0.10199303886632965</v>
       </c>
     </row>
     <row r="8">
@@ -1068,16 +1071,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>24232</v>
+        <v>31608</v>
       </c>
       <c r="C8" s="4">
-        <v>22719</v>
+        <v>25445</v>
       </c>
       <c r="D8" s="4">
-        <v>1513</v>
+        <v>6163</v>
       </c>
       <c r="E8" s="5">
-        <v>0.11377147976219562</v>
+        <v>0.10158394931362197</v>
       </c>
     </row>
     <row r="9">
@@ -1085,16 +1088,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>34889</v>
+        <v>24232</v>
       </c>
       <c r="C9" s="4">
-        <v>33398</v>
+        <v>22719</v>
       </c>
       <c r="D9" s="4">
-        <v>1491</v>
+        <v>1513</v>
       </c>
       <c r="E9" s="5">
-        <v>0.099949934003914248</v>
+        <v>0.11365394795781243</v>
       </c>
     </row>
     <row r="10">
@@ -1102,16 +1105,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>41393</v>
+        <v>34888</v>
       </c>
       <c r="C10" s="4">
-        <v>38992</v>
+        <v>33397</v>
       </c>
       <c r="D10" s="4">
-        <v>2401</v>
+        <v>1491</v>
       </c>
       <c r="E10" s="5">
-        <v>0.091492337630746781</v>
+        <v>0.099913553846853811</v>
       </c>
     </row>
     <row r="11">
@@ -1119,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>41416</v>
+        <v>41393</v>
       </c>
       <c r="C11" s="4">
-        <v>40398</v>
+        <v>38992</v>
       </c>
       <c r="D11" s="4">
-        <v>1018</v>
+        <v>2401</v>
       </c>
       <c r="E11" s="5">
-        <v>0.086544111474859395</v>
+        <v>0.09148955577852777</v>
       </c>
     </row>
     <row r="12">
@@ -1136,16 +1139,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>66001</v>
+        <v>41415</v>
       </c>
       <c r="C12" s="4">
-        <v>60825</v>
+        <v>40397</v>
       </c>
       <c r="D12" s="4">
-        <v>5176</v>
+        <v>1018</v>
       </c>
       <c r="E12" s="5">
-        <v>0.076469785220240269</v>
+        <v>0.086499188720416273</v>
       </c>
     </row>
     <row r="13">
@@ -1153,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>49996</v>
+        <v>66000</v>
       </c>
       <c r="C13" s="4">
-        <v>44321</v>
+        <v>60824</v>
       </c>
       <c r="D13" s="4">
-        <v>5675</v>
+        <v>5176</v>
       </c>
       <c r="E13" s="5">
-        <v>0.069752567523116843</v>
+        <v>0.076436598571363576</v>
       </c>
     </row>
     <row r="14">
@@ -1170,16 +1173,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>51699</v>
+        <v>49996</v>
       </c>
       <c r="C14" s="4">
-        <v>45409</v>
+        <v>44321</v>
       </c>
       <c r="D14" s="4">
-        <v>6290</v>
+        <v>5675</v>
       </c>
       <c r="E14" s="5">
-        <v>0.078972078082530275</v>
+        <v>0.069730470534490635</v>
       </c>
     </row>
     <row r="15">
@@ -1187,16 +1190,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>41472</v>
+        <v>51700</v>
       </c>
       <c r="C15" s="4">
-        <v>39898</v>
+        <v>45410</v>
       </c>
       <c r="D15" s="4">
-        <v>1574</v>
+        <v>6290</v>
       </c>
       <c r="E15" s="5">
-        <v>0.072055563096692463</v>
+        <v>0.078960371578219196</v>
       </c>
     </row>
     <row r="16">
@@ -1204,16 +1207,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>42262</v>
+        <v>41472</v>
       </c>
       <c r="C16" s="4">
-        <v>40805</v>
+        <v>39898</v>
       </c>
       <c r="D16" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E16" s="5">
-        <v>0.065662563359884143</v>
+        <v>0.07204252431576566</v>
       </c>
     </row>
     <row r="17">
@@ -1221,16 +1224,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>53356</v>
+        <v>42263</v>
       </c>
       <c r="C17" s="4">
-        <v>49258</v>
+        <v>40806</v>
       </c>
       <c r="D17" s="4">
-        <v>4098</v>
+        <v>1457</v>
       </c>
       <c r="E17" s="5">
-        <v>0.068535252705684571</v>
+        <v>0.065682015638575147</v>
       </c>
     </row>
     <row r="18">
@@ -1238,16 +1241,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>58267</v>
+        <v>53357</v>
       </c>
       <c r="C18" s="4">
-        <v>53079</v>
+        <v>49259</v>
       </c>
       <c r="D18" s="4">
-        <v>5188</v>
+        <v>4098</v>
       </c>
       <c r="E18" s="5">
-        <v>0.069262011752506056</v>
+        <v>0.068520853030780537</v>
       </c>
     </row>
     <row r="19">
@@ -1255,16 +1258,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>53742</v>
+        <v>58266</v>
       </c>
       <c r="C19" s="4">
-        <v>49787</v>
+        <v>53078</v>
       </c>
       <c r="D19" s="4">
-        <v>3955</v>
+        <v>5188</v>
       </c>
       <c r="E19" s="5">
-        <v>0.072916666666666671</v>
+        <v>0.069244060475161989</v>
       </c>
     </row>
     <row r="20">
@@ -1272,16 +1275,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>50262</v>
+        <v>53745</v>
       </c>
       <c r="C20" s="4">
-        <v>45749</v>
+        <v>49790</v>
       </c>
       <c r="D20" s="4">
-        <v>4513</v>
+        <v>3955</v>
       </c>
       <c r="E20" s="5">
-        <v>0.078988808868918889</v>
+        <v>0.072904467123975233</v>
       </c>
     </row>
     <row r="21">
@@ -1289,16 +1292,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>35205</v>
+        <v>50266</v>
       </c>
       <c r="C21" s="4">
-        <v>30684</v>
+        <v>45753</v>
       </c>
       <c r="D21" s="4">
-        <v>4521</v>
+        <v>4513</v>
       </c>
       <c r="E21" s="5">
-        <v>0.077344250974202139</v>
+        <v>0.078985492032165275</v>
       </c>
     </row>
     <row r="22">
@@ -1306,16 +1309,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>29526</v>
+        <v>35212</v>
       </c>
       <c r="C22" s="4">
-        <v>28666</v>
+        <v>30691</v>
       </c>
       <c r="D22" s="4">
-        <v>860</v>
+        <v>4521</v>
       </c>
       <c r="E22" s="5">
-        <v>0.087254218802072292</v>
+        <v>0.077338528693679257</v>
       </c>
     </row>
     <row r="23">
@@ -1323,16 +1326,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>35702</v>
+        <v>29526</v>
       </c>
       <c r="C23" s="4">
-        <v>34678</v>
+        <v>28666</v>
       </c>
       <c r="D23" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E23" s="5">
-        <v>0.08720514653323802</v>
+        <v>0.087222508252824127</v>
       </c>
     </row>
     <row r="24">
@@ -1340,16 +1343,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>40953</v>
+        <v>35710</v>
       </c>
       <c r="C24" s="4">
-        <v>38377</v>
+        <v>34686</v>
       </c>
       <c r="D24" s="4">
-        <v>2576</v>
+        <v>1024</v>
       </c>
       <c r="E24" s="5">
-        <v>0.08044183342512698</v>
+        <v>0.087184373511195803</v>
       </c>
     </row>
     <row r="25">
@@ -1357,16 +1360,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>48263</v>
+        <v>40953</v>
       </c>
       <c r="C25" s="4">
-        <v>44479</v>
+        <v>38377</v>
       </c>
       <c r="D25" s="4">
-        <v>3784</v>
+        <v>2576</v>
       </c>
       <c r="E25" s="5">
-        <v>0.077365175906034644</v>
+        <v>0.080414767687272501</v>
       </c>
     </row>
     <row r="26">
@@ -1374,16 +1377,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>46504</v>
+        <v>48263</v>
       </c>
       <c r="C26" s="4">
-        <v>43323</v>
+        <v>44479</v>
       </c>
       <c r="D26" s="4">
-        <v>3181</v>
+        <v>3784</v>
       </c>
       <c r="E26" s="5">
-        <v>0.077990382688839913</v>
+        <v>0.077358701110305197</v>
       </c>
     </row>
     <row r="27">
@@ -1391,16 +1394,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>41464</v>
+        <v>46504</v>
       </c>
       <c r="C27" s="4">
-        <v>37781</v>
+        <v>43323</v>
       </c>
       <c r="D27" s="4">
-        <v>3683</v>
+        <v>3181</v>
       </c>
       <c r="E27" s="5">
-        <v>0.076079191754260644</v>
+        <v>0.077970854824978716</v>
       </c>
     </row>
     <row r="28">
@@ -1408,16 +1411,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>29462</v>
+        <v>41464</v>
       </c>
       <c r="C28" s="4">
-        <v>25888</v>
+        <v>37781</v>
       </c>
       <c r="D28" s="4">
-        <v>3574</v>
+        <v>3683</v>
       </c>
       <c r="E28" s="5">
-        <v>0.077107528745594262</v>
+        <v>0.076051738653468384</v>
       </c>
     </row>
     <row r="29">
@@ -1425,16 +1428,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>26386</v>
+        <v>29461</v>
       </c>
       <c r="C29" s="4">
-        <v>25646</v>
+        <v>25887</v>
       </c>
       <c r="D29" s="4">
-        <v>740</v>
+        <v>3574</v>
       </c>
       <c r="E29" s="5">
-        <v>0.080857028434120945</v>
+        <v>0.077109756449888767</v>
       </c>
     </row>
     <row r="30">
@@ -1442,16 +1445,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>34480</v>
+        <v>26385</v>
       </c>
       <c r="C30" s="4">
-        <v>33710</v>
+        <v>25645</v>
       </c>
       <c r="D30" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E30" s="5">
-        <v>0.075266389741737397</v>
+        <v>0.080853790396860359</v>
       </c>
     </row>
     <row r="31">
@@ -1459,16 +1462,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>40126</v>
+        <v>34480</v>
       </c>
       <c r="C31" s="4">
-        <v>38161</v>
+        <v>33710</v>
       </c>
       <c r="D31" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E31" s="5">
-        <v>0.065238968929527477</v>
+        <v>0.075277552125643105</v>
       </c>
     </row>
     <row r="32">
@@ -1476,16 +1479,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>44916</v>
+        <v>40126</v>
       </c>
       <c r="C32" s="4">
-        <v>41831</v>
+        <v>38161</v>
       </c>
       <c r="D32" s="4">
-        <v>3085</v>
+        <v>1965</v>
       </c>
       <c r="E32" s="5">
-        <v>0.058918770581778267</v>
+        <v>0.065225236061827147</v>
       </c>
     </row>
     <row r="33">
@@ -1493,16 +1496,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>47591</v>
+        <v>44916</v>
       </c>
       <c r="C33" s="4">
-        <v>45124</v>
+        <v>41831</v>
       </c>
       <c r="D33" s="4">
-        <v>2467</v>
+        <v>3085</v>
       </c>
       <c r="E33" s="5">
-        <v>0.066540313492470041</v>
+        <v>0.0588993745199166</v>
       </c>
     </row>
     <row r="34">
@@ -1510,16 +1513,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>43316</v>
+        <v>47591</v>
       </c>
       <c r="C34" s="4">
-        <v>40553</v>
+        <v>45124</v>
       </c>
       <c r="D34" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E34" s="5">
-        <v>0.064276824715097977</v>
+        <v>0.06653690518875173</v>
       </c>
     </row>
     <row r="35">
@@ -1527,16 +1530,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>25525</v>
+        <v>43316</v>
       </c>
       <c r="C35" s="4">
-        <v>22386</v>
+        <v>40553</v>
       </c>
       <c r="D35" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E35" s="5">
-        <v>0.065398915097214599</v>
+        <v>0.064268983017763029</v>
       </c>
     </row>
     <row r="36">
@@ -1544,16 +1547,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>26673</v>
+        <v>25525</v>
       </c>
       <c r="C36" s="4">
-        <v>26110</v>
+        <v>22386</v>
       </c>
       <c r="D36" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E36" s="5">
-        <v>0.074481678413915342</v>
+        <v>0.065390943994149547</v>
       </c>
     </row>
     <row r="37">
@@ -1561,16 +1564,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>33589</v>
+        <v>26673</v>
       </c>
       <c r="C37" s="4">
-        <v>32768</v>
+        <v>26110</v>
       </c>
       <c r="D37" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E37" s="5">
-        <v>0.067808131877469521</v>
+        <v>0.074466331492623425</v>
       </c>
     </row>
     <row r="38">
@@ -1578,16 +1581,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>39052</v>
+        <v>33589</v>
       </c>
       <c r="C38" s="4">
-        <v>37192</v>
+        <v>32768</v>
       </c>
       <c r="D38" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E38" s="5">
-        <v>0.063416318714092867</v>
+        <v>0.067802370534007395</v>
       </c>
     </row>
     <row r="39">
@@ -1595,16 +1598,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>45095</v>
+        <v>39052</v>
       </c>
       <c r="C39" s="4">
-        <v>42090</v>
+        <v>37192</v>
       </c>
       <c r="D39" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E39" s="5">
-        <v>0.059553993315662093</v>
+        <v>0.06341432787091103</v>
       </c>
     </row>
     <row r="40">
@@ -1612,16 +1615,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>45528</v>
+        <v>45095</v>
       </c>
       <c r="C40" s="4">
-        <v>43051</v>
+        <v>42090</v>
       </c>
       <c r="D40" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E40" s="5">
-        <v>0.060478006750267543</v>
+        <v>0.059545415262293663</v>
       </c>
     </row>
     <row r="41">
@@ -1629,16 +1632,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>38835</v>
+        <v>45528</v>
       </c>
       <c r="C41" s="4">
-        <v>36670</v>
+        <v>43051</v>
       </c>
       <c r="D41" s="4">
-        <v>2165</v>
+        <v>2477</v>
       </c>
       <c r="E41" s="5">
-        <v>0.059393063583815027</v>
+        <v>0.060471369385683323</v>
       </c>
     </row>
     <row r="42">
@@ -1646,16 +1649,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>23935</v>
+        <v>38835</v>
       </c>
       <c r="C42" s="4">
-        <v>21589</v>
+        <v>36670</v>
       </c>
       <c r="D42" s="4">
-        <v>2346</v>
+        <v>2165</v>
       </c>
       <c r="E42" s="5">
-        <v>0.064234786934173435</v>
+        <v>0.05939020278406628</v>
       </c>
     </row>
     <row r="43">
@@ -1663,16 +1666,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C43" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D43" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E43" s="5">
-        <v>0.070305616101655616</v>
+        <v>0.064228397108561569</v>
       </c>
     </row>
     <row r="44">
@@ -1680,16 +1683,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C44" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D44" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E44" s="5">
-        <v>0.074915057595094064</v>
+        <v>0.070308876727576297</v>
       </c>
     </row>
     <row r="45">
@@ -1697,16 +1700,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>37818</v>
+        <v>30514</v>
       </c>
       <c r="C45" s="4">
-        <v>36633</v>
+        <v>30031</v>
       </c>
       <c r="D45" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E45" s="5">
-        <v>0.062146892655367235</v>
+        <v>0.074905746364502632</v>
       </c>
     </row>
     <row r="46">
@@ -1714,16 +1717,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>40652</v>
+        <v>37818</v>
       </c>
       <c r="C46" s="4">
-        <v>38742</v>
+        <v>36633</v>
       </c>
       <c r="D46" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E46" s="5">
-        <v>0.064231317697745691</v>
+        <v>0.062138116085298685</v>
       </c>
     </row>
     <row r="47">
@@ -1731,16 +1734,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>46374</v>
+        <v>40652</v>
       </c>
       <c r="C47" s="4">
-        <v>44983</v>
+        <v>38742</v>
       </c>
       <c r="D47" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E47" s="5">
-        <v>0.063609272396423958</v>
+        <v>0.064215730882397543</v>
       </c>
     </row>
     <row r="48">
@@ -1748,16 +1751,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>36504</v>
+        <v>46374</v>
       </c>
       <c r="C48" s="4">
-        <v>34760</v>
+        <v>44983</v>
       </c>
       <c r="D48" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E48" s="5">
-        <v>0.058750127330141594</v>
+        <v>0.063607594936708867</v>
       </c>
     </row>
     <row r="49">
@@ -1765,16 +1768,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>18443</v>
+        <v>36504</v>
       </c>
       <c r="C49" s="4">
-        <v>16604</v>
+        <v>34760</v>
       </c>
       <c r="D49" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E49" s="5">
-        <v>0.061642825541955465</v>
+        <v>0.058744143410063149</v>
       </c>
     </row>
     <row r="50">
@@ -1782,16 +1785,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>23462</v>
+        <v>18443</v>
       </c>
       <c r="C50" s="4">
-        <v>23126</v>
+        <v>16604</v>
       </c>
       <c r="D50" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E50" s="5">
-        <v>0.076936336474373701</v>
+        <v>0.061622378653300412</v>
       </c>
     </row>
     <row r="51">
@@ -1799,16 +1802,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>32977</v>
+        <v>23462</v>
       </c>
       <c r="C51" s="4">
-        <v>32585</v>
+        <v>23126</v>
       </c>
       <c r="D51" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E51" s="5">
-        <v>0.074082664563714803</v>
+        <v>0.076940757340688393</v>
       </c>
     </row>
     <row r="52">
@@ -1816,16 +1819,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>34489</v>
+        <v>32977</v>
       </c>
       <c r="C52" s="4">
-        <v>33614</v>
+        <v>32585</v>
       </c>
       <c r="D52" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E52" s="5">
-        <v>0.058711282243500189</v>
+        <v>0.074072356215213353</v>
       </c>
     </row>
     <row r="53">
@@ -1833,16 +1836,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>41560</v>
+        <v>34489</v>
       </c>
       <c r="C53" s="4">
-        <v>40065</v>
+        <v>33614</v>
       </c>
       <c r="D53" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E53" s="5">
-        <v>0.061178318931657504</v>
+        <v>0.058689284011172425</v>
       </c>
     </row>
     <row r="54">
@@ -1850,16 +1853,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>42287</v>
+        <v>41560</v>
       </c>
       <c r="C54" s="4">
-        <v>41168</v>
+        <v>40065</v>
       </c>
       <c r="D54" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E54" s="5">
-        <v>0.065402423133438692</v>
+        <v>0.061174474502780657</v>
       </c>
     </row>
     <row r="55">
@@ -1867,16 +1870,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>34303</v>
+        <v>42287</v>
       </c>
       <c r="C55" s="4">
-        <v>32854</v>
+        <v>41168</v>
       </c>
       <c r="D55" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E55" s="5">
-        <v>0.060718575952822977</v>
+        <v>0.065396983810157461</v>
       </c>
     </row>
     <row r="56">
@@ -1884,16 +1887,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>21671</v>
+        <v>34303</v>
       </c>
       <c r="C56" s="4">
-        <v>20538</v>
+        <v>32854</v>
       </c>
       <c r="D56" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E56" s="5">
-        <v>0.066364215814930072</v>
+        <v>0.060711945839702991</v>
       </c>
     </row>
     <row r="57">
@@ -1901,16 +1904,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>21641</v>
+        <v>21671</v>
       </c>
       <c r="C57" s="4">
-        <v>21363</v>
+        <v>20538</v>
       </c>
       <c r="D57" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E57" s="5">
-        <v>0.067798226375512541</v>
+        <v>0.066346802608891225</v>
       </c>
     </row>
     <row r="58">
@@ -1918,16 +1921,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>32579</v>
+        <v>21641</v>
       </c>
       <c r="C58" s="4">
-        <v>32240</v>
+        <v>21363</v>
       </c>
       <c r="D58" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E58" s="5">
-        <v>0.069924350848497241</v>
+        <v>0.067794994040524428</v>
       </c>
     </row>
     <row r="59">
@@ -1935,16 +1938,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>37232</v>
+        <v>32579</v>
       </c>
       <c r="C59" s="4">
-        <v>36223</v>
+        <v>32240</v>
       </c>
       <c r="D59" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E59" s="5">
-        <v>0.056467747499137633</v>
+        <v>0.069910057236304168</v>
       </c>
     </row>
     <row r="60">
@@ -1952,16 +1955,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>42460</v>
+        <v>37232</v>
       </c>
       <c r="C60" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D60" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E60" s="5">
-        <v>0.05550566354761146</v>
+        <v>0.056469695401704094</v>
       </c>
     </row>
     <row r="61">
@@ -1969,16 +1972,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>40909</v>
+        <v>42460</v>
       </c>
       <c r="C61" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D61" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E61" s="5">
-        <v>0.050207969944988592</v>
+        <v>0.055497624840690533</v>
       </c>
     </row>
     <row r="62">
@@ -1986,16 +1989,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C62" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D62" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E62" s="5">
-        <v>0.05739663265592939</v>
+        <v>0.050193153771863931</v>
       </c>
     </row>
     <row r="63">
@@ -2003,16 +2006,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C63" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D63" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E63" s="5">
-        <v>0.056818610262790788</v>
+        <v>0.057386954444538125</v>
       </c>
     </row>
     <row r="64">
@@ -2020,16 +2023,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C64" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D64" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E64" s="5">
-        <v>0.064776579352850541</v>
+        <v>0.05682075258276148</v>
       </c>
     </row>
     <row r="65">
@@ -2037,16 +2040,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C65" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D65" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E65" s="5">
-        <v>0.078737886479003233</v>
+        <v>0.064732692781473269</v>
       </c>
     </row>
     <row r="66">
@@ -2054,16 +2057,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C66" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D66" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E66" s="5">
-        <v>0.06206807743486286</v>
+        <v>0.078737886479003233</v>
       </c>
     </row>
     <row r="67">
@@ -2071,16 +2074,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C67" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D67" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E67" s="5">
-        <v>0.061178785925146757</v>
+        <v>0.062049433573635425</v>
       </c>
     </row>
     <row r="68">
@@ -2088,16 +2091,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>40627</v>
+        <v>36046</v>
       </c>
       <c r="C68" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D68" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E68" s="5">
-        <v>0.054650741947158889</v>
+        <v>0.0611559595685503</v>
       </c>
     </row>
     <row r="69">
@@ -2105,16 +2108,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>29245</v>
+        <v>40627</v>
       </c>
       <c r="C69" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D69" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E69" s="5">
-        <v>0.054536801142249222</v>
+        <v>0.054630969609261941</v>
       </c>
     </row>
     <row r="70">
@@ -2122,16 +2125,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C70" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D70" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E70" s="5">
-        <v>0.058011329152336637</v>
+        <v>0.054527641707487751</v>
       </c>
     </row>
     <row r="71">
@@ -2139,16 +2142,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C71" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D71" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E71" s="5">
-        <v>0.066627512398851479</v>
+        <v>0.058002528445006321</v>
       </c>
     </row>
     <row r="72">
@@ -2156,16 +2159,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C72" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D72" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E72" s="5">
-        <v>0.060050706265845709</v>
+        <v>0.066627512398851479</v>
       </c>
     </row>
     <row r="73">
@@ -2173,16 +2176,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>31627</v>
+        <v>26010</v>
       </c>
       <c r="C73" s="4">
-        <v>31296</v>
+        <v>25913</v>
       </c>
       <c r="D73" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E73" s="5">
-        <v>0.053115251665120981</v>
+        <v>0.06005940737520829</v>
       </c>
     </row>
     <row r="74">
@@ -2190,16 +2193,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>36161</v>
+        <v>31627</v>
       </c>
       <c r="C74" s="4">
-        <v>35830</v>
+        <v>31296</v>
       </c>
       <c r="D74" s="4">
         <v>331</v>
       </c>
       <c r="E74" s="5">
-        <v>0.04956726986624705</v>
+        <v>0.053106296889488327</v>
       </c>
     </row>
     <row r="75">
@@ -2207,16 +2210,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C75" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D75" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E75" s="5">
-        <v>0.045753399981986853</v>
+        <v>0.049562183609248869</v>
       </c>
     </row>
     <row r="76">
@@ -2224,16 +2227,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C76" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D76" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E76" s="5">
-        <v>0.04917589027911453</v>
+        <v>0.045742413782753552</v>
       </c>
     </row>
     <row r="77">
@@ -2241,16 +2244,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C77" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D77" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E77" s="5">
-        <v>0.048569036008078423</v>
+        <v>0.049164060620639882</v>
       </c>
     </row>
     <row r="78">
@@ -2258,12 +2261,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C78" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D78" s="4">
+        <v>315</v>
+      </c>
       <c r="E78" s="5">
-        <v>0.054002697070001229</v>
+        <v>0.048571428571428571</v>
       </c>
     </row>
     <row r="79">
@@ -2271,12 +2278,12 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5">
-        <v>0.052831622957050552</v>
+        <v>0.053989459492584872</v>
       </c>
     </row>
     <row r="80">
@@ -2284,12 +2291,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.052978314575898987</v>
+        <v>0.052834969908140642</v>
       </c>
     </row>
     <row r="81">
@@ -2297,12 +2304,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.046175027359056729</v>
+        <v>0.052951666742878045</v>
       </c>
     </row>
     <row r="82">
@@ -2310,12 +2317,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.047292574965886777</v>
+        <v>0.046140821221955695</v>
       </c>
     </row>
     <row r="83">
@@ -2323,12 +2330,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.047535992896556099</v>
+        <v>0.047272122421823021</v>
       </c>
     </row>
     <row r="84">
@@ -2336,12 +2343,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.056873788200535499</v>
+        <v>0.047537500396410109</v>
       </c>
     </row>
     <row r="85">
@@ -2349,12 +2356,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.057129772740282789</v>
+        <v>0.056871162812168211</v>
       </c>
     </row>
     <row r="86">
@@ -2362,12 +2369,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.049512803081803759</v>
+        <v>0.057119963369963368</v>
       </c>
     </row>
     <row r="87">
@@ -2375,12 +2382,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.047579263962571533</v>
+        <v>0.04949597915958772</v>
       </c>
     </row>
     <row r="88">
@@ -2388,12 +2395,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.04976420074611107</v>
+        <v>0.047561382996492402</v>
       </c>
     </row>
     <row r="89">
@@ -2401,12 +2408,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.050191715381230753</v>
+        <v>0.049753694581280788</v>
       </c>
     </row>
     <row r="90">
@@ -2414,12 +2421,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.051607445008460234</v>
+        <v>0.050190137967880827</v>
       </c>
     </row>
     <row r="91">
@@ -2427,12 +2434,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.064237849495494104</v>
+        <v>0.051638176638176637</v>
       </c>
     </row>
     <row r="92">
@@ -2440,12 +2447,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.070670463370437489</v>
+        <v>0.064218064218064225</v>
       </c>
     </row>
     <row r="93">
@@ -2453,12 +2460,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.059217266580151626</v>
+        <v>0.070676561960648948</v>
       </c>
     </row>
     <row r="94">
@@ -2466,12 +2473,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.056575636126386428</v>
+        <v>0.059213222237399263</v>
       </c>
     </row>
     <row r="95">
@@ -2479,12 +2486,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.059785076434085059</v>
+        <v>0.056565091790140715</v>
       </c>
     </row>
     <row r="96">
@@ -2492,12 +2499,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.053385503017441473</v>
+        <v>0.059776029055690072</v>
       </c>
     </row>
     <row r="97">
@@ -2505,12 +2512,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.063314262080374994</v>
+        <v>0.05337665351589696</v>
       </c>
     </row>
     <row r="98">
@@ -2518,12 +2525,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.065626359286646369</v>
+        <v>0.063283726057599562</v>
       </c>
     </row>
     <row r="99">
@@ -2531,12 +2538,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.076396004098360656</v>
+        <v>0.065626359286646369</v>
       </c>
     </row>
     <row r="100">
@@ -2544,12 +2551,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.065838933819341611</v>
+        <v>0.076391112249471732</v>
       </c>
     </row>
     <row r="101">
@@ -2557,12 +2564,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.076987300610801071</v>
+        <v>0.065827686350435621</v>
       </c>
     </row>
     <row r="102">
@@ -2570,12 +2577,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.059756785052750262</v>
+        <v>0.07690281801422176</v>
       </c>
     </row>
     <row r="103">
@@ -2583,12 +2590,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.062696335078534032</v>
+        <v>0.059708093763821316</v>
       </c>
     </row>
     <row r="104">
@@ -2596,12 +2603,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.070975618027060941</v>
+        <v>0.062661477581188479</v>
       </c>
     </row>
     <row r="105">
@@ -2609,12 +2616,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.065301575513235371</v>
+        <v>0.070949152542372884</v>
       </c>
     </row>
     <row r="106">
@@ -2622,12 +2629,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.080319653257483414</v>
+        <v>0.065344224037339554</v>
       </c>
     </row>
     <row r="107">
@@ -2635,12 +2642,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.073072120815744102</v>
+        <v>0.08027072758037225</v>
       </c>
     </row>
     <row r="108">
@@ -2648,12 +2655,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.064211402413649601</v>
+        <v>0.07296494355317884</v>
       </c>
     </row>
     <row r="109">
@@ -2661,12 +2668,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.064103537270381053</v>
+        <v>0.064144668468093954</v>
       </c>
     </row>
     <row r="110">
@@ -2674,12 +2681,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.069104104885281722</v>
+        <v>0.06379362441456414</v>
       </c>
     </row>
     <row r="111">
@@ -2687,12 +2694,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.075888115189425231</v>
+        <v>0.069028687246647957</v>
       </c>
     </row>
     <row r="112">
@@ -2700,12 +2707,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.065406728525075425</v>
+        <v>0.075870206489675518</v>
       </c>
     </row>
     <row r="113">
@@ -2713,12 +2720,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.069009250969859742</v>
+        <v>0.065124978745111375</v>
       </c>
     </row>
     <row r="114">
@@ -2726,12 +2733,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.063152151674282203</v>
+        <v>0.06897323092983372</v>
       </c>
     </row>
     <row r="115">
@@ -2739,12 +2746,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.063791211412758245</v>
+        <v>0.063122017723244717</v>
       </c>
     </row>
     <row r="116">
@@ -2752,12 +2759,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.063734491870829038</v>
+        <v>0.06368486234162142</v>
       </c>
     </row>
     <row r="117">
@@ -2765,12 +2772,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.059380234505862647</v>
+        <v>0.063728783196739663</v>
       </c>
     </row>
     <row r="118">
@@ -2778,12 +2785,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.06427939876215738</v>
+        <v>0.059340475393371277</v>
       </c>
     </row>
     <row r="119">
@@ -2791,12 +2798,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.062116160729952623</v>
+        <v>0.064250994255413169</v>
       </c>
     </row>
     <row r="120">
@@ -2804,12 +2811,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.064148462044275587</v>
+        <v>0.062112527781027022</v>
       </c>
     </row>
     <row r="121">
@@ -2817,12 +2824,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.052499338799259457</v>
+        <v>0.06411098941219423</v>
       </c>
     </row>
     <row r="122">
@@ -2830,12 +2837,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.059577017002257752</v>
+        <v>0.052488927084021947</v>
       </c>
     </row>
     <row r="123">
@@ -2843,12 +2850,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.068152153645347754</v>
+        <v>0.059505729670026229</v>
       </c>
     </row>
     <row r="124">
@@ -2856,12 +2863,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.070836710798883179</v>
+        <v>0.068101360163964966</v>
       </c>
     </row>
     <row r="125">
@@ -2869,12 +2876,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.075764828756690897</v>
+        <v>0.070795265313470454</v>
       </c>
     </row>
     <row r="126">
@@ -2882,12 +2889,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.076595744680851063</v>
+        <v>0.075557677284957908</v>
       </c>
     </row>
     <row r="127">
@@ -2895,12 +2902,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.067840464470528841</v>
+        <v>0.076469782102233791</v>
       </c>
     </row>
     <row r="128">
@@ -2908,12 +2915,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.072996234534696072</v>
+        <v>0.06769947729705901</v>
       </c>
     </row>
     <row r="129">
@@ -2921,12 +2928,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.068572274881516584</v>
+        <v>0.072945223888620112</v>
       </c>
     </row>
     <row r="130">
@@ -2934,12 +2941,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.066713252219664579</v>
+        <v>0.068521533224803907</v>
       </c>
     </row>
     <row r="131">
@@ -2947,12 +2954,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.072396470935877408</v>
+        <v>0.06652457269336394</v>
       </c>
     </row>
     <row r="132">
@@ -2960,12 +2967,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.074938618652812872</v>
+        <v>0.072350658116773534</v>
       </c>
     </row>
     <row r="133">
@@ -2973,12 +2980,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.069506251324433138</v>
+        <v>0.074865739588149516</v>
       </c>
     </row>
     <row r="134">
@@ -2986,12 +2993,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.071845403233521482</v>
+        <v>0.069443709310326576</v>
       </c>
     </row>
     <row r="135">
@@ -2999,12 +3006,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.076779830969775101</v>
+        <v>0.071817921009849864</v>
       </c>
     </row>
     <row r="136">
@@ -3012,12 +3019,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.078440451935543623</v>
+        <v>0.07678349727819693</v>
       </c>
     </row>
     <row r="137">
@@ -3025,12 +3032,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.074718223648106721</v>
+        <v>0.078425925925925927</v>
       </c>
     </row>
     <row r="138">
@@ -3038,12 +3045,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.084737807739898446</v>
+        <v>0.074715069649641197</v>
       </c>
     </row>
     <row r="139">
@@ -3051,12 +3058,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.078000968956136105</v>
+        <v>0.084730577243056437</v>
       </c>
     </row>
     <row r="140">
@@ -3064,12 +3071,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.076096687555953446</v>
+        <v>0.078029512595021611</v>
       </c>
     </row>
     <row r="141">
@@ -3077,12 +3084,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.080824623091373254</v>
+        <v>0.076093281410858957</v>
       </c>
     </row>
     <row r="142">
@@ -3090,12 +3097,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.069414649095924</v>
+        <v>0.08080905369612329</v>
       </c>
     </row>
     <row r="143">
@@ -3103,12 +3110,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.080765285644204612</v>
+        <v>0.069414649095924</v>
       </c>
     </row>
     <row r="144">
@@ -3116,12 +3123,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.084354473168670535</v>
+        <v>0.080765285644204612</v>
       </c>
     </row>
     <row r="145">
@@ -3129,12 +3136,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.073110430892394634</v>
+        <v>0.084360954246859507</v>
       </c>
     </row>
     <row r="146">
@@ -3142,12 +3149,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.087282742900560359</v>
+        <v>0.073116169544740969</v>
       </c>
     </row>
     <row r="147">
@@ -3155,12 +3162,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.078314653769241502</v>
+        <v>0.087274453941120614</v>
       </c>
     </row>
     <row r="148">
@@ -3168,12 +3175,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.09621235966845032</v>
+        <v>0.078321938514487696</v>
       </c>
     </row>
     <row r="149">
@@ -3181,12 +3188,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.092382103990326481</v>
+        <v>0.09621235966845032</v>
       </c>
     </row>
     <row r="150">
@@ -3194,12 +3201,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.091326644370122625</v>
+        <v>0.092386572506529943</v>
       </c>
     </row>
     <row r="151">
@@ -3207,12 +3214,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.095774389964748435</v>
+        <v>0.091318500022294552</v>
       </c>
     </row>
     <row r="152">
@@ -3220,12 +3227,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.093528119732338974</v>
+        <v>0.09576562142366675</v>
       </c>
     </row>
     <row r="153">
@@ -3233,12 +3240,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.085321435075578225</v>
+        <v>0.093518565810306958</v>
       </c>
     </row>
     <row r="154">
@@ -3246,12 +3253,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.088521340519110453</v>
+        <v>0.085329204990438029</v>
       </c>
     </row>
     <row r="155">
@@ -3259,12 +3266,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.092100783112019066</v>
+        <v>0.088526824433155737</v>
       </c>
     </row>
     <row r="156">
@@ -3272,12 +3279,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.084307178631051749</v>
+        <v>0.0921086234783349</v>
       </c>
     </row>
     <row r="157">
@@ -3285,12 +3292,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.089188705151931225</v>
+        <v>0.084283727399165509</v>
       </c>
     </row>
     <row r="158">
@@ -3298,12 +3305,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.091585102326172618</v>
+        <v>0.089194029850746273</v>
       </c>
     </row>
     <row r="159">
@@ -3311,12 +3318,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.10454496615450735</v>
+        <v>0.091596745486905676</v>
       </c>
     </row>
     <row r="160">
@@ -3324,12 +3331,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.083314220183486234</v>
+        <v>0.104550582925912</v>
       </c>
     </row>
     <row r="161">
@@ -3337,12 +3344,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.095679830373707919</v>
+        <v>0.083304666895998164</v>
       </c>
     </row>
     <row r="162">
@@ -3350,12 +3357,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.087785258371950683</v>
+        <v>0.095684902459711618</v>
       </c>
     </row>
     <row r="163">
@@ -3363,12 +3370,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.081932895272431236</v>
+        <v>0.087800612155662441</v>
       </c>
     </row>
     <row r="164">
@@ -3376,12 +3383,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.094697189220515787</v>
+        <v>0.081923367637653358</v>
       </c>
     </row>
     <row r="165">
@@ -3389,12 +3396,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.098960450664963118</v>
+        <v>0.09470267763996755</v>
       </c>
     </row>
     <row r="166">
@@ -3402,12 +3409,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.096639767164968915</v>
+        <v>0.098943212170479619</v>
       </c>
     </row>
     <row r="167">
@@ -3415,12 +3422,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.077386739257242848</v>
+        <v>0.096633375223229054</v>
       </c>
     </row>
     <row r="168">
@@ -3428,12 +3435,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.082451335948486415</v>
+        <v>0.077391755250194455</v>
       </c>
     </row>
     <row r="169">
@@ -3441,12 +3448,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.090370018975332062</v>
+        <v>0.082451335948486415</v>
       </c>
     </row>
     <row r="170">
@@ -3454,12 +3461,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.084150943396226419</v>
+        <v>0.090370018975332062</v>
       </c>
     </row>
     <row r="171">
@@ -3467,12 +3474,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.094200248665252687</v>
+        <v>0.084119200301772917</v>
       </c>
     </row>
     <row r="172">
@@ -3480,12 +3487,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.09559505961305062</v>
+        <v>0.094138283876626219</v>
       </c>
     </row>
     <row r="173">
@@ -3493,12 +3500,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.085688888888888884</v>
+        <v>0.095567768182142604</v>
       </c>
     </row>
     <row r="174">
@@ -3506,12 +3513,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.082769251390657467</v>
+        <v>0.085693967049899247</v>
       </c>
     </row>
     <row r="175">
@@ -3519,12 +3526,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.082758158547209013</v>
       </c>
     </row>
     <row r="176">
@@ -3532,12 +3539,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.090623213264722696</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="177">
@@ -3545,12 +3552,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.082537115978244896</v>
+        <v>0.090610261540660278</v>
       </c>
     </row>
     <row r="178">
@@ -3558,12 +3565,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.091523960282054978</v>
+        <v>0.082531050194752695</v>
       </c>
     </row>
     <row r="179">
@@ -3571,12 +3578,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.092586146884789416</v>
+        <v>0.091530546161041948</v>
       </c>
     </row>
     <row r="180">
@@ -3584,12 +3591,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.09841523505127181</v>
+        <v>0.092592592592592587</v>
       </c>
     </row>
     <row r="181">
@@ -3597,12 +3604,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.084498748711909322</v>
+        <v>0.098421788639541846</v>
       </c>
     </row>
     <row r="182">
@@ -3610,12 +3617,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.076279725916968966</v>
+        <v>0.084504968715495038</v>
       </c>
     </row>
     <row r="183">
@@ -3623,12 +3630,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.086890705419315775</v>
+        <v>0.076279725916968966</v>
       </c>
     </row>
     <row r="184">
@@ -3636,12 +3643,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.090018269390466699</v>
+        <v>0.086752460257380773</v>
       </c>
     </row>
     <row r="185">
@@ -3649,12 +3656,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.09344686354817848</v>
+        <v>0.090018269390466699</v>
       </c>
     </row>
     <row r="186">
@@ -3662,12 +3669,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.097673135289248592</v>
+        <v>0.093406593406593408</v>
       </c>
     </row>
     <row r="187">
@@ -3675,12 +3682,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.08630316965018886</v>
+        <v>0.097655172413793109</v>
       </c>
     </row>
     <row r="188">
@@ -3688,12 +3695,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.089438468705005505</v>
+        <v>0.086288998357963873</v>
       </c>
     </row>
     <row r="189">
@@ -3701,12 +3708,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.077891082664352351</v>
+        <v>0.089446044384211415</v>
       </c>
     </row>
     <row r="190">
@@ -3714,12 +3721,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.078508847277100155</v>
+        <v>0.077891082664352351</v>
       </c>
     </row>
     <row r="191">
@@ -3727,12 +3734,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.080954907161803716</v>
+        <v>0.078495362418412915</v>
       </c>
     </row>
     <row r="192">
@@ -3740,12 +3747,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.081773207876612672</v>
+        <v>0.080946318692976874</v>
       </c>
     </row>
     <row r="193">
@@ -3753,12 +3760,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.099035933391761616</v>
+        <v>0.081773207876612672</v>
       </c>
     </row>
     <row r="194">
@@ -3766,12 +3773,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.089967284623773167</v>
+        <v>0.099035933391761616</v>
       </c>
     </row>
     <row r="195">
@@ -3779,12 +3786,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.089967284623773167</v>
       </c>
     </row>
     <row r="196">
@@ -3792,12 +3799,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.070512820512820512</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="197">
@@ -3805,12 +3812,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.07636914913776767</v>
+        <v>0.070512820512820512</v>
       </c>
     </row>
     <row r="198">
@@ -3818,12 +3825,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.08182358182358182</v>
+        <v>0.07636914913776767</v>
       </c>
     </row>
     <row r="199">
@@ -3831,12 +3838,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081847890671420079</v>
       </c>
     </row>
     <row r="200">
@@ -3844,12 +3851,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.097244142284812429</v>
+        <v>0.087774294670846395</v>
       </c>
     </row>
     <row r="201">
@@ -3857,12 +3864,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.082840980515399121</v>
+        <v>0.09723233794610342</v>
       </c>
     </row>
     <row r="202">
@@ -3870,12 +3877,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.073151217281975087</v>
+        <v>0.082872233400402409</v>
       </c>
     </row>
     <row r="203">
@@ -3883,12 +3890,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.063018242122719739</v>
+        <v>0.073151217281975087</v>
       </c>
     </row>
     <row r="204">
@@ -3896,12 +3903,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.055782312925170066</v>
+        <v>0.063018242122719739</v>
       </c>
     </row>
     <row r="205">
@@ -3909,12 +3916,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.060998151571164512</v>
+        <v>0.055771472988729108</v>
       </c>
     </row>
     <row r="206">
@@ -3922,12 +3929,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.060998151571164512</v>
       </c>
     </row>
     <row r="207">
@@ -3935,12 +3942,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.068548387096774188</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="208">
@@ -3948,12 +3955,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.067127524104056757</v>
+        <v>0.068560406803436794</v>
       </c>
     </row>
     <row r="209">
@@ -3961,12 +3968,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.071927260918980357</v>
+        <v>0.067127524104056757</v>
       </c>
     </row>
     <row r="210">
@@ -3974,12 +3981,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.05439121756487026</v>
+        <v>0.071927260918980357</v>
       </c>
     </row>
     <row r="211">
@@ -3987,12 +3994,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.041313168572482475</v>
+        <v>0.05439121756487026</v>
       </c>
     </row>
     <row r="212">
@@ -4000,12 +4007,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041313168572482475</v>
       </c>
     </row>
     <row r="213">
@@ -4013,12 +4020,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.08256664307619721</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="214">
@@ -4026,12 +4033,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.072722937529804479</v>
+        <v>0.08256664307619721</v>
       </c>
     </row>
     <row r="215">
@@ -4039,12 +4046,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.083204590598101966</v>
+        <v>0.072722937529804479</v>
       </c>
     </row>
     <row r="216">
@@ -4052,12 +4059,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.080526315789473682</v>
+        <v>0.083222958057395144</v>
       </c>
     </row>
     <row r="217">
@@ -4065,12 +4072,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.071143617021276598</v>
+        <v>0.080526315789473682</v>
       </c>
     </row>
     <row r="218">
@@ -4078,12 +4085,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.06490765171503958</v>
+        <v>0.071119973413094048</v>
       </c>
     </row>
     <row r="219">
@@ -4091,12 +4098,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.063370935633709352</v>
+        <v>0.06490765171503958</v>
       </c>
     </row>
     <row r="220">
@@ -4104,12 +4111,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063391968138068369</v>
       </c>
     </row>
     <row r="221">
@@ -4117,12 +4124,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="222">
@@ -4130,12 +4137,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.073731426969442113</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="223">
@@ -4143,12 +4150,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073731426969442113</v>
       </c>
     </row>
     <row r="224">
@@ -4156,12 +4163,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="225">
@@ -4169,12 +4176,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.11077971878994461</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="226">
@@ -4182,12 +4189,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.12945590994371481</v>
+        <v>0.11077971878994461</v>
       </c>
     </row>
     <row r="227">
@@ -4195,12 +4202,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12945590994371481</v>
       </c>
     </row>
     <row r="228">
@@ -4208,12 +4215,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="229">
@@ -4221,12 +4228,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.10679294578706727</v>
       </c>
     </row>
     <row r="230">
@@ -4234,12 +4241,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.10545454545454545</v>
+        <v>0.11592178770949721</v>
       </c>
     </row>
     <row r="231">
@@ -4247,12 +4254,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10545454545454545</v>
       </c>
     </row>
     <row r="232">
@@ -4260,12 +4267,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.089733225545675019</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="233">
@@ -4273,12 +4280,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.12865497076023391</v>
+        <v>0.089733225545675019</v>
       </c>
     </row>
     <row r="234">
@@ -4286,12 +4293,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12865497076023391</v>
       </c>
     </row>
     <row r="235">
@@ -4299,12 +4306,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="236">
@@ -4312,12 +4319,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="237">
@@ -4325,12 +4332,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15926424405563033</v>
       </c>
     </row>
     <row r="238">
@@ -4338,12 +4345,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="239">
@@ -4351,12 +4358,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.11217183770883055</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="240">
@@ -4364,12 +4371,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11217183770883055</v>
       </c>
     </row>
     <row r="241">
@@ -4377,12 +4384,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="242">
@@ -4390,12 +4397,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.084227910817506191</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="243">
@@ -4403,12 +4410,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.091655858192823167</v>
+        <v>0.084227910817506191</v>
       </c>
     </row>
     <row r="244">
@@ -4416,12 +4423,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.090274314214463844</v>
+        <v>0.09157667386609071</v>
       </c>
     </row>
     <row r="245">
@@ -4429,12 +4436,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090274314214463844</v>
       </c>
     </row>
     <row r="246">
@@ -4442,12 +4449,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.078770413064361194</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="247">
@@ -4455,12 +4462,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.082069874752801586</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="248">
@@ -4468,12 +4475,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.084658040665434378</v>
+        <v>0.082069874752801586</v>
       </c>
     </row>
     <row r="249">
@@ -4481,12 +4488,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.080738966814916185</v>
+        <v>0.084689349112426038</v>
       </c>
     </row>
     <row r="250">
@@ -4494,12 +4501,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.068189566996249576</v>
+        <v>0.080738966814916185</v>
       </c>
     </row>
     <row r="251">
@@ -4507,12 +4514,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068189566996249576</v>
       </c>
     </row>
     <row r="252">
@@ -4520,18 +4527,20 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="5"/>
+      <c r="E252" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -4542,7 +4551,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4553,7 +4562,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4564,7 +4573,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4575,7 +4584,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4586,7 +4595,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4597,7 +4606,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4608,7 +4617,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4619,7 +4628,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4630,7 +4639,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4641,7 +4650,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4652,7 +4661,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4663,7 +4672,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4674,7 +4683,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4685,7 +4694,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4695,7 +4704,9 @@
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B268" s="4"/>
+      <c r="B268" s="4">
+        <v>936</v>
+      </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="5"/>
@@ -4817,6 +4828,15 @@
       <c r="D281" s="4"/>
       <c r="E281" s="5"/>
     </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+  <si>
+    <t>12/8/2020</t>
+  </si>
   <si>
     <t>12/7/2020</t>
   </si>
@@ -954,24 +957,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E283"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2">
@@ -988,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>40541</v>
+        <v>35443</v>
       </c>
       <c r="C3" s="4">
-        <v>39422</v>
+        <v>34133</v>
       </c>
       <c r="D3" s="4">
-        <v>1119</v>
+        <v>1310</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1003,16 +1006,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>50485</v>
+        <v>48796</v>
       </c>
       <c r="C4" s="4">
-        <v>47644</v>
+        <v>47329</v>
       </c>
       <c r="D4" s="4">
-        <v>2841</v>
+        <v>1467</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10472956585010915</v>
+        <v>0.097339610868455384</v>
       </c>
     </row>
     <row r="5">
@@ -1020,16 +1023,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>59415</v>
+        <v>52062</v>
       </c>
       <c r="C5" s="4">
-        <v>54183</v>
+        <v>48198</v>
       </c>
       <c r="D5" s="4">
-        <v>5232</v>
+        <v>3864</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10387508747375787</v>
+        <v>0.10769662678702543</v>
       </c>
     </row>
     <row r="6">
@@ -1037,16 +1040,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>56468</v>
+        <v>59919</v>
       </c>
       <c r="C6" s="4">
-        <v>50026</v>
+        <v>54260</v>
       </c>
       <c r="D6" s="4">
-        <v>6442</v>
+        <v>5659</v>
       </c>
       <c r="E6" s="5">
-        <v>0.1011129235407074</v>
+        <v>0.10418164781765488</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>50840</v>
+        <v>57065</v>
       </c>
       <c r="C7" s="4">
-        <v>45933</v>
+        <v>50128</v>
       </c>
       <c r="D7" s="4">
-        <v>4907</v>
+        <v>6937</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10199303886632965</v>
+        <v>0.10141908337114805</v>
       </c>
     </row>
     <row r="8">
@@ -1071,16 +1074,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>31608</v>
+        <v>51287</v>
       </c>
       <c r="C8" s="4">
-        <v>25445</v>
+        <v>46075</v>
       </c>
       <c r="D8" s="4">
-        <v>6163</v>
+        <v>5212</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10158394931362197</v>
+        <v>0.10157091934013097</v>
       </c>
     </row>
     <row r="9">
@@ -1088,16 +1091,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>24232</v>
+        <v>31876</v>
       </c>
       <c r="C9" s="4">
-        <v>22719</v>
+        <v>25445</v>
       </c>
       <c r="D9" s="4">
-        <v>1513</v>
+        <v>6431</v>
       </c>
       <c r="E9" s="5">
-        <v>0.11365394795781243</v>
+        <v>0.10169402079265397</v>
       </c>
     </row>
     <row r="10">
@@ -1105,16 +1108,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>34888</v>
+        <v>24270</v>
       </c>
       <c r="C10" s="4">
-        <v>33397</v>
+        <v>22721</v>
       </c>
       <c r="D10" s="4">
-        <v>1491</v>
+        <v>1549</v>
       </c>
       <c r="E10" s="5">
-        <v>0.099913553846853811</v>
+        <v>0.11369929956018895</v>
       </c>
     </row>
     <row r="11">
@@ -1122,16 +1125,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>41393</v>
+        <v>35003</v>
       </c>
       <c r="C11" s="4">
-        <v>38992</v>
+        <v>33397</v>
       </c>
       <c r="D11" s="4">
-        <v>2401</v>
+        <v>1606</v>
       </c>
       <c r="E11" s="5">
-        <v>0.09148955577852777</v>
+        <v>0.10006367688529064</v>
       </c>
     </row>
     <row r="12">
@@ -1139,16 +1142,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41415</v>
+        <v>41405</v>
       </c>
       <c r="C12" s="4">
-        <v>40397</v>
+        <v>38991</v>
       </c>
       <c r="D12" s="4">
-        <v>1018</v>
+        <v>2414</v>
       </c>
       <c r="E12" s="5">
-        <v>0.086499188720416273</v>
+        <v>0.091420406177793997</v>
       </c>
     </row>
     <row r="13">
@@ -1156,16 +1159,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>66000</v>
+        <v>41429</v>
       </c>
       <c r="C13" s="4">
-        <v>60824</v>
+        <v>40394</v>
       </c>
       <c r="D13" s="4">
-        <v>5176</v>
+        <v>1035</v>
       </c>
       <c r="E13" s="5">
-        <v>0.076436598571363576</v>
+        <v>0.086519902654619715</v>
       </c>
     </row>
     <row r="14">
@@ -1173,16 +1176,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>49996</v>
+        <v>66449</v>
       </c>
       <c r="C14" s="4">
-        <v>44321</v>
+        <v>60824</v>
       </c>
       <c r="D14" s="4">
-        <v>5675</v>
+        <v>5625</v>
       </c>
       <c r="E14" s="5">
-        <v>0.069730470534490635</v>
+        <v>0.076436598571363576</v>
       </c>
     </row>
     <row r="15">
@@ -1190,16 +1193,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>51700</v>
+        <v>50531</v>
       </c>
       <c r="C15" s="4">
-        <v>45410</v>
+        <v>44323</v>
       </c>
       <c r="D15" s="4">
-        <v>6290</v>
+        <v>6208</v>
       </c>
       <c r="E15" s="5">
-        <v>0.078960371578219196</v>
+        <v>0.069733019023079879</v>
       </c>
     </row>
     <row r="16">
@@ -1207,16 +1210,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>41472</v>
+        <v>51889</v>
       </c>
       <c r="C16" s="4">
-        <v>39898</v>
+        <v>45412</v>
       </c>
       <c r="D16" s="4">
-        <v>1574</v>
+        <v>6477</v>
       </c>
       <c r="E16" s="5">
-        <v>0.07204252431576566</v>
+        <v>0.078954519627461153</v>
       </c>
     </row>
     <row r="17">
@@ -1224,16 +1227,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>42263</v>
+        <v>41471</v>
       </c>
       <c r="C17" s="4">
-        <v>40806</v>
+        <v>39897</v>
       </c>
       <c r="D17" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E17" s="5">
-        <v>0.065682015638575147</v>
+        <v>0.071992400425214306</v>
       </c>
     </row>
     <row r="18">
@@ -1241,16 +1244,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>53357</v>
+        <v>42263</v>
       </c>
       <c r="C18" s="4">
-        <v>49259</v>
+        <v>40806</v>
       </c>
       <c r="D18" s="4">
-        <v>4098</v>
+        <v>1457</v>
       </c>
       <c r="E18" s="5">
-        <v>0.068520853030780537</v>
+        <v>0.065680113521183858</v>
       </c>
     </row>
     <row r="19">
@@ -1258,16 +1261,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>58266</v>
+        <v>53365</v>
       </c>
       <c r="C19" s="4">
-        <v>53078</v>
+        <v>49258</v>
       </c>
       <c r="D19" s="4">
-        <v>5188</v>
+        <v>4107</v>
       </c>
       <c r="E19" s="5">
-        <v>0.069244060475161989</v>
+        <v>0.068543515940963293</v>
       </c>
     </row>
     <row r="20">
@@ -1275,16 +1278,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>53745</v>
+        <v>58270</v>
       </c>
       <c r="C20" s="4">
-        <v>49790</v>
+        <v>53082</v>
       </c>
       <c r="D20" s="4">
-        <v>3955</v>
+        <v>5188</v>
       </c>
       <c r="E20" s="5">
-        <v>0.072904467123975233</v>
+        <v>0.069223957320892454</v>
       </c>
     </row>
     <row r="21">
@@ -1292,16 +1295,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>50266</v>
+        <v>53772</v>
       </c>
       <c r="C21" s="4">
-        <v>45753</v>
+        <v>49800</v>
       </c>
       <c r="D21" s="4">
-        <v>4513</v>
+        <v>3972</v>
       </c>
       <c r="E21" s="5">
-        <v>0.078985492032165275</v>
+        <v>0.072899893347832451</v>
       </c>
     </row>
     <row r="22">
@@ -1309,16 +1312,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>35212</v>
+        <v>50304</v>
       </c>
       <c r="C22" s="4">
-        <v>30691</v>
+        <v>45761</v>
       </c>
       <c r="D22" s="4">
-        <v>4521</v>
+        <v>4543</v>
       </c>
       <c r="E22" s="5">
-        <v>0.077338528693679257</v>
+        <v>0.078980517299294589</v>
       </c>
     </row>
     <row r="23">
@@ -1326,16 +1329,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>29526</v>
+        <v>35251</v>
       </c>
       <c r="C23" s="4">
-        <v>28666</v>
+        <v>30684</v>
       </c>
       <c r="D23" s="4">
-        <v>860</v>
+        <v>4567</v>
       </c>
       <c r="E23" s="5">
-        <v>0.087222508252824127</v>
+        <v>0.077336621454993829</v>
       </c>
     </row>
     <row r="24">
@@ -1343,16 +1346,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>35710</v>
+        <v>29527</v>
       </c>
       <c r="C24" s="4">
-        <v>34686</v>
+        <v>28667</v>
       </c>
       <c r="D24" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E24" s="5">
-        <v>0.087184373511195803</v>
+        <v>0.087217225402016901</v>
       </c>
     </row>
     <row r="25">
@@ -1360,16 +1363,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>40953</v>
+        <v>35710</v>
       </c>
       <c r="C25" s="4">
-        <v>38377</v>
+        <v>34686</v>
       </c>
       <c r="D25" s="4">
-        <v>2576</v>
+        <v>1024</v>
       </c>
       <c r="E25" s="5">
-        <v>0.080414767687272501</v>
+        <v>0.087177451369591111</v>
       </c>
     </row>
     <row r="26">
@@ -1377,16 +1380,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>48263</v>
+        <v>40984</v>
       </c>
       <c r="C26" s="4">
-        <v>44479</v>
+        <v>38377</v>
       </c>
       <c r="D26" s="4">
-        <v>3784</v>
+        <v>2607</v>
       </c>
       <c r="E26" s="5">
-        <v>0.077358701110305197</v>
+        <v>0.08040846276140394</v>
       </c>
     </row>
     <row r="27">
@@ -1394,16 +1397,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>46504</v>
+        <v>48285</v>
       </c>
       <c r="C27" s="4">
-        <v>43323</v>
+        <v>44480</v>
       </c>
       <c r="D27" s="4">
-        <v>3181</v>
+        <v>3805</v>
       </c>
       <c r="E27" s="5">
-        <v>0.077970854824978716</v>
+        <v>0.077360859255126244</v>
       </c>
     </row>
     <row r="28">
@@ -1411,16 +1414,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>41464</v>
+        <v>46520</v>
       </c>
       <c r="C28" s="4">
-        <v>37781</v>
+        <v>43322</v>
       </c>
       <c r="D28" s="4">
-        <v>3683</v>
+        <v>3198</v>
       </c>
       <c r="E28" s="5">
-        <v>0.076051738653468384</v>
+        <v>0.077964998372599584</v>
       </c>
     </row>
     <row r="29">
@@ -1428,16 +1431,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>29461</v>
+        <v>41464</v>
       </c>
       <c r="C29" s="4">
-        <v>25887</v>
+        <v>37781</v>
       </c>
       <c r="D29" s="4">
-        <v>3574</v>
+        <v>3683</v>
       </c>
       <c r="E29" s="5">
-        <v>0.077109756449888767</v>
+        <v>0.076024286953415995</v>
       </c>
     </row>
     <row r="30">
@@ -1445,16 +1448,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>26385</v>
+        <v>29461</v>
       </c>
       <c r="C30" s="4">
-        <v>25645</v>
+        <v>25887</v>
       </c>
       <c r="D30" s="4">
-        <v>740</v>
+        <v>3574</v>
       </c>
       <c r="E30" s="5">
-        <v>0.080853790396860359</v>
+        <v>0.07709861921543705</v>
       </c>
     </row>
     <row r="31">
@@ -1462,16 +1465,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>34480</v>
+        <v>26385</v>
       </c>
       <c r="C31" s="4">
-        <v>33710</v>
+        <v>25645</v>
       </c>
       <c r="D31" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E31" s="5">
-        <v>0.075277552125643105</v>
+        <v>0.080857028434120945</v>
       </c>
     </row>
     <row r="32">
@@ -1479,16 +1482,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>40126</v>
+        <v>34480</v>
       </c>
       <c r="C32" s="4">
-        <v>38161</v>
+        <v>33710</v>
       </c>
       <c r="D32" s="4">
-        <v>1965</v>
+        <v>770</v>
       </c>
       <c r="E32" s="5">
-        <v>0.065225236061827147</v>
+        <v>0.075274154970892182</v>
       </c>
     </row>
     <row r="33">
@@ -1496,16 +1499,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>44916</v>
+        <v>40140</v>
       </c>
       <c r="C33" s="4">
-        <v>41831</v>
+        <v>38161</v>
       </c>
       <c r="D33" s="4">
-        <v>3085</v>
+        <v>1979</v>
       </c>
       <c r="E33" s="5">
-        <v>0.0588993745199166</v>
+        <v>0.065227197546086066</v>
       </c>
     </row>
     <row r="34">
@@ -1513,16 +1516,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>47591</v>
+        <v>44931</v>
       </c>
       <c r="C34" s="4">
-        <v>45124</v>
+        <v>41831</v>
       </c>
       <c r="D34" s="4">
-        <v>2467</v>
+        <v>3100</v>
       </c>
       <c r="E34" s="5">
-        <v>0.06653690518875173</v>
+        <v>0.058896143084435179</v>
       </c>
     </row>
     <row r="35">
@@ -1530,16 +1533,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>43316</v>
+        <v>47592</v>
       </c>
       <c r="C35" s="4">
-        <v>40553</v>
+        <v>45125</v>
       </c>
       <c r="D35" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E35" s="5">
-        <v>0.064268983017763029</v>
+        <v>0.066535201167823396</v>
       </c>
     </row>
     <row r="36">
@@ -1547,16 +1550,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>25525</v>
+        <v>43316</v>
       </c>
       <c r="C36" s="4">
-        <v>22386</v>
+        <v>40553</v>
       </c>
       <c r="D36" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E36" s="5">
-        <v>0.065390943994149547</v>
+        <v>0.064272119467083111</v>
       </c>
     </row>
     <row r="37">
@@ -1564,16 +1567,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>26673</v>
+        <v>25526</v>
       </c>
       <c r="C37" s="4">
-        <v>26110</v>
+        <v>22387</v>
       </c>
       <c r="D37" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E37" s="5">
-        <v>0.074466331492623425</v>
+        <v>0.065384966941896952</v>
       </c>
     </row>
     <row r="38">
@@ -1581,16 +1584,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>33589</v>
+        <v>26673</v>
       </c>
       <c r="C38" s="4">
-        <v>32768</v>
+        <v>26110</v>
       </c>
       <c r="D38" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E38" s="5">
-        <v>0.067802370534007395</v>
+        <v>0.07446019449480798</v>
       </c>
     </row>
     <row r="39">
@@ -1598,16 +1601,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>39052</v>
+        <v>33589</v>
       </c>
       <c r="C39" s="4">
-        <v>37192</v>
+        <v>32768</v>
       </c>
       <c r="D39" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E39" s="5">
-        <v>0.06341432787091103</v>
+        <v>0.067799490229396769</v>
       </c>
     </row>
     <row r="40">
@@ -1615,16 +1618,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>45095</v>
+        <v>39052</v>
       </c>
       <c r="C40" s="4">
-        <v>42090</v>
+        <v>37192</v>
       </c>
       <c r="D40" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E40" s="5">
-        <v>0.059545415262293663</v>
+        <v>0.063404375529677648</v>
       </c>
     </row>
     <row r="41">
@@ -1632,16 +1635,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>45528</v>
+        <v>45095</v>
       </c>
       <c r="C41" s="4">
-        <v>43051</v>
+        <v>42090</v>
       </c>
       <c r="D41" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E41" s="5">
-        <v>0.060471369385683323</v>
+        <v>0.059552277507274771</v>
       </c>
     </row>
     <row r="42">
@@ -1649,16 +1652,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>38835</v>
+        <v>45528</v>
       </c>
       <c r="C42" s="4">
-        <v>36670</v>
+        <v>43051</v>
       </c>
       <c r="D42" s="4">
-        <v>2165</v>
+        <v>2477</v>
       </c>
       <c r="E42" s="5">
-        <v>0.05939020278406628</v>
+        <v>0.060461416070007955</v>
       </c>
     </row>
     <row r="43">
@@ -1666,16 +1669,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>23935</v>
+        <v>38835</v>
       </c>
       <c r="C43" s="4">
-        <v>21589</v>
+        <v>36670</v>
       </c>
       <c r="D43" s="4">
-        <v>2346</v>
+        <v>2165</v>
       </c>
       <c r="E43" s="5">
-        <v>0.064228397108561569</v>
+        <v>0.059387342259897891</v>
       </c>
     </row>
     <row r="44">
@@ -1683,16 +1686,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>25467</v>
+        <v>23935</v>
       </c>
       <c r="C44" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D44" s="4">
-        <v>417</v>
+        <v>2346</v>
       </c>
       <c r="E44" s="5">
-        <v>0.070308876727576297</v>
+        <v>0.064224137931034486</v>
       </c>
     </row>
     <row r="45">
@@ -1700,16 +1703,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C45" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D45" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E45" s="5">
-        <v>0.074905746364502632</v>
+        <v>0.07029909575701368</v>
       </c>
     </row>
     <row r="46">
@@ -1717,16 +1720,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>37818</v>
+        <v>30514</v>
       </c>
       <c r="C46" s="4">
-        <v>36633</v>
+        <v>30031</v>
       </c>
       <c r="D46" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E46" s="5">
-        <v>0.062138116085298685</v>
+        <v>0.074980333705957858</v>
       </c>
     </row>
     <row r="47">
@@ -1734,16 +1737,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>40652</v>
+        <v>37818</v>
       </c>
       <c r="C47" s="4">
-        <v>38742</v>
+        <v>36633</v>
       </c>
       <c r="D47" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E47" s="5">
-        <v>0.064215730882397543</v>
+        <v>0.062003460329790615</v>
       </c>
     </row>
     <row r="48">
@@ -1751,16 +1754,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>46374</v>
+        <v>40652</v>
       </c>
       <c r="C48" s="4">
-        <v>44983</v>
+        <v>38742</v>
       </c>
       <c r="D48" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E48" s="5">
-        <v>0.063607594936708867</v>
+        <v>0.064238269994843958</v>
       </c>
     </row>
     <row r="49">
@@ -1768,16 +1771,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>36504</v>
+        <v>46374</v>
       </c>
       <c r="C49" s="4">
-        <v>34760</v>
+        <v>44983</v>
       </c>
       <c r="D49" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E49" s="5">
-        <v>0.058744143410063149</v>
+        <v>0.063609272396423958</v>
       </c>
     </row>
     <row r="50">
@@ -1785,16 +1788,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>18443</v>
+        <v>36504</v>
       </c>
       <c r="C50" s="4">
-        <v>16604</v>
+        <v>34760</v>
       </c>
       <c r="D50" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E50" s="5">
-        <v>0.061622378653300412</v>
+        <v>0.058744143410063149</v>
       </c>
     </row>
     <row r="51">
@@ -1802,16 +1805,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>23462</v>
+        <v>18443</v>
       </c>
       <c r="C51" s="4">
-        <v>23126</v>
+        <v>16604</v>
       </c>
       <c r="D51" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E51" s="5">
-        <v>0.076940757340688393</v>
+        <v>0.061615566037735846</v>
       </c>
     </row>
     <row r="52">
@@ -1819,16 +1822,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>32977</v>
+        <v>23462</v>
       </c>
       <c r="C52" s="4">
-        <v>32585</v>
+        <v>23126</v>
       </c>
       <c r="D52" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E52" s="5">
-        <v>0.074072356215213353</v>
+        <v>0.07693191611605861</v>
       </c>
     </row>
     <row r="53">
@@ -1836,16 +1839,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>34489</v>
+        <v>32977</v>
       </c>
       <c r="C53" s="4">
-        <v>33614</v>
+        <v>32585</v>
       </c>
       <c r="D53" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E53" s="5">
-        <v>0.058689284011172425</v>
+        <v>0.07405518200788315</v>
       </c>
     </row>
     <row r="54">
@@ -1853,16 +1856,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>41560</v>
+        <v>34489</v>
       </c>
       <c r="C54" s="4">
-        <v>40065</v>
+        <v>33614</v>
       </c>
       <c r="D54" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E54" s="5">
-        <v>0.061174474502780657</v>
+        <v>0.058701281002998089</v>
       </c>
     </row>
     <row r="55">
@@ -1870,16 +1873,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>42287</v>
+        <v>41560</v>
       </c>
       <c r="C55" s="4">
-        <v>41168</v>
+        <v>40065</v>
       </c>
       <c r="D55" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E55" s="5">
-        <v>0.065396983810157461</v>
+        <v>0.061172552469523689</v>
       </c>
     </row>
     <row r="56">
@@ -1887,16 +1890,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>34303</v>
+        <v>42286</v>
       </c>
       <c r="C56" s="4">
-        <v>32854</v>
+        <v>41167</v>
       </c>
       <c r="D56" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E56" s="5">
-        <v>0.060711945839702991</v>
+        <v>0.065389732786339944</v>
       </c>
     </row>
     <row r="57">
@@ -1904,16 +1907,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>21671</v>
+        <v>34302</v>
       </c>
       <c r="C57" s="4">
-        <v>20538</v>
+        <v>32853</v>
       </c>
       <c r="D57" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E57" s="5">
-        <v>0.066346802608891225</v>
+        <v>0.060713603232234993</v>
       </c>
     </row>
     <row r="58">
@@ -1921,16 +1924,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>21641</v>
+        <v>21671</v>
       </c>
       <c r="C58" s="4">
-        <v>21363</v>
+        <v>20538</v>
       </c>
       <c r="D58" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E58" s="5">
-        <v>0.067794994040524428</v>
+        <v>0.066341829085457271</v>
       </c>
     </row>
     <row r="59">
@@ -1938,16 +1941,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>32579</v>
+        <v>21641</v>
       </c>
       <c r="C59" s="4">
-        <v>32240</v>
+        <v>21363</v>
       </c>
       <c r="D59" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E59" s="5">
-        <v>0.069910057236304168</v>
+        <v>0.067794994040524428</v>
       </c>
     </row>
     <row r="60">
@@ -1955,16 +1958,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>37232</v>
+        <v>32579</v>
       </c>
       <c r="C60" s="4">
-        <v>36223</v>
+        <v>32240</v>
       </c>
       <c r="D60" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E60" s="5">
-        <v>0.056469695401704094</v>
+        <v>0.069902912621359226</v>
       </c>
     </row>
     <row r="61">
@@ -1972,16 +1975,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>42460</v>
+        <v>37232</v>
       </c>
       <c r="C61" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D61" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E61" s="5">
-        <v>0.055497624840690533</v>
+        <v>0.056467747499137633</v>
       </c>
     </row>
     <row r="62">
@@ -1989,16 +1992,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>40909</v>
+        <v>42460</v>
       </c>
       <c r="C62" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D62" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E62" s="5">
-        <v>0.050193153771863931</v>
+        <v>0.055496017378711078</v>
       </c>
     </row>
     <row r="63">
@@ -2006,16 +2009,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C63" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D63" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E63" s="5">
-        <v>0.057386954444538125</v>
+        <v>0.050193153771863931</v>
       </c>
     </row>
     <row r="64">
@@ -2023,16 +2026,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C64" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D64" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E64" s="5">
-        <v>0.05682075258276148</v>
+        <v>0.057388567253105503</v>
       </c>
     </row>
     <row r="65">
@@ -2040,16 +2043,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C65" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D65" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E65" s="5">
-        <v>0.064732692781473269</v>
+        <v>0.056818610262790788</v>
       </c>
     </row>
     <row r="66">
@@ -2057,16 +2060,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>26991</v>
+        <v>18049</v>
       </c>
       <c r="C66" s="4">
-        <v>26698</v>
+        <v>17796</v>
       </c>
       <c r="D66" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E66" s="5">
-        <v>0.078737886479003233</v>
+        <v>0.064732692781473269</v>
       </c>
     </row>
     <row r="67">
@@ -2074,16 +2077,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C67" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D67" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E67" s="5">
-        <v>0.062049433573635425</v>
+        <v>0.078733344869354557</v>
       </c>
     </row>
     <row r="68">
@@ -2091,16 +2094,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C68" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D68" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E68" s="5">
-        <v>0.0611559595685503</v>
+        <v>0.062041446775646804</v>
       </c>
     </row>
     <row r="69">
@@ -2108,16 +2111,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>40627</v>
+        <v>36046</v>
       </c>
       <c r="C69" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D69" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E69" s="5">
-        <v>0.054630969609261941</v>
+        <v>0.061160108548168252</v>
       </c>
     </row>
     <row r="70">
@@ -2125,16 +2128,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>29245</v>
+        <v>40627</v>
       </c>
       <c r="C70" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D70" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E70" s="5">
-        <v>0.054527641707487751</v>
+        <v>0.054634264005306639</v>
       </c>
     </row>
     <row r="71">
@@ -2142,16 +2145,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C71" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D71" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E71" s="5">
-        <v>0.058002528445006321</v>
+        <v>0.054530694510539428</v>
       </c>
     </row>
     <row r="72">
@@ -2159,16 +2162,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C72" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D72" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E72" s="5">
-        <v>0.066627512398851479</v>
+        <v>0.057996662790109725</v>
       </c>
     </row>
     <row r="73">
@@ -2176,16 +2179,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C73" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D73" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E73" s="5">
-        <v>0.06005940737520829</v>
+        <v>0.06663186060170985</v>
       </c>
     </row>
     <row r="74">
@@ -2193,16 +2196,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>31627</v>
+        <v>26010</v>
       </c>
       <c r="C74" s="4">
-        <v>31296</v>
+        <v>25913</v>
       </c>
       <c r="D74" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E74" s="5">
-        <v>0.053106296889488327</v>
+        <v>0.060033311608371352</v>
       </c>
     </row>
     <row r="75">
@@ -2210,16 +2213,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>36161</v>
+        <v>31627</v>
       </c>
       <c r="C75" s="4">
-        <v>35830</v>
+        <v>31296</v>
       </c>
       <c r="D75" s="4">
         <v>331</v>
       </c>
       <c r="E75" s="5">
-        <v>0.049562183609248869</v>
+        <v>0.053106296889488327</v>
       </c>
     </row>
     <row r="76">
@@ -2227,16 +2230,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>38437</v>
+        <v>36161</v>
       </c>
       <c r="C76" s="4">
-        <v>38073</v>
+        <v>35830</v>
       </c>
       <c r="D76" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E76" s="5">
-        <v>0.045742413782753552</v>
+        <v>0.049558793351118409</v>
       </c>
     </row>
     <row r="77">
@@ -2244,16 +2247,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C77" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D77" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E77" s="5">
-        <v>0.049164060620639882</v>
+        <v>0.045742413782753552</v>
       </c>
     </row>
     <row r="78">
@@ -2261,16 +2264,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C78" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D78" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E78" s="5">
-        <v>0.048571428571428571</v>
+        <v>0.049152236652236656</v>
       </c>
     </row>
     <row r="79">
@@ -2278,12 +2281,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C79" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D79" s="4">
+        <v>315</v>
+      </c>
       <c r="E79" s="5">
-        <v>0.053989459492584872</v>
+        <v>0.048608717064762372</v>
       </c>
     </row>
     <row r="80">
@@ -2291,12 +2298,12 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5">
-        <v>0.052834969908140642</v>
+        <v>0.053928177472729502</v>
       </c>
     </row>
     <row r="81">
@@ -2304,12 +2311,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.052951666742878045</v>
+        <v>0.052838317283324887</v>
       </c>
     </row>
     <row r="82">
@@ -2317,12 +2324,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.046140821221955695</v>
+        <v>0.052932303332266763</v>
       </c>
     </row>
     <row r="83">
@@ -2330,12 +2337,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.047272122421823021</v>
+        <v>0.04613105734640615</v>
       </c>
     </row>
     <row r="84">
@@ -2343,12 +2350,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.047537500396410109</v>
+        <v>0.047281559858920609</v>
       </c>
     </row>
     <row r="85">
@@ -2356,12 +2363,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.056871162812168211</v>
+        <v>0.047539007991881266</v>
       </c>
     </row>
     <row r="86">
@@ -2369,12 +2376,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.057119963369963368</v>
+        <v>0.056784081990674487</v>
       </c>
     </row>
     <row r="87">
@@ -2382,12 +2389,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.04949597915958772</v>
+        <v>0.057113425660982028</v>
       </c>
     </row>
     <row r="88">
@@ -2395,12 +2402,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.047561382996492402</v>
+        <v>0.049493176284047792</v>
       </c>
     </row>
     <row r="89">
@@ -2408,12 +2415,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.049753694581280788</v>
+        <v>0.047559397052068977</v>
       </c>
     </row>
     <row r="90">
@@ -2421,12 +2428,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.050190137967880827</v>
+        <v>0.0497606981981982</v>
       </c>
     </row>
     <row r="91">
@@ -2434,12 +2441,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.051638176638176637</v>
+        <v>0.050191715381230753</v>
       </c>
     </row>
     <row r="92">
@@ -2447,12 +2454,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.064218064218064225</v>
+        <v>0.051631281434993549</v>
       </c>
     </row>
     <row r="93">
@@ -2460,12 +2467,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.070676561960648948</v>
+        <v>0.064208176149049195</v>
       </c>
     </row>
     <row r="94">
@@ -2473,12 +2480,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.059213222237399263</v>
+        <v>0.070664365832614318</v>
       </c>
     </row>
     <row r="95">
@@ -2486,12 +2493,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.056565091790140715</v>
+        <v>0.059221311475409835</v>
       </c>
     </row>
     <row r="96">
@@ -2499,12 +2506,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.059776029055690072</v>
+        <v>0.056557186116934548</v>
       </c>
     </row>
     <row r="97">
@@ -2512,12 +2519,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.05337665351589696</v>
+        <v>0.059771506393281382</v>
       </c>
     </row>
     <row r="98">
@@ -2525,12 +2532,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.063283726057599562</v>
+        <v>0.053378423181486639</v>
       </c>
     </row>
     <row r="99">
@@ -2538,12 +2545,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.065626359286646369</v>
+        <v>0.063268469089030485</v>
       </c>
     </row>
     <row r="100">
@@ -2551,12 +2558,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.076391112249471732</v>
+        <v>0.065608523128770996</v>
       </c>
     </row>
     <row r="101">
@@ -2564,12 +2571,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.065827686350435621</v>
+        <v>0.076391112249471732</v>
       </c>
     </row>
     <row r="102">
@@ -2577,12 +2584,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.07690281801422176</v>
+        <v>0.06583143507972665</v>
       </c>
     </row>
     <row r="103">
@@ -2590,12 +2597,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.059708093763821316</v>
+        <v>0.076879196103383216</v>
       </c>
     </row>
     <row r="104">
@@ -2603,12 +2610,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.062661477581188479</v>
+        <v>0.059741095119401788</v>
       </c>
     </row>
     <row r="105">
@@ -2616,12 +2623,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.070949152542372884</v>
+        <v>0.062657379247195791</v>
       </c>
     </row>
     <row r="106">
@@ -2629,12 +2636,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.065344224037339554</v>
+        <v>0.070949152542372884</v>
       </c>
     </row>
     <row r="107">
@@ -2642,12 +2649,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.08027072758037225</v>
+        <v>0.06541461085468725</v>
       </c>
     </row>
     <row r="108">
@@ -2655,12 +2662,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.07296494355317884</v>
+        <v>0.080259863301075998</v>
       </c>
     </row>
     <row r="109">
@@ -2668,12 +2675,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.064144668468093954</v>
+        <v>0.072951939642369151</v>
       </c>
     </row>
     <row r="110">
@@ -2681,12 +2688,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.06379362441456414</v>
+        <v>0.064136669714855765</v>
       </c>
     </row>
     <row r="111">
@@ -2694,12 +2701,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.069028687246647957</v>
+        <v>0.063752689389650091</v>
       </c>
     </row>
     <row r="112">
@@ -2707,12 +2714,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.075870206489675518</v>
+        <v>0.069023306571049964</v>
       </c>
     </row>
     <row r="113">
@@ -2720,12 +2727,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.065124978745111375</v>
+        <v>0.075870206489675518</v>
       </c>
     </row>
     <row r="114">
@@ -2733,12 +2740,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.06897323092983372</v>
+        <v>0.065132362110991437</v>
       </c>
     </row>
     <row r="115">
@@ -2746,12 +2753,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.063122017723244717</v>
+        <v>0.06897837434750187</v>
       </c>
     </row>
     <row r="116">
@@ -2759,12 +2766,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.06368486234162142</v>
+        <v>0.063122017723244717</v>
       </c>
     </row>
     <row r="117">
@@ -2772,12 +2779,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.063728783196739663</v>
+        <v>0.063681829006906401</v>
       </c>
     </row>
     <row r="118">
@@ -2785,12 +2792,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.059340475393371277</v>
+        <v>0.063723075545206218</v>
       </c>
     </row>
     <row r="119">
@@ -2798,12 +2805,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.064250994255413169</v>
+        <v>0.059352894395379011</v>
       </c>
     </row>
     <row r="120">
@@ -2811,12 +2818,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.062112527781027022</v>
+        <v>0.064256673148311821</v>
       </c>
     </row>
     <row r="121">
@@ -2824,12 +2831,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.06411098941219423</v>
+        <v>0.06210526315789474</v>
       </c>
     </row>
     <row r="122">
@@ -2837,12 +2844,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.052488927084021947</v>
+        <v>0.06410162809374316</v>
       </c>
     </row>
     <row r="123">
@@ -2850,12 +2857,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.059505729670026229</v>
+        <v>0.052478519497686713</v>
       </c>
     </row>
     <row r="124">
@@ -2863,12 +2870,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.068101360163964966</v>
+        <v>0.05950846833578792</v>
       </c>
     </row>
     <row r="125">
@@ -2876,12 +2883,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.070795265313470454</v>
+        <v>0.06810770520823628</v>
       </c>
     </row>
     <row r="126">
@@ -2889,12 +2896,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.075557677284957908</v>
+        <v>0.070817576084999098</v>
       </c>
     </row>
     <row r="127">
@@ -2902,12 +2909,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.076469782102233791</v>
+        <v>0.075551119597292132</v>
       </c>
     </row>
     <row r="128">
@@ -2915,12 +2922,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.06769947729705901</v>
+        <v>0.076469782102233791</v>
       </c>
     </row>
     <row r="129">
@@ -2928,12 +2935,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.072945223888620112</v>
+        <v>0.06769947729705901</v>
       </c>
     </row>
     <row r="130">
@@ -2941,12 +2948,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.068521533224803907</v>
+        <v>0.072945223888620112</v>
       </c>
     </row>
     <row r="131">
@@ -2954,12 +2961,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.06652457269336394</v>
+        <v>0.068564100034528688</v>
       </c>
     </row>
     <row r="132">
@@ -2967,12 +2974,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.072350658116773534</v>
+        <v>0.066519119636050658</v>
       </c>
     </row>
     <row r="133">
@@ -2980,12 +2987,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.074865739588149516</v>
+        <v>0.072353710500780488</v>
       </c>
     </row>
     <row r="134">
@@ -2993,12 +3000,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.069443709310326576</v>
+        <v>0.074893314366998573</v>
       </c>
     </row>
     <row r="135">
@@ -3006,12 +3013,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.071817921009849864</v>
+        <v>0.069394452678382387</v>
       </c>
     </row>
     <row r="136">
@@ -3019,12 +3026,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.07678349727819693</v>
+        <v>0.071814487210136266</v>
       </c>
     </row>
     <row r="137">
@@ -3032,12 +3039,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.078425925925925927</v>
+        <v>0.076779830969775101</v>
       </c>
     </row>
     <row r="138">
@@ -3045,12 +3052,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.074715069649641197</v>
+        <v>0.07832439430368042</v>
       </c>
     </row>
     <row r="139">
@@ -3058,12 +3065,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.084730577243056437</v>
+        <v>0.074757281553398058</v>
       </c>
     </row>
     <row r="140">
@@ -3071,12 +3078,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.078029512595021611</v>
+        <v>0.084730577243056437</v>
       </c>
     </row>
     <row r="141">
@@ -3084,12 +3091,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.076093281410858957</v>
+        <v>0.078035328314824473</v>
       </c>
     </row>
     <row r="142">
@@ -3097,12 +3104,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.08080905369612329</v>
+        <v>0.076086470035357831</v>
       </c>
     </row>
     <row r="143">
@@ -3110,12 +3117,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.069414649095924</v>
+        <v>0.080824623091373254</v>
       </c>
     </row>
     <row r="144">
@@ -3123,12 +3130,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.080765285644204612</v>
+        <v>0.069407558733401431</v>
       </c>
     </row>
     <row r="145">
@@ -3136,12 +3143,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.084360954246859507</v>
+        <v>0.080765285644204612</v>
       </c>
     </row>
     <row r="146">
@@ -3149,12 +3156,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.073116169544740969</v>
+        <v>0.084351233002996087</v>
       </c>
     </row>
     <row r="147">
@@ -3162,12 +3169,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.087274453941120614</v>
+        <v>0.073124779212623156</v>
       </c>
     </row>
     <row r="148">
@@ -3175,12 +3182,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.078321938514487696</v>
+        <v>0.087274453941120614</v>
       </c>
     </row>
     <row r="149">
@@ -3188,12 +3195,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.09621235966845032</v>
+        <v>0.078318295972467672</v>
       </c>
     </row>
     <row r="150">
@@ -3201,12 +3208,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.092386572506529943</v>
+        <v>0.09621235966845032</v>
       </c>
     </row>
     <row r="151">
@@ -3214,12 +3221,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.091318500022294552</v>
+        <v>0.092399980649218713</v>
       </c>
     </row>
     <row r="152">
@@ -3227,12 +3234,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.09576562142366675</v>
+        <v>0.091314428393080085</v>
       </c>
     </row>
     <row r="153">
@@ -3240,12 +3247,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.093518565810306958</v>
+        <v>0.095770005493499358</v>
       </c>
     </row>
     <row r="154">
@@ -3253,12 +3260,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.085329204990438029</v>
+        <v>0.093552013079910082</v>
       </c>
     </row>
     <row r="155">
@@ -3266,12 +3273,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.088526824433155737</v>
+        <v>0.085333090478575652</v>
       </c>
     </row>
     <row r="156">
@@ -3279,12 +3286,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.0921086234783349</v>
+        <v>0.088526824433155737</v>
       </c>
     </row>
     <row r="157">
@@ -3292,12 +3299,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.084283727399165509</v>
+        <v>0.092124308216262232</v>
       </c>
     </row>
     <row r="158">
@@ -3305,12 +3312,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.089194029850746273</v>
+        <v>0.084283727399165509</v>
       </c>
     </row>
     <row r="159">
@@ -3318,12 +3325,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.091596745486905676</v>
+        <v>0.089210007762584337</v>
       </c>
     </row>
     <row r="160">
@@ -3331,12 +3338,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.104550582925912</v>
+        <v>0.091602568177483953</v>
       </c>
     </row>
     <row r="161">
@@ -3344,12 +3351,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.083304666895998164</v>
+        <v>0.10456181827951212</v>
       </c>
     </row>
     <row r="162">
@@ -3357,12 +3364,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.095684902459711618</v>
+        <v>0.083290341071940388</v>
       </c>
     </row>
     <row r="163">
@@ -3370,12 +3377,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.087800612155662441</v>
+        <v>0.095674758825400191</v>
       </c>
     </row>
     <row r="164">
@@ -3383,12 +3390,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.081923367637653358</v>
+        <v>0.087800612155662441</v>
       </c>
     </row>
     <row r="165">
@@ -3396,12 +3403,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.09470267763996755</v>
+        <v>0.081928131178043956</v>
       </c>
     </row>
     <row r="166">
@@ -3409,12 +3416,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.098943212170479619</v>
+        <v>0.094719146716132394</v>
       </c>
     </row>
     <row r="167">
@@ -3422,12 +3429,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.096633375223229054</v>
+        <v>0.098948957667963536</v>
       </c>
     </row>
     <row r="168">
@@ -3435,12 +3442,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.077391755250194455</v>
+        <v>0.096646159952371496</v>
       </c>
     </row>
     <row r="169">
@@ -3448,12 +3455,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.082451335948486415</v>
+        <v>0.07737670922169658</v>
       </c>
     </row>
     <row r="170">
@@ -3461,12 +3468,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.090370018975332062</v>
+        <v>0.082451335948486415</v>
       </c>
     </row>
     <row r="171">
@@ -3474,12 +3481,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.084119200301772917</v>
+        <v>0.0903593027392387</v>
       </c>
     </row>
     <row r="172">
@@ -3487,12 +3494,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.094138283876626219</v>
+        <v>0.084125547004677836</v>
       </c>
     </row>
     <row r="173">
@@ -3500,12 +3507,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.095567768182142604</v>
+        <v>0.094145164827132519</v>
       </c>
     </row>
     <row r="174">
@@ -3513,12 +3520,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.085693967049899247</v>
+        <v>0.095574589578872229</v>
       </c>
     </row>
     <row r="175">
@@ -3526,12 +3533,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.082758158547209013</v>
+        <v>0.085673658016352655</v>
       </c>
     </row>
     <row r="176">
@@ -3539,12 +3546,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.082730439442658094</v>
       </c>
     </row>
     <row r="177">
@@ -3552,12 +3559,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.090610261540660278</v>
+        <v>0.080478172697192873</v>
       </c>
     </row>
     <row r="178">
@@ -3565,12 +3572,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.082531050194752695</v>
+        <v>0.090584369195599368</v>
       </c>
     </row>
     <row r="179">
@@ -3578,12 +3585,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.091530546161041948</v>
+        <v>0.082537115978244896</v>
       </c>
     </row>
     <row r="180">
@@ -3591,12 +3598,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.092592592592592587</v>
+        <v>0.091530546161041948</v>
       </c>
     </row>
     <row r="181">
@@ -3604,12 +3611,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.098421788639541846</v>
+        <v>0.092605486701016565</v>
       </c>
     </row>
     <row r="182">
@@ -3617,12 +3624,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.084504968715495038</v>
+        <v>0.09841523505127181</v>
       </c>
     </row>
     <row r="183">
@@ -3630,12 +3637,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.076279725916968966</v>
+        <v>0.084529857889698842</v>
       </c>
     </row>
     <row r="184">
@@ -3643,12 +3650,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.086752460257380773</v>
+        <v>0.076279725916968966</v>
       </c>
     </row>
     <row r="185">
@@ -3656,12 +3663,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.090018269390466699</v>
+        <v>0.086752460257380773</v>
       </c>
     </row>
     <row r="186">
@@ -3669,12 +3676,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.093406593406593408</v>
+        <v>0.090033222591362122</v>
       </c>
     </row>
     <row r="187">
@@ -3682,12 +3689,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.097655172413793109</v>
+        <v>0.093356304511683003</v>
       </c>
     </row>
     <row r="188">
@@ -3695,12 +3702,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.086288998357963873</v>
+        <v>0.097709080872205353</v>
       </c>
     </row>
     <row r="189">
@@ -3708,12 +3715,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.089446044384211415</v>
+        <v>0.086235216819973717</v>
       </c>
     </row>
     <row r="190">
@@ -3721,12 +3728,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.077891082664352351</v>
+        <v>0.089415749364944966</v>
       </c>
     </row>
     <row r="191">
@@ -3734,12 +3741,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.078495362418412915</v>
+        <v>0.077891082664352351</v>
       </c>
     </row>
     <row r="192">
@@ -3747,12 +3754,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.080946318692976874</v>
+        <v>0.078337055488747642</v>
       </c>
     </row>
     <row r="193">
@@ -3760,12 +3767,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.081773207876612672</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="194">
@@ -3773,12 +3780,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.099035933391761616</v>
+        <v>0.081781140861466817</v>
       </c>
     </row>
     <row r="195">
@@ -3786,12 +3793,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.089967284623773167</v>
+        <v>0.099003395027926849</v>
       </c>
     </row>
     <row r="196">
@@ -3799,12 +3806,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.089967284623773167</v>
       </c>
     </row>
     <row r="197">
@@ -3812,12 +3819,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.070512820512820512</v>
+        <v>0.076494503839783165</v>
       </c>
     </row>
     <row r="198">
@@ -3825,12 +3832,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.07636914913776767</v>
+        <v>0.070558050032071842</v>
       </c>
     </row>
     <row r="199">
@@ -3838,12 +3845,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.081847890671420079</v>
+        <v>0.07636914913776767</v>
       </c>
     </row>
     <row r="200">
@@ -3851,12 +3858,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.087774294670846395</v>
+        <v>0.081847890671420079</v>
       </c>
     </row>
     <row r="201">
@@ -3864,12 +3871,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.09723233794610342</v>
+        <v>0.087774294670846395</v>
       </c>
     </row>
     <row r="202">
@@ -3877,12 +3884,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.082872233400402409</v>
+        <v>0.097244142284812429</v>
       </c>
     </row>
     <row r="203">
@@ -3890,12 +3897,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.073151217281975087</v>
+        <v>0.082893081761006293</v>
       </c>
     </row>
     <row r="204">
@@ -3903,12 +3910,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.063018242122719739</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="205">
@@ -3916,12 +3923,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.055771472988729108</v>
+        <v>0.063029856247696275</v>
       </c>
     </row>
     <row r="206">
@@ -3929,12 +3936,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.060998151571164512</v>
+        <v>0.055793157076205288</v>
       </c>
     </row>
     <row r="207">
@@ -3942,12 +3949,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.061007548913880758</v>
       </c>
     </row>
     <row r="208">
@@ -3955,12 +3962,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.068560406803436794</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="209">
@@ -3968,12 +3975,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.067127524104056757</v>
+        <v>0.068560406803436794</v>
       </c>
     </row>
     <row r="210">
@@ -3981,12 +3988,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.071927260918980357</v>
+        <v>0.067127524104056757</v>
       </c>
     </row>
     <row r="211">
@@ -3994,12 +4001,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.05439121756487026</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="212">
@@ -4007,12 +4014,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.041313168572482475</v>
+        <v>0.054404791614674319</v>
       </c>
     </row>
     <row r="213">
@@ -4020,12 +4027,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041313168572482475</v>
       </c>
     </row>
     <row r="214">
@@ -4033,12 +4040,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.08256664307619721</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="215">
@@ -4046,12 +4053,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.072722937529804479</v>
+        <v>0.08256664307619721</v>
       </c>
     </row>
     <row r="216">
@@ -4059,12 +4066,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.083222958057395144</v>
+        <v>0.072740281421416642</v>
       </c>
     </row>
     <row r="217">
@@ -4072,12 +4079,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.080526315789473682</v>
+        <v>0.083222958057395144</v>
       </c>
     </row>
     <row r="218">
@@ -4085,12 +4092,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.071119973413094048</v>
+        <v>0.080512190843711626</v>
       </c>
     </row>
     <row r="219">
@@ -4098,12 +4105,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.06490765171503958</v>
+        <v>0.071143617021276598</v>
       </c>
     </row>
     <row r="220">
@@ -4111,12 +4118,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.063391968138068369</v>
+        <v>0.065044949762030665</v>
       </c>
     </row>
     <row r="221">
@@ -4124,12 +4131,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063391968138068369</v>
       </c>
     </row>
     <row r="222">
@@ -4137,12 +4144,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="223">
@@ -4150,12 +4157,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.073731426969442113</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="224">
@@ -4163,12 +4170,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073731426969442113</v>
       </c>
     </row>
     <row r="225">
@@ -4176,12 +4183,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="226">
@@ -4189,12 +4196,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.11077971878994461</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="227">
@@ -4202,12 +4209,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.12945590994371481</v>
+        <v>0.11087420042643924</v>
       </c>
     </row>
     <row r="228">
@@ -4215,12 +4222,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12945590994371481</v>
       </c>
     </row>
     <row r="229">
@@ -4228,12 +4235,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.10679294578706727</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="230">
@@ -4241,12 +4248,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.11592178770949721</v>
+        <v>0.10682783404116301</v>
       </c>
     </row>
     <row r="231">
@@ -4254,12 +4261,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.10545454545454545</v>
+        <v>0.11592178770949721</v>
       </c>
     </row>
     <row r="232">
@@ -4267,12 +4274,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10555923229649239</v>
       </c>
     </row>
     <row r="233">
@@ -4280,12 +4287,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.089733225545675019</v>
+        <v>0.10848791455874086</v>
       </c>
     </row>
     <row r="234">
@@ -4293,12 +4300,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.12865497076023391</v>
+        <v>0.089733225545675019</v>
       </c>
     </row>
     <row r="235">
@@ -4306,12 +4313,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12865497076023391</v>
       </c>
     </row>
     <row r="236">
@@ -4319,12 +4326,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="237">
@@ -4332,12 +4339,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.15926424405563033</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="238">
@@ -4345,12 +4352,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15933572710951527</v>
       </c>
     </row>
     <row r="239">
@@ -4358,12 +4365,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="240">
@@ -4371,12 +4378,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.11217183770883055</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="241">
@@ -4384,12 +4391,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11217183770883055</v>
       </c>
     </row>
     <row r="242">
@@ -4397,12 +4404,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="243">
@@ -4410,12 +4417,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.084227910817506191</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="244">
@@ -4423,12 +4430,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.09157667386609071</v>
+        <v>0.084227910817506191</v>
       </c>
     </row>
     <row r="245">
@@ -4436,12 +4443,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.090274314214463844</v>
+        <v>0.091537132987910191</v>
       </c>
     </row>
     <row r="246">
@@ -4449,12 +4456,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="247">
@@ -4462,12 +4469,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="248">
@@ -4475,12 +4482,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.082069874752801586</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="249">
@@ -4488,12 +4495,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.084689349112426038</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="250">
@@ -4501,12 +4508,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.080738966814916185</v>
+        <v>0.084689349112426038</v>
       </c>
     </row>
     <row r="251">
@@ -4514,12 +4521,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.068189566996249576</v>
+        <v>0.080738966814916185</v>
       </c>
     </row>
     <row r="252">
@@ -4527,12 +4534,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068189566996249576</v>
       </c>
     </row>
     <row r="253">
@@ -4540,18 +4547,20 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
-      <c r="E253" s="5"/>
+      <c r="E253" s="5">
+        <v>0.074667575860893287</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -4562,7 +4571,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4573,7 +4582,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4584,7 +4593,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4595,7 +4604,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4606,7 +4615,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4617,7 +4626,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4628,7 +4637,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4639,7 +4648,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4650,7 +4659,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4661,7 +4670,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4672,7 +4681,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4683,7 +4692,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4694,7 +4703,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4705,7 +4714,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4715,7 +4724,9 @@
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B269" s="4"/>
+      <c r="B269" s="4">
+        <v>936</v>
+      </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="5"/>
@@ -4837,6 +4848,15 @@
       <c r="D282" s="4"/>
       <c r="E282" s="5"/>
     </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+  <si>
+    <t>12/9/2020</t>
+  </si>
   <si>
     <t>12/8/2020</t>
   </si>
@@ -957,24 +960,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:E284"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2">
@@ -991,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>35443</v>
+        <v>42555</v>
       </c>
       <c r="C3" s="4">
-        <v>34133</v>
+        <v>35871</v>
       </c>
       <c r="D3" s="4">
-        <v>1310</v>
+        <v>6684</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1006,16 +1009,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>48796</v>
+        <v>39148</v>
       </c>
       <c r="C4" s="4">
-        <v>47329</v>
+        <v>37577</v>
       </c>
       <c r="D4" s="4">
-        <v>1467</v>
+        <v>1571</v>
       </c>
       <c r="E4" s="5">
-        <v>0.097339610868455384</v>
+        <v>0.1171970350965975</v>
       </c>
     </row>
     <row r="5">
@@ -1023,16 +1026,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>52062</v>
+        <v>49744</v>
       </c>
       <c r="C5" s="4">
-        <v>48198</v>
+        <v>48212</v>
       </c>
       <c r="D5" s="4">
-        <v>3864</v>
+        <v>1532</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10769662678702543</v>
+        <v>0.10093163694546956</v>
       </c>
     </row>
     <row r="6">
@@ -1040,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>59919</v>
+        <v>53629</v>
       </c>
       <c r="C6" s="4">
-        <v>54260</v>
+        <v>49507</v>
       </c>
       <c r="D6" s="4">
-        <v>5659</v>
+        <v>4122</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10418164781765488</v>
+        <v>0.10953656024716787</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1060,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>57065</v>
+        <v>61283</v>
       </c>
       <c r="C7" s="4">
-        <v>50128</v>
+        <v>55491</v>
       </c>
       <c r="D7" s="4">
-        <v>6937</v>
+        <v>5792</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10141908337114805</v>
+        <v>0.10423389699238415</v>
       </c>
     </row>
     <row r="8">
@@ -1074,16 +1077,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>51287</v>
+        <v>59304</v>
       </c>
       <c r="C8" s="4">
-        <v>46075</v>
+        <v>52100</v>
       </c>
       <c r="D8" s="4">
-        <v>5212</v>
+        <v>7204</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10157091934013097</v>
+        <v>0.10082448995967823</v>
       </c>
     </row>
     <row r="9">
@@ -1091,16 +1094,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>31876</v>
+        <v>51627</v>
       </c>
       <c r="C9" s="4">
-        <v>25445</v>
+        <v>46302</v>
       </c>
       <c r="D9" s="4">
-        <v>6431</v>
+        <v>5325</v>
       </c>
       <c r="E9" s="5">
-        <v>0.10169402079265397</v>
+        <v>0.101185218659491</v>
       </c>
     </row>
     <row r="10">
@@ -1108,16 +1111,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>24270</v>
+        <v>32068</v>
       </c>
       <c r="C10" s="4">
-        <v>22721</v>
+        <v>25448</v>
       </c>
       <c r="D10" s="4">
-        <v>1549</v>
+        <v>6620</v>
       </c>
       <c r="E10" s="5">
-        <v>0.11369929956018895</v>
+        <v>0.10210581732034746</v>
       </c>
     </row>
     <row r="11">
@@ -1125,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>35003</v>
+        <v>24268</v>
       </c>
       <c r="C11" s="4">
-        <v>33397</v>
+        <v>22720</v>
       </c>
       <c r="D11" s="4">
-        <v>1606</v>
+        <v>1548</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10006367688529064</v>
+        <v>0.11405900305188199</v>
       </c>
     </row>
     <row r="12">
@@ -1142,16 +1145,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>41405</v>
+        <v>35004</v>
       </c>
       <c r="C12" s="4">
-        <v>38991</v>
+        <v>33398</v>
       </c>
       <c r="D12" s="4">
-        <v>2414</v>
+        <v>1606</v>
       </c>
       <c r="E12" s="5">
-        <v>0.091420406177793997</v>
+        <v>0.10000454772840967</v>
       </c>
     </row>
     <row r="13">
@@ -1159,16 +1162,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>41429</v>
+        <v>41410</v>
       </c>
       <c r="C13" s="4">
-        <v>40394</v>
+        <v>38996</v>
       </c>
       <c r="D13" s="4">
-        <v>1035</v>
+        <v>2414</v>
       </c>
       <c r="E13" s="5">
-        <v>0.086519902654619715</v>
+        <v>0.091389842871470686</v>
       </c>
     </row>
     <row r="14">
@@ -1176,16 +1179,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>66449</v>
+        <v>41433</v>
       </c>
       <c r="C14" s="4">
-        <v>60824</v>
+        <v>40397</v>
       </c>
       <c r="D14" s="4">
-        <v>5625</v>
+        <v>1036</v>
       </c>
       <c r="E14" s="5">
-        <v>0.076436598571363576</v>
+        <v>0.086501608616589731</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1196,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>50531</v>
+        <v>66450</v>
       </c>
       <c r="C15" s="4">
-        <v>44323</v>
+        <v>60825</v>
       </c>
       <c r="D15" s="4">
-        <v>6208</v>
+        <v>5625</v>
       </c>
       <c r="E15" s="5">
-        <v>0.069733019023079879</v>
+        <v>0.076434859755681428</v>
       </c>
     </row>
     <row r="16">
@@ -1210,16 +1213,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>51889</v>
+        <v>50533</v>
       </c>
       <c r="C16" s="4">
-        <v>45412</v>
+        <v>44325</v>
       </c>
       <c r="D16" s="4">
-        <v>6477</v>
+        <v>6208</v>
       </c>
       <c r="E16" s="5">
-        <v>0.078954519627461153</v>
+        <v>0.069672655493210028</v>
       </c>
     </row>
     <row r="17">
@@ -1227,16 +1230,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>41471</v>
+        <v>51891</v>
       </c>
       <c r="C17" s="4">
-        <v>39897</v>
+        <v>45414</v>
       </c>
       <c r="D17" s="4">
-        <v>1574</v>
+        <v>6477</v>
       </c>
       <c r="E17" s="5">
-        <v>0.071992400425214306</v>
+        <v>0.07897532175588548</v>
       </c>
     </row>
     <row r="18">
@@ -1244,16 +1247,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>42263</v>
+        <v>41471</v>
       </c>
       <c r="C18" s="4">
-        <v>40806</v>
+        <v>39897</v>
       </c>
       <c r="D18" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E18" s="5">
-        <v>0.065680113521183858</v>
+        <v>0.071971410476793632</v>
       </c>
     </row>
     <row r="19">
@@ -1261,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>53365</v>
+        <v>42263</v>
       </c>
       <c r="C19" s="4">
-        <v>49258</v>
+        <v>40806</v>
       </c>
       <c r="D19" s="4">
-        <v>4107</v>
+        <v>1457</v>
       </c>
       <c r="E19" s="5">
-        <v>0.068543515940963293</v>
+        <v>0.065682015638575147</v>
       </c>
     </row>
     <row r="20">
@@ -1278,16 +1281,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>58270</v>
+        <v>53363</v>
       </c>
       <c r="C20" s="4">
-        <v>53082</v>
+        <v>49256</v>
       </c>
       <c r="D20" s="4">
-        <v>5188</v>
+        <v>4107</v>
       </c>
       <c r="E20" s="5">
-        <v>0.069223957320892454</v>
+        <v>0.068547116293728338</v>
       </c>
     </row>
     <row r="21">
@@ -1295,16 +1298,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>53772</v>
+        <v>58271</v>
       </c>
       <c r="C21" s="4">
-        <v>49800</v>
+        <v>53083</v>
       </c>
       <c r="D21" s="4">
-        <v>3972</v>
+        <v>5188</v>
       </c>
       <c r="E21" s="5">
-        <v>0.072899893347832451</v>
+        <v>0.069116662708094925</v>
       </c>
     </row>
     <row r="22">
@@ -1312,16 +1315,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>50304</v>
+        <v>53772</v>
       </c>
       <c r="C22" s="4">
-        <v>45761</v>
+        <v>49800</v>
       </c>
       <c r="D22" s="4">
-        <v>4543</v>
+        <v>3972</v>
       </c>
       <c r="E22" s="5">
-        <v>0.078980517299294589</v>
+        <v>0.07291361639824305</v>
       </c>
     </row>
     <row r="23">
@@ -1329,16 +1332,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>35251</v>
+        <v>50307</v>
       </c>
       <c r="C23" s="4">
-        <v>30684</v>
+        <v>45764</v>
       </c>
       <c r="D23" s="4">
-        <v>4567</v>
+        <v>4543</v>
       </c>
       <c r="E23" s="5">
-        <v>0.077336621454993829</v>
+        <v>0.078990467391760799</v>
       </c>
     </row>
     <row r="24">
@@ -1346,16 +1349,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>29527</v>
+        <v>35253</v>
       </c>
       <c r="C24" s="4">
-        <v>28667</v>
+        <v>30686</v>
       </c>
       <c r="D24" s="4">
-        <v>860</v>
+        <v>4567</v>
       </c>
       <c r="E24" s="5">
-        <v>0.087217225402016901</v>
+        <v>0.077283487867429473</v>
       </c>
     </row>
     <row r="25">
@@ -1363,16 +1366,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>35710</v>
+        <v>29527</v>
       </c>
       <c r="C25" s="4">
-        <v>34686</v>
+        <v>28667</v>
       </c>
       <c r="D25" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E25" s="5">
-        <v>0.087177451369591111</v>
+        <v>0.087226376820369975</v>
       </c>
     </row>
     <row r="26">
@@ -1380,16 +1383,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>40984</v>
+        <v>35710</v>
       </c>
       <c r="C26" s="4">
-        <v>38377</v>
+        <v>34686</v>
       </c>
       <c r="D26" s="4">
-        <v>2607</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="5">
-        <v>0.08040846276140394</v>
+        <v>0.087167070217917669</v>
       </c>
     </row>
     <row r="27">
@@ -1397,16 +1400,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>48285</v>
+        <v>40984</v>
       </c>
       <c r="C27" s="4">
-        <v>44480</v>
+        <v>38377</v>
       </c>
       <c r="D27" s="4">
-        <v>3805</v>
+        <v>2607</v>
       </c>
       <c r="E27" s="5">
-        <v>0.077360859255126244</v>
+        <v>0.080430594207773945</v>
       </c>
     </row>
     <row r="28">
@@ -1414,16 +1417,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>46520</v>
+        <v>48284</v>
       </c>
       <c r="C28" s="4">
-        <v>43322</v>
+        <v>44480</v>
       </c>
       <c r="D28" s="4">
-        <v>3198</v>
+        <v>3804</v>
       </c>
       <c r="E28" s="5">
-        <v>0.077964998372599584</v>
+        <v>0.077363017520366034</v>
       </c>
     </row>
     <row r="29">
@@ -1431,16 +1434,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>41464</v>
+        <v>46520</v>
       </c>
       <c r="C29" s="4">
-        <v>37781</v>
+        <v>43322</v>
       </c>
       <c r="D29" s="4">
-        <v>3683</v>
+        <v>3198</v>
       </c>
       <c r="E29" s="5">
-        <v>0.076024286953415995</v>
+        <v>0.077972807171294789</v>
       </c>
     </row>
     <row r="30">
@@ -1448,16 +1451,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>29461</v>
+        <v>41464</v>
       </c>
       <c r="C30" s="4">
-        <v>25887</v>
+        <v>37781</v>
       </c>
       <c r="D30" s="4">
-        <v>3574</v>
+        <v>3683</v>
       </c>
       <c r="E30" s="5">
-        <v>0.07709861921543705</v>
+        <v>0.076006531611981426</v>
       </c>
     </row>
     <row r="31">
@@ -1465,16 +1468,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>26385</v>
+        <v>29461</v>
       </c>
       <c r="C31" s="4">
-        <v>25645</v>
+        <v>25887</v>
       </c>
       <c r="D31" s="4">
-        <v>740</v>
+        <v>3574</v>
       </c>
       <c r="E31" s="5">
-        <v>0.080857028434120945</v>
+        <v>0.077083092569051201</v>
       </c>
     </row>
     <row r="32">
@@ -1482,16 +1485,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>34480</v>
+        <v>26384</v>
       </c>
       <c r="C32" s="4">
-        <v>33710</v>
+        <v>25644</v>
       </c>
       <c r="D32" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E32" s="5">
-        <v>0.075274154970892182</v>
+        <v>0.080847315100308334</v>
       </c>
     </row>
     <row r="33">
@@ -1499,16 +1502,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>40140</v>
+        <v>34478</v>
       </c>
       <c r="C33" s="4">
-        <v>38161</v>
+        <v>33708</v>
       </c>
       <c r="D33" s="4">
-        <v>1979</v>
+        <v>770</v>
       </c>
       <c r="E33" s="5">
-        <v>0.065227197546086066</v>
+        <v>0.075235817123256762</v>
       </c>
     </row>
     <row r="34">
@@ -1516,16 +1519,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>44931</v>
+        <v>40140</v>
       </c>
       <c r="C34" s="4">
-        <v>41831</v>
+        <v>38161</v>
       </c>
       <c r="D34" s="4">
-        <v>3100</v>
+        <v>1979</v>
       </c>
       <c r="E34" s="5">
-        <v>0.058896143084435179</v>
+        <v>0.065221313447197504</v>
       </c>
     </row>
     <row r="35">
@@ -1533,16 +1536,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>47592</v>
+        <v>44930</v>
       </c>
       <c r="C35" s="4">
-        <v>45125</v>
+        <v>41830</v>
       </c>
       <c r="D35" s="4">
-        <v>2467</v>
+        <v>3100</v>
       </c>
       <c r="E35" s="5">
-        <v>0.066535201167823396</v>
+        <v>0.058902643208080585</v>
       </c>
     </row>
     <row r="36">
@@ -1550,16 +1553,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>43316</v>
+        <v>47592</v>
       </c>
       <c r="C36" s="4">
-        <v>40553</v>
+        <v>45125</v>
       </c>
       <c r="D36" s="4">
-        <v>2763</v>
+        <v>2467</v>
       </c>
       <c r="E36" s="5">
-        <v>0.064272119467083111</v>
+        <v>0.066511294370742199</v>
       </c>
     </row>
     <row r="37">
@@ -1567,16 +1570,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>25526</v>
+        <v>43316</v>
       </c>
       <c r="C37" s="4">
-        <v>22387</v>
+        <v>40553</v>
       </c>
       <c r="D37" s="4">
-        <v>3139</v>
+        <v>2763</v>
       </c>
       <c r="E37" s="5">
-        <v>0.065384966941896952</v>
+        <v>0.064299658369936549</v>
       </c>
     </row>
     <row r="38">
@@ -1584,16 +1587,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>26673</v>
+        <v>25526</v>
       </c>
       <c r="C38" s="4">
-        <v>26110</v>
+        <v>22387</v>
       </c>
       <c r="D38" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E38" s="5">
-        <v>0.07446019449480798</v>
+        <v>0.065394929302779126</v>
       </c>
     </row>
     <row r="39">
@@ -1601,16 +1604,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>33589</v>
+        <v>26673</v>
       </c>
       <c r="C39" s="4">
-        <v>32768</v>
+        <v>26110</v>
       </c>
       <c r="D39" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E39" s="5">
-        <v>0.067799490229396769</v>
+        <v>0.074444856424834172</v>
       </c>
     </row>
     <row r="40">
@@ -1618,16 +1621,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>39052</v>
+        <v>33587</v>
       </c>
       <c r="C40" s="4">
-        <v>37192</v>
+        <v>32766</v>
       </c>
       <c r="D40" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E40" s="5">
-        <v>0.063404375529677648</v>
+        <v>0.06781389420012747</v>
       </c>
     </row>
     <row r="41">
@@ -1635,16 +1638,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>45095</v>
+        <v>39052</v>
       </c>
       <c r="C41" s="4">
-        <v>42090</v>
+        <v>37192</v>
       </c>
       <c r="D41" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E41" s="5">
-        <v>0.059552277507274771</v>
+        <v>0.0634457211025303</v>
       </c>
     </row>
     <row r="42">
@@ -1652,16 +1655,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>45528</v>
+        <v>45095</v>
       </c>
       <c r="C42" s="4">
-        <v>43051</v>
+        <v>42090</v>
       </c>
       <c r="D42" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E42" s="5">
-        <v>0.060461416070007955</v>
+        <v>0.059514893126692399</v>
       </c>
     </row>
     <row r="43">
@@ -1669,16 +1672,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>38835</v>
+        <v>45528</v>
       </c>
       <c r="C43" s="4">
-        <v>36670</v>
+        <v>43051</v>
       </c>
       <c r="D43" s="4">
-        <v>2165</v>
+        <v>2477</v>
       </c>
       <c r="E43" s="5">
-        <v>0.059387342259897891</v>
+        <v>0.060469710272168568</v>
       </c>
     </row>
     <row r="44">
@@ -1686,16 +1689,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>23935</v>
+        <v>38860</v>
       </c>
       <c r="C44" s="4">
-        <v>21589</v>
+        <v>36669</v>
       </c>
       <c r="D44" s="4">
-        <v>2346</v>
+        <v>2191</v>
       </c>
       <c r="E44" s="5">
-        <v>0.064224137931034486</v>
+        <v>0.059431213427408675</v>
       </c>
     </row>
     <row r="45">
@@ -1703,16 +1706,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C45" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D45" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E45" s="5">
-        <v>0.07029909575701368</v>
+        <v>0.064203754062479274</v>
       </c>
     </row>
     <row r="46">
@@ -1720,16 +1723,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C46" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D46" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E46" s="5">
-        <v>0.074980333705957858</v>
+        <v>0.070365734946460853</v>
       </c>
     </row>
     <row r="47">
@@ -1737,16 +1740,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>37818</v>
+        <v>30514</v>
       </c>
       <c r="C47" s="4">
-        <v>36633</v>
+        <v>30031</v>
       </c>
       <c r="D47" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E47" s="5">
-        <v>0.062003460329790615</v>
+        <v>0.075129212321686997</v>
       </c>
     </row>
     <row r="48">
@@ -1754,16 +1757,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>40652</v>
+        <v>37818</v>
       </c>
       <c r="C48" s="4">
-        <v>38742</v>
+        <v>36633</v>
       </c>
       <c r="D48" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E48" s="5">
-        <v>0.064238269994843958</v>
+        <v>0.061747997600649238</v>
       </c>
     </row>
     <row r="49">
@@ -1771,16 +1774,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>46374</v>
+        <v>40649</v>
       </c>
       <c r="C49" s="4">
-        <v>44983</v>
+        <v>38739</v>
       </c>
       <c r="D49" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E49" s="5">
-        <v>0.063609272396423958</v>
+        <v>0.064190418435415397</v>
       </c>
     </row>
     <row r="50">
@@ -1788,16 +1791,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>36504</v>
+        <v>46374</v>
       </c>
       <c r="C50" s="4">
-        <v>34760</v>
+        <v>44983</v>
       </c>
       <c r="D50" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E50" s="5">
-        <v>0.058744143410063149</v>
+        <v>0.063609272396423958</v>
       </c>
     </row>
     <row r="51">
@@ -1805,16 +1808,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>18443</v>
+        <v>36502</v>
       </c>
       <c r="C51" s="4">
-        <v>16604</v>
+        <v>34758</v>
       </c>
       <c r="D51" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E51" s="5">
-        <v>0.061615566037735846</v>
+        <v>0.058753119747364128</v>
       </c>
     </row>
     <row r="52">
@@ -1822,16 +1825,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>23462</v>
+        <v>18443</v>
       </c>
       <c r="C52" s="4">
-        <v>23126</v>
+        <v>16604</v>
       </c>
       <c r="D52" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E52" s="5">
-        <v>0.07693191611605861</v>
+        <v>0.061569638909358883</v>
       </c>
     </row>
     <row r="53">
@@ -1839,16 +1842,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>32977</v>
+        <v>23461</v>
       </c>
       <c r="C53" s="4">
-        <v>32585</v>
+        <v>23125</v>
       </c>
       <c r="D53" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E53" s="5">
-        <v>0.07405518200788315</v>
+        <v>0.076936336474373701</v>
       </c>
     </row>
     <row r="54">
@@ -1856,16 +1859,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>34489</v>
+        <v>32977</v>
       </c>
       <c r="C54" s="4">
-        <v>33614</v>
+        <v>32585</v>
       </c>
       <c r="D54" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E54" s="5">
-        <v>0.058701281002998089</v>
+        <v>0.074024288495411136</v>
       </c>
     </row>
     <row r="55">
@@ -1873,16 +1876,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>41560</v>
+        <v>34488</v>
       </c>
       <c r="C55" s="4">
-        <v>40065</v>
+        <v>33613</v>
       </c>
       <c r="D55" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E55" s="5">
-        <v>0.061172552469523689</v>
+        <v>0.058697281460788987</v>
       </c>
     </row>
     <row r="56">
@@ -1890,16 +1893,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>42286</v>
+        <v>41560</v>
       </c>
       <c r="C56" s="4">
-        <v>41167</v>
+        <v>40065</v>
       </c>
       <c r="D56" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E56" s="5">
-        <v>0.065389732786339944</v>
+        <v>0.061135371179039298</v>
       </c>
     </row>
     <row r="57">
@@ -1907,16 +1910,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>34302</v>
+        <v>42286</v>
       </c>
       <c r="C57" s="4">
-        <v>32853</v>
+        <v>41167</v>
       </c>
       <c r="D57" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E57" s="5">
-        <v>0.060713603232234993</v>
+        <v>0.065387920281619868</v>
       </c>
     </row>
     <row r="58">
@@ -1924,16 +1927,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>21671</v>
+        <v>34302</v>
       </c>
       <c r="C58" s="4">
-        <v>20538</v>
+        <v>32853</v>
       </c>
       <c r="D58" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E58" s="5">
-        <v>0.066341829085457271</v>
+        <v>0.060698689956331875</v>
       </c>
     </row>
     <row r="59">
@@ -1941,16 +1944,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>21641</v>
+        <v>21671</v>
       </c>
       <c r="C59" s="4">
-        <v>21363</v>
+        <v>20538</v>
       </c>
       <c r="D59" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E59" s="5">
-        <v>0.067794994040524428</v>
+        <v>0.066341829085457271</v>
       </c>
     </row>
     <row r="60">
@@ -1958,16 +1961,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>32579</v>
+        <v>21640</v>
       </c>
       <c r="C60" s="4">
-        <v>32240</v>
+        <v>21362</v>
       </c>
       <c r="D60" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E60" s="5">
-        <v>0.069902912621359226</v>
+        <v>0.067775606501120064</v>
       </c>
     </row>
     <row r="61">
@@ -1975,16 +1978,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>37232</v>
+        <v>32579</v>
       </c>
       <c r="C61" s="4">
-        <v>36223</v>
+        <v>32240</v>
       </c>
       <c r="D61" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E61" s="5">
-        <v>0.056467747499137633</v>
+        <v>0.069841107648291018</v>
       </c>
     </row>
     <row r="62">
@@ -1992,16 +1995,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>42460</v>
+        <v>37232</v>
       </c>
       <c r="C62" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D62" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E62" s="5">
-        <v>0.055496017378711078</v>
+        <v>0.05645022242146281</v>
       </c>
     </row>
     <row r="63">
@@ -2009,16 +2012,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>40909</v>
+        <v>42460</v>
       </c>
       <c r="C63" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D63" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E63" s="5">
-        <v>0.050193153771863931</v>
+        <v>0.05548958846187263</v>
       </c>
     </row>
     <row r="64">
@@ -2026,16 +2029,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C64" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D64" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E64" s="5">
-        <v>0.057388567253105503</v>
+        <v>0.050175655018906383</v>
       </c>
     </row>
     <row r="65">
@@ -2043,16 +2046,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C65" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D65" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E65" s="5">
-        <v>0.056818610262790788</v>
+        <v>0.057349884850867831</v>
       </c>
     </row>
     <row r="66">
@@ -2060,16 +2063,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>18049</v>
+        <v>17807</v>
       </c>
       <c r="C66" s="4">
-        <v>17796</v>
+        <v>16892</v>
       </c>
       <c r="D66" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E66" s="5">
-        <v>0.064732692781473269</v>
+        <v>0.056839169273679845</v>
       </c>
     </row>
     <row r="67">
@@ -2077,16 +2080,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>26991</v>
+        <v>18048</v>
       </c>
       <c r="C67" s="4">
-        <v>26698</v>
+        <v>17795</v>
       </c>
       <c r="D67" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E67" s="5">
-        <v>0.078733344869354557</v>
+        <v>0.064908596837944671</v>
       </c>
     </row>
     <row r="68">
@@ -2094,16 +2097,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C68" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D68" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E68" s="5">
-        <v>0.062041446775646804</v>
+        <v>0.078719723183391002</v>
       </c>
     </row>
     <row r="69">
@@ -2111,16 +2114,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C69" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D69" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E69" s="5">
-        <v>0.061160108548168252</v>
+        <v>0.062030800909441894</v>
       </c>
     </row>
     <row r="70">
@@ -2128,16 +2131,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>40627</v>
+        <v>36046</v>
       </c>
       <c r="C70" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D70" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E70" s="5">
-        <v>0.054634264005306639</v>
+        <v>0.061122787985626141</v>
       </c>
     </row>
     <row r="71">
@@ -2145,16 +2148,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>29245</v>
+        <v>40627</v>
       </c>
       <c r="C71" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D71" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E71" s="5">
-        <v>0.054530694510539428</v>
+        <v>0.054629322560221891</v>
       </c>
     </row>
     <row r="72">
@@ -2162,16 +2165,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>14220</v>
+        <v>29245</v>
       </c>
       <c r="C72" s="4">
-        <v>13675</v>
+        <v>28581</v>
       </c>
       <c r="D72" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E72" s="5">
-        <v>0.057996662790109725</v>
+        <v>0.054500181853789555</v>
       </c>
     </row>
     <row r="73">
@@ -2179,16 +2182,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C73" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D73" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E73" s="5">
-        <v>0.06663186060170985</v>
+        <v>0.057987866531850354</v>
       </c>
     </row>
     <row r="74">
@@ -2196,16 +2199,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>26010</v>
+        <v>13902</v>
       </c>
       <c r="C74" s="4">
-        <v>25913</v>
+        <v>13790</v>
       </c>
       <c r="D74" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E74" s="5">
-        <v>0.060033311608371352</v>
+        <v>0.066592747195408294</v>
       </c>
     </row>
     <row r="75">
@@ -2213,16 +2216,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>31627</v>
+        <v>26010</v>
       </c>
       <c r="C75" s="4">
-        <v>31296</v>
+        <v>25913</v>
       </c>
       <c r="D75" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E75" s="5">
-        <v>0.053106296889488327</v>
+        <v>0.060097024111215695</v>
       </c>
     </row>
     <row r="76">
@@ -2230,16 +2233,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>36161</v>
+        <v>31627</v>
       </c>
       <c r="C76" s="4">
-        <v>35830</v>
+        <v>31296</v>
       </c>
       <c r="D76" s="4">
         <v>331</v>
       </c>
       <c r="E76" s="5">
-        <v>0.049558793351118409</v>
+        <v>0.053092870385976737</v>
       </c>
     </row>
     <row r="77">
@@ -2247,16 +2250,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>38437</v>
+        <v>36159</v>
       </c>
       <c r="C77" s="4">
-        <v>38073</v>
+        <v>35828</v>
       </c>
       <c r="D77" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E77" s="5">
-        <v>0.045742413782753552</v>
+        <v>0.049517816838793513</v>
       </c>
     </row>
     <row r="78">
@@ -2264,16 +2267,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C78" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D78" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E78" s="5">
-        <v>0.049152236652236656</v>
+        <v>0.045762813587804582</v>
       </c>
     </row>
     <row r="79">
@@ -2281,16 +2284,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>12649</v>
+        <v>28564</v>
       </c>
       <c r="C79" s="4">
-        <v>12334</v>
+        <v>28190</v>
       </c>
       <c r="D79" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E79" s="5">
-        <v>0.048608717064762372</v>
+        <v>0.049152236652236656</v>
       </c>
     </row>
     <row r="80">
@@ -2298,12 +2301,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C80" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D80" s="4">
+        <v>315</v>
+      </c>
       <c r="E80" s="5">
-        <v>0.053928177472729502</v>
+        <v>0.048596750369276222</v>
       </c>
     </row>
     <row r="81">
@@ -2311,12 +2318,12 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5">
-        <v>0.052838317283324887</v>
+        <v>0.053908355795148251</v>
       </c>
     </row>
     <row r="82">
@@ -2324,12 +2331,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.052932303332266763</v>
+        <v>0.052828276429974029</v>
       </c>
     </row>
     <row r="83">
@@ -2337,12 +2344,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.04613105734640615</v>
+        <v>0.052903284754899721</v>
       </c>
     </row>
     <row r="84">
@@ -2350,12 +2357,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.047281559858920609</v>
+        <v>0.046144076765681226</v>
       </c>
     </row>
     <row r="85">
@@ -2363,12 +2370,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.047539007991881266</v>
+        <v>0.04727369506636947</v>
       </c>
     </row>
     <row r="86">
@@ -2376,12 +2383,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.056784081990674487</v>
+        <v>0.04750285207250602</v>
       </c>
     </row>
     <row r="87">
@@ -2389,12 +2396,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.057113425660982028</v>
+        <v>0.056755260243632338</v>
       </c>
     </row>
     <row r="88">
@@ -2402,12 +2409,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.049493176284047792</v>
+        <v>0.057007261707358911</v>
       </c>
     </row>
     <row r="89">
@@ -2415,12 +2422,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.047559397052068977</v>
+        <v>0.049484769561771037</v>
       </c>
     </row>
     <row r="90">
@@ -2428,12 +2435,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.0497606981981982</v>
+        <v>0.047545500083486389</v>
       </c>
     </row>
     <row r="91">
@@ -2441,12 +2448,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.050191715381230753</v>
+        <v>0.049743192851614722</v>
       </c>
     </row>
     <row r="92">
@@ -2454,12 +2461,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.051631281434993549</v>
+        <v>0.050182252388134743</v>
       </c>
     </row>
     <row r="93">
@@ -2467,12 +2474,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.064208176149049195</v>
+        <v>0.051622090694673134</v>
       </c>
     </row>
     <row r="94">
@@ -2480,12 +2487,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.070664365832614318</v>
+        <v>0.064203233256351036</v>
       </c>
     </row>
     <row r="95">
@@ -2493,12 +2500,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.059221311475409835</v>
+        <v>0.070627802690582955</v>
       </c>
     </row>
     <row r="96">
@@ -2506,12 +2513,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.056557186116934548</v>
+        <v>0.059213222237399263</v>
       </c>
     </row>
     <row r="97">
@@ -2519,12 +2526,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.059771506393281382</v>
+        <v>0.05655455138358334</v>
       </c>
     </row>
     <row r="98">
@@ -2532,12 +2539,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.053378423181486639</v>
+        <v>0.059742125760955875</v>
       </c>
     </row>
     <row r="99">
@@ -2545,12 +2552,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.063268469089030485</v>
+        <v>0.05332538420773715</v>
       </c>
     </row>
     <row r="100">
@@ -2558,12 +2565,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.065608523128770996</v>
+        <v>0.063272827472186821</v>
       </c>
     </row>
     <row r="101">
@@ -2571,12 +2578,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.076391112249471732</v>
+        <v>0.065590696663406153</v>
       </c>
     </row>
     <row r="102">
@@ -2584,12 +2591,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.06583143507972665</v>
+        <v>0.076352000000000003</v>
       </c>
     </row>
     <row r="103">
@@ -2597,12 +2604,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.076879196103383216</v>
+        <v>0.065805202937325669</v>
       </c>
     </row>
     <row r="104">
@@ -2610,12 +2617,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.059741095119401788</v>
+        <v>0.076808417360806666</v>
       </c>
     </row>
     <row r="105">
@@ -2623,12 +2630,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.062657379247195791</v>
+        <v>0.059717087285002413</v>
       </c>
     </row>
     <row r="106">
@@ -2636,12 +2643,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.070949152542372884</v>
+        <v>0.062647135757258693</v>
       </c>
     </row>
     <row r="107">
@@ -2649,12 +2656,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.06541461085468725</v>
+        <v>0.070920303605313095</v>
       </c>
     </row>
     <row r="108">
@@ -2662,12 +2669,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.080259863301075998</v>
+        <v>0.065393794749403336</v>
       </c>
     </row>
     <row r="109">
@@ -2675,12 +2682,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.072951939642369151</v>
+        <v>0.080211010415257675</v>
       </c>
     </row>
     <row r="110">
@@ -2688,12 +2695,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.064136669714855765</v>
+        <v>0.072762853584771386</v>
       </c>
     </row>
     <row r="111">
@@ -2701,12 +2708,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.063752689389650091</v>
+        <v>0.06399568661606736</v>
       </c>
     </row>
     <row r="112">
@@ -2714,12 +2721,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.069023306571049964</v>
+        <v>0.063501015113918341</v>
       </c>
     </row>
     <row r="113">
@@ -2727,12 +2734,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.075870206489675518</v>
+        <v>0.068910505836575875</v>
       </c>
     </row>
     <row r="114">
@@ -2740,12 +2747,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.065132362110991437</v>
+        <v>0.075861255309108075</v>
       </c>
     </row>
     <row r="115">
@@ -2753,12 +2760,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.06897837434750187</v>
+        <v>0.065143440299353664</v>
       </c>
     </row>
     <row r="116">
@@ -2766,12 +2773,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.063122017723244717</v>
+        <v>0.06897323092983372</v>
       </c>
     </row>
     <row r="117">
@@ -2779,12 +2786,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.063681829006906401</v>
+        <v>0.063126320812598002</v>
       </c>
     </row>
     <row r="118">
@@ -2792,12 +2799,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.063723075545206218</v>
+        <v>0.063669698557074147</v>
       </c>
     </row>
     <row r="119">
@@ -2805,12 +2812,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.059352894395379011</v>
+        <v>0.063717368915953976</v>
       </c>
     </row>
     <row r="120">
@@ -2818,12 +2825,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.064256673148311821</v>
+        <v>0.059342958777987023</v>
       </c>
     </row>
     <row r="121">
@@ -2831,12 +2838,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.06210526315789474</v>
+        <v>0.064245316366207145</v>
       </c>
     </row>
     <row r="122">
@@ -2844,12 +2851,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.06410162809374316</v>
+        <v>0.062068965517241378</v>
       </c>
     </row>
     <row r="123">
@@ -2857,12 +2864,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.052478519497686713</v>
+        <v>0.064026835849194191</v>
       </c>
     </row>
     <row r="124">
@@ -2870,12 +2877,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.05950846833578792</v>
+        <v>0.052326347700013182</v>
       </c>
     </row>
     <row r="125">
@@ -2883,12 +2890,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.06810770520823628</v>
+        <v>0.059298326072001833</v>
       </c>
     </row>
     <row r="126">
@@ -2896,12 +2903,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.070817576084999098</v>
+        <v>0.067914711757328008</v>
       </c>
     </row>
     <row r="127">
@@ -2909,12 +2916,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.075551119597292132</v>
+        <v>0.070808012604096332</v>
       </c>
     </row>
     <row r="128">
@@ -2922,12 +2929,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.076469782102233791</v>
+        <v>0.07553145336225596</v>
       </c>
     </row>
     <row r="129">
@@ -2935,12 +2942,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.06769947729705901</v>
+        <v>0.076438356164383561</v>
       </c>
     </row>
     <row r="130">
@@ -2948,12 +2955,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.072945223888620112</v>
+        <v>0.067644097659199598</v>
       </c>
     </row>
     <row r="131">
@@ -2961,12 +2968,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.068564100034528688</v>
+        <v>0.072913868142496369</v>
       </c>
     </row>
     <row r="132">
@@ -2974,12 +2981,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.066519119636050658</v>
+        <v>0.068560718161191678</v>
       </c>
     </row>
     <row r="133">
@@ -2987,12 +2994,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.072353710500780488</v>
+        <v>0.06652457269336394</v>
       </c>
     </row>
     <row r="134">
@@ -3000,12 +3007,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.074893314366998573</v>
+        <v>0.072356763142350858</v>
       </c>
     </row>
     <row r="135">
@@ -3013,12 +3020,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.069394452678382387</v>
+        <v>0.074903969270166459</v>
       </c>
     </row>
     <row r="136">
@@ -3026,12 +3033,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.071814487210136266</v>
+        <v>0.069387107018100982</v>
       </c>
     </row>
     <row r="137">
@@ -3039,12 +3046,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.076779830969775101</v>
+        <v>0.071817921009849864</v>
       </c>
     </row>
     <row r="138">
@@ -3052,12 +3059,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.07832439430368042</v>
+        <v>0.076772499403198857</v>
       </c>
     </row>
     <row r="139">
@@ -3065,12 +3072,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.074757281553398058</v>
+        <v>0.078349752555385968</v>
       </c>
     </row>
     <row r="140">
@@ -3078,12 +3085,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.084730577243056437</v>
+        <v>0.074750970791828464</v>
       </c>
     </row>
     <row r="141">
@@ -3091,12 +3098,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.078035328314824473</v>
+        <v>0.084741423451100875</v>
       </c>
     </row>
     <row r="142">
@@ -3104,12 +3111,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.076086470035357831</v>
+        <v>0.078041144901610016</v>
       </c>
     </row>
     <row r="143">
@@ -3117,12 +3124,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.080824623091373254</v>
+        <v>0.076079659879167594</v>
       </c>
     </row>
     <row r="144">
@@ -3130,12 +3137,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.069407558733401431</v>
+        <v>0.080851883974173658</v>
       </c>
     </row>
     <row r="145">
@@ -3143,12 +3150,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.080765285644204612</v>
+        <v>0.069404014095296465</v>
       </c>
     </row>
     <row r="146">
@@ -3156,12 +3163,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.084351233002996087</v>
+        <v>0.080768887699580766</v>
       </c>
     </row>
     <row r="147">
@@ -3169,12 +3176,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.073124779212623156</v>
+        <v>0.084360954246859507</v>
       </c>
     </row>
     <row r="148">
@@ -3182,12 +3189,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.087274453941120614</v>
+        <v>0.073169774288518161</v>
       </c>
     </row>
     <row r="149">
@@ -3195,12 +3202,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.078318295972467672</v>
+        <v>0.087278598224037232</v>
       </c>
     </row>
     <row r="150">
@@ -3208,12 +3215,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.09621235966845032</v>
+        <v>0.078321938514487696</v>
       </c>
     </row>
     <row r="151">
@@ -3221,12 +3228,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.092399980649218713</v>
+        <v>0.096207312595079475</v>
       </c>
     </row>
     <row r="152">
@@ -3234,12 +3241,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.091314428393080085</v>
+        <v>0.09241339268434294</v>
       </c>
     </row>
     <row r="153">
@@ -3247,12 +3254,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.095770005493499358</v>
+        <v>0.091318500022294552</v>
       </c>
     </row>
     <row r="154">
@@ -3260,12 +3267,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.093552013079910082</v>
+        <v>0.095783160111716503</v>
       </c>
     </row>
     <row r="155">
@@ -3273,12 +3280,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.085333090478575652</v>
+        <v>0.093575918638524047</v>
       </c>
     </row>
     <row r="156">
@@ -3286,12 +3293,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.088526824433155737</v>
+        <v>0.085366964123110539</v>
       </c>
     </row>
     <row r="157">
@@ -3299,12 +3306,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.092124308216262232</v>
+        <v>0.088543280252803766</v>
       </c>
     </row>
     <row r="158">
@@ -3312,12 +3319,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.084283727399165509</v>
+        <v>0.092132152588555852</v>
       </c>
     </row>
     <row r="159">
@@ -3325,12 +3332,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.089210007762584337</v>
+        <v>0.084283727399165509</v>
       </c>
     </row>
     <row r="160">
@@ -3338,12 +3345,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.091602568177483953</v>
+        <v>0.089215335005374416</v>
       </c>
     </row>
     <row r="161">
@@ -3351,12 +3358,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.10456181827951212</v>
+        <v>0.091620040691759913</v>
       </c>
     </row>
     <row r="162">
@@ -3364,12 +3371,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.083290341071940388</v>
+        <v>0.1045674368619022</v>
       </c>
     </row>
     <row r="163">
@@ -3377,12 +3384,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.095674758825400191</v>
+        <v>0.083285566892124269</v>
       </c>
     </row>
     <row r="164">
@@ -3390,12 +3397,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.087800612155662441</v>
+        <v>0.095689975083496789</v>
       </c>
     </row>
     <row r="165">
@@ -3403,12 +3410,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.081928131178043956</v>
+        <v>0.087815971311116944</v>
       </c>
     </row>
     <row r="166">
@@ -3416,12 +3423,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.094719146716132394</v>
+        <v>0.081923367637653358</v>
       </c>
     </row>
     <row r="167">
@@ -3429,12 +3436,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.098948957667963536</v>
+        <v>0.094746607909080363</v>
       </c>
     </row>
     <row r="168">
@@ -3442,12 +3449,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.096646159952371496</v>
+        <v>0.098960450664963118</v>
       </c>
     </row>
     <row r="169">
@@ -3455,12 +3462,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.07737670922169658</v>
+        <v>0.096646159952371496</v>
       </c>
     </row>
     <row r="170">
@@ -3468,12 +3475,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.082451335948486415</v>
+        <v>0.077391755250194455</v>
       </c>
     </row>
     <row r="171">
@@ -3481,12 +3488,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.0903593027392387</v>
+        <v>0.082445233866193013</v>
       </c>
     </row>
     <row r="172">
@@ -3494,12 +3501,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.084125547004677836</v>
+        <v>0.090370018975332062</v>
       </c>
     </row>
     <row r="173">
@@ -3507,12 +3514,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.094145164827132519</v>
+        <v>0.084119200301772917</v>
       </c>
     </row>
     <row r="174">
@@ -3520,12 +3527,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.095574589578872229</v>
+        <v>0.094145164827132519</v>
       </c>
     </row>
     <row r="175">
@@ -3533,12 +3540,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.085673658016352655</v>
+        <v>0.095608711174580502</v>
       </c>
     </row>
     <row r="176">
@@ -3546,12 +3553,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.082730439442658094</v>
+        <v>0.085678734372222551</v>
       </c>
     </row>
     <row r="177">
@@ -3559,12 +3566,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.080478172697192873</v>
+        <v>0.08271935699933021</v>
       </c>
     </row>
     <row r="178">
@@ -3572,12 +3579,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.090584369195599368</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="179">
@@ -3585,12 +3592,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.082537115978244896</v>
+        <v>0.090610261540660278</v>
       </c>
     </row>
     <row r="180">
@@ -3598,12 +3605,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.091530546161041948</v>
+        <v>0.082543182653436242</v>
       </c>
     </row>
     <row r="181">
@@ -3611,12 +3618,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.092605486701016565</v>
+        <v>0.091556899157849272</v>
       </c>
     </row>
     <row r="182">
@@ -3624,12 +3631,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.09841523505127181</v>
+        <v>0.092637737688932228</v>
       </c>
     </row>
     <row r="183">
@@ -3637,12 +3644,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.084529857889698842</v>
+        <v>0.098408682335708098</v>
       </c>
     </row>
     <row r="184">
@@ -3650,12 +3657,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.076279725916968966</v>
+        <v>0.084536082474226809</v>
       </c>
     </row>
     <row r="185">
@@ -3663,12 +3670,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.086752460257380773</v>
+        <v>0.076279725916968966</v>
       </c>
     </row>
     <row r="186">
@@ -3676,12 +3683,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.090033222591362122</v>
+        <v>0.086791881248106634</v>
       </c>
     </row>
     <row r="187">
@@ -3689,12 +3696,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.093356304511683003</v>
+        <v>0.090070627336933939</v>
       </c>
     </row>
     <row r="188">
@@ -3702,12 +3709,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.097709080872205353</v>
+        <v>0.09336635795821667</v>
       </c>
     </row>
     <row r="189">
@@ -3715,12 +3722,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.086235216819973717</v>
+        <v>0.097718071402281934</v>
       </c>
     </row>
     <row r="190">
@@ -3728,12 +3735,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.086249383932971907</v>
       </c>
     </row>
     <row r="191">
@@ -3741,12 +3748,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.077891082664352351</v>
+        <v>0.089415749364944966</v>
       </c>
     </row>
     <row r="192">
@@ -3754,12 +3761,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.078337055488747642</v>
+        <v>0.077941815023881894</v>
       </c>
     </row>
     <row r="193">
@@ -3767,12 +3774,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.080954907161803716</v>
+        <v>0.078323600137409827</v>
       </c>
     </row>
     <row r="194">
@@ -3780,12 +3787,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.081781140861466817</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="195">
@@ -3793,12 +3800,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.099003395027926849</v>
+        <v>0.081773207876612672</v>
       </c>
     </row>
     <row r="196">
@@ -3806,12 +3813,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.089967284623773167</v>
+        <v>0.099003395027926849</v>
       </c>
     </row>
     <row r="197">
@@ -3819,12 +3826,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.076494503839783165</v>
+        <v>0.090024552150586523</v>
       </c>
     </row>
     <row r="198">
@@ -3832,12 +3839,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.070558050032071842</v>
+        <v>0.076506024096385544</v>
       </c>
     </row>
     <row r="199">
@@ -3845,12 +3852,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.07636914913776767</v>
+        <v>0.070569366479550921</v>
       </c>
     </row>
     <row r="200">
@@ -3858,12 +3865,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.081847890671420079</v>
+        <v>0.07636914913776767</v>
       </c>
     </row>
     <row r="201">
@@ -3871,12 +3878,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.087774294670846395</v>
+        <v>0.081847890671420079</v>
       </c>
     </row>
     <row r="202">
@@ -3884,12 +3891,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.097244142284812429</v>
+        <v>0.087746787840802254</v>
       </c>
     </row>
     <row r="203">
@@ -3897,12 +3904,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.082893081761006293</v>
+        <v>0.097279572504250664</v>
       </c>
     </row>
     <row r="204">
@@ -3910,12 +3917,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082903509875456027</v>
       </c>
     </row>
     <row r="205">
@@ -3923,12 +3930,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.063029856247696275</v>
+        <v>0.07316794329484394</v>
       </c>
     </row>
     <row r="206">
@@ -3936,12 +3943,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.055793157076205288</v>
+        <v>0.063076355588343791</v>
       </c>
     </row>
     <row r="207">
@@ -3949,12 +3956,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.061007548913880758</v>
+        <v>0.055814858031894204</v>
       </c>
     </row>
     <row r="208">
@@ -3962,12 +3969,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.061007548913880758</v>
       </c>
     </row>
     <row r="209">
@@ -3975,12 +3982,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.068560406803436794</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="210">
@@ -3988,12 +3995,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.067127524104056757</v>
+        <v>0.068548387096774188</v>
       </c>
     </row>
     <row r="211">
@@ -4001,12 +4008,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.067151956323930853</v>
       </c>
     </row>
     <row r="212">
@@ -4014,12 +4021,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.054404791614674319</v>
+        <v>0.071915584415584419</v>
       </c>
     </row>
     <row r="213">
@@ -4027,12 +4034,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.041313168572482475</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="214">
@@ -4040,12 +4047,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041328413284132844</v>
       </c>
     </row>
     <row r="215">
@@ -4053,12 +4060,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.08256664307619721</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="216">
@@ -4066,12 +4073,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.072740281421416642</v>
+        <v>0.08256664307619721</v>
       </c>
     </row>
     <row r="217">
@@ -4079,12 +4086,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.083222958057395144</v>
+        <v>0.07277499403483656</v>
       </c>
     </row>
     <row r="218">
@@ -4092,12 +4099,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.080512190843711626</v>
+        <v>0.083222958057395144</v>
       </c>
     </row>
     <row r="219">
@@ -4105,12 +4112,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.071143617021276598</v>
+        <v>0.080611169652265544</v>
       </c>
     </row>
     <row r="220">
@@ -4118,12 +4125,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.065044949762030665</v>
+        <v>0.071167276355171269</v>
       </c>
     </row>
     <row r="221">
@@ -4131,12 +4138,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.063391968138068369</v>
+        <v>0.065044949762030665</v>
       </c>
     </row>
     <row r="222">
@@ -4144,12 +4151,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063391968138068369</v>
       </c>
     </row>
     <row r="223">
@@ -4157,12 +4164,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="224">
@@ -4170,12 +4177,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.073731426969442113</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="225">
@@ -4183,12 +4190,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="226">
@@ -4196,12 +4203,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="227">
@@ -4209,12 +4216,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.11087420042643924</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="228">
@@ -4222,12 +4229,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.12945590994371481</v>
+        <v>0.11087420042643924</v>
       </c>
     </row>
     <row r="229">
@@ -4235,12 +4242,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12945590994371481</v>
       </c>
     </row>
     <row r="230">
@@ -4248,12 +4255,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.10682783404116301</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="231">
@@ -4261,12 +4268,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.11592178770949721</v>
+        <v>0.10682783404116301</v>
       </c>
     </row>
     <row r="232">
@@ -4274,12 +4281,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.10555923229649239</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="233">
@@ -4287,12 +4294,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.10848791455874086</v>
+        <v>0.10555923229649239</v>
       </c>
     </row>
     <row r="234">
@@ -4300,12 +4307,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.089733225545675019</v>
+        <v>0.10854893138357705</v>
       </c>
     </row>
     <row r="235">
@@ -4313,12 +4320,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.12865497076023391</v>
+        <v>0.089805825242718448</v>
       </c>
     </row>
     <row r="236">
@@ -4326,12 +4333,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12865497076023391</v>
       </c>
     </row>
     <row r="237">
@@ -4339,12 +4346,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="238">
@@ -4352,12 +4359,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.15933572710951527</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="239">
@@ -4365,12 +4372,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15940727436012572</v>
       </c>
     </row>
     <row r="240">
@@ -4378,12 +4385,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="241">
@@ -4391,12 +4398,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.11217183770883055</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="242">
@@ -4404,12 +4411,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11217183770883055</v>
       </c>
     </row>
     <row r="243">
@@ -4417,12 +4424,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="244">
@@ -4430,12 +4437,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.084227910817506191</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="245">
@@ -4443,12 +4450,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.091537132987910191</v>
+        <v>0.084227910817506191</v>
       </c>
     </row>
     <row r="246">
@@ -4456,12 +4463,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.091537132987910191</v>
       </c>
     </row>
     <row r="247">
@@ -4469,12 +4476,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="248">
@@ -4482,12 +4489,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="249">
@@ -4495,12 +4502,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="250">
@@ -4508,12 +4515,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.084689349112426038</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="251">
@@ -4521,12 +4528,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.080738966814916185</v>
+        <v>0.084689349112426038</v>
       </c>
     </row>
     <row r="252">
@@ -4534,12 +4541,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.068189566996249576</v>
+        <v>0.080766598220396987</v>
       </c>
     </row>
     <row r="253">
@@ -4547,12 +4554,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.074667575860893287</v>
+        <v>0.068189566996249576</v>
       </c>
     </row>
     <row r="254">
@@ -4560,18 +4567,20 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="5"/>
+      <c r="E254" s="5">
+        <v>0.074667575860893287</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -4582,7 +4591,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4593,7 +4602,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4604,7 +4613,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4615,7 +4624,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4626,7 +4635,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4637,7 +4646,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4648,7 +4657,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4659,7 +4668,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4670,7 +4679,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4681,7 +4690,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4692,7 +4701,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4703,7 +4712,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4714,7 +4723,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4725,7 +4734,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4735,7 +4744,9 @@
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B270" s="4"/>
+      <c r="B270" s="4">
+        <v>936</v>
+      </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="5"/>
@@ -4857,6 +4868,15 @@
       <c r="D283" s="4"/>
       <c r="E283" s="5"/>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+  <si>
+    <t>12/10/2020</t>
+  </si>
   <si>
     <t>12/9/2020</t>
   </si>
@@ -960,24 +963,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E285"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2">
@@ -994,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>42555</v>
+        <v>42927</v>
       </c>
       <c r="C3" s="4">
-        <v>35871</v>
+        <v>38622</v>
       </c>
       <c r="D3" s="4">
-        <v>6684</v>
+        <v>4305</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1009,16 +1012,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>39148</v>
+        <v>44776</v>
       </c>
       <c r="C4" s="4">
-        <v>37577</v>
+        <v>37627</v>
       </c>
       <c r="D4" s="4">
-        <v>1571</v>
+        <v>7149</v>
       </c>
       <c r="E4" s="5">
-        <v>0.1171970350965975</v>
+        <v>0.10522492466637969</v>
       </c>
     </row>
     <row r="5">
@@ -1026,16 +1029,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>49744</v>
+        <v>39278</v>
       </c>
       <c r="C5" s="4">
-        <v>48212</v>
+        <v>37717</v>
       </c>
       <c r="D5" s="4">
-        <v>1532</v>
+        <v>1561</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10093163694546956</v>
+        <v>0.1216441091635234</v>
       </c>
     </row>
     <row r="6">
@@ -1043,16 +1046,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>53629</v>
+        <v>49920</v>
       </c>
       <c r="C6" s="4">
-        <v>49507</v>
+        <v>48390</v>
       </c>
       <c r="D6" s="4">
-        <v>4122</v>
+        <v>1530</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10953656024716787</v>
+        <v>0.099087286283584014</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1063,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>61283</v>
+        <v>54316</v>
       </c>
       <c r="C7" s="4">
-        <v>55491</v>
+        <v>50105</v>
       </c>
       <c r="D7" s="4">
-        <v>5792</v>
+        <v>4211</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10423389699238415</v>
+        <v>0.10853510522309766</v>
       </c>
     </row>
     <row r="8">
@@ -1077,16 +1080,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>59304</v>
+        <v>61365</v>
       </c>
       <c r="C8" s="4">
-        <v>52100</v>
+        <v>55571</v>
       </c>
       <c r="D8" s="4">
-        <v>7204</v>
+        <v>5794</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10082448995967823</v>
+        <v>0.10346453991938942</v>
       </c>
     </row>
     <row r="9">
@@ -1094,16 +1097,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>51627</v>
+        <v>59324</v>
       </c>
       <c r="C9" s="4">
-        <v>46302</v>
+        <v>52113</v>
       </c>
       <c r="D9" s="4">
-        <v>5325</v>
+        <v>7211</v>
       </c>
       <c r="E9" s="5">
-        <v>0.101185218659491</v>
+        <v>0.10042319340540323</v>
       </c>
     </row>
     <row r="10">
@@ -1111,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>32068</v>
+        <v>51616</v>
       </c>
       <c r="C10" s="4">
-        <v>25448</v>
+        <v>46292</v>
       </c>
       <c r="D10" s="4">
-        <v>6620</v>
+        <v>5324</v>
       </c>
       <c r="E10" s="5">
-        <v>0.10210581732034746</v>
+        <v>0.10083757595664312</v>
       </c>
     </row>
     <row r="11">
@@ -1128,16 +1131,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>24268</v>
+        <v>32068</v>
       </c>
       <c r="C11" s="4">
-        <v>22720</v>
+        <v>25448</v>
       </c>
       <c r="D11" s="4">
-        <v>1548</v>
+        <v>6620</v>
       </c>
       <c r="E11" s="5">
-        <v>0.11405900305188199</v>
+        <v>0.10210952706612657</v>
       </c>
     </row>
     <row r="12">
@@ -1145,16 +1148,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>35004</v>
+        <v>24268</v>
       </c>
       <c r="C12" s="4">
-        <v>33398</v>
+        <v>22720</v>
       </c>
       <c r="D12" s="4">
-        <v>1606</v>
+        <v>1548</v>
       </c>
       <c r="E12" s="5">
-        <v>0.10000454772840967</v>
+        <v>0.11387306753458096</v>
       </c>
     </row>
     <row r="13">
@@ -1162,16 +1165,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>41410</v>
+        <v>35004</v>
       </c>
       <c r="C13" s="4">
-        <v>38996</v>
+        <v>33398</v>
       </c>
       <c r="D13" s="4">
-        <v>2414</v>
+        <v>1606</v>
       </c>
       <c r="E13" s="5">
-        <v>0.091389842871470686</v>
+        <v>0.099968163005412294</v>
       </c>
     </row>
     <row r="14">
@@ -1179,16 +1182,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>41433</v>
+        <v>41411</v>
       </c>
       <c r="C14" s="4">
-        <v>40397</v>
+        <v>38997</v>
       </c>
       <c r="D14" s="4">
-        <v>1036</v>
+        <v>2414</v>
       </c>
       <c r="E14" s="5">
-        <v>0.086501608616589731</v>
+        <v>0.091406344961711433</v>
       </c>
     </row>
     <row r="15">
@@ -1196,16 +1199,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>66450</v>
+        <v>41431</v>
       </c>
       <c r="C15" s="4">
-        <v>60825</v>
+        <v>40395</v>
       </c>
       <c r="D15" s="4">
-        <v>5625</v>
+        <v>1036</v>
       </c>
       <c r="E15" s="5">
-        <v>0.076434859755681428</v>
+        <v>0.086467427803895228</v>
       </c>
     </row>
     <row r="16">
@@ -1213,16 +1216,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>50533</v>
+        <v>66447</v>
       </c>
       <c r="C16" s="4">
-        <v>44325</v>
+        <v>60821</v>
       </c>
       <c r="D16" s="4">
-        <v>6208</v>
+        <v>5626</v>
       </c>
       <c r="E16" s="5">
-        <v>0.069672655493210028</v>
+        <v>0.076441957787481807</v>
       </c>
     </row>
     <row r="17">
@@ -1230,16 +1233,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>51891</v>
+        <v>50540</v>
       </c>
       <c r="C17" s="4">
-        <v>45414</v>
+        <v>44325</v>
       </c>
       <c r="D17" s="4">
-        <v>6477</v>
+        <v>6215</v>
       </c>
       <c r="E17" s="5">
-        <v>0.07897532175588548</v>
+        <v>0.069676475964174742</v>
       </c>
     </row>
     <row r="18">
@@ -1247,16 +1250,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>41471</v>
+        <v>51903</v>
       </c>
       <c r="C18" s="4">
-        <v>39897</v>
+        <v>45413</v>
       </c>
       <c r="D18" s="4">
-        <v>1574</v>
+        <v>6490</v>
       </c>
       <c r="E18" s="5">
-        <v>0.071971410476793632</v>
+        <v>0.078959717454123349</v>
       </c>
     </row>
     <row r="19">
@@ -1264,16 +1267,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>42263</v>
+        <v>41471</v>
       </c>
       <c r="C19" s="4">
-        <v>40806</v>
+        <v>39897</v>
       </c>
       <c r="D19" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E19" s="5">
-        <v>0.065682015638575147</v>
+        <v>0.071971410476793632</v>
       </c>
     </row>
     <row r="20">
@@ -1281,16 +1284,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>53363</v>
+        <v>42279</v>
       </c>
       <c r="C20" s="4">
-        <v>49256</v>
+        <v>40822</v>
       </c>
       <c r="D20" s="4">
-        <v>4107</v>
+        <v>1457</v>
       </c>
       <c r="E20" s="5">
-        <v>0.068547116293728338</v>
+        <v>0.065689625209986682</v>
       </c>
     </row>
     <row r="21">
@@ -1298,16 +1301,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>58271</v>
+        <v>53383</v>
       </c>
       <c r="C21" s="4">
-        <v>53083</v>
+        <v>49249</v>
       </c>
       <c r="D21" s="4">
-        <v>5188</v>
+        <v>4134</v>
       </c>
       <c r="E21" s="5">
-        <v>0.069116662708094925</v>
+        <v>0.068554318134061779</v>
       </c>
     </row>
     <row r="22">
@@ -1315,16 +1318,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>53772</v>
+        <v>58290</v>
       </c>
       <c r="C22" s="4">
-        <v>49800</v>
+        <v>53083</v>
       </c>
       <c r="D22" s="4">
-        <v>3972</v>
+        <v>5207</v>
       </c>
       <c r="E22" s="5">
-        <v>0.07291361639824305</v>
+        <v>0.069136069114470844</v>
       </c>
     </row>
     <row r="23">
@@ -1332,16 +1335,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>50307</v>
+        <v>53815</v>
       </c>
       <c r="C23" s="4">
-        <v>45764</v>
+        <v>49806</v>
       </c>
       <c r="D23" s="4">
-        <v>4543</v>
+        <v>4009</v>
       </c>
       <c r="E23" s="5">
-        <v>0.078990467391760799</v>
+        <v>0.072901417876113594</v>
       </c>
     </row>
     <row r="24">
@@ -1349,16 +1352,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>35253</v>
+        <v>50310</v>
       </c>
       <c r="C24" s="4">
-        <v>30686</v>
+        <v>45767</v>
       </c>
       <c r="D24" s="4">
-        <v>4567</v>
+        <v>4543</v>
       </c>
       <c r="E24" s="5">
-        <v>0.077283487867429473</v>
+        <v>0.078974445121054948</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1369,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>29527</v>
+        <v>35267</v>
       </c>
       <c r="C25" s="4">
-        <v>28667</v>
+        <v>30686</v>
       </c>
       <c r="D25" s="4">
-        <v>860</v>
+        <v>4581</v>
       </c>
       <c r="E25" s="5">
-        <v>0.087226376820369975</v>
+        <v>0.077272054835051035</v>
       </c>
     </row>
     <row r="26">
@@ -1383,16 +1386,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>35710</v>
+        <v>29527</v>
       </c>
       <c r="C26" s="4">
-        <v>34686</v>
+        <v>28667</v>
       </c>
       <c r="D26" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E26" s="5">
-        <v>0.087167070217917669</v>
+        <v>0.087207894418210433</v>
       </c>
     </row>
     <row r="27">
@@ -1400,16 +1403,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>40984</v>
+        <v>35710</v>
       </c>
       <c r="C27" s="4">
-        <v>38377</v>
+        <v>34686</v>
       </c>
       <c r="D27" s="4">
-        <v>2607</v>
+        <v>1024</v>
       </c>
       <c r="E27" s="5">
-        <v>0.080430594207773945</v>
+        <v>0.087170530327087964</v>
       </c>
     </row>
     <row r="28">
@@ -1417,16 +1420,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>48284</v>
+        <v>41040</v>
       </c>
       <c r="C28" s="4">
-        <v>44480</v>
+        <v>38377</v>
       </c>
       <c r="D28" s="4">
-        <v>3804</v>
+        <v>2663</v>
       </c>
       <c r="E28" s="5">
-        <v>0.077363017520366034</v>
+        <v>0.080445355274829475</v>
       </c>
     </row>
     <row r="29">
@@ -1434,16 +1437,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>46520</v>
+        <v>48304</v>
       </c>
       <c r="C29" s="4">
-        <v>43322</v>
+        <v>44479</v>
       </c>
       <c r="D29" s="4">
-        <v>3198</v>
+        <v>3825</v>
       </c>
       <c r="E29" s="5">
-        <v>0.077972807171294789</v>
+        <v>0.07735654308589282</v>
       </c>
     </row>
     <row r="30">
@@ -1451,16 +1454,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>41464</v>
+        <v>46520</v>
       </c>
       <c r="C30" s="4">
-        <v>37781</v>
+        <v>43322</v>
       </c>
       <c r="D30" s="4">
-        <v>3683</v>
+        <v>3198</v>
       </c>
       <c r="E30" s="5">
-        <v>0.076006531611981426</v>
+        <v>0.078005659479628384</v>
       </c>
     </row>
     <row r="31">
@@ -1468,16 +1471,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>29461</v>
+        <v>41539</v>
       </c>
       <c r="C31" s="4">
-        <v>25887</v>
+        <v>37780</v>
       </c>
       <c r="D31" s="4">
-        <v>3574</v>
+        <v>3759</v>
       </c>
       <c r="E31" s="5">
-        <v>0.077083092569051201</v>
+        <v>0.075979078964153596</v>
       </c>
     </row>
     <row r="32">
@@ -1485,16 +1488,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>26384</v>
+        <v>29476</v>
       </c>
       <c r="C32" s="4">
-        <v>25644</v>
+        <v>25887</v>
       </c>
       <c r="D32" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E32" s="5">
-        <v>0.080847315100308334</v>
+        <v>0.077065280184864235</v>
       </c>
     </row>
     <row r="33">
@@ -1502,16 +1505,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>34478</v>
+        <v>26384</v>
       </c>
       <c r="C33" s="4">
-        <v>33708</v>
+        <v>25644</v>
       </c>
       <c r="D33" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E33" s="5">
-        <v>0.075235817123256762</v>
+        <v>0.080844077840954598</v>
       </c>
     </row>
     <row r="34">
@@ -1519,16 +1522,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>40140</v>
+        <v>34474</v>
       </c>
       <c r="C34" s="4">
-        <v>38161</v>
+        <v>33704</v>
       </c>
       <c r="D34" s="4">
-        <v>1979</v>
+        <v>770</v>
       </c>
       <c r="E34" s="5">
-        <v>0.065221313447197504</v>
+        <v>0.075218843064705346</v>
       </c>
     </row>
     <row r="35">
@@ -1536,16 +1539,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>44930</v>
+        <v>40204</v>
       </c>
       <c r="C35" s="4">
-        <v>41830</v>
+        <v>38159</v>
       </c>
       <c r="D35" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E35" s="5">
-        <v>0.058902643208080585</v>
+        <v>0.065223274695534503</v>
       </c>
     </row>
     <row r="36">
@@ -1553,16 +1556,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>47592</v>
+        <v>44930</v>
       </c>
       <c r="C36" s="4">
-        <v>45125</v>
+        <v>41830</v>
       </c>
       <c r="D36" s="4">
-        <v>2467</v>
+        <v>3100</v>
       </c>
       <c r="E36" s="5">
-        <v>0.066511294370742199</v>
+        <v>0.058880017559744285</v>
       </c>
     </row>
     <row r="37">
@@ -1570,16 +1573,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>43316</v>
+        <v>47668</v>
       </c>
       <c r="C37" s="4">
-        <v>40553</v>
+        <v>45125</v>
       </c>
       <c r="D37" s="4">
-        <v>2763</v>
+        <v>2543</v>
       </c>
       <c r="E37" s="5">
-        <v>0.064299658369936549</v>
+        <v>0.066504481434058904</v>
       </c>
     </row>
     <row r="38">
@@ -1587,16 +1590,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>25526</v>
+        <v>43383</v>
       </c>
       <c r="C38" s="4">
-        <v>22387</v>
+        <v>40553</v>
       </c>
       <c r="D38" s="4">
-        <v>3139</v>
+        <v>2830</v>
       </c>
       <c r="E38" s="5">
-        <v>0.065394929302779126</v>
+        <v>0.064273687806544494</v>
       </c>
     </row>
     <row r="39">
@@ -1604,16 +1607,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>26673</v>
+        <v>25526</v>
       </c>
       <c r="C39" s="4">
-        <v>26110</v>
+        <v>22387</v>
       </c>
       <c r="D39" s="4">
-        <v>563</v>
+        <v>3139</v>
       </c>
       <c r="E39" s="5">
-        <v>0.074444856424834172</v>
+        <v>0.06538098284739359</v>
       </c>
     </row>
     <row r="40">
@@ -1621,16 +1624,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>33587</v>
+        <v>26672</v>
       </c>
       <c r="C40" s="4">
-        <v>32766</v>
+        <v>26109</v>
       </c>
       <c r="D40" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E40" s="5">
-        <v>0.06781389420012747</v>
+        <v>0.074447923533289384</v>
       </c>
     </row>
     <row r="41">
@@ -1638,16 +1641,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>39052</v>
+        <v>33579</v>
       </c>
       <c r="C41" s="4">
-        <v>37192</v>
+        <v>32758</v>
       </c>
       <c r="D41" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E41" s="5">
-        <v>0.0634457211025303</v>
+        <v>0.067765645579300676</v>
       </c>
     </row>
     <row r="42">
@@ -1655,16 +1658,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>45095</v>
+        <v>39052</v>
       </c>
       <c r="C42" s="4">
-        <v>42090</v>
+        <v>37192</v>
       </c>
       <c r="D42" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E42" s="5">
-        <v>0.059514893126692399</v>
+        <v>0.063459666530599423</v>
       </c>
     </row>
     <row r="43">
@@ -1672,16 +1675,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>45528</v>
+        <v>45095</v>
       </c>
       <c r="C43" s="4">
-        <v>43051</v>
+        <v>42090</v>
       </c>
       <c r="D43" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E43" s="5">
-        <v>0.060469710272168568</v>
+        <v>0.059504608294930879</v>
       </c>
     </row>
     <row r="44">
@@ -1689,16 +1692,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>38860</v>
+        <v>45528</v>
       </c>
       <c r="C44" s="4">
-        <v>36669</v>
+        <v>43051</v>
       </c>
       <c r="D44" s="4">
-        <v>2191</v>
+        <v>2477</v>
       </c>
       <c r="E44" s="5">
-        <v>0.059431213427408675</v>
+        <v>0.060463074728409963</v>
       </c>
     </row>
     <row r="45">
@@ -1706,16 +1709,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>23982</v>
+        <v>38860</v>
       </c>
       <c r="C45" s="4">
-        <v>21589</v>
+        <v>36669</v>
       </c>
       <c r="D45" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E45" s="5">
-        <v>0.064203754062479274</v>
+        <v>0.059432644608197277</v>
       </c>
     </row>
     <row r="46">
@@ -1723,16 +1726,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C46" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D46" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E46" s="5">
-        <v>0.070365734946460853</v>
+        <v>0.064159952253058788</v>
       </c>
     </row>
     <row r="47">
@@ -1740,16 +1743,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>30514</v>
+        <v>25467</v>
       </c>
       <c r="C47" s="4">
-        <v>30031</v>
+        <v>25050</v>
       </c>
       <c r="D47" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E47" s="5">
-        <v>0.075129212321686997</v>
+        <v>0.070399036010566809</v>
       </c>
     </row>
     <row r="48">
@@ -1757,16 +1760,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>37818</v>
+        <v>30514</v>
       </c>
       <c r="C48" s="4">
-        <v>36633</v>
+        <v>30031</v>
       </c>
       <c r="D48" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E48" s="5">
-        <v>0.061747997600649238</v>
+        <v>0.075135425712277215</v>
       </c>
     </row>
     <row r="49">
@@ -1774,16 +1777,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>40649</v>
+        <v>37818</v>
       </c>
       <c r="C49" s="4">
-        <v>38739</v>
+        <v>36633</v>
       </c>
       <c r="D49" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E49" s="5">
-        <v>0.064190418435415397</v>
+        <v>0.061743640405038283</v>
       </c>
     </row>
     <row r="50">
@@ -1791,16 +1794,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>46374</v>
+        <v>40641</v>
       </c>
       <c r="C50" s="4">
-        <v>44983</v>
+        <v>38731</v>
       </c>
       <c r="D50" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E50" s="5">
-        <v>0.063609272396423958</v>
+        <v>0.064182634004365746</v>
       </c>
     </row>
     <row r="51">
@@ -1808,16 +1811,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>36502</v>
+        <v>46373</v>
       </c>
       <c r="C51" s="4">
-        <v>34758</v>
+        <v>44982</v>
       </c>
       <c r="D51" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E51" s="5">
-        <v>0.058753119747364128</v>
+        <v>0.063624373516222632</v>
       </c>
     </row>
     <row r="52">
@@ -1825,16 +1828,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>18443</v>
+        <v>36502</v>
       </c>
       <c r="C52" s="4">
-        <v>16604</v>
+        <v>34758</v>
       </c>
       <c r="D52" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E52" s="5">
-        <v>0.061569638909358883</v>
+        <v>0.058732139673483945</v>
       </c>
     </row>
     <row r="53">
@@ -1842,16 +1845,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>23461</v>
+        <v>18443</v>
       </c>
       <c r="C53" s="4">
-        <v>23125</v>
+        <v>16604</v>
       </c>
       <c r="D53" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E53" s="5">
-        <v>0.076936336474373701</v>
+        <v>0.061569638909358883</v>
       </c>
     </row>
     <row r="54">
@@ -1859,16 +1862,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>32977</v>
+        <v>23459</v>
       </c>
       <c r="C54" s="4">
-        <v>32585</v>
+        <v>23123</v>
       </c>
       <c r="D54" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E54" s="5">
-        <v>0.074024288495411136</v>
+        <v>0.076927496265655523</v>
       </c>
     </row>
     <row r="55">
@@ -1876,16 +1879,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>34488</v>
+        <v>32977</v>
       </c>
       <c r="C55" s="4">
-        <v>33613</v>
+        <v>32585</v>
       </c>
       <c r="D55" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E55" s="5">
-        <v>0.058697281460788987</v>
+        <v>0.073981365595883739</v>
       </c>
     </row>
     <row r="56">
@@ -1893,16 +1896,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>41560</v>
+        <v>34488</v>
       </c>
       <c r="C56" s="4">
-        <v>40065</v>
+        <v>33613</v>
       </c>
       <c r="D56" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E56" s="5">
-        <v>0.061135371179039298</v>
+        <v>0.058683287353972956</v>
       </c>
     </row>
     <row r="57">
@@ -1910,16 +1913,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>42286</v>
+        <v>41560</v>
       </c>
       <c r="C57" s="4">
-        <v>41167</v>
+        <v>40065</v>
       </c>
       <c r="D57" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E57" s="5">
-        <v>0.065387920281619868</v>
+        <v>0.061139212667692983</v>
       </c>
     </row>
     <row r="58">
@@ -1927,16 +1930,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>34302</v>
+        <v>42286</v>
       </c>
       <c r="C58" s="4">
-        <v>32853</v>
+        <v>41167</v>
       </c>
       <c r="D58" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E58" s="5">
-        <v>0.060698689956331875</v>
+        <v>0.065349333481140706</v>
       </c>
     </row>
     <row r="59">
@@ -1944,16 +1947,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>21671</v>
+        <v>34302</v>
       </c>
       <c r="C59" s="4">
-        <v>20538</v>
+        <v>32853</v>
       </c>
       <c r="D59" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E59" s="5">
-        <v>0.066341829085457271</v>
+        <v>0.060721010834265753</v>
       </c>
     </row>
     <row r="60">
@@ -1961,16 +1964,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>21640</v>
+        <v>21671</v>
       </c>
       <c r="C60" s="4">
-        <v>21362</v>
+        <v>20538</v>
       </c>
       <c r="D60" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E60" s="5">
-        <v>0.067775606501120064</v>
+        <v>0.066326912988083644</v>
       </c>
     </row>
     <row r="61">
@@ -1978,16 +1981,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>32579</v>
+        <v>21638</v>
       </c>
       <c r="C61" s="4">
-        <v>32240</v>
+        <v>21360</v>
       </c>
       <c r="D61" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E61" s="5">
-        <v>0.069841107648291018</v>
+        <v>0.067749773690980994</v>
       </c>
     </row>
     <row r="62">
@@ -1995,16 +1998,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>37232</v>
+        <v>32579</v>
       </c>
       <c r="C62" s="4">
-        <v>36223</v>
+        <v>32240</v>
       </c>
       <c r="D62" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E62" s="5">
-        <v>0.05645022242146281</v>
+        <v>0.069768629654221356</v>
       </c>
     </row>
     <row r="63">
@@ -2012,16 +2015,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>42460</v>
+        <v>37232</v>
       </c>
       <c r="C63" s="4">
-        <v>41185</v>
+        <v>36223</v>
       </c>
       <c r="D63" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E63" s="5">
-        <v>0.05548958846187263</v>
+        <v>0.05645022242146281</v>
       </c>
     </row>
     <row r="64">
@@ -2029,16 +2032,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>40909</v>
+        <v>42460</v>
       </c>
       <c r="C64" s="4">
-        <v>40012</v>
+        <v>41185</v>
       </c>
       <c r="D64" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E64" s="5">
-        <v>0.050175655018906383</v>
+        <v>0.055475128843592562</v>
       </c>
     </row>
     <row r="65">
@@ -2046,16 +2049,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C65" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D65" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E65" s="5">
-        <v>0.057349884850867831</v>
+        <v>0.050170273241627115</v>
       </c>
     </row>
     <row r="66">
@@ -2063,16 +2066,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>17807</v>
+        <v>34450</v>
       </c>
       <c r="C66" s="4">
-        <v>16892</v>
+        <v>33428</v>
       </c>
       <c r="D66" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E66" s="5">
-        <v>0.056839169273679845</v>
+        <v>0.057306429433390399</v>
       </c>
     </row>
     <row r="67">
@@ -2080,16 +2083,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>18048</v>
+        <v>17805</v>
       </c>
       <c r="C67" s="4">
-        <v>17795</v>
+        <v>16890</v>
       </c>
       <c r="D67" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E67" s="5">
-        <v>0.064908596837944671</v>
+        <v>0.056801477516867059</v>
       </c>
     </row>
     <row r="68">
@@ -2097,16 +2100,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C68" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D68" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E68" s="5">
-        <v>0.078719723183391002</v>
+        <v>0.06485885477793564</v>
       </c>
     </row>
     <row r="69">
@@ -2114,16 +2117,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>32527</v>
+        <v>26991</v>
       </c>
       <c r="C69" s="4">
-        <v>31892</v>
+        <v>26698</v>
       </c>
       <c r="D69" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E69" s="5">
-        <v>0.062030800909441894</v>
+        <v>0.078687957571914449</v>
       </c>
     </row>
     <row r="70">
@@ -2131,16 +2134,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>36046</v>
+        <v>32527</v>
       </c>
       <c r="C70" s="4">
-        <v>35429</v>
+        <v>31892</v>
       </c>
       <c r="D70" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E70" s="5">
-        <v>0.061122787985626141</v>
+        <v>0.062060689182238983</v>
       </c>
     </row>
     <row r="71">
@@ -2148,16 +2151,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>40627</v>
+        <v>36046</v>
       </c>
       <c r="C71" s="4">
-        <v>39880</v>
+        <v>35429</v>
       </c>
       <c r="D71" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E71" s="5">
-        <v>0.054629322560221891</v>
+        <v>0.061093792355651939</v>
       </c>
     </row>
     <row r="72">
@@ -2165,16 +2168,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>29245</v>
+        <v>40627</v>
       </c>
       <c r="C72" s="4">
-        <v>28581</v>
+        <v>39880</v>
       </c>
       <c r="D72" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E72" s="5">
-        <v>0.054500181853789555</v>
+        <v>0.054621088804485442</v>
       </c>
     </row>
     <row r="73">
@@ -2182,16 +2185,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>14220</v>
+        <v>29238</v>
       </c>
       <c r="C73" s="4">
-        <v>13675</v>
+        <v>28574</v>
       </c>
       <c r="D73" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E73" s="5">
-        <v>0.057987866531850354</v>
+        <v>0.054500181853789555</v>
       </c>
     </row>
     <row r="74">
@@ -2199,16 +2202,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>13902</v>
+        <v>14220</v>
       </c>
       <c r="C74" s="4">
-        <v>13790</v>
+        <v>13675</v>
       </c>
       <c r="D74" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E74" s="5">
-        <v>0.066592747195408294</v>
+        <v>0.057999595469255663</v>
       </c>
     </row>
     <row r="75">
@@ -2216,16 +2219,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C75" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D75" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E75" s="5">
-        <v>0.060097024111215695</v>
+        <v>0.066575378195096499</v>
       </c>
     </row>
     <row r="76">
@@ -2233,16 +2236,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>31627</v>
+        <v>26010</v>
       </c>
       <c r="C76" s="4">
-        <v>31296</v>
+        <v>25913</v>
       </c>
       <c r="D76" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E76" s="5">
-        <v>0.053092870385976737</v>
+        <v>0.060092673037938027</v>
       </c>
     </row>
     <row r="77">
@@ -2250,16 +2253,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>36159</v>
+        <v>31627</v>
       </c>
       <c r="C77" s="4">
-        <v>35828</v>
+        <v>31296</v>
       </c>
       <c r="D77" s="4">
         <v>331</v>
       </c>
       <c r="E77" s="5">
-        <v>0.049517816838793513</v>
+        <v>0.05309063329541145</v>
       </c>
     </row>
     <row r="78">
@@ -2267,16 +2270,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>38437</v>
+        <v>36151</v>
       </c>
       <c r="C78" s="4">
-        <v>38073</v>
+        <v>35820</v>
       </c>
       <c r="D78" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E78" s="5">
-        <v>0.045762813587804582</v>
+        <v>0.04950935138646699</v>
       </c>
     </row>
     <row r="79">
@@ -2284,16 +2287,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>28564</v>
+        <v>38437</v>
       </c>
       <c r="C79" s="4">
-        <v>28190</v>
+        <v>38073</v>
       </c>
       <c r="D79" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E79" s="5">
-        <v>0.049152236652236656</v>
+        <v>0.045749085018299634</v>
       </c>
     </row>
     <row r="80">
@@ -2301,16 +2304,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>12649</v>
+        <v>28557</v>
       </c>
       <c r="C80" s="4">
-        <v>12334</v>
+        <v>28183</v>
       </c>
       <c r="D80" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E80" s="5">
-        <v>0.048596750369276222</v>
+        <v>0.049112372713345946</v>
       </c>
     </row>
     <row r="81">
@@ -2318,12 +2321,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C81" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D81" s="4">
+        <v>315</v>
+      </c>
       <c r="E81" s="5">
-        <v>0.053908355795148251</v>
+        <v>0.048606323254210576</v>
       </c>
     </row>
     <row r="82">
@@ -2331,12 +2338,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5">
-        <v>0.052828276429974029</v>
+        <v>0.053911658396128166</v>
       </c>
     </row>
     <row r="83">
@@ -2344,12 +2351,12 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5">
-        <v>0.052903284754899721</v>
+        <v>0.052845013306298316</v>
       </c>
     </row>
     <row r="84">
@@ -2357,12 +2364,12 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5">
-        <v>0.046144076765681226</v>
+        <v>0.05290811897473386</v>
       </c>
     </row>
     <row r="85">
@@ -2370,12 +2377,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.04727369506636947</v>
+        <v>0.046140821221955695</v>
       </c>
     </row>
     <row r="86">
@@ -2383,12 +2390,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.04750285207250602</v>
+        <v>0.047250116379596994</v>
       </c>
     </row>
     <row r="87">
@@ -2396,12 +2403,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.056755260243632338</v>
+        <v>0.047504433747149737</v>
       </c>
     </row>
     <row r="88">
@@ -2409,12 +2416,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.057007261707358911</v>
+        <v>0.056757879193392091</v>
       </c>
     </row>
     <row r="89">
@@ -2422,12 +2429,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.049484769561771037</v>
+        <v>0.057000743239380251</v>
       </c>
     </row>
     <row r="90">
@@ -2435,12 +2442,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.047545500083486389</v>
+        <v>0.049473565040190196</v>
       </c>
     </row>
     <row r="91">
@@ -2448,12 +2455,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.049743192851614722</v>
+        <v>0.047519712962576663</v>
       </c>
     </row>
     <row r="92">
@@ -2461,12 +2468,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.050182252388134743</v>
+        <v>0.049748443162227776</v>
       </c>
     </row>
     <row r="93">
@@ -2474,12 +2481,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.051622090694673134</v>
+        <v>0.050153884806230765</v>
       </c>
     </row>
     <row r="94">
@@ -2487,12 +2494,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.064203233256351036</v>
+        <v>0.051594538095449893</v>
       </c>
     </row>
     <row r="95">
@@ -2500,12 +2507,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.070627802690582955</v>
+        <v>0.064168654304839576</v>
       </c>
     </row>
     <row r="96">
@@ -2513,12 +2520,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.059213222237399263</v>
+        <v>0.070439494280553877</v>
       </c>
     </row>
     <row r="97">
@@ -2526,12 +2533,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.05655455138358334</v>
+        <v>0.05917280917280917</v>
       </c>
     </row>
     <row r="98">
@@ -2539,12 +2546,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.059742125760955875</v>
+        <v>0.056522953720085672</v>
       </c>
     </row>
     <row r="99">
@@ -2552,12 +2559,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.05332538420773715</v>
+        <v>0.059733091376507508</v>
       </c>
     </row>
     <row r="100">
@@ -2565,12 +2572,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.063272827472186821</v>
+        <v>0.053313023610053314</v>
       </c>
     </row>
     <row r="101">
@@ -2578,12 +2585,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.065590696663406153</v>
+        <v>0.06320533993944398</v>
       </c>
     </row>
     <row r="102">
@@ -2591,12 +2598,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.076352000000000003</v>
+        <v>0.065466182133752784</v>
       </c>
     </row>
     <row r="103">
@@ -2604,12 +2611,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.065805202937325669</v>
+        <v>0.076157037982764117</v>
       </c>
     </row>
     <row r="104">
@@ -2617,12 +2624,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.076808417360806666</v>
+        <v>0.065749061540211581</v>
       </c>
     </row>
     <row r="105">
@@ -2630,12 +2637,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.059717087285002413</v>
+        <v>0.076791584483892172</v>
       </c>
     </row>
     <row r="106">
@@ -2643,12 +2650,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.062647135757258693</v>
+        <v>0.059690700943964649</v>
       </c>
     </row>
     <row r="107">
@@ -2656,12 +2663,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.070920303605313095</v>
+        <v>0.062618471795542197</v>
       </c>
     </row>
     <row r="108">
@@ -2669,12 +2676,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.065393794749403336</v>
+        <v>0.070898682293960236</v>
       </c>
     </row>
     <row r="109">
@@ -2682,12 +2689,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.080211010415257675</v>
+        <v>0.065317582242941138</v>
       </c>
     </row>
     <row r="110">
@@ -2695,12 +2702,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.072762853584771386</v>
+        <v>0.080145965671036629</v>
       </c>
     </row>
     <row r="111">
@@ -2708,12 +2715,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.06399568661606736</v>
+        <v>0.072689573459715634</v>
       </c>
     </row>
     <row r="112">
@@ -2721,12 +2728,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.063501015113918341</v>
+        <v>0.063928453130175561</v>
       </c>
     </row>
     <row r="113">
@@ -2734,12 +2741,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.068910505836575875</v>
+        <v>0.063462839107236796</v>
       </c>
     </row>
     <row r="114">
@@ -2747,12 +2754,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.075861255309108075</v>
+        <v>0.068894421535828212</v>
       </c>
     </row>
     <row r="115">
@@ -2760,12 +2767,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.065143440299353664</v>
+        <v>0.075831433288780559</v>
       </c>
     </row>
     <row r="116">
@@ -2773,12 +2780,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.06897323092983372</v>
+        <v>0.065069656812776072</v>
       </c>
     </row>
     <row r="117">
@@ -2786,12 +2793,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.063126320812598002</v>
+        <v>0.068947525342874183</v>
       </c>
     </row>
     <row r="118">
@@ -2799,12 +2806,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.063669698557074147</v>
+        <v>0.063104811230748264</v>
       </c>
     </row>
     <row r="119">
@@ -2812,12 +2819,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.063717368915953976</v>
+        <v>0.06350035620992639</v>
       </c>
     </row>
     <row r="120">
@@ -2825,12 +2832,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.059342958777987023</v>
+        <v>0.063674601754071955</v>
       </c>
     </row>
     <row r="121">
@@ -2838,12 +2845,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.064245316366207145</v>
+        <v>0.059313171874346426</v>
       </c>
     </row>
     <row r="122">
@@ -2851,12 +2858,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.062068965517241378</v>
+        <v>0.064188592618753315</v>
       </c>
     </row>
     <row r="123">
@@ -2864,12 +2871,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.064026835849194191</v>
+        <v>0.061996497373029771</v>
       </c>
     </row>
     <row r="124">
@@ -2877,12 +2884,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.052326347700013182</v>
+        <v>0.063863834739598488</v>
       </c>
     </row>
     <row r="125">
@@ -2890,12 +2897,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.059298326072001833</v>
+        <v>0.052247154043561228</v>
       </c>
     </row>
     <row r="126">
@@ -2903,12 +2910,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.067914711757328008</v>
+        <v>0.059268426842684269</v>
       </c>
     </row>
     <row r="127">
@@ -2916,12 +2923,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.070808012604096332</v>
+        <v>0.067902094654219494</v>
       </c>
     </row>
     <row r="128">
@@ -2929,12 +2936,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.07553145336225596</v>
+        <v>0.070763417157766878</v>
       </c>
     </row>
     <row r="129">
@@ -2942,12 +2949,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.076438356164383561</v>
+        <v>0.075462702093537337</v>
       </c>
     </row>
     <row r="130">
@@ -2955,12 +2962,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.067644097659199598</v>
+        <v>0.076401725200246462</v>
       </c>
     </row>
     <row r="131">
@@ -2968,12 +2975,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.072913868142496369</v>
+        <v>0.067614315365746275</v>
       </c>
     </row>
     <row r="132">
@@ -2981,12 +2988,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.068560718161191678</v>
+        <v>0.072913868142496369</v>
       </c>
     </row>
     <row r="133">
@@ -2994,12 +3001,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.06652457269336394</v>
+        <v>0.068560718161191678</v>
       </c>
     </row>
     <row r="134">
@@ -3007,12 +3014,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.072356763142350858</v>
+        <v>0.066513667472644561</v>
       </c>
     </row>
     <row r="135">
@@ -3020,12 +3027,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.074903969270166459</v>
+        <v>0.072317098882563782</v>
       </c>
     </row>
     <row r="136">
@@ -3033,12 +3040,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.069387107018100982</v>
+        <v>0.074903969270166459</v>
       </c>
     </row>
     <row r="137">
@@ -3046,12 +3053,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.071817921009849864</v>
+        <v>0.069387107018100982</v>
       </c>
     </row>
     <row r="138">
@@ -3059,12 +3066,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.076772499403198857</v>
+        <v>0.071824789594491206</v>
       </c>
     </row>
     <row r="139">
@@ -3072,12 +3079,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.078349752555385968</v>
+        <v>0.076790830945558733</v>
       </c>
     </row>
     <row r="140">
@@ -3085,12 +3092,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.074750970791828464</v>
+        <v>0.078367875647668395</v>
       </c>
     </row>
     <row r="141">
@@ -3098,12 +3105,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.084741423451100875</v>
+        <v>0.074757281553398058</v>
       </c>
     </row>
     <row r="142">
@@ -3111,12 +3118,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.078041144901610016</v>
+        <v>0.084719733811108269</v>
       </c>
     </row>
     <row r="143">
@@ -3124,12 +3131,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.076079659879167594</v>
+        <v>0.078041144901610016</v>
       </c>
     </row>
     <row r="144">
@@ -3137,12 +3144,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.080851883974173658</v>
+        <v>0.076089875570674065</v>
       </c>
     </row>
     <row r="145">
@@ -3150,12 +3157,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.069404014095296465</v>
+        <v>0.080867469879518067</v>
       </c>
     </row>
     <row r="146">
@@ -3163,12 +3170,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.080768887699580766</v>
+        <v>0.069404014095296465</v>
       </c>
     </row>
     <row r="147">
@@ -3176,12 +3183,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.084360954246859507</v>
+        <v>0.080779695793746373</v>
       </c>
     </row>
     <row r="148">
@@ -3189,12 +3196,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.073169774288518161</v>
+        <v>0.084360954246859507</v>
       </c>
     </row>
     <row r="149">
@@ -3202,12 +3209,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.087278598224037232</v>
+        <v>0.073178391959799</v>
       </c>
     </row>
     <row r="150">
@@ -3215,12 +3222,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.078321938514487696</v>
+        <v>0.087278598224037232</v>
       </c>
     </row>
     <row r="151">
@@ -3228,12 +3235,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.096207312595079475</v>
+        <v>0.078329224615098378</v>
       </c>
     </row>
     <row r="152">
@@ -3241,12 +3248,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.09241339268434294</v>
+        <v>0.096197220036716491</v>
       </c>
     </row>
     <row r="153">
@@ -3254,12 +3261,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.091318500022294552</v>
+        <v>0.092360539939039143</v>
       </c>
     </row>
     <row r="154">
@@ -3267,12 +3274,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.095783160111716503</v>
+        <v>0.091338863616091337</v>
       </c>
     </row>
     <row r="155">
@@ -3280,12 +3287,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.093575918638524047</v>
+        <v>0.095783160111716503</v>
       </c>
     </row>
     <row r="156">
@@ -3293,12 +3300,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.085366964123110539</v>
+        <v>0.093575918638524047</v>
       </c>
     </row>
     <row r="157">
@@ -3306,12 +3313,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.088543280252803766</v>
+        <v>0.08537473818413624</v>
       </c>
     </row>
     <row r="158">
@@ -3319,12 +3326,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.092132152588555852</v>
+        <v>0.088559742191373331</v>
       </c>
     </row>
     <row r="159">
@@ -3332,12 +3339,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.084283727399165509</v>
+        <v>0.092124308216262232</v>
       </c>
     </row>
     <row r="160">
@@ -3345,12 +3352,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.089215335005374416</v>
+        <v>0.084269662921348312</v>
       </c>
     </row>
     <row r="161">
@@ -3358,12 +3365,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.091620040691759913</v>
+        <v>0.089220662884443122</v>
       </c>
     </row>
     <row r="162">
@@ -3371,12 +3378,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.1045674368619022</v>
+        <v>0.09163169273814066</v>
       </c>
     </row>
     <row r="163">
@@ -3384,12 +3391,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.083285566892124269</v>
+        <v>0.10458991723100075</v>
       </c>
     </row>
     <row r="164">
@@ -3397,12 +3404,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.095689975083496789</v>
+        <v>0.083261704200332354</v>
       </c>
     </row>
     <row r="165">
@@ -3410,12 +3417,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.087815971311116944</v>
+        <v>0.095684902459711618</v>
       </c>
     </row>
     <row r="166">
@@ -3423,12 +3430,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.081923367637653358</v>
+        <v>0.087808291061745675</v>
       </c>
     </row>
     <row r="167">
@@ -3436,12 +3443,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.094746607909080363</v>
+        <v>0.081918604651162796</v>
       </c>
     </row>
     <row r="168">
@@ -3449,12 +3456,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.098960450664963118</v>
+        <v>0.094752102058567697</v>
       </c>
     </row>
     <row r="169">
@@ -3462,12 +3469,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.096646159952371496</v>
+        <v>0.09898344467034563</v>
       </c>
     </row>
     <row r="170">
@@ -3475,12 +3482,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.077391755250194455</v>
+        <v>0.096639767164968915</v>
       </c>
     </row>
     <row r="171">
@@ -3488,12 +3495,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.082445233866193013</v>
+        <v>0.077391755250194455</v>
       </c>
     </row>
     <row r="172">
@@ -3501,12 +3508,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.090370018975332062</v>
+        <v>0.082445233866193013</v>
       </c>
     </row>
     <row r="173">
@@ -3514,12 +3521,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.084119200301772917</v>
+        <v>0.090391459074733102</v>
       </c>
     </row>
     <row r="174">
@@ -3527,12 +3534,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.094145164827132519</v>
+        <v>0.084100165937547142</v>
       </c>
     </row>
     <row r="175">
@@ -3540,12 +3547,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.095608711174580502</v>
+        <v>0.094214029697900672</v>
       </c>
     </row>
     <row r="176">
@@ -3553,12 +3560,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.085678734372222551</v>
+        <v>0.095622366635720921</v>
       </c>
     </row>
     <row r="177">
@@ -3566,12 +3573,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.08271935699933021</v>
+        <v>0.085683811329698975</v>
       </c>
     </row>
     <row r="178">
@@ -3579,12 +3586,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.082686127477236207</v>
       </c>
     </row>
     <row r="179">
@@ -3592,12 +3599,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.090610261540660278</v>
+        <v>0.0804867634500427</v>
       </c>
     </row>
     <row r="180">
@@ -3605,12 +3612,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.082543182653436242</v>
+        <v>0.090597313518148037</v>
       </c>
     </row>
     <row r="181">
@@ -3618,12 +3625,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.091556899157849272</v>
+        <v>0.082549250220523382</v>
       </c>
     </row>
     <row r="182">
@@ -3631,12 +3638,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.092637737688932228</v>
+        <v>0.091550309486109108</v>
       </c>
     </row>
     <row r="183">
@@ -3644,12 +3651,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.098408682335708098</v>
+        <v>0.092670011148272016</v>
       </c>
     </row>
     <row r="184">
@@ -3657,12 +3664,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.084536082474226809</v>
+        <v>0.098428343100692595</v>
       </c>
     </row>
     <row r="185">
@@ -3670,12 +3677,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.076279725916968966</v>
+        <v>0.084560989982321741</v>
       </c>
     </row>
     <row r="186">
@@ -3683,12 +3690,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.086791881248106634</v>
+        <v>0.076295101793993153</v>
       </c>
     </row>
     <row r="187">
@@ -3696,12 +3703,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.090070627336933939</v>
+        <v>0.086805029540978643</v>
       </c>
     </row>
     <row r="188">
@@ -3709,12 +3716,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.09336635795821667</v>
+        <v>0.090063143901628451</v>
       </c>
     </row>
     <row r="189">
@@ -3722,12 +3729,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.097718071402281934</v>
+        <v>0.093396531293762797</v>
       </c>
     </row>
     <row r="190">
@@ -3735,12 +3742,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.086249383932971907</v>
+        <v>0.097709080872205353</v>
       </c>
     </row>
     <row r="191">
@@ -3748,12 +3755,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.086249383932971907</v>
       </c>
     </row>
     <row r="192">
@@ -3761,12 +3768,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.077941815023881894</v>
+        <v>0.089415749364944966</v>
       </c>
     </row>
     <row r="193">
@@ -3774,12 +3781,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.078323600137409827</v>
+        <v>0.077958740499457113</v>
       </c>
     </row>
     <row r="194">
@@ -3787,12 +3794,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.080954907161803716</v>
+        <v>0.078296703296703296</v>
       </c>
     </row>
     <row r="195">
@@ -3800,12 +3807,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.081773207876612672</v>
+        <v>0.080937732046250127</v>
       </c>
     </row>
     <row r="196">
@@ -3813,12 +3820,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.099003395027926849</v>
+        <v>0.081765276430649861</v>
       </c>
     </row>
     <row r="197">
@@ -3826,12 +3833,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.090024552150586523</v>
+        <v>0.099014238773274921</v>
       </c>
     </row>
     <row r="198">
@@ -3839,12 +3846,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.076506024096385544</v>
+        <v>0.090016366612111293</v>
       </c>
     </row>
     <row r="199">
@@ -3852,12 +3859,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.070569366479550921</v>
+        <v>0.076517547823467383</v>
       </c>
     </row>
     <row r="200">
@@ -3865,12 +3872,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.07636914913776767</v>
+        <v>0.070569366479550921</v>
       </c>
     </row>
     <row r="201">
@@ -3878,12 +3885,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.081847890671420079</v>
+        <v>0.07636914913776767</v>
       </c>
     </row>
     <row r="202">
@@ -3891,12 +3898,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.087746787840802254</v>
+        <v>0.081847890671420079</v>
       </c>
     </row>
     <row r="203">
@@ -3904,12 +3911,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.097279572504250664</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="204">
@@ -3917,12 +3924,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.082903509875456027</v>
+        <v>0.097267759562841533</v>
       </c>
     </row>
     <row r="205">
@@ -3930,12 +3937,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.07316794329484394</v>
+        <v>0.082903509875456027</v>
       </c>
     </row>
     <row r="206">
@@ -3943,12 +3950,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.063076355588343791</v>
+        <v>0.073151217281975087</v>
       </c>
     </row>
     <row r="207">
@@ -3956,12 +3963,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.055814858031894204</v>
+        <v>0.063099630996309969</v>
       </c>
     </row>
     <row r="208">
@@ -3969,12 +3976,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.061007548913880758</v>
+        <v>0.055836575875486384</v>
       </c>
     </row>
     <row r="209">
@@ -3982,12 +3989,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.061026352288488211</v>
       </c>
     </row>
     <row r="210">
@@ -3995,12 +4002,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.068548387096774188</v>
+        <v>0.070815074496056091</v>
       </c>
     </row>
     <row r="211">
@@ -4008,12 +4015,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.067151956323930853</v>
+        <v>0.068536371603856269</v>
       </c>
     </row>
     <row r="212">
@@ -4021,12 +4028,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.071915584415584419</v>
+        <v>0.067164179104477612</v>
       </c>
     </row>
     <row r="213">
@@ -4034,12 +4041,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.071903911702645679</v>
       </c>
     </row>
     <row r="214">
@@ -4047,12 +4054,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.041328413284132844</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="215">
@@ -4060,12 +4067,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.041328413284132844</v>
       </c>
     </row>
     <row r="216">
@@ -4073,12 +4080,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.08256664307619721</v>
+        <v>0.06470165348670022</v>
       </c>
     </row>
     <row r="217">
@@ -4086,12 +4093,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.07277499403483656</v>
+        <v>0.08256664307619721</v>
       </c>
     </row>
     <row r="218">
@@ -4099,12 +4106,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.083222958057395144</v>
+        <v>0.07277499403483656</v>
       </c>
     </row>
     <row r="219">
@@ -4112,12 +4119,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.080611169652265544</v>
+        <v>0.083241333627732395</v>
       </c>
     </row>
     <row r="220">
@@ -4125,12 +4132,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.071167276355171269</v>
+        <v>0.080625329351835584</v>
       </c>
     </row>
     <row r="221">
@@ -4138,12 +4145,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.065044949762030665</v>
+        <v>0.071190951430472382</v>
       </c>
     </row>
     <row r="222">
@@ -4151,12 +4158,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.063391968138068369</v>
+        <v>0.065044949762030665</v>
       </c>
     </row>
     <row r="223">
@@ -4164,12 +4171,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.063391968138068369</v>
       </c>
     </row>
     <row r="224">
@@ -4177,12 +4184,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.077634961439588687</v>
       </c>
     </row>
     <row r="225">
@@ -4190,12 +4197,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="226">
@@ -4203,12 +4210,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073752103196859223</v>
       </c>
     </row>
     <row r="227">
@@ -4216,12 +4223,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="228">
@@ -4229,12 +4236,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.11087420042643924</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="229">
@@ -4242,12 +4249,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.12945590994371481</v>
+        <v>0.11087420042643924</v>
       </c>
     </row>
     <row r="230">
@@ -4255,12 +4262,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.12945590994371481</v>
       </c>
     </row>
     <row r="231">
@@ -4268,12 +4275,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.10682783404116301</v>
+        <v>0.087904599659284502</v>
       </c>
     </row>
     <row r="232">
@@ -4281,12 +4288,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.10682783404116301</v>
       </c>
     </row>
     <row r="233">
@@ -4294,12 +4301,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.10555923229649239</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="234">
@@ -4307,12 +4314,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.10854893138357705</v>
+        <v>0.10555923229649239</v>
       </c>
     </row>
     <row r="235">
@@ -4320,12 +4327,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.089805825242718448</v>
+        <v>0.10854893138357705</v>
       </c>
     </row>
     <row r="236">
@@ -4333,12 +4340,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.12865497076023391</v>
+        <v>0.089805825242718448</v>
       </c>
     </row>
     <row r="237">
@@ -4346,12 +4353,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12871287128712872</v>
       </c>
     </row>
     <row r="238">
@@ -4359,12 +4366,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="239">
@@ -4372,12 +4379,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.15940727436012572</v>
+        <v>0.11844484629294756</v>
       </c>
     </row>
     <row r="240">
@@ -4385,12 +4392,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.15947888589398024</v>
       </c>
     </row>
     <row r="241">
@@ -4398,12 +4405,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12748789671866595</v>
       </c>
     </row>
     <row r="242">
@@ -4411,12 +4418,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.11217183770883055</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="243">
@@ -4424,12 +4431,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11217183770883055</v>
       </c>
     </row>
     <row r="244">
@@ -4437,12 +4444,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="245">
@@ -4450,12 +4457,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.084227910817506191</v>
+        <v>0.11268228015908087</v>
       </c>
     </row>
     <row r="246">
@@ -4463,12 +4470,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.091537132987910191</v>
+        <v>0.084262701363073109</v>
       </c>
     </row>
     <row r="247">
@@ -4476,12 +4483,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.091537132987910191</v>
       </c>
     </row>
     <row r="248">
@@ -4489,12 +4496,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="249">
@@ -4502,12 +4509,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12011863568956994</v>
       </c>
     </row>
     <row r="250">
@@ -4515,12 +4522,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="251">
@@ -4528,12 +4535,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.084689349112426038</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="252">
@@ -4541,12 +4548,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.080766598220396987</v>
+        <v>0.084689349112426038</v>
       </c>
     </row>
     <row r="253">
@@ -4554,12 +4561,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.068189566996249576</v>
+        <v>0.080766598220396987</v>
       </c>
     </row>
     <row r="254">
@@ -4567,12 +4574,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.074667575860893287</v>
+        <v>0.068189566996249576</v>
       </c>
     </row>
     <row r="255">
@@ -4580,18 +4587,20 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="5"/>
+      <c r="E255" s="5">
+        <v>0.074667575860893287</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -4602,7 +4611,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -4613,7 +4622,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -4624,7 +4633,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4635,7 +4644,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4646,7 +4655,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4657,7 +4666,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4668,7 +4677,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4679,7 +4688,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4690,7 +4699,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4701,7 +4710,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4712,7 +4721,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4723,7 +4732,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4734,7 +4743,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4745,7 +4754,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4755,7 +4764,9 @@
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B271" s="4"/>
+      <c r="B271" s="4">
+        <v>936</v>
+      </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="5"/>
@@ -4877,6 +4888,15 @@
       <c r="D284" s="4"/>
       <c r="E284" s="5"/>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+  <si>
+    <t>12/13/2020</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
   <si>
     <t>12/10/2020</t>
   </si>
@@ -963,24 +972,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E288"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -997,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>42927</v>
+        <v>41076</v>
       </c>
       <c r="C3" s="4">
-        <v>38622</v>
+        <v>38355</v>
       </c>
       <c r="D3" s="4">
-        <v>4305</v>
+        <v>2721</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1012,16 +1021,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>44776</v>
+        <v>64166</v>
       </c>
       <c r="C4" s="4">
-        <v>37627</v>
+        <v>58523</v>
       </c>
       <c r="D4" s="4">
-        <v>7149</v>
+        <v>5643</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10522492466637969</v>
+        <v>0.11617312072892938</v>
       </c>
     </row>
     <row r="5">
@@ -1029,16 +1038,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>39278</v>
+        <v>67563</v>
       </c>
       <c r="C5" s="4">
-        <v>37717</v>
+        <v>62055</v>
       </c>
       <c r="D5" s="4">
-        <v>1561</v>
+        <v>5508</v>
       </c>
       <c r="E5" s="5">
-        <v>0.1216441091635234</v>
+        <v>0.10288228326470754</v>
       </c>
     </row>
     <row r="6">
@@ -1046,16 +1055,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>49920</v>
+        <v>56591</v>
       </c>
       <c r="C6" s="4">
-        <v>48390</v>
+        <v>50877</v>
       </c>
       <c r="D6" s="4">
-        <v>1530</v>
+        <v>5714</v>
       </c>
       <c r="E6" s="5">
-        <v>0.099087286283584014</v>
+        <v>0.10143366205353443</v>
       </c>
     </row>
     <row r="7">
@@ -1063,16 +1072,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>54316</v>
+        <v>47805</v>
       </c>
       <c r="C7" s="4">
-        <v>50105</v>
+        <v>39467</v>
       </c>
       <c r="D7" s="4">
-        <v>4211</v>
+        <v>8338</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10853510522309766</v>
+        <v>0.10776675853388598</v>
       </c>
     </row>
     <row r="8">
@@ -1080,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>61365</v>
+        <v>39509</v>
       </c>
       <c r="C8" s="4">
-        <v>55571</v>
+        <v>37872</v>
       </c>
       <c r="D8" s="4">
-        <v>5794</v>
+        <v>1637</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10346453991938942</v>
+        <v>0.12228691009577979</v>
       </c>
     </row>
     <row r="9">
@@ -1097,16 +1106,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>59324</v>
+        <v>50347</v>
       </c>
       <c r="C9" s="4">
-        <v>52113</v>
+        <v>48794</v>
       </c>
       <c r="D9" s="4">
-        <v>7211</v>
+        <v>1553</v>
       </c>
       <c r="E9" s="5">
-        <v>0.10042319340540323</v>
+        <v>0.097948954017697307</v>
       </c>
     </row>
     <row r="10">
@@ -1114,16 +1123,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>51616</v>
+        <v>54655</v>
       </c>
       <c r="C10" s="4">
-        <v>46292</v>
+        <v>50330</v>
       </c>
       <c r="D10" s="4">
-        <v>5324</v>
+        <v>4325</v>
       </c>
       <c r="E10" s="5">
-        <v>0.10083757595664312</v>
+        <v>0.10685021304490332</v>
       </c>
     </row>
     <row r="11">
@@ -1131,16 +1140,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>32068</v>
+        <v>61545</v>
       </c>
       <c r="C11" s="4">
-        <v>25448</v>
+        <v>55671</v>
       </c>
       <c r="D11" s="4">
-        <v>6620</v>
+        <v>5874</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10210952706612657</v>
+        <v>0.10310665100886089</v>
       </c>
     </row>
     <row r="12">
@@ -1148,16 +1157,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>24268</v>
+        <v>59453</v>
       </c>
       <c r="C12" s="4">
-        <v>22720</v>
+        <v>52221</v>
       </c>
       <c r="D12" s="4">
-        <v>1548</v>
+        <v>7232</v>
       </c>
       <c r="E12" s="5">
-        <v>0.11387306753458096</v>
+        <v>0.10004206815040366</v>
       </c>
     </row>
     <row r="13">
@@ -1165,16 +1174,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>35004</v>
+        <v>51717</v>
       </c>
       <c r="C13" s="4">
-        <v>33398</v>
+        <v>46389</v>
       </c>
       <c r="D13" s="4">
-        <v>1606</v>
+        <v>5328</v>
       </c>
       <c r="E13" s="5">
-        <v>0.099968163005412294</v>
+        <v>0.10077344439201526</v>
       </c>
     </row>
     <row r="14">
@@ -1182,16 +1191,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>41411</v>
+        <v>32146</v>
       </c>
       <c r="C14" s="4">
-        <v>38997</v>
+        <v>25525</v>
       </c>
       <c r="D14" s="4">
-        <v>2414</v>
+        <v>6621</v>
       </c>
       <c r="E14" s="5">
-        <v>0.091406344961711433</v>
+        <v>0.1021619775658707</v>
       </c>
     </row>
     <row r="15">
@@ -1199,16 +1208,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>41431</v>
+        <v>24303</v>
       </c>
       <c r="C15" s="4">
-        <v>40395</v>
+        <v>22754</v>
       </c>
       <c r="D15" s="4">
-        <v>1036</v>
+        <v>1549</v>
       </c>
       <c r="E15" s="5">
-        <v>0.086467427803895228</v>
+        <v>0.11406998457416578</v>
       </c>
     </row>
     <row r="16">
@@ -1216,16 +1225,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>66447</v>
+        <v>35045</v>
       </c>
       <c r="C16" s="4">
-        <v>60821</v>
+        <v>33439</v>
       </c>
       <c r="D16" s="4">
-        <v>5626</v>
+        <v>1606</v>
       </c>
       <c r="E16" s="5">
-        <v>0.076441957787481807</v>
+        <v>0.099768402888152224</v>
       </c>
     </row>
     <row r="17">
@@ -1233,16 +1242,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>50540</v>
+        <v>41469</v>
       </c>
       <c r="C17" s="4">
-        <v>44325</v>
+        <v>39054</v>
       </c>
       <c r="D17" s="4">
-        <v>6215</v>
+        <v>2415</v>
       </c>
       <c r="E17" s="5">
-        <v>0.069676475964174742</v>
+        <v>0.091303951644746834</v>
       </c>
     </row>
     <row r="18">
@@ -1250,16 +1259,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>51903</v>
+        <v>41455</v>
       </c>
       <c r="C18" s="4">
-        <v>45413</v>
+        <v>40419</v>
       </c>
       <c r="D18" s="4">
-        <v>6490</v>
+        <v>1036</v>
       </c>
       <c r="E18" s="5">
-        <v>0.078959717454123349</v>
+        <v>0.086377994576915557</v>
       </c>
     </row>
     <row r="19">
@@ -1267,16 +1276,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>41471</v>
+        <v>66670</v>
       </c>
       <c r="C19" s="4">
-        <v>39897</v>
+        <v>60892</v>
       </c>
       <c r="D19" s="4">
-        <v>1574</v>
+        <v>5778</v>
       </c>
       <c r="E19" s="5">
-        <v>0.071971410476793632</v>
+        <v>0.076501863128237757</v>
       </c>
     </row>
     <row r="20">
@@ -1284,16 +1293,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>42279</v>
+        <v>50644</v>
       </c>
       <c r="C20" s="4">
-        <v>40822</v>
+        <v>44421</v>
       </c>
       <c r="D20" s="4">
-        <v>1457</v>
+        <v>6223</v>
       </c>
       <c r="E20" s="5">
-        <v>0.065689625209986682</v>
+        <v>0.069557593248821825</v>
       </c>
     </row>
     <row r="21">
@@ -1301,16 +1310,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>53383</v>
+        <v>52148</v>
       </c>
       <c r="C21" s="4">
-        <v>49249</v>
+        <v>45487</v>
       </c>
       <c r="D21" s="4">
-        <v>4134</v>
+        <v>6661</v>
       </c>
       <c r="E21" s="5">
-        <v>0.068554318134061779</v>
+        <v>0.07876147579315268</v>
       </c>
     </row>
     <row r="22">
@@ -1318,16 +1327,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>58290</v>
+        <v>41512</v>
       </c>
       <c r="C22" s="4">
-        <v>53083</v>
+        <v>39938</v>
       </c>
       <c r="D22" s="4">
-        <v>5207</v>
+        <v>1574</v>
       </c>
       <c r="E22" s="5">
-        <v>0.069136069114470844</v>
+        <v>0.071983908149889253</v>
       </c>
     </row>
     <row r="23">
@@ -1335,16 +1344,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>53815</v>
+        <v>42302</v>
       </c>
       <c r="C23" s="4">
-        <v>49806</v>
+        <v>40845</v>
       </c>
       <c r="D23" s="4">
-        <v>4009</v>
+        <v>1457</v>
       </c>
       <c r="E23" s="5">
-        <v>0.072901417876113594</v>
+        <v>0.065628347277306542</v>
       </c>
     </row>
     <row r="24">
@@ -1352,16 +1361,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>50310</v>
+        <v>53422</v>
       </c>
       <c r="C24" s="4">
-        <v>45767</v>
+        <v>49286</v>
       </c>
       <c r="D24" s="4">
-        <v>4543</v>
+        <v>4136</v>
       </c>
       <c r="E24" s="5">
-        <v>0.078974445121054948</v>
+        <v>0.0684830826574271</v>
       </c>
     </row>
     <row r="25">
@@ -1369,16 +1378,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>35267</v>
+        <v>58331</v>
       </c>
       <c r="C25" s="4">
-        <v>30686</v>
+        <v>53122</v>
       </c>
       <c r="D25" s="4">
-        <v>4581</v>
+        <v>5209</v>
       </c>
       <c r="E25" s="5">
-        <v>0.077272054835051035</v>
+        <v>0.069043662184620033</v>
       </c>
     </row>
     <row r="26">
@@ -1386,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>29527</v>
+        <v>53846</v>
       </c>
       <c r="C26" s="4">
-        <v>28667</v>
+        <v>49837</v>
       </c>
       <c r="D26" s="4">
-        <v>860</v>
+        <v>4009</v>
       </c>
       <c r="E26" s="5">
-        <v>0.087207894418210433</v>
+        <v>0.07286983795086252</v>
       </c>
     </row>
     <row r="27">
@@ -1403,16 +1412,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>35710</v>
+        <v>50326</v>
       </c>
       <c r="C27" s="4">
-        <v>34686</v>
+        <v>45782</v>
       </c>
       <c r="D27" s="4">
-        <v>1024</v>
+        <v>4544</v>
       </c>
       <c r="E27" s="5">
-        <v>0.087170530327087964</v>
+        <v>0.078975543193030337</v>
       </c>
     </row>
     <row r="28">
@@ -1420,16 +1429,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>41040</v>
+        <v>35443</v>
       </c>
       <c r="C28" s="4">
-        <v>38377</v>
+        <v>30701</v>
       </c>
       <c r="D28" s="4">
-        <v>2663</v>
+        <v>4742</v>
       </c>
       <c r="E28" s="5">
-        <v>0.080445355274829475</v>
+        <v>0.07729289940828403</v>
       </c>
     </row>
     <row r="29">
@@ -1437,16 +1446,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>48304</v>
+        <v>29528</v>
       </c>
       <c r="C29" s="4">
-        <v>44479</v>
+        <v>28668</v>
       </c>
       <c r="D29" s="4">
-        <v>3825</v>
+        <v>860</v>
       </c>
       <c r="E29" s="5">
-        <v>0.07735654308589282</v>
+        <v>0.087078736587577449</v>
       </c>
     </row>
     <row r="30">
@@ -1454,16 +1463,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>46520</v>
+        <v>35711</v>
       </c>
       <c r="C30" s="4">
-        <v>43322</v>
+        <v>34687</v>
       </c>
       <c r="D30" s="4">
-        <v>3198</v>
+        <v>1024</v>
       </c>
       <c r="E30" s="5">
-        <v>0.078005659479628384</v>
+        <v>0.087122113782432758</v>
       </c>
     </row>
     <row r="31">
@@ -1471,16 +1480,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>41539</v>
+        <v>41042</v>
       </c>
       <c r="C31" s="4">
-        <v>37780</v>
+        <v>38379</v>
       </c>
       <c r="D31" s="4">
-        <v>3759</v>
+        <v>2663</v>
       </c>
       <c r="E31" s="5">
-        <v>0.075979078964153596</v>
+        <v>0.080404930115912779</v>
       </c>
     </row>
     <row r="32">
@@ -1488,16 +1497,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>29476</v>
+        <v>48307</v>
       </c>
       <c r="C32" s="4">
-        <v>25887</v>
+        <v>44481</v>
       </c>
       <c r="D32" s="4">
-        <v>3589</v>
+        <v>3826</v>
       </c>
       <c r="E32" s="5">
-        <v>0.077065280184864235</v>
+        <v>0.077300613496932513</v>
       </c>
     </row>
     <row r="33">
@@ -1505,16 +1514,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>26384</v>
+        <v>46520</v>
       </c>
       <c r="C33" s="4">
-        <v>25644</v>
+        <v>43321</v>
       </c>
       <c r="D33" s="4">
-        <v>740</v>
+        <v>3199</v>
       </c>
       <c r="E33" s="5">
-        <v>0.080844077840954598</v>
+        <v>0.078045971255445948</v>
       </c>
     </row>
     <row r="34">
@@ -1522,16 +1531,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>34474</v>
+        <v>41538</v>
       </c>
       <c r="C34" s="4">
-        <v>33704</v>
+        <v>37779</v>
       </c>
       <c r="D34" s="4">
-        <v>770</v>
+        <v>3759</v>
       </c>
       <c r="E34" s="5">
-        <v>0.075218843064705346</v>
+        <v>0.075910621365166825</v>
       </c>
     </row>
     <row r="35">
@@ -1539,16 +1548,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>40204</v>
+        <v>29475</v>
       </c>
       <c r="C35" s="4">
-        <v>38159</v>
+        <v>25886</v>
       </c>
       <c r="D35" s="4">
-        <v>2045</v>
+        <v>3589</v>
       </c>
       <c r="E35" s="5">
-        <v>0.065223274695534503</v>
+        <v>0.076991942703670546</v>
       </c>
     </row>
     <row r="36">
@@ -1556,16 +1565,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>44930</v>
+        <v>26384</v>
       </c>
       <c r="C36" s="4">
-        <v>41830</v>
+        <v>25644</v>
       </c>
       <c r="D36" s="4">
-        <v>3100</v>
+        <v>740</v>
       </c>
       <c r="E36" s="5">
-        <v>0.058880017559744285</v>
+        <v>0.080910037651205635</v>
       </c>
     </row>
     <row r="37">
@@ -1573,16 +1582,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>47668</v>
+        <v>34472</v>
       </c>
       <c r="C37" s="4">
-        <v>45125</v>
+        <v>33702</v>
       </c>
       <c r="D37" s="4">
-        <v>2543</v>
+        <v>770</v>
       </c>
       <c r="E37" s="5">
-        <v>0.066504481434058904</v>
+        <v>0.075140860942077975</v>
       </c>
     </row>
     <row r="38">
@@ -1590,16 +1599,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>43383</v>
+        <v>40201</v>
       </c>
       <c r="C38" s="4">
-        <v>40553</v>
+        <v>38156</v>
       </c>
       <c r="D38" s="4">
-        <v>2830</v>
+        <v>2045</v>
       </c>
       <c r="E38" s="5">
-        <v>0.064273687806544494</v>
+        <v>0.065171646726387297</v>
       </c>
     </row>
     <row r="39">
@@ -1607,16 +1616,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>25526</v>
+        <v>44929</v>
       </c>
       <c r="C39" s="4">
-        <v>22387</v>
+        <v>41829</v>
       </c>
       <c r="D39" s="4">
-        <v>3139</v>
+        <v>3100</v>
       </c>
       <c r="E39" s="5">
-        <v>0.06538098284739359</v>
+        <v>0.058833214422918612</v>
       </c>
     </row>
     <row r="40">
@@ -1624,16 +1633,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>26672</v>
+        <v>47667</v>
       </c>
       <c r="C40" s="4">
-        <v>26109</v>
+        <v>45123</v>
       </c>
       <c r="D40" s="4">
-        <v>563</v>
+        <v>2544</v>
       </c>
       <c r="E40" s="5">
-        <v>0.074447923533289384</v>
+        <v>0.066484191138851942</v>
       </c>
     </row>
     <row r="41">
@@ -1641,16 +1650,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>33579</v>
+        <v>43377</v>
       </c>
       <c r="C41" s="4">
-        <v>32758</v>
+        <v>40547</v>
       </c>
       <c r="D41" s="4">
-        <v>821</v>
+        <v>2830</v>
       </c>
       <c r="E41" s="5">
-        <v>0.067765645579300676</v>
+        <v>0.064213247488049949</v>
       </c>
     </row>
     <row r="42">
@@ -1658,16 +1667,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>39052</v>
+        <v>25526</v>
       </c>
       <c r="C42" s="4">
-        <v>37192</v>
+        <v>22386</v>
       </c>
       <c r="D42" s="4">
-        <v>1860</v>
+        <v>3140</v>
       </c>
       <c r="E42" s="5">
-        <v>0.063459666530599423</v>
+        <v>0.065326633165829151</v>
       </c>
     </row>
     <row r="43">
@@ -1675,16 +1684,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>45095</v>
+        <v>26672</v>
       </c>
       <c r="C43" s="4">
-        <v>42090</v>
+        <v>26109</v>
       </c>
       <c r="D43" s="4">
-        <v>3005</v>
+        <v>563</v>
       </c>
       <c r="E43" s="5">
-        <v>0.059504608294930879</v>
+        <v>0.07441726381681904</v>
       </c>
     </row>
     <row r="44">
@@ -1692,16 +1701,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>45528</v>
+        <v>33577</v>
       </c>
       <c r="C44" s="4">
-        <v>43051</v>
+        <v>32756</v>
       </c>
       <c r="D44" s="4">
-        <v>2477</v>
+        <v>821</v>
       </c>
       <c r="E44" s="5">
-        <v>0.060463074728409963</v>
+        <v>0.067782213539454683</v>
       </c>
     </row>
     <row r="45">
@@ -1709,16 +1718,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>38860</v>
+        <v>39051</v>
       </c>
       <c r="C45" s="4">
-        <v>36669</v>
+        <v>37191</v>
       </c>
       <c r="D45" s="4">
-        <v>2191</v>
+        <v>1860</v>
       </c>
       <c r="E45" s="5">
-        <v>0.059432644608197277</v>
+        <v>0.06344372939883848</v>
       </c>
     </row>
     <row r="46">
@@ -1726,16 +1735,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>23982</v>
+        <v>45094</v>
       </c>
       <c r="C46" s="4">
-        <v>21589</v>
+        <v>42089</v>
       </c>
       <c r="D46" s="4">
-        <v>2393</v>
+        <v>3005</v>
       </c>
       <c r="E46" s="5">
-        <v>0.064159952253058788</v>
+        <v>0.059475487232633788</v>
       </c>
     </row>
     <row r="47">
@@ -1743,16 +1752,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>25467</v>
+        <v>45526</v>
       </c>
       <c r="C47" s="4">
-        <v>25050</v>
+        <v>43049</v>
       </c>
       <c r="D47" s="4">
-        <v>417</v>
+        <v>2477</v>
       </c>
       <c r="E47" s="5">
-        <v>0.070399036010566809</v>
+        <v>0.060462310455455318</v>
       </c>
     </row>
     <row r="48">
@@ -1760,16 +1769,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>30514</v>
+        <v>38859</v>
       </c>
       <c r="C48" s="4">
-        <v>30031</v>
+        <v>36668</v>
       </c>
       <c r="D48" s="4">
-        <v>483</v>
+        <v>2191</v>
       </c>
       <c r="E48" s="5">
-        <v>0.075135425712277215</v>
+        <v>0.059408323905351085</v>
       </c>
     </row>
     <row r="49">
@@ -1777,16 +1786,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>37818</v>
+        <v>23982</v>
       </c>
       <c r="C49" s="4">
-        <v>36633</v>
+        <v>21589</v>
       </c>
       <c r="D49" s="4">
-        <v>1185</v>
+        <v>2393</v>
       </c>
       <c r="E49" s="5">
-        <v>0.061743640405038283</v>
+        <v>0.064070268478621142</v>
       </c>
     </row>
     <row r="50">
@@ -1794,16 +1803,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>40641</v>
+        <v>25467</v>
       </c>
       <c r="C50" s="4">
-        <v>38731</v>
+        <v>25050</v>
       </c>
       <c r="D50" s="4">
-        <v>1910</v>
+        <v>417</v>
       </c>
       <c r="E50" s="5">
-        <v>0.064182634004365746</v>
+        <v>0.070442756576509821</v>
       </c>
     </row>
     <row r="51">
@@ -1811,16 +1820,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>46373</v>
+        <v>30513</v>
       </c>
       <c r="C51" s="4">
-        <v>44982</v>
+        <v>30030</v>
       </c>
       <c r="D51" s="4">
-        <v>1391</v>
+        <v>483</v>
       </c>
       <c r="E51" s="5">
-        <v>0.063624373516222632</v>
+        <v>0.075053727888907254</v>
       </c>
     </row>
     <row r="52">
@@ -1828,16 +1837,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>36502</v>
+        <v>37817</v>
       </c>
       <c r="C52" s="4">
-        <v>34758</v>
+        <v>36632</v>
       </c>
       <c r="D52" s="4">
-        <v>1744</v>
+        <v>1185</v>
       </c>
       <c r="E52" s="5">
-        <v>0.058732139673483945</v>
+        <v>0.061581303535549366</v>
       </c>
     </row>
     <row r="53">
@@ -1845,16 +1854,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>18443</v>
+        <v>40638</v>
       </c>
       <c r="C53" s="4">
-        <v>16604</v>
+        <v>38728</v>
       </c>
       <c r="D53" s="4">
-        <v>1839</v>
+        <v>1910</v>
       </c>
       <c r="E53" s="5">
-        <v>0.061569638909358883</v>
+        <v>0.064139058809278657</v>
       </c>
     </row>
     <row r="54">
@@ -1862,16 +1871,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>23459</v>
+        <v>46373</v>
       </c>
       <c r="C54" s="4">
-        <v>23123</v>
+        <v>44982</v>
       </c>
       <c r="D54" s="4">
-        <v>336</v>
+        <v>1391</v>
       </c>
       <c r="E54" s="5">
-        <v>0.076927496265655523</v>
+        <v>0.063599208965062617</v>
       </c>
     </row>
     <row r="55">
@@ -1879,16 +1888,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>32977</v>
+        <v>36502</v>
       </c>
       <c r="C55" s="4">
-        <v>32585</v>
+        <v>34758</v>
       </c>
       <c r="D55" s="4">
-        <v>392</v>
+        <v>1744</v>
       </c>
       <c r="E55" s="5">
-        <v>0.073981365595883739</v>
+        <v>0.058688791611523974</v>
       </c>
     </row>
     <row r="56">
@@ -1896,16 +1905,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>34488</v>
+        <v>18443</v>
       </c>
       <c r="C56" s="4">
-        <v>33613</v>
+        <v>16604</v>
       </c>
       <c r="D56" s="4">
-        <v>875</v>
+        <v>1839</v>
       </c>
       <c r="E56" s="5">
-        <v>0.058683287353972956</v>
+        <v>0.061549228332535268</v>
       </c>
     </row>
     <row r="57">
@@ -1913,16 +1922,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>41560</v>
+        <v>23457</v>
       </c>
       <c r="C57" s="4">
-        <v>40065</v>
+        <v>23121</v>
       </c>
       <c r="D57" s="4">
-        <v>1495</v>
+        <v>336</v>
       </c>
       <c r="E57" s="5">
-        <v>0.061139212667692983</v>
+        <v>0.076878911408394104</v>
       </c>
     </row>
     <row r="58">
@@ -1930,16 +1939,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>42286</v>
+        <v>32976</v>
       </c>
       <c r="C58" s="4">
-        <v>41167</v>
+        <v>32584</v>
       </c>
       <c r="D58" s="4">
-        <v>1119</v>
+        <v>392</v>
       </c>
       <c r="E58" s="5">
-        <v>0.065349333481140706</v>
+        <v>0.073878627968337732</v>
       </c>
     </row>
     <row r="59">
@@ -1947,16 +1956,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>34302</v>
+        <v>34488</v>
       </c>
       <c r="C59" s="4">
-        <v>32853</v>
+        <v>33613</v>
       </c>
       <c r="D59" s="4">
-        <v>1449</v>
+        <v>875</v>
       </c>
       <c r="E59" s="5">
-        <v>0.060721010834265753</v>
+        <v>0.058615290353325619</v>
       </c>
     </row>
     <row r="60">
@@ -1964,16 +1973,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>21671</v>
+        <v>41559</v>
       </c>
       <c r="C60" s="4">
-        <v>20538</v>
+        <v>40064</v>
       </c>
       <c r="D60" s="4">
-        <v>1133</v>
+        <v>1495</v>
       </c>
       <c r="E60" s="5">
-        <v>0.066326912988083644</v>
+        <v>0.061131530173090816</v>
       </c>
     </row>
     <row r="61">
@@ -1981,16 +1990,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>21638</v>
+        <v>42286</v>
       </c>
       <c r="C61" s="4">
-        <v>21360</v>
+        <v>41167</v>
       </c>
       <c r="D61" s="4">
-        <v>278</v>
+        <v>1119</v>
       </c>
       <c r="E61" s="5">
-        <v>0.067749773690980994</v>
+        <v>0.065295046105280641</v>
       </c>
     </row>
     <row r="62">
@@ -1998,16 +2007,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>32579</v>
+        <v>34301</v>
       </c>
       <c r="C62" s="4">
-        <v>32240</v>
+        <v>32852</v>
       </c>
       <c r="D62" s="4">
-        <v>339</v>
+        <v>1449</v>
       </c>
       <c r="E62" s="5">
-        <v>0.069768629654221356</v>
+        <v>0.060679611650485438</v>
       </c>
     </row>
     <row r="63">
@@ -2015,16 +2024,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>37232</v>
+        <v>21670</v>
       </c>
       <c r="C63" s="4">
-        <v>36223</v>
+        <v>20537</v>
       </c>
       <c r="D63" s="4">
-        <v>1009</v>
+        <v>1133</v>
       </c>
       <c r="E63" s="5">
-        <v>0.05645022242146281</v>
+        <v>0.066299584222946392</v>
       </c>
     </row>
     <row r="64">
@@ -2032,16 +2041,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>42460</v>
+        <v>21638</v>
       </c>
       <c r="C64" s="4">
-        <v>41185</v>
+        <v>21360</v>
       </c>
       <c r="D64" s="4">
-        <v>1275</v>
+        <v>278</v>
       </c>
       <c r="E64" s="5">
-        <v>0.055475128843592562</v>
+        <v>0.067723960565795119</v>
       </c>
     </row>
     <row r="65">
@@ -2049,16 +2058,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>40909</v>
+        <v>32579</v>
       </c>
       <c r="C65" s="4">
-        <v>40012</v>
+        <v>32240</v>
       </c>
       <c r="D65" s="4">
-        <v>897</v>
+        <v>339</v>
       </c>
       <c r="E65" s="5">
-        <v>0.050170273241627115</v>
+        <v>0.069750816993464054</v>
       </c>
     </row>
     <row r="66">
@@ -2066,16 +2075,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>34450</v>
+        <v>37231</v>
       </c>
       <c r="C66" s="4">
-        <v>33428</v>
+        <v>36222</v>
       </c>
       <c r="D66" s="4">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E66" s="5">
-        <v>0.057306429433390399</v>
+        <v>0.056417149159084641</v>
       </c>
     </row>
     <row r="67">
@@ -2083,16 +2092,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>17805</v>
+        <v>42459</v>
       </c>
       <c r="C67" s="4">
-        <v>16890</v>
+        <v>41184</v>
       </c>
       <c r="D67" s="4">
-        <v>915</v>
+        <v>1275</v>
       </c>
       <c r="E67" s="5">
-        <v>0.056801477516867059</v>
+        <v>0.055478381663483241</v>
       </c>
     </row>
     <row r="68">
@@ -2100,16 +2109,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>18047</v>
+        <v>40909</v>
       </c>
       <c r="C68" s="4">
-        <v>17794</v>
+        <v>40012</v>
       </c>
       <c r="D68" s="4">
-        <v>253</v>
+        <v>897</v>
       </c>
       <c r="E68" s="5">
-        <v>0.06485885477793564</v>
+        <v>0.050132633102006913</v>
       </c>
     </row>
     <row r="69">
@@ -2117,16 +2126,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>26991</v>
+        <v>34450</v>
       </c>
       <c r="C69" s="4">
-        <v>26698</v>
+        <v>33428</v>
       </c>
       <c r="D69" s="4">
-        <v>293</v>
+        <v>1022</v>
       </c>
       <c r="E69" s="5">
-        <v>0.078687957571914449</v>
+        <v>0.057258222807952217</v>
       </c>
     </row>
     <row r="70">
@@ -2134,16 +2143,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>32527</v>
+        <v>17805</v>
       </c>
       <c r="C70" s="4">
-        <v>31892</v>
+        <v>16890</v>
       </c>
       <c r="D70" s="4">
-        <v>635</v>
+        <v>915</v>
       </c>
       <c r="E70" s="5">
-        <v>0.062060689182238983</v>
+        <v>0.056718891232298882</v>
       </c>
     </row>
     <row r="71">
@@ -2151,16 +2160,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>36046</v>
+        <v>18047</v>
       </c>
       <c r="C71" s="4">
-        <v>35429</v>
+        <v>17794</v>
       </c>
       <c r="D71" s="4">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="E71" s="5">
-        <v>0.061093792355651939</v>
+        <v>0.064866868474701925</v>
       </c>
     </row>
     <row r="72">
@@ -2168,16 +2177,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>40627</v>
+        <v>26991</v>
       </c>
       <c r="C72" s="4">
-        <v>39880</v>
+        <v>26698</v>
       </c>
       <c r="D72" s="4">
-        <v>747</v>
+        <v>293</v>
       </c>
       <c r="E72" s="5">
-        <v>0.054621088804485442</v>
+        <v>0.078651685393258425</v>
       </c>
     </row>
     <row r="73">
@@ -2185,16 +2194,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>29238</v>
+        <v>32524</v>
       </c>
       <c r="C73" s="4">
-        <v>28574</v>
+        <v>31889</v>
       </c>
       <c r="D73" s="4">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E73" s="5">
-        <v>0.054500181853789555</v>
+        <v>0.061922682175846733</v>
       </c>
     </row>
     <row r="74">
@@ -2202,16 +2211,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>14220</v>
+        <v>36044</v>
       </c>
       <c r="C74" s="4">
-        <v>13675</v>
+        <v>35427</v>
       </c>
       <c r="D74" s="4">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="E74" s="5">
-        <v>0.057999595469255663</v>
+        <v>0.060967774659317624</v>
       </c>
     </row>
     <row r="75">
@@ -2219,16 +2228,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>13901</v>
+        <v>40623</v>
       </c>
       <c r="C75" s="4">
-        <v>13789</v>
+        <v>39876</v>
       </c>
       <c r="D75" s="4">
-        <v>112</v>
+        <v>747</v>
       </c>
       <c r="E75" s="5">
-        <v>0.066575378195096499</v>
+        <v>0.05449787963547776</v>
       </c>
     </row>
     <row r="76">
@@ -2236,16 +2245,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>26010</v>
+        <v>29237</v>
       </c>
       <c r="C76" s="4">
-        <v>25913</v>
+        <v>28573</v>
       </c>
       <c r="D76" s="4">
-        <v>97</v>
+        <v>664</v>
       </c>
       <c r="E76" s="5">
-        <v>0.060092673037938027</v>
+        <v>0.05444783131519338</v>
       </c>
     </row>
     <row r="77">
@@ -2253,16 +2262,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>31627</v>
+        <v>14220</v>
       </c>
       <c r="C77" s="4">
-        <v>31296</v>
+        <v>13675</v>
       </c>
       <c r="D77" s="4">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="E77" s="5">
-        <v>0.05309063329541145</v>
+        <v>0.057967352302016474</v>
       </c>
     </row>
     <row r="78">
@@ -2270,16 +2279,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>36151</v>
+        <v>13901</v>
       </c>
       <c r="C78" s="4">
-        <v>35820</v>
+        <v>13789</v>
       </c>
       <c r="D78" s="4">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="E78" s="5">
-        <v>0.04950935138646699</v>
+        <v>0.066675356840252886</v>
       </c>
     </row>
     <row r="79">
@@ -2287,16 +2296,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>38437</v>
+        <v>26010</v>
       </c>
       <c r="C79" s="4">
-        <v>38073</v>
+        <v>25913</v>
       </c>
       <c r="D79" s="4">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="E79" s="5">
-        <v>0.045749085018299634</v>
+        <v>0.060036166365280287</v>
       </c>
     </row>
     <row r="80">
@@ -2304,16 +2313,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>28557</v>
+        <v>31625</v>
       </c>
       <c r="C80" s="4">
-        <v>28183</v>
+        <v>31294</v>
       </c>
       <c r="D80" s="4">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E80" s="5">
-        <v>0.049112372713345946</v>
+        <v>0.053045931040289644</v>
       </c>
     </row>
     <row r="81">
@@ -2321,16 +2330,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>12649</v>
+        <v>36146</v>
       </c>
       <c r="C81" s="4">
-        <v>12334</v>
+        <v>35815</v>
       </c>
       <c r="D81" s="4">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E81" s="5">
-        <v>0.048606323254210576</v>
+        <v>0.049502581108338176</v>
       </c>
     </row>
     <row r="82">
@@ -2338,12 +2347,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+        <v>38437</v>
+      </c>
+      <c r="C82" s="4">
+        <v>38073</v>
+      </c>
+      <c r="D82" s="4">
+        <v>364</v>
+      </c>
       <c r="E82" s="5">
-        <v>0.053911658396128166</v>
+        <v>0.045725765344367487</v>
       </c>
     </row>
     <row r="83">
@@ -2351,12 +2364,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>24679</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+        <v>28553</v>
+      </c>
+      <c r="C83" s="4">
+        <v>28179</v>
+      </c>
+      <c r="D83" s="4">
+        <v>374</v>
+      </c>
       <c r="E83" s="5">
-        <v>0.052845013306298316</v>
+        <v>0.049100573590798523</v>
       </c>
     </row>
     <row r="84">
@@ -2364,12 +2381,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>27403</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C84" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D84" s="4">
+        <v>315</v>
+      </c>
       <c r="E84" s="5">
-        <v>0.05290811897473386</v>
+        <v>0.048523622047244093</v>
       </c>
     </row>
     <row r="85">
@@ -2377,12 +2398,12 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>34441</v>
+        <v>16001</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5">
-        <v>0.046140821221955695</v>
+        <v>0.053878650584705812</v>
       </c>
     </row>
     <row r="86">
@@ -2390,12 +2411,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>37607</v>
+        <v>24679</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.047250116379596994</v>
+        <v>0.05282158464753943</v>
       </c>
     </row>
     <row r="87">
@@ -2403,12 +2424,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>28506</v>
+        <v>27403</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.047504433747149737</v>
+        <v>0.052835698316375419</v>
       </c>
     </row>
     <row r="88">
@@ -2416,12 +2437,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>15629</v>
+        <v>34441</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.056757879193392091</v>
+        <v>0.046056338028169011</v>
       </c>
     </row>
     <row r="89">
@@ -2429,12 +2450,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>18342</v>
+        <v>37607</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.057000743239380251</v>
+        <v>0.047242262043286014</v>
       </c>
     </row>
     <row r="90">
@@ -2442,12 +2463,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>26203</v>
+        <v>28506</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.049473565040190196</v>
+        <v>0.047448834340303038</v>
       </c>
     </row>
     <row r="91">
@@ -2455,12 +2476,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>33367</v>
+        <v>15629</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.047519712962576663</v>
+        <v>0.056722882683623632</v>
       </c>
     </row>
     <row r="92">
@@ -2468,12 +2489,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>38681</v>
+        <v>18342</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.049748443162227776</v>
+        <v>0.056987710774507004</v>
       </c>
     </row>
     <row r="93">
@@ -2481,12 +2502,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>33872</v>
+        <v>26203</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.050153884806230765</v>
+        <v>0.049328366632802802</v>
       </c>
     </row>
     <row r="94">
@@ -2494,12 +2515,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>15536</v>
+        <v>33367</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.051594538095449893</v>
+        <v>0.04745437880176652</v>
       </c>
     </row>
     <row r="95">
@@ -2507,12 +2528,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>10621</v>
+        <v>38681</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.064168654304839576</v>
+        <v>0.049683766690091356</v>
       </c>
     </row>
     <row r="96">
@@ -2520,12 +2541,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>15250</v>
+        <v>33872</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.070439494280553877</v>
+        <v>0.05013805220883534</v>
       </c>
     </row>
     <row r="97">
@@ -2533,12 +2554,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>25209</v>
+        <v>15536</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.05917280917280917</v>
+        <v>0.05146536412078153</v>
       </c>
     </row>
     <row r="98">
@@ -2546,12 +2567,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>28779</v>
+        <v>10621</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.056522953720085672</v>
+        <v>0.063976679963178892</v>
       </c>
     </row>
     <row r="99">
@@ -2559,12 +2580,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>32622</v>
+        <v>15250</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.059733091376507508</v>
+        <v>0.070330613997423783</v>
       </c>
     </row>
     <row r="100">
@@ -2572,12 +2593,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>36879</v>
+        <v>25209</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.053313023610053314</v>
+        <v>0.059095860566448805</v>
       </c>
     </row>
     <row r="101">
@@ -2585,12 +2606,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>28887</v>
+        <v>28779</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.06320533993944398</v>
+        <v>0.056373345716275829</v>
       </c>
     </row>
     <row r="102">
@@ -2598,12 +2619,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>15065</v>
+        <v>32622</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.065466182133752784</v>
+        <v>0.059619880835658799</v>
       </c>
     </row>
     <row r="103">
@@ -2611,12 +2632,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>18622</v>
+        <v>36879</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.076157037982764117</v>
+        <v>0.053265400648448355</v>
       </c>
     </row>
     <row r="104">
@@ -2624,12 +2645,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>25044</v>
+        <v>28887</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.065749061540211581</v>
+        <v>0.063118471687740513</v>
       </c>
     </row>
     <row r="105">
@@ -2637,12 +2658,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>30979</v>
+        <v>15065</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.076791584483892172</v>
+        <v>0.064983310003230321</v>
       </c>
     </row>
     <row r="106">
@@ -2650,12 +2671,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>34871</v>
+        <v>18622</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.059690700943964649</v>
+        <v>0.075943726526195174</v>
       </c>
     </row>
     <row r="107">
@@ -2663,12 +2684,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>35721</v>
+        <v>25044</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.062618471795542197</v>
+        <v>0.065399411631590854</v>
       </c>
     </row>
     <row r="108">
@@ -2676,12 +2697,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>31132</v>
+        <v>30979</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.070898682293960236</v>
+        <v>0.076653832691634588</v>
       </c>
     </row>
     <row r="109">
@@ -2689,12 +2710,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>14920</v>
+        <v>34871</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.065317582242941138</v>
+        <v>0.059528101590353724</v>
       </c>
     </row>
     <row r="110">
@@ -2702,12 +2723,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>13120</v>
+        <v>35721</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.080145965671036629</v>
+        <v>0.062432793509074914</v>
       </c>
     </row>
     <row r="111">
@@ -2715,12 +2736,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>24169</v>
+        <v>31132</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.072689573459715634</v>
+        <v>0.070419218087611868</v>
       </c>
     </row>
     <row r="112">
@@ -2728,12 +2749,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>24904</v>
+        <v>14920</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.063928453130175561</v>
+        <v>0.065196700507614211</v>
       </c>
     </row>
     <row r="113">
@@ -2741,12 +2762,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>25761</v>
+        <v>13120</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.063462839107236796</v>
+        <v>0.079859942091441649</v>
       </c>
     </row>
     <row r="114">
@@ -2754,12 +2775,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>26022</v>
+        <v>24169</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.068894421535828212</v>
+        <v>0.072547744338674391</v>
       </c>
     </row>
     <row r="115">
@@ -2767,12 +2788,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>25739</v>
+        <v>24904</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.075831433288780559</v>
+        <v>0.063654353562005273</v>
       </c>
     </row>
     <row r="116">
@@ -2780,12 +2801,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>10893</v>
+        <v>25761</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.065069656812776072</v>
+        <v>0.063291613580154393</v>
       </c>
     </row>
     <row r="117">
@@ -2793,12 +2814,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>13862</v>
+        <v>26022</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.068947525342874183</v>
+        <v>0.068668528864059594</v>
       </c>
     </row>
     <row r="118">
@@ -2806,12 +2827,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>23021</v>
+        <v>25739</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.063104811230748264</v>
+        <v>0.07579269969745786</v>
       </c>
     </row>
     <row r="119">
@@ -2819,12 +2840,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>25652</v>
+        <v>10893</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.06350035620992639</v>
+        <v>0.064977662161397956</v>
       </c>
     </row>
     <row r="120">
@@ -2832,12 +2853,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>22856</v>
+        <v>13862</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.063674601754071955</v>
+        <v>0.068824404761904767</v>
       </c>
     </row>
     <row r="121">
@@ -2845,12 +2866,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>30068</v>
+        <v>23021</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.059313171874346426</v>
+        <v>0.063104811230748264</v>
       </c>
     </row>
     <row r="122">
@@ -2858,12 +2879,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>26715</v>
+        <v>25652</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.064188592618753315</v>
+        <v>0.063355920959105347</v>
       </c>
     </row>
     <row r="123">
@@ -2871,12 +2892,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>15704</v>
+        <v>22856</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.061996497373029771</v>
+        <v>0.063419199572154375</v>
       </c>
     </row>
     <row r="124">
@@ -2884,12 +2905,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>17137</v>
+        <v>30068</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.063863834739598488</v>
+        <v>0.059120283510527415</v>
       </c>
     </row>
     <row r="125">
@@ -2897,12 +2918,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>19182</v>
+        <v>26715</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.052247154043561228</v>
+        <v>0.064045488605809497</v>
       </c>
     </row>
     <row r="126">
@@ -2910,12 +2931,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>21031</v>
+        <v>15704</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.059268426842684269</v>
+        <v>0.061780774148552833</v>
       </c>
     </row>
     <row r="127">
@@ -2923,12 +2944,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>21840</v>
+        <v>17137</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.067902094654219494</v>
+        <v>0.063489767879094661</v>
       </c>
     </row>
     <row r="128">
@@ -2936,12 +2957,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>23469</v>
+        <v>19182</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.070763417157766878</v>
+        <v>0.052068988130369205</v>
       </c>
     </row>
     <row r="129">
@@ -2949,12 +2970,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>19558</v>
+        <v>21031</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.075462702093537337</v>
+        <v>0.05914101449938252</v>
       </c>
     </row>
     <row r="130">
@@ -2962,12 +2983,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>11613</v>
+        <v>21840</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.076401725200246462</v>
+        <v>0.067744775496964921</v>
       </c>
     </row>
     <row r="131">
@@ -2975,12 +2996,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>19740</v>
+        <v>23469</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.067614315365746275</v>
+        <v>0.070782929351980939</v>
       </c>
     </row>
     <row r="132">
@@ -2988,12 +3009,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23480</v>
+        <v>19558</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.072913868142496369</v>
+        <v>0.075475787922139853</v>
       </c>
     </row>
     <row r="133">
@@ -3001,12 +3022,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23091</v>
+        <v>11613</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.068560718161191678</v>
+        <v>0.076375581713660004</v>
       </c>
     </row>
     <row r="134">
@@ -3014,12 +3035,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>23947</v>
+        <v>19740</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.066513667472644561</v>
+        <v>0.067588808550770194</v>
       </c>
     </row>
     <row r="135">
@@ -3027,12 +3048,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>25438</v>
+        <v>23480</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.072317098882563782</v>
+        <v>0.072941302945603095</v>
       </c>
     </row>
     <row r="136">
@@ -3040,12 +3061,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>25175</v>
+        <v>23091</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.074903969270166459</v>
+        <v>0.068564100034528688</v>
       </c>
     </row>
     <row r="137">
@@ -3053,12 +3074,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>20426</v>
+        <v>23947</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.069387107018100982</v>
+        <v>0.066516393442622945</v>
       </c>
     </row>
     <row r="138">
@@ -3066,12 +3087,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>18738</v>
+        <v>25438</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.071824789594491206</v>
+        <v>0.072359816041517241</v>
       </c>
     </row>
     <row r="139">
@@ -3079,12 +3100,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>25642</v>
+        <v>25175</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.076790830945558733</v>
+        <v>0.074938618652812872</v>
       </c>
     </row>
     <row r="140">
@@ -3092,12 +3113,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23879</v>
+        <v>20426</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.078367875647668395</v>
+        <v>0.069390779653840051</v>
       </c>
     </row>
     <row r="141">
@@ -3105,12 +3126,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>22113</v>
+        <v>18738</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.074757281553398058</v>
+        <v>0.071807620595687724</v>
       </c>
     </row>
     <row r="142">
@@ -3118,12 +3139,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>26648</v>
+        <v>25642</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.084719733811108269</v>
+        <v>0.07678349727819693</v>
       </c>
     </row>
     <row r="143">
@@ -3131,12 +3152,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>25652</v>
+        <v>23879</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.078041144901610016</v>
+        <v>0.078407775977782923</v>
       </c>
     </row>
     <row r="144">
@@ -3144,12 +3165,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>19982</v>
+        <v>22113</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.076089875570674065</v>
+        <v>0.074785693171741052</v>
       </c>
     </row>
     <row r="145">
@@ -3157,12 +3178,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>21111</v>
+        <v>26648</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.080867469879518067</v>
+        <v>0.084748655799266021</v>
       </c>
     </row>
     <row r="146">
@@ -3170,12 +3191,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>24440</v>
+        <v>25652</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.069404014095296465</v>
+        <v>0.078055690162895597</v>
       </c>
     </row>
     <row r="147">
@@ -3183,12 +3204,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>25799</v>
+        <v>19982</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.080779695793746373</v>
+        <v>0.076076255258211767</v>
       </c>
     </row>
     <row r="148">
@@ -3196,12 +3217,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>28220</v>
+        <v>21111</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.084360954246859507</v>
+        <v>0.080879163252518441</v>
       </c>
     </row>
     <row r="149">
@@ -3209,12 +3230,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>22271</v>
+        <v>24440</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.073178391959799</v>
+        <v>0.069407558733401431</v>
       </c>
     </row>
     <row r="150">
@@ -3222,12 +3243,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>23132</v>
+        <v>25799</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.087278598224037232</v>
+        <v>0.080801320662115733</v>
       </c>
     </row>
     <row r="151">
@@ -3235,12 +3256,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>23193</v>
+        <v>28220</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.078329224615098378</v>
+        <v>0.084390131427253864</v>
       </c>
     </row>
     <row r="152">
@@ -3248,12 +3269,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>18874</v>
+        <v>22271</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.096197220036716491</v>
+        <v>0.073204257157444136</v>
       </c>
     </row>
     <row r="153">
@@ -3261,12 +3282,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>27022</v>
+        <v>23132</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.092360539939039143</v>
+        <v>0.087324211326491832</v>
       </c>
     </row>
     <row r="154">
@@ -3274,12 +3295,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>24483</v>
+        <v>23193</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.091338863616091337</v>
+        <v>0.078354736646193926</v>
       </c>
     </row>
     <row r="155">
@@ -3287,12 +3308,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>22280</v>
+        <v>18874</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.095783160111716503</v>
+        <v>0.096202266051195973</v>
       </c>
     </row>
     <row r="156">
@@ -3300,12 +3321,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>23660</v>
+        <v>27022</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.093575918638524047</v>
+        <v>0.09234266918202487</v>
       </c>
     </row>
     <row r="157">
@@ -3313,12 +3334,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>18338</v>
+        <v>24483</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.08537473818413624</v>
+        <v>0.091387773315484158</v>
       </c>
     </row>
     <row r="158">
@@ -3326,12 +3347,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>14821</v>
+        <v>22280</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.088559742191373331</v>
+        <v>0.095791931865012128</v>
       </c>
     </row>
     <row r="159">
@@ -3339,12 +3360,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>17129</v>
+        <v>23660</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.092124308216262232</v>
+        <v>0.093585484283158701</v>
       </c>
     </row>
     <row r="160">
@@ -3352,12 +3373,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>18885</v>
+        <v>18338</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.084269662921348312</v>
+        <v>0.085409738987837658</v>
       </c>
     </row>
     <row r="161">
@@ -3365,12 +3386,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>16908</v>
+        <v>14821</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.089220662884443122</v>
+        <v>0.088598177196354391</v>
       </c>
     </row>
     <row r="162">
@@ -3378,12 +3399,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>20409</v>
+        <v>17129</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.09163169273814066</v>
+        <v>0.092124308216262232</v>
       </c>
     </row>
     <row r="163">
@@ -3391,12 +3412,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>21474</v>
+        <v>18885</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.10458991723100075</v>
+        <v>0.084269662921348312</v>
       </c>
     </row>
     <row r="164">
@@ -3404,12 +3425,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>21911</v>
+        <v>16908</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.083261704200332354</v>
+        <v>0.089296380360769326</v>
       </c>
     </row>
     <row r="165">
@@ -3417,12 +3438,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>18461</v>
+        <v>20409</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.095684902459711618</v>
+        <v>0.091678330576409214</v>
       </c>
     </row>
     <row r="166">
@@ -3430,12 +3451,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>16374</v>
+        <v>21474</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.087808291061745675</v>
+        <v>0.1046236559139785</v>
       </c>
     </row>
     <row r="167">
@@ -3443,12 +3464,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>17548</v>
+        <v>21911</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.081918604651162796</v>
+        <v>0.083280793259586178</v>
       </c>
     </row>
     <row r="168">
@@ -3456,12 +3477,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>20411</v>
+        <v>18461</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.094752102058567697</v>
+        <v>0.095684902459711618</v>
       </c>
     </row>
     <row r="169">
@@ -3469,12 +3490,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>19149</v>
+        <v>16374</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.09898344467034563</v>
+        <v>0.087854392719635979</v>
       </c>
     </row>
     <row r="170">
@@ -3482,12 +3503,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>21238</v>
+        <v>17548</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.096639767164968915</v>
+        <v>0.081923367637653358</v>
       </c>
     </row>
     <row r="171">
@@ -3495,12 +3516,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>18527</v>
+        <v>20411</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.077391755250194455</v>
+        <v>0.094768588330820094</v>
       </c>
     </row>
     <row r="172">
@@ -3508,12 +3529,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>15713</v>
+        <v>19149</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.082445233866193013</v>
+        <v>0.09898344467034563</v>
       </c>
     </row>
     <row r="173">
@@ -3521,12 +3542,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>11253</v>
+        <v>21238</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.090391459074733102</v>
+        <v>0.096658948064836256</v>
       </c>
     </row>
     <row r="174">
@@ -3534,12 +3555,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>18129</v>
+        <v>18527</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.084100165937547142</v>
+        <v>0.077366681785783709</v>
       </c>
     </row>
     <row r="175">
@@ -3547,12 +3568,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>15400</v>
+        <v>15713</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.094214029697900672</v>
+        <v>0.08248796741947427</v>
       </c>
     </row>
     <row r="176">
@@ -3560,12 +3581,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>24377</v>
+        <v>11253</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.095622366635720921</v>
+        <v>0.09048861480075901</v>
       </c>
     </row>
     <row r="177">
@@ -3573,12 +3594,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>21412</v>
+        <v>18129</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.085683811329698975</v>
+        <v>0.084100165937547142</v>
       </c>
     </row>
     <row r="178">
@@ -3586,12 +3607,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>17071</v>
+        <v>15400</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.082686127477236207</v>
+        <v>0.094234708808896686</v>
       </c>
     </row>
     <row r="179">
@@ -3599,12 +3620,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>13726</v>
+        <v>24377</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.0804867634500427</v>
+        <v>0.095663356433521474</v>
       </c>
     </row>
     <row r="180">
@@ -3612,12 +3633,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>12694</v>
+        <v>21412</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.090597313518148037</v>
+        <v>0.085688888888888884</v>
       </c>
     </row>
     <row r="181">
@@ -3625,12 +3646,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>13541</v>
+        <v>17071</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.082549250220523382</v>
+        <v>0.082691663876799465</v>
       </c>
     </row>
     <row r="182">
@@ -3638,12 +3659,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>16049</v>
+        <v>13726</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.091550309486109108</v>
+        <v>0.080555555555555561</v>
       </c>
     </row>
     <row r="183">
@@ -3651,12 +3672,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>22126</v>
+        <v>12694</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.092670011148272016</v>
+        <v>0.090610261540660278</v>
       </c>
     </row>
     <row r="184">
@@ -3664,12 +3685,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>19471</v>
+        <v>13541</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.098428343100692595</v>
+        <v>0.082585674363877037</v>
       </c>
     </row>
     <row r="185">
@@ -3677,12 +3698,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>15356</v>
+        <v>16049</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.084560989982321741</v>
+        <v>0.091563489778289667</v>
       </c>
     </row>
     <row r="186">
@@ -3690,12 +3711,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>15719</v>
+        <v>22126</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.076295101793993153</v>
+        <v>0.092689386019931708</v>
       </c>
     </row>
     <row r="187">
@@ -3703,12 +3724,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>9326</v>
+        <v>19471</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.086805029540978643</v>
+        <v>0.098395579522002535</v>
       </c>
     </row>
     <row r="188">
@@ -3716,12 +3737,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>12929</v>
+        <v>15356</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.090063143901628451</v>
+        <v>0.084573449241196405</v>
       </c>
     </row>
     <row r="189">
@@ -3729,12 +3750,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>15790</v>
+        <v>15719</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.093396531293762797</v>
+        <v>0.076310483870967741</v>
       </c>
     </row>
     <row r="190">
@@ -3742,12 +3763,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>12921</v>
+        <v>9326</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.097709080872205353</v>
+        <v>0.086778736937755563</v>
       </c>
     </row>
     <row r="191">
@@ -3755,12 +3776,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>18746</v>
+        <v>12929</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.086249383932971907</v>
+        <v>0.090048180760923746</v>
       </c>
     </row>
     <row r="192">
@@ -3768,12 +3789,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>12966</v>
+        <v>15790</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.089415749364944966</v>
+        <v>0.093386471348556654</v>
       </c>
     </row>
     <row r="193">
@@ -3781,12 +3802,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>12313</v>
+        <v>12921</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.077958740499457113</v>
+        <v>0.097709080872205353</v>
       </c>
     </row>
     <row r="194">
@@ -3794,12 +3815,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>4552</v>
+        <v>18746</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.078296703296703296</v>
+        <v>0.086213974874784466</v>
       </c>
     </row>
     <row r="195">
@@ -3807,12 +3828,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>13931</v>
+        <v>12966</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.080937732046250127</v>
+        <v>0.089346205962059624</v>
       </c>
     </row>
     <row r="196">
@@ -3820,12 +3841,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>11978</v>
+        <v>12313</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.081765276430649861</v>
+        <v>0.077950276842905217</v>
       </c>
     </row>
     <row r="197">
@@ -3833,12 +3854,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>16706</v>
+        <v>4552</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.099014238773274921</v>
+        <v>0.07828326180257511</v>
       </c>
     </row>
     <row r="198">
@@ -3846,12 +3867,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>10116</v>
+        <v>13931</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.090016366612111293</v>
+        <v>0.080920564216778026</v>
       </c>
     </row>
     <row r="199">
@@ -3859,12 +3880,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>11573</v>
+        <v>11978</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.076517547823467383</v>
+        <v>0.081757346523130631</v>
       </c>
     </row>
     <row r="200">
@@ -3872,12 +3893,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>3571</v>
+        <v>16706</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.070569366479550921</v>
+        <v>0.099035933391761616</v>
       </c>
     </row>
     <row r="201">
@@ -3885,12 +3906,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>7748</v>
+        <v>10116</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.07636914913776767</v>
+        <v>0.090008182562051092</v>
       </c>
     </row>
     <row r="202">
@@ -3898,12 +3919,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>7154</v>
+        <v>11573</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.081847890671420079</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="203">
@@ -3911,12 +3932,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>9046</v>
+        <v>3571</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.070569366479550921</v>
       </c>
     </row>
     <row r="204">
@@ -3924,12 +3945,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>11829</v>
+        <v>7748</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.097267759562841533</v>
+        <v>0.076398104265402847</v>
       </c>
     </row>
     <row r="205">
@@ -3937,12 +3958,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>10185</v>
+        <v>7154</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.082903509875456027</v>
+        <v>0.08181143281365999</v>
       </c>
     </row>
     <row r="206">
@@ -3950,12 +3971,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>12313</v>
+        <v>9046</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.073151217281975087</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="207">
@@ -3963,12 +3984,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>8647</v>
+        <v>11829</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.063099630996309969</v>
+        <v>0.097267759562841533</v>
       </c>
     </row>
     <row r="208">
@@ -3976,12 +3997,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>8397</v>
+        <v>10185</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.055836575875486384</v>
+        <v>0.082893081761006293</v>
       </c>
     </row>
     <row r="209">
@@ -3989,12 +4010,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>9508</v>
+        <v>12313</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.061026352288488211</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="210">
@@ -4002,12 +4023,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>10708</v>
+        <v>8647</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.070815074496056091</v>
+        <v>0.062949972309396349</v>
       </c>
     </row>
     <row r="211">
@@ -4015,12 +4036,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>13923</v>
+        <v>8397</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.068536371603856269</v>
+        <v>0.055825714841470531</v>
       </c>
     </row>
     <row r="212">
@@ -4028,12 +4049,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>9317</v>
+        <v>9508</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.067164179104477612</v>
+        <v>0.061035758323057951</v>
       </c>
     </row>
     <row r="213">
@@ -4041,12 +4062,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>7919</v>
+        <v>10708</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.071903911702645679</v>
+        <v>0.070827489481065917</v>
       </c>
     </row>
     <row r="214">
@@ -4054,12 +4075,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>6686</v>
+        <v>13923</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.068512353250394259</v>
       </c>
     </row>
     <row r="215">
@@ -4067,12 +4088,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>2741</v>
+        <v>9317</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.041328413284132844</v>
+        <v>0.067188638018936639</v>
       </c>
     </row>
     <row r="216">
@@ -4080,12 +4101,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>5318</v>
+        <v>7919</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.06470165348670022</v>
+        <v>0.071903911702645679</v>
       </c>
     </row>
     <row r="217">
@@ -4093,12 +4114,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>7457</v>
+        <v>6686</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.08256664307619721</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="218">
@@ -4106,12 +4127,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>7917</v>
+        <v>2741</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.07277499403483656</v>
+        <v>0.041328413284132844</v>
       </c>
     </row>
     <row r="219">
@@ -4119,12 +4140,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>6871</v>
+        <v>5318</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.083241333627732395</v>
+        <v>0.064670658682634732</v>
       </c>
     </row>
     <row r="220">
@@ -4132,12 +4153,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>9330</v>
+        <v>7457</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.080625329351835584</v>
+        <v>0.082586125530910812</v>
       </c>
     </row>
     <row r="221">
@@ -4145,12 +4166,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5972</v>
+        <v>7917</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.071190951430472382</v>
+        <v>0.072792362768496419</v>
       </c>
     </row>
     <row r="222">
@@ -4158,12 +4179,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2701</v>
+        <v>6871</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.065044949762030665</v>
+        <v>0.08327810912303954</v>
       </c>
     </row>
     <row r="223">
@@ -4171,12 +4192,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5202</v>
+        <v>9330</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.063391968138068369</v>
+        <v>0.080667838312829532</v>
       </c>
     </row>
     <row r="224">
@@ -4184,12 +4205,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>5961</v>
+        <v>5972</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.077634961439588687</v>
+        <v>0.07123834886817576</v>
       </c>
     </row>
     <row r="225">
@@ -4197,12 +4218,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>5490</v>
+        <v>2701</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.065044949762030665</v>
       </c>
     </row>
     <row r="226">
@@ -4210,12 +4231,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>6598</v>
+        <v>5202</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.073752103196859223</v>
+        <v>0.063413014608233731</v>
       </c>
     </row>
     <row r="227">
@@ -4223,12 +4244,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>5318</v>
+        <v>5961</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.077654924145024423</v>
       </c>
     </row>
     <row r="228">
@@ -4236,12 +4257,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>3751</v>
+        <v>5490</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.070099757346993793</v>
       </c>
     </row>
     <row r="229">
@@ -4249,12 +4270,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2134</v>
+        <v>6598</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.11087420042643924</v>
+        <v>0.073772791023842918</v>
       </c>
     </row>
     <row r="230">
@@ -4262,12 +4283,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>2985</v>
+        <v>5318</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.12945590994371481</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="231">
@@ -4275,12 +4296,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5298</v>
+        <v>3751</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.087904599659284502</v>
+        <v>0.080078125</v>
       </c>
     </row>
     <row r="232">
@@ -4288,12 +4309,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>4788</v>
+        <v>2134</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.10682783404116301</v>
+        <v>0.11092150170648464</v>
       </c>
     </row>
     <row r="233">
@@ -4301,12 +4322,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>6406</v>
+        <v>2985</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.12960180315552217</v>
       </c>
     </row>
     <row r="234">
@@ -4314,12 +4335,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>7796</v>
+        <v>5298</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.10555923229649239</v>
+        <v>0.087964541425161955</v>
       </c>
     </row>
     <row r="235">
@@ -4327,12 +4348,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>4520</v>
+        <v>4788</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.10854893138357705</v>
+        <v>0.10686274509803921</v>
       </c>
     </row>
     <row r="236">
@@ -4340,12 +4361,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>773</v>
+        <v>6406</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.089805825242718448</v>
+        <v>0.11600279524807827</v>
       </c>
     </row>
     <row r="237">
@@ -4353,12 +4374,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2592</v>
+        <v>7796</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.12871287128712872</v>
+        <v>0.10559417411453161</v>
       </c>
     </row>
     <row r="238">
@@ -4366,12 +4387,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3600</v>
+        <v>4520</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.10861001688238604</v>
       </c>
     </row>
     <row r="239">
@@ -4379,12 +4400,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2472</v>
+        <v>773</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.11844484629294756</v>
+        <v>0.089878542510121451</v>
       </c>
     </row>
     <row r="240">
@@ -4392,12 +4413,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>3576</v>
+        <v>2592</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.15947888589398024</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="241">
@@ -4405,12 +4426,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>3215</v>
+        <v>3600</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.12748789671866595</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="242">
@@ -4418,12 +4439,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>1968</v>
+        <v>2472</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="243">
@@ -4431,12 +4452,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>1298</v>
+        <v>3576</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.11217183770883055</v>
+        <v>0.15947888589398024</v>
       </c>
     </row>
     <row r="244">
@@ -4444,12 +4465,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>7999</v>
+        <v>3215</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.12762520193861066</v>
       </c>
     </row>
     <row r="245">
@@ -4457,12 +4478,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2875</v>
+        <v>1968</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.11268228015908087</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="246">
@@ -4470,12 +4491,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>10211</v>
+        <v>1298</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.084262701363073109</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="247">
@@ -4483,12 +4504,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>5262</v>
+        <v>7999</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.091537132987910191</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="248">
@@ -4496,12 +4517,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2431</v>
+        <v>2875</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="249">
@@ -4509,12 +4530,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>913</v>
+        <v>10211</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.12011863568956994</v>
+        <v>0.084332368747416286</v>
       </c>
     </row>
     <row r="250">
@@ -4522,12 +4543,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>852</v>
+        <v>5262</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.09157667386609071</v>
       </c>
     </row>
     <row r="251">
@@ -4535,12 +4556,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="252">
@@ -4548,12 +4569,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>7629</v>
+        <v>913</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.084689349112426038</v>
+        <v>0.12017804154302671</v>
       </c>
     </row>
     <row r="253">
@@ -4561,12 +4582,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>3404</v>
+        <v>852</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.080766598220396987</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="254">
@@ -4574,12 +4595,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2883</v>
+        <v>1343</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.068189566996249576</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="255">
@@ -4587,12 +4608,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>3435</v>
+        <v>7629</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.074667575860893287</v>
+        <v>0.084720680725120234</v>
       </c>
     </row>
     <row r="256">
@@ -4600,40 +4621,46 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>2787</v>
+        <v>3404</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="5"/>
+      <c r="E256" s="5">
+        <v>0.080794248545018835</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2082</v>
+        <v>2883</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="5"/>
+      <c r="E257" s="5">
+        <v>0.068212824010914053</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>1638</v>
+        <v>3435</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="5"/>
+      <c r="E258" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2910</v>
+        <v>2787</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -4644,7 +4671,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2667</v>
+        <v>2082</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4655,7 +4682,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2793</v>
+        <v>1638</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4666,7 +4693,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2446</v>
+        <v>2910</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4677,7 +4704,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>529</v>
+        <v>2667</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4688,7 +4715,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2163</v>
+        <v>2793</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4699,7 +4726,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>1389</v>
+        <v>2446</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4710,7 +4737,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>2192</v>
+        <v>529</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4721,7 +4748,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>943</v>
+        <v>2163</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4732,7 +4759,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>1696</v>
+        <v>1389</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4743,7 +4770,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>205</v>
+        <v>2192</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4754,7 +4781,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>295</v>
+        <v>943</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4765,7 +4792,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>936</v>
+        <v>1696</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4775,7 +4802,9 @@
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B272" s="4"/>
+      <c r="B272" s="4">
+        <v>205</v>
+      </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="5"/>
@@ -4784,7 +4813,9 @@
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B273" s="4"/>
+      <c r="B273" s="4">
+        <v>295</v>
+      </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="5"/>
@@ -4793,7 +4824,9 @@
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B274" s="4"/>
+      <c r="B274" s="4">
+        <v>936</v>
+      </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="5"/>
@@ -4897,6 +4930,33 @@
       <c r="D285" s="4"/>
       <c r="E285" s="5"/>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="5"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+  <si>
+    <t>12/14/2020</t>
+  </si>
   <si>
     <t>12/13/2020</t>
   </si>
@@ -972,24 +975,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E289"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -1006,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>41076</v>
+        <v>33546</v>
       </c>
       <c r="C3" s="4">
-        <v>38355</v>
+        <v>32391</v>
       </c>
       <c r="D3" s="4">
-        <v>2721</v>
+        <v>1155</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1021,16 +1024,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>64166</v>
+        <v>52519</v>
       </c>
       <c r="C4" s="4">
-        <v>58523</v>
+        <v>49599</v>
       </c>
       <c r="D4" s="4">
-        <v>5643</v>
+        <v>2920</v>
       </c>
       <c r="E4" s="5">
-        <v>0.11617312072892938</v>
+        <v>0.11583589469464119</v>
       </c>
     </row>
     <row r="5">
@@ -1038,16 +1041,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>67563</v>
+        <v>64240</v>
       </c>
       <c r="C5" s="4">
-        <v>62055</v>
+        <v>58618</v>
       </c>
       <c r="D5" s="4">
-        <v>5508</v>
+        <v>5622</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10288228326470754</v>
+        <v>0.10858496847217326</v>
       </c>
     </row>
     <row r="6">
@@ -1055,16 +1058,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>56591</v>
+        <v>67749</v>
       </c>
       <c r="C6" s="4">
-        <v>50877</v>
+        <v>62248</v>
       </c>
       <c r="D6" s="4">
-        <v>5714</v>
+        <v>5501</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10143366205353443</v>
+        <v>0.10385055423223362</v>
       </c>
     </row>
     <row r="7">
@@ -1072,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>47805</v>
+        <v>56814</v>
       </c>
       <c r="C7" s="4">
-        <v>39467</v>
+        <v>51101</v>
       </c>
       <c r="D7" s="4">
-        <v>8338</v>
+        <v>5713</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10776675853388598</v>
+        <v>0.10152914308410287</v>
       </c>
     </row>
     <row r="8">
@@ -1089,16 +1092,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>39509</v>
+        <v>47839</v>
       </c>
       <c r="C8" s="4">
-        <v>37872</v>
+        <v>39501</v>
       </c>
       <c r="D8" s="4">
-        <v>1637</v>
+        <v>8338</v>
       </c>
       <c r="E8" s="5">
-        <v>0.12228691009577979</v>
+        <v>0.10761001386001386</v>
       </c>
     </row>
     <row r="9">
@@ -1106,16 +1109,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>50347</v>
+        <v>39508</v>
       </c>
       <c r="C9" s="4">
-        <v>48794</v>
+        <v>37871</v>
       </c>
       <c r="D9" s="4">
-        <v>1553</v>
+        <v>1637</v>
       </c>
       <c r="E9" s="5">
-        <v>0.097948954017697307</v>
+        <v>0.12230138747522366</v>
       </c>
     </row>
     <row r="10">
@@ -1123,16 +1126,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>54655</v>
+        <v>50364</v>
       </c>
       <c r="C10" s="4">
-        <v>50330</v>
+        <v>48811</v>
       </c>
       <c r="D10" s="4">
-        <v>4325</v>
+        <v>1553</v>
       </c>
       <c r="E10" s="5">
-        <v>0.10685021304490332</v>
+        <v>0.097893337423940283</v>
       </c>
     </row>
     <row r="11">
@@ -1140,16 +1143,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>61545</v>
+        <v>54655</v>
       </c>
       <c r="C11" s="4">
-        <v>55671</v>
+        <v>50330</v>
       </c>
       <c r="D11" s="4">
-        <v>5874</v>
+        <v>4325</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10310665100886089</v>
+        <v>0.10688539362660768</v>
       </c>
     </row>
     <row r="12">
@@ -1157,16 +1160,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>59453</v>
+        <v>61545</v>
       </c>
       <c r="C12" s="4">
-        <v>52221</v>
+        <v>55671</v>
       </c>
       <c r="D12" s="4">
-        <v>7232</v>
+        <v>5874</v>
       </c>
       <c r="E12" s="5">
-        <v>0.10004206815040366</v>
+        <v>0.10309784581225047</v>
       </c>
     </row>
     <row r="13">
@@ -1174,16 +1177,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>51717</v>
+        <v>59453</v>
       </c>
       <c r="C13" s="4">
-        <v>46389</v>
+        <v>52221</v>
       </c>
       <c r="D13" s="4">
-        <v>5328</v>
+        <v>7232</v>
       </c>
       <c r="E13" s="5">
-        <v>0.10077344439201526</v>
+        <v>0.1000440546277384</v>
       </c>
     </row>
     <row r="14">
@@ -1191,16 +1194,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>32146</v>
+        <v>51717</v>
       </c>
       <c r="C14" s="4">
-        <v>25525</v>
+        <v>46389</v>
       </c>
       <c r="D14" s="4">
-        <v>6621</v>
+        <v>5328</v>
       </c>
       <c r="E14" s="5">
-        <v>0.1021619775658707</v>
+        <v>0.10079189233546693</v>
       </c>
     </row>
     <row r="15">
@@ -1208,16 +1211,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>24303</v>
+        <v>32146</v>
       </c>
       <c r="C15" s="4">
-        <v>22754</v>
+        <v>25525</v>
       </c>
       <c r="D15" s="4">
-        <v>1549</v>
+        <v>6621</v>
       </c>
       <c r="E15" s="5">
-        <v>0.11406998457416578</v>
+        <v>0.10209121479613283</v>
       </c>
     </row>
     <row r="16">
@@ -1225,16 +1228,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>35045</v>
+        <v>24303</v>
       </c>
       <c r="C16" s="4">
-        <v>33439</v>
+        <v>22754</v>
       </c>
       <c r="D16" s="4">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="E16" s="5">
-        <v>0.099768402888152224</v>
+        <v>0.11406072414352979</v>
       </c>
     </row>
     <row r="17">
@@ -1242,16 +1245,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>41469</v>
+        <v>35045</v>
       </c>
       <c r="C17" s="4">
-        <v>39054</v>
+        <v>33439</v>
       </c>
       <c r="D17" s="4">
-        <v>2415</v>
+        <v>1606</v>
       </c>
       <c r="E17" s="5">
-        <v>0.091303951644746834</v>
+        <v>0.099782095514799343</v>
       </c>
     </row>
     <row r="18">
@@ -1259,16 +1262,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>41455</v>
+        <v>41469</v>
       </c>
       <c r="C18" s="4">
-        <v>40419</v>
+        <v>39054</v>
       </c>
       <c r="D18" s="4">
-        <v>1036</v>
+        <v>2415</v>
       </c>
       <c r="E18" s="5">
-        <v>0.086377994576915557</v>
+        <v>0.091306724986331328</v>
       </c>
     </row>
     <row r="19">
@@ -1276,16 +1279,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>66670</v>
+        <v>41453</v>
       </c>
       <c r="C19" s="4">
-        <v>60892</v>
+        <v>40417</v>
       </c>
       <c r="D19" s="4">
-        <v>5778</v>
+        <v>1036</v>
       </c>
       <c r="E19" s="5">
-        <v>0.076501863128237757</v>
+        <v>0.086363509321110143</v>
       </c>
     </row>
     <row r="20">
@@ -1293,16 +1296,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>50644</v>
+        <v>66667</v>
       </c>
       <c r="C20" s="4">
-        <v>44421</v>
+        <v>60890</v>
       </c>
       <c r="D20" s="4">
-        <v>6223</v>
+        <v>5777</v>
       </c>
       <c r="E20" s="5">
-        <v>0.069557593248821825</v>
+        <v>0.076503601372384183</v>
       </c>
     </row>
     <row r="21">
@@ -1310,16 +1313,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>52148</v>
+        <v>50646</v>
       </c>
       <c r="C21" s="4">
-        <v>45487</v>
+        <v>44423</v>
       </c>
       <c r="D21" s="4">
-        <v>6661</v>
+        <v>6223</v>
       </c>
       <c r="E21" s="5">
-        <v>0.07876147579315268</v>
+        <v>0.069527410898595196</v>
       </c>
     </row>
     <row r="22">
@@ -1327,16 +1330,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>41512</v>
+        <v>52158</v>
       </c>
       <c r="C22" s="4">
-        <v>39938</v>
+        <v>45497</v>
       </c>
       <c r="D22" s="4">
-        <v>1574</v>
+        <v>6661</v>
       </c>
       <c r="E22" s="5">
-        <v>0.071983908149889253</v>
+        <v>0.078745970421044864</v>
       </c>
     </row>
     <row r="23">
@@ -1344,16 +1347,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>42302</v>
+        <v>41522</v>
       </c>
       <c r="C23" s="4">
-        <v>40845</v>
+        <v>39948</v>
       </c>
       <c r="D23" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E23" s="5">
-        <v>0.065628347277306542</v>
+        <v>0.07199349211370723</v>
       </c>
     </row>
     <row r="24">
@@ -1361,16 +1364,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>53422</v>
+        <v>42305</v>
       </c>
       <c r="C24" s="4">
-        <v>49286</v>
+        <v>40848</v>
       </c>
       <c r="D24" s="4">
-        <v>4136</v>
+        <v>1457</v>
       </c>
       <c r="E24" s="5">
-        <v>0.0684830826574271</v>
+        <v>0.065628347277306542</v>
       </c>
     </row>
     <row r="25">
@@ -1378,16 +1381,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>58331</v>
+        <v>53424</v>
       </c>
       <c r="C25" s="4">
-        <v>53122</v>
+        <v>49288</v>
       </c>
       <c r="D25" s="4">
-        <v>5209</v>
+        <v>4136</v>
       </c>
       <c r="E25" s="5">
-        <v>0.069043662184620033</v>
+        <v>0.068481285106829756</v>
       </c>
     </row>
     <row r="26">
@@ -1395,16 +1398,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>53846</v>
+        <v>58331</v>
       </c>
       <c r="C26" s="4">
-        <v>49837</v>
+        <v>53122</v>
       </c>
       <c r="D26" s="4">
-        <v>4009</v>
+        <v>5209</v>
       </c>
       <c r="E26" s="5">
-        <v>0.07286983795086252</v>
+        <v>0.069045152378485714</v>
       </c>
     </row>
     <row r="27">
@@ -1412,16 +1415,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>50326</v>
+        <v>53846</v>
       </c>
       <c r="C27" s="4">
-        <v>45782</v>
+        <v>49837</v>
       </c>
       <c r="D27" s="4">
-        <v>4544</v>
+        <v>4009</v>
       </c>
       <c r="E27" s="5">
-        <v>0.078975543193030337</v>
+        <v>0.072872885431696052</v>
       </c>
     </row>
     <row r="28">
@@ -1429,16 +1432,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>35443</v>
+        <v>50325</v>
       </c>
       <c r="C28" s="4">
-        <v>30701</v>
+        <v>45781</v>
       </c>
       <c r="D28" s="4">
-        <v>4742</v>
+        <v>4544</v>
       </c>
       <c r="E28" s="5">
-        <v>0.07729289940828403</v>
+        <v>0.078977201158836122</v>
       </c>
     </row>
     <row r="29">
@@ -1446,16 +1449,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>29528</v>
+        <v>35443</v>
       </c>
       <c r="C29" s="4">
-        <v>28668</v>
+        <v>30701</v>
       </c>
       <c r="D29" s="4">
-        <v>860</v>
+        <v>4742</v>
       </c>
       <c r="E29" s="5">
-        <v>0.087078736587577449</v>
+        <v>0.077302307237231319</v>
       </c>
     </row>
     <row r="30">
@@ -1463,16 +1466,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>35711</v>
+        <v>29528</v>
       </c>
       <c r="C30" s="4">
-        <v>34687</v>
+        <v>28668</v>
       </c>
       <c r="D30" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E30" s="5">
-        <v>0.087122113782432758</v>
+        <v>0.087070841392649909</v>
       </c>
     </row>
     <row r="31">
@@ -1480,16 +1483,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>41042</v>
+        <v>35712</v>
       </c>
       <c r="C31" s="4">
-        <v>38379</v>
+        <v>34688</v>
       </c>
       <c r="D31" s="4">
-        <v>2663</v>
+        <v>1024</v>
       </c>
       <c r="E31" s="5">
-        <v>0.080404930115912779</v>
+        <v>0.087125570323348542</v>
       </c>
     </row>
     <row r="32">
@@ -1497,16 +1500,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>48307</v>
+        <v>41042</v>
       </c>
       <c r="C32" s="4">
-        <v>44481</v>
+        <v>38379</v>
       </c>
       <c r="D32" s="4">
-        <v>3826</v>
+        <v>2663</v>
       </c>
       <c r="E32" s="5">
-        <v>0.077300613496932513</v>
+        <v>0.080368060650525805</v>
       </c>
     </row>
     <row r="33">
@@ -1514,16 +1517,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>46520</v>
+        <v>48307</v>
       </c>
       <c r="C33" s="4">
-        <v>43321</v>
+        <v>44481</v>
       </c>
       <c r="D33" s="4">
-        <v>3199</v>
+        <v>3826</v>
       </c>
       <c r="E33" s="5">
-        <v>0.078045971255445948</v>
+        <v>0.077304924981872941</v>
       </c>
     </row>
     <row r="34">
@@ -1531,16 +1534,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>41538</v>
+        <v>46520</v>
       </c>
       <c r="C34" s="4">
-        <v>37779</v>
+        <v>43321</v>
       </c>
       <c r="D34" s="4">
-        <v>3759</v>
+        <v>3199</v>
       </c>
       <c r="E34" s="5">
-        <v>0.075910621365166825</v>
+        <v>0.078040109161012491</v>
       </c>
     </row>
     <row r="35">
@@ -1548,16 +1551,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>29475</v>
+        <v>41538</v>
       </c>
       <c r="C35" s="4">
-        <v>25886</v>
+        <v>37779</v>
       </c>
       <c r="D35" s="4">
-        <v>3589</v>
+        <v>3759</v>
       </c>
       <c r="E35" s="5">
-        <v>0.076991942703670546</v>
+        <v>0.075920304089390031</v>
       </c>
     </row>
     <row r="36">
@@ -1565,16 +1568,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>26384</v>
+        <v>29475</v>
       </c>
       <c r="C36" s="4">
-        <v>25644</v>
+        <v>25886</v>
       </c>
       <c r="D36" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E36" s="5">
-        <v>0.080910037651205635</v>
+        <v>0.076985272884781977</v>
       </c>
     </row>
     <row r="37">
@@ -1582,16 +1585,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>34472</v>
+        <v>26384</v>
       </c>
       <c r="C37" s="4">
-        <v>33702</v>
+        <v>25644</v>
       </c>
       <c r="D37" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E37" s="5">
-        <v>0.075140860942077975</v>
+        <v>0.080903556552387054</v>
       </c>
     </row>
     <row r="38">
@@ -1599,16 +1602,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>40201</v>
+        <v>34472</v>
       </c>
       <c r="C38" s="4">
-        <v>38156</v>
+        <v>33702</v>
       </c>
       <c r="D38" s="4">
-        <v>2045</v>
+        <v>770</v>
       </c>
       <c r="E38" s="5">
-        <v>0.065171646726387297</v>
+        <v>0.075127315336427955</v>
       </c>
     </row>
     <row r="39">
@@ -1616,16 +1619,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>44929</v>
+        <v>40201</v>
       </c>
       <c r="C39" s="4">
-        <v>41829</v>
+        <v>38156</v>
       </c>
       <c r="D39" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E39" s="5">
-        <v>0.058833214422918612</v>
+        <v>0.065165769935976434</v>
       </c>
     </row>
     <row r="40">
@@ -1633,16 +1636,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>47667</v>
+        <v>44929</v>
       </c>
       <c r="C40" s="4">
-        <v>45123</v>
+        <v>41829</v>
       </c>
       <c r="D40" s="4">
-        <v>2544</v>
+        <v>3100</v>
       </c>
       <c r="E40" s="5">
-        <v>0.066484191138851942</v>
+        <v>0.058829985731533314</v>
       </c>
     </row>
     <row r="41">
@@ -1650,16 +1653,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>43377</v>
+        <v>47667</v>
       </c>
       <c r="C41" s="4">
-        <v>40547</v>
+        <v>45123</v>
       </c>
       <c r="D41" s="4">
-        <v>2830</v>
+        <v>2544</v>
       </c>
       <c r="E41" s="5">
-        <v>0.064213247488049949</v>
+        <v>0.066484191138851942</v>
       </c>
     </row>
     <row r="42">
@@ -1667,16 +1670,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>25526</v>
+        <v>43377</v>
       </c>
       <c r="C42" s="4">
-        <v>22386</v>
+        <v>40547</v>
       </c>
       <c r="D42" s="4">
-        <v>3140</v>
+        <v>2830</v>
       </c>
       <c r="E42" s="5">
-        <v>0.065326633165829151</v>
+        <v>0.064205418322807184</v>
       </c>
     </row>
     <row r="43">
@@ -1684,16 +1687,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>26672</v>
+        <v>25526</v>
       </c>
       <c r="C43" s="4">
-        <v>26109</v>
+        <v>22386</v>
       </c>
       <c r="D43" s="4">
-        <v>563</v>
+        <v>3140</v>
       </c>
       <c r="E43" s="5">
-        <v>0.07441726381681904</v>
+        <v>0.065310720701519345</v>
       </c>
     </row>
     <row r="44">
@@ -1701,16 +1704,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>33577</v>
+        <v>26672</v>
       </c>
       <c r="C44" s="4">
-        <v>32756</v>
+        <v>26109</v>
       </c>
       <c r="D44" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E44" s="5">
-        <v>0.067782213539454683</v>
+        <v>0.074414199234032044</v>
       </c>
     </row>
     <row r="45">
@@ -1718,16 +1721,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>39051</v>
+        <v>33577</v>
       </c>
       <c r="C45" s="4">
-        <v>37191</v>
+        <v>32756</v>
       </c>
       <c r="D45" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06344372939883848</v>
+        <v>0.067785092376300704</v>
       </c>
     </row>
     <row r="46">
@@ -1735,16 +1738,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>45094</v>
+        <v>39051</v>
       </c>
       <c r="C46" s="4">
-        <v>42089</v>
+        <v>37191</v>
       </c>
       <c r="D46" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E46" s="5">
-        <v>0.059475487232633788</v>
+        <v>0.063427800269905535</v>
       </c>
     </row>
     <row r="47">
@@ -1752,16 +1755,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>45526</v>
+        <v>45094</v>
       </c>
       <c r="C47" s="4">
-        <v>43049</v>
+        <v>42089</v>
       </c>
       <c r="D47" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E47" s="5">
-        <v>0.060462310455455318</v>
+        <v>0.059475487232633788</v>
       </c>
     </row>
     <row r="48">
@@ -1769,16 +1772,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>38859</v>
+        <v>45526</v>
       </c>
       <c r="C48" s="4">
-        <v>36668</v>
+        <v>43049</v>
       </c>
       <c r="D48" s="4">
-        <v>2191</v>
+        <v>2477</v>
       </c>
       <c r="E48" s="5">
-        <v>0.059408323905351085</v>
+        <v>0.060467284593868263</v>
       </c>
     </row>
     <row r="49">
@@ -1786,16 +1789,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>23982</v>
+        <v>38859</v>
       </c>
       <c r="C49" s="4">
-        <v>21589</v>
+        <v>36668</v>
       </c>
       <c r="D49" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E49" s="5">
-        <v>0.064070268478621142</v>
+        <v>0.059398315282791818</v>
       </c>
     </row>
     <row r="50">
@@ -1803,16 +1806,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C50" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D50" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E50" s="5">
-        <v>0.070442756576509821</v>
+        <v>0.064072392190659286</v>
       </c>
     </row>
     <row r="51">
@@ -1820,16 +1823,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>30513</v>
+        <v>25467</v>
       </c>
       <c r="C51" s="4">
-        <v>30030</v>
+        <v>25050</v>
       </c>
       <c r="D51" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E51" s="5">
-        <v>0.075053727888907254</v>
+        <v>0.070439494280553877</v>
       </c>
     </row>
     <row r="52">
@@ -1837,16 +1840,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>37817</v>
+        <v>30513</v>
       </c>
       <c r="C52" s="4">
-        <v>36632</v>
+        <v>30030</v>
       </c>
       <c r="D52" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E52" s="5">
-        <v>0.061581303535549366</v>
+        <v>0.075053727888907254</v>
       </c>
     </row>
     <row r="53">
@@ -1854,16 +1857,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>40638</v>
+        <v>37817</v>
       </c>
       <c r="C53" s="4">
-        <v>38728</v>
+        <v>36632</v>
       </c>
       <c r="D53" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E53" s="5">
-        <v>0.064139058809278657</v>
+        <v>0.061568281938325989</v>
       </c>
     </row>
     <row r="54">
@@ -1871,16 +1874,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>46373</v>
+        <v>40638</v>
       </c>
       <c r="C54" s="4">
-        <v>44982</v>
+        <v>38728</v>
       </c>
       <c r="D54" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E54" s="5">
-        <v>0.063599208965062617</v>
+        <v>0.064129348714687978</v>
       </c>
     </row>
     <row r="55">
@@ -1888,16 +1891,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>36502</v>
+        <v>46373</v>
       </c>
       <c r="C55" s="4">
-        <v>34758</v>
+        <v>44982</v>
       </c>
       <c r="D55" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E55" s="5">
-        <v>0.058688791611523974</v>
+        <v>0.063590825204323756</v>
       </c>
     </row>
     <row r="56">
@@ -1905,16 +1908,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>18443</v>
+        <v>36502</v>
       </c>
       <c r="C56" s="4">
-        <v>16604</v>
+        <v>34758</v>
       </c>
       <c r="D56" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E56" s="5">
-        <v>0.061549228332535268</v>
+        <v>0.058688791611523974</v>
       </c>
     </row>
     <row r="57">
@@ -1922,16 +1925,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>23457</v>
+        <v>18443</v>
       </c>
       <c r="C57" s="4">
-        <v>23121</v>
+        <v>16604</v>
       </c>
       <c r="D57" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E57" s="5">
-        <v>0.076878911408394104</v>
+        <v>0.061549228332535268</v>
       </c>
     </row>
     <row r="58">
@@ -1939,16 +1942,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>32976</v>
+        <v>23457</v>
       </c>
       <c r="C58" s="4">
-        <v>32584</v>
+        <v>23121</v>
       </c>
       <c r="D58" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E58" s="5">
-        <v>0.073878627968337732</v>
+        <v>0.076865671641791047</v>
       </c>
     </row>
     <row r="59">
@@ -1956,16 +1959,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>34488</v>
+        <v>32976</v>
       </c>
       <c r="C59" s="4">
-        <v>33613</v>
+        <v>32584</v>
       </c>
       <c r="D59" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E59" s="5">
-        <v>0.058615290353325619</v>
+        <v>0.0738649511732309</v>
       </c>
     </row>
     <row r="60">
@@ -1973,16 +1976,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>41559</v>
+        <v>34488</v>
       </c>
       <c r="C60" s="4">
-        <v>40064</v>
+        <v>33613</v>
       </c>
       <c r="D60" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E60" s="5">
-        <v>0.061131530173090816</v>
+        <v>0.058591357604627421</v>
       </c>
     </row>
     <row r="61">
@@ -1990,16 +1993,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>42286</v>
+        <v>41559</v>
       </c>
       <c r="C61" s="4">
-        <v>41167</v>
+        <v>40064</v>
       </c>
       <c r="D61" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E61" s="5">
-        <v>0.065295046105280641</v>
+        <v>0.061118090452261305</v>
       </c>
     </row>
     <row r="62">
@@ -2007,16 +2010,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>34301</v>
+        <v>42286</v>
       </c>
       <c r="C62" s="4">
-        <v>32852</v>
+        <v>41167</v>
       </c>
       <c r="D62" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E62" s="5">
-        <v>0.060679611650485438</v>
+        <v>0.065296854231280455</v>
       </c>
     </row>
     <row r="63">
@@ -2024,16 +2027,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>21670</v>
+        <v>34301</v>
       </c>
       <c r="C63" s="4">
-        <v>20537</v>
+        <v>32852</v>
       </c>
       <c r="D63" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E63" s="5">
-        <v>0.066299584222946392</v>
+        <v>0.06066306777905011</v>
       </c>
     </row>
     <row r="64">
@@ -2041,16 +2044,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>21638</v>
+        <v>21670</v>
       </c>
       <c r="C64" s="4">
-        <v>21360</v>
+        <v>20537</v>
       </c>
       <c r="D64" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E64" s="5">
-        <v>0.067723960565795119</v>
+        <v>0.066284687113807431</v>
       </c>
     </row>
     <row r="65">
@@ -2058,16 +2061,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>32579</v>
+        <v>21638</v>
       </c>
       <c r="C65" s="4">
-        <v>32240</v>
+        <v>21360</v>
       </c>
       <c r="D65" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E65" s="5">
-        <v>0.069750816993464054</v>
+        <v>0.067704613626624763</v>
       </c>
     </row>
     <row r="66">
@@ -2075,16 +2078,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>37231</v>
+        <v>32579</v>
       </c>
       <c r="C66" s="4">
-        <v>36222</v>
+        <v>32240</v>
       </c>
       <c r="D66" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E66" s="5">
-        <v>0.056417149159084641</v>
+        <v>0.069750816993464054</v>
       </c>
     </row>
     <row r="67">
@@ -2092,16 +2095,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>42459</v>
+        <v>37230</v>
       </c>
       <c r="C67" s="4">
-        <v>41184</v>
+        <v>36221</v>
       </c>
       <c r="D67" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E67" s="5">
-        <v>0.055478381663483241</v>
+        <v>0.056411316723525964</v>
       </c>
     </row>
     <row r="68">
@@ -2109,16 +2112,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>40909</v>
+        <v>42459</v>
       </c>
       <c r="C68" s="4">
-        <v>40012</v>
+        <v>41184</v>
       </c>
       <c r="D68" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E68" s="5">
-        <v>0.050132633102006913</v>
+        <v>0.055473565413664383</v>
       </c>
     </row>
     <row r="69">
@@ -2126,16 +2129,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C69" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D69" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E69" s="5">
-        <v>0.057258222807952217</v>
+        <v>0.050135319810284303</v>
       </c>
     </row>
     <row r="70">
@@ -2143,16 +2146,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>17805</v>
+        <v>34450</v>
       </c>
       <c r="C70" s="4">
-        <v>16890</v>
+        <v>33428</v>
       </c>
       <c r="D70" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E70" s="5">
-        <v>0.056718891232298882</v>
+        <v>0.057251801385033788</v>
       </c>
     </row>
     <row r="71">
@@ -2160,16 +2163,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>18047</v>
+        <v>17805</v>
       </c>
       <c r="C71" s="4">
-        <v>17794</v>
+        <v>16890</v>
       </c>
       <c r="D71" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E71" s="5">
-        <v>0.064866868474701925</v>
+        <v>0.056716755168907465</v>
       </c>
     </row>
     <row r="72">
@@ -2177,16 +2180,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C72" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D72" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E72" s="5">
-        <v>0.078651685393258425</v>
+        <v>0.064854848672019766</v>
       </c>
     </row>
     <row r="73">
@@ -2194,16 +2197,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>32524</v>
+        <v>26991</v>
       </c>
       <c r="C73" s="4">
-        <v>31889</v>
+        <v>26698</v>
       </c>
       <c r="D73" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E73" s="5">
-        <v>0.061922682175846733</v>
+        <v>0.078642622573025289</v>
       </c>
     </row>
     <row r="74">
@@ -2211,16 +2214,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>36044</v>
+        <v>32524</v>
       </c>
       <c r="C74" s="4">
-        <v>35427</v>
+        <v>31889</v>
       </c>
       <c r="D74" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E74" s="5">
-        <v>0.060967774659317624</v>
+        <v>0.061920034209963649</v>
       </c>
     </row>
     <row r="75">
@@ -2228,16 +2231,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>40623</v>
+        <v>36044</v>
       </c>
       <c r="C75" s="4">
-        <v>39876</v>
+        <v>35427</v>
       </c>
       <c r="D75" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E75" s="5">
-        <v>0.05449787963547776</v>
+        <v>0.060983030221080384</v>
       </c>
     </row>
     <row r="76">
@@ -2245,16 +2248,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>29237</v>
+        <v>40623</v>
       </c>
       <c r="C76" s="4">
-        <v>28573</v>
+        <v>39876</v>
       </c>
       <c r="D76" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E76" s="5">
-        <v>0.05444783131519338</v>
+        <v>0.054463480613165013</v>
       </c>
     </row>
     <row r="77">
@@ -2262,16 +2265,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>14220</v>
+        <v>29237</v>
       </c>
       <c r="C77" s="4">
-        <v>13675</v>
+        <v>28573</v>
       </c>
       <c r="D77" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E77" s="5">
-        <v>0.057967352302016474</v>
+        <v>0.054438697050188729</v>
       </c>
     </row>
     <row r="78">
@@ -2279,16 +2282,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>13901</v>
+        <v>14220</v>
       </c>
       <c r="C78" s="4">
-        <v>13789</v>
+        <v>13675</v>
       </c>
       <c r="D78" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E78" s="5">
-        <v>0.066675356840252886</v>
+        <v>0.057970282017588193</v>
       </c>
     </row>
     <row r="79">
@@ -2296,16 +2299,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C79" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D79" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E79" s="5">
-        <v>0.060036166365280287</v>
+        <v>0.066666666666666666</v>
       </c>
     </row>
     <row r="80">
@@ -2313,16 +2316,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>31625</v>
+        <v>26010</v>
       </c>
       <c r="C80" s="4">
-        <v>31294</v>
+        <v>25913</v>
       </c>
       <c r="D80" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E80" s="5">
-        <v>0.053045931040289644</v>
+        <v>0.060014461315979754</v>
       </c>
     </row>
     <row r="81">
@@ -2330,16 +2333,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>36146</v>
+        <v>31625</v>
       </c>
       <c r="C81" s="4">
-        <v>35815</v>
+        <v>31294</v>
       </c>
       <c r="D81" s="4">
         <v>331</v>
       </c>
       <c r="E81" s="5">
-        <v>0.049502581108338176</v>
+        <v>0.053043697903510989</v>
       </c>
     </row>
     <row r="82">
@@ -2347,16 +2350,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>38437</v>
+        <v>36146</v>
       </c>
       <c r="C82" s="4">
-        <v>38073</v>
+        <v>35815</v>
       </c>
       <c r="D82" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E82" s="5">
-        <v>0.045725765344367487</v>
+        <v>0.04950088882811432</v>
       </c>
     </row>
     <row r="83">
@@ -2364,16 +2367,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>28553</v>
+        <v>38436</v>
       </c>
       <c r="C83" s="4">
-        <v>28179</v>
+        <v>38072</v>
       </c>
       <c r="D83" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E83" s="5">
-        <v>0.049100573590798523</v>
+        <v>0.045729878853304547</v>
       </c>
     </row>
     <row r="84">
@@ -2381,16 +2384,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>12649</v>
+        <v>28553</v>
       </c>
       <c r="C84" s="4">
-        <v>12334</v>
+        <v>28179</v>
       </c>
       <c r="D84" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E84" s="5">
-        <v>0.048523622047244093</v>
+        <v>0.049102048171061327</v>
       </c>
     </row>
     <row r="85">
@@ -2398,12 +2401,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C85" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D85" s="4">
+        <v>315</v>
+      </c>
       <c r="E85" s="5">
-        <v>0.053878650584705812</v>
+        <v>0.048516459184175562</v>
       </c>
     </row>
     <row r="86">
@@ -2411,12 +2418,12 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5">
-        <v>0.05282158464753943</v>
+        <v>0.053875352026447901</v>
       </c>
     </row>
     <row r="87">
@@ -2424,12 +2431,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.052835698316375419</v>
+        <v>0.052804862606052931</v>
       </c>
     </row>
     <row r="88">
@@ -2437,12 +2444,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.046056338028169011</v>
+        <v>0.052826057205419462</v>
       </c>
     </row>
     <row r="89">
@@ -2450,12 +2457,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.047242262043286014</v>
+        <v>0.046053094852475177</v>
       </c>
     </row>
     <row r="90">
@@ -2463,12 +2470,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.047448834340303038</v>
+        <v>0.047234410317776893</v>
       </c>
     </row>
     <row r="91">
@@ -2476,12 +2483,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.056722882683623632</v>
+        <v>0.047447333459859554</v>
       </c>
     </row>
     <row r="92">
@@ -2489,12 +2496,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.056987710774507004</v>
+        <v>0.056712429742928221</v>
       </c>
     </row>
     <row r="93">
@@ -2502,12 +2509,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.049328366632802802</v>
+        <v>0.056984453589391859</v>
       </c>
     </row>
     <row r="94">
@@ -2515,12 +2522,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.04745437880176652</v>
+        <v>0.049311667795080116</v>
       </c>
     </row>
     <row r="95">
@@ -2528,12 +2535,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.049683766690091356</v>
+        <v>0.047444495355521303</v>
       </c>
     </row>
     <row r="96">
@@ -2541,12 +2548,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.05013805220883534</v>
+        <v>0.049689004462873811</v>
       </c>
     </row>
     <row r="97">
@@ -2554,12 +2561,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.05146536412078153</v>
+        <v>0.050136479151633044</v>
       </c>
     </row>
     <row r="98">
@@ -2567,12 +2574,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.063976679963178892</v>
+        <v>0.051451655864334547</v>
       </c>
     </row>
     <row r="99">
@@ -2580,12 +2587,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.070330613997423783</v>
+        <v>0.063927640656139817</v>
       </c>
     </row>
     <row r="100">
@@ -2593,12 +2600,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.059095860566448805</v>
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="101">
@@ -2606,12 +2613,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.056373345716275829</v>
+        <v>0.059091837429368917</v>
       </c>
     </row>
     <row r="102">
@@ -2619,12 +2626,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.059619880835658799</v>
+        <v>0.056370728083209511</v>
       </c>
     </row>
     <row r="103">
@@ -2632,12 +2639,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.053265400648448355</v>
+        <v>0.059608641556385025</v>
       </c>
     </row>
     <row r="104">
@@ -2645,12 +2652,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.063118471687740513</v>
+        <v>0.053265400648448355</v>
       </c>
     </row>
     <row r="105">
@@ -2658,12 +2665,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.064983310003230321</v>
+        <v>0.063109797993678718</v>
       </c>
     </row>
     <row r="106">
@@ -2671,12 +2678,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.075943726526195174</v>
+        <v>0.064969318548821181</v>
       </c>
     </row>
     <row r="107">
@@ -2684,12 +2691,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.065399411631590854</v>
+        <v>0.07588575790344125</v>
       </c>
     </row>
     <row r="108">
@@ -2697,12 +2704,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.076653832691634588</v>
+        <v>0.065399411631590854</v>
       </c>
     </row>
     <row r="109">
@@ -2710,12 +2717,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.059528101590353724</v>
+        <v>0.076630363469360974</v>
       </c>
     </row>
     <row r="110">
@@ -2723,12 +2730,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.062432793509074914</v>
+        <v>0.059511413696435721</v>
       </c>
     </row>
     <row r="111">
@@ -2736,12 +2743,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.070419218087611868</v>
+        <v>0.06243686251507153</v>
       </c>
     </row>
     <row r="112">
@@ -2749,12 +2756,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.065196700507614211</v>
+        <v>0.070421587429763469</v>
       </c>
     </row>
     <row r="113">
@@ -2762,12 +2769,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.079859942091441649</v>
+        <v>0.065193253317823718</v>
       </c>
     </row>
     <row r="114">
@@ -2775,12 +2782,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.072547744338674391</v>
+        <v>0.079849188716084291</v>
       </c>
     </row>
     <row r="115">
@@ -2788,12 +2795,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.063654353562005273</v>
+        <v>0.072539166420336976</v>
       </c>
     </row>
     <row r="116">
@@ -2801,12 +2808,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.063291613580154393</v>
+        <v>0.063625499649730091</v>
       </c>
     </row>
     <row r="117">
@@ -2814,12 +2821,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.068668528864059594</v>
+        <v>0.063260796284505039</v>
       </c>
     </row>
     <row r="118">
@@ -2827,12 +2834,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.07579269969745786</v>
+        <v>0.068673857375649877</v>
       </c>
     </row>
     <row r="119">
@@ -2840,12 +2847,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.064977662161397956</v>
+        <v>0.075771859533349042</v>
       </c>
     </row>
     <row r="120">
@@ -2853,12 +2860,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.068824404761904767</v>
+        <v>0.065023182177993896</v>
       </c>
     </row>
     <row r="121">
@@ -2866,12 +2873,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.063104811230748264</v>
+        <v>0.068814164558845412</v>
       </c>
     </row>
     <row r="122">
@@ -2879,12 +2886,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.063355920959105347</v>
+        <v>0.063104811230748264</v>
       </c>
     </row>
     <row r="123">
@@ -2892,12 +2899,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.063419199572154375</v>
+        <v>0.063349917081260365</v>
       </c>
     </row>
     <row r="124">
@@ -2905,12 +2912,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.059120283510527415</v>
+        <v>0.063407895909455489</v>
       </c>
     </row>
     <row r="125">
@@ -2918,12 +2925,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.064045488605809497</v>
+        <v>0.059110425611738716</v>
       </c>
     </row>
     <row r="126">
@@ -2931,12 +2938,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.061780774148552833</v>
+        <v>0.063989078257805962</v>
       </c>
     </row>
     <row r="127">
@@ -2944,12 +2951,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.063489767879094661</v>
+        <v>0.061701880659391688</v>
       </c>
     </row>
     <row r="128">
@@ -2957,12 +2964,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.052068988130369205</v>
+        <v>0.063462233465847492</v>
       </c>
     </row>
     <row r="129">
@@ -2970,12 +2977,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.05914101449938252</v>
+        <v>0.052068988130369205</v>
       </c>
     </row>
     <row r="130">
@@ -2983,12 +2990,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.067744775496964921</v>
+        <v>0.059097764980117921</v>
       </c>
     </row>
     <row r="131">
@@ -2996,12 +3003,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.070782929351980939</v>
+        <v>0.067735359525574496</v>
       </c>
     </row>
     <row r="132">
@@ -3009,12 +3016,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.075475787922139853</v>
+        <v>0.070767017354554443</v>
       </c>
     </row>
     <row r="133">
@@ -3022,12 +3029,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.076375581713660004</v>
+        <v>0.07548233253847822</v>
       </c>
     </row>
     <row r="134">
@@ -3035,12 +3042,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.067588808550770194</v>
+        <v>0.076370355163210835</v>
       </c>
     </row>
     <row r="135">
@@ -3048,12 +3055,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.072941302945603095</v>
+        <v>0.067593058350100599</v>
       </c>
     </row>
     <row r="136">
@@ -3061,12 +3068,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.068564100034528688</v>
+        <v>0.072941302945603095</v>
       </c>
     </row>
     <row r="137">
@@ -3074,12 +3081,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.066516393442622945</v>
+        <v>0.068564100034528688</v>
       </c>
     </row>
     <row r="138">
@@ -3087,12 +3094,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.072359816041517241</v>
+        <v>0.066508216202925866</v>
       </c>
     </row>
     <row r="139">
@@ -3100,12 +3107,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.074938618652812872</v>
+        <v>0.072356763142350858</v>
       </c>
     </row>
     <row r="140">
@@ -3113,12 +3120,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.069390779653840051</v>
+        <v>0.074909297858718082</v>
       </c>
     </row>
     <row r="141">
@@ -3126,12 +3133,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.071807620595687724</v>
+        <v>0.069394452678382387</v>
       </c>
     </row>
     <row r="142">
@@ -3139,12 +3146,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.07678349727819693</v>
+        <v>0.071804187780858592</v>
       </c>
     </row>
     <row r="143">
@@ -3152,12 +3159,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.078407775977782923</v>
+        <v>0.076820243494867504</v>
       </c>
     </row>
     <row r="144">
@@ -3165,12 +3172,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.074785693171741052</v>
+        <v>0.078411405295315678</v>
       </c>
     </row>
     <row r="145">
@@ -3178,12 +3185,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.084748655799266021</v>
+        <v>0.074788851351351354</v>
       </c>
     </row>
     <row r="146">
@@ -3191,12 +3198,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.078055690162895597</v>
+        <v>0.084741423451100875</v>
       </c>
     </row>
     <row r="147">
@@ -3204,12 +3211,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.076076255258211767</v>
+        <v>0.078052780676904729</v>
       </c>
     </row>
     <row r="148">
@@ -3217,12 +3224,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.080879163252518441</v>
+        <v>0.076069446930374082</v>
       </c>
     </row>
     <row r="149">
@@ -3230,12 +3237,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.069407558733401431</v>
+        <v>0.080844093274233961</v>
       </c>
     </row>
     <row r="150">
@@ -3243,12 +3250,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.080801320662115733</v>
+        <v>0.069404014095296465</v>
       </c>
     </row>
     <row r="151">
@@ -3256,12 +3263,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.084390131427253864</v>
+        <v>0.080801320662115733</v>
       </c>
     </row>
     <row r="152">
@@ -3269,12 +3276,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.073204257157444136</v>
+        <v>0.084351702405656759</v>
       </c>
     </row>
     <row r="153">
@@ -3282,12 +3289,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.087324211326491832</v>
+        <v>0.07320138234370091</v>
       </c>
     </row>
     <row r="154">
@@ -3295,12 +3302,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.078354736646193926</v>
+        <v>0.087315914489311169</v>
       </c>
     </row>
     <row r="155">
@@ -3308,12 +3315,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.096202266051195973</v>
+        <v>0.078351091052900945</v>
       </c>
     </row>
     <row r="156">
@@ -3321,12 +3328,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.09234266918202487</v>
+        <v>0.096192174551557749</v>
       </c>
     </row>
     <row r="157">
@@ -3334,12 +3341,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.091387773315484158</v>
+        <v>0.092347136222910214</v>
       </c>
     </row>
     <row r="158">
@@ -3347,12 +3354,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.095791931865012128</v>
+        <v>0.091387773315484158</v>
       </c>
     </row>
     <row r="159">
@@ -3360,12 +3367,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.093585484283158701</v>
+        <v>0.095748089157398505</v>
       </c>
     </row>
     <row r="160">
@@ -3373,12 +3380,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.085409738987837658</v>
+        <v>0.093631810283144226</v>
       </c>
     </row>
     <row r="161">
@@ -3386,12 +3393,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.088598177196354391</v>
+        <v>0.085405848592511616</v>
       </c>
     </row>
     <row r="162">
@@ -3399,12 +3406,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.092124308216262232</v>
+        <v>0.088598177196354391</v>
       </c>
     </row>
     <row r="163">
@@ -3412,12 +3419,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.084269662921348312</v>
+        <v>0.092124308216262232</v>
       </c>
     </row>
     <row r="164">
@@ -3425,12 +3432,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.089296380360769326</v>
+        <v>0.084227497637182416</v>
       </c>
     </row>
     <row r="165">
@@ -3438,12 +3445,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.091678330576409214</v>
+        <v>0.089301714353981237</v>
       </c>
     </row>
     <row r="166">
@@ -3451,12 +3458,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.1046236559139785</v>
+        <v>0.091684163644461414</v>
       </c>
     </row>
     <row r="167">
@@ -3464,12 +3471,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.083280793259586178</v>
+        <v>0.10462928114414753</v>
       </c>
     </row>
     <row r="168">
@@ -3477,12 +3484,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.095684902459711618</v>
+        <v>0.083280793259586178</v>
       </c>
     </row>
     <row r="169">
@@ -3490,12 +3497,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.087854392719635979</v>
+        <v>0.095679830373707919</v>
       </c>
     </row>
     <row r="170">
@@ -3503,12 +3510,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.081923367637653358</v>
+        <v>0.087854392719635979</v>
       </c>
     </row>
     <row r="171">
@@ -3516,12 +3523,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.094768588330820094</v>
+        <v>0.081928131178043956</v>
       </c>
     </row>
     <row r="172">
@@ -3529,12 +3536,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.09898344467034563</v>
+        <v>0.094763092269326679</v>
       </c>
     </row>
     <row r="173">
@@ -3542,12 +3549,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.096658948064836256</v>
+        <v>0.098971946332113606</v>
       </c>
     </row>
     <row r="174">
@@ -3555,12 +3562,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.077366681785783709</v>
+        <v>0.096652553585604664</v>
       </c>
     </row>
     <row r="175">
@@ -3568,12 +3575,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.08248796741947427</v>
+        <v>0.077356656948493682</v>
       </c>
     </row>
     <row r="176">
@@ -3581,12 +3588,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.09048861480075901</v>
+        <v>0.082494075829383881</v>
       </c>
     </row>
     <row r="177">
@@ -3594,12 +3601,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.084100165937547142</v>
+        <v>0.090499347645593642</v>
       </c>
     </row>
     <row r="178">
@@ -3607,12 +3614,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.094234708808896686</v>
+        <v>0.084106509768424223</v>
       </c>
     </row>
     <row r="179">
@@ -3620,12 +3627,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.095663356433521474</v>
+        <v>0.094207138677589231</v>
       </c>
     </row>
     <row r="180">
@@ -3633,12 +3640,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.085688888888888884</v>
+        <v>0.095663356433521474</v>
       </c>
     </row>
     <row r="181">
@@ -3646,12 +3653,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.082691663876799465</v>
+        <v>0.085688888888888884</v>
       </c>
     </row>
     <row r="182">
@@ -3659,12 +3666,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.080555555555555561</v>
+        <v>0.082691663876799465</v>
       </c>
     </row>
     <row r="183">
@@ -3672,12 +3679,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.090610261540660278</v>
+        <v>0.080555555555555561</v>
       </c>
     </row>
     <row r="184">
@@ -3685,12 +3692,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.082585674363877037</v>
+        <v>0.09045441554729923</v>
       </c>
     </row>
     <row r="185">
@@ -3698,12 +3705,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.091563489778289667</v>
+        <v>0.082585674363877037</v>
       </c>
     </row>
     <row r="186">
@@ -3711,12 +3718,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.092689386019931708</v>
+        <v>0.091570081347635154</v>
       </c>
     </row>
     <row r="187">
@@ -3724,12 +3731,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.098395579522002535</v>
+        <v>0.092676468538777784</v>
       </c>
     </row>
     <row r="188">
@@ -3737,12 +3744,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.084573449241196405</v>
+        <v>0.098395579522002535</v>
       </c>
     </row>
     <row r="189">
@@ -3750,12 +3757,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.076310483870967741</v>
+        <v>0.0845547617293953</v>
       </c>
     </row>
     <row r="190">
@@ -3763,12 +3770,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.086778736937755563</v>
+        <v>0.076310483870967741</v>
       </c>
     </row>
     <row r="191">
@@ -3776,12 +3783,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.090048180760923746</v>
+        <v>0.086791881248106634</v>
       </c>
     </row>
     <row r="192">
@@ -3789,12 +3796,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.093386471348556654</v>
+        <v>0.090040701054904887</v>
       </c>
     </row>
     <row r="193">
@@ -3802,12 +3809,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.097709080872205353</v>
+        <v>0.093376413570274638</v>
       </c>
     </row>
     <row r="194">
@@ -3815,12 +3822,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.086213974874784466</v>
+        <v>0.09770009199632014</v>
       </c>
     </row>
     <row r="195">
@@ -3828,12 +3835,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.089346205962059624</v>
+        <v>0.086206896551724144</v>
       </c>
     </row>
     <row r="196">
@@ -3841,12 +3848,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.077950276842905217</v>
+        <v>0.089263051019544806</v>
       </c>
     </row>
     <row r="197">
@@ -3854,12 +3861,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.07828326180257511</v>
+        <v>0.077950276842905217</v>
       </c>
     </row>
     <row r="198">
@@ -3867,12 +3874,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.080920564216778026</v>
+        <v>0.07828326180257511</v>
       </c>
     </row>
     <row r="199">
@@ -3880,12 +3887,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.081757346523130631</v>
+        <v>0.080920564216778026</v>
       </c>
     </row>
     <row r="200">
@@ -3893,12 +3900,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.099035933391761616</v>
+        <v>0.081741491321632886</v>
       </c>
     </row>
     <row r="201">
@@ -3906,12 +3913,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.090008182562051092</v>
+        <v>0.099003395027926849</v>
       </c>
     </row>
     <row r="202">
@@ -3919,12 +3926,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.090016366612111293</v>
       </c>
     </row>
     <row r="203">
@@ -3932,12 +3939,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.070569366479550921</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="204">
@@ -3945,12 +3952,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.076398104265402847</v>
+        <v>0.070558050032071842</v>
       </c>
     </row>
     <row r="205">
@@ -3958,12 +3965,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.08181143281365999</v>
+        <v>0.076427081357860804</v>
       </c>
     </row>
     <row r="206">
@@ -3971,12 +3978,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081799287410926361</v>
       </c>
     </row>
     <row r="207">
@@ -3984,12 +3991,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.097267759562841533</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="208">
@@ -3997,12 +4004,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.082893081761006293</v>
+        <v>0.097267759562841533</v>
       </c>
     </row>
     <row r="209">
@@ -4010,12 +4017,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082893081761006293</v>
       </c>
     </row>
     <row r="210">
@@ -4023,12 +4030,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.062949972309396349</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="211">
@@ -4036,12 +4043,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.055825714841470531</v>
+        <v>0.062949972309396349</v>
       </c>
     </row>
     <row r="212">
@@ -4049,12 +4056,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.061035758323057951</v>
+        <v>0.055825714841470531</v>
       </c>
     </row>
     <row r="213">
@@ -4062,12 +4069,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.070827489481065917</v>
+        <v>0.061035758323057951</v>
       </c>
     </row>
     <row r="214">
@@ -4075,12 +4082,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.068512353250394259</v>
+        <v>0.070852332514907052</v>
       </c>
     </row>
     <row r="215">
@@ -4088,12 +4095,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.067188638018936639</v>
+        <v>0.068500350385423972</v>
       </c>
     </row>
     <row r="216">
@@ -4101,12 +4108,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.071903911702645679</v>
+        <v>0.067164179104477612</v>
       </c>
     </row>
     <row r="217">
@@ -4114,12 +4121,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.071903911702645679</v>
       </c>
     </row>
     <row r="218">
@@ -4127,12 +4134,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.041328413284132844</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="219">
@@ -4140,12 +4147,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.064670658682634732</v>
+        <v>0.041343669250645997</v>
       </c>
     </row>
     <row r="220">
@@ -4153,12 +4160,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.082586125530910812</v>
+        <v>0.064670658682634732</v>
       </c>
     </row>
     <row r="221">
@@ -4166,12 +4173,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.072792362768496419</v>
+        <v>0.082586125530910812</v>
       </c>
     </row>
     <row r="222">
@@ -4179,12 +4186,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.08327810912303954</v>
+        <v>0.072792362768496419</v>
       </c>
     </row>
     <row r="223">
@@ -4192,12 +4199,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.080667838312829532</v>
+        <v>0.08327810912303954</v>
       </c>
     </row>
     <row r="224">
@@ -4205,12 +4212,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.07123834886817576</v>
+        <v>0.080667838312829532</v>
       </c>
     </row>
     <row r="225">
@@ -4218,12 +4225,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.065044949762030665</v>
+        <v>0.07123834886817576</v>
       </c>
     </row>
     <row r="226">
@@ -4231,12 +4238,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.063413014608233731</v>
+        <v>0.065044949762030665</v>
       </c>
     </row>
     <row r="227">
@@ -4244,12 +4251,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.077654924145024423</v>
+        <v>0.063413014608233731</v>
       </c>
     </row>
     <row r="228">
@@ -4257,12 +4264,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.070099757346993793</v>
+        <v>0.077674897119341557</v>
       </c>
     </row>
     <row r="229">
@@ -4270,12 +4277,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.073772791023842918</v>
+        <v>0.070099757346993793</v>
       </c>
     </row>
     <row r="230">
@@ -4283,12 +4290,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073772791023842918</v>
       </c>
     </row>
     <row r="231">
@@ -4296,12 +4303,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.080078125</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="232">
@@ -4309,12 +4316,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.11092150170648464</v>
+        <v>0.080039043435822355</v>
       </c>
     </row>
     <row r="233">
@@ -4322,12 +4329,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.12960180315552217</v>
+        <v>0.11092150170648464</v>
       </c>
     </row>
     <row r="234">
@@ -4335,12 +4342,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.087964541425161955</v>
+        <v>0.12960180315552217</v>
       </c>
     </row>
     <row r="235">
@@ -4348,12 +4355,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.10686274509803921</v>
+        <v>0.087964541425161955</v>
       </c>
     </row>
     <row r="236">
@@ -4361,12 +4368,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.11600279524807827</v>
+        <v>0.10686274509803921</v>
       </c>
     </row>
     <row r="237">
@@ -4374,12 +4381,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.10559417411453161</v>
+        <v>0.11600279524807827</v>
       </c>
     </row>
     <row r="238">
@@ -4387,12 +4394,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.10861001688238604</v>
+        <v>0.10592519033432639</v>
       </c>
     </row>
     <row r="239">
@@ -4400,12 +4407,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.089878542510121451</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="240">
@@ -4413,12 +4420,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.12877082395317424</v>
+        <v>0.089878542510121451</v>
       </c>
     </row>
     <row r="241">
@@ -4426,12 +4433,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="242">
@@ -4439,12 +4446,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="243">
@@ -4452,12 +4459,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.15947888589398024</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="244">
@@ -4465,12 +4472,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.12762520193861066</v>
+        <v>0.15947888589398024</v>
       </c>
     </row>
     <row r="245">
@@ -4478,12 +4485,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12762520193861066</v>
       </c>
     </row>
     <row r="246">
@@ -4491,12 +4498,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="247">
@@ -4504,12 +4511,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="248">
@@ -4517,12 +4524,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="249">
@@ -4530,12 +4537,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.084332368747416286</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="250">
@@ -4543,12 +4550,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.09157667386609071</v>
+        <v>0.084332368747416286</v>
       </c>
     </row>
     <row r="251">
@@ -4556,12 +4563,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.09157667386609071</v>
       </c>
     </row>
     <row r="252">
@@ -4569,12 +4576,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.12017804154302671</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="253">
@@ -4582,12 +4589,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12017804154302671</v>
       </c>
     </row>
     <row r="254">
@@ -4595,12 +4602,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="255">
@@ -4608,12 +4615,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.084720680725120234</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="256">
@@ -4621,12 +4628,12 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>0.080794248545018835</v>
+        <v>0.084720680725120234</v>
       </c>
     </row>
     <row r="257">
@@ -4634,12 +4641,12 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>0.068212824010914053</v>
+        <v>0.080794248545018835</v>
       </c>
     </row>
     <row r="258">
@@ -4647,12 +4654,12 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068212824010914053</v>
       </c>
     </row>
     <row r="259">
@@ -4660,18 +4667,20 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="5"/>
+      <c r="E259" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -4682,7 +4691,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4693,7 +4702,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4704,7 +4713,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4715,7 +4724,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4726,7 +4735,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4737,7 +4746,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4748,7 +4757,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4759,7 +4768,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4770,7 +4779,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4781,7 +4790,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4792,7 +4801,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4803,7 +4812,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -4814,7 +4823,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -4825,7 +4834,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -4835,7 +4844,9 @@
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B275" s="4"/>
+      <c r="B275" s="4">
+        <v>936</v>
+      </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="5"/>
@@ -4957,6 +4968,15 @@
       <c r="D288" s="4"/>
       <c r="E288" s="5"/>
     </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+  <si>
+    <t>12/15/2020</t>
+  </si>
   <si>
     <t>12/14/2020</t>
   </si>
@@ -975,24 +978,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E289"/>
+  <dimension ref="A1:E290"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -1009,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>33546</v>
+        <v>34360</v>
       </c>
       <c r="C3" s="4">
-        <v>32391</v>
+        <v>32841</v>
       </c>
       <c r="D3" s="4">
-        <v>1155</v>
+        <v>1519</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1024,16 +1027,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>52519</v>
+        <v>44138</v>
       </c>
       <c r="C4" s="4">
-        <v>49599</v>
+        <v>42543</v>
       </c>
       <c r="D4" s="4">
-        <v>2920</v>
+        <v>1595</v>
       </c>
       <c r="E4" s="5">
-        <v>0.11583589469464119</v>
+        <v>0.10925951272926362</v>
       </c>
     </row>
     <row r="5">
@@ -1041,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>64240</v>
+        <v>56591</v>
       </c>
       <c r="C5" s="4">
-        <v>58618</v>
+        <v>52980</v>
       </c>
       <c r="D5" s="4">
-        <v>5622</v>
+        <v>3611</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10858496847217326</v>
+        <v>0.11595339716230246</v>
       </c>
     </row>
     <row r="6">
@@ -1058,16 +1061,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>67749</v>
+        <v>64795</v>
       </c>
       <c r="C6" s="4">
-        <v>62248</v>
+        <v>58718</v>
       </c>
       <c r="D6" s="4">
-        <v>5501</v>
+        <v>6077</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10385055423223362</v>
+        <v>0.10900561808169396</v>
       </c>
     </row>
     <row r="7">
@@ -1075,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>56814</v>
+        <v>67969</v>
       </c>
       <c r="C7" s="4">
-        <v>51101</v>
+        <v>62451</v>
       </c>
       <c r="D7" s="4">
-        <v>5713</v>
+        <v>5518</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10152914308410287</v>
+        <v>0.10296239389907999</v>
       </c>
     </row>
     <row r="8">
@@ -1092,16 +1095,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>47839</v>
+        <v>57102</v>
       </c>
       <c r="C8" s="4">
-        <v>39501</v>
+        <v>51367</v>
       </c>
       <c r="D8" s="4">
-        <v>8338</v>
+        <v>5735</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10761001386001386</v>
+        <v>0.10102445472571051</v>
       </c>
     </row>
     <row r="9">
@@ -1109,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>39508</v>
+        <v>47878</v>
       </c>
       <c r="C9" s="4">
-        <v>37871</v>
+        <v>39502</v>
       </c>
       <c r="D9" s="4">
-        <v>1637</v>
+        <v>8376</v>
       </c>
       <c r="E9" s="5">
-        <v>0.12230138747522366</v>
+        <v>0.10741045519511455</v>
       </c>
     </row>
     <row r="10">
@@ -1126,16 +1129,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>50364</v>
+        <v>39514</v>
       </c>
       <c r="C10" s="4">
-        <v>48811</v>
+        <v>37869</v>
       </c>
       <c r="D10" s="4">
-        <v>1553</v>
+        <v>1645</v>
       </c>
       <c r="E10" s="5">
-        <v>0.097893337423940283</v>
+        <v>0.12214394771381887</v>
       </c>
     </row>
     <row r="11">
@@ -1143,16 +1146,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>54655</v>
+        <v>50369</v>
       </c>
       <c r="C11" s="4">
-        <v>50330</v>
+        <v>48811</v>
       </c>
       <c r="D11" s="4">
-        <v>4325</v>
+        <v>1558</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10688539362660768</v>
+        <v>0.097880825174467653</v>
       </c>
     </row>
     <row r="12">
@@ -1160,16 +1163,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>61545</v>
+        <v>54660</v>
       </c>
       <c r="C12" s="4">
-        <v>55671</v>
+        <v>50330</v>
       </c>
       <c r="D12" s="4">
-        <v>5874</v>
+        <v>4330</v>
       </c>
       <c r="E12" s="5">
-        <v>0.10309784581225047</v>
+        <v>0.10682395346932089</v>
       </c>
     </row>
     <row r="13">
@@ -1177,16 +1180,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>59453</v>
+        <v>61551</v>
       </c>
       <c r="C13" s="4">
-        <v>52221</v>
+        <v>55670</v>
       </c>
       <c r="D13" s="4">
-        <v>7232</v>
+        <v>5881</v>
       </c>
       <c r="E13" s="5">
-        <v>0.1000440546277384</v>
+        <v>0.1030428473881871</v>
       </c>
     </row>
     <row r="14">
@@ -1194,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>51717</v>
+        <v>59453</v>
       </c>
       <c r="C14" s="4">
-        <v>46389</v>
+        <v>52221</v>
       </c>
       <c r="D14" s="4">
-        <v>5328</v>
+        <v>7232</v>
       </c>
       <c r="E14" s="5">
-        <v>0.10079189233546693</v>
+        <v>0.10004806151874399</v>
       </c>
     </row>
     <row r="15">
@@ -1211,16 +1214,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>32146</v>
+        <v>51727</v>
       </c>
       <c r="C15" s="4">
-        <v>25525</v>
+        <v>46387</v>
       </c>
       <c r="D15" s="4">
-        <v>6621</v>
+        <v>5340</v>
       </c>
       <c r="E15" s="5">
-        <v>0.10209121479613283</v>
+        <v>0.10078759537287718</v>
       </c>
     </row>
     <row r="16">
@@ -1228,16 +1231,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>24303</v>
+        <v>32146</v>
       </c>
       <c r="C16" s="4">
-        <v>22754</v>
+        <v>25525</v>
       </c>
       <c r="D16" s="4">
-        <v>1549</v>
+        <v>6621</v>
       </c>
       <c r="E16" s="5">
-        <v>0.11406072414352979</v>
+        <v>0.10217271365893388</v>
       </c>
     </row>
     <row r="17">
@@ -1245,16 +1248,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>35045</v>
+        <v>24302</v>
       </c>
       <c r="C17" s="4">
-        <v>33439</v>
+        <v>22753</v>
       </c>
       <c r="D17" s="4">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="E17" s="5">
-        <v>0.099782095514799343</v>
+        <v>0.11406072414352979</v>
       </c>
     </row>
     <row r="18">
@@ -1262,16 +1265,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>41469</v>
+        <v>35046</v>
       </c>
       <c r="C18" s="4">
-        <v>39054</v>
+        <v>33440</v>
       </c>
       <c r="D18" s="4">
-        <v>2415</v>
+        <v>1606</v>
       </c>
       <c r="E18" s="5">
-        <v>0.091306724986331328</v>
+        <v>0.099777565935811885</v>
       </c>
     </row>
     <row r="19">
@@ -1279,16 +1282,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>41453</v>
+        <v>41469</v>
       </c>
       <c r="C19" s="4">
-        <v>40417</v>
+        <v>39054</v>
       </c>
       <c r="D19" s="4">
-        <v>1036</v>
+        <v>2415</v>
       </c>
       <c r="E19" s="5">
-        <v>0.086363509321110143</v>
+        <v>0.091350973661026222</v>
       </c>
     </row>
     <row r="20">
@@ -1296,16 +1299,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>66667</v>
+        <v>41454</v>
       </c>
       <c r="C20" s="4">
-        <v>60890</v>
+        <v>40418</v>
       </c>
       <c r="D20" s="4">
-        <v>5777</v>
+        <v>1036</v>
       </c>
       <c r="E20" s="5">
-        <v>0.076503601372384183</v>
+        <v>0.086393873329979318</v>
       </c>
     </row>
     <row r="21">
@@ -1313,16 +1316,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>50646</v>
+        <v>66671</v>
       </c>
       <c r="C21" s="4">
-        <v>44423</v>
+        <v>60893</v>
       </c>
       <c r="D21" s="4">
-        <v>6223</v>
+        <v>5778</v>
       </c>
       <c r="E21" s="5">
-        <v>0.069527410898595196</v>
+        <v>0.076475534646939847</v>
       </c>
     </row>
     <row r="22">
@@ -1330,16 +1333,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>52158</v>
+        <v>50645</v>
       </c>
       <c r="C22" s="4">
-        <v>45497</v>
+        <v>44422</v>
       </c>
       <c r="D22" s="4">
-        <v>6661</v>
+        <v>6223</v>
       </c>
       <c r="E22" s="5">
-        <v>0.078745970421044864</v>
+        <v>0.069518032667080787</v>
       </c>
     </row>
     <row r="23">
@@ -1347,16 +1350,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>41522</v>
+        <v>52164</v>
       </c>
       <c r="C23" s="4">
-        <v>39948</v>
+        <v>45503</v>
       </c>
       <c r="D23" s="4">
-        <v>1574</v>
+        <v>6661</v>
       </c>
       <c r="E23" s="5">
-        <v>0.07199349211370723</v>
+        <v>0.078768640188985675</v>
       </c>
     </row>
     <row r="24">
@@ -1364,16 +1367,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>42305</v>
+        <v>41525</v>
       </c>
       <c r="C24" s="4">
-        <v>40848</v>
+        <v>39951</v>
       </c>
       <c r="D24" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E24" s="5">
-        <v>0.065628347277306542</v>
+        <v>0.071979027774638979</v>
       </c>
     </row>
     <row r="25">
@@ -1381,16 +1384,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>53424</v>
+        <v>42306</v>
       </c>
       <c r="C25" s="4">
-        <v>49288</v>
+        <v>40849</v>
       </c>
       <c r="D25" s="4">
-        <v>4136</v>
+        <v>1457</v>
       </c>
       <c r="E25" s="5">
-        <v>0.068481285106829756</v>
+        <v>0.065628347277306542</v>
       </c>
     </row>
     <row r="26">
@@ -1398,16 +1401,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>58331</v>
+        <v>53424</v>
       </c>
       <c r="C26" s="4">
-        <v>53122</v>
+        <v>49288</v>
       </c>
       <c r="D26" s="4">
-        <v>5209</v>
+        <v>4136</v>
       </c>
       <c r="E26" s="5">
-        <v>0.069045152378485714</v>
+        <v>0.068490273803585966</v>
       </c>
     </row>
     <row r="27">
@@ -1415,16 +1418,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>53846</v>
+        <v>58331</v>
       </c>
       <c r="C27" s="4">
-        <v>49837</v>
+        <v>53122</v>
       </c>
       <c r="D27" s="4">
-        <v>4009</v>
+        <v>5209</v>
       </c>
       <c r="E27" s="5">
-        <v>0.072872885431696052</v>
+        <v>0.069049623346068331</v>
       </c>
     </row>
     <row r="28">
@@ -1432,16 +1435,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>50325</v>
+        <v>53846</v>
       </c>
       <c r="C28" s="4">
-        <v>45781</v>
+        <v>49837</v>
       </c>
       <c r="D28" s="4">
-        <v>4544</v>
+        <v>4009</v>
       </c>
       <c r="E28" s="5">
-        <v>0.078977201158836122</v>
+        <v>0.07287898115811707</v>
       </c>
     </row>
     <row r="29">
@@ -1449,16 +1452,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>35443</v>
+        <v>50325</v>
       </c>
       <c r="C29" s="4">
-        <v>30701</v>
+        <v>45781</v>
       </c>
       <c r="D29" s="4">
-        <v>4742</v>
+        <v>4544</v>
       </c>
       <c r="E29" s="5">
-        <v>0.077302307237231319</v>
+        <v>0.078980517299294589</v>
       </c>
     </row>
     <row r="30">
@@ -1466,16 +1469,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>29528</v>
+        <v>35443</v>
       </c>
       <c r="C30" s="4">
-        <v>28668</v>
+        <v>30701</v>
       </c>
       <c r="D30" s="4">
-        <v>860</v>
+        <v>4742</v>
       </c>
       <c r="E30" s="5">
-        <v>0.087070841392649909</v>
+        <v>0.07730421278378978</v>
       </c>
     </row>
     <row r="31">
@@ -1483,16 +1486,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>35712</v>
+        <v>29528</v>
       </c>
       <c r="C31" s="4">
-        <v>34688</v>
+        <v>28668</v>
       </c>
       <c r="D31" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E31" s="5">
-        <v>0.087125570323348542</v>
+        <v>0.087062947629264753</v>
       </c>
     </row>
     <row r="32">
@@ -1500,16 +1503,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>41042</v>
+        <v>35712</v>
       </c>
       <c r="C32" s="4">
-        <v>38379</v>
+        <v>34688</v>
       </c>
       <c r="D32" s="4">
-        <v>2663</v>
+        <v>1024</v>
       </c>
       <c r="E32" s="5">
-        <v>0.080368060650525805</v>
+        <v>0.087125570323348542</v>
       </c>
     </row>
     <row r="33">
@@ -1517,16 +1520,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>48307</v>
+        <v>41042</v>
       </c>
       <c r="C33" s="4">
-        <v>44481</v>
+        <v>38379</v>
       </c>
       <c r="D33" s="4">
-        <v>3826</v>
+        <v>2663</v>
       </c>
       <c r="E33" s="5">
-        <v>0.077304924981872941</v>
+        <v>0.080375431838331957</v>
       </c>
     </row>
     <row r="34">
@@ -1534,16 +1537,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>46520</v>
+        <v>48307</v>
       </c>
       <c r="C34" s="4">
-        <v>43321</v>
+        <v>44481</v>
       </c>
       <c r="D34" s="4">
-        <v>3199</v>
+        <v>3826</v>
       </c>
       <c r="E34" s="5">
-        <v>0.078040109161012491</v>
+        <v>0.077296302492889407</v>
       </c>
     </row>
     <row r="35">
@@ -1551,16 +1554,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>41538</v>
+        <v>46523</v>
       </c>
       <c r="C35" s="4">
-        <v>37779</v>
+        <v>43324</v>
       </c>
       <c r="D35" s="4">
-        <v>3759</v>
+        <v>3199</v>
       </c>
       <c r="E35" s="5">
-        <v>0.075920304089390031</v>
+        <v>0.078057698086747465</v>
       </c>
     </row>
     <row r="36">
@@ -1568,16 +1571,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>29475</v>
+        <v>41538</v>
       </c>
       <c r="C36" s="4">
-        <v>25886</v>
+        <v>37779</v>
       </c>
       <c r="D36" s="4">
-        <v>3589</v>
+        <v>3759</v>
       </c>
       <c r="E36" s="5">
-        <v>0.076985272884781977</v>
+        <v>0.075897069699829123</v>
       </c>
     </row>
     <row r="37">
@@ -1585,16 +1588,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>26384</v>
+        <v>29475</v>
       </c>
       <c r="C37" s="4">
-        <v>25644</v>
+        <v>25886</v>
       </c>
       <c r="D37" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E37" s="5">
-        <v>0.080903556552387054</v>
+        <v>0.076996389891696757</v>
       </c>
     </row>
     <row r="38">
@@ -1602,16 +1605,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>34472</v>
+        <v>26384</v>
       </c>
       <c r="C38" s="4">
-        <v>33702</v>
+        <v>25644</v>
       </c>
       <c r="D38" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E38" s="5">
-        <v>0.075127315336427955</v>
+        <v>0.080903556552387054</v>
       </c>
     </row>
     <row r="39">
@@ -1619,16 +1622,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>40201</v>
+        <v>34472</v>
       </c>
       <c r="C39" s="4">
-        <v>38156</v>
+        <v>33702</v>
       </c>
       <c r="D39" s="4">
-        <v>2045</v>
+        <v>770</v>
       </c>
       <c r="E39" s="5">
-        <v>0.065165769935976434</v>
+        <v>0.075140860942077975</v>
       </c>
     </row>
     <row r="40">
@@ -1636,16 +1639,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>44929</v>
+        <v>40201</v>
       </c>
       <c r="C40" s="4">
-        <v>41829</v>
+        <v>38156</v>
       </c>
       <c r="D40" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E40" s="5">
-        <v>0.058829985731533314</v>
+        <v>0.065139627859440288</v>
       </c>
     </row>
     <row r="41">
@@ -1653,16 +1656,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>47667</v>
+        <v>44929</v>
       </c>
       <c r="C41" s="4">
-        <v>45123</v>
+        <v>41829</v>
       </c>
       <c r="D41" s="4">
-        <v>2544</v>
+        <v>3100</v>
       </c>
       <c r="E41" s="5">
-        <v>0.066484191138851942</v>
+        <v>0.058831600032928137</v>
       </c>
     </row>
     <row r="42">
@@ -1670,16 +1673,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>43377</v>
+        <v>47667</v>
       </c>
       <c r="C42" s="4">
-        <v>40547</v>
+        <v>45123</v>
       </c>
       <c r="D42" s="4">
-        <v>2830</v>
+        <v>2544</v>
       </c>
       <c r="E42" s="5">
-        <v>0.064205418322807184</v>
+        <v>0.066489293663178906</v>
       </c>
     </row>
     <row r="43">
@@ -1687,16 +1690,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>25526</v>
+        <v>43377</v>
       </c>
       <c r="C43" s="4">
-        <v>22386</v>
+        <v>40547</v>
       </c>
       <c r="D43" s="4">
-        <v>3140</v>
+        <v>2830</v>
       </c>
       <c r="E43" s="5">
-        <v>0.065310720701519345</v>
+        <v>0.064219512195121953</v>
       </c>
     </row>
     <row r="44">
@@ -1704,16 +1707,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>26672</v>
+        <v>25526</v>
       </c>
       <c r="C44" s="4">
-        <v>26109</v>
+        <v>22386</v>
       </c>
       <c r="D44" s="4">
-        <v>563</v>
+        <v>3140</v>
       </c>
       <c r="E44" s="5">
-        <v>0.074414199234032044</v>
+        <v>0.065310720701519345</v>
       </c>
     </row>
     <row r="45">
@@ -1721,16 +1724,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>33577</v>
+        <v>26672</v>
       </c>
       <c r="C45" s="4">
-        <v>32756</v>
+        <v>26109</v>
       </c>
       <c r="D45" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E45" s="5">
-        <v>0.067785092376300704</v>
+        <v>0.074426459079863255</v>
       </c>
     </row>
     <row r="46">
@@ -1738,16 +1741,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>39051</v>
+        <v>33577</v>
       </c>
       <c r="C46" s="4">
-        <v>37191</v>
+        <v>32756</v>
       </c>
       <c r="D46" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E46" s="5">
-        <v>0.063427800269905535</v>
+        <v>0.067790850783672432</v>
       </c>
     </row>
     <row r="47">
@@ -1755,16 +1758,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>45094</v>
+        <v>39050</v>
       </c>
       <c r="C47" s="4">
-        <v>42089</v>
+        <v>37190</v>
       </c>
       <c r="D47" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E47" s="5">
-        <v>0.059475487232633788</v>
+        <v>0.06344372939883848</v>
       </c>
     </row>
     <row r="48">
@@ -1772,16 +1775,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>45526</v>
+        <v>45094</v>
       </c>
       <c r="C48" s="4">
-        <v>43049</v>
+        <v>42089</v>
       </c>
       <c r="D48" s="4">
-        <v>2477</v>
+        <v>3005</v>
       </c>
       <c r="E48" s="5">
-        <v>0.060467284593868263</v>
+        <v>0.059477199447259328</v>
       </c>
     </row>
     <row r="49">
@@ -1789,16 +1792,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>38859</v>
+        <v>45525</v>
       </c>
       <c r="C49" s="4">
-        <v>36668</v>
+        <v>43049</v>
       </c>
       <c r="D49" s="4">
-        <v>2191</v>
+        <v>2476</v>
       </c>
       <c r="E49" s="5">
-        <v>0.059398315282791818</v>
+        <v>0.0604722595507775</v>
       </c>
     </row>
     <row r="50">
@@ -1806,16 +1809,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>23982</v>
+        <v>38859</v>
       </c>
       <c r="C50" s="4">
-        <v>21589</v>
+        <v>36668</v>
       </c>
       <c r="D50" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E50" s="5">
-        <v>0.064072392190659286</v>
+        <v>0.05939688575485548</v>
       </c>
     </row>
     <row r="51">
@@ -1823,16 +1826,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C51" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D51" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E51" s="5">
-        <v>0.070439494280553877</v>
+        <v>0.064109788842112242</v>
       </c>
     </row>
     <row r="52">
@@ -1840,16 +1843,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>30513</v>
+        <v>25467</v>
       </c>
       <c r="C52" s="4">
-        <v>30030</v>
+        <v>25050</v>
       </c>
       <c r="D52" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E52" s="5">
-        <v>0.075053727888907254</v>
+        <v>0.070393182975964433</v>
       </c>
     </row>
     <row r="53">
@@ -1857,16 +1860,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>37817</v>
+        <v>30513</v>
       </c>
       <c r="C53" s="4">
-        <v>36632</v>
+        <v>30030</v>
       </c>
       <c r="D53" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E53" s="5">
-        <v>0.061568281938325989</v>
+        <v>0.075056829923537918</v>
       </c>
     </row>
     <row r="54">
@@ -1874,16 +1877,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>40638</v>
+        <v>37817</v>
       </c>
       <c r="C54" s="4">
-        <v>38728</v>
+        <v>36632</v>
       </c>
       <c r="D54" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E54" s="5">
-        <v>0.064129348714687978</v>
+        <v>0.061559603932485288</v>
       </c>
     </row>
     <row r="55">
@@ -1891,16 +1894,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>46373</v>
+        <v>40638</v>
       </c>
       <c r="C55" s="4">
-        <v>44982</v>
+        <v>38728</v>
       </c>
       <c r="D55" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E55" s="5">
-        <v>0.063590825204323756</v>
+        <v>0.064182131936665554</v>
       </c>
     </row>
     <row r="56">
@@ -1908,16 +1911,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>36502</v>
+        <v>46373</v>
       </c>
       <c r="C56" s="4">
-        <v>34758</v>
+        <v>44982</v>
       </c>
       <c r="D56" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E56" s="5">
-        <v>0.058688791611523974</v>
+        <v>0.063546473302570863</v>
       </c>
     </row>
     <row r="57">
@@ -1925,16 +1928,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>18443</v>
+        <v>36502</v>
       </c>
       <c r="C57" s="4">
-        <v>16604</v>
+        <v>34758</v>
       </c>
       <c r="D57" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E57" s="5">
-        <v>0.061549228332535268</v>
+        <v>0.058691779078645964</v>
       </c>
     </row>
     <row r="58">
@@ -1942,16 +1945,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>23457</v>
+        <v>18443</v>
       </c>
       <c r="C58" s="4">
-        <v>23121</v>
+        <v>16604</v>
       </c>
       <c r="D58" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E58" s="5">
-        <v>0.076865671641791047</v>
+        <v>0.061549228332535268</v>
       </c>
     </row>
     <row r="59">
@@ -1959,16 +1962,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>32976</v>
+        <v>23457</v>
       </c>
       <c r="C59" s="4">
-        <v>32584</v>
+        <v>23121</v>
       </c>
       <c r="D59" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E59" s="5">
-        <v>0.0738649511732309</v>
+        <v>0.076861259399575221</v>
       </c>
     </row>
     <row r="60">
@@ -1976,16 +1979,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>34488</v>
+        <v>32976</v>
       </c>
       <c r="C60" s="4">
-        <v>33613</v>
+        <v>32584</v>
       </c>
       <c r="D60" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E60" s="5">
-        <v>0.058591357604627421</v>
+        <v>0.0738581146744412</v>
       </c>
     </row>
     <row r="61">
@@ -1993,16 +1996,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>41559</v>
+        <v>34488</v>
       </c>
       <c r="C61" s="4">
-        <v>40064</v>
+        <v>33613</v>
       </c>
       <c r="D61" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E61" s="5">
-        <v>0.061118090452261305</v>
+        <v>0.058595345038791345</v>
       </c>
     </row>
     <row r="62">
@@ -2010,16 +2013,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>42286</v>
+        <v>41559</v>
       </c>
       <c r="C62" s="4">
-        <v>41167</v>
+        <v>40064</v>
       </c>
       <c r="D62" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E62" s="5">
-        <v>0.065296854231280455</v>
+        <v>0.061116170974529697</v>
       </c>
     </row>
     <row r="63">
@@ -2027,16 +2030,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>34301</v>
+        <v>42286</v>
       </c>
       <c r="C63" s="4">
-        <v>32852</v>
+        <v>41167</v>
       </c>
       <c r="D63" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E63" s="5">
-        <v>0.06066306777905011</v>
+        <v>0.065305896363586011</v>
       </c>
     </row>
     <row r="64">
@@ -2044,16 +2047,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>21670</v>
+        <v>34301</v>
       </c>
       <c r="C64" s="4">
-        <v>20537</v>
+        <v>32852</v>
       </c>
       <c r="D64" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E64" s="5">
-        <v>0.066284687113807431</v>
+        <v>0.060669684244969185</v>
       </c>
     </row>
     <row r="65">
@@ -2061,16 +2064,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>21638</v>
+        <v>21670</v>
       </c>
       <c r="C65" s="4">
-        <v>21360</v>
+        <v>20537</v>
       </c>
       <c r="D65" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E65" s="5">
-        <v>0.067704613626624763</v>
+        <v>0.066284687113807431</v>
       </c>
     </row>
     <row r="66">
@@ -2078,16 +2081,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>32579</v>
+        <v>21638</v>
       </c>
       <c r="C66" s="4">
-        <v>32240</v>
+        <v>21360</v>
       </c>
       <c r="D66" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E66" s="5">
-        <v>0.069750816993464054</v>
+        <v>0.067707837348823921</v>
       </c>
     </row>
     <row r="67">
@@ -2095,16 +2098,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>37230</v>
+        <v>32579</v>
       </c>
       <c r="C67" s="4">
-        <v>36221</v>
+        <v>32240</v>
       </c>
       <c r="D67" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E67" s="5">
-        <v>0.056411316723525964</v>
+        <v>0.069750816993464054</v>
       </c>
     </row>
     <row r="68">
@@ -2112,16 +2115,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>42459</v>
+        <v>37230</v>
       </c>
       <c r="C68" s="4">
-        <v>41184</v>
+        <v>36221</v>
       </c>
       <c r="D68" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E68" s="5">
-        <v>0.055473565413664383</v>
+        <v>0.056415204879897991</v>
       </c>
     </row>
     <row r="69">
@@ -2129,16 +2132,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>40909</v>
+        <v>42459</v>
       </c>
       <c r="C69" s="4">
-        <v>40012</v>
+        <v>41184</v>
       </c>
       <c r="D69" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E69" s="5">
-        <v>0.050135319810284303</v>
+        <v>0.055481592961333641</v>
       </c>
     </row>
     <row r="70">
@@ -2146,16 +2149,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C70" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D70" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E70" s="5">
-        <v>0.057251801385033788</v>
+        <v>0.050136663272415456</v>
       </c>
     </row>
     <row r="71">
@@ -2163,16 +2166,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>17805</v>
+        <v>34450</v>
       </c>
       <c r="C71" s="4">
-        <v>16890</v>
+        <v>33428</v>
       </c>
       <c r="D71" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E71" s="5">
-        <v>0.056716755168907465</v>
+        <v>0.057255011916444692</v>
       </c>
     </row>
     <row r="72">
@@ -2180,16 +2183,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>18047</v>
+        <v>17805</v>
       </c>
       <c r="C72" s="4">
-        <v>17794</v>
+        <v>16890</v>
       </c>
       <c r="D72" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E72" s="5">
-        <v>0.064854848672019766</v>
+        <v>0.056725300387961884</v>
       </c>
     </row>
     <row r="73">
@@ -2197,16 +2200,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C73" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D73" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E73" s="5">
-        <v>0.078642622573025289</v>
+        <v>0.064862861378799111</v>
       </c>
     </row>
     <row r="74">
@@ -2214,16 +2217,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>32524</v>
+        <v>26991</v>
       </c>
       <c r="C74" s="4">
-        <v>31889</v>
+        <v>26698</v>
       </c>
       <c r="D74" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E74" s="5">
-        <v>0.061920034209963649</v>
+        <v>0.078642622573025289</v>
       </c>
     </row>
     <row r="75">
@@ -2231,16 +2234,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>36044</v>
+        <v>32524</v>
       </c>
       <c r="C75" s="4">
-        <v>35427</v>
+        <v>31889</v>
       </c>
       <c r="D75" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E75" s="5">
-        <v>0.060983030221080384</v>
+        <v>0.061917386470537926</v>
       </c>
     </row>
     <row r="76">
@@ -2248,16 +2251,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>40623</v>
+        <v>36044</v>
       </c>
       <c r="C76" s="4">
-        <v>39876</v>
+        <v>35427</v>
       </c>
       <c r="D76" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E76" s="5">
-        <v>0.054463480613165013</v>
+        <v>0.060991277300696464</v>
       </c>
     </row>
     <row r="77">
@@ -2265,16 +2268,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>29237</v>
+        <v>40623</v>
       </c>
       <c r="C77" s="4">
-        <v>28573</v>
+        <v>39876</v>
       </c>
       <c r="D77" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E77" s="5">
-        <v>0.054438697050188729</v>
+        <v>0.054465117677116835</v>
       </c>
     </row>
     <row r="78">
@@ -2282,16 +2285,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>14220</v>
+        <v>29237</v>
       </c>
       <c r="C78" s="4">
-        <v>13675</v>
+        <v>28573</v>
       </c>
       <c r="D78" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E78" s="5">
-        <v>0.057970282017588193</v>
+        <v>0.054438697050188729</v>
       </c>
     </row>
     <row r="79">
@@ -2299,16 +2302,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>13901</v>
+        <v>14220</v>
       </c>
       <c r="C79" s="4">
-        <v>13789</v>
+        <v>13675</v>
       </c>
       <c r="D79" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E79" s="5">
-        <v>0.066666666666666666</v>
+        <v>0.057984935038673475</v>
       </c>
     </row>
     <row r="80">
@@ -2316,16 +2319,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C80" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D80" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E80" s="5">
-        <v>0.060014461315979754</v>
+        <v>0.066666666666666666</v>
       </c>
     </row>
     <row r="81">
@@ -2333,16 +2336,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>31625</v>
+        <v>26010</v>
       </c>
       <c r="C81" s="4">
-        <v>31294</v>
+        <v>25913</v>
       </c>
       <c r="D81" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E81" s="5">
-        <v>0.053043697903510989</v>
+        <v>0.060001445817971517</v>
       </c>
     </row>
     <row r="82">
@@ -2350,16 +2353,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>36146</v>
+        <v>31625</v>
       </c>
       <c r="C82" s="4">
-        <v>35815</v>
+        <v>31294</v>
       </c>
       <c r="D82" s="4">
         <v>331</v>
       </c>
       <c r="E82" s="5">
-        <v>0.04950088882811432</v>
+        <v>0.053061568264128695</v>
       </c>
     </row>
     <row r="83">
@@ -2367,16 +2370,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>38436</v>
+        <v>36146</v>
       </c>
       <c r="C83" s="4">
-        <v>38072</v>
+        <v>35815</v>
       </c>
       <c r="D83" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E83" s="5">
-        <v>0.045729878853304547</v>
+        <v>0.049505966015932171</v>
       </c>
     </row>
     <row r="84">
@@ -2384,16 +2387,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>28553</v>
+        <v>38436</v>
       </c>
       <c r="C84" s="4">
-        <v>28179</v>
+        <v>38072</v>
       </c>
       <c r="D84" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E84" s="5">
-        <v>0.049102048171061327</v>
+        <v>0.045738108091896108</v>
       </c>
     </row>
     <row r="85">
@@ -2401,16 +2404,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>12649</v>
+        <v>28553</v>
       </c>
       <c r="C85" s="4">
-        <v>12334</v>
+        <v>28179</v>
       </c>
       <c r="D85" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E85" s="5">
-        <v>0.048516459184175562</v>
+        <v>0.049097624695955078</v>
       </c>
     </row>
     <row r="86">
@@ -2418,12 +2421,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C86" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D86" s="4">
+        <v>315</v>
+      </c>
       <c r="E86" s="5">
-        <v>0.053875352026447901</v>
+        <v>0.048514072033064355</v>
       </c>
     </row>
     <row r="87">
@@ -2431,12 +2438,12 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5">
-        <v>0.052804862606052931</v>
+        <v>0.053875352026447901</v>
       </c>
     </row>
     <row r="88">
@@ -2444,12 +2451,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.052826057205419462</v>
+        <v>0.052801519468186134</v>
       </c>
     </row>
     <row r="89">
@@ -2457,12 +2464,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.046053094852475177</v>
+        <v>0.052828467153284674</v>
       </c>
     </row>
     <row r="90">
@@ -2470,12 +2477,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.047234410317776893</v>
+        <v>0.04605471638322594</v>
       </c>
     </row>
     <row r="91">
@@ -2483,12 +2490,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.047447333459859554</v>
+        <v>0.047231270358306189</v>
       </c>
     </row>
     <row r="92">
@@ -2496,12 +2503,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.056712429742928221</v>
+        <v>0.047417201784076171</v>
       </c>
     </row>
     <row r="93">
@@ -2509,12 +2516,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.056984453589391859</v>
+        <v>0.056722882683623632</v>
       </c>
     </row>
     <row r="94">
@@ -2522,12 +2529,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.049311667795080116</v>
+        <v>0.056994226261933345</v>
       </c>
     </row>
     <row r="95">
@@ -2535,12 +2542,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.047444495355521303</v>
+        <v>0.049317232817966371</v>
       </c>
     </row>
     <row r="96">
@@ -2548,12 +2555,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.049689004462873811</v>
+        <v>0.047446471715404483</v>
       </c>
     </row>
     <row r="97">
@@ -2561,12 +2568,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.050136479151633044</v>
+        <v>0.049682021011208319</v>
       </c>
     </row>
     <row r="98">
@@ -2574,12 +2581,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.051451655864334547</v>
+        <v>0.050145918975742929</v>
       </c>
     </row>
     <row r="99">
@@ -2587,12 +2594,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.063927640656139817</v>
+        <v>0.051453940066592672</v>
       </c>
     </row>
     <row r="100">
@@ -2600,12 +2607,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.0703125</v>
+        <v>0.063947247354700198</v>
       </c>
     </row>
     <row r="101">
@@ -2613,12 +2620,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.059091837429368917</v>
+        <v>0.070210030004286328</v>
       </c>
     </row>
     <row r="102">
@@ -2626,12 +2633,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.056370728083209511</v>
+        <v>0.059091837429368917</v>
       </c>
     </row>
     <row r="103">
@@ -2639,12 +2646,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.059608641556385025</v>
+        <v>0.056383818680042726</v>
       </c>
     </row>
     <row r="104">
@@ -2652,12 +2659,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.053265400648448355</v>
+        <v>0.059606394209018247</v>
       </c>
     </row>
     <row r="105">
@@ -2665,12 +2672,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.063109797993678718</v>
+        <v>0.053267162944582301</v>
       </c>
     </row>
     <row r="106">
@@ -2678,12 +2685,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.064969318548821181</v>
+        <v>0.063101126683154707</v>
       </c>
     </row>
     <row r="107">
@@ -2691,12 +2698,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.07588575790344125</v>
+        <v>0.064983310003230321</v>
       </c>
     </row>
     <row r="108">
@@ -2704,12 +2711,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.065399411631590854</v>
+        <v>0.07588575790344125</v>
       </c>
     </row>
     <row r="109">
@@ -2717,12 +2724,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.076630363469360974</v>
+        <v>0.065399411631590854</v>
       </c>
     </row>
     <row r="110">
@@ -2730,12 +2737,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.059511413696435721</v>
+        <v>0.076647125732785024</v>
       </c>
     </row>
     <row r="111">
@@ -2743,12 +2750,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.06243686251507153</v>
+        <v>0.05951379710841443</v>
       </c>
     </row>
     <row r="112">
@@ -2756,12 +2763,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.070421587429763469</v>
+        <v>0.062461287693561532</v>
       </c>
     </row>
     <row r="113">
@@ -2769,12 +2776,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.065193253317823718</v>
+        <v>0.070440547908322951</v>
       </c>
     </row>
     <row r="114">
@@ -2782,12 +2789,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.079849188716084291</v>
+        <v>0.065193253317823718</v>
       </c>
     </row>
     <row r="115">
@@ -2795,12 +2802,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.072539166420336976</v>
+        <v>0.079849188716084291</v>
       </c>
     </row>
     <row r="116">
@@ -2808,12 +2815,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.063625499649730091</v>
+        <v>0.072547744338674391</v>
       </c>
     </row>
     <row r="117">
@@ -2821,12 +2828,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.063260796284505039</v>
+        <v>0.06363861182095458</v>
       </c>
     </row>
     <row r="118">
@@ -2834,12 +2841,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.068673857375649877</v>
+        <v>0.063267905304165414</v>
       </c>
     </row>
     <row r="119">
@@ -2847,12 +2854,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.075771859533349042</v>
+        <v>0.068681851693764312</v>
       </c>
     </row>
     <row r="120">
@@ -2860,12 +2867,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.065023182177993896</v>
+        <v>0.075789721829325793</v>
       </c>
     </row>
     <row r="121">
@@ -2873,12 +2880,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.068814164558845412</v>
+        <v>0.065030536077810452</v>
       </c>
     </row>
     <row r="122">
@@ -2886,12 +2893,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.063104811230748264</v>
+        <v>0.068824404761904767</v>
       </c>
     </row>
     <row r="123">
@@ -2899,12 +2906,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.063349917081260365</v>
+        <v>0.063104811230748264</v>
       </c>
     </row>
     <row r="124">
@@ -2912,12 +2919,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.063407895909455489</v>
+        <v>0.063352918877937828</v>
       </c>
     </row>
     <row r="125">
@@ -2925,12 +2932,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.059110425611738716</v>
+        <v>0.063427679964341427</v>
       </c>
     </row>
     <row r="126">
@@ -2938,12 +2945,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.063989078257805962</v>
+        <v>0.059112889778222447</v>
       </c>
     </row>
     <row r="127">
@@ -2951,12 +2958,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.061701880659391688</v>
+        <v>0.064003171526737734</v>
       </c>
     </row>
     <row r="128">
@@ -2964,12 +2971,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.063462233465847492</v>
+        <v>0.061705462355604576</v>
       </c>
     </row>
     <row r="129">
@@ -2977,12 +2984,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.052068988130369205</v>
+        <v>0.063462233465847492</v>
       </c>
     </row>
     <row r="130">
@@ -2990,12 +2997,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.059097764980117921</v>
+        <v>0.052075818193743031</v>
       </c>
     </row>
     <row r="131">
@@ -3003,12 +3010,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.067735359525574496</v>
+        <v>0.059105869445968184</v>
       </c>
     </row>
     <row r="132">
@@ -3016,12 +3023,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.070767017354554443</v>
+        <v>0.067735359525574496</v>
       </c>
     </row>
     <row r="133">
@@ -3029,12 +3036,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.07548233253847822</v>
+        <v>0.070786112610181681</v>
       </c>
     </row>
     <row r="134">
@@ -3042,12 +3049,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.076370355163210835</v>
+        <v>0.07548887828990157</v>
       </c>
     </row>
     <row r="135">
@@ -3055,12 +3062,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.067593058350100599</v>
+        <v>0.076386036960985629</v>
       </c>
     </row>
     <row r="136">
@@ -3068,12 +3075,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.072941302945603095</v>
+        <v>0.067593058350100599</v>
       </c>
     </row>
     <row r="137">
@@ -3081,12 +3088,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.068564100034528688</v>
+        <v>0.072937382424079544</v>
       </c>
     </row>
     <row r="138">
@@ -3094,12 +3101,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.066508216202925866</v>
+        <v>0.06856748224151539</v>
       </c>
     </row>
     <row r="139">
@@ -3107,12 +3114,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.072356763142350858</v>
+        <v>0.066513667472644561</v>
       </c>
     </row>
     <row r="140">
@@ -3120,12 +3127,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.074909297858718082</v>
+        <v>0.072368976284918562</v>
       </c>
     </row>
     <row r="141">
@@ -3133,12 +3140,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.069394452678382387</v>
+        <v>0.074917292163210136</v>
       </c>
     </row>
     <row r="142">
@@ -3146,12 +3153,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.071804187780858592</v>
+        <v>0.069401799894123872</v>
       </c>
     </row>
     <row r="143">
@@ -3159,12 +3166,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.076820243494867504</v>
+        <v>0.071811053738764577</v>
       </c>
     </row>
     <row r="144">
@@ -3172,12 +3179,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.078411405295315678</v>
+        <v>0.076823911382734908</v>
       </c>
     </row>
     <row r="145">
@@ -3185,12 +3192,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.074788851351351354</v>
+        <v>0.078407775977782923</v>
       </c>
     </row>
     <row r="146">
@@ -3198,12 +3205,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.084741423451100875</v>
+        <v>0.074833093889968727</v>
       </c>
     </row>
     <row r="147">
@@ -3211,12 +3218,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.078052780676904729</v>
+        <v>0.084745039470876887</v>
       </c>
     </row>
     <row r="148">
@@ -3224,12 +3231,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.076069446930374082</v>
+        <v>0.078055690162895597</v>
       </c>
     </row>
     <row r="149">
@@ -3237,12 +3244,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.080844093274233961</v>
+        <v>0.076072850941960896</v>
       </c>
     </row>
     <row r="150">
@@ -3250,12 +3257,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.069404014095296465</v>
+        <v>0.080847988436521315</v>
       </c>
     </row>
     <row r="151">
@@ -3263,12 +3270,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.080801320662115733</v>
+        <v>0.069407558733401431</v>
       </c>
     </row>
     <row r="152">
@@ -3276,12 +3283,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.084351702405656759</v>
+        <v>0.080804925932536145</v>
       </c>
     </row>
     <row r="153">
@@ -3289,12 +3296,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.07320138234370091</v>
+        <v>0.084335497752334121</v>
       </c>
     </row>
     <row r="154">
@@ -3302,12 +3309,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.087315914489311169</v>
+        <v>0.073212882953652789</v>
       </c>
     </row>
     <row r="155">
@@ -3315,12 +3322,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.078351091052900945</v>
+        <v>0.087311766661916299</v>
       </c>
     </row>
     <row r="156">
@@ -3328,12 +3335,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.096192174551557749</v>
+        <v>0.078365675461864209</v>
       </c>
     </row>
     <row r="157">
@@ -3341,12 +3348,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.092347136222910214</v>
+        <v>0.096187129595636439</v>
       </c>
     </row>
     <row r="158">
@@ -3354,12 +3361,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.091387773315484158</v>
+        <v>0.09234266918202487</v>
       </c>
     </row>
     <row r="159">
@@ -3367,12 +3374,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.095748089157398505</v>
+        <v>0.091395930024991079</v>
       </c>
     </row>
     <row r="160">
@@ -3380,12 +3387,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.093631810283144226</v>
+        <v>0.095752471622116447</v>
       </c>
     </row>
     <row r="161">
@@ -3393,12 +3400,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.085405848592511616</v>
+        <v>0.093627025093269284</v>
       </c>
     </row>
     <row r="162">
@@ -3406,12 +3413,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.088598177196354391</v>
+        <v>0.08541752084187508</v>
       </c>
     </row>
     <row r="163">
@@ -3419,12 +3426,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.092124308216262232</v>
+        <v>0.088609164754759093</v>
       </c>
     </row>
     <row r="164">
@@ -3432,12 +3439,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.084227497637182416</v>
+        <v>0.092139998296857706</v>
       </c>
     </row>
     <row r="165">
@@ -3445,12 +3452,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.089301714353981237</v>
+        <v>0.084232180584899369</v>
       </c>
     </row>
     <row r="166">
@@ -3458,12 +3465,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.091684163644461414</v>
+        <v>0.08930704898446834</v>
       </c>
     </row>
     <row r="167">
@@ -3471,12 +3478,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.10462928114414753</v>
+        <v>0.091689997454823105</v>
       </c>
     </row>
     <row r="168">
@@ -3484,12 +3491,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.083280793259586178</v>
+        <v>0.10464616046461604</v>
       </c>
     </row>
     <row r="169">
@@ -3497,12 +3504,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.095679830373707919</v>
+        <v>0.083299891073783175</v>
       </c>
     </row>
     <row r="170">
@@ -3510,12 +3517,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.087854392719635979</v>
+        <v>0.095669687814702919</v>
       </c>
     </row>
     <row r="171">
@@ -3523,12 +3530,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.081928131178043956</v>
+        <v>0.087846705748534426</v>
       </c>
     </row>
     <row r="172">
@@ -3536,12 +3543,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.094763092269326679</v>
+        <v>0.081937659920911843</v>
       </c>
     </row>
     <row r="173">
@@ -3549,12 +3556,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.098971946332113606</v>
+        <v>0.094774085029870656</v>
       </c>
     </row>
     <row r="174">
@@ -3562,12 +3569,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.096652553585604664</v>
+        <v>0.098994945680590252</v>
       </c>
     </row>
     <row r="175">
@@ -3575,12 +3582,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.077356656948493682</v>
+        <v>0.096652553585604664</v>
       </c>
     </row>
     <row r="176">
@@ -3588,12 +3595,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.082494075829383881</v>
+        <v>0.077371695178849148</v>
       </c>
     </row>
     <row r="177">
@@ -3601,12 +3608,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.090499347645593642</v>
+        <v>0.082506295363649826</v>
       </c>
     </row>
     <row r="178">
@@ -3614,12 +3621,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.084106509768424223</v>
+        <v>0.090510083036773423</v>
       </c>
     </row>
     <row r="179">
@@ -3627,12 +3634,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.094207138677589231</v>
+        <v>0.084106509768424223</v>
       </c>
     </row>
     <row r="180">
@@ -3640,12 +3647,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.095663356433521474</v>
+        <v>0.094234708808896686</v>
       </c>
     </row>
     <row r="181">
@@ -3653,12 +3660,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.085688888888888884</v>
+        <v>0.095663356433521474</v>
       </c>
     </row>
     <row r="182">
@@ -3666,12 +3673,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.082691663876799465</v>
+        <v>0.085678734372222551</v>
       </c>
     </row>
     <row r="183">
@@ -3679,12 +3686,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.080555555555555561</v>
+        <v>0.082680591818973026</v>
       </c>
     </row>
     <row r="184">
@@ -3692,12 +3699,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.09045441554729923</v>
+        <v>0.080572771959820474</v>
       </c>
     </row>
     <row r="185">
@@ -3705,12 +3712,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.082585674363877037</v>
+        <v>0.09045441554729923</v>
       </c>
     </row>
     <row r="186">
@@ -3718,12 +3725,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.091570081347635154</v>
+        <v>0.082591748179745531</v>
       </c>
     </row>
     <row r="187">
@@ -3731,12 +3738,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.092676468538777784</v>
+        <v>0.091570081347635154</v>
       </c>
     </row>
     <row r="188">
@@ -3744,12 +3751,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.098395579522002535</v>
+        <v>0.092676468538777784</v>
       </c>
     </row>
     <row r="189">
@@ -3757,12 +3764,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.0845547617293953</v>
+        <v>0.098408682335708098</v>
       </c>
     </row>
     <row r="190">
@@ -3770,12 +3777,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.076310483870967741</v>
+        <v>0.0845547617293953</v>
       </c>
     </row>
     <row r="191">
@@ -3783,12 +3790,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.086791881248106634</v>
+        <v>0.076318177235608423</v>
       </c>
     </row>
     <row r="192">
@@ -3796,12 +3803,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.090040701054904887</v>
+        <v>0.086805029540978643</v>
       </c>
     </row>
     <row r="193">
@@ -3809,12 +3816,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.093376413570274638</v>
+        <v>0.09002574536998588</v>
       </c>
     </row>
     <row r="194">
@@ -3822,12 +3829,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.09770009199632014</v>
+        <v>0.093386471348556654</v>
       </c>
     </row>
     <row r="195">
@@ -3835,12 +3842,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.086206896551724144</v>
+        <v>0.097736057426835998</v>
       </c>
     </row>
     <row r="196">
@@ -3848,12 +3855,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.089263051019544806</v>
+        <v>0.08619981939085461</v>
       </c>
     </row>
     <row r="197">
@@ -3861,12 +3868,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.077950276842905217</v>
+        <v>0.089270604163140976</v>
       </c>
     </row>
     <row r="198">
@@ -3874,12 +3881,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.07828326180257511</v>
+        <v>0.077958740499457113</v>
       </c>
     </row>
     <row r="199">
@@ -3887,12 +3894,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.080920564216778026</v>
+        <v>0.07828326180257511</v>
       </c>
     </row>
     <row r="200">
@@ -3900,12 +3907,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.081741491321632886</v>
+        <v>0.080929147221043704</v>
       </c>
     </row>
     <row r="201">
@@ -3913,12 +3920,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.099003395027926849</v>
+        <v>0.08174941815360745</v>
       </c>
     </row>
     <row r="202">
@@ -3926,12 +3933,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.090016366612111293</v>
+        <v>0.098992553657468244</v>
       </c>
     </row>
     <row r="203">
@@ -3939,12 +3946,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.090024552150586523</v>
       </c>
     </row>
     <row r="204">
@@ -3952,12 +3959,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.070558050032071842</v>
+        <v>0.076482987052092749</v>
       </c>
     </row>
     <row r="205">
@@ -3965,12 +3972,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.076427081357860804</v>
+        <v>0.070569366479550921</v>
       </c>
     </row>
     <row r="206">
@@ -3978,12 +3985,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.081799287410926361</v>
+        <v>0.076441578148710165</v>
       </c>
     </row>
     <row r="207">
@@ -3991,12 +3998,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081787145613774676</v>
       </c>
     </row>
     <row r="208">
@@ -4004,12 +4011,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.097267759562841533</v>
+        <v>0.087760539100454477</v>
       </c>
     </row>
     <row r="209">
@@ -4017,12 +4024,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.082893081761006293</v>
+        <v>0.097267759562841533</v>
       </c>
     </row>
     <row r="210">
@@ -4030,12 +4037,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082893081761006293</v>
       </c>
     </row>
     <row r="211">
@@ -4043,12 +4050,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.062949972309396349</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="212">
@@ -4056,12 +4063,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.055825714841470531</v>
+        <v>0.062949972309396349</v>
       </c>
     </row>
     <row r="213">
@@ -4069,12 +4076,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.061035758323057951</v>
+        <v>0.055825714841470531</v>
       </c>
     </row>
     <row r="214">
@@ -4082,12 +4089,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.070852332514907052</v>
+        <v>0.061026352288488211</v>
       </c>
     </row>
     <row r="215">
@@ -4095,12 +4102,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.068500350385423972</v>
+        <v>0.070852332514907052</v>
       </c>
     </row>
     <row r="216">
@@ -4108,12 +4115,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.067164179104477612</v>
+        <v>0.068500350385423972</v>
       </c>
     </row>
     <row r="217">
@@ -4121,12 +4128,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.071903911702645679</v>
+        <v>0.067164179104477612</v>
       </c>
     </row>
     <row r="218">
@@ -4134,12 +4141,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.071950625304531432</v>
       </c>
     </row>
     <row r="219">
@@ -4147,12 +4154,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.041343669250645997</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="220">
@@ -4160,12 +4167,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.064670658682634732</v>
+        <v>0.041374214998152935</v>
       </c>
     </row>
     <row r="221">
@@ -4173,12 +4180,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.082586125530910812</v>
+        <v>0.064670658682634732</v>
       </c>
     </row>
     <row r="222">
@@ -4186,12 +4193,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.072792362768496419</v>
+        <v>0.082586125530910812</v>
       </c>
     </row>
     <row r="223">
@@ -4199,12 +4206,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.08327810912303954</v>
+        <v>0.072809739794700401</v>
       </c>
     </row>
     <row r="224">
@@ -4212,12 +4219,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.080667838312829532</v>
+        <v>0.083259717314487627</v>
       </c>
     </row>
     <row r="225">
@@ -4225,12 +4232,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.07123834886817576</v>
+        <v>0.080696202531645569</v>
       </c>
     </row>
     <row r="226">
@@ -4238,12 +4245,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.065044949762030665</v>
+        <v>0.071285809460359756</v>
       </c>
     </row>
     <row r="227">
@@ -4251,12 +4258,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.063413014608233731</v>
+        <v>0.065079365079365084</v>
       </c>
     </row>
     <row r="228">
@@ -4264,12 +4271,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.077674897119341557</v>
+        <v>0.063413014608233731</v>
       </c>
     </row>
     <row r="229">
@@ -4277,12 +4284,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.070099757346993793</v>
+        <v>0.077674897119341557</v>
       </c>
     </row>
     <row r="230">
@@ -4290,12 +4297,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.073772791023842918</v>
+        <v>0.070099757346993793</v>
       </c>
     </row>
     <row r="231">
@@ -4303,12 +4310,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073772791023842918</v>
       </c>
     </row>
     <row r="232">
@@ -4316,12 +4323,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.080039043435822355</v>
+        <v>0.097340562871159303</v>
       </c>
     </row>
     <row r="233">
@@ -4329,12 +4336,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.11092150170648464</v>
+        <v>0.080039043435822355</v>
       </c>
     </row>
     <row r="234">
@@ -4342,12 +4349,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.12960180315552217</v>
+        <v>0.11092150170648464</v>
       </c>
     </row>
     <row r="235">
@@ -4355,12 +4362,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.087964541425161955</v>
+        <v>0.12974802557352388</v>
       </c>
     </row>
     <row r="236">
@@ -4368,12 +4375,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.10686274509803921</v>
+        <v>0.087964541425161955</v>
       </c>
     </row>
     <row r="237">
@@ -4381,12 +4388,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.11600279524807827</v>
+        <v>0.10689767898005885</v>
       </c>
     </row>
     <row r="238">
@@ -4394,12 +4401,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.10592519033432639</v>
+        <v>0.11600279524807827</v>
       </c>
     </row>
     <row r="239">
@@ -4407,12 +4414,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.10867117117117117</v>
+        <v>0.10592519033432639</v>
       </c>
     </row>
     <row r="240">
@@ -4420,12 +4427,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.089878542510121451</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="241">
@@ -4433,12 +4440,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.12877082395317424</v>
+        <v>0.089878542510121451</v>
       </c>
     </row>
     <row r="242">
@@ -4446,12 +4453,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="243">
@@ -4459,12 +4466,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="244">
@@ -4472,12 +4479,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.15947888589398024</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="245">
@@ -4485,12 +4492,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.12762520193861066</v>
+        <v>0.15947888589398024</v>
       </c>
     </row>
     <row r="246">
@@ -4498,12 +4505,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12762520193861066</v>
       </c>
     </row>
     <row r="247">
@@ -4511,12 +4518,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="248">
@@ -4524,12 +4531,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="249">
@@ -4537,12 +4544,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="250">
@@ -4550,12 +4557,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.084332368747416286</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="251">
@@ -4563,12 +4570,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.09157667386609071</v>
+        <v>0.084332368747416286</v>
       </c>
     </row>
     <row r="252">
@@ -4576,12 +4583,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.091616248919619711</v>
       </c>
     </row>
     <row r="253">
@@ -4589,12 +4596,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.12017804154302671</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="254">
@@ -4602,12 +4609,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12017804154302671</v>
       </c>
     </row>
     <row r="255">
@@ -4615,12 +4622,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="256">
@@ -4628,12 +4635,12 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>0.084720680725120234</v>
+        <v>0.082151105245793471</v>
       </c>
     </row>
     <row r="257">
@@ -4641,12 +4648,12 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>0.080794248545018835</v>
+        <v>0.084720680725120234</v>
       </c>
     </row>
     <row r="258">
@@ -4654,12 +4661,12 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>0.068212824010914053</v>
+        <v>0.080794248545018835</v>
       </c>
     </row>
     <row r="259">
@@ -4667,12 +4674,12 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068212824010914053</v>
       </c>
     </row>
     <row r="260">
@@ -4680,18 +4687,20 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="5"/>
+      <c r="E260" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -4702,7 +4711,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4713,7 +4722,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4724,7 +4733,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4735,7 +4744,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4746,7 +4755,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4757,7 +4766,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4768,7 +4777,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4779,7 +4788,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4790,7 +4799,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4801,7 +4810,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4812,7 +4821,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -4823,7 +4832,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -4834,7 +4843,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -4845,7 +4854,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -4855,7 +4864,9 @@
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B276" s="4"/>
+      <c r="B276" s="4">
+        <v>936</v>
+      </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="5"/>
@@ -4977,6 +4988,15 @@
       <c r="D289" s="4"/>
       <c r="E289" s="5"/>
     </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+  <si>
+    <t>12/16/2020</t>
+  </si>
   <si>
     <t>12/15/2020</t>
   </si>
@@ -978,24 +981,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E291"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2">
@@ -1012,13 +1015,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>34360</v>
+        <v>34110</v>
       </c>
       <c r="C3" s="4">
-        <v>32841</v>
+        <v>27387</v>
       </c>
       <c r="D3" s="4">
-        <v>1519</v>
+        <v>6723</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1027,16 +1030,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>44138</v>
+        <v>37467</v>
       </c>
       <c r="C4" s="4">
-        <v>42543</v>
+        <v>35823</v>
       </c>
       <c r="D4" s="4">
-        <v>1595</v>
+        <v>1644</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10925951272926362</v>
+        <v>0.12490661885552069</v>
       </c>
     </row>
     <row r="5">
@@ -1044,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>56591</v>
+        <v>45066</v>
       </c>
       <c r="C5" s="4">
-        <v>52980</v>
+        <v>43428</v>
       </c>
       <c r="D5" s="4">
-        <v>3611</v>
+        <v>1638</v>
       </c>
       <c r="E5" s="5">
-        <v>0.11595339716230246</v>
+        <v>0.11195186999937977</v>
       </c>
     </row>
     <row r="6">
@@ -1061,16 +1064,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>64795</v>
+        <v>57558</v>
       </c>
       <c r="C6" s="4">
-        <v>58718</v>
+        <v>53398</v>
       </c>
       <c r="D6" s="4">
-        <v>6077</v>
+        <v>4160</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10900561808169396</v>
+        <v>0.11658501179459263</v>
       </c>
     </row>
     <row r="7">
@@ -1078,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>67969</v>
+        <v>65260</v>
       </c>
       <c r="C7" s="4">
-        <v>62451</v>
+        <v>58936</v>
       </c>
       <c r="D7" s="4">
-        <v>5518</v>
+        <v>6324</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10296239389907999</v>
+        <v>0.10927463142588946</v>
       </c>
     </row>
     <row r="8">
@@ -1095,16 +1098,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>57102</v>
+        <v>67983</v>
       </c>
       <c r="C8" s="4">
-        <v>51367</v>
+        <v>62458</v>
       </c>
       <c r="D8" s="4">
-        <v>5735</v>
+        <v>5525</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10102445472571051</v>
+        <v>0.10225002334049109</v>
       </c>
     </row>
     <row r="9">
@@ -1112,16 +1115,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>47878</v>
+        <v>57096</v>
       </c>
       <c r="C9" s="4">
-        <v>39502</v>
+        <v>51361</v>
       </c>
       <c r="D9" s="4">
-        <v>8376</v>
+        <v>5735</v>
       </c>
       <c r="E9" s="5">
-        <v>0.10741045519511455</v>
+        <v>0.10021800885248068</v>
       </c>
     </row>
     <row r="10">
@@ -1129,16 +1132,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>39514</v>
+        <v>47885</v>
       </c>
       <c r="C10" s="4">
-        <v>37869</v>
+        <v>39504</v>
       </c>
       <c r="D10" s="4">
-        <v>1645</v>
+        <v>8381</v>
       </c>
       <c r="E10" s="5">
-        <v>0.12214394771381887</v>
+        <v>0.10686212944717524</v>
       </c>
     </row>
     <row r="11">
@@ -1146,16 +1149,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>50369</v>
+        <v>39514</v>
       </c>
       <c r="C11" s="4">
-        <v>48811</v>
+        <v>37869</v>
       </c>
       <c r="D11" s="4">
-        <v>1558</v>
+        <v>1645</v>
       </c>
       <c r="E11" s="5">
-        <v>0.097880825174467653</v>
+        <v>0.12198384249103847</v>
       </c>
     </row>
     <row r="12">
@@ -1163,16 +1166,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>54660</v>
+        <v>50368</v>
       </c>
       <c r="C12" s="4">
-        <v>50330</v>
+        <v>48810</v>
       </c>
       <c r="D12" s="4">
-        <v>4330</v>
+        <v>1558</v>
       </c>
       <c r="E12" s="5">
-        <v>0.10682395346932089</v>
+        <v>0.097603919467197431</v>
       </c>
     </row>
     <row r="13">
@@ -1180,16 +1183,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>61551</v>
+        <v>54662</v>
       </c>
       <c r="C13" s="4">
-        <v>55670</v>
+        <v>50331</v>
       </c>
       <c r="D13" s="4">
-        <v>5881</v>
+        <v>4331</v>
       </c>
       <c r="E13" s="5">
-        <v>0.1030428473881871</v>
+        <v>0.10671418622752038</v>
       </c>
     </row>
     <row r="14">
@@ -1197,16 +1200,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>59453</v>
+        <v>61552</v>
       </c>
       <c r="C14" s="4">
-        <v>52221</v>
+        <v>55670</v>
       </c>
       <c r="D14" s="4">
-        <v>7232</v>
+        <v>5882</v>
       </c>
       <c r="E14" s="5">
-        <v>0.10004806151874399</v>
+        <v>0.10290445805501611</v>
       </c>
     </row>
     <row r="15">
@@ -1214,16 +1217,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>51727</v>
+        <v>59448</v>
       </c>
       <c r="C15" s="4">
-        <v>46387</v>
+        <v>52217</v>
       </c>
       <c r="D15" s="4">
-        <v>5340</v>
+        <v>7231</v>
       </c>
       <c r="E15" s="5">
-        <v>0.10078759537287718</v>
+        <v>0.099983973716895713</v>
       </c>
     </row>
     <row r="16">
@@ -1231,16 +1234,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>32146</v>
+        <v>51736</v>
       </c>
       <c r="C16" s="4">
-        <v>25525</v>
+        <v>46386</v>
       </c>
       <c r="D16" s="4">
-        <v>6621</v>
+        <v>5350</v>
       </c>
       <c r="E16" s="5">
-        <v>0.10217271365893388</v>
+        <v>0.10068339934738441</v>
       </c>
     </row>
     <row r="17">
@@ -1248,16 +1251,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>24302</v>
+        <v>32147</v>
       </c>
       <c r="C17" s="4">
-        <v>22753</v>
+        <v>25525</v>
       </c>
       <c r="D17" s="4">
-        <v>1549</v>
+        <v>6622</v>
       </c>
       <c r="E17" s="5">
-        <v>0.11406072414352979</v>
+        <v>0.10207944478035701</v>
       </c>
     </row>
     <row r="18">
@@ -1265,16 +1268,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>35046</v>
+        <v>24301</v>
       </c>
       <c r="C18" s="4">
-        <v>33440</v>
+        <v>22752</v>
       </c>
       <c r="D18" s="4">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="E18" s="5">
-        <v>0.099777565935811885</v>
+        <v>0.11410704133842281</v>
       </c>
     </row>
     <row r="19">
@@ -1282,16 +1285,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>41469</v>
+        <v>35046</v>
       </c>
       <c r="C19" s="4">
-        <v>39054</v>
+        <v>33440</v>
       </c>
       <c r="D19" s="4">
-        <v>2415</v>
+        <v>1606</v>
       </c>
       <c r="E19" s="5">
-        <v>0.091350973661026222</v>
+        <v>0.099673499002358057</v>
       </c>
     </row>
     <row r="20">
@@ -1299,16 +1302,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>41454</v>
+        <v>41470</v>
       </c>
       <c r="C20" s="4">
-        <v>40418</v>
+        <v>39055</v>
       </c>
       <c r="D20" s="4">
-        <v>1036</v>
+        <v>2415</v>
       </c>
       <c r="E20" s="5">
-        <v>0.086393873329979318</v>
+        <v>0.091301178471631633</v>
       </c>
     </row>
     <row r="21">
@@ -1316,16 +1319,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>66671</v>
+        <v>41455</v>
       </c>
       <c r="C21" s="4">
-        <v>60893</v>
+        <v>40419</v>
       </c>
       <c r="D21" s="4">
-        <v>5778</v>
+        <v>1036</v>
       </c>
       <c r="E21" s="5">
-        <v>0.076475534646939847</v>
+        <v>0.086401118099231303</v>
       </c>
     </row>
     <row r="22">
@@ -1333,16 +1336,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>50645</v>
+        <v>66672</v>
       </c>
       <c r="C22" s="4">
-        <v>44422</v>
+        <v>60893</v>
       </c>
       <c r="D22" s="4">
-        <v>6223</v>
+        <v>5779</v>
       </c>
       <c r="E22" s="5">
-        <v>0.069518032667080787</v>
+        <v>0.07645628309734312</v>
       </c>
     </row>
     <row r="23">
@@ -1350,16 +1353,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>52164</v>
+        <v>50652</v>
       </c>
       <c r="C23" s="4">
-        <v>45503</v>
+        <v>44429</v>
       </c>
       <c r="D23" s="4">
-        <v>6661</v>
+        <v>6223</v>
       </c>
       <c r="E23" s="5">
-        <v>0.078768640188985675</v>
+        <v>0.069554093567251465</v>
       </c>
     </row>
     <row r="24">
@@ -1367,16 +1370,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>41525</v>
+        <v>52168</v>
       </c>
       <c r="C24" s="4">
-        <v>39951</v>
+        <v>45506</v>
       </c>
       <c r="D24" s="4">
-        <v>1574</v>
+        <v>6662</v>
       </c>
       <c r="E24" s="5">
-        <v>0.071979027774638979</v>
+        <v>0.078782210627353494</v>
       </c>
     </row>
     <row r="25">
@@ -1384,16 +1387,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>42306</v>
+        <v>41530</v>
       </c>
       <c r="C25" s="4">
-        <v>40849</v>
+        <v>39956</v>
       </c>
       <c r="D25" s="4">
-        <v>1457</v>
+        <v>1574</v>
       </c>
       <c r="E25" s="5">
-        <v>0.065628347277306542</v>
+        <v>0.071990416346458114</v>
       </c>
     </row>
     <row r="26">
@@ -1401,16 +1404,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>53424</v>
+        <v>42307</v>
       </c>
       <c r="C26" s="4">
-        <v>49288</v>
+        <v>40849</v>
       </c>
       <c r="D26" s="4">
-        <v>4136</v>
+        <v>1458</v>
       </c>
       <c r="E26" s="5">
-        <v>0.068490273803585966</v>
+        <v>0.065634047481181235</v>
       </c>
     </row>
     <row r="27">
@@ -1418,16 +1421,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>58331</v>
+        <v>53484</v>
       </c>
       <c r="C27" s="4">
-        <v>53122</v>
+        <v>49287</v>
       </c>
       <c r="D27" s="4">
-        <v>5209</v>
+        <v>4197</v>
       </c>
       <c r="E27" s="5">
-        <v>0.069049623346068331</v>
+        <v>0.068475893021180553</v>
       </c>
     </row>
     <row r="28">
@@ -1435,16 +1438,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>53846</v>
+        <v>58376</v>
       </c>
       <c r="C28" s="4">
-        <v>49837</v>
+        <v>53122</v>
       </c>
       <c r="D28" s="4">
-        <v>4009</v>
+        <v>5254</v>
       </c>
       <c r="E28" s="5">
-        <v>0.07287898115811707</v>
+        <v>0.069016881827209539</v>
       </c>
     </row>
     <row r="29">
@@ -1452,16 +1455,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>50325</v>
+        <v>53892</v>
       </c>
       <c r="C29" s="4">
-        <v>45781</v>
+        <v>49837</v>
       </c>
       <c r="D29" s="4">
-        <v>4544</v>
+        <v>4055</v>
       </c>
       <c r="E29" s="5">
-        <v>0.078980517299294589</v>
+        <v>0.072885077904423293</v>
       </c>
     </row>
     <row r="30">
@@ -1469,16 +1472,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>35443</v>
+        <v>50325</v>
       </c>
       <c r="C30" s="4">
-        <v>30701</v>
+        <v>45781</v>
       </c>
       <c r="D30" s="4">
-        <v>4742</v>
+        <v>4544</v>
       </c>
       <c r="E30" s="5">
-        <v>0.07730421278378978</v>
+        <v>0.079010375099760569</v>
       </c>
     </row>
     <row r="31">
@@ -1486,16 +1489,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>29528</v>
+        <v>35668</v>
       </c>
       <c r="C31" s="4">
-        <v>28668</v>
+        <v>30701</v>
       </c>
       <c r="D31" s="4">
-        <v>860</v>
+        <v>4967</v>
       </c>
       <c r="E31" s="5">
-        <v>0.087062947629264753</v>
+        <v>0.077315648036291013</v>
       </c>
     </row>
     <row r="32">
@@ -1503,16 +1506,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>35712</v>
+        <v>29528</v>
       </c>
       <c r="C32" s="4">
-        <v>34688</v>
+        <v>28668</v>
       </c>
       <c r="D32" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E32" s="5">
-        <v>0.087125570323348542</v>
+        <v>0.087105064247921388</v>
       </c>
     </row>
     <row r="33">
@@ -1520,16 +1523,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>41042</v>
+        <v>35712</v>
       </c>
       <c r="C33" s="4">
-        <v>38379</v>
+        <v>34688</v>
       </c>
       <c r="D33" s="4">
-        <v>2663</v>
+        <v>1024</v>
       </c>
       <c r="E33" s="5">
-        <v>0.080375431838331957</v>
+        <v>0.087149773791570753</v>
       </c>
     </row>
     <row r="34">
@@ -1537,16 +1540,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>48307</v>
+        <v>41044</v>
       </c>
       <c r="C34" s="4">
-        <v>44481</v>
+        <v>38381</v>
       </c>
       <c r="D34" s="4">
-        <v>3826</v>
+        <v>2663</v>
       </c>
       <c r="E34" s="5">
-        <v>0.077296302492889407</v>
+        <v>0.080359600036693887</v>
       </c>
     </row>
     <row r="35">
@@ -1554,16 +1557,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>46523</v>
+        <v>48318</v>
       </c>
       <c r="C35" s="4">
-        <v>43324</v>
+        <v>44492</v>
       </c>
       <c r="D35" s="4">
-        <v>3199</v>
+        <v>3826</v>
       </c>
       <c r="E35" s="5">
-        <v>0.078057698086747465</v>
+        <v>0.077300613496932513</v>
       </c>
     </row>
     <row r="36">
@@ -1571,16 +1574,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>41538</v>
+        <v>46522</v>
       </c>
       <c r="C36" s="4">
-        <v>37779</v>
+        <v>43324</v>
       </c>
       <c r="D36" s="4">
-        <v>3759</v>
+        <v>3198</v>
       </c>
       <c r="E36" s="5">
-        <v>0.075897069699829123</v>
+        <v>0.078055743370144995</v>
       </c>
     </row>
     <row r="37">
@@ -1588,16 +1591,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>29475</v>
+        <v>41538</v>
       </c>
       <c r="C37" s="4">
-        <v>25886</v>
+        <v>37779</v>
       </c>
       <c r="D37" s="4">
-        <v>3589</v>
+        <v>3759</v>
       </c>
       <c r="E37" s="5">
-        <v>0.076996389891696757</v>
+        <v>0.07590481291606091</v>
       </c>
     </row>
     <row r="38">
@@ -1605,16 +1608,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>26384</v>
+        <v>29475</v>
       </c>
       <c r="C38" s="4">
-        <v>25644</v>
+        <v>25886</v>
       </c>
       <c r="D38" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E38" s="5">
-        <v>0.080903556552387054</v>
+        <v>0.077005285809190957</v>
       </c>
     </row>
     <row r="39">
@@ -1622,16 +1625,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>34472</v>
+        <v>26386</v>
       </c>
       <c r="C39" s="4">
-        <v>33702</v>
+        <v>25646</v>
       </c>
       <c r="D39" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E39" s="5">
-        <v>0.075140860942077975</v>
+        <v>0.080895905120602615</v>
       </c>
     </row>
     <row r="40">
@@ -1639,16 +1642,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>40201</v>
+        <v>34473</v>
       </c>
       <c r="C40" s="4">
-        <v>38156</v>
+        <v>33703</v>
       </c>
       <c r="D40" s="4">
-        <v>2045</v>
+        <v>770</v>
       </c>
       <c r="E40" s="5">
-        <v>0.065139627859440288</v>
+        <v>0.075144248106743597</v>
       </c>
     </row>
     <row r="41">
@@ -1656,16 +1659,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>44929</v>
+        <v>40203</v>
       </c>
       <c r="C41" s="4">
-        <v>41829</v>
+        <v>38158</v>
       </c>
       <c r="D41" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E41" s="5">
-        <v>0.058831600032928137</v>
+        <v>0.065135711924013351</v>
       </c>
     </row>
     <row r="42">
@@ -1673,16 +1676,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>47667</v>
+        <v>44930</v>
       </c>
       <c r="C42" s="4">
-        <v>45123</v>
+        <v>41830</v>
       </c>
       <c r="D42" s="4">
-        <v>2544</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="5">
-        <v>0.066489293663178906</v>
+        <v>0.058804159920972481</v>
       </c>
     </row>
     <row r="43">
@@ -1690,16 +1693,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>43377</v>
+        <v>47667</v>
       </c>
       <c r="C43" s="4">
-        <v>40547</v>
+        <v>45123</v>
       </c>
       <c r="D43" s="4">
-        <v>2830</v>
+        <v>2544</v>
       </c>
       <c r="E43" s="5">
-        <v>0.064219512195121953</v>
+        <v>0.066526789826518606</v>
       </c>
     </row>
     <row r="44">
@@ -1707,16 +1710,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>25526</v>
+        <v>43377</v>
       </c>
       <c r="C44" s="4">
-        <v>22386</v>
+        <v>40547</v>
       </c>
       <c r="D44" s="4">
-        <v>3140</v>
+        <v>2830</v>
       </c>
       <c r="E44" s="5">
-        <v>0.065310720701519345</v>
+        <v>0.064224211527672756</v>
       </c>
     </row>
     <row r="45">
@@ -1724,16 +1727,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>26672</v>
+        <v>25526</v>
       </c>
       <c r="C45" s="4">
-        <v>26109</v>
+        <v>22386</v>
       </c>
       <c r="D45" s="4">
-        <v>563</v>
+        <v>3140</v>
       </c>
       <c r="E45" s="5">
-        <v>0.074426459079863255</v>
+        <v>0.065312709335606844</v>
       </c>
     </row>
     <row r="46">
@@ -1741,16 +1744,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>33577</v>
+        <v>26672</v>
       </c>
       <c r="C46" s="4">
-        <v>32756</v>
+        <v>26109</v>
       </c>
       <c r="D46" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E46" s="5">
-        <v>0.067790850783672432</v>
+        <v>0.074435656615587417</v>
       </c>
     </row>
     <row r="47">
@@ -1758,16 +1761,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>39050</v>
+        <v>33576</v>
       </c>
       <c r="C47" s="4">
-        <v>37190</v>
+        <v>32755</v>
       </c>
       <c r="D47" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E47" s="5">
-        <v>0.06344372939883848</v>
+        <v>0.067747686560828593</v>
       </c>
     </row>
     <row r="48">
@@ -1775,16 +1778,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>45094</v>
+        <v>39050</v>
       </c>
       <c r="C48" s="4">
-        <v>42089</v>
+        <v>37190</v>
       </c>
       <c r="D48" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E48" s="5">
-        <v>0.059477199447259328</v>
+        <v>0.063453689167974878</v>
       </c>
     </row>
     <row r="49">
@@ -1792,16 +1795,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>45525</v>
+        <v>45093</v>
       </c>
       <c r="C49" s="4">
-        <v>43049</v>
+        <v>42088</v>
       </c>
       <c r="D49" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E49" s="5">
-        <v>0.0604722595507775</v>
+        <v>0.059480624172280762</v>
       </c>
     </row>
     <row r="50">
@@ -1809,16 +1812,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>38859</v>
+        <v>45525</v>
       </c>
       <c r="C50" s="4">
-        <v>36668</v>
+        <v>43049</v>
       </c>
       <c r="D50" s="4">
-        <v>2191</v>
+        <v>2476</v>
       </c>
       <c r="E50" s="5">
-        <v>0.05939688575485548</v>
+        <v>0.060525449758666083</v>
       </c>
     </row>
     <row r="51">
@@ -1826,16 +1829,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>23982</v>
+        <v>38858</v>
       </c>
       <c r="C51" s="4">
-        <v>21589</v>
+        <v>36667</v>
       </c>
       <c r="D51" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E51" s="5">
-        <v>0.064109788842112242</v>
+        <v>0.059445019373781618</v>
       </c>
     </row>
     <row r="52">
@@ -1843,16 +1846,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C52" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D52" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E52" s="5">
-        <v>0.070393182975964433</v>
+        <v>0.064136559496188267</v>
       </c>
     </row>
     <row r="53">
@@ -1860,16 +1863,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>30513</v>
+        <v>25467</v>
       </c>
       <c r="C53" s="4">
-        <v>30030</v>
+        <v>25050</v>
       </c>
       <c r="D53" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E53" s="5">
-        <v>0.075056829923537918</v>
+        <v>0.070250231696014825</v>
       </c>
     </row>
     <row r="54">
@@ -1877,16 +1880,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>37817</v>
+        <v>30513</v>
       </c>
       <c r="C54" s="4">
-        <v>36632</v>
+        <v>30030</v>
       </c>
       <c r="D54" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E54" s="5">
-        <v>0.061559603932485288</v>
+        <v>0.075098160777020043</v>
       </c>
     </row>
     <row r="55">
@@ -1894,16 +1897,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>40638</v>
+        <v>37816</v>
       </c>
       <c r="C55" s="4">
-        <v>38728</v>
+        <v>36631</v>
       </c>
       <c r="D55" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E55" s="5">
-        <v>0.064182131936665554</v>
+        <v>0.061555265846869385</v>
       </c>
     </row>
     <row r="56">
@@ -1911,16 +1914,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>46373</v>
+        <v>40638</v>
       </c>
       <c r="C56" s="4">
-        <v>44982</v>
+        <v>38728</v>
       </c>
       <c r="D56" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E56" s="5">
-        <v>0.063546473302570863</v>
+        <v>0.064157684389003267</v>
       </c>
     </row>
     <row r="57">
@@ -1928,16 +1931,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>36502</v>
+        <v>46371</v>
       </c>
       <c r="C57" s="4">
-        <v>34758</v>
+        <v>44980</v>
       </c>
       <c r="D57" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E57" s="5">
-        <v>0.058691779078645964</v>
+        <v>0.063525130531090129</v>
       </c>
     </row>
     <row r="58">
@@ -1945,16 +1948,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>18443</v>
+        <v>36502</v>
       </c>
       <c r="C58" s="4">
-        <v>16604</v>
+        <v>34758</v>
       </c>
       <c r="D58" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E58" s="5">
-        <v>0.061549228332535268</v>
+        <v>0.058700743305162409</v>
       </c>
     </row>
     <row r="59">
@@ -1962,16 +1965,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>23457</v>
+        <v>18442</v>
       </c>
       <c r="C59" s="4">
-        <v>23121</v>
+        <v>16603</v>
       </c>
       <c r="D59" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E59" s="5">
-        <v>0.076861259399575221</v>
+        <v>0.061567370399027301</v>
       </c>
     </row>
     <row r="60">
@@ -1979,16 +1982,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>32976</v>
+        <v>23456</v>
       </c>
       <c r="C60" s="4">
-        <v>32584</v>
+        <v>23120</v>
       </c>
       <c r="D60" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E60" s="5">
-        <v>0.0738581146744412</v>
+        <v>0.076870084390607954</v>
       </c>
     </row>
     <row r="61">
@@ -1996,16 +1999,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>34488</v>
+        <v>32976</v>
       </c>
       <c r="C61" s="4">
-        <v>33613</v>
+        <v>32584</v>
       </c>
       <c r="D61" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E61" s="5">
-        <v>0.058595345038791345</v>
+        <v>0.073878627968337732</v>
       </c>
     </row>
     <row r="62">
@@ -2013,16 +2016,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>41559</v>
+        <v>34488</v>
       </c>
       <c r="C62" s="4">
-        <v>40064</v>
+        <v>33613</v>
       </c>
       <c r="D62" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E62" s="5">
-        <v>0.061116170974529697</v>
+        <v>0.058609305333378714</v>
       </c>
     </row>
     <row r="63">
@@ -2030,16 +2033,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>42286</v>
+        <v>41559</v>
       </c>
       <c r="C63" s="4">
-        <v>41167</v>
+        <v>40064</v>
       </c>
       <c r="D63" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E63" s="5">
-        <v>0.065305896363586011</v>
+        <v>0.06110395526373661</v>
       </c>
     </row>
     <row r="64">
@@ -2047,16 +2050,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>34301</v>
+        <v>42286</v>
       </c>
       <c r="C64" s="4">
-        <v>32852</v>
+        <v>41167</v>
       </c>
       <c r="D64" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E64" s="5">
-        <v>0.060669684244969185</v>
+        <v>0.06529866245742294</v>
       </c>
     </row>
     <row r="65">
@@ -2064,16 +2067,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>21670</v>
+        <v>34300</v>
       </c>
       <c r="C65" s="4">
-        <v>20537</v>
+        <v>32851</v>
       </c>
       <c r="D65" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E65" s="5">
-        <v>0.066284687113807431</v>
+        <v>0.060701917046167272</v>
       </c>
     </row>
     <row r="66">
@@ -2081,16 +2084,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>21638</v>
+        <v>21670</v>
       </c>
       <c r="C66" s="4">
-        <v>21360</v>
+        <v>20537</v>
       </c>
       <c r="D66" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E66" s="5">
-        <v>0.067707837348823921</v>
+        <v>0.066302067725501942</v>
       </c>
     </row>
     <row r="67">
@@ -2098,16 +2101,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>32579</v>
+        <v>21637</v>
       </c>
       <c r="C67" s="4">
-        <v>32240</v>
+        <v>21359</v>
       </c>
       <c r="D67" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E67" s="5">
-        <v>0.069750816993464054</v>
+        <v>0.067759458686743546</v>
       </c>
     </row>
     <row r="68">
@@ -2115,16 +2118,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>37230</v>
+        <v>32579</v>
       </c>
       <c r="C68" s="4">
-        <v>36221</v>
+        <v>32240</v>
       </c>
       <c r="D68" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E68" s="5">
-        <v>0.056415204879897991</v>
+        <v>0.06974013376218921</v>
       </c>
     </row>
     <row r="69">
@@ -2132,16 +2135,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>42459</v>
+        <v>37230</v>
       </c>
       <c r="C69" s="4">
-        <v>41184</v>
+        <v>36221</v>
       </c>
       <c r="D69" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E69" s="5">
-        <v>0.055481592961333641</v>
+        <v>0.056424927616158832</v>
       </c>
     </row>
     <row r="70">
@@ -2149,16 +2152,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>40909</v>
+        <v>42459</v>
       </c>
       <c r="C70" s="4">
-        <v>40012</v>
+        <v>41184</v>
       </c>
       <c r="D70" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E70" s="5">
-        <v>0.050136663272415456</v>
+        <v>0.055494441871236685</v>
       </c>
     </row>
     <row r="71">
@@ -2166,16 +2169,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C71" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D71" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E71" s="5">
-        <v>0.057255011916444692</v>
+        <v>0.050143381663227293</v>
       </c>
     </row>
     <row r="72">
@@ -2183,16 +2186,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>17805</v>
+        <v>34450</v>
       </c>
       <c r="C72" s="4">
-        <v>16890</v>
+        <v>33428</v>
       </c>
       <c r="D72" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E72" s="5">
-        <v>0.056725300387961884</v>
+        <v>0.057242171950775099</v>
       </c>
     </row>
     <row r="73">
@@ -2200,16 +2203,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>18047</v>
+        <v>17804</v>
       </c>
       <c r="C73" s="4">
-        <v>17794</v>
+        <v>16889</v>
       </c>
       <c r="D73" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E73" s="5">
-        <v>0.064862861378799111</v>
+        <v>0.056740260718860673</v>
       </c>
     </row>
     <row r="74">
@@ -2217,16 +2220,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C74" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D74" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E74" s="5">
-        <v>0.078642622573025289</v>
+        <v>0.064910979228486654</v>
       </c>
     </row>
     <row r="75">
@@ -2234,16 +2237,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>32524</v>
+        <v>26991</v>
       </c>
       <c r="C75" s="4">
-        <v>31889</v>
+        <v>26698</v>
       </c>
       <c r="D75" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E75" s="5">
-        <v>0.061917386470537926</v>
+        <v>0.078633561841119887</v>
       </c>
     </row>
     <row r="76">
@@ -2251,16 +2254,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>36044</v>
+        <v>32524</v>
       </c>
       <c r="C76" s="4">
-        <v>35427</v>
+        <v>31889</v>
       </c>
       <c r="D76" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E76" s="5">
-        <v>0.060991277300696464</v>
+        <v>0.061927978787101191</v>
       </c>
     </row>
     <row r="77">
@@ -2268,16 +2271,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>40623</v>
+        <v>36043</v>
       </c>
       <c r="C77" s="4">
-        <v>39876</v>
+        <v>35426</v>
       </c>
       <c r="D77" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E77" s="5">
-        <v>0.054465117677116835</v>
+        <v>0.061009841387940071</v>
       </c>
     </row>
     <row r="78">
@@ -2285,16 +2288,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>29237</v>
+        <v>40622</v>
       </c>
       <c r="C78" s="4">
-        <v>28573</v>
+        <v>39875</v>
       </c>
       <c r="D78" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E78" s="5">
-        <v>0.054438697050188729</v>
+        <v>0.054470029459508205</v>
       </c>
     </row>
     <row r="79">
@@ -2302,16 +2305,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>14220</v>
+        <v>29237</v>
       </c>
       <c r="C79" s="4">
-        <v>13675</v>
+        <v>28573</v>
       </c>
       <c r="D79" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E79" s="5">
-        <v>0.057984935038673475</v>
+        <v>0.054446308724832214</v>
       </c>
     </row>
     <row r="80">
@@ -2319,16 +2322,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>13901</v>
+        <v>14220</v>
       </c>
       <c r="C80" s="4">
-        <v>13789</v>
+        <v>13675</v>
       </c>
       <c r="D80" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E80" s="5">
-        <v>0.066666666666666666</v>
+        <v>0.057979072941414349</v>
       </c>
     </row>
     <row r="81">
@@ -2336,16 +2339,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C81" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D81" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E81" s="5">
-        <v>0.060001445817971517</v>
+        <v>0.066692743985918249</v>
       </c>
     </row>
     <row r="82">
@@ -2353,16 +2356,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>31625</v>
+        <v>26010</v>
       </c>
       <c r="C82" s="4">
-        <v>31294</v>
+        <v>25913</v>
       </c>
       <c r="D82" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E82" s="5">
-        <v>0.053061568264128695</v>
+        <v>0.060005783689994215</v>
       </c>
     </row>
     <row r="83">
@@ -2370,16 +2373,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>36146</v>
+        <v>31625</v>
       </c>
       <c r="C83" s="4">
-        <v>35815</v>
+        <v>31294</v>
       </c>
       <c r="D83" s="4">
         <v>331</v>
       </c>
       <c r="E83" s="5">
-        <v>0.049505966015932171</v>
+        <v>0.053077214709970934</v>
       </c>
     </row>
     <row r="84">
@@ -2387,16 +2390,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>38436</v>
+        <v>36145</v>
       </c>
       <c r="C84" s="4">
-        <v>38072</v>
+        <v>35814</v>
       </c>
       <c r="D84" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E84" s="5">
-        <v>0.045738108091896108</v>
+        <v>0.049511044245366891</v>
       </c>
     </row>
     <row r="85">
@@ -2404,16 +2407,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>28553</v>
+        <v>38436</v>
       </c>
       <c r="C85" s="4">
-        <v>28179</v>
+        <v>38072</v>
       </c>
       <c r="D85" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E85" s="5">
-        <v>0.049097624695955078</v>
+        <v>0.045750457504575043</v>
       </c>
     </row>
     <row r="86">
@@ -2421,16 +2424,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>12649</v>
+        <v>28553</v>
       </c>
       <c r="C86" s="4">
-        <v>12334</v>
+        <v>28179</v>
       </c>
       <c r="D86" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E86" s="5">
-        <v>0.048514072033064355</v>
+        <v>0.049099099099099097</v>
       </c>
     </row>
     <row r="87">
@@ -2438,12 +2441,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C87" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D87" s="4">
+        <v>315</v>
+      </c>
       <c r="E87" s="5">
-        <v>0.053875352026447901</v>
+        <v>0.04852123419123075</v>
       </c>
     </row>
     <row r="88">
@@ -2451,12 +2458,12 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5">
-        <v>0.052801519468186134</v>
+        <v>0.053908355795148251</v>
       </c>
     </row>
     <row r="89">
@@ -2464,12 +2471,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.052828467153284674</v>
+        <v>0.052811550151975681</v>
       </c>
     </row>
     <row r="90">
@@ -2477,12 +2484,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.04605471638322594</v>
+        <v>0.052835698316375419</v>
       </c>
     </row>
     <row r="91">
@@ -2490,12 +2497,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.047231270358306189</v>
+        <v>0.046067692741168599</v>
       </c>
     </row>
     <row r="92">
@@ -2503,12 +2510,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.047417201784076171</v>
+        <v>0.047245403464441268</v>
       </c>
     </row>
     <row r="93">
@@ -2516,12 +2523,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.056722882683623632</v>
+        <v>0.047417201784076171</v>
       </c>
     </row>
     <row r="94">
@@ -2529,12 +2536,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.056994226261933345</v>
+        <v>0.05674903190116172</v>
       </c>
     </row>
     <row r="95">
@@ -2542,12 +2549,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.049317232817966371</v>
+        <v>0.057010521500457455</v>
       </c>
     </row>
     <row r="96">
@@ -2555,12 +2562,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.047446471715404483</v>
+        <v>0.049317232817966371</v>
       </c>
     </row>
     <row r="97">
@@ -2568,12 +2575,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.049682021011208319</v>
+        <v>0.047448448239950008</v>
       </c>
     </row>
     <row r="98">
@@ -2581,12 +2588,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.050145918975742929</v>
+        <v>0.049690750632555528</v>
       </c>
     </row>
     <row r="99">
@@ -2594,12 +2601,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.051453940066592672</v>
+        <v>0.050155362355230534</v>
       </c>
     </row>
     <row r="100">
@@ -2607,12 +2614,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.063947247354700198</v>
+        <v>0.051456224471674659</v>
       </c>
     </row>
     <row r="101">
@@ -2620,12 +2627,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.070210030004286328</v>
+        <v>0.06398158803222094</v>
       </c>
     </row>
     <row r="102">
@@ -2633,12 +2640,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.059091837429368917</v>
+        <v>0.070228091236494594</v>
       </c>
     </row>
     <row r="103">
@@ -2646,12 +2653,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.056383818680042726</v>
+        <v>0.059124037872079559</v>
       </c>
     </row>
     <row r="104">
@@ -2659,12 +2666,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.059606394209018247</v>
+        <v>0.056389056621301503</v>
       </c>
     </row>
     <row r="105">
@@ -2672,12 +2679,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.053267162944582301</v>
+        <v>0.059610889073222234</v>
       </c>
     </row>
     <row r="106">
@@ -2685,12 +2692,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.063101126683154707</v>
+        <v>0.053263638468918517</v>
       </c>
     </row>
     <row r="107">
@@ -2698,12 +2705,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.064983310003230321</v>
+        <v>0.063109797993678718</v>
       </c>
     </row>
     <row r="108">
@@ -2711,12 +2718,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.07588575790344125</v>
+        <v>0.065007809554586099</v>
       </c>
     </row>
     <row r="109">
@@ -2724,12 +2731,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.065399411631590854</v>
+        <v>0.075880931179239289</v>
       </c>
     </row>
     <row r="110">
@@ -2737,12 +2744,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.076647125732785024</v>
+        <v>0.065399411631590854</v>
       </c>
     </row>
     <row r="111">
@@ -2750,12 +2757,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.05951379710841443</v>
+        <v>0.076613432509297752</v>
       </c>
     </row>
     <row r="112">
@@ -2763,12 +2770,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.062461287693561532</v>
+        <v>0.059511413696435721</v>
       </c>
     </row>
     <row r="113">
@@ -2776,12 +2783,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.070440547908322951</v>
+        <v>0.062453143844323482</v>
       </c>
     </row>
     <row r="114">
@@ -2789,12 +2796,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.065193253317823718</v>
+        <v>0.070457146704369492</v>
       </c>
     </row>
     <row r="115">
@@ -2802,12 +2809,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.079849188716084291</v>
+        <v>0.065193253317823718</v>
       </c>
     </row>
     <row r="116">
@@ -2815,12 +2822,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.072547744338674391</v>
+        <v>0.079865319865319861</v>
       </c>
     </row>
     <row r="117">
@@ -2828,12 +2835,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.06363861182095458</v>
+        <v>0.072564906262936893</v>
       </c>
     </row>
     <row r="118">
@@ -2841,12 +2848,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.063267905304165414</v>
+        <v>0.063662227353317113</v>
       </c>
     </row>
     <row r="119">
@@ -2854,12 +2861,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.068681851693764312</v>
+        <v>0.063272645538323222</v>
       </c>
     </row>
     <row r="120">
@@ -2867,12 +2874,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.075789721829325793</v>
+        <v>0.068697845915000971</v>
       </c>
     </row>
     <row r="121">
@@ -2880,12 +2887,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.065030536077810452</v>
+        <v>0.075807592548927133</v>
       </c>
     </row>
     <row r="122">
@@ -2893,12 +2900,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.068824404761904767</v>
+        <v>0.065045248868778285</v>
       </c>
     </row>
     <row r="123">
@@ -2906,12 +2913,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.063104811230748264</v>
+        <v>0.068834648013097188</v>
       </c>
     </row>
     <row r="124">
@@ -2919,12 +2926,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.063352918877937828</v>
+        <v>0.063109111974374701</v>
       </c>
     </row>
     <row r="125">
@@ -2932,12 +2939,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.063427679964341427</v>
+        <v>0.063358923324803335</v>
       </c>
     </row>
     <row r="126">
@@ -2945,12 +2952,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.059112889778222447</v>
+        <v>0.063436162624821685</v>
       </c>
     </row>
     <row r="127">
@@ -2958,12 +2965,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.064003171526737734</v>
+        <v>0.059120283510527415</v>
       </c>
     </row>
     <row r="128">
@@ -2971,12 +2978,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.061705462355604576</v>
+        <v>0.06400881057268723</v>
       </c>
     </row>
     <row r="129">
@@ -2984,12 +2991,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.063462233465847492</v>
+        <v>0.061691138065115197</v>
       </c>
     </row>
     <row r="130">
@@ -2997,12 +3004,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.052075818193743031</v>
+        <v>0.063466820876102351</v>
       </c>
     </row>
     <row r="131">
@@ -3010,12 +3017,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.059105869445968184</v>
+        <v>0.052082650049196461</v>
       </c>
     </row>
     <row r="132">
@@ -3023,12 +3030,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.067735359525574496</v>
+        <v>0.059129957960153537</v>
       </c>
     </row>
     <row r="133">
@@ -3036,12 +3043,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.070786112610181681</v>
+        <v>0.067744775496964921</v>
       </c>
     </row>
     <row r="134">
@@ -3049,12 +3056,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.07548887828990157</v>
+        <v>0.070792479985607629</v>
       </c>
     </row>
     <row r="135">
@@ -3062,12 +3069,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.076386036960985629</v>
+        <v>0.07548887828990157</v>
       </c>
     </row>
     <row r="136">
@@ -3075,12 +3082,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.067593058350100599</v>
+        <v>0.076386036960985629</v>
       </c>
     </row>
     <row r="137">
@@ -3088,12 +3095,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.072937382424079544</v>
+        <v>0.067597308683896115</v>
       </c>
     </row>
     <row r="138">
@@ -3101,12 +3108,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.06856748224151539</v>
+        <v>0.072941302945603095</v>
       </c>
     </row>
     <row r="139">
@@ -3114,12 +3121,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.066513667472644561</v>
+        <v>0.068574247656635418</v>
       </c>
     </row>
     <row r="140">
@@ -3127,12 +3134,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.072368976284918562</v>
+        <v>0.06652457269336394</v>
       </c>
     </row>
     <row r="141">
@@ -3140,12 +3147,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.074917292163210136</v>
+        <v>0.072381193551109987</v>
       </c>
     </row>
     <row r="142">
@@ -3153,12 +3160,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.069401799894123872</v>
+        <v>0.074935952177625956</v>
       </c>
     </row>
     <row r="143">
@@ -3166,12 +3173,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.071811053738764577</v>
+        <v>0.069526941026728892</v>
       </c>
     </row>
     <row r="144">
@@ -3179,12 +3186,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.076823911382734908</v>
+        <v>0.071938311221801804</v>
       </c>
     </row>
     <row r="145">
@@ -3192,12 +3199,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.078407775977782923</v>
+        <v>0.076820243494867504</v>
       </c>
     </row>
     <row r="146">
@@ -3205,12 +3212,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.074833093889968727</v>
+        <v>0.078418664938431623</v>
       </c>
     </row>
     <row r="147">
@@ -3218,12 +3225,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.084745039470876887</v>
+        <v>0.07481412639405205</v>
       </c>
     </row>
     <row r="148">
@@ -3231,12 +3238,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.078055690162895597</v>
+        <v>0.084752272436307771</v>
       </c>
     </row>
     <row r="149">
@@ -3244,12 +3251,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.076072850941960896</v>
+        <v>0.078064419922457495</v>
       </c>
     </row>
     <row r="150">
@@ -3257,12 +3264,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.080847988436521315</v>
+        <v>0.076069446930374082</v>
       </c>
     </row>
     <row r="151">
@@ -3270,12 +3277,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.069407558733401431</v>
+        <v>0.080855779887245224</v>
       </c>
     </row>
     <row r="152">
@@ -3283,12 +3290,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.080804925932536145</v>
+        <v>0.069414649095924</v>
       </c>
     </row>
     <row r="153">
@@ -3296,12 +3303,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.084335497752334121</v>
+        <v>0.080830171836643608</v>
       </c>
     </row>
     <row r="154">
@@ -3309,12 +3316,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.073212882953652789</v>
+        <v>0.084341978866474543</v>
       </c>
     </row>
     <row r="155">
@@ -3322,12 +3329,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.087311766661916299</v>
+        <v>0.073227263798860728</v>
       </c>
     </row>
     <row r="156">
@@ -3335,12 +3342,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.078365675461864209</v>
+        <v>0.087320062710817617</v>
       </c>
     </row>
     <row r="157">
@@ -3348,12 +3355,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.096187129595636439</v>
+        <v>0.07836932241250931</v>
       </c>
     </row>
     <row r="158">
@@ -3361,12 +3368,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.09234266918202487</v>
+        <v>0.096207312595079475</v>
       </c>
     </row>
     <row r="159">
@@ -3374,12 +3381,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.091395930024991079</v>
+        <v>0.092333736396614269</v>
       </c>
     </row>
     <row r="160">
@@ -3387,12 +3394,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.095752471622116447</v>
+        <v>0.091400008925782122</v>
       </c>
     </row>
     <row r="161">
@@ -3400,12 +3407,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.093627025093269284</v>
+        <v>0.095752471622116447</v>
       </c>
     </row>
     <row r="162">
@@ -3413,12 +3420,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.08541752084187508</v>
+        <v>0.093636595962177355</v>
       </c>
     </row>
     <row r="163">
@@ -3426,12 +3433,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.088609164754759093</v>
+        <v>0.085421412300683369</v>
       </c>
     </row>
     <row r="164">
@@ -3439,12 +3446,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.092139998296857706</v>
+        <v>0.088620155038759696</v>
       </c>
     </row>
     <row r="165">
@@ -3452,12 +3459,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.084232180584899369</v>
+        <v>0.09216354344122657</v>
       </c>
     </row>
     <row r="166">
@@ -3465,12 +3472,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.08930704898446834</v>
+        <v>0.084227497637182416</v>
       </c>
     </row>
     <row r="167">
@@ -3478,12 +3485,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.091689997454823105</v>
+        <v>0.089301714353981237</v>
       </c>
     </row>
     <row r="168">
@@ -3491,12 +3498,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.10464616046461604</v>
+        <v>0.091713340122199588</v>
       </c>
     </row>
     <row r="169">
@@ -3504,12 +3511,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.083299891073783175</v>
+        <v>0.10465741637087232</v>
       </c>
     </row>
     <row r="170">
@@ -3517,12 +3524,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.095669687814702919</v>
+        <v>0.083299891073783175</v>
       </c>
     </row>
     <row r="171">
@@ -3530,12 +3537,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.087846705748534426</v>
+        <v>0.095669687814702919</v>
       </c>
     </row>
     <row r="172">
@@ -3543,12 +3550,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.081937659920911843</v>
+        <v>0.087869770698407137</v>
       </c>
     </row>
     <row r="173">
@@ -3556,12 +3563,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.094774085029870656</v>
+        <v>0.081937659920911843</v>
       </c>
     </row>
     <row r="174">
@@ -3569,12 +3576,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.098994945680590252</v>
+        <v>0.094790578953474883</v>
       </c>
     </row>
     <row r="175">
@@ -3582,12 +3589,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.096652553585604664</v>
+        <v>0.09898344467034563</v>
       </c>
     </row>
     <row r="176">
@@ -3595,12 +3602,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.077371695178849148</v>
+        <v>0.096671739561966522</v>
       </c>
     </row>
     <row r="177">
@@ -3608,12 +3615,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.082506295363649826</v>
+        <v>0.077386739257242848</v>
       </c>
     </row>
     <row r="178">
@@ -3621,12 +3628,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.090510083036773423</v>
+        <v>0.08252463145418179</v>
       </c>
     </row>
     <row r="179">
@@ -3634,12 +3641,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.084106509768424223</v>
+        <v>0.090510083036773423</v>
       </c>
     </row>
     <row r="180">
@@ -3647,12 +3654,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.094234708808896686</v>
+        <v>0.084119200301772917</v>
       </c>
     </row>
     <row r="181">
@@ -3660,12 +3667,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.095663356433521474</v>
+        <v>0.094241603863320408</v>
       </c>
     </row>
     <row r="182">
@@ -3673,12 +3680,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.085678734372222551</v>
+        <v>0.095649689263518828</v>
       </c>
     </row>
     <row r="183">
@@ -3686,12 +3693,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.082680591818973026</v>
+        <v>0.085668582261982346</v>
       </c>
     </row>
     <row r="184">
@@ -3699,12 +3706,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.080572771959820474</v>
+        <v>0.082686127477236207</v>
       </c>
     </row>
     <row r="185">
@@ -3712,12 +3719,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.09045441554729923</v>
+        <v>0.080581382921876665</v>
       </c>
     </row>
     <row r="186">
@@ -3725,12 +3732,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.082591748179745531</v>
+        <v>0.090441491641663097</v>
       </c>
     </row>
     <row r="187">
@@ -3738,12 +3745,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.091570081347635154</v>
+        <v>0.082597822889085029</v>
       </c>
     </row>
     <row r="188">
@@ -3751,12 +3758,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.092676468538777784</v>
+        <v>0.091563489778289667</v>
       </c>
     </row>
     <row r="189">
@@ -3764,12 +3771,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.098408682335708098</v>
+        <v>0.092689386019931708</v>
       </c>
     </row>
     <row r="190">
@@ -3777,12 +3784,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.0845547617293953</v>
+        <v>0.098421788639541846</v>
       </c>
     </row>
     <row r="191">
@@ -3790,12 +3797,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.076318177235608423</v>
+        <v>0.084592145015105744</v>
       </c>
     </row>
     <row r="192">
@@ -3803,12 +3810,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.086805029540978643</v>
+        <v>0.076325872151643478</v>
       </c>
     </row>
     <row r="193">
@@ -3816,12 +3823,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.09002574536998588</v>
+        <v>0.086831338081527501</v>
       </c>
     </row>
     <row r="194">
@@ -3829,12 +3836,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.093386471348556654</v>
+        <v>0.090018269390466699</v>
       </c>
     </row>
     <row r="195">
@@ -3842,12 +3849,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.097736057426835998</v>
+        <v>0.09336635795821667</v>
       </c>
     </row>
     <row r="196">
@@ -3855,12 +3862,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.08619981939085461</v>
+        <v>0.097763048881524442</v>
       </c>
     </row>
     <row r="197">
@@ -3868,12 +3875,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.089270604163140976</v>
+        <v>0.086206896551724144</v>
       </c>
     </row>
     <row r="198">
@@ -3881,12 +3888,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.077958740499457113</v>
+        <v>0.089263051019544806</v>
       </c>
     </row>
     <row r="199">
@@ -3894,12 +3901,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.07828326180257511</v>
+        <v>0.077984142500271539</v>
       </c>
     </row>
     <row r="200">
@@ -3907,12 +3914,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.080929147221043704</v>
+        <v>0.078296703296703296</v>
       </c>
     </row>
     <row r="201">
@@ -3920,12 +3927,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.08174941815360745</v>
+        <v>0.080929147221043704</v>
       </c>
     </row>
     <row r="202">
@@ -3933,12 +3940,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.098992553657468244</v>
+        <v>0.08174941815360745</v>
       </c>
     </row>
     <row r="203">
@@ -3946,12 +3953,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.090024552150586523</v>
+        <v>0.099014238773274921</v>
       </c>
     </row>
     <row r="204">
@@ -3959,12 +3966,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.076482987052092749</v>
+        <v>0.090057309196761581</v>
       </c>
     </row>
     <row r="205">
@@ -3972,12 +3979,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.070569366479550921</v>
+        <v>0.076506024096385544</v>
       </c>
     </row>
     <row r="206">
@@ -3985,12 +3992,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.076441578148710165</v>
+        <v>0.070603337612323486</v>
       </c>
     </row>
     <row r="207">
@@ -3998,12 +4005,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.081787145613774676</v>
+        <v>0.076485101537293598</v>
       </c>
     </row>
     <row r="208">
@@ -4011,12 +4018,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.087760539100454477</v>
+        <v>0.081787145613774676</v>
       </c>
     </row>
     <row r="209">
@@ -4024,12 +4031,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.097267759562841533</v>
+        <v>0.087788054554005332</v>
       </c>
     </row>
     <row r="210">
@@ -4037,12 +4044,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.082893081761006293</v>
+        <v>0.097279572504250664</v>
       </c>
     </row>
     <row r="211">
@@ -4050,12 +4057,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082893081761006293</v>
       </c>
     </row>
     <row r="212">
@@ -4063,12 +4070,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.062949972309396349</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="213">
@@ -4076,12 +4083,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.055825714841470531</v>
+        <v>0.062996489931646041</v>
       </c>
     </row>
     <row r="214">
@@ -4089,12 +4096,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.061026352288488211</v>
+        <v>0.055836575875486384</v>
       </c>
     </row>
     <row r="215">
@@ -4102,12 +4109,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.070852332514907052</v>
+        <v>0.061035758323057951</v>
       </c>
     </row>
     <row r="216">
@@ -4115,12 +4122,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.068500350385423972</v>
+        <v>0.070877192982456136</v>
       </c>
     </row>
     <row r="217">
@@ -4128,12 +4135,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.067164179104477612</v>
+        <v>0.068524360322467573</v>
       </c>
     </row>
     <row r="218">
@@ -4141,12 +4148,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.071950625304531432</v>
+        <v>0.067176406335335878</v>
       </c>
     </row>
     <row r="219">
@@ -4154,12 +4161,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.071974004874086103</v>
       </c>
     </row>
     <row r="220">
@@ -4167,12 +4174,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.041374214998152935</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="221">
@@ -4180,12 +4187,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.064670658682634732</v>
+        <v>0.04138950480413895</v>
       </c>
     </row>
     <row r="222">
@@ -4193,12 +4200,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.082586125530910812</v>
+        <v>0.064655172413793108</v>
       </c>
     </row>
     <row r="223">
@@ -4206,12 +4213,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.072809739794700401</v>
+        <v>0.082625118035882905</v>
       </c>
     </row>
     <row r="224">
@@ -4219,12 +4226,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.083259717314487627</v>
+        <v>0.072809739794700401</v>
       </c>
     </row>
     <row r="225">
@@ -4232,12 +4239,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.080696202531645569</v>
+        <v>0.08327810912303954</v>
       </c>
     </row>
     <row r="226">
@@ -4245,12 +4252,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.071285809460359756</v>
+        <v>0.080738786279683381</v>
       </c>
     </row>
     <row r="227">
@@ -4258,12 +4265,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.065079365079365084</v>
+        <v>0.071357119039679895</v>
       </c>
     </row>
     <row r="228">
@@ -4271,12 +4278,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.063413014608233731</v>
+        <v>0.065079365079365084</v>
       </c>
     </row>
     <row r="229">
@@ -4284,12 +4291,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.077674897119341557</v>
+        <v>0.063434075058120223</v>
       </c>
     </row>
     <row r="230">
@@ -4297,12 +4304,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.070099757346993793</v>
+        <v>0.077674897119341557</v>
       </c>
     </row>
     <row r="231">
@@ -4310,12 +4317,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.073772791023842918</v>
+        <v>0.070099757346993793</v>
       </c>
     </row>
     <row r="232">
@@ -4323,12 +4330,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.097340562871159303</v>
+        <v>0.073814201515576758</v>
       </c>
     </row>
     <row r="233">
@@ -4336,12 +4343,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.080039043435822355</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="234">
@@ -4349,12 +4356,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.11092150170648464</v>
+        <v>0.080078125</v>
       </c>
     </row>
     <row r="235">
@@ -4362,12 +4369,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.12974802557352388</v>
+        <v>0.11092150170648464</v>
       </c>
     </row>
     <row r="236">
@@ -4375,12 +4382,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.087964541425161955</v>
+        <v>0.12974802557352388</v>
       </c>
     </row>
     <row r="237">
@@ -4388,12 +4395,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.10689767898005885</v>
+        <v>0.087994542974079132</v>
       </c>
     </row>
     <row r="238">
@@ -4401,12 +4408,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.11600279524807827</v>
+        <v>0.10689767898005885</v>
       </c>
     </row>
     <row r="239">
@@ -4414,12 +4421,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.10592519033432639</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="240">
@@ -4427,12 +4434,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.10867117117117117</v>
+        <v>0.10592519033432639</v>
       </c>
     </row>
     <row r="241">
@@ -4440,12 +4447,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.089878542510121451</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="242">
@@ -4453,12 +4460,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.12877082395317424</v>
+        <v>0.089878542510121451</v>
       </c>
     </row>
     <row r="243">
@@ -4466,12 +4473,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="244">
@@ -4479,12 +4486,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="245">
@@ -4492,12 +4499,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.15947888589398024</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="246">
@@ -4505,12 +4512,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.12762520193861066</v>
+        <v>0.15955056179775282</v>
       </c>
     </row>
     <row r="247">
@@ -4518,12 +4525,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12762520193861066</v>
       </c>
     </row>
     <row r="248">
@@ -4531,12 +4538,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="249">
@@ -4544,12 +4551,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="250">
@@ -4557,12 +4564,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="251">
@@ -4570,12 +4577,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.084332368747416286</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="252">
@@ -4583,12 +4590,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.091616248919619711</v>
+        <v>0.084367245657568243</v>
       </c>
     </row>
     <row r="253">
@@ -4596,12 +4603,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.091655858192823167</v>
       </c>
     </row>
     <row r="254">
@@ -4609,12 +4616,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.12017804154302671</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="255">
@@ -4622,12 +4629,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12017804154302671</v>
       </c>
     </row>
     <row r="256">
@@ -4635,12 +4642,12 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>0.082151105245793471</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="257">
@@ -4648,12 +4655,12 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>0.084720680725120234</v>
+        <v>0.082178217821782182</v>
       </c>
     </row>
     <row r="258">
@@ -4661,12 +4668,12 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>0.080794248545018835</v>
+        <v>0.084752035529237602</v>
       </c>
     </row>
     <row r="259">
@@ -4674,12 +4681,12 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="5">
-        <v>0.068212824010914053</v>
+        <v>0.080794248545018835</v>
       </c>
     </row>
     <row r="260">
@@ -4687,12 +4694,12 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068212824010914053</v>
       </c>
     </row>
     <row r="261">
@@ -4700,18 +4707,20 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="5"/>
+      <c r="E261" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -4722,7 +4731,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4733,7 +4742,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4744,7 +4753,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4755,7 +4764,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4766,7 +4775,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4777,7 +4786,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4788,7 +4797,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4799,7 +4808,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4810,7 +4819,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4821,7 +4830,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -4832,7 +4841,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -4843,7 +4852,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -4854,7 +4863,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -4865,7 +4874,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -4875,7 +4884,9 @@
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B277" s="4"/>
+      <c r="B277" s="4">
+        <v>936</v>
+      </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="5"/>
@@ -4997,6 +5008,15 @@
       <c r="D290" s="4"/>
       <c r="E290" s="5"/>
     </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+  <si>
+    <t>12/17/2020</t>
+  </si>
   <si>
     <t>12/16/2020</t>
   </si>
@@ -981,24 +984,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E292"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -1015,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>34110</v>
+        <v>39990</v>
       </c>
       <c r="C3" s="4">
-        <v>27387</v>
+        <v>35180</v>
       </c>
       <c r="D3" s="4">
-        <v>6723</v>
+        <v>4810</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1030,16 +1033,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>37467</v>
+        <v>36828</v>
       </c>
       <c r="C4" s="4">
-        <v>35823</v>
+        <v>29713</v>
       </c>
       <c r="D4" s="4">
-        <v>1644</v>
+        <v>7115</v>
       </c>
       <c r="E4" s="5">
-        <v>0.12490661885552069</v>
+        <v>0.11684159534958824</v>
       </c>
     </row>
     <row r="5">
@@ -1047,16 +1050,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>45066</v>
+        <v>37577</v>
       </c>
       <c r="C5" s="4">
-        <v>43428</v>
+        <v>35934</v>
       </c>
       <c r="D5" s="4">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="E5" s="5">
-        <v>0.11195186999937977</v>
+        <v>0.12838095238095237</v>
       </c>
     </row>
     <row r="6">
@@ -1064,16 +1067,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>57558</v>
+        <v>45209</v>
       </c>
       <c r="C6" s="4">
-        <v>53398</v>
+        <v>43571</v>
       </c>
       <c r="D6" s="4">
-        <v>4160</v>
+        <v>1638</v>
       </c>
       <c r="E6" s="5">
-        <v>0.11658501179459263</v>
+        <v>0.11212411533825756</v>
       </c>
     </row>
     <row r="7">
@@ -1081,16 +1084,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>65260</v>
+        <v>57744</v>
       </c>
       <c r="C7" s="4">
-        <v>58936</v>
+        <v>53485</v>
       </c>
       <c r="D7" s="4">
-        <v>6324</v>
+        <v>4259</v>
       </c>
       <c r="E7" s="5">
-        <v>0.10927463142588946</v>
+        <v>0.11680911680911681</v>
       </c>
     </row>
     <row r="8">
@@ -1098,16 +1101,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>67983</v>
+        <v>65279</v>
       </c>
       <c r="C8" s="4">
-        <v>62458</v>
+        <v>58954</v>
       </c>
       <c r="D8" s="4">
-        <v>5525</v>
+        <v>6325</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10225002334049109</v>
+        <v>0.10951315258465716</v>
       </c>
     </row>
     <row r="9">
@@ -1115,16 +1118,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>57096</v>
+        <v>67981</v>
       </c>
       <c r="C9" s="4">
-        <v>51361</v>
+        <v>62460</v>
       </c>
       <c r="D9" s="4">
-        <v>5735</v>
+        <v>5521</v>
       </c>
       <c r="E9" s="5">
-        <v>0.10021800885248068</v>
+        <v>0.101373190098085</v>
       </c>
     </row>
     <row r="10">
@@ -1132,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>47885</v>
+        <v>57103</v>
       </c>
       <c r="C10" s="4">
-        <v>39504</v>
+        <v>51365</v>
       </c>
       <c r="D10" s="4">
-        <v>8381</v>
+        <v>5738</v>
       </c>
       <c r="E10" s="5">
-        <v>0.10686212944717524</v>
+        <v>0.09998679824416648</v>
       </c>
     </row>
     <row r="11">
@@ -1149,16 +1152,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>39514</v>
+        <v>47997</v>
       </c>
       <c r="C11" s="4">
-        <v>37869</v>
+        <v>39616</v>
       </c>
       <c r="D11" s="4">
-        <v>1645</v>
+        <v>8381</v>
       </c>
       <c r="E11" s="5">
-        <v>0.12198384249103847</v>
+        <v>0.10625893979454727</v>
       </c>
     </row>
     <row r="12">
@@ -1166,16 +1169,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>50368</v>
+        <v>39516</v>
       </c>
       <c r="C12" s="4">
-        <v>48810</v>
+        <v>37871</v>
       </c>
       <c r="D12" s="4">
-        <v>1558</v>
+        <v>1645</v>
       </c>
       <c r="E12" s="5">
-        <v>0.097603919467197431</v>
+        <v>0.12208104854888324</v>
       </c>
     </row>
     <row r="13">
@@ -1183,16 +1186,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>54662</v>
+        <v>50366</v>
       </c>
       <c r="C13" s="4">
-        <v>50331</v>
+        <v>48808</v>
       </c>
       <c r="D13" s="4">
-        <v>4331</v>
+        <v>1558</v>
       </c>
       <c r="E13" s="5">
-        <v>0.10671418622752038</v>
+        <v>0.097634419577921253</v>
       </c>
     </row>
     <row r="14">
@@ -1200,16 +1203,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>61552</v>
+        <v>54662</v>
       </c>
       <c r="C14" s="4">
-        <v>55670</v>
+        <v>50331</v>
       </c>
       <c r="D14" s="4">
-        <v>5882</v>
+        <v>4331</v>
       </c>
       <c r="E14" s="5">
-        <v>0.10290445805501611</v>
+        <v>0.10672212092032207</v>
       </c>
     </row>
     <row r="15">
@@ -1217,16 +1220,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>59448</v>
+        <v>61556</v>
       </c>
       <c r="C15" s="4">
-        <v>52217</v>
+        <v>55674</v>
       </c>
       <c r="D15" s="4">
-        <v>7231</v>
+        <v>5882</v>
       </c>
       <c r="E15" s="5">
-        <v>0.099983973716895713</v>
+        <v>0.10287837376153058</v>
       </c>
     </row>
     <row r="16">
@@ -1234,16 +1237,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>51736</v>
+        <v>59449</v>
       </c>
       <c r="C16" s="4">
-        <v>46386</v>
+        <v>52217</v>
       </c>
       <c r="D16" s="4">
-        <v>5350</v>
+        <v>7232</v>
       </c>
       <c r="E16" s="5">
-        <v>0.10068339934738441</v>
+        <v>0.10000400657077607</v>
       </c>
     </row>
     <row r="17">
@@ -1251,16 +1254,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>32147</v>
+        <v>51738</v>
       </c>
       <c r="C17" s="4">
-        <v>25525</v>
+        <v>46388</v>
       </c>
       <c r="D17" s="4">
-        <v>6622</v>
+        <v>5350</v>
       </c>
       <c r="E17" s="5">
-        <v>0.10207944478035701</v>
+        <v>0.10056817016388735</v>
       </c>
     </row>
     <row r="18">
@@ -1268,16 +1271,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>24301</v>
+        <v>32152</v>
       </c>
       <c r="C18" s="4">
-        <v>22752</v>
+        <v>25530</v>
       </c>
       <c r="D18" s="4">
-        <v>1549</v>
+        <v>6622</v>
       </c>
       <c r="E18" s="5">
-        <v>0.11410704133842281</v>
+        <v>0.10212396824562325</v>
       </c>
     </row>
     <row r="19">
@@ -1285,16 +1288,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>35046</v>
+        <v>24304</v>
       </c>
       <c r="C19" s="4">
-        <v>33440</v>
+        <v>22755</v>
       </c>
       <c r="D19" s="4">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="E19" s="5">
-        <v>0.099673499002358057</v>
+        <v>0.11410704133842281</v>
       </c>
     </row>
     <row r="20">
@@ -1302,16 +1305,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>41470</v>
+        <v>35054</v>
       </c>
       <c r="C20" s="4">
-        <v>39055</v>
+        <v>33448</v>
       </c>
       <c r="D20" s="4">
-        <v>2415</v>
+        <v>1606</v>
       </c>
       <c r="E20" s="5">
-        <v>0.091301178471631633</v>
+        <v>0.09964638679844047</v>
       </c>
     </row>
     <row r="21">
@@ -1319,16 +1322,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>41455</v>
+        <v>41477</v>
       </c>
       <c r="C21" s="4">
-        <v>40419</v>
+        <v>39062</v>
       </c>
       <c r="D21" s="4">
-        <v>1036</v>
+        <v>2415</v>
       </c>
       <c r="E21" s="5">
-        <v>0.086401118099231303</v>
+        <v>0.091259718172983478</v>
       </c>
     </row>
     <row r="22">
@@ -1336,16 +1339,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>66672</v>
+        <v>41466</v>
       </c>
       <c r="C22" s="4">
-        <v>60893</v>
+        <v>40430</v>
       </c>
       <c r="D22" s="4">
-        <v>5779</v>
+        <v>1036</v>
       </c>
       <c r="E22" s="5">
-        <v>0.07645628309734312</v>
+        <v>0.086427692651828661</v>
       </c>
     </row>
     <row r="23">
@@ -1353,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>50652</v>
+        <v>66699</v>
       </c>
       <c r="C23" s="4">
-        <v>44429</v>
+        <v>60920</v>
       </c>
       <c r="D23" s="4">
-        <v>6223</v>
+        <v>5779</v>
       </c>
       <c r="E23" s="5">
-        <v>0.069554093567251465</v>
+        <v>0.076468448808874337</v>
       </c>
     </row>
     <row r="24">
@@ -1370,16 +1373,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>52168</v>
+        <v>50655</v>
       </c>
       <c r="C24" s="4">
-        <v>45506</v>
+        <v>44432</v>
       </c>
       <c r="D24" s="4">
-        <v>6662</v>
+        <v>6223</v>
       </c>
       <c r="E24" s="5">
-        <v>0.078782210627353494</v>
+        <v>0.069541384980814913</v>
       </c>
     </row>
     <row r="25">
@@ -1387,16 +1390,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>41530</v>
+        <v>52168</v>
       </c>
       <c r="C25" s="4">
-        <v>39956</v>
+        <v>45506</v>
       </c>
       <c r="D25" s="4">
-        <v>1574</v>
+        <v>6662</v>
       </c>
       <c r="E25" s="5">
-        <v>0.071990416346458114</v>
+        <v>0.078786088754338041</v>
       </c>
     </row>
     <row r="26">
@@ -1404,16 +1407,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>42307</v>
+        <v>41542</v>
       </c>
       <c r="C26" s="4">
-        <v>40849</v>
+        <v>39968</v>
       </c>
       <c r="D26" s="4">
-        <v>1458</v>
+        <v>1574</v>
       </c>
       <c r="E26" s="5">
-        <v>0.065634047481181235</v>
+        <v>0.071988789186990032</v>
       </c>
     </row>
     <row r="27">
@@ -1421,16 +1424,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>53484</v>
+        <v>42306</v>
       </c>
       <c r="C27" s="4">
-        <v>49287</v>
+        <v>40848</v>
       </c>
       <c r="D27" s="4">
-        <v>4197</v>
+        <v>1458</v>
       </c>
       <c r="E27" s="5">
-        <v>0.068475893021180553</v>
+        <v>0.065628347277306542</v>
       </c>
     </row>
     <row r="28">
@@ -1438,16 +1441,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>58376</v>
+        <v>53483</v>
       </c>
       <c r="C28" s="4">
-        <v>53122</v>
+        <v>49286</v>
       </c>
       <c r="D28" s="4">
-        <v>5254</v>
+        <v>4197</v>
       </c>
       <c r="E28" s="5">
-        <v>0.069016881827209539</v>
+        <v>0.068502139051468472</v>
       </c>
     </row>
     <row r="29">
@@ -1455,16 +1458,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>53892</v>
+        <v>58408</v>
       </c>
       <c r="C29" s="4">
-        <v>49837</v>
+        <v>53154</v>
       </c>
       <c r="D29" s="4">
-        <v>4055</v>
+        <v>5254</v>
       </c>
       <c r="E29" s="5">
-        <v>0.072885077904423293</v>
+        <v>0.069022842091627443</v>
       </c>
     </row>
     <row r="30">
@@ -1472,16 +1475,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>50325</v>
+        <v>53895</v>
       </c>
       <c r="C30" s="4">
-        <v>45781</v>
+        <v>49840</v>
       </c>
       <c r="D30" s="4">
-        <v>4544</v>
+        <v>4055</v>
       </c>
       <c r="E30" s="5">
-        <v>0.079010375099760569</v>
+        <v>0.072845882033161183</v>
       </c>
     </row>
     <row r="31">
@@ -1489,16 +1492,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>35668</v>
+        <v>50325</v>
       </c>
       <c r="C31" s="4">
-        <v>30701</v>
+        <v>45781</v>
       </c>
       <c r="D31" s="4">
-        <v>4967</v>
+        <v>4544</v>
       </c>
       <c r="E31" s="5">
-        <v>0.077315648036291013</v>
+        <v>0.079000987249774196</v>
       </c>
     </row>
     <row r="32">
@@ -1506,16 +1509,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>29528</v>
+        <v>35668</v>
       </c>
       <c r="C32" s="4">
-        <v>28668</v>
+        <v>30701</v>
       </c>
       <c r="D32" s="4">
-        <v>860</v>
+        <v>4967</v>
       </c>
       <c r="E32" s="5">
-        <v>0.087105064247921388</v>
+        <v>0.077321239308865933</v>
       </c>
     </row>
     <row r="33">
@@ -1523,16 +1526,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>35712</v>
+        <v>29528</v>
       </c>
       <c r="C33" s="4">
-        <v>34688</v>
+        <v>28668</v>
       </c>
       <c r="D33" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E33" s="5">
-        <v>0.087149773791570753</v>
+        <v>0.08709716427837233</v>
       </c>
     </row>
     <row r="34">
@@ -1540,16 +1543,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>41044</v>
+        <v>35712</v>
       </c>
       <c r="C34" s="4">
-        <v>38381</v>
+        <v>34688</v>
       </c>
       <c r="D34" s="4">
-        <v>2663</v>
+        <v>1024</v>
       </c>
       <c r="E34" s="5">
-        <v>0.080359600036693887</v>
+        <v>0.087153232527681868</v>
       </c>
     </row>
     <row r="35">
@@ -1557,16 +1560,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>48318</v>
+        <v>41044</v>
       </c>
       <c r="C35" s="4">
-        <v>44492</v>
+        <v>38381</v>
       </c>
       <c r="D35" s="4">
-        <v>3826</v>
+        <v>2663</v>
       </c>
       <c r="E35" s="5">
-        <v>0.077300613496932513</v>
+        <v>0.080359600036693887</v>
       </c>
     </row>
     <row r="36">
@@ -1574,16 +1577,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>46522</v>
+        <v>48355</v>
       </c>
       <c r="C36" s="4">
-        <v>43324</v>
+        <v>44529</v>
       </c>
       <c r="D36" s="4">
-        <v>3198</v>
+        <v>3826</v>
       </c>
       <c r="E36" s="5">
-        <v>0.078055743370144995</v>
+        <v>0.077281347612672913</v>
       </c>
     </row>
     <row r="37">
@@ -1591,16 +1594,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>41538</v>
+        <v>46521</v>
       </c>
       <c r="C37" s="4">
-        <v>37779</v>
+        <v>43323</v>
       </c>
       <c r="D37" s="4">
-        <v>3759</v>
+        <v>3198</v>
       </c>
       <c r="E37" s="5">
-        <v>0.07590481291606091</v>
+        <v>0.077986130235585704</v>
       </c>
     </row>
     <row r="38">
@@ -1608,16 +1611,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>29475</v>
+        <v>41538</v>
       </c>
       <c r="C38" s="4">
-        <v>25886</v>
+        <v>37779</v>
       </c>
       <c r="D38" s="4">
-        <v>3589</v>
+        <v>3759</v>
       </c>
       <c r="E38" s="5">
-        <v>0.077005285809190957</v>
+        <v>0.075888985255854288</v>
       </c>
     </row>
     <row r="39">
@@ -1625,16 +1628,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>26386</v>
+        <v>29474</v>
       </c>
       <c r="C39" s="4">
-        <v>25646</v>
+        <v>25885</v>
       </c>
       <c r="D39" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E39" s="5">
-        <v>0.080895905120602615</v>
+        <v>0.077027495378927918</v>
       </c>
     </row>
     <row r="40">
@@ -1642,16 +1645,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>34473</v>
+        <v>26393</v>
       </c>
       <c r="C40" s="4">
-        <v>33703</v>
+        <v>25653</v>
       </c>
       <c r="D40" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E40" s="5">
-        <v>0.075144248106743597</v>
+        <v>0.080905630134241638</v>
       </c>
     </row>
     <row r="41">
@@ -1659,16 +1662,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>40203</v>
+        <v>34476</v>
       </c>
       <c r="C41" s="4">
-        <v>38158</v>
+        <v>33706</v>
       </c>
       <c r="D41" s="4">
-        <v>2045</v>
+        <v>770</v>
       </c>
       <c r="E41" s="5">
-        <v>0.065135711924013351</v>
+        <v>0.075048425604756969</v>
       </c>
     </row>
     <row r="42">
@@ -1676,16 +1679,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>44930</v>
+        <v>40216</v>
       </c>
       <c r="C42" s="4">
-        <v>41830</v>
+        <v>38171</v>
       </c>
       <c r="D42" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E42" s="5">
-        <v>0.058804159920972481</v>
+        <v>0.065139627859440288</v>
       </c>
     </row>
     <row r="43">
@@ -1693,16 +1696,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>47667</v>
+        <v>44934</v>
       </c>
       <c r="C43" s="4">
-        <v>45123</v>
+        <v>41834</v>
       </c>
       <c r="D43" s="4">
-        <v>2544</v>
+        <v>3100</v>
       </c>
       <c r="E43" s="5">
-        <v>0.066526789826518606</v>
+        <v>0.058709111829488798</v>
       </c>
     </row>
     <row r="44">
@@ -1710,16 +1713,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>43377</v>
+        <v>47668</v>
       </c>
       <c r="C44" s="4">
-        <v>40547</v>
+        <v>45124</v>
       </c>
       <c r="D44" s="4">
-        <v>2830</v>
+        <v>2544</v>
       </c>
       <c r="E44" s="5">
-        <v>0.064224211527672756</v>
+        <v>0.066526789826518606</v>
       </c>
     </row>
     <row r="45">
@@ -1727,16 +1730,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>25526</v>
+        <v>43377</v>
       </c>
       <c r="C45" s="4">
-        <v>22386</v>
+        <v>40547</v>
       </c>
       <c r="D45" s="4">
-        <v>3140</v>
+        <v>2830</v>
       </c>
       <c r="E45" s="5">
-        <v>0.065312709335606844</v>
+        <v>0.064258888943081502</v>
       </c>
     </row>
     <row r="46">
@@ -1744,16 +1747,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>26672</v>
+        <v>25526</v>
       </c>
       <c r="C46" s="4">
-        <v>26109</v>
+        <v>22386</v>
       </c>
       <c r="D46" s="4">
-        <v>563</v>
+        <v>3140</v>
       </c>
       <c r="E46" s="5">
-        <v>0.074435656615587417</v>
+        <v>0.065239210438273673</v>
       </c>
     </row>
     <row r="47">
@@ -1761,16 +1764,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>33576</v>
+        <v>26672</v>
       </c>
       <c r="C47" s="4">
-        <v>32755</v>
+        <v>26109</v>
       </c>
       <c r="D47" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E47" s="5">
-        <v>0.067747686560828593</v>
+        <v>0.074432590517774025</v>
       </c>
     </row>
     <row r="48">
@@ -1778,16 +1781,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>39050</v>
+        <v>33572</v>
       </c>
       <c r="C48" s="4">
-        <v>37190</v>
+        <v>32751</v>
       </c>
       <c r="D48" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E48" s="5">
-        <v>0.063453689167974878</v>
+        <v>0.067686700008476736</v>
       </c>
     </row>
     <row r="49">
@@ -1795,16 +1798,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>45093</v>
+        <v>39050</v>
       </c>
       <c r="C49" s="4">
-        <v>42088</v>
+        <v>37190</v>
       </c>
       <c r="D49" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E49" s="5">
-        <v>0.059480624172280762</v>
+        <v>0.063457673951268528</v>
       </c>
     </row>
     <row r="50">
@@ -1812,16 +1815,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>45525</v>
+        <v>45092</v>
       </c>
       <c r="C50" s="4">
-        <v>43049</v>
+        <v>42087</v>
       </c>
       <c r="D50" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E50" s="5">
-        <v>0.060525449758666083</v>
+        <v>0.05943814403315871</v>
       </c>
     </row>
     <row r="51">
@@ -1829,16 +1832,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>38858</v>
+        <v>45525</v>
       </c>
       <c r="C51" s="4">
-        <v>36667</v>
+        <v>43049</v>
       </c>
       <c r="D51" s="4">
-        <v>2191</v>
+        <v>2476</v>
       </c>
       <c r="E51" s="5">
-        <v>0.059445019373781618</v>
+        <v>0.060587800268426965</v>
       </c>
     </row>
     <row r="52">
@@ -1846,16 +1849,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>23982</v>
+        <v>38858</v>
       </c>
       <c r="C52" s="4">
-        <v>21589</v>
+        <v>36667</v>
       </c>
       <c r="D52" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E52" s="5">
-        <v>0.064136559496188267</v>
+        <v>0.059314692718610132</v>
       </c>
     </row>
     <row r="53">
@@ -1863,16 +1866,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C53" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D53" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E53" s="5">
-        <v>0.070250231696014825</v>
+        <v>0.064145063979314465</v>
       </c>
     </row>
     <row r="54">
@@ -1880,16 +1883,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>30513</v>
+        <v>25467</v>
       </c>
       <c r="C54" s="4">
-        <v>30030</v>
+        <v>25050</v>
       </c>
       <c r="D54" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E54" s="5">
-        <v>0.075098160777020043</v>
+        <v>0.070263255469039679</v>
       </c>
     </row>
     <row r="55">
@@ -1897,16 +1900,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>37816</v>
+        <v>30512</v>
       </c>
       <c r="C55" s="4">
-        <v>36631</v>
+        <v>30029</v>
       </c>
       <c r="D55" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E55" s="5">
-        <v>0.061555265846869385</v>
+        <v>0.075091953547960485</v>
       </c>
     </row>
     <row r="56">
@@ -1914,16 +1917,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>40638</v>
+        <v>37816</v>
       </c>
       <c r="C56" s="4">
-        <v>38728</v>
+        <v>36631</v>
       </c>
       <c r="D56" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E56" s="5">
-        <v>0.064157684389003267</v>
+        <v>0.061548759864712511</v>
       </c>
     </row>
     <row r="57">
@@ -1931,16 +1934,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>46371</v>
+        <v>40636</v>
       </c>
       <c r="C57" s="4">
-        <v>44980</v>
+        <v>38726</v>
       </c>
       <c r="D57" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E57" s="5">
-        <v>0.063525130531090129</v>
+        <v>0.064146031361627415</v>
       </c>
     </row>
     <row r="58">
@@ -1948,16 +1951,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>36502</v>
+        <v>46371</v>
       </c>
       <c r="C58" s="4">
-        <v>34758</v>
+        <v>44980</v>
       </c>
       <c r="D58" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E58" s="5">
-        <v>0.058700743305162409</v>
+        <v>0.063538534578256048</v>
       </c>
     </row>
     <row r="59">
@@ -1965,16 +1968,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>18442</v>
+        <v>36502</v>
       </c>
       <c r="C59" s="4">
-        <v>16603</v>
+        <v>34758</v>
       </c>
       <c r="D59" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E59" s="5">
-        <v>0.061567370399027301</v>
+        <v>0.058696260849644924</v>
       </c>
     </row>
     <row r="60">
@@ -1982,16 +1985,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>23456</v>
+        <v>18442</v>
       </c>
       <c r="C60" s="4">
-        <v>23120</v>
+        <v>16603</v>
       </c>
       <c r="D60" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E60" s="5">
-        <v>0.076870084390607954</v>
+        <v>0.061578714622641507</v>
       </c>
     </row>
     <row r="61">
@@ -1999,16 +2002,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>32976</v>
+        <v>23455</v>
       </c>
       <c r="C61" s="4">
-        <v>32584</v>
+        <v>23119</v>
       </c>
       <c r="D61" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E61" s="5">
-        <v>0.073878627968337732</v>
+        <v>0.076874497646113218</v>
       </c>
     </row>
     <row r="62">
@@ -2016,16 +2019,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>34488</v>
+        <v>32975</v>
       </c>
       <c r="C62" s="4">
-        <v>33613</v>
+        <v>32583</v>
       </c>
       <c r="D62" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E62" s="5">
-        <v>0.058609305333378714</v>
+        <v>0.073902574550842745</v>
       </c>
     </row>
     <row r="63">
@@ -2033,16 +2036,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>41559</v>
+        <v>34488</v>
       </c>
       <c r="C63" s="4">
-        <v>40064</v>
+        <v>33613</v>
       </c>
       <c r="D63" s="4">
-        <v>1495</v>
+        <v>875</v>
       </c>
       <c r="E63" s="5">
-        <v>0.06110395526373661</v>
+        <v>0.058629260154574238</v>
       </c>
     </row>
     <row r="64">
@@ -2050,16 +2053,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>42286</v>
+        <v>41559</v>
       </c>
       <c r="C64" s="4">
-        <v>41167</v>
+        <v>40064</v>
       </c>
       <c r="D64" s="4">
-        <v>1119</v>
+        <v>1495</v>
       </c>
       <c r="E64" s="5">
-        <v>0.06529866245742294</v>
+        <v>0.061100116231583575</v>
       </c>
     </row>
     <row r="65">
@@ -2067,16 +2070,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>34300</v>
+        <v>42286</v>
       </c>
       <c r="C65" s="4">
-        <v>32851</v>
+        <v>41167</v>
       </c>
       <c r="D65" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E65" s="5">
-        <v>0.060701917046167272</v>
+        <v>0.065289622328054048</v>
       </c>
     </row>
     <row r="66">
@@ -2084,16 +2087,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>21670</v>
+        <v>34298</v>
       </c>
       <c r="C66" s="4">
-        <v>20537</v>
+        <v>32849</v>
       </c>
       <c r="D66" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E66" s="5">
-        <v>0.066302067725501942</v>
+        <v>0.060710194730813287</v>
       </c>
     </row>
     <row r="67">
@@ -2101,16 +2104,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>21637</v>
+        <v>21670</v>
       </c>
       <c r="C67" s="4">
-        <v>21359</v>
+        <v>20537</v>
       </c>
       <c r="D67" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E67" s="5">
-        <v>0.067759458686743546</v>
+        <v>0.066274539187771611</v>
       </c>
     </row>
     <row r="68">
@@ -2118,16 +2121,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>32579</v>
+        <v>21637</v>
       </c>
       <c r="C68" s="4">
-        <v>32240</v>
+        <v>21359</v>
       </c>
       <c r="D68" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E68" s="5">
-        <v>0.06974013376218921</v>
+        <v>0.067730412002857829</v>
       </c>
     </row>
     <row r="69">
@@ -2135,16 +2138,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>37230</v>
+        <v>32579</v>
       </c>
       <c r="C69" s="4">
-        <v>36221</v>
+        <v>32240</v>
       </c>
       <c r="D69" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E69" s="5">
-        <v>0.056424927616158832</v>
+        <v>0.069757940966193449</v>
       </c>
     </row>
     <row r="70">
@@ -2152,16 +2155,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>42459</v>
+        <v>37229</v>
       </c>
       <c r="C70" s="4">
-        <v>41184</v>
+        <v>36220</v>
       </c>
       <c r="D70" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E70" s="5">
-        <v>0.055494441871236685</v>
+        <v>0.056436599324277734</v>
       </c>
     </row>
     <row r="71">
@@ -2169,16 +2172,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>40909</v>
+        <v>42458</v>
       </c>
       <c r="C71" s="4">
-        <v>40012</v>
+        <v>41183</v>
       </c>
       <c r="D71" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E71" s="5">
-        <v>0.050143381663227293</v>
+        <v>0.055478381663483241</v>
       </c>
     </row>
     <row r="72">
@@ -2186,16 +2189,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C72" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D72" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E72" s="5">
-        <v>0.057242171950775099</v>
+        <v>0.050125985096231167</v>
       </c>
     </row>
     <row r="73">
@@ -2203,16 +2206,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>17804</v>
+        <v>34450</v>
       </c>
       <c r="C73" s="4">
-        <v>16889</v>
+        <v>33428</v>
       </c>
       <c r="D73" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E73" s="5">
-        <v>0.056740260718860673</v>
+        <v>0.057246986262966079</v>
       </c>
     </row>
     <row r="74">
@@ -2220,16 +2223,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>18047</v>
+        <v>17803</v>
       </c>
       <c r="C74" s="4">
-        <v>17794</v>
+        <v>16888</v>
       </c>
       <c r="D74" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E74" s="5">
-        <v>0.064910979228486654</v>
+        <v>0.056786494837591378</v>
       </c>
     </row>
     <row r="75">
@@ -2237,16 +2240,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C75" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D75" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E75" s="5">
-        <v>0.078633561841119887</v>
+        <v>0.064874884151992579</v>
       </c>
     </row>
     <row r="76">
@@ -2254,16 +2257,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>32524</v>
+        <v>26991</v>
       </c>
       <c r="C76" s="4">
-        <v>31889</v>
+        <v>26698</v>
       </c>
       <c r="D76" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E76" s="5">
-        <v>0.061927978787101191</v>
+        <v>0.078647153722055774</v>
       </c>
     </row>
     <row r="77">
@@ -2271,16 +2274,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>36043</v>
+        <v>32524</v>
       </c>
       <c r="C77" s="4">
-        <v>35426</v>
+        <v>31889</v>
       </c>
       <c r="D77" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E77" s="5">
-        <v>0.061009841387940071</v>
+        <v>0.061951824755059254</v>
       </c>
     </row>
     <row r="78">
@@ -2288,16 +2291,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>40622</v>
+        <v>36043</v>
       </c>
       <c r="C78" s="4">
-        <v>39875</v>
+        <v>35426</v>
       </c>
       <c r="D78" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E78" s="5">
-        <v>0.054470029459508205</v>
+        <v>0.06101190476190476</v>
       </c>
     </row>
     <row r="79">
@@ -2305,16 +2308,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>29237</v>
+        <v>40622</v>
       </c>
       <c r="C79" s="4">
-        <v>28573</v>
+        <v>39875</v>
       </c>
       <c r="D79" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E79" s="5">
-        <v>0.054446308724832214</v>
+        <v>0.054496240601503758</v>
       </c>
     </row>
     <row r="80">
@@ -2322,16 +2325,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>14220</v>
+        <v>29238</v>
       </c>
       <c r="C80" s="4">
-        <v>13675</v>
+        <v>28574</v>
       </c>
       <c r="D80" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E80" s="5">
-        <v>0.057979072941414349</v>
+        <v>0.054450876751405322</v>
       </c>
     </row>
     <row r="81">
@@ -2339,16 +2342,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>13901</v>
+        <v>14220</v>
       </c>
       <c r="C81" s="4">
-        <v>13789</v>
+        <v>13675</v>
       </c>
       <c r="D81" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E81" s="5">
-        <v>0.066692743985918249</v>
+        <v>0.057984935038673475</v>
       </c>
     </row>
     <row r="82">
@@ -2356,16 +2359,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C82" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D82" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E82" s="5">
-        <v>0.060005783689994215</v>
+        <v>0.066714490674318505</v>
       </c>
     </row>
     <row r="83">
@@ -2373,16 +2376,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>31625</v>
+        <v>26010</v>
       </c>
       <c r="C83" s="4">
-        <v>31294</v>
+        <v>25913</v>
       </c>
       <c r="D83" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E83" s="5">
-        <v>0.053077214709970934</v>
+        <v>0.060018801070214768</v>
       </c>
     </row>
     <row r="84">
@@ -2390,16 +2393,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>36145</v>
+        <v>31623</v>
       </c>
       <c r="C84" s="4">
-        <v>35814</v>
+        <v>31292</v>
       </c>
       <c r="D84" s="4">
         <v>331</v>
       </c>
       <c r="E84" s="5">
-        <v>0.049511044245366891</v>
+        <v>0.053079450669812116</v>
       </c>
     </row>
     <row r="85">
@@ -2407,16 +2410,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>38436</v>
+        <v>36142</v>
       </c>
       <c r="C85" s="4">
-        <v>38072</v>
+        <v>35811</v>
       </c>
       <c r="D85" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E85" s="5">
-        <v>0.045750457504575043</v>
+        <v>0.049527979203721442</v>
       </c>
     </row>
     <row r="86">
@@ -2424,16 +2427,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>28553</v>
+        <v>38436</v>
       </c>
       <c r="C86" s="4">
-        <v>28179</v>
+        <v>38072</v>
       </c>
       <c r="D86" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E86" s="5">
-        <v>0.049099099099099097</v>
+        <v>0.045771054685155174</v>
       </c>
     </row>
     <row r="87">
@@ -2441,16 +2444,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>12649</v>
+        <v>28553</v>
       </c>
       <c r="C87" s="4">
-        <v>12334</v>
+        <v>28179</v>
       </c>
       <c r="D87" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E87" s="5">
-        <v>0.04852123419123075</v>
+        <v>0.049106472443309804</v>
       </c>
     </row>
     <row r="88">
@@ -2458,12 +2461,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C88" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D88" s="4">
+        <v>315</v>
+      </c>
       <c r="E88" s="5">
-        <v>0.053908355795148251</v>
+        <v>0.048533175822012206</v>
       </c>
     </row>
     <row r="89">
@@ -2471,12 +2478,12 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5">
-        <v>0.052811550151975681</v>
+        <v>0.053901751806933726</v>
       </c>
     </row>
     <row r="90">
@@ -2484,12 +2491,12 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5">
-        <v>0.052835698316375419</v>
+        <v>0.052808206167289304</v>
       </c>
     </row>
     <row r="91">
@@ -2497,12 +2504,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5">
-        <v>0.046067692741168599</v>
+        <v>0.052850166582994844</v>
       </c>
     </row>
     <row r="92">
@@ -2510,12 +2517,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.047245403464441268</v>
+        <v>0.046087170994679537</v>
       </c>
     </row>
     <row r="93">
@@ -2523,12 +2530,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.047417201784076171</v>
+        <v>0.047250116379596994</v>
       </c>
     </row>
     <row r="94">
@@ -2536,12 +2543,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.05674903190116172</v>
+        <v>0.047417201784076171</v>
       </c>
     </row>
     <row r="95">
@@ -2549,12 +2556,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.057010521500457455</v>
+        <v>0.056751648149001889</v>
       </c>
     </row>
     <row r="96">
@@ -2562,12 +2569,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.049317232817966371</v>
+        <v>0.057010521500457455</v>
       </c>
     </row>
     <row r="97">
@@ -2575,12 +2582,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.047448448239950008</v>
+        <v>0.04933672029353655</v>
       </c>
     </row>
     <row r="98">
@@ -2588,12 +2595,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.049690750632555528</v>
+        <v>0.04745437880176652</v>
       </c>
     </row>
     <row r="99">
@@ -2601,12 +2608,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.050155362355230534</v>
+        <v>0.049711714245535089</v>
       </c>
     </row>
     <row r="100">
@@ -2614,12 +2621,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.051456224471674659</v>
+        <v>0.050158510938824195</v>
       </c>
     </row>
     <row r="101">
@@ -2627,12 +2634,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.06398158803222094</v>
+        <v>0.051440237894456529</v>
       </c>
     </row>
     <row r="102">
@@ -2640,12 +2647,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.070228091236494594</v>
+        <v>0.064001227841301508</v>
       </c>
     </row>
     <row r="103">
@@ -2653,12 +2660,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.059124037872079559</v>
+        <v>0.070258213948700354</v>
       </c>
     </row>
     <row r="104">
@@ -2666,12 +2673,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.056389056621301503</v>
+        <v>0.059120010897697861</v>
       </c>
     </row>
     <row r="105">
@@ -2679,12 +2686,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.059610889073222234</v>
+        <v>0.056399535423925666</v>
       </c>
     </row>
     <row r="106">
@@ -2692,12 +2699,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.053263638468918517</v>
+        <v>0.059615384615384619</v>
       </c>
     </row>
     <row r="107">
@@ -2705,12 +2712,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.063109797993678718</v>
+        <v>0.053284792321694523</v>
       </c>
     </row>
     <row r="108">
@@ -2718,12 +2725,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.065007809554586099</v>
+        <v>0.063140166357324529</v>
       </c>
     </row>
     <row r="109">
@@ -2731,12 +2738,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.075880931179239289</v>
+        <v>0.065072182719241548</v>
       </c>
     </row>
     <row r="110">
@@ -2744,12 +2751,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.065399411631590854</v>
+        <v>0.07588575790344125</v>
       </c>
     </row>
     <row r="111">
@@ -2757,12 +2764,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.076613432509297752</v>
+        <v>0.065380917368927094</v>
       </c>
     </row>
     <row r="112">
@@ -2770,12 +2777,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.059511413696435721</v>
+        <v>0.076636904761904767</v>
       </c>
     </row>
     <row r="113">
@@ -2783,12 +2790,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.062453143844323482</v>
+        <v>0.059518564505146795</v>
       </c>
     </row>
     <row r="114">
@@ -2796,12 +2803,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.070457146704369492</v>
+        <v>0.062477581765415596</v>
       </c>
     </row>
     <row r="115">
@@ -2809,12 +2816,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.065193253317823718</v>
+        <v>0.070461890654457307</v>
       </c>
     </row>
     <row r="116">
@@ -2822,12 +2829,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.079865319865319861</v>
+        <v>0.065217391304347824</v>
       </c>
     </row>
     <row r="117">
@@ -2835,12 +2842,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.072564906262936893</v>
+        <v>0.079865319865319861</v>
       </c>
     </row>
     <row r="118">
@@ -2848,12 +2855,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.063662227353317113</v>
+        <v>0.072577783035608662</v>
       </c>
     </row>
     <row r="119">
@@ -2861,12 +2868,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.063272645538323222</v>
+        <v>0.063656977942692233</v>
       </c>
     </row>
     <row r="120">
@@ -2874,12 +2881,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.068697845915000971</v>
+        <v>0.063310592997975854</v>
       </c>
     </row>
     <row r="121">
@@ -2887,12 +2894,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.075807592548927133</v>
+        <v>0.068716515257395763</v>
       </c>
     </row>
     <row r="122">
@@ -2900,12 +2907,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.065045248868778285</v>
+        <v>0.075825471698113212</v>
       </c>
     </row>
     <row r="123">
@@ -2913,12 +2920,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.068834648013097188</v>
+        <v>0.06504157004694304</v>
       </c>
     </row>
     <row r="124">
@@ -2926,12 +2933,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.063109111974374701</v>
+        <v>0.068875651526433351</v>
       </c>
     </row>
     <row r="125">
@@ -2939,12 +2946,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.063358923324803335</v>
+        <v>0.06313062448868284</v>
       </c>
     </row>
     <row r="126">
@@ -2952,12 +2959,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.063436162624821685</v>
+        <v>0.063370935633709352</v>
       </c>
     </row>
     <row r="127">
@@ -2965,12 +2972,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.059120283510527415</v>
+        <v>0.063447476368824682</v>
       </c>
     </row>
     <row r="128">
@@ -2978,12 +2985,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.06400881057268723</v>
+        <v>0.059100570999874966</v>
       </c>
     </row>
     <row r="129">
@@ -2991,12 +2998,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.061691138065115197</v>
+        <v>0.064020091646105046</v>
       </c>
     </row>
     <row r="130">
@@ -3004,12 +3011,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.063466820876102351</v>
+        <v>0.061691138065115197</v>
       </c>
     </row>
     <row r="131">
@@ -3017,12 +3024,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.052082650049196461</v>
+        <v>0.063471408949613242</v>
       </c>
     </row>
     <row r="132">
@@ -3030,12 +3037,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.059129957960153537</v>
+        <v>0.052086066649173444</v>
       </c>
     </row>
     <row r="133">
@@ -3043,12 +3050,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.067744775496964921</v>
+        <v>0.059140767824497259</v>
       </c>
     </row>
     <row r="134">
@@ -3056,12 +3063,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.070792479985607629</v>
+        <v>0.067741636548975998</v>
       </c>
     </row>
     <row r="135">
@@ -3069,12 +3076,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.07548887828990157</v>
+        <v>0.070789296154711037</v>
       </c>
     </row>
     <row r="136">
@@ -3082,12 +3089,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.076386036960985629</v>
+        <v>0.075492151591362411</v>
       </c>
     </row>
     <row r="137">
@@ -3095,12 +3102,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.067597308683896115</v>
+        <v>0.076406956045460772</v>
       </c>
     </row>
     <row r="138">
@@ -3108,12 +3115,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.072941302945603095</v>
+        <v>0.067614315365746275</v>
       </c>
     </row>
     <row r="139">
@@ -3121,12 +3128,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.068574247656635418</v>
+        <v>0.07294914525319858</v>
       </c>
     </row>
     <row r="140">
@@ -3134,12 +3141,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.06652457269336394</v>
+        <v>0.068528294439784893</v>
       </c>
     </row>
     <row r="141">
@@ -3147,12 +3154,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.072381193551109987</v>
+        <v>0.066535481490591561</v>
       </c>
     </row>
     <row r="142">
@@ -3160,12 +3167,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.074935952177625956</v>
+        <v>0.072338988773529164</v>
       </c>
     </row>
     <row r="143">
@@ -3173,12 +3180,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.069526941026728892</v>
+        <v>0.074976869973667357</v>
       </c>
     </row>
     <row r="144">
@@ -3186,12 +3193,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.071938311221801804</v>
+        <v>0.069541693189051554</v>
       </c>
     </row>
     <row r="145">
@@ -3199,12 +3206,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.076820243494867504</v>
+        <v>0.071914526638558837</v>
       </c>
     </row>
     <row r="146">
@@ -3212,12 +3219,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.078418664938431623</v>
+        <v>0.07681657595722334</v>
       </c>
     </row>
     <row r="147">
@@ -3225,12 +3232,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.07481412639405205</v>
+        <v>0.078415034948849702</v>
       </c>
     </row>
     <row r="148">
@@ -3238,12 +3245,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.084752272436307771</v>
+        <v>0.074829931972789115</v>
       </c>
     </row>
     <row r="149">
@@ -3251,12 +3258,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.078064419922457495</v>
+        <v>0.084752272436307771</v>
       </c>
     </row>
     <row r="150">
@@ -3264,12 +3271,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.076069446930374082</v>
+        <v>0.078081885300917295</v>
       </c>
     </row>
     <row r="151">
@@ -3277,12 +3284,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.080855779887245224</v>
+        <v>0.076072850941960896</v>
       </c>
     </row>
     <row r="152">
@@ -3290,12 +3297,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.069414649095924</v>
+        <v>0.080956052428681577</v>
       </c>
     </row>
     <row r="153">
@@ -3303,12 +3310,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.080830171836643608</v>
+        <v>0.069428834167773582</v>
       </c>
     </row>
     <row r="154">
@@ -3316,12 +3323,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.084341978866474543</v>
+        <v>0.080830171836643608</v>
       </c>
     </row>
     <row r="155">
@@ -3329,12 +3336,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.073227263798860728</v>
+        <v>0.084329017634177258</v>
       </c>
     </row>
     <row r="156">
@@ -3342,12 +3349,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.087320062710817617</v>
+        <v>0.07322438717787555</v>
       </c>
     </row>
     <row r="157">
@@ -3355,12 +3362,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.07836932241250931</v>
+        <v>0.087311766661916299</v>
       </c>
     </row>
     <row r="158">
@@ -3368,12 +3375,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.096207312595079475</v>
+        <v>0.078376617332216333</v>
       </c>
     </row>
     <row r="159">
@@ -3381,12 +3388,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.092333736396614269</v>
+        <v>0.096217407271391844</v>
       </c>
     </row>
     <row r="160">
@@ -3394,12 +3401,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.091400008925782122</v>
+        <v>0.092338202573280445</v>
       </c>
     </row>
     <row r="161">
@@ -3407,12 +3414,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.095752471622116447</v>
+        <v>0.091400008925782122</v>
       </c>
     </row>
     <row r="162">
@@ -3420,12 +3427,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.093636595962177355</v>
+        <v>0.095770005493499358</v>
       </c>
     </row>
     <row r="163">
@@ -3433,12 +3440,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.085421412300683369</v>
+        <v>0.093655743571392058</v>
       </c>
     </row>
     <row r="164">
@@ -3446,12 +3453,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.088620155038759696</v>
+        <v>0.08543308880484804</v>
       </c>
     </row>
     <row r="165">
@@ -3459,12 +3466,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.09216354344122657</v>
+        <v>0.088625651203175393</v>
       </c>
     </row>
     <row r="166">
@@ -3472,12 +3479,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.084227497637182416</v>
+        <v>0.09216354344122657</v>
       </c>
     </row>
     <row r="167">
@@ -3485,12 +3492,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.089301714353981237</v>
+        <v>0.084246232552966691</v>
       </c>
     </row>
     <row r="168">
@@ -3498,12 +3505,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.091713340122199588</v>
+        <v>0.08931238425234482</v>
       </c>
     </row>
     <row r="169">
@@ -3511,12 +3518,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.10465741637087232</v>
+        <v>0.091713340122199588</v>
       </c>
     </row>
     <row r="170">
@@ -3524,12 +3531,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.083299891073783175</v>
+        <v>0.10467430477112581</v>
       </c>
     </row>
     <row r="171">
@@ -3537,12 +3544,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.095669687814702919</v>
+        <v>0.083318997648947762</v>
       </c>
     </row>
     <row r="172">
@@ -3550,12 +3557,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.087869770698407137</v>
+        <v>0.095664617341530631</v>
       </c>
     </row>
     <row r="173">
@@ -3563,12 +3570,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.081937659920911843</v>
+        <v>0.087869770698407137</v>
       </c>
     </row>
     <row r="174">
@@ -3576,12 +3583,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.094790578953474883</v>
+        <v>0.08195195719188042</v>
       </c>
     </row>
     <row r="175">
@@ -3589,12 +3596,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.09898344467034563</v>
+        <v>0.094870604618776833</v>
       </c>
     </row>
     <row r="176">
@@ -3602,12 +3609,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.096671739561966522</v>
+        <v>0.098960450664963118</v>
       </c>
     </row>
     <row r="177">
@@ -3615,12 +3622,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.077386739257242848</v>
+        <v>0.096652553585604664</v>
       </c>
     </row>
     <row r="178">
@@ -3628,12 +3635,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.08252463145418179</v>
+        <v>0.077426885415991187</v>
       </c>
     </row>
     <row r="179">
@@ -3641,12 +3648,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.090510083036773423</v>
+        <v>0.082462769504334302</v>
       </c>
     </row>
     <row r="180">
@@ -3654,12 +3661,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.084119200301772917</v>
+        <v>0.090531561461794016</v>
       </c>
     </row>
     <row r="181">
@@ -3667,12 +3674,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.094241603863320408</v>
+        <v>0.084138243284032604</v>
       </c>
     </row>
     <row r="182">
@@ -3680,12 +3687,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.095649689263518828</v>
+        <v>0.094255396999634103</v>
       </c>
     </row>
     <row r="183">
@@ -3693,12 +3700,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.085668582261982346</v>
+        <v>0.095670191483280931</v>
       </c>
     </row>
     <row r="184">
@@ -3706,12 +3713,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.082686127477236207</v>
+        <v>0.085658432557312952</v>
       </c>
     </row>
     <row r="185">
@@ -3719,12 +3726,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.080581382921876665</v>
+        <v>0.082702738900421888</v>
       </c>
     </row>
     <row r="186">
@@ -3732,12 +3739,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.090441491641663097</v>
+        <v>0.080581382921876665</v>
       </c>
     </row>
     <row r="187">
@@ -3745,12 +3752,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.082597822889085029</v>
+        <v>0.090428571428571428</v>
       </c>
     </row>
     <row r="188">
@@ -3758,12 +3765,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.091563489778289667</v>
+        <v>0.082573529411764712</v>
       </c>
     </row>
     <row r="189">
@@ -3771,12 +3778,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.092689386019931708</v>
+        <v>0.091570081347635154</v>
       </c>
     </row>
     <row r="190">
@@ -3784,12 +3791,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.098421788639541846</v>
+        <v>0.092689386019931708</v>
       </c>
     </row>
     <row r="191">
@@ -3797,12 +3804,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.084592145015105744</v>
+        <v>0.098441454642333823</v>
       </c>
     </row>
     <row r="192">
@@ -3810,12 +3817,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.076325872151643478</v>
+        <v>0.084610849056603779</v>
       </c>
     </row>
     <row r="193">
@@ -3823,12 +3830,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.086831338081527501</v>
+        <v>0.076364370019166752</v>
       </c>
     </row>
     <row r="194">
@@ -3836,12 +3843,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.090018269390466699</v>
+        <v>0.086870830806549421</v>
       </c>
     </row>
     <row r="195">
@@ -3849,12 +3856,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.09336635795821667</v>
+        <v>0.090040701054904887</v>
       </c>
     </row>
     <row r="196">
@@ -3862,12 +3869,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.097763048881524442</v>
+        <v>0.09336635795821667</v>
       </c>
     </row>
     <row r="197">
@@ -3875,12 +3882,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.086206896551724144</v>
+        <v>0.097763048881524442</v>
       </c>
     </row>
     <row r="198">
@@ -3888,12 +3895,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.089263051019544806</v>
+        <v>0.086221054360321889</v>
       </c>
     </row>
     <row r="199">
@@ -3901,12 +3908,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.077984142500271539</v>
+        <v>0.089300829524293218</v>
       </c>
     </row>
     <row r="200">
@@ -3914,12 +3921,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.078296703296703296</v>
+        <v>0.078001086366105379</v>
       </c>
     </row>
     <row r="201">
@@ -3927,12 +3934,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.080929147221043704</v>
+        <v>0.078310149407521901</v>
       </c>
     </row>
     <row r="202">
@@ -3940,12 +3947,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.08174941815360745</v>
+        <v>0.080929147221043704</v>
       </c>
     </row>
     <row r="203">
@@ -3953,12 +3960,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.099014238773274921</v>
+        <v>0.081765276430649861</v>
       </c>
     </row>
     <row r="204">
@@ -3966,12 +3973,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.090057309196761581</v>
+        <v>0.099035933391761616</v>
       </c>
     </row>
     <row r="205">
@@ -3979,12 +3986,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.076506024096385544</v>
+        <v>0.090081892629663332</v>
       </c>
     </row>
     <row r="206">
@@ -3992,12 +3999,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.070603337612323486</v>
+        <v>0.076517547823467383</v>
       </c>
     </row>
     <row r="207">
@@ -4005,12 +4012,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.076485101537293598</v>
+        <v>0.070626003210272875</v>
       </c>
     </row>
     <row r="208">
@@ -4018,12 +4025,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.081787145613774676</v>
+        <v>0.076485101537293598</v>
       </c>
     </row>
     <row r="209">
@@ -4031,12 +4038,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.087788054554005332</v>
+        <v>0.081884381037301238</v>
       </c>
     </row>
     <row r="210">
@@ -4044,12 +4051,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.097279572504250664</v>
+        <v>0.087788054554005332</v>
       </c>
     </row>
     <row r="211">
@@ -4057,12 +4064,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.082893081761006293</v>
+        <v>0.097291388315316404</v>
       </c>
     </row>
     <row r="212">
@@ -4070,12 +4077,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.073159579332418845</v>
+        <v>0.082903509875456027</v>
       </c>
     </row>
     <row r="213">
@@ -4083,12 +4090,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.062996489931646041</v>
+        <v>0.07316794329484394</v>
       </c>
     </row>
     <row r="214">
@@ -4096,12 +4103,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.055836575875486384</v>
+        <v>0.0629848540820096</v>
       </c>
     </row>
     <row r="215">
@@ -4109,12 +4116,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.061035758323057951</v>
+        <v>0.055847441136407862</v>
       </c>
     </row>
     <row r="216">
@@ -4122,12 +4129,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.070877192982456136</v>
+        <v>0.061007548913880758</v>
       </c>
     </row>
     <row r="217">
@@ -4135,12 +4142,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.068524360322467573</v>
+        <v>0.070902070902070902</v>
       </c>
     </row>
     <row r="218">
@@ -4148,12 +4155,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.067176406335335878</v>
+        <v>0.068524360322467573</v>
       </c>
     </row>
     <row r="219">
@@ -4161,12 +4168,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.071974004874086103</v>
+        <v>0.067188638018936639</v>
       </c>
     </row>
     <row r="220">
@@ -4174,12 +4181,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.071962313190383362</v>
       </c>
     </row>
     <row r="221">
@@ -4187,12 +4194,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.04138950480413895</v>
+        <v>0.054418372441337994</v>
       </c>
     </row>
     <row r="222">
@@ -4200,12 +4207,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.064655172413793108</v>
+        <v>0.04138950480413895</v>
       </c>
     </row>
     <row r="223">
@@ -4213,12 +4220,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.082625118035882905</v>
+        <v>0.064655172413793108</v>
       </c>
     </row>
     <row r="224">
@@ -4226,12 +4233,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.072809739794700401</v>
+        <v>0.082644628099173556</v>
       </c>
     </row>
     <row r="225">
@@ -4239,12 +4246,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.08327810912303954</v>
+        <v>0.072809739794700401</v>
       </c>
     </row>
     <row r="226">
@@ -4252,12 +4259,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.080738786279683381</v>
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="227">
@@ -4265,12 +4272,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.071357119039679895</v>
+        <v>0.080752990851513023</v>
       </c>
     </row>
     <row r="228">
@@ -4278,12 +4285,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.065079365079365084</v>
+        <v>0.071380920613742502</v>
       </c>
     </row>
     <row r="229">
@@ -4291,12 +4298,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.063434075058120223</v>
+        <v>0.065079365079365084</v>
       </c>
     </row>
     <row r="230">
@@ -4304,12 +4311,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.077674897119341557</v>
+        <v>0.063455149501661132</v>
       </c>
     </row>
     <row r="231">
@@ -4317,12 +4324,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.070099757346993793</v>
+        <v>0.077674897119341557</v>
       </c>
     </row>
     <row r="232">
@@ -4330,12 +4337,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.073814201515576758</v>
+        <v>0.070080862533692723</v>
       </c>
     </row>
     <row r="233">
@@ -4343,12 +4350,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.073814201515576758</v>
       </c>
     </row>
     <row r="234">
@@ -4356,12 +4363,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.080078125</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="235">
@@ -4369,12 +4376,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.11092150170648464</v>
+        <v>0.080117244748412308</v>
       </c>
     </row>
     <row r="236">
@@ -4382,12 +4389,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.12974802557352388</v>
+        <v>0.11092150170648464</v>
       </c>
     </row>
     <row r="237">
@@ -4395,12 +4402,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.087994542974079132</v>
+        <v>0.12969924812030076</v>
       </c>
     </row>
     <row r="238">
@@ -4408,12 +4415,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.10689767898005885</v>
+        <v>0.088084670536019122</v>
       </c>
     </row>
     <row r="239">
@@ -4421,12 +4428,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.10689767898005885</v>
       </c>
     </row>
     <row r="240">
@@ -4434,12 +4441,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.10592519033432639</v>
+        <v>0.11596227733147049</v>
       </c>
     </row>
     <row r="241">
@@ -4447,12 +4454,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.10867117117117117</v>
+        <v>0.10592519033432639</v>
       </c>
     </row>
     <row r="242">
@@ -4460,12 +4467,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.089878542510121451</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="243">
@@ -4473,12 +4480,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.12877082395317424</v>
+        <v>0.089951377633711513</v>
       </c>
     </row>
     <row r="244">
@@ -4486,12 +4493,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.12871287128712872</v>
       </c>
     </row>
     <row r="245">
@@ -4499,12 +4506,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.13953488372093023</v>
       </c>
     </row>
     <row r="246">
@@ -4512,12 +4519,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>3576</v>
+        <v>2472</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.15955056179775282</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="247">
@@ -4525,12 +4532,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>3215</v>
+        <v>3576</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.12762520193861066</v>
+        <v>0.15955056179775282</v>
       </c>
     </row>
     <row r="248">
@@ -4538,12 +4545,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>1968</v>
+        <v>3215</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.12762520193861066</v>
       </c>
     </row>
     <row r="249">
@@ -4551,12 +4558,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>1298</v>
+        <v>1968</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="250">
@@ -4564,12 +4571,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>7999</v>
+        <v>1298</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.11203814064362336</v>
       </c>
     </row>
     <row r="251">
@@ -4577,12 +4584,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>2875</v>
+        <v>7999</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1631728045325779</v>
       </c>
     </row>
     <row r="252">
@@ -4590,12 +4597,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>10211</v>
+        <v>2875</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.084367245657568243</v>
+        <v>0.11273209549071618</v>
       </c>
     </row>
     <row r="253">
@@ -4603,12 +4610,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>5262</v>
+        <v>10211</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.091655858192823167</v>
+        <v>0.084402151427389327</v>
       </c>
     </row>
     <row r="254">
@@ -4616,12 +4623,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>2431</v>
+        <v>5262</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.091695501730103809</v>
       </c>
     </row>
     <row r="255">
@@ -4629,12 +4636,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>913</v>
+        <v>2431</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.12017804154302671</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="256">
@@ -4642,12 +4649,12 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>852</v>
+        <v>913</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.12023750618505691</v>
       </c>
     </row>
     <row r="257">
@@ -4655,12 +4662,12 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>1343</v>
+        <v>852</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>0.082178217821782182</v>
+        <v>0.078808265257087937</v>
       </c>
     </row>
     <row r="258">
@@ -4668,12 +4675,12 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>7629</v>
+        <v>1343</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>0.084752035529237602</v>
+        <v>0.082232496697490096</v>
       </c>
     </row>
     <row r="259">
@@ -4681,12 +4688,12 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>3404</v>
+        <v>7629</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="5">
-        <v>0.080794248545018835</v>
+        <v>0.084752035529237602</v>
       </c>
     </row>
     <row r="260">
@@ -4694,12 +4701,12 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>2883</v>
+        <v>3404</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="5">
-        <v>0.068212824010914053</v>
+        <v>0.080821917808219179</v>
       </c>
     </row>
     <row r="261">
@@ -4707,12 +4714,12 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>3435</v>
+        <v>2883</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.068212824010914053</v>
       </c>
     </row>
     <row r="262">
@@ -4720,18 +4727,20 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>2787</v>
+        <v>3435</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="5"/>
+      <c r="E262" s="5">
+        <v>0.074642126789366048</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2082</v>
+        <v>2787</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -4742,7 +4751,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>1638</v>
+        <v>2082</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -4753,7 +4762,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>2910</v>
+        <v>1638</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -4764,7 +4773,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>2667</v>
+        <v>2910</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4775,7 +4784,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>2793</v>
+        <v>2667</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4786,7 +4795,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>2446</v>
+        <v>2793</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4797,7 +4806,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>529</v>
+        <v>2446</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4808,7 +4817,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>2163</v>
+        <v>529</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4819,7 +4828,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>1389</v>
+        <v>2163</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4830,7 +4839,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>2192</v>
+        <v>1389</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -4841,7 +4850,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>943</v>
+        <v>2192</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -4852,7 +4861,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>1696</v>
+        <v>943</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -4863,7 +4872,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>205</v>
+        <v>1696</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -4874,7 +4883,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -4885,7 +4894,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>936</v>
+        <v>295</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -4895,7 +4904,9 @@
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B278" s="4"/>
+      <c r="B278" s="4">
+        <v>936</v>
+      </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="5"/>
@@ -5017,6 +5028,15 @@
       <c r="D291" s="4"/>
       <c r="E291" s="5"/>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+  <si>
+    <t>12/20/2020</t>
+  </si>
+  <si>
+    <t>12/19/2020</t>
+  </si>
+  <si>
+    <t>12/18/2020</t>
+  </si>
   <si>
     <t>12/17/2020</t>
   </si>
@@ -891,10 +900,10 @@
     <t>Daily Tests Total</t>
   </si>
   <si>
-    <t>Molecular (PCR) Tests</t>
-  </si>
-  <si>
-    <t>Antigen Tests</t>
+    <t>Molecular Test</t>
+  </si>
+  <si>
+    <t>Antigen Test</t>
   </si>
   <si>
     <t>Positive Test Percentage</t>
@@ -984,24 +993,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E295"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -1018,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>39990</v>
+        <v>52926</v>
       </c>
       <c r="C3" s="4">
-        <v>35180</v>
+        <v>50441</v>
       </c>
       <c r="D3" s="4">
-        <v>4810</v>
+        <v>2485</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1033,16 +1042,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>36828</v>
+        <v>72573</v>
       </c>
       <c r="C4" s="4">
-        <v>29713</v>
+        <v>66890</v>
       </c>
       <c r="D4" s="4">
-        <v>7115</v>
+        <v>5683</v>
       </c>
       <c r="E4" s="5">
-        <v>0.11684159534958824</v>
+        <v>0.10609738683421392</v>
       </c>
     </row>
     <row r="5">
@@ -1050,16 +1059,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>37577</v>
+        <v>72904</v>
       </c>
       <c r="C5" s="4">
-        <v>35934</v>
+        <v>68029</v>
       </c>
       <c r="D5" s="4">
-        <v>1643</v>
+        <v>4875</v>
       </c>
       <c r="E5" s="5">
-        <v>0.12838095238095237</v>
+        <v>0.10817545595928178</v>
       </c>
     </row>
     <row r="6">
@@ -1067,16 +1076,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>45209</v>
+        <v>58208</v>
       </c>
       <c r="C6" s="4">
-        <v>43571</v>
+        <v>52430</v>
       </c>
       <c r="D6" s="4">
-        <v>1638</v>
+        <v>5778</v>
       </c>
       <c r="E6" s="5">
-        <v>0.11212411533825756</v>
+        <v>0.10083133077872312</v>
       </c>
     </row>
     <row r="7">
@@ -1084,16 +1093,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>57744</v>
+        <v>41164</v>
       </c>
       <c r="C7" s="4">
-        <v>53485</v>
+        <v>33011</v>
       </c>
       <c r="D7" s="4">
-        <v>4259</v>
+        <v>8153</v>
       </c>
       <c r="E7" s="5">
-        <v>0.11680911680911681</v>
+        <v>0.11268787137364558</v>
       </c>
     </row>
     <row r="8">
@@ -1101,16 +1110,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>65279</v>
+        <v>37557</v>
       </c>
       <c r="C8" s="4">
-        <v>58954</v>
+        <v>35939</v>
       </c>
       <c r="D8" s="4">
-        <v>6325</v>
+        <v>1618</v>
       </c>
       <c r="E8" s="5">
-        <v>0.10951315258465716</v>
+        <v>0.12776158082280534</v>
       </c>
     </row>
     <row r="9">
@@ -1118,16 +1127,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>67981</v>
+        <v>45543</v>
       </c>
       <c r="C9" s="4">
-        <v>62460</v>
+        <v>43809</v>
       </c>
       <c r="D9" s="4">
-        <v>5521</v>
+        <v>1734</v>
       </c>
       <c r="E9" s="5">
-        <v>0.101373190098085</v>
+        <v>0.11556503198294245</v>
       </c>
     </row>
     <row r="10">
@@ -1135,16 +1144,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>57103</v>
+        <v>58551</v>
       </c>
       <c r="C10" s="4">
-        <v>51365</v>
+        <v>54042</v>
       </c>
       <c r="D10" s="4">
-        <v>5738</v>
+        <v>4509</v>
       </c>
       <c r="E10" s="5">
-        <v>0.09998679824416648</v>
+        <v>0.1156150069810386</v>
       </c>
     </row>
     <row r="11">
@@ -1152,16 +1161,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>47997</v>
+        <v>65675</v>
       </c>
       <c r="C11" s="4">
-        <v>39616</v>
+        <v>59011</v>
       </c>
       <c r="D11" s="4">
-        <v>8381</v>
+        <v>6664</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10625893979454727</v>
+        <v>0.10749602442011369</v>
       </c>
     </row>
     <row r="12">
@@ -1169,16 +1178,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>39516</v>
+        <v>68007</v>
       </c>
       <c r="C12" s="4">
-        <v>37871</v>
+        <v>62486</v>
       </c>
       <c r="D12" s="4">
-        <v>1645</v>
+        <v>5521</v>
       </c>
       <c r="E12" s="5">
-        <v>0.12208104854888324</v>
+        <v>0.10041700170166613</v>
       </c>
     </row>
     <row r="13">
@@ -1186,16 +1195,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>50366</v>
+        <v>57219</v>
       </c>
       <c r="C13" s="4">
-        <v>48808</v>
+        <v>51426</v>
       </c>
       <c r="D13" s="4">
-        <v>1558</v>
+        <v>5793</v>
       </c>
       <c r="E13" s="5">
-        <v>0.097634419577921253</v>
+        <v>0.099499942237552194</v>
       </c>
     </row>
     <row r="14">
@@ -1203,16 +1212,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>54662</v>
+        <v>48047</v>
       </c>
       <c r="C14" s="4">
-        <v>50331</v>
+        <v>39666</v>
       </c>
       <c r="D14" s="4">
-        <v>4331</v>
+        <v>8381</v>
       </c>
       <c r="E14" s="5">
-        <v>0.10672212092032207</v>
+        <v>0.10642948343396309</v>
       </c>
     </row>
     <row r="15">
@@ -1220,16 +1229,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>61556</v>
+        <v>39522</v>
       </c>
       <c r="C15" s="4">
-        <v>55674</v>
+        <v>37878</v>
       </c>
       <c r="D15" s="4">
-        <v>5882</v>
+        <v>1644</v>
       </c>
       <c r="E15" s="5">
-        <v>0.10287837376153058</v>
+        <v>0.12205229666862737</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1246,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>59449</v>
+        <v>50367</v>
       </c>
       <c r="C16" s="4">
-        <v>52217</v>
+        <v>48810</v>
       </c>
       <c r="D16" s="4">
-        <v>7232</v>
+        <v>1557</v>
       </c>
       <c r="E16" s="5">
-        <v>0.10000400657077607</v>
+        <v>0.097695429140188361</v>
       </c>
     </row>
     <row r="17">
@@ -1254,16 +1263,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>51738</v>
+        <v>54680</v>
       </c>
       <c r="C17" s="4">
-        <v>46388</v>
+        <v>50349</v>
       </c>
       <c r="D17" s="4">
-        <v>5350</v>
+        <v>4331</v>
       </c>
       <c r="E17" s="5">
-        <v>0.10056817016388735</v>
+        <v>0.10667595590344658</v>
       </c>
     </row>
     <row r="18">
@@ -1271,16 +1280,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>32152</v>
+        <v>61653</v>
       </c>
       <c r="C18" s="4">
-        <v>25530</v>
+        <v>55757</v>
       </c>
       <c r="D18" s="4">
-        <v>6622</v>
+        <v>5896</v>
       </c>
       <c r="E18" s="5">
-        <v>0.10212396824562325</v>
+        <v>0.10288338316958565</v>
       </c>
     </row>
     <row r="19">
@@ -1288,16 +1297,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>24304</v>
+        <v>59457</v>
       </c>
       <c r="C19" s="4">
-        <v>22755</v>
+        <v>52225</v>
       </c>
       <c r="D19" s="4">
-        <v>1549</v>
+        <v>7232</v>
       </c>
       <c r="E19" s="5">
-        <v>0.11410704133842281</v>
+        <v>0.10007013325318105</v>
       </c>
     </row>
     <row r="20">
@@ -1305,16 +1314,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>35054</v>
+        <v>51748</v>
       </c>
       <c r="C20" s="4">
-        <v>33448</v>
+        <v>46392</v>
       </c>
       <c r="D20" s="4">
-        <v>1606</v>
+        <v>5356</v>
       </c>
       <c r="E20" s="5">
-        <v>0.09964638679844047</v>
+        <v>0.1005948717948718</v>
       </c>
     </row>
     <row r="21">
@@ -1322,16 +1331,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>41477</v>
+        <v>32194</v>
       </c>
       <c r="C21" s="4">
-        <v>39062</v>
+        <v>25574</v>
       </c>
       <c r="D21" s="4">
-        <v>2415</v>
+        <v>6620</v>
       </c>
       <c r="E21" s="5">
-        <v>0.091259718172983478</v>
+        <v>0.10206066340745415</v>
       </c>
     </row>
     <row r="22">
@@ -1339,16 +1348,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>41466</v>
+        <v>24314</v>
       </c>
       <c r="C22" s="4">
-        <v>40430</v>
+        <v>22765</v>
       </c>
       <c r="D22" s="4">
-        <v>1036</v>
+        <v>1549</v>
       </c>
       <c r="E22" s="5">
-        <v>0.086427692651828661</v>
+        <v>0.11431472081218277</v>
       </c>
     </row>
     <row r="23">
@@ -1356,16 +1365,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>66699</v>
+        <v>35072</v>
       </c>
       <c r="C23" s="4">
-        <v>60920</v>
+        <v>33466</v>
       </c>
       <c r="D23" s="4">
-        <v>5779</v>
+        <v>1606</v>
       </c>
       <c r="E23" s="5">
-        <v>0.076468448808874337</v>
+        <v>0.099632836226825616</v>
       </c>
     </row>
     <row r="24">
@@ -1373,16 +1382,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>50655</v>
+        <v>41489</v>
       </c>
       <c r="C24" s="4">
-        <v>44432</v>
+        <v>39075</v>
       </c>
       <c r="D24" s="4">
-        <v>6223</v>
+        <v>2414</v>
       </c>
       <c r="E24" s="5">
-        <v>0.069541384980814913</v>
+        <v>0.091295761810724602</v>
       </c>
     </row>
     <row r="25">
@@ -1390,16 +1399,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>52168</v>
+        <v>41475</v>
       </c>
       <c r="C25" s="4">
-        <v>45506</v>
+        <v>40439</v>
       </c>
       <c r="D25" s="4">
-        <v>6662</v>
+        <v>1036</v>
       </c>
       <c r="E25" s="5">
-        <v>0.078786088754338041</v>
+        <v>0.086412845833216775</v>
       </c>
     </row>
     <row r="26">
@@ -1407,16 +1416,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>41542</v>
+        <v>66966</v>
       </c>
       <c r="C26" s="4">
-        <v>39968</v>
+        <v>61187</v>
       </c>
       <c r="D26" s="4">
-        <v>1574</v>
+        <v>5779</v>
       </c>
       <c r="E26" s="5">
-        <v>0.071988789186990032</v>
+        <v>0.07640954608415268</v>
       </c>
     </row>
     <row r="27">
@@ -1424,16 +1433,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>42306</v>
+        <v>50652</v>
       </c>
       <c r="C27" s="4">
-        <v>40848</v>
+        <v>44430</v>
       </c>
       <c r="D27" s="4">
-        <v>1458</v>
+        <v>6222</v>
       </c>
       <c r="E27" s="5">
-        <v>0.065628347277306542</v>
+        <v>0.069486459889929658</v>
       </c>
     </row>
     <row r="28">
@@ -1441,16 +1450,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>53483</v>
+        <v>52210</v>
       </c>
       <c r="C28" s="4">
-        <v>49286</v>
+        <v>45548</v>
       </c>
       <c r="D28" s="4">
-        <v>4197</v>
+        <v>6662</v>
       </c>
       <c r="E28" s="5">
-        <v>0.068502139051468472</v>
+        <v>0.078791906660759123</v>
       </c>
     </row>
     <row r="29">
@@ -1458,16 +1467,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>58408</v>
+        <v>41542</v>
       </c>
       <c r="C29" s="4">
-        <v>53154</v>
+        <v>39968</v>
       </c>
       <c r="D29" s="4">
-        <v>5254</v>
+        <v>1574</v>
       </c>
       <c r="E29" s="5">
-        <v>0.069022842091627443</v>
+        <v>0.071953342224834418</v>
       </c>
     </row>
     <row r="30">
@@ -1475,16 +1484,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>53895</v>
+        <v>42308</v>
       </c>
       <c r="C30" s="4">
-        <v>49840</v>
+        <v>40850</v>
       </c>
       <c r="D30" s="4">
-        <v>4055</v>
+        <v>1458</v>
       </c>
       <c r="E30" s="5">
-        <v>0.072845882033161183</v>
+        <v>0.065682015638575147</v>
       </c>
     </row>
     <row r="31">
@@ -1492,16 +1501,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>50325</v>
+        <v>53483</v>
       </c>
       <c r="C31" s="4">
-        <v>45781</v>
+        <v>49286</v>
       </c>
       <c r="D31" s="4">
-        <v>4544</v>
+        <v>4197</v>
       </c>
       <c r="E31" s="5">
-        <v>0.079000987249774196</v>
+        <v>0.068498543421777816</v>
       </c>
     </row>
     <row r="32">
@@ -1509,16 +1518,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>35668</v>
+        <v>58409</v>
       </c>
       <c r="C32" s="4">
-        <v>30701</v>
+        <v>53155</v>
       </c>
       <c r="D32" s="4">
-        <v>4967</v>
+        <v>5254</v>
       </c>
       <c r="E32" s="5">
-        <v>0.077321239308865933</v>
+        <v>0.069037024236402122</v>
       </c>
     </row>
     <row r="33">
@@ -1526,16 +1535,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>29528</v>
+        <v>53893</v>
       </c>
       <c r="C33" s="4">
-        <v>28668</v>
+        <v>49838</v>
       </c>
       <c r="D33" s="4">
-        <v>860</v>
+        <v>4055</v>
       </c>
       <c r="E33" s="5">
-        <v>0.08709716427837233</v>
+        <v>0.072871784145576241</v>
       </c>
     </row>
     <row r="34">
@@ -1543,16 +1552,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>35712</v>
+        <v>50325</v>
       </c>
       <c r="C34" s="4">
-        <v>34688</v>
+        <v>45781</v>
       </c>
       <c r="D34" s="4">
-        <v>1024</v>
+        <v>4544</v>
       </c>
       <c r="E34" s="5">
-        <v>0.087153232527681868</v>
+        <v>0.079008194998949371</v>
       </c>
     </row>
     <row r="35">
@@ -1560,16 +1569,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>41044</v>
+        <v>35669</v>
       </c>
       <c r="C35" s="4">
-        <v>38381</v>
+        <v>30702</v>
       </c>
       <c r="D35" s="4">
-        <v>2663</v>
+        <v>4967</v>
       </c>
       <c r="E35" s="5">
-        <v>0.080359600036693887</v>
+        <v>0.077298616761594788</v>
       </c>
     </row>
     <row r="36">
@@ -1577,16 +1586,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>48355</v>
+        <v>29526</v>
       </c>
       <c r="C36" s="4">
-        <v>44529</v>
+        <v>28666</v>
       </c>
       <c r="D36" s="4">
-        <v>3826</v>
+        <v>860</v>
       </c>
       <c r="E36" s="5">
-        <v>0.077281347612672913</v>
+        <v>0.087143072971748003</v>
       </c>
     </row>
     <row r="37">
@@ -1594,16 +1603,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>46521</v>
+        <v>35712</v>
       </c>
       <c r="C37" s="4">
-        <v>43323</v>
+        <v>34688</v>
       </c>
       <c r="D37" s="4">
-        <v>3198</v>
+        <v>1024</v>
       </c>
       <c r="E37" s="5">
-        <v>0.077986130235585704</v>
+        <v>0.087167070217917669</v>
       </c>
     </row>
     <row r="38">
@@ -1611,16 +1620,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>41538</v>
+        <v>41044</v>
       </c>
       <c r="C38" s="4">
-        <v>37779</v>
+        <v>38381</v>
       </c>
       <c r="D38" s="4">
-        <v>3759</v>
+        <v>2663</v>
       </c>
       <c r="E38" s="5">
-        <v>0.075888985255854288</v>
+        <v>0.080364514846640769</v>
       </c>
     </row>
     <row r="39">
@@ -1628,16 +1637,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>29474</v>
+        <v>48354</v>
       </c>
       <c r="C39" s="4">
-        <v>25885</v>
+        <v>44528</v>
       </c>
       <c r="D39" s="4">
-        <v>3589</v>
+        <v>3826</v>
       </c>
       <c r="E39" s="5">
-        <v>0.077027495378927918</v>
+        <v>0.077328646748681895</v>
       </c>
     </row>
     <row r="40">
@@ -1645,16 +1654,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>26393</v>
+        <v>46521</v>
       </c>
       <c r="C40" s="4">
-        <v>25653</v>
+        <v>43323</v>
       </c>
       <c r="D40" s="4">
-        <v>740</v>
+        <v>3198</v>
       </c>
       <c r="E40" s="5">
-        <v>0.080905630134241638</v>
+        <v>0.078002104103000861</v>
       </c>
     </row>
     <row r="41">
@@ -1662,16 +1671,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>34476</v>
+        <v>41538</v>
       </c>
       <c r="C41" s="4">
-        <v>33706</v>
+        <v>37779</v>
       </c>
       <c r="D41" s="4">
-        <v>770</v>
+        <v>3759</v>
       </c>
       <c r="E41" s="5">
-        <v>0.075048425604756969</v>
+        <v>0.075884769462376586</v>
       </c>
     </row>
     <row r="42">
@@ -1679,16 +1688,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>40216</v>
+        <v>29475</v>
       </c>
       <c r="C42" s="4">
-        <v>38171</v>
+        <v>25886</v>
       </c>
       <c r="D42" s="4">
-        <v>2045</v>
+        <v>3589</v>
       </c>
       <c r="E42" s="5">
-        <v>0.065139627859440288</v>
+        <v>0.077047522750252784</v>
       </c>
     </row>
     <row r="43">
@@ -1696,16 +1705,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>44934</v>
+        <v>26393</v>
       </c>
       <c r="C43" s="4">
-        <v>41834</v>
+        <v>25653</v>
       </c>
       <c r="D43" s="4">
-        <v>3100</v>
+        <v>740</v>
       </c>
       <c r="E43" s="5">
-        <v>0.058709111829488798</v>
+        <v>0.080899146532035116</v>
       </c>
     </row>
     <row r="44">
@@ -1713,16 +1722,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>47668</v>
+        <v>34474</v>
       </c>
       <c r="C44" s="4">
-        <v>45124</v>
+        <v>33704</v>
       </c>
       <c r="D44" s="4">
-        <v>2544</v>
+        <v>770</v>
       </c>
       <c r="E44" s="5">
-        <v>0.066526789826518606</v>
+        <v>0.075085631873084549</v>
       </c>
     </row>
     <row r="45">
@@ -1730,16 +1739,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>43377</v>
+        <v>40215</v>
       </c>
       <c r="C45" s="4">
-        <v>40547</v>
+        <v>38170</v>
       </c>
       <c r="D45" s="4">
-        <v>2830</v>
+        <v>2045</v>
       </c>
       <c r="E45" s="5">
-        <v>0.064258888943081502</v>
+        <v>0.06515529631077302</v>
       </c>
     </row>
     <row r="46">
@@ -1747,16 +1756,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>25526</v>
+        <v>44934</v>
       </c>
       <c r="C46" s="4">
-        <v>22386</v>
+        <v>41834</v>
       </c>
       <c r="D46" s="4">
-        <v>3140</v>
+        <v>3100</v>
       </c>
       <c r="E46" s="5">
-        <v>0.065239210438273673</v>
+        <v>0.058733247457998738</v>
       </c>
     </row>
     <row r="47">
@@ -1764,16 +1773,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>26672</v>
+        <v>47668</v>
       </c>
       <c r="C47" s="4">
-        <v>26109</v>
+        <v>45124</v>
       </c>
       <c r="D47" s="4">
-        <v>563</v>
+        <v>2544</v>
       </c>
       <c r="E47" s="5">
-        <v>0.074432590517774025</v>
+        <v>0.066519925264262494</v>
       </c>
     </row>
     <row r="48">
@@ -1781,16 +1790,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>33572</v>
+        <v>43377</v>
       </c>
       <c r="C48" s="4">
-        <v>32751</v>
+        <v>40547</v>
       </c>
       <c r="D48" s="4">
-        <v>821</v>
+        <v>2830</v>
       </c>
       <c r="E48" s="5">
-        <v>0.067686700008476736</v>
+        <v>0.064285540022932977</v>
       </c>
     </row>
     <row r="49">
@@ -1798,16 +1807,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>39050</v>
+        <v>25526</v>
       </c>
       <c r="C49" s="4">
-        <v>37190</v>
+        <v>22386</v>
       </c>
       <c r="D49" s="4">
-        <v>1860</v>
+        <v>3140</v>
       </c>
       <c r="E49" s="5">
-        <v>0.063457673951268528</v>
+        <v>0.065247148288973378</v>
       </c>
     </row>
     <row r="50">
@@ -1815,16 +1824,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>45092</v>
+        <v>26672</v>
       </c>
       <c r="C50" s="4">
-        <v>42087</v>
+        <v>26109</v>
       </c>
       <c r="D50" s="4">
-        <v>3005</v>
+        <v>563</v>
       </c>
       <c r="E50" s="5">
-        <v>0.05943814403315871</v>
+        <v>0.074473781768752328</v>
       </c>
     </row>
     <row r="51">
@@ -1832,16 +1841,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>45525</v>
+        <v>33570</v>
       </c>
       <c r="C51" s="4">
-        <v>43049</v>
+        <v>32749</v>
       </c>
       <c r="D51" s="4">
-        <v>2476</v>
+        <v>821</v>
       </c>
       <c r="E51" s="5">
-        <v>0.060587800268426965</v>
+        <v>0.067706787637257806</v>
       </c>
     </row>
     <row r="52">
@@ -1849,16 +1858,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>38858</v>
+        <v>39051</v>
       </c>
       <c r="C52" s="4">
-        <v>36667</v>
+        <v>37191</v>
       </c>
       <c r="D52" s="4">
-        <v>2191</v>
+        <v>1860</v>
       </c>
       <c r="E52" s="5">
-        <v>0.059314692718610132</v>
+        <v>0.063602133668026362</v>
       </c>
     </row>
     <row r="53">
@@ -1866,16 +1875,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>23982</v>
+        <v>45092</v>
       </c>
       <c r="C53" s="4">
-        <v>21589</v>
+        <v>42087</v>
       </c>
       <c r="D53" s="4">
-        <v>2393</v>
+        <v>3005</v>
       </c>
       <c r="E53" s="5">
-        <v>0.064145063979314465</v>
+        <v>0.059493998791123395</v>
       </c>
     </row>
     <row r="54">
@@ -1883,16 +1892,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>25467</v>
+        <v>45535</v>
       </c>
       <c r="C54" s="4">
-        <v>25050</v>
+        <v>43059</v>
       </c>
       <c r="D54" s="4">
-        <v>417</v>
+        <v>2476</v>
       </c>
       <c r="E54" s="5">
-        <v>0.070263255469039679</v>
+        <v>0.060412614044220388</v>
       </c>
     </row>
     <row r="55">
@@ -1900,16 +1909,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>30512</v>
+        <v>38860</v>
       </c>
       <c r="C55" s="4">
-        <v>30029</v>
+        <v>36669</v>
       </c>
       <c r="D55" s="4">
-        <v>483</v>
+        <v>2191</v>
       </c>
       <c r="E55" s="5">
-        <v>0.075091953547960485</v>
+        <v>0.05934039480019259</v>
       </c>
     </row>
     <row r="56">
@@ -1917,16 +1926,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>37816</v>
+        <v>23982</v>
       </c>
       <c r="C56" s="4">
-        <v>36631</v>
+        <v>21589</v>
       </c>
       <c r="D56" s="4">
-        <v>1185</v>
+        <v>2393</v>
       </c>
       <c r="E56" s="5">
-        <v>0.061548759864712511</v>
+        <v>0.064155697755379465</v>
       </c>
     </row>
     <row r="57">
@@ -1934,16 +1943,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>40636</v>
+        <v>25467</v>
       </c>
       <c r="C57" s="4">
-        <v>38726</v>
+        <v>25050</v>
       </c>
       <c r="D57" s="4">
-        <v>1910</v>
+        <v>417</v>
       </c>
       <c r="E57" s="5">
-        <v>0.064146031361627415</v>
+        <v>0.070207145836229667</v>
       </c>
     </row>
     <row r="58">
@@ -1951,16 +1960,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>46371</v>
+        <v>30512</v>
       </c>
       <c r="C58" s="4">
-        <v>44980</v>
+        <v>30029</v>
       </c>
       <c r="D58" s="4">
-        <v>1391</v>
+        <v>483</v>
       </c>
       <c r="E58" s="5">
-        <v>0.063538534578256048</v>
+        <v>0.075019622423266</v>
       </c>
     </row>
     <row r="59">
@@ -1968,16 +1977,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>36502</v>
+        <v>37817</v>
       </c>
       <c r="C59" s="4">
-        <v>34758</v>
+        <v>36632</v>
       </c>
       <c r="D59" s="4">
-        <v>1744</v>
+        <v>1185</v>
       </c>
       <c r="E59" s="5">
-        <v>0.058696260849644924</v>
+        <v>0.061590500687079386</v>
       </c>
     </row>
     <row r="60">
@@ -1985,16 +1994,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>18442</v>
+        <v>40632</v>
       </c>
       <c r="C60" s="4">
-        <v>16603</v>
+        <v>38722</v>
       </c>
       <c r="D60" s="4">
-        <v>1839</v>
+        <v>1910</v>
       </c>
       <c r="E60" s="5">
-        <v>0.061578714622641507</v>
+        <v>0.064153799576142895</v>
       </c>
     </row>
     <row r="61">
@@ -2002,16 +2011,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>23455</v>
+        <v>46372</v>
       </c>
       <c r="C61" s="4">
-        <v>23119</v>
+        <v>44981</v>
       </c>
       <c r="D61" s="4">
-        <v>336</v>
+        <v>1391</v>
       </c>
       <c r="E61" s="5">
-        <v>0.076874497646113218</v>
+        <v>0.063082323752210526</v>
       </c>
     </row>
     <row r="62">
@@ -2019,16 +2028,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>32975</v>
+        <v>36482</v>
       </c>
       <c r="C62" s="4">
-        <v>32583</v>
+        <v>34738</v>
       </c>
       <c r="D62" s="4">
-        <v>392</v>
+        <v>1744</v>
       </c>
       <c r="E62" s="5">
-        <v>0.073902574550842745</v>
+        <v>0.058691722048226515</v>
       </c>
     </row>
     <row r="63">
@@ -2036,16 +2045,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>34488</v>
+        <v>18442</v>
       </c>
       <c r="C63" s="4">
-        <v>33613</v>
+        <v>16603</v>
       </c>
       <c r="D63" s="4">
-        <v>875</v>
+        <v>1839</v>
       </c>
       <c r="E63" s="5">
-        <v>0.058629260154574238</v>
+        <v>0.061636008404910243</v>
       </c>
     </row>
     <row r="64">
@@ -2053,16 +2062,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>41559</v>
+        <v>23455</v>
       </c>
       <c r="C64" s="4">
-        <v>40064</v>
+        <v>23119</v>
       </c>
       <c r="D64" s="4">
-        <v>1495</v>
+        <v>336</v>
       </c>
       <c r="E64" s="5">
-        <v>0.061100116231583575</v>
+        <v>0.07688774045363192</v>
       </c>
     </row>
     <row r="65">
@@ -2070,16 +2079,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>42286</v>
+        <v>32975</v>
       </c>
       <c r="C65" s="4">
-        <v>41167</v>
+        <v>32583</v>
       </c>
       <c r="D65" s="4">
-        <v>1119</v>
+        <v>392</v>
       </c>
       <c r="E65" s="5">
-        <v>0.065289622328054048</v>
+        <v>0.073919688759205224</v>
       </c>
     </row>
     <row r="66">
@@ -2087,16 +2096,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>34298</v>
+        <v>34489</v>
       </c>
       <c r="C66" s="4">
-        <v>32849</v>
+        <v>33614</v>
       </c>
       <c r="D66" s="4">
-        <v>1449</v>
+        <v>875</v>
       </c>
       <c r="E66" s="5">
-        <v>0.060710194730813287</v>
+        <v>0.058617166212534058</v>
       </c>
     </row>
     <row r="67">
@@ -2104,16 +2113,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>21670</v>
+        <v>41557</v>
       </c>
       <c r="C67" s="4">
-        <v>20537</v>
+        <v>40063</v>
       </c>
       <c r="D67" s="4">
-        <v>1133</v>
+        <v>1494</v>
       </c>
       <c r="E67" s="5">
-        <v>0.066274539187771611</v>
+        <v>0.061094358587762292</v>
       </c>
     </row>
     <row r="68">
@@ -2121,16 +2130,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>21637</v>
+        <v>42287</v>
       </c>
       <c r="C68" s="4">
-        <v>21359</v>
+        <v>41168</v>
       </c>
       <c r="D68" s="4">
-        <v>278</v>
+        <v>1119</v>
       </c>
       <c r="E68" s="5">
-        <v>0.067730412002857829</v>
+        <v>0.065300470783716424</v>
       </c>
     </row>
     <row r="69">
@@ -2138,16 +2147,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>32579</v>
+        <v>34298</v>
       </c>
       <c r="C69" s="4">
-        <v>32240</v>
+        <v>32849</v>
       </c>
       <c r="D69" s="4">
-        <v>339</v>
+        <v>1449</v>
       </c>
       <c r="E69" s="5">
-        <v>0.069757940966193449</v>
+        <v>0.060740013097576956</v>
       </c>
     </row>
     <row r="70">
@@ -2155,16 +2164,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>37229</v>
+        <v>21670</v>
       </c>
       <c r="C70" s="4">
-        <v>36220</v>
+        <v>20537</v>
       </c>
       <c r="D70" s="4">
-        <v>1009</v>
+        <v>1133</v>
       </c>
       <c r="E70" s="5">
-        <v>0.056436599324277734</v>
+        <v>0.066279505432746355</v>
       </c>
     </row>
     <row r="71">
@@ -2172,16 +2181,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>42458</v>
+        <v>21637</v>
       </c>
       <c r="C71" s="4">
-        <v>41183</v>
+        <v>21359</v>
       </c>
       <c r="D71" s="4">
-        <v>1275</v>
+        <v>278</v>
       </c>
       <c r="E71" s="5">
-        <v>0.055478381663483241</v>
+        <v>0.067749773690980994</v>
       </c>
     </row>
     <row r="72">
@@ -2189,16 +2198,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>40909</v>
+        <v>32579</v>
       </c>
       <c r="C72" s="4">
-        <v>40012</v>
+        <v>32240</v>
       </c>
       <c r="D72" s="4">
-        <v>897</v>
+        <v>339</v>
       </c>
       <c r="E72" s="5">
-        <v>0.050125985096231167</v>
+        <v>0.069757940966193449</v>
       </c>
     </row>
     <row r="73">
@@ -2206,16 +2215,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>34450</v>
+        <v>37229</v>
       </c>
       <c r="C73" s="4">
-        <v>33428</v>
+        <v>36220</v>
       </c>
       <c r="D73" s="4">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E73" s="5">
-        <v>0.057246986262966079</v>
+        <v>0.056442436989276971</v>
       </c>
     </row>
     <row r="74">
@@ -2223,16 +2232,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>17803</v>
+        <v>42458</v>
       </c>
       <c r="C74" s="4">
-        <v>16888</v>
+        <v>41183</v>
       </c>
       <c r="D74" s="4">
-        <v>915</v>
+        <v>1275</v>
       </c>
       <c r="E74" s="5">
-        <v>0.056786494837591378</v>
+        <v>0.05547356541366439</v>
       </c>
     </row>
     <row r="75">
@@ -2240,16 +2249,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>18047</v>
+        <v>40909</v>
       </c>
       <c r="C75" s="4">
-        <v>17794</v>
+        <v>40012</v>
       </c>
       <c r="D75" s="4">
-        <v>253</v>
+        <v>897</v>
       </c>
       <c r="E75" s="5">
-        <v>0.064874884151992579</v>
+        <v>0.050143458557906306</v>
       </c>
     </row>
     <row r="76">
@@ -2257,16 +2266,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>26991</v>
+        <v>34450</v>
       </c>
       <c r="C76" s="4">
-        <v>26698</v>
+        <v>33428</v>
       </c>
       <c r="D76" s="4">
-        <v>293</v>
+        <v>1022</v>
       </c>
       <c r="E76" s="5">
-        <v>0.078647153722055774</v>
+        <v>0.057253406605730958</v>
       </c>
     </row>
     <row r="77">
@@ -2274,16 +2283,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>32524</v>
+        <v>17803</v>
       </c>
       <c r="C77" s="4">
-        <v>31889</v>
+        <v>16888</v>
       </c>
       <c r="D77" s="4">
-        <v>635</v>
+        <v>915</v>
       </c>
       <c r="E77" s="5">
-        <v>0.061951824755059254</v>
+        <v>0.056832742895907139</v>
       </c>
     </row>
     <row r="78">
@@ -2291,16 +2300,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>36043</v>
+        <v>18047</v>
       </c>
       <c r="C78" s="4">
-        <v>35426</v>
+        <v>17794</v>
       </c>
       <c r="D78" s="4">
-        <v>617</v>
+        <v>253</v>
       </c>
       <c r="E78" s="5">
-        <v>0.06101190476190476</v>
+        <v>0.064944695050361489</v>
       </c>
     </row>
     <row r="79">
@@ -2308,16 +2317,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>40622</v>
+        <v>26991</v>
       </c>
       <c r="C79" s="4">
-        <v>39875</v>
+        <v>26698</v>
       </c>
       <c r="D79" s="4">
-        <v>747</v>
+        <v>293</v>
       </c>
       <c r="E79" s="5">
-        <v>0.054496240601503758</v>
+        <v>0.078588289481259718</v>
       </c>
     </row>
     <row r="80">
@@ -2325,16 +2334,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>29238</v>
+        <v>32524</v>
       </c>
       <c r="C80" s="4">
-        <v>28574</v>
+        <v>31889</v>
       </c>
       <c r="D80" s="4">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="E80" s="5">
-        <v>0.054450876751405322</v>
+        <v>0.061932888204074651</v>
       </c>
     </row>
     <row r="81">
@@ -2342,16 +2351,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>14220</v>
+        <v>36043</v>
       </c>
       <c r="C81" s="4">
-        <v>13675</v>
+        <v>35426</v>
       </c>
       <c r="D81" s="4">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="E81" s="5">
-        <v>0.057984935038673475</v>
+        <v>0.060985091781887019</v>
       </c>
     </row>
     <row r="82">
@@ -2359,16 +2368,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>13901</v>
+        <v>40621</v>
       </c>
       <c r="C82" s="4">
-        <v>13789</v>
+        <v>39874</v>
       </c>
       <c r="D82" s="4">
-        <v>112</v>
+        <v>747</v>
       </c>
       <c r="E82" s="5">
-        <v>0.066714490674318505</v>
+        <v>0.054527955727991829</v>
       </c>
     </row>
     <row r="83">
@@ -2376,16 +2385,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>26010</v>
+        <v>29238</v>
       </c>
       <c r="C83" s="4">
-        <v>25913</v>
+        <v>28574</v>
       </c>
       <c r="D83" s="4">
-        <v>97</v>
+        <v>664</v>
       </c>
       <c r="E83" s="5">
-        <v>0.060018801070214768</v>
+        <v>0.054479825395937098</v>
       </c>
     </row>
     <row r="84">
@@ -2393,16 +2402,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>31623</v>
+        <v>14220</v>
       </c>
       <c r="C84" s="4">
-        <v>31292</v>
+        <v>13675</v>
       </c>
       <c r="D84" s="4">
-        <v>331</v>
+        <v>545</v>
       </c>
       <c r="E84" s="5">
-        <v>0.053079450669812116</v>
+        <v>0.058002528445006321</v>
       </c>
     </row>
     <row r="85">
@@ -2410,16 +2419,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>36142</v>
+        <v>13901</v>
       </c>
       <c r="C85" s="4">
-        <v>35811</v>
+        <v>13789</v>
       </c>
       <c r="D85" s="4">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="E85" s="5">
-        <v>0.049527979203721442</v>
+        <v>0.066697092189333687</v>
       </c>
     </row>
     <row r="86">
@@ -2427,16 +2436,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>38436</v>
+        <v>26010</v>
       </c>
       <c r="C86" s="4">
-        <v>38072</v>
+        <v>25913</v>
       </c>
       <c r="D86" s="4">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="E86" s="5">
-        <v>0.045771054685155174</v>
+        <v>0.060018801070214775</v>
       </c>
     </row>
     <row r="87">
@@ -2444,16 +2453,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>28553</v>
+        <v>31623</v>
       </c>
       <c r="C87" s="4">
-        <v>28179</v>
+        <v>31292</v>
       </c>
       <c r="D87" s="4">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E87" s="5">
-        <v>0.049106472443309804</v>
+        <v>0.053079450669812116</v>
       </c>
     </row>
     <row r="88">
@@ -2461,16 +2470,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>12649</v>
+        <v>36140</v>
       </c>
       <c r="C88" s="4">
-        <v>12334</v>
+        <v>35809</v>
       </c>
       <c r="D88" s="4">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E88" s="5">
-        <v>0.048533175822012206</v>
+        <v>0.049546621043627039</v>
       </c>
     </row>
     <row r="89">
@@ -2478,12 +2487,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+        <v>38434</v>
+      </c>
+      <c r="C89" s="4">
+        <v>38070</v>
+      </c>
+      <c r="D89" s="4">
+        <v>364</v>
+      </c>
       <c r="E89" s="5">
-        <v>0.053901751806933726</v>
+        <v>0.045799921914887236</v>
       </c>
     </row>
     <row r="90">
@@ -2491,12 +2504,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>24679</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+        <v>28553</v>
+      </c>
+      <c r="C90" s="4">
+        <v>28179</v>
+      </c>
+      <c r="D90" s="4">
+        <v>374</v>
+      </c>
       <c r="E90" s="5">
-        <v>0.052808206167289304</v>
+        <v>0.049124177508037138</v>
       </c>
     </row>
     <row r="91">
@@ -2504,12 +2521,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>27403</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D91" s="4">
+        <v>315</v>
+      </c>
       <c r="E91" s="5">
-        <v>0.052850166582994844</v>
+        <v>0.048554685576402225</v>
       </c>
     </row>
     <row r="92">
@@ -2517,12 +2538,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>34441</v>
+        <v>16001</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5">
-        <v>0.046087170994679537</v>
+        <v>0.053908355795148251</v>
       </c>
     </row>
     <row r="93">
@@ -2530,12 +2551,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>37607</v>
+        <v>24679</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.047250116379596994</v>
+        <v>0.052814894560192518</v>
       </c>
     </row>
     <row r="94">
@@ -2543,12 +2564,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>28506</v>
+        <v>27403</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.047417201784076171</v>
+        <v>0.052833287708732558</v>
       </c>
     </row>
     <row r="95">
@@ -2556,12 +2577,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>15629</v>
+        <v>34441</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.056751648149001889</v>
+        <v>0.046130532844657457</v>
       </c>
     </row>
     <row r="96">
@@ -2569,12 +2590,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>18342</v>
+        <v>37607</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.057010521500457455</v>
+        <v>0.047264260768335273</v>
       </c>
     </row>
     <row r="97">
@@ -2582,12 +2603,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>26203</v>
+        <v>28506</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.04933672029353655</v>
+        <v>0.047417201784076171</v>
       </c>
     </row>
     <row r="98">
@@ -2595,12 +2616,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>33367</v>
+        <v>15629</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.04745437880176652</v>
+        <v>0.056792513714101323</v>
       </c>
     </row>
     <row r="99">
@@ -2608,12 +2629,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>38681</v>
+        <v>18342</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.049711714245535089</v>
+        <v>0.057017042205192735</v>
       </c>
     </row>
     <row r="100">
@@ -2621,12 +2642,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>33872</v>
+        <v>26203</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.050158510938824195</v>
+        <v>0.049339505475894781</v>
       </c>
     </row>
     <row r="101">
@@ -2634,12 +2655,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>15536</v>
+        <v>33367</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.051440237894456529</v>
+        <v>0.04746031084628527</v>
       </c>
     </row>
     <row r="102">
@@ -2647,12 +2668,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>10621</v>
+        <v>38681</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.064001227841301508</v>
+        <v>0.049671087346536746</v>
       </c>
     </row>
     <row r="103">
@@ -2660,12 +2681,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>15250</v>
+        <v>33872</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.070258213948700354</v>
+        <v>0.050190018530732752</v>
       </c>
     </row>
     <row r="104">
@@ -2673,12 +2694,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>25209</v>
+        <v>15536</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.059120010897697861</v>
+        <v>0.051472220988586406</v>
       </c>
     </row>
     <row r="105">
@@ -2686,12 +2707,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>28779</v>
+        <v>10621</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.056399535423925666</v>
+        <v>0.063971772647081385</v>
       </c>
     </row>
     <row r="106">
@@ -2699,12 +2720,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>32622</v>
+        <v>15250</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.059615384615384619</v>
+        <v>0.070264241592312968</v>
       </c>
     </row>
     <row r="107">
@@ -2712,12 +2733,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>36879</v>
+        <v>25209</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.053284792321694523</v>
+        <v>0.059063690800217748</v>
       </c>
     </row>
     <row r="108">
@@ -2725,12 +2746,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>28887</v>
+        <v>28779</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.063140166357324529</v>
+        <v>0.056417882702853431</v>
       </c>
     </row>
     <row r="109">
@@ -2738,12 +2759,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>15065</v>
+        <v>32622</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.065072182719241548</v>
+        <v>0.059624377734198229</v>
       </c>
     </row>
     <row r="110">
@@ -2751,12 +2772,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>18622</v>
+        <v>36879</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.07588575790344125</v>
+        <v>0.053288319597524253</v>
       </c>
     </row>
     <row r="111">
@@ -2764,12 +2785,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>25044</v>
+        <v>28887</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.065380917368927094</v>
+        <v>0.063192294461644302</v>
       </c>
     </row>
     <row r="112">
@@ -2777,12 +2798,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>30979</v>
+        <v>15065</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.076636904761904767</v>
+        <v>0.065068677619175883</v>
       </c>
     </row>
     <row r="113">
@@ -2790,12 +2811,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>34871</v>
+        <v>18622</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.059518564505146795</v>
+        <v>0.07588575790344125</v>
       </c>
     </row>
     <row r="114">
@@ -2803,12 +2824,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>35721</v>
+        <v>25044</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.062477581765415596</v>
+        <v>0.065444878103965154</v>
       </c>
     </row>
     <row r="115">
@@ -2816,12 +2837,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>31132</v>
+        <v>30979</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.070461890654457307</v>
+        <v>0.07659648969230097</v>
       </c>
     </row>
     <row r="116">
@@ -2829,12 +2850,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>14920</v>
+        <v>34871</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.065217391304347824</v>
+        <v>0.059620161871944868</v>
       </c>
     </row>
     <row r="117">
@@ -2842,12 +2863,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>13120</v>
+        <v>35721</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.079865319865319861</v>
+        <v>0.062504077771253344</v>
       </c>
     </row>
     <row r="118">
@@ -2855,12 +2876,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>24169</v>
+        <v>31132</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.072577783035608662</v>
+        <v>0.070525996562994922</v>
       </c>
     </row>
     <row r="119">
@@ -2868,12 +2889,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>24904</v>
+        <v>14920</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.063656977942692233</v>
+        <v>0.065241547171808051</v>
       </c>
     </row>
     <row r="120">
@@ -2881,12 +2902,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>25761</v>
+        <v>13120</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.063310592997975854</v>
+        <v>0.079881457533508449</v>
       </c>
     </row>
     <row r="121">
@@ -2894,12 +2915,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>26022</v>
+        <v>24169</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.068716515257395763</v>
+        <v>0.072582076308784382</v>
       </c>
     </row>
     <row r="122">
@@ -2907,12 +2928,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>25739</v>
+        <v>24904</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.075825471698113212</v>
+        <v>0.063670103092783523</v>
       </c>
     </row>
     <row r="123">
@@ -2920,12 +2941,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>10893</v>
+        <v>25761</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.06504157004694304</v>
+        <v>0.063322460915532564</v>
       </c>
     </row>
     <row r="124">
@@ -2933,12 +2954,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>13862</v>
+        <v>26022</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.068875651526433351</v>
+        <v>0.068729856715722459</v>
       </c>
     </row>
     <row r="125">
@@ -2946,12 +2967,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>23021</v>
+        <v>25739</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.06313062448868284</v>
+        <v>0.075837395816952355</v>
       </c>
     </row>
     <row r="126">
@@ -2959,12 +2980,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>25652</v>
+        <v>10893</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.063370935633709352</v>
+        <v>0.065074694431869626</v>
       </c>
     </row>
     <row r="127">
@@ -2972,12 +2993,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>22856</v>
+        <v>13862</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.063447476368824682</v>
+        <v>0.068911569693809127</v>
       </c>
     </row>
     <row r="128">
@@ -2985,12 +3006,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>30068</v>
+        <v>23021</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.059100570999874966</v>
+        <v>0.063152151674282203</v>
       </c>
     </row>
     <row r="129">
@@ -2998,12 +3019,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>26715</v>
+        <v>25652</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.064020091646105046</v>
+        <v>0.063418333491326195</v>
       </c>
     </row>
     <row r="130">
@@ -3011,12 +3032,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>15704</v>
+        <v>22856</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.061691138065115197</v>
+        <v>0.063456646882948817</v>
       </c>
     </row>
     <row r="131">
@@ -3024,12 +3045,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>17137</v>
+        <v>30068</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.063471408949613242</v>
+        <v>0.059122748498999331</v>
       </c>
     </row>
     <row r="132">
@@ -3037,12 +3058,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>19182</v>
+        <v>26715</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.052086066649173444</v>
+        <v>0.064051135111307028</v>
       </c>
     </row>
     <row r="133">
@@ -3050,12 +3071,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>21031</v>
+        <v>15704</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.059140767824497259</v>
+        <v>0.061709044467665154</v>
       </c>
     </row>
     <row r="134">
@@ -3063,12 +3084,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>21840</v>
+        <v>17137</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.067741636548975998</v>
+        <v>0.063498951327113626</v>
       </c>
     </row>
     <row r="135">
@@ -3076,12 +3097,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>23469</v>
+        <v>19182</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.070789296154711037</v>
+        <v>0.052106575666097915</v>
       </c>
     </row>
     <row r="136">
@@ -3089,12 +3110,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>19558</v>
+        <v>21031</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.075492151591362411</v>
+        <v>0.059146174238961513</v>
       </c>
     </row>
     <row r="137">
@@ -3102,12 +3123,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>11613</v>
+        <v>21840</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.076406956045460772</v>
+        <v>0.06776675628070826</v>
       </c>
     </row>
     <row r="138">
@@ -3115,12 +3136,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>19740</v>
+        <v>23469</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.067614315365746275</v>
+        <v>0.070802033196887243</v>
       </c>
     </row>
     <row r="139">
@@ -3128,12 +3149,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>23480</v>
+        <v>19558</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.07294914525319858</v>
+        <v>0.075452061922726688</v>
       </c>
     </row>
     <row r="140">
@@ -3141,12 +3162,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>23091</v>
+        <v>11613</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.068528294439784893</v>
+        <v>0.076427886590877958</v>
       </c>
     </row>
     <row r="141">
@@ -3154,12 +3175,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>23947</v>
+        <v>19740</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.066535481490591561</v>
+        <v>0.06761006289308176</v>
       </c>
     </row>
     <row r="142">
@@ -3167,12 +3188,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>25438</v>
+        <v>23480</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.072338988773529164</v>
+        <v>0.072903225806451616</v>
       </c>
     </row>
     <row r="143">
@@ -3180,12 +3201,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>25175</v>
+        <v>23091</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.074976869973667357</v>
+        <v>0.068601322672983911</v>
       </c>
     </row>
     <row r="144">
@@ -3193,12 +3214,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>20426</v>
+        <v>23947</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.069541693189051554</v>
+        <v>0.06654639386608717</v>
       </c>
     </row>
     <row r="145">
@@ -3206,12 +3227,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>18738</v>
+        <v>25438</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.071914526638558837</v>
+        <v>0.072372587932272095</v>
       </c>
     </row>
     <row r="146">
@@ -3219,12 +3240,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>25642</v>
+        <v>25175</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.07681657595722334</v>
+        <v>0.074990212478200535</v>
       </c>
     </row>
     <row r="147">
@@ -3232,12 +3253,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>23879</v>
+        <v>20426</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.078415034948849702</v>
+        <v>0.069658867844447983</v>
       </c>
     </row>
     <row r="148">
@@ -3245,12 +3266,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>22113</v>
+        <v>18738</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.074829931972789115</v>
+        <v>0.071886973180076627</v>
       </c>
     </row>
     <row r="149">
@@ -3258,12 +3279,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>26648</v>
+        <v>25642</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.084752272436307771</v>
+        <v>0.076820243494867504</v>
       </c>
     </row>
     <row r="150">
@@ -3271,12 +3292,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>25652</v>
+        <v>23879</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.078081885300917295</v>
+        <v>0.078464956948430711</v>
       </c>
     </row>
     <row r="151">
@@ -3284,12 +3305,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>19982</v>
+        <v>22113</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.076072850941960896</v>
+        <v>0.074858398850283212</v>
       </c>
     </row>
     <row r="152">
@@ -3297,12 +3318,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>21111</v>
+        <v>26648</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.080956052428681577</v>
+        <v>0.084759506636507206</v>
       </c>
     </row>
     <row r="153">
@@ -3310,12 +3331,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>24440</v>
+        <v>25652</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.069428834167773582</v>
+        <v>0.078113925467228729</v>
       </c>
     </row>
     <row r="154">
@@ -3323,12 +3344,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>25799</v>
+        <v>19982</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.080830171836643608</v>
+        <v>0.076093281410858971</v>
       </c>
     </row>
     <row r="155">
@@ -3336,12 +3357,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>28220</v>
+        <v>21111</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.084329017634177258</v>
+        <v>0.080971659919028341</v>
       </c>
     </row>
     <row r="156">
@@ -3349,12 +3370,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>22271</v>
+        <v>24440</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.07322438717787555</v>
+        <v>0.069386296334116207</v>
       </c>
     </row>
     <row r="157">
@@ -3362,12 +3383,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>23132</v>
+        <v>25799</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.087311766661916299</v>
+        <v>0.080851823742131346</v>
       </c>
     </row>
     <row r="158">
@@ -3375,12 +3396,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>23193</v>
+        <v>28220</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.078376617332216333</v>
+        <v>0.084367913287465887</v>
       </c>
     </row>
     <row r="159">
@@ -3388,12 +3409,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>18874</v>
+        <v>22271</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.096217407271391844</v>
+        <v>0.073235895018073233</v>
       </c>
     </row>
     <row r="160">
@@ -3401,12 +3422,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>27022</v>
+        <v>23132</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.092338202573280445</v>
+        <v>0.087349111301207108</v>
       </c>
     </row>
     <row r="161">
@@ -3414,12 +3435,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>24483</v>
+        <v>23193</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.091400008925782122</v>
+        <v>0.078398510242085676</v>
       </c>
     </row>
     <row r="162">
@@ -3427,12 +3448,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>22280</v>
+        <v>18874</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.095770005493499358</v>
+        <v>0.096159899276046581</v>
       </c>
     </row>
     <row r="163">
@@ -3440,12 +3461,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>23660</v>
+        <v>27022</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.093655743571392058</v>
+        <v>0.092347136222910214</v>
       </c>
     </row>
     <row r="164">
@@ -3453,12 +3474,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>18338</v>
+        <v>24483</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.08543308880484804</v>
+        <v>0.091436735422805601</v>
       </c>
     </row>
     <row r="165">
@@ -3466,12 +3487,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>14821</v>
+        <v>22280</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.088625651203175393</v>
+        <v>0.095743707093821517</v>
       </c>
     </row>
     <row r="166">
@@ -3479,12 +3500,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>17129</v>
+        <v>23660</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.09216354344122657</v>
+        <v>0.093646168788018194</v>
       </c>
     </row>
     <row r="167">
@@ -3492,12 +3513,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>18885</v>
+        <v>18338</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.084246232552966691</v>
+        <v>0.08545255674049769</v>
       </c>
     </row>
     <row r="168">
@@ -3505,12 +3526,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>16908</v>
+        <v>14821</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.08931238425234482</v>
+        <v>0.088658642511477856</v>
       </c>
     </row>
     <row r="169">
@@ -3518,12 +3539,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>20409</v>
+        <v>17129</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.091713340122199588</v>
+        <v>0.092218528935481131</v>
       </c>
     </row>
     <row r="170">
@@ -3531,12 +3552,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>21474</v>
+        <v>18885</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.10467430477112581</v>
+        <v>0.084236864053377811</v>
       </c>
     </row>
     <row r="171">
@@ -3544,12 +3565,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>21911</v>
+        <v>16908</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.083318997648947762</v>
+        <v>0.089344409251180312</v>
       </c>
     </row>
     <row r="172">
@@ -3557,12 +3578,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>18461</v>
+        <v>20409</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.095664617341530631</v>
+        <v>0.091777593783835432</v>
       </c>
     </row>
     <row r="173">
@@ -3570,12 +3591,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>16374</v>
+        <v>21474</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.087869770698407137</v>
+        <v>0.10469119862276739</v>
       </c>
     </row>
     <row r="174">
@@ -3583,12 +3604,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>17548</v>
+        <v>21911</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.08195195719188042</v>
+        <v>0.083318997648947762</v>
       </c>
     </row>
     <row r="175">
@@ -3596,12 +3617,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>20411</v>
+        <v>18461</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.094870604618776833</v>
+        <v>0.095654478007419191</v>
       </c>
     </row>
     <row r="176">
@@ -3609,12 +3630,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>19149</v>
+        <v>16374</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.098960450664963118</v>
+        <v>0.087892847763284598</v>
       </c>
     </row>
     <row r="177">
@@ -3622,12 +3643,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>21238</v>
+        <v>17548</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.096652553585604664</v>
+        <v>0.081961491478099016</v>
       </c>
     </row>
     <row r="178">
@@ -3635,12 +3656,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>18527</v>
+        <v>20411</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.077426885415991187</v>
+        <v>0.094887122047472586</v>
       </c>
     </row>
     <row r="179">
@@ -3648,12 +3669,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>15713</v>
+        <v>19149</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.082462769504334302</v>
+        <v>0.098966198164711347</v>
       </c>
     </row>
     <row r="180">
@@ -3661,12 +3682,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>11253</v>
+        <v>21238</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.090531561461794016</v>
+        <v>0.096646159952371496</v>
       </c>
     </row>
     <row r="181">
@@ -3674,12 +3695,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>18129</v>
+        <v>18527</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.084138243284032604</v>
+        <v>0.077446974119478498</v>
       </c>
     </row>
     <row r="182">
@@ -3687,12 +3708,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>15400</v>
+        <v>15713</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.094255396999634103</v>
+        <v>0.082462769504334316</v>
       </c>
     </row>
     <row r="183">
@@ -3700,12 +3721,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>24377</v>
+        <v>11253</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.095670191483280931</v>
+        <v>0.09044510385756678</v>
       </c>
     </row>
     <row r="184">
@@ -3713,12 +3734,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>21412</v>
+        <v>18129</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.085658432557312952</v>
+        <v>0.084163647342995168</v>
       </c>
     </row>
     <row r="185">
@@ -3726,12 +3747,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>17071</v>
+        <v>15400</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.082702738900421888</v>
+        <v>0.094269194174046694</v>
       </c>
     </row>
     <row r="186">
@@ -3739,12 +3760,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>13726</v>
+        <v>24377</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.080581382921876665</v>
+        <v>0.095683864513362887</v>
       </c>
     </row>
     <row r="187">
@@ -3752,12 +3773,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>12694</v>
+        <v>21412</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.090428571428571428</v>
+        <v>0.085629629629629639</v>
       </c>
     </row>
     <row r="188">
@@ -3765,12 +3786,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>13541</v>
+        <v>17071</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.082573529411764712</v>
+        <v>0.08273646161054958</v>
       </c>
     </row>
     <row r="189">
@@ -3778,12 +3799,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>16049</v>
+        <v>13726</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.091570081347635154</v>
+        <v>0.080589995724668656</v>
       </c>
     </row>
     <row r="190">
@@ -3791,12 +3812,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>22126</v>
+        <v>12694</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.092689386019931708</v>
+        <v>0.090584369195599368</v>
       </c>
     </row>
     <row r="191">
@@ -3804,12 +3825,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>19471</v>
+        <v>13541</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.098441454642333823</v>
+        <v>0.082567458275126834</v>
       </c>
     </row>
     <row r="192">
@@ -3817,12 +3838,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>15356</v>
+        <v>16049</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.084610849056603779</v>
+        <v>0.09158986175115208</v>
       </c>
     </row>
     <row r="193">
@@ -3830,12 +3851,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>15719</v>
+        <v>22126</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.076364370019166752</v>
+        <v>0.092715231788079472</v>
       </c>
     </row>
     <row r="194">
@@ -3843,12 +3864,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>9326</v>
+        <v>19471</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.086870830806549421</v>
+        <v>0.098454569677591267</v>
       </c>
     </row>
     <row r="195">
@@ -3856,12 +3877,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>12929</v>
+        <v>15356</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.090040701054904887</v>
+        <v>0.084617085575293002</v>
       </c>
     </row>
     <row r="196">
@@ -3869,12 +3890,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>15790</v>
+        <v>15719</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.09336635795821667</v>
+        <v>0.076364370019166752</v>
       </c>
     </row>
     <row r="197">
@@ -3882,12 +3903,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>12921</v>
+        <v>9326</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.097763048881524442</v>
+        <v>0.086844498332828132</v>
       </c>
     </row>
     <row r="198">
@@ -3895,12 +3916,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>18746</v>
+        <v>12929</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.086221054360321889</v>
+        <v>0.090048180760923746</v>
       </c>
     </row>
     <row r="199">
@@ -3908,12 +3929,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>12966</v>
+        <v>15790</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.089300829524293218</v>
+        <v>0.093366357958216684</v>
       </c>
     </row>
     <row r="200">
@@ -3921,12 +3942,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>12313</v>
+        <v>12921</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.078001086366105379</v>
+        <v>0.097781051468557242</v>
       </c>
     </row>
     <row r="201">
@@ -3934,12 +3955,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>4552</v>
+        <v>18746</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.078310149407521901</v>
+        <v>0.086270643332511721</v>
       </c>
     </row>
     <row r="202">
@@ -3947,12 +3968,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>13931</v>
+        <v>12966</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.080929147221043704</v>
+        <v>0.089300829524293218</v>
       </c>
     </row>
     <row r="203">
@@ -3960,12 +3981,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>11978</v>
+        <v>12313</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.081765276430649861</v>
+        <v>0.077984142500271539</v>
       </c>
     </row>
     <row r="204">
@@ -3973,12 +3994,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>16706</v>
+        <v>4552</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.099035933391761616</v>
+        <v>0.078296703296703296</v>
       </c>
     </row>
     <row r="205">
@@ -3986,12 +4007,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>10116</v>
+        <v>13931</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.090081892629663332</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="206">
@@ -3999,12 +4020,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>11573</v>
+        <v>11978</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.076517547823467383</v>
+        <v>0.081773207876612672</v>
       </c>
     </row>
     <row r="207">
@@ -4012,12 +4033,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>3571</v>
+        <v>16706</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.070626003210272875</v>
+        <v>0.099014238773274935</v>
       </c>
     </row>
     <row r="208">
@@ -4025,12 +4046,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>7748</v>
+        <v>10116</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.076485101537293598</v>
+        <v>0.090081892629663332</v>
       </c>
     </row>
     <row r="209">
@@ -4038,12 +4059,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>7154</v>
+        <v>11573</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.081884381037301238</v>
+        <v>0.076517547823467383</v>
       </c>
     </row>
     <row r="210">
@@ -4051,12 +4072,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>9046</v>
+        <v>3571</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.087788054554005332</v>
+        <v>0.07063734146733025</v>
       </c>
     </row>
     <row r="211">
@@ -4064,12 +4085,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>11829</v>
+        <v>7748</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.097291388315316404</v>
+        <v>0.076528674515761494</v>
       </c>
     </row>
     <row r="212">
@@ -4077,12 +4098,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>10185</v>
+        <v>7154</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.082903509875456027</v>
+        <v>0.08187221396731055</v>
       </c>
     </row>
     <row r="213">
@@ -4090,12 +4111,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>12313</v>
+        <v>9046</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.07316794329484394</v>
+        <v>0.087829360100376425</v>
       </c>
     </row>
     <row r="214">
@@ -4103,12 +4124,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>8647</v>
+        <v>11829</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.0629848540820096</v>
+        <v>0.097303206997084557</v>
       </c>
     </row>
     <row r="215">
@@ -4116,12 +4137,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>8397</v>
+        <v>10185</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.055847441136407862</v>
+        <v>0.082924373977601606</v>
       </c>
     </row>
     <row r="216">
@@ -4129,12 +4150,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>9508</v>
+        <v>12313</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.061007548913880758</v>
+        <v>0.073159579332418859</v>
       </c>
     </row>
     <row r="217">
@@ -4142,12 +4163,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>10708</v>
+        <v>8647</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.070902070902070902</v>
+        <v>0.0629848540820096</v>
       </c>
     </row>
     <row r="218">
@@ -4155,12 +4176,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>13923</v>
+        <v>8397</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.068524360322467573</v>
+        <v>0.055847441136407869</v>
       </c>
     </row>
     <row r="219">
@@ -4168,12 +4189,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>9317</v>
+        <v>9508</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.067188638018936639</v>
+        <v>0.061016949152542382</v>
       </c>
     </row>
     <row r="220">
@@ -4181,12 +4202,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>7919</v>
+        <v>10708</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.071962313190383362</v>
+        <v>0.070926966292134838</v>
       </c>
     </row>
     <row r="221">
@@ -4194,12 +4215,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>6686</v>
+        <v>13923</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.054418372441337994</v>
+        <v>0.068536371603856283</v>
       </c>
     </row>
     <row r="222">
@@ -4207,12 +4228,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>2741</v>
+        <v>9317</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.04138950480413895</v>
+        <v>0.067188638018936639</v>
       </c>
     </row>
     <row r="223">
@@ -4220,12 +4241,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>5318</v>
+        <v>7919</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.064655172413793108</v>
+        <v>0.071962313190383362</v>
       </c>
     </row>
     <row r="224">
@@ -4233,12 +4254,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>7457</v>
+        <v>6686</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.082644628099173556</v>
+        <v>0.054404791614674326</v>
       </c>
     </row>
     <row r="225">
@@ -4246,12 +4267,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>7917</v>
+        <v>2741</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.072809739794700401</v>
+        <v>0.04138950480413895</v>
       </c>
     </row>
     <row r="226">
@@ -4259,12 +4280,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>6871</v>
+        <v>5318</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.083333333333333329</v>
+        <v>0.064686152371825595</v>
       </c>
     </row>
     <row r="227">
@@ -4272,12 +4293,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>9330</v>
+        <v>7457</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.080752990851513023</v>
+        <v>0.082644628099173556</v>
       </c>
     </row>
     <row r="228">
@@ -4285,12 +4306,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>5972</v>
+        <v>7917</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.071380920613742502</v>
+        <v>0.072844518748507281</v>
       </c>
     </row>
     <row r="229">
@@ -4298,12 +4319,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>2701</v>
+        <v>6871</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.065079365079365084</v>
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="230">
@@ -4311,12 +4332,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>5202</v>
+        <v>9330</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.063455149501661132</v>
+        <v>0.080795634571378297</v>
       </c>
     </row>
     <row r="231">
@@ -4324,12 +4345,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5961</v>
+        <v>5972</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.077674897119341557</v>
+        <v>0.071404738071404739</v>
       </c>
     </row>
     <row r="232">
@@ -4337,12 +4358,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>5490</v>
+        <v>2701</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.070080862533692723</v>
+        <v>0.065079365079365098</v>
       </c>
     </row>
     <row r="233">
@@ -4350,12 +4371,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>6598</v>
+        <v>5202</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.073814201515576758</v>
+        <v>0.063455149501661146</v>
       </c>
     </row>
     <row r="234">
@@ -4363,12 +4384,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>5318</v>
+        <v>5961</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.097365702479338845</v>
+        <v>0.077714873906330417</v>
       </c>
     </row>
     <row r="235">
@@ -4376,12 +4397,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>3751</v>
+        <v>5490</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.080117244748412308</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="236">
@@ -4389,12 +4410,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>2134</v>
+        <v>6598</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.11092150170648464</v>
+        <v>0.0738349241998877</v>
       </c>
     </row>
     <row r="237">
@@ -4402,12 +4423,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>2985</v>
+        <v>5318</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.12969924812030076</v>
+        <v>0.097365702479338859</v>
       </c>
     </row>
     <row r="238">
@@ -4415,12 +4436,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>5298</v>
+        <v>3751</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.088084670536019122</v>
+        <v>0.08019559902200489</v>
       </c>
     </row>
     <row r="239">
@@ -4428,12 +4449,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>4788</v>
+        <v>2134</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.10689767898005885</v>
+        <v>0.11082693947144077</v>
       </c>
     </row>
     <row r="240">
@@ -4441,12 +4462,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>6406</v>
+        <v>2985</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.11596227733147049</v>
+        <v>0.12969924812030076</v>
       </c>
     </row>
     <row r="241">
@@ -4454,12 +4475,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>7796</v>
+        <v>5298</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.10592519033432639</v>
+        <v>0.088114754098360656</v>
       </c>
     </row>
     <row r="242">
@@ -4467,12 +4488,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>4520</v>
+        <v>4788</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.10867117117117117</v>
+        <v>0.10689767898005885</v>
       </c>
     </row>
     <row r="243">
@@ -4480,12 +4501,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>773</v>
+        <v>6406</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.089951377633711513</v>
+        <v>0.11588132635253055</v>
       </c>
     </row>
     <row r="244">
@@ -4493,12 +4514,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>2592</v>
+        <v>7796</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.12871287128712872</v>
+        <v>0.10599536270288176</v>
       </c>
     </row>
     <row r="245">
@@ -4506,12 +4527,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>3600</v>
+        <v>4520</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.13953488372093023</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="246">
@@ -4519,12 +4540,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>2472</v>
+        <v>773</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.11849841700587969</v>
+        <v>0.089951377633711527</v>
       </c>
     </row>
     <row r="247">
@@ -4532,12 +4553,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>3576</v>
+        <v>2592</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.15955056179775282</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="248">
@@ -4545,12 +4566,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>3215</v>
+        <v>3600</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.12762520193861066</v>
+        <v>0.13959085439229846</v>
       </c>
     </row>
     <row r="249">
@@ -4558,12 +4579,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>1968</v>
+        <v>2472</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="5">
-        <v>0.1115140525838622</v>
+        <v>0.11849841700587969</v>
       </c>
     </row>
     <row r="250">
@@ -4571,12 +4592,12 @@
         <v>248</v>
       </c>
       <c r="B250" s="4">
-        <v>1298</v>
+        <v>3576</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="5">
-        <v>0.11203814064362336</v>
+        <v>0.15955056179775284</v>
       </c>
     </row>
     <row r="251">
@@ -4584,12 +4605,12 @@
         <v>249</v>
       </c>
       <c r="B251" s="4">
-        <v>7999</v>
+        <v>3215</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="5">
-        <v>0.1631728045325779</v>
+        <v>0.12762520193861068</v>
       </c>
     </row>
     <row r="252">
@@ -4597,12 +4618,12 @@
         <v>250</v>
       </c>
       <c r="B252" s="4">
-        <v>2875</v>
+        <v>1968</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="5">
-        <v>0.11273209549071618</v>
+        <v>0.1115140525838622</v>
       </c>
     </row>
     <row r="253">
@@ -4610,12 +4631,12 @@
         <v>251</v>
       </c>
       <c r="B253" s="4">
-        <v>10211</v>
+        <v>1298</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="5">
-        <v>0.084402151427389327</v>
+        <v>0.11203814064362337</v>
       </c>
     </row>
     <row r="254">
@@ -4623,12 +4644,12 @@
         <v>252</v>
       </c>
       <c r="B254" s="4">
-        <v>5262</v>
+        <v>7999</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="5">
-        <v>0.091695501730103809</v>
+        <v>0.16326530612244897</v>
       </c>
     </row>
     <row r="255">
@@ -4636,12 +4657,12 @@
         <v>253</v>
       </c>
       <c r="B255" s="4">
-        <v>2431</v>
+        <v>2875</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="5">
-        <v>0.090319361277445109</v>
+        <v>0.11268228015908088</v>
       </c>
     </row>
     <row r="256">
@@ -4649,12 +4670,12 @@
         <v>254</v>
       </c>
       <c r="B256" s="4">
-        <v>913</v>
+        <v>10211</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="5">
-        <v>0.12023750618505691</v>
+        <v>0.084402151427389341</v>
       </c>
     </row>
     <row r="257">
@@ -4662,12 +4683,12 @@
         <v>255</v>
       </c>
       <c r="B257" s="4">
-        <v>852</v>
+        <v>5262</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="5">
-        <v>0.078808265257087937</v>
+        <v>0.091695501730103809</v>
       </c>
     </row>
     <row r="258">
@@ -4675,12 +4696,12 @@
         <v>256</v>
       </c>
       <c r="B258" s="4">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="5">
-        <v>0.082232496697490096</v>
+        <v>0.090319361277445109</v>
       </c>
     </row>
     <row r="259">
@@ -4688,12 +4709,12 @@
         <v>257</v>
       </c>
       <c r="B259" s="4">
-        <v>7629</v>
+        <v>913</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="5">
-        <v>0.084752035529237602</v>
+        <v>0.12023750618505692</v>
       </c>
     </row>
     <row r="260">
@@ -4701,12 +4722,12 @@
         <v>258</v>
       </c>
       <c r="B260" s="4">
-        <v>3404</v>
+        <v>852</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="5">
-        <v>0.080821917808219179</v>
+        <v>0.078770413064361208</v>
       </c>
     </row>
     <row r="261">
@@ -4714,12 +4735,12 @@
         <v>259</v>
       </c>
       <c r="B261" s="4">
-        <v>2883</v>
+        <v>1343</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="5">
-        <v>0.068212824010914053</v>
+        <v>0.082232496697490096</v>
       </c>
     </row>
     <row r="262">
@@ -4727,12 +4748,12 @@
         <v>260</v>
       </c>
       <c r="B262" s="4">
-        <v>3435</v>
+        <v>7629</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="5">
-        <v>0.074642126789366048</v>
+        <v>0.084752035529237602</v>
       </c>
     </row>
     <row r="263">
@@ -4740,40 +4761,46 @@
         <v>261</v>
       </c>
       <c r="B263" s="4">
-        <v>2787</v>
+        <v>3404</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="5"/>
+      <c r="E263" s="5">
+        <v>0.080821917808219193</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="4">
-        <v>2082</v>
+        <v>2883</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="5"/>
+      <c r="E264" s="5">
+        <v>0.068189566996249576</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="4">
-        <v>1638</v>
+        <v>3435</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="5"/>
+      <c r="E265" s="5">
+        <v>0.074667575860893287</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="4">
-        <v>2910</v>
+        <v>2787</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -4784,7 +4811,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="4">
-        <v>2667</v>
+        <v>2082</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -4795,7 +4822,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="4">
-        <v>2793</v>
+        <v>1638</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -4806,7 +4833,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="4">
-        <v>2446</v>
+        <v>2910</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -4817,7 +4844,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="4">
-        <v>529</v>
+        <v>2667</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -4828,7 +4855,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="4">
-        <v>2163</v>
+        <v>2793</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -4839,7 +4866,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="4">
-        <v>1389</v>
+        <v>2446</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -4850,7 +4877,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="4">
-        <v>2192</v>
+        <v>529</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -4861,7 +4888,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="4">
-        <v>943</v>
+        <v>2163</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -4872,7 +4899,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="4">
-        <v>1696</v>
+        <v>1389</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -4883,7 +4910,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="4">
-        <v>205</v>
+        <v>2192</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -4894,7 +4921,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="4">
-        <v>295</v>
+        <v>943</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -4905,7 +4932,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="4">
-        <v>936</v>
+        <v>1696</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -4915,7 +4942,9 @@
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B279" s="4"/>
+      <c r="B279" s="4">
+        <v>205</v>
+      </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="5"/>
@@ -4924,7 +4953,9 @@
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B280" s="4"/>
+      <c r="B280" s="4">
+        <v>295</v>
+      </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="5"/>
@@ -4933,7 +4964,9 @@
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B281" s="4"/>
+      <c r="B281" s="4">
+        <v>936</v>
+      </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="5"/>
@@ -5037,6 +5070,33 @@
       <c r="D292" s="4"/>
       <c r="E292" s="5"/>
     </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="5"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="5"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="5"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/nc_state_tests.xlsx
+++ b/nc_state_tests.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+  <si>
+    <t>12/21/2020</t>
+  </si>
   <si>
     <t>12/20/2020</t>
   </si>
@@ -993,24 +996,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -1027,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>52926</v>
+        <v>36514</v>
       </c>
       <c r="C3" s="4">
-        <v>50441</v>
+        <v>35344</v>
       </c>
       <c r="D3" s="4">
-        <v>2485</v>
+        <v>1170</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1042,16 +1045,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>72573</v>
+        <v>61298</v>
       </c>
       <c r="C4" s="4">
-        <v>66890</v>
+        <v>58388</v>
       </c>
       <c r="D4" s="4">
-        <v>5683</v>
+        <v>2910</v>
       </c>
       <c r="E4" s="5">
-        <v>0.10609738683421392</v>
+        <v>0.11010377085972047</v>
       </c>
     </row>
     <row r="5">
@@ -1059,16 +1062,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>72904</v>
+        <v>74020</v>
       </c>
       <c r="C5" s="4">
-        <v>68029</v>
+        <v>68264</v>
       </c>
       <c r="D5" s="4">
-        <v>4875</v>
+        <v>5756</v>
       </c>
       <c r="E5" s="5">
-        <v>0.10817545595928178</v>
+        <v>0.1052343647424395</v>
       </c>
     </row>
     <row r="6">
@@ -1076,16 +1079,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>58208</v>
+        <v>73016</v>
       </c>
       <c r="C6" s="4">
-        <v>52430</v>
+        <v>68142</v>
       </c>
       <c r="D6" s="4">
-        <v>5778</v>
+        <v>4874</v>
       </c>
       <c r="E6" s="5">
-        <v>0.10083133077872312</v>
+        <v>0.10976317226317227</v>
       </c>
     </row>
     <row r="7">
@@ -1093,16 +1096,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>41164</v>
+        <v>58306</v>
       </c>
       <c r="C7" s="4">
-        <v>33011</v>
+        <v>52528</v>
       </c>
       <c r="D7" s="4">
-        <v>8153</v>
+        <v>5778</v>
       </c>
       <c r="E7" s="5">
-        <v>0.11268787137364558</v>
+        <v>0.10087278154505046</v>
       </c>
     </row>
     <row r="8">
@@ -1110,16 +1113,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>37557</v>
+        <v>41183</v>
       </c>
       <c r="C8" s="4">
-        <v>35939</v>
+        <v>33028</v>
       </c>
       <c r="D8" s="4">
-        <v>1618</v>
+        <v>8155</v>
       </c>
       <c r="E8" s="5">
-        <v>0.12776158082280534</v>
+        <v>0.1127072080461911</v>
       </c>
     </row>
     <row r="9">
@@ -1127,16 +1130,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>45543</v>
+        <v>37592</v>
       </c>
       <c r="C9" s="4">
-        <v>43809</v>
+        <v>35974</v>
       </c>
       <c r="D9" s="4">
-        <v>1734</v>
+        <v>1618</v>
       </c>
       <c r="E9" s="5">
-        <v>0.11556503198294245</v>
+        <v>0.12779325085821622</v>
       </c>
     </row>
     <row r="10">
@@ -1144,16 +1147,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>58551</v>
+        <v>45561</v>
       </c>
       <c r="C10" s="4">
-        <v>54042</v>
+        <v>43827</v>
       </c>
       <c r="D10" s="4">
-        <v>4509</v>
+        <v>1734</v>
       </c>
       <c r="E10" s="5">
-        <v>0.1156150069810386</v>
+        <v>0.11540218682423171</v>
       </c>
     </row>
     <row r="11">
@@ -1161,16 +1164,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>65675</v>
+        <v>58566</v>
       </c>
       <c r="C11" s="4">
-        <v>59011</v>
+        <v>54057</v>
       </c>
       <c r="D11" s="4">
-        <v>6664</v>
+        <v>4509</v>
       </c>
       <c r="E11" s="5">
-        <v>0.10749602442011369</v>
+        <v>0.11544265027137807</v>
       </c>
     </row>
     <row r="12">
@@ -1178,16 +1181,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>68007</v>
+        <v>65676</v>
       </c>
       <c r="C12" s="4">
-        <v>62486</v>
+        <v>59012</v>
       </c>
       <c r="D12" s="4">
-        <v>5521</v>
+        <v>6664</v>
       </c>
       <c r="E12" s="5">
-        <v>0.10041700170166613</v>
+        <v>0.10763692183987866</v>
       </c>
     </row>
     <row r="13">
@@ -1195,16 +1198,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>57219</v>
+        <v>68048</v>
       </c>
       <c r="C13" s="4">
-        <v>51426</v>
+        <v>62527</v>
       </c>
       <c r="D13" s="4">
-        <v>5793</v>
+        <v>5521</v>
       </c>
       <c r="E13" s="5">
-        <v>0.099499942237552194</v>
+        <v>0.10041324632098581</v>
       </c>
     </row>
     <row r="14">
@@ -1212,16 +1215,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>48047</v>
+        <v>57228</v>
       </c>
       <c r="C14" s="4">
-        <v>39666</v>
+        <v>51435</v>
       </c>
       <c r="D14" s="4">
-        <v>8381</v>
+        <v>5793</v>
       </c>
       <c r="E14" s="5">
-        <v>0.10642948343396309</v>
+        <v>0.099467111015788687</v>
       </c>
     </row>
     <row r="15">
@@ -1229,16 +1232,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>39522</v>
+        <v>48065</v>
       </c>
       <c r="C15" s="4">
-        <v>37878</v>
+        <v>39684</v>
       </c>
       <c r="D15" s="4">
-        <v>1644</v>
+        <v>8381</v>
       </c>
       <c r="E15" s="5">
-        <v>0.12205229666862737</v>
+        <v>0.10640093482212412</v>
       </c>
     </row>
     <row r="16">
@@ -1246,16 +1249,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>50367</v>
+        <v>39527</v>
       </c>
       <c r="C16" s="4">
-        <v>48810</v>
+        <v>37883</v>
       </c>
       <c r="D16" s="4">
-        <v>1557</v>
+        <v>1644</v>
       </c>
       <c r="E16" s="5">
-        <v>0.097695429140188361</v>
+        <v>0.12202945815178165</v>
       </c>
     </row>
     <row r="17">
@@ -1263,16 +1266,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>54680</v>
+        <v>50369</v>
       </c>
       <c r="C17" s="4">
-        <v>50349</v>
+        <v>48812</v>
       </c>
       <c r="D17" s="4">
-        <v>4331</v>
+        <v>1557</v>
       </c>
       <c r="E17" s="5">
-        <v>0.10667595590344658</v>
+        <v>0.097680471560897195</v>
       </c>
     </row>
     <row r="18">
@@ -1280,16 +1283,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>61653</v>
+        <v>54694</v>
       </c>
       <c r="C18" s="4">
-        <v>55757</v>
+        <v>50363</v>
       </c>
       <c r="D18" s="4">
-        <v>5896</v>
+        <v>4331</v>
       </c>
       <c r="E18" s="5">
-        <v>0.10288338316958565</v>
+        <v>0.10667595590344658</v>
       </c>
     </row>
     <row r="19">
@@ -1297,16 +1300,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>59457</v>
+        <v>61661</v>
       </c>
       <c r="C19" s="4">
-        <v>52225</v>
+        <v>55764</v>
       </c>
       <c r="D19" s="4">
-        <v>7232</v>
+        <v>5897</v>
       </c>
       <c r="E19" s="5">
-        <v>0.10007013325318105</v>
+        <v>0.10289814834589839</v>
       </c>
     </row>
     <row r="20">
@@ -1314,16 +1317,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>51748</v>
+        <v>59461</v>
       </c>
       <c r="C20" s="4">
-        <v>46392</v>
+        <v>52229</v>
       </c>
       <c r="D20" s="4">
-        <v>5356</v>
+        <v>7232</v>
       </c>
       <c r="E20" s="5">
-        <v>0.1005948717948718</v>
+        <v>0.10006411797707783</v>
       </c>
     </row>
     <row r="21">
@@ -1331,16 +1334,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>32194</v>
+        <v>51797</v>
       </c>
       <c r="C21" s="4">
-        <v>25574</v>
+        <v>46441</v>
       </c>
       <c r="D21" s="4">
-        <v>6620</v>
+        <v>5356</v>
       </c>
       <c r="E21" s="5">
-        <v>0.10206066340745415</v>
+        <v>0.10058455543021229</v>
       </c>
     </row>
     <row r="22">
@@ -1348,16 +1351,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>24314</v>
+        <v>32195</v>
       </c>
       <c r="C22" s="4">
-        <v>22765</v>
+        <v>25575</v>
       </c>
       <c r="D22" s="4">
-        <v>1549</v>
+        <v>6620</v>
       </c>
       <c r="E22" s="5">
-        <v>0.11431472081218277</v>
+        <v>0.10196150513352414</v>
       </c>
     </row>
     <row r="23">
@@ -1365,16 +1368,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>35072</v>
+        <v>24318</v>
       </c>
       <c r="C23" s="4">
-        <v>33466</v>
+        <v>22769</v>
       </c>
       <c r="D23" s="4">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="E23" s="5">
-        <v>0.099632836226825616</v>
+        <v>0.11431472081218275</v>
       </c>
     </row>
     <row r="24">
@@ -1382,16 +1385,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>41489</v>
+        <v>35077</v>
       </c>
       <c r="C24" s="4">
-        <v>39075</v>
+        <v>33471</v>
       </c>
       <c r="D24" s="4">
-        <v>2414</v>
+        <v>1606</v>
       </c>
       <c r="E24" s="5">
-        <v>0.091295761810724602</v>
+        <v>0.099587507365939895</v>
       </c>
     </row>
     <row r="25">
@@ -1399,16 +1402,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>41475</v>
+        <v>41489</v>
       </c>
       <c r="C25" s="4">
-        <v>40439</v>
+        <v>39075</v>
       </c>
       <c r="D25" s="4">
-        <v>1036</v>
+        <v>2414</v>
       </c>
       <c r="E25" s="5">
-        <v>0.086412845833216775</v>
+        <v>0.09129298821241949</v>
       </c>
     </row>
     <row r="26">
@@ -1416,16 +1419,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>66966</v>
+        <v>41475</v>
       </c>
       <c r="C26" s="4">
-        <v>61187</v>
+        <v>40439</v>
       </c>
       <c r="D26" s="4">
-        <v>5779</v>
+        <v>1036</v>
       </c>
       <c r="E26" s="5">
-        <v>0.07640954608415268</v>
+        <v>0.086410428555443661</v>
       </c>
     </row>
     <row r="27">
@@ -1433,16 +1436,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>50652</v>
+        <v>66968</v>
       </c>
       <c r="C27" s="4">
-        <v>44430</v>
+        <v>61187</v>
       </c>
       <c r="D27" s="4">
-        <v>6222</v>
+        <v>5781</v>
       </c>
       <c r="E27" s="5">
-        <v>0.069486459889929658</v>
+        <v>0.07638510445049955</v>
       </c>
     </row>
     <row r="28">
@@ -1450,16 +1453,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>52210</v>
+        <v>50652</v>
       </c>
       <c r="C28" s="4">
-        <v>45548</v>
+        <v>44430</v>
       </c>
       <c r="D28" s="4">
-        <v>6662</v>
+        <v>6222</v>
       </c>
       <c r="E28" s="5">
-        <v>0.078791906660759123</v>
+        <v>0.069485193621867877</v>
       </c>
     </row>
     <row r="29">
@@ -1467,16 +1470,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>41542</v>
+        <v>52210</v>
       </c>
       <c r="C29" s="4">
-        <v>39968</v>
+        <v>45548</v>
       </c>
       <c r="D29" s="4">
-        <v>1574</v>
+        <v>6662</v>
       </c>
       <c r="E29" s="5">
-        <v>0.071953342224834418</v>
+        <v>0.078829493994880886</v>
       </c>
     </row>
     <row r="30">
@@ -1484,16 +1487,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>42308</v>
+        <v>41542</v>
       </c>
       <c r="C30" s="4">
-        <v>40850</v>
+        <v>39968</v>
       </c>
       <c r="D30" s="4">
-        <v>1458</v>
+        <v>1574</v>
       </c>
       <c r="E30" s="5">
-        <v>0.065682015638575147</v>
+        <v>0.071950089287732541</v>
       </c>
     </row>
     <row r="31">
@@ -1501,16 +1504,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>53483</v>
+        <v>42308</v>
       </c>
       <c r="C31" s="4">
-        <v>49286</v>
+        <v>40850</v>
       </c>
       <c r="D31" s="4">
-        <v>4197</v>
+        <v>1458</v>
       </c>
       <c r="E31" s="5">
-        <v>0.068498543421777816</v>
+        <v>0.065676309616888195</v>
       </c>
     </row>
     <row r="32">
@@ -1518,16 +1521,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>58409</v>
+        <v>53483</v>
       </c>
       <c r="C32" s="4">
-        <v>53155</v>
+        <v>49286</v>
       </c>
       <c r="D32" s="4">
-        <v>5254</v>
+        <v>4197</v>
       </c>
       <c r="E32" s="5">
-        <v>0.069037024236402122</v>
+        <v>0.068496745748477847</v>
       </c>
     </row>
     <row r="33">
@@ -1535,16 +1538,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>53893</v>
+        <v>58409</v>
       </c>
       <c r="C33" s="4">
-        <v>49838</v>
+        <v>53155</v>
       </c>
       <c r="D33" s="4">
-        <v>4055</v>
+        <v>5254</v>
       </c>
       <c r="E33" s="5">
-        <v>0.072871784145576241</v>
+        <v>0.069012441679626751</v>
       </c>
     </row>
     <row r="34">
@@ -1552,16 +1555,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>50325</v>
+        <v>53893</v>
       </c>
       <c r="C34" s="4">
-        <v>45781</v>
+        <v>49838</v>
       </c>
       <c r="D34" s="4">
-        <v>4544</v>
+        <v>4055</v>
       </c>
       <c r="E34" s="5">
-        <v>0.079008194998949371</v>
+        <v>0.072886602250386914</v>
       </c>
     </row>
     <row r="35">
@@ -1569,16 +1572,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>35669</v>
+        <v>50325</v>
       </c>
       <c r="C35" s="4">
-        <v>30702</v>
+        <v>45781</v>
       </c>
       <c r="D35" s="4">
-        <v>4967</v>
+        <v>4544</v>
       </c>
       <c r="E35" s="5">
-        <v>0.077298616761594788</v>
+        <v>0.079004874768868721</v>
       </c>
     </row>
     <row r="36">
@@ -1586,16 +1589,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>29526</v>
+        <v>35669</v>
       </c>
       <c r="C36" s="4">
-        <v>28666</v>
+        <v>30702</v>
       </c>
       <c r="D36" s="4">
-        <v>860</v>
+        <v>4967</v>
       </c>
       <c r="E36" s="5">
-        <v>0.087143072971748003</v>
+        <v>0.077296710883179645</v>
       </c>
     </row>
     <row r="37">
@@ -1603,16 +1606,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>35712</v>
+        <v>29527</v>
       </c>
       <c r="C37" s="4">
-        <v>34688</v>
+        <v>28667</v>
       </c>
       <c r="D37" s="4">
-        <v>1024</v>
+        <v>860</v>
       </c>
       <c r="E37" s="5">
-        <v>0.087167070217917669</v>
+        <v>0.087132541768633498</v>
       </c>
     </row>
     <row r="38">
@@ -1620,16 +1623,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>41044</v>
+        <v>35711</v>
       </c>
       <c r="C38" s="4">
-        <v>38381</v>
+        <v>34687</v>
       </c>
       <c r="D38" s="4">
-        <v>2663</v>
+        <v>1024</v>
       </c>
       <c r="E38" s="5">
-        <v>0.080364514846640769</v>
+        <v>0.087167070217917669</v>
       </c>
     </row>
     <row r="39">
@@ -1637,16 +1640,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>48354</v>
+        <v>41044</v>
       </c>
       <c r="C39" s="4">
-        <v>44528</v>
+        <v>38381</v>
       </c>
       <c r="D39" s="4">
-        <v>3826</v>
+        <v>2663</v>
       </c>
       <c r="E39" s="5">
-        <v>0.077328646748681895</v>
+        <v>0.080362057366521925</v>
       </c>
     </row>
     <row r="40">
@@ -1654,16 +1657,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>46521</v>
+        <v>48354</v>
       </c>
       <c r="C40" s="4">
-        <v>43323</v>
+        <v>44528</v>
       </c>
       <c r="D40" s="4">
-        <v>3198</v>
+        <v>3826</v>
       </c>
       <c r="E40" s="5">
-        <v>0.078002104103000861</v>
+        <v>0.077330803994866928</v>
       </c>
     </row>
     <row r="41">
@@ -1671,16 +1674,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>41538</v>
+        <v>46521</v>
       </c>
       <c r="C41" s="4">
-        <v>37779</v>
+        <v>43323</v>
       </c>
       <c r="D41" s="4">
-        <v>3759</v>
+        <v>3198</v>
       </c>
       <c r="E41" s="5">
-        <v>0.075884769462376586</v>
+        <v>0.077994289435455597</v>
       </c>
     </row>
     <row r="42">
@@ -1688,16 +1691,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>29475</v>
+        <v>41538</v>
       </c>
       <c r="C42" s="4">
-        <v>25886</v>
+        <v>37779</v>
       </c>
       <c r="D42" s="4">
-        <v>3589</v>
+        <v>3759</v>
       </c>
       <c r="E42" s="5">
-        <v>0.077047522750252784</v>
+        <v>0.075884769462376572</v>
       </c>
     </row>
     <row r="43">
@@ -1705,16 +1708,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>26393</v>
+        <v>29475</v>
       </c>
       <c r="C43" s="4">
-        <v>25653</v>
+        <v>25886</v>
       </c>
       <c r="D43" s="4">
-        <v>740</v>
+        <v>3589</v>
       </c>
       <c r="E43" s="5">
-        <v>0.080899146532035116</v>
+        <v>0.077047522750252784</v>
       </c>
     </row>
     <row r="44">
@@ -1722,16 +1725,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>34474</v>
+        <v>26393</v>
       </c>
       <c r="C44" s="4">
-        <v>33704</v>
+        <v>25653</v>
       </c>
       <c r="D44" s="4">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E44" s="5">
-        <v>0.075085631873084549</v>
+        <v>0.080899146532035102</v>
       </c>
     </row>
     <row r="45">
@@ -1739,16 +1742,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>40215</v>
+        <v>34474</v>
       </c>
       <c r="C45" s="4">
-        <v>38170</v>
+        <v>33704</v>
       </c>
       <c r="D45" s="4">
-        <v>2045</v>
+        <v>770</v>
       </c>
       <c r="E45" s="5">
-        <v>0.06515529631077302</v>
+        <v>0.075085631873084549</v>
       </c>
     </row>
     <row r="46">
@@ -1756,16 +1759,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>44934</v>
+        <v>40215</v>
       </c>
       <c r="C46" s="4">
-        <v>41834</v>
+        <v>38170</v>
       </c>
       <c r="D46" s="4">
-        <v>3100</v>
+        <v>2045</v>
       </c>
       <c r="E46" s="5">
-        <v>0.058733247457998738</v>
+        <v>0.065151378491326184</v>
       </c>
     </row>
     <row r="47">
@@ -1773,16 +1776,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>47668</v>
+        <v>44934</v>
       </c>
       <c r="C47" s="4">
-        <v>45124</v>
+        <v>41834</v>
       </c>
       <c r="D47" s="4">
-        <v>2544</v>
+        <v>3100</v>
       </c>
       <c r="E47" s="5">
-        <v>0.066519925264262494</v>
+        <v>0.058733247457998738</v>
       </c>
     </row>
     <row r="48">
@@ -1790,16 +1793,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>43377</v>
+        <v>47668</v>
       </c>
       <c r="C48" s="4">
-        <v>40547</v>
+        <v>45124</v>
       </c>
       <c r="D48" s="4">
-        <v>2830</v>
+        <v>2544</v>
       </c>
       <c r="E48" s="5">
-        <v>0.064285540022932977</v>
+        <v>0.066523330517801835</v>
       </c>
     </row>
     <row r="49">
@@ -1807,16 +1810,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>25526</v>
+        <v>43377</v>
       </c>
       <c r="C49" s="4">
-        <v>22386</v>
+        <v>40547</v>
       </c>
       <c r="D49" s="4">
-        <v>3140</v>
+        <v>2830</v>
       </c>
       <c r="E49" s="5">
-        <v>0.065247148288973378</v>
+        <v>0.064283971700414735</v>
       </c>
     </row>
     <row r="50">
@@ -1824,16 +1827,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>26672</v>
+        <v>25526</v>
       </c>
       <c r="C50" s="4">
-        <v>26109</v>
+        <v>22386</v>
       </c>
       <c r="D50" s="4">
-        <v>563</v>
+        <v>3140</v>
       </c>
       <c r="E50" s="5">
-        <v>0.074473781768752328</v>
+        <v>0.065247148288973378</v>
       </c>
     </row>
     <row r="51">
@@ -1841,16 +1844,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>33570</v>
+        <v>26672</v>
       </c>
       <c r="C51" s="4">
-        <v>32749</v>
+        <v>26109</v>
       </c>
       <c r="D51" s="4">
-        <v>821</v>
+        <v>563</v>
       </c>
       <c r="E51" s="5">
-        <v>0.067706787637257806</v>
+        <v>0.074473781768752315</v>
       </c>
     </row>
     <row r="52">
@@ -1858,16 +1861,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>39051</v>
+        <v>33570</v>
       </c>
       <c r="C52" s="4">
-        <v>37191</v>
+        <v>32749</v>
       </c>
       <c r="D52" s="4">
-        <v>1860</v>
+        <v>821</v>
       </c>
       <c r="E52" s="5">
-        <v>0.063602133668026362</v>
+        <v>0.067709658271856182</v>
       </c>
     </row>
     <row r="53">
@@ -1875,16 +1878,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>45092</v>
+        <v>39051</v>
       </c>
       <c r="C53" s="4">
-        <v>42087</v>
+        <v>37191</v>
       </c>
       <c r="D53" s="4">
-        <v>3005</v>
+        <v>1860</v>
       </c>
       <c r="E53" s="5">
-        <v>0.059493998791123395</v>
+        <v>0.063604129404750701</v>
       </c>
     </row>
     <row r="54">
@@ -1892,16 +1895,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>45535</v>
+        <v>45092</v>
       </c>
       <c r="C54" s="4">
-        <v>43059</v>
+        <v>42087</v>
       </c>
       <c r="D54" s="4">
-        <v>2476</v>
+        <v>3005</v>
       </c>
       <c r="E54" s="5">
-        <v>0.060412614044220388</v>
+        <v>0.059493998791123388</v>
       </c>
     </row>
     <row r="55">
@@ -1909,16 +1912,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>38860</v>
+        <v>45535</v>
       </c>
       <c r="C55" s="4">
-        <v>36669</v>
+        <v>43059</v>
       </c>
       <c r="D55" s="4">
-        <v>2191</v>
+        <v>2476</v>
       </c>
       <c r="E55" s="5">
-        <v>0.05934039480019259</v>
+        <v>0.060412614044220388</v>
       </c>
     </row>
     <row r="56">
@@ -1926,16 +1929,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>23982</v>
+        <v>38860</v>
       </c>
       <c r="C56" s="4">
-        <v>21589</v>
+        <v>36669</v>
       </c>
       <c r="D56" s="4">
-        <v>2393</v>
+        <v>2191</v>
       </c>
       <c r="E56" s="5">
-        <v>0.064155697755379465</v>
+        <v>0.059340394800192584</v>
       </c>
     </row>
     <row r="57">
@@ -1943,16 +1946,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>25467</v>
+        <v>23982</v>
       </c>
       <c r="C57" s="4">
-        <v>25050</v>
+        <v>21589</v>
       </c>
       <c r="D57" s="4">
-        <v>417</v>
+        <v>2393</v>
       </c>
       <c r="E57" s="5">
-        <v>0.070207145836229667</v>
+        <v>0.064153570718122138</v>
       </c>
     </row>
     <row r="58">
@@ -1960,16 +1963,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>30512</v>
+        <v>25467</v>
       </c>
       <c r="C58" s="4">
-        <v>30029</v>
+        <v>25050</v>
       </c>
       <c r="D58" s="4">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="E58" s="5">
-        <v>0.075019622423266</v>
+        <v>0.070203892493049119</v>
       </c>
     </row>
     <row r="59">
@@ -1977,16 +1980,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>37817</v>
+        <v>30512</v>
       </c>
       <c r="C59" s="4">
-        <v>36632</v>
+        <v>30029</v>
       </c>
       <c r="D59" s="4">
-        <v>1185</v>
+        <v>483</v>
       </c>
       <c r="E59" s="5">
-        <v>0.061590500687079386</v>
+        <v>0.075016523463317913</v>
       </c>
     </row>
     <row r="60">
@@ -1994,16 +1997,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>40632</v>
+        <v>37817</v>
       </c>
       <c r="C60" s="4">
-        <v>38722</v>
+        <v>36632</v>
       </c>
       <c r="D60" s="4">
-        <v>1910</v>
+        <v>1185</v>
       </c>
       <c r="E60" s="5">
-        <v>0.064153799576142895</v>
+        <v>0.061594841255858207</v>
       </c>
     </row>
     <row r="61">
@@ -2011,16 +2014,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>46372</v>
+        <v>40632</v>
       </c>
       <c r="C61" s="4">
-        <v>44981</v>
+        <v>38722</v>
       </c>
       <c r="D61" s="4">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="E61" s="5">
-        <v>0.063082323752210526</v>
+        <v>0.064151857346129396</v>
       </c>
     </row>
     <row r="62">
@@ -2028,16 +2031,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>36482</v>
+        <v>46372</v>
       </c>
       <c r="C62" s="4">
-        <v>34738</v>
+        <v>44981</v>
       </c>
       <c r="D62" s="4">
-        <v>1744</v>
+        <v>1391</v>
       </c>
       <c r="E62" s="5">
-        <v>0.058691722048226515</v>
+        <v>0.063077329110583266</v>
       </c>
     </row>
     <row r="63">
@@ -2045,16 +2048,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>18442</v>
+        <v>36482</v>
       </c>
       <c r="C63" s="4">
-        <v>16603</v>
+        <v>34738</v>
       </c>
       <c r="D63" s="4">
-        <v>1839</v>
+        <v>1744</v>
       </c>
       <c r="E63" s="5">
-        <v>0.061636008404910243</v>
+        <v>0.058691722048226515</v>
       </c>
     </row>
     <row r="64">
@@ -2062,16 +2065,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>23455</v>
+        <v>18442</v>
       </c>
       <c r="C64" s="4">
-        <v>23119</v>
+        <v>16603</v>
       </c>
       <c r="D64" s="4">
-        <v>336</v>
+        <v>1839</v>
       </c>
       <c r="E64" s="5">
-        <v>0.07688774045363192</v>
+        <v>0.061636008404910236</v>
       </c>
     </row>
     <row r="65">
@@ -2079,16 +2082,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>32975</v>
+        <v>23455</v>
       </c>
       <c r="C65" s="4">
-        <v>32583</v>
+        <v>23119</v>
       </c>
       <c r="D65" s="4">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E65" s="5">
-        <v>0.073919688759205224</v>
+        <v>0.07688774045363192</v>
       </c>
     </row>
     <row r="66">
@@ -2096,16 +2099,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>34489</v>
+        <v>32975</v>
       </c>
       <c r="C66" s="4">
-        <v>33614</v>
+        <v>32583</v>
       </c>
       <c r="D66" s="4">
-        <v>875</v>
+        <v>392</v>
       </c>
       <c r="E66" s="5">
-        <v>0.058617166212534058</v>
+        <v>0.073919688759205224</v>
       </c>
     </row>
     <row r="67">
@@ -2113,16 +2116,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>41557</v>
+        <v>34489</v>
       </c>
       <c r="C67" s="4">
-        <v>40063</v>
+        <v>33614</v>
       </c>
       <c r="D67" s="4">
-        <v>1494</v>
+        <v>875</v>
       </c>
       <c r="E67" s="5">
-        <v>0.061094358587762292</v>
+        <v>0.05861516978304554</v>
       </c>
     </row>
     <row r="68">
@@ -2130,16 +2133,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>42287</v>
+        <v>41557</v>
       </c>
       <c r="C68" s="4">
-        <v>41168</v>
+        <v>40063</v>
       </c>
       <c r="D68" s="4">
-        <v>1119</v>
+        <v>1494</v>
       </c>
       <c r="E68" s="5">
-        <v>0.065300470783716424</v>
+        <v>0.061096277681796762</v>
       </c>
     </row>
     <row r="69">
@@ -2147,16 +2150,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>34298</v>
+        <v>42287</v>
       </c>
       <c r="C69" s="4">
-        <v>32849</v>
+        <v>41168</v>
       </c>
       <c r="D69" s="4">
-        <v>1449</v>
+        <v>1119</v>
       </c>
       <c r="E69" s="5">
-        <v>0.060740013097576956</v>
+        <v>0.065300470783716424</v>
       </c>
     </row>
     <row r="70">
@@ -2164,16 +2167,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>21670</v>
+        <v>34298</v>
       </c>
       <c r="C70" s="4">
-        <v>20537</v>
+        <v>32849</v>
       </c>
       <c r="D70" s="4">
-        <v>1133</v>
+        <v>1449</v>
       </c>
       <c r="E70" s="5">
-        <v>0.066279505432746355</v>
+        <v>0.060741670532376453</v>
       </c>
     </row>
     <row r="71">
@@ -2181,16 +2184,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>21637</v>
+        <v>21670</v>
       </c>
       <c r="C71" s="4">
-        <v>21359</v>
+        <v>20537</v>
       </c>
       <c r="D71" s="4">
-        <v>278</v>
+        <v>1133</v>
       </c>
       <c r="E71" s="5">
-        <v>0.067749773690980994</v>
+        <v>0.066277022217226783</v>
       </c>
     </row>
     <row r="72">
@@ -2198,16 +2201,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>32579</v>
+        <v>21637</v>
       </c>
       <c r="C72" s="4">
-        <v>32240</v>
+        <v>21359</v>
       </c>
       <c r="D72" s="4">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E72" s="5">
-        <v>0.069757940966193449</v>
+        <v>0.067746545974273459</v>
       </c>
     </row>
     <row r="73">
@@ -2215,16 +2218,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>37229</v>
+        <v>32579</v>
       </c>
       <c r="C73" s="4">
-        <v>36220</v>
+        <v>32240</v>
       </c>
       <c r="D73" s="4">
-        <v>1009</v>
+        <v>339</v>
       </c>
       <c r="E73" s="5">
-        <v>0.056442436989276971</v>
+        <v>0.069757940966193449</v>
       </c>
     </row>
     <row r="74">
@@ -2232,16 +2235,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>42458</v>
+        <v>37229</v>
       </c>
       <c r="C74" s="4">
-        <v>41183</v>
+        <v>36220</v>
       </c>
       <c r="D74" s="4">
-        <v>1275</v>
+        <v>1009</v>
       </c>
       <c r="E74" s="5">
-        <v>0.05547356541366439</v>
+        <v>0.056444383145989929</v>
       </c>
     </row>
     <row r="75">
@@ -2249,16 +2252,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>40909</v>
+        <v>42458</v>
       </c>
       <c r="C75" s="4">
-        <v>40012</v>
+        <v>41183</v>
       </c>
       <c r="D75" s="4">
-        <v>897</v>
+        <v>1275</v>
       </c>
       <c r="E75" s="5">
-        <v>0.050143458557906306</v>
+        <v>0.055462330748755929</v>
       </c>
     </row>
     <row r="76">
@@ -2266,16 +2269,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>34450</v>
+        <v>40909</v>
       </c>
       <c r="C76" s="4">
-        <v>33428</v>
+        <v>40012</v>
       </c>
       <c r="D76" s="4">
-        <v>1022</v>
+        <v>897</v>
       </c>
       <c r="E76" s="5">
-        <v>0.057253406605730958</v>
+        <v>0.050143458557906306</v>
       </c>
     </row>
     <row r="77">
@@ -2283,16 +2286,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>17803</v>
+        <v>34450</v>
       </c>
       <c r="C77" s="4">
-        <v>16888</v>
+        <v>33428</v>
       </c>
       <c r="D77" s="4">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E77" s="5">
-        <v>0.056832742895907139</v>
+        <v>0.057253406605730951</v>
       </c>
     </row>
     <row r="78">
@@ -2300,16 +2303,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>18047</v>
+        <v>17803</v>
       </c>
       <c r="C78" s="4">
-        <v>17794</v>
+        <v>16888</v>
       </c>
       <c r="D78" s="4">
-        <v>253</v>
+        <v>915</v>
       </c>
       <c r="E78" s="5">
-        <v>0.064944695050361489</v>
+        <v>0.056832742895907139</v>
       </c>
     </row>
     <row r="79">
@@ -2317,16 +2320,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>26991</v>
+        <v>18047</v>
       </c>
       <c r="C79" s="4">
-        <v>26698</v>
+        <v>17794</v>
       </c>
       <c r="D79" s="4">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="E79" s="5">
-        <v>0.078588289481259718</v>
+        <v>0.064944695050361489</v>
       </c>
     </row>
     <row r="80">
@@ -2334,16 +2337,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>32524</v>
+        <v>26991</v>
       </c>
       <c r="C80" s="4">
-        <v>31889</v>
+        <v>26698</v>
       </c>
       <c r="D80" s="4">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="E80" s="5">
-        <v>0.061932888204074651</v>
+        <v>0.078574717936909969</v>
       </c>
     </row>
     <row r="81">
@@ -2351,16 +2354,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>36043</v>
+        <v>32524</v>
       </c>
       <c r="C81" s="4">
-        <v>35426</v>
+        <v>31889</v>
       </c>
       <c r="D81" s="4">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="E81" s="5">
-        <v>0.060985091781887019</v>
+        <v>0.061935539100286777</v>
       </c>
     </row>
     <row r="82">
@@ -2368,16 +2371,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>40621</v>
+        <v>36043</v>
       </c>
       <c r="C82" s="4">
-        <v>39874</v>
+        <v>35426</v>
       </c>
       <c r="D82" s="4">
-        <v>747</v>
+        <v>617</v>
       </c>
       <c r="E82" s="5">
-        <v>0.054527955727991829</v>
+        <v>0.060985091781887019</v>
       </c>
     </row>
     <row r="83">
@@ -2385,16 +2388,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>29238</v>
+        <v>40621</v>
       </c>
       <c r="C83" s="4">
-        <v>28574</v>
+        <v>39874</v>
       </c>
       <c r="D83" s="4">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="E83" s="5">
-        <v>0.054479825395937098</v>
+        <v>0.054527955727991823</v>
       </c>
     </row>
     <row r="84">
@@ -2402,16 +2405,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>14220</v>
+        <v>29238</v>
       </c>
       <c r="C84" s="4">
-        <v>13675</v>
+        <v>28574</v>
       </c>
       <c r="D84" s="4">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="E84" s="5">
-        <v>0.058002528445006321</v>
+        <v>0.054478301015697138</v>
       </c>
     </row>
     <row r="85">
@@ -2419,16 +2422,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>13901</v>
+        <v>14220</v>
       </c>
       <c r="C85" s="4">
-        <v>13789</v>
+        <v>13675</v>
       </c>
       <c r="D85" s="4">
-        <v>112</v>
+        <v>545</v>
       </c>
       <c r="E85" s="5">
-        <v>0.066697092189333687</v>
+        <v>0.058002528445006321</v>
       </c>
     </row>
     <row r="86">
@@ -2436,16 +2439,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>26010</v>
+        <v>13901</v>
       </c>
       <c r="C86" s="4">
-        <v>25913</v>
+        <v>13789</v>
       </c>
       <c r="D86" s="4">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E86" s="5">
-        <v>0.060018801070214775</v>
+        <v>0.066692743985918249</v>
       </c>
     </row>
     <row r="87">
@@ -2453,16 +2456,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>31623</v>
+        <v>26010</v>
       </c>
       <c r="C87" s="4">
-        <v>31292</v>
+        <v>25913</v>
       </c>
       <c r="D87" s="4">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E87" s="5">
-        <v>0.053079450669812116</v>
+        <v>0.060018801070214768</v>
       </c>
     </row>
     <row r="88">
@@ -2470,16 +2473,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>36140</v>
+        <v>31623</v>
       </c>
       <c r="C88" s="4">
-        <v>35809</v>
+        <v>31292</v>
       </c>
       <c r="D88" s="4">
         <v>331</v>
       </c>
       <c r="E88" s="5">
-        <v>0.049546621043627039</v>
+        <v>0.053079450669812116</v>
       </c>
     </row>
     <row r="89">
@@ -2487,16 +2490,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>38434</v>
+        <v>36140</v>
       </c>
       <c r="C89" s="4">
-        <v>38070</v>
+        <v>35809</v>
       </c>
       <c r="D89" s="4">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E89" s="5">
-        <v>0.045799921914887236</v>
+        <v>0.049543230574468813</v>
       </c>
     </row>
     <row r="90">
@@ -2504,16 +2507,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>28553</v>
+        <v>38434</v>
       </c>
       <c r="C90" s="4">
-        <v>28179</v>
+        <v>38070</v>
       </c>
       <c r="D90" s="4">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E90" s="5">
-        <v>0.049124177508037138</v>
+        <v>0.045801297453147524</v>
       </c>
     </row>
     <row r="91">
@@ -2521,16 +2524,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>12649</v>
+        <v>28553</v>
       </c>
       <c r="C91" s="4">
-        <v>12334</v>
+        <v>28179</v>
       </c>
       <c r="D91" s="4">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="E91" s="5">
-        <v>0.048554685576402225</v>
+        <v>0.049122701598365584</v>
       </c>
     </row>
     <row r="92">
@@ -2538,12 +2541,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>16001</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+        <v>12649</v>
+      </c>
+      <c r="C92" s="4">
+        <v>12334</v>
+      </c>
+      <c r="D92" s="4">
+        <v>315</v>
+      </c>
       <c r="E92" s="5">
-        <v>0.053908355795148251</v>
+        <v>0.048554685576402225</v>
       </c>
     </row>
     <row r="93">
@@ -2551,12 +2558,12 @@
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>24679</v>
+        <v>16001</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5">
-        <v>0.052814894560192518</v>
+        <v>0.053908355795148251</v>
       </c>
     </row>
     <row r="94">
@@ -2564,12 +2571,12 @@
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>27403</v>
+        <v>24679</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5">
-        <v>0.052833287708732558</v>
+        <v>0.052811550151975681</v>
       </c>
     </row>
     <row r="95">
@@ -2577,12 +2584,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>34441</v>
+        <v>27403</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5">
-        <v>0.046130532844657457</v>
+        <v>0.052838109144004379</v>
       </c>
     </row>
     <row r="96">
@@ -2590,12 +2597,12 @@
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>37607</v>
+        <v>34441</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5">
-        <v>0.047264260768335273</v>
+        <v>0.046133784450553321</v>
       </c>
     </row>
     <row r="97">
@@ -2603,12 +2610,12 @@
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>28506</v>
+        <v>37607</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5">
-        <v>0.047417201784076171</v>
+        <v>0.047262688751413554</v>
       </c>
     </row>
     <row r="98">
@@ -2616,12 +2623,12 @@
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>15629</v>
+        <v>28506</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5">
-        <v>0.056792513714101323</v>
+        <v>0.047415701904219648</v>
       </c>
     </row>
     <row r="99">
@@ -2629,12 +2636,12 @@
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>18342</v>
+        <v>15629</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5">
-        <v>0.057017042205192735</v>
+        <v>0.056792513714101323</v>
       </c>
     </row>
     <row r="100">
@@ -2642,12 +2649,12 @@
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>26203</v>
+        <v>18342</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5">
-        <v>0.049339505475894781</v>
+        <v>0.057013781666380742</v>
       </c>
     </row>
     <row r="101">
@@ -2655,12 +2662,12 @@
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>33367</v>
+        <v>26203</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5">
-        <v>0.04746031084628527</v>
+        <v>0.04933672029353655</v>
       </c>
     </row>
     <row r="102">
@@ -2668,12 +2675,12 @@
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>38681</v>
+        <v>33367</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5">
-        <v>0.049671087346536746</v>
+        <v>0.047458333333333332</v>
       </c>
     </row>
     <row r="103">
@@ -2681,12 +2688,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>33872</v>
+        <v>38681</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5">
-        <v>0.050190018530732752</v>
+        <v>0.04966759295086004</v>
       </c>
     </row>
     <row r="104">
@@ -2694,12 +2701,12 @@
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>15536</v>
+        <v>33872</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5">
-        <v>0.051472220988586406</v>
+        <v>0.050191594949431498</v>
       </c>
     </row>
     <row r="105">
@@ -2707,12 +2714,12 @@
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>10621</v>
+        <v>15536</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5">
-        <v>0.063971772647081385</v>
+        <v>0.051474507017232191</v>
       </c>
     </row>
     <row r="106">
@@ -2720,12 +2727,12 @@
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>15250</v>
+        <v>10621</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5">
-        <v>0.070264241592312968</v>
+        <v>0.063971772647081385</v>
       </c>
     </row>
     <row r="107">
@@ -2733,12 +2740,12 @@
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>25209</v>
+        <v>15250</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5">
-        <v>0.059063690800217748</v>
+        <v>0.070264241592312968</v>
       </c>
     </row>
     <row r="108">
@@ -2746,12 +2753,12 @@
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>28779</v>
+        <v>25209</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5">
-        <v>0.056417882702853431</v>
+        <v>0.059059672041913314</v>
       </c>
     </row>
     <row r="109">
@@ -2759,12 +2766,12 @@
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>32622</v>
+        <v>28779</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5">
-        <v>0.059624377734198229</v>
+        <v>0.056417882702853424</v>
       </c>
     </row>
     <row r="110">
@@ -2772,12 +2779,12 @@
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>36879</v>
+        <v>32622</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5">
-        <v>0.053288319597524253</v>
+        <v>0.059622129200135765</v>
       </c>
     </row>
     <row r="111">
@@ -2785,12 +2792,12 @@
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>28887</v>
+        <v>36879</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5">
-        <v>0.063192294461644302</v>
+        <v>0.053290083410565341</v>
       </c>
     </row>
     <row r="112">
@@ -2798,12 +2805,12 @@
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>15065</v>
+        <v>28887</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5">
-        <v>0.065068677619175883</v>
+        <v>0.063190120738880667</v>
       </c>
     </row>
     <row r="113">
@@ -2811,12 +2818,12 @@
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>18622</v>
+        <v>15065</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5">
-        <v>0.07588575790344125</v>
+        <v>0.065065172896692877</v>
       </c>
     </row>
     <row r="114">
@@ -2824,12 +2831,12 @@
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>25044</v>
+        <v>18622</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5">
-        <v>0.065444878103965154</v>
+        <v>0.07588575790344125</v>
       </c>
     </row>
     <row r="115">
@@ -2837,12 +2844,12 @@
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>30979</v>
+        <v>25044</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5">
-        <v>0.07659648969230097</v>
+        <v>0.065444878103965154</v>
       </c>
     </row>
     <row r="116">
@@ -2850,12 +2857,12 @@
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>34871</v>
+        <v>30979</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5">
-        <v>0.059620161871944868</v>
+        <v>0.076596489692300956</v>
       </c>
     </row>
     <row r="117">
@@ -2863,12 +2870,12 @@
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>35721</v>
+        <v>34871</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5">
-        <v>0.062504077771253344</v>
+        <v>0.059617773147962662</v>
       </c>
     </row>
     <row r="118">
@@ -2876,12 +2883,12 @@
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>31132</v>
+        <v>35721</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5">
-        <v>0.070525996562994922</v>
+        <v>0.062502038819115965</v>
       </c>
     </row>
     <row r="119">
@@ -2889,12 +2896,12 @@
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>14920</v>
+        <v>31132</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5">
-        <v>0.065241547171808051</v>
+        <v>0.070525996562994908</v>
       </c>
     </row>
     <row r="120">
@@ -2902,12 +2909,12 @@
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>13120</v>
+        <v>14920</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5">
-        <v>0.079881457533508449</v>
+        <v>0.065241547171808037</v>
       </c>
     </row>
     <row r="121">
@@ -2915,12 +2922,12 @@
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>24169</v>
+        <v>13120</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5">
-        <v>0.072582076308784382</v>
+        <v>0.079881457533508449</v>
       </c>
     </row>
     <row r="122">
@@ -2928,12 +2935,12 @@
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>24904</v>
+        <v>24169</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5">
-        <v>0.063670103092783523</v>
+        <v>0.072582076308784382</v>
       </c>
     </row>
     <row r="123">
@@ -2941,12 +2948,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>25761</v>
+        <v>24904</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5">
-        <v>0.063322460915532564</v>
+        <v>0.063670103092783509</v>
       </c>
     </row>
     <row r="124">
@@ -2954,12 +2961,12 @@
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>26022</v>
+        <v>25761</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5">
-        <v>0.068729856715722459</v>
+        <v>0.063322460915532564</v>
       </c>
     </row>
     <row r="125">
@@ -2967,12 +2974,12 @@
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>25739</v>
+        <v>26022</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5">
-        <v>0.075837395816952355</v>
+        <v>0.06872718800962957</v>
       </c>
     </row>
     <row r="126">
@@ -2980,12 +2987,12 @@
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>10893</v>
+        <v>25739</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5">
-        <v>0.065074694431869626</v>
+        <v>0.075843359282849729</v>
       </c>
     </row>
     <row r="127">
@@ -2993,12 +3000,12 @@
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>13862</v>
+        <v>10893</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5">
-        <v>0.068911569693809127</v>
+        <v>0.065074694431869626</v>
       </c>
     </row>
     <row r="128">
@@ -3006,12 +3013,12 @@
         <v>126</v>
       </c>
       <c r="B128" s="4">
-        <v>23021</v>
+        <v>13862</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5">
-        <v>0.063152151674282203</v>
+        <v>0.068911569693809127</v>
       </c>
     </row>
     <row r="129">
@@ -3019,12 +3026,12 @@
         <v>127</v>
       </c>
       <c r="B129" s="4">
-        <v>25652</v>
+        <v>23021</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5">
-        <v>0.063418333491326195</v>
+        <v>0.063156458873277865</v>
       </c>
     </row>
     <row r="130">
@@ -3032,12 +3039,12 @@
         <v>128</v>
       </c>
       <c r="B130" s="4">
-        <v>22856</v>
+        <v>25652</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5">
-        <v>0.063456646882948817</v>
+        <v>0.063418333491326195</v>
       </c>
     </row>
     <row r="131">
@@ -3045,12 +3052,12 @@
         <v>129</v>
       </c>
       <c r="B131" s="4">
-        <v>30068</v>
+        <v>22856</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5">
-        <v>0.059122748498999331</v>
+        <v>0.063456646882948817</v>
       </c>
     </row>
     <row r="132">
@@ -3058,12 +3065,12 @@
         <v>130</v>
       </c>
       <c r="B132" s="4">
-        <v>26715</v>
+        <v>30068</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5">
-        <v>0.064051135111307028</v>
+        <v>0.059122748498999331</v>
       </c>
     </row>
     <row r="133">
@@ -3071,12 +3078,12 @@
         <v>131</v>
       </c>
       <c r="B133" s="4">
-        <v>15704</v>
+        <v>26715</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5">
-        <v>0.061709044467665154</v>
+        <v>0.064051135111307028</v>
       </c>
     </row>
     <row r="134">
@@ -3084,12 +3091,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="4">
-        <v>17137</v>
+        <v>15704</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5">
-        <v>0.063498951327113626</v>
+        <v>0.061709044467665154</v>
       </c>
     </row>
     <row r="135">
@@ -3097,12 +3104,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="4">
-        <v>19182</v>
+        <v>17137</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5">
-        <v>0.052106575666097915</v>
+        <v>0.063498951327113612</v>
       </c>
     </row>
     <row r="136">
@@ -3110,12 +3117,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="4">
-        <v>21031</v>
+        <v>19182</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5">
-        <v>0.059146174238961513</v>
+        <v>0.052109995405919804</v>
       </c>
     </row>
     <row r="137">
@@ -3123,12 +3130,12 @@
         <v>135</v>
       </c>
       <c r="B137" s="4">
-        <v>21840</v>
+        <v>21031</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5">
-        <v>0.06776675628070826</v>
+        <v>0.059140767824497259</v>
       </c>
     </row>
     <row r="138">
@@ -3136,12 +3143,12 @@
         <v>136</v>
       </c>
       <c r="B138" s="4">
-        <v>23469</v>
+        <v>21840</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5">
-        <v>0.070802033196887243</v>
+        <v>0.067763615295480875</v>
       </c>
     </row>
     <row r="139">
@@ -3149,12 +3156,12 @@
         <v>137</v>
       </c>
       <c r="B139" s="4">
-        <v>19558</v>
+        <v>23469</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5">
-        <v>0.075452061922726688</v>
+        <v>0.070802033196887229</v>
       </c>
     </row>
     <row r="140">
@@ -3162,12 +3169,12 @@
         <v>138</v>
       </c>
       <c r="B140" s="4">
-        <v>11613</v>
+        <v>19558</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5">
-        <v>0.076427886590877958</v>
+        <v>0.075452061922726688</v>
       </c>
     </row>
     <row r="141">
@@ -3175,12 +3182,12 @@
         <v>139</v>
       </c>
       <c r="B141" s="4">
-        <v>19740</v>
+        <v>11613</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5">
-        <v>0.06761006289308176</v>
+        <v>0.076427886590877958</v>
       </c>
     </row>
     <row r="142">
@@ -3188,12 +3195,12 @@
         <v>140</v>
       </c>
       <c r="B142" s="4">
-        <v>23480</v>
+        <v>19740</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5">
-        <v>0.072903225806451616</v>
+        <v>0.06761006289308176</v>
       </c>
     </row>
     <row r="143">
@@ -3201,12 +3208,12 @@
         <v>141</v>
       </c>
       <c r="B143" s="4">
-        <v>23091</v>
+        <v>23480</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5">
-        <v>0.068601322672983911</v>
+        <v>0.072903225806451616</v>
       </c>
     </row>
     <row r="144">
@@ -3214,12 +3221,12 @@
         <v>142</v>
       </c>
       <c r="B144" s="4">
-        <v>23947</v>
+        <v>23091</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5">
-        <v>0.06654639386608717</v>
+        <v>0.068601322672983911</v>
       </c>
     </row>
     <row r="145">
@@ -3227,12 +3234,12 @@
         <v>143</v>
       </c>
       <c r="B145" s="4">
-        <v>25438</v>
+        <v>23947</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5">
-        <v>0.072372587932272095</v>
+        <v>0.06654639386608717</v>
       </c>
     </row>
     <row r="146">
@@ -3240,12 +3247,12 @@
         <v>144</v>
       </c>
       <c r="B146" s="4">
-        <v>25175</v>
+        <v>25438</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5">
-        <v>0.074990212478200535</v>
+        <v>0.072372587932272095</v>
       </c>
     </row>
     <row r="147">
@@ -3253,12 +3260,12 @@
         <v>145</v>
       </c>
       <c r="B147" s="4">
-        <v>20426</v>
+        <v>25175</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5">
-        <v>0.069658867844447983</v>
+        <v>0.074990212478200521</v>
       </c>
     </row>
     <row r="148">
@@ -3266,12 +3273,12 @@
         <v>146</v>
       </c>
       <c r="B148" s="4">
-        <v>18738</v>
+        <v>20426</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5">
-        <v>0.071886973180076627</v>
+        <v>0.069655172413793098</v>
       </c>
     </row>
     <row r="149">
@@ -3279,12 +3286,12 @@
         <v>147</v>
       </c>
       <c r="B149" s="4">
-        <v>25642</v>
+        <v>18738</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5">
-        <v>0.076820243494867504</v>
+        <v>0.071883530482256597</v>
       </c>
     </row>
     <row r="150">
@@ -3292,12 +3299,12 @@
         <v>148</v>
       </c>
       <c r="B150" s="4">
-        <v>23879</v>
+        <v>25642</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5">
-        <v>0.078464956948430711</v>
+        <v>0.076820243494867504</v>
       </c>
     </row>
     <row r="151">
@@ -3305,12 +3312,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>22113</v>
+        <v>23879</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5">
-        <v>0.074858398850283212</v>
+        <v>0.078464956948430697</v>
       </c>
     </row>
     <row r="152">
@@ -3318,12 +3325,12 @@
         <v>150</v>
       </c>
       <c r="B152" s="4">
-        <v>26648</v>
+        <v>22113</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5">
-        <v>0.084759506636507206</v>
+        <v>0.074855234794370007</v>
       </c>
     </row>
     <row r="153">
@@ -3331,12 +3338,12 @@
         <v>151</v>
       </c>
       <c r="B153" s="4">
-        <v>25652</v>
+        <v>26648</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5">
-        <v>0.078113925467228729</v>
+        <v>0.084759506636507193</v>
       </c>
     </row>
     <row r="154">
@@ -3344,12 +3351,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="4">
-        <v>19982</v>
+        <v>25652</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5">
-        <v>0.076093281410858971</v>
+        <v>0.078113925467228715</v>
       </c>
     </row>
     <row r="155">
@@ -3357,12 +3364,12 @@
         <v>153</v>
       </c>
       <c r="B155" s="4">
-        <v>21111</v>
+        <v>19982</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5">
-        <v>0.080971659919028341</v>
+        <v>0.076093281410858957</v>
       </c>
     </row>
     <row r="156">
@@ -3370,12 +3377,12 @@
         <v>154</v>
       </c>
       <c r="B156" s="4">
-        <v>24440</v>
+        <v>21111</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5">
-        <v>0.069386296334116207</v>
+        <v>0.080971659919028341</v>
       </c>
     </row>
     <row r="157">
@@ -3383,12 +3390,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="4">
-        <v>25799</v>
+        <v>24440</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5">
-        <v>0.080851823742131346</v>
+        <v>0.069386296334116207</v>
       </c>
     </row>
     <row r="158">
@@ -3396,12 +3403,12 @@
         <v>156</v>
       </c>
       <c r="B158" s="4">
-        <v>28220</v>
+        <v>25799</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5">
-        <v>0.084367913287465887</v>
+        <v>0.080851823742131346</v>
       </c>
     </row>
     <row r="159">
@@ -3409,12 +3416,12 @@
         <v>157</v>
       </c>
       <c r="B159" s="4">
-        <v>22271</v>
+        <v>28220</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5">
-        <v>0.073235895018073233</v>
+        <v>0.084364670612652778</v>
       </c>
     </row>
     <row r="160">
@@ -3422,12 +3429,12 @@
         <v>158</v>
       </c>
       <c r="B160" s="4">
-        <v>23132</v>
+        <v>22271</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5">
-        <v>0.087349111301207108</v>
+        <v>0.073235895018073233</v>
       </c>
     </row>
     <row r="161">
@@ -3435,12 +3442,12 @@
         <v>159</v>
       </c>
       <c r="B161" s="4">
-        <v>23193</v>
+        <v>23132</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5">
-        <v>0.078398510242085676</v>
+        <v>0.087349111301207108</v>
       </c>
     </row>
     <row r="162">
@@ -3448,12 +3455,12 @@
         <v>160</v>
       </c>
       <c r="B162" s="4">
-        <v>18874</v>
+        <v>23193</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5">
-        <v>0.096159899276046581</v>
+        <v>0.078398510242085662</v>
       </c>
     </row>
     <row r="163">
@@ -3461,12 +3468,12 @@
         <v>161</v>
       </c>
       <c r="B163" s="4">
-        <v>27022</v>
+        <v>18874</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5">
-        <v>0.092347136222910214</v>
+        <v>0.096154854954624142</v>
       </c>
     </row>
     <row r="164">
@@ -3474,12 +3481,12 @@
         <v>162</v>
       </c>
       <c r="B164" s="4">
-        <v>24483</v>
+        <v>27022</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5">
-        <v>0.091436735422805601</v>
+        <v>0.092347136222910214</v>
       </c>
     </row>
     <row r="165">
@@ -3487,12 +3494,12 @@
         <v>163</v>
       </c>
       <c r="B165" s="4">
-        <v>22280</v>
+        <v>24483</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5">
-        <v>0.095743707093821517</v>
+        <v>0.091436735422805601</v>
       </c>
     </row>
     <row r="166">
@@ -3500,12 +3507,12 @@
         <v>164</v>
       </c>
       <c r="B166" s="4">
-        <v>23660</v>
+        <v>22280</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5">
-        <v>0.093646168788018194</v>
+        <v>0.095739325431330374</v>
       </c>
     </row>
     <row r="167">
@@ -3513,12 +3520,12 @@
         <v>165</v>
       </c>
       <c r="B167" s="4">
-        <v>18338</v>
+        <v>23660</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5">
-        <v>0.08545255674049769</v>
+        <v>0.093646168788018194</v>
       </c>
     </row>
     <row r="168">
@@ -3526,12 +3533,12 @@
         <v>166</v>
       </c>
       <c r="B168" s="4">
-        <v>14821</v>
+        <v>18338</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5">
-        <v>0.088658642511477856</v>
+        <v>0.085452556740497676</v>
       </c>
     </row>
     <row r="169">
@@ -3539,12 +3546,12 @@
         <v>167</v>
       </c>
       <c r="B169" s="4">
-        <v>17129</v>
+        <v>14821</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5">
-        <v>0.092218528935481131</v>
+        <v>0.088658642511477856</v>
       </c>
     </row>
     <row r="170">
@@ -3552,12 +3559,12 @@
         <v>168</v>
       </c>
       <c r="B170" s="4">
-        <v>18885</v>
+        <v>17129</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5">
-        <v>0.084236864053377811</v>
+        <v>0.092218528935481117</v>
       </c>
     </row>
     <row r="171">
@@ -3565,12 +3572,12 @@
         <v>169</v>
       </c>
       <c r="B171" s="4">
-        <v>16908</v>
+        <v>18885</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5">
-        <v>0.089344409251180312</v>
+        <v>0.084236864053377811</v>
       </c>
     </row>
     <row r="172">
@@ -3578,12 +3585,12 @@
         <v>170</v>
       </c>
       <c r="B172" s="4">
-        <v>20409</v>
+        <v>16908</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5">
-        <v>0.091777593783835432</v>
+        <v>0.089339070156567474</v>
       </c>
     </row>
     <row r="173">
@@ -3591,12 +3598,12 @@
         <v>171</v>
       </c>
       <c r="B173" s="4">
-        <v>21474</v>
+        <v>20409</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5">
-        <v>0.10469119862276739</v>
+        <v>0.091777593783835418</v>
       </c>
     </row>
     <row r="174">
@@ -3604,12 +3611,12 @@
         <v>172</v>
       </c>
       <c r="B174" s="4">
-        <v>21911</v>
+        <v>21474</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5">
-        <v>0.083318997648947762</v>
+        <v>0.10469119862276738</v>
       </c>
     </row>
     <row r="175">
@@ -3617,12 +3624,12 @@
         <v>173</v>
       </c>
       <c r="B175" s="4">
-        <v>18461</v>
+        <v>21911</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5">
-        <v>0.095654478007419191</v>
+        <v>0.083318997648947762</v>
       </c>
     </row>
     <row r="176">
@@ -3630,12 +3637,12 @@
         <v>174</v>
       </c>
       <c r="B176" s="4">
-        <v>16374</v>
+        <v>18461</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5">
-        <v>0.087892847763284598</v>
+        <v>0.095654478007419177</v>
       </c>
     </row>
     <row r="177">
@@ -3643,12 +3650,12 @@
         <v>175</v>
       </c>
       <c r="B177" s="4">
-        <v>17548</v>
+        <v>16374</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5">
-        <v>0.081961491478099016</v>
+        <v>0.087892847763284598</v>
       </c>
     </row>
     <row r="178">
@@ -3656,12 +3663,12 @@
         <v>176</v>
       </c>
       <c r="B178" s="4">
-        <v>20411</v>
+        <v>17548</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5">
-        <v>0.094887122047472586</v>
+        <v>0.081961491478099002</v>
       </c>
     </row>
     <row r="179">
@@ -3669,12 +3676,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="4">
-        <v>19149</v>
+        <v>20411</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5">
-        <v>0.098966198164711347</v>
+        <v>0.094887122047472572</v>
       </c>
     </row>
     <row r="180">
@@ -3682,12 +3689,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="4">
-        <v>21238</v>
+        <v>19149</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5">
-        <v>0.096646159952371496</v>
+        <v>0.098960450664963118</v>
       </c>
     </row>
     <row r="181">
@@ -3695,12 +3702,12 @@
         <v>179</v>
       </c>
       <c r="B181" s="4">
-        <v>18527</v>
+        <v>21238</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5">
-        <v>0.077446974119478498</v>
+        <v>0.096646159952371496</v>
       </c>
     </row>
     <row r="182">
@@ -3708,12 +3715,12 @@
         <v>180</v>
       </c>
       <c r="B182" s="4">
-        <v>15713</v>
+        <v>18527</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5">
-        <v>0.082462769504334316</v>
+        <v>0.077446974119478498</v>
       </c>
     </row>
     <row r="183">
@@ -3721,12 +3728,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="4">
-        <v>11253</v>
+        <v>15713</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5">
-        <v>0.09044510385756678</v>
+        <v>0.082462769504334302</v>
       </c>
     </row>
     <row r="184">
@@ -3734,12 +3741,12 @@
         <v>182</v>
       </c>
       <c r="B184" s="4">
-        <v>18129</v>
+        <v>11253</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5">
-        <v>0.084163647342995168</v>
+        <v>0.090445103857566767</v>
       </c>
     </row>
     <row r="185">
@@ -3747,12 +3754,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="4">
-        <v>15400</v>
+        <v>18129</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5">
-        <v>0.094269194174046694</v>
+        <v>0.084170000754887897</v>
       </c>
     </row>
     <row r="186">
@@ -3760,12 +3767,12 @@
         <v>184</v>
       </c>
       <c r="B186" s="4">
-        <v>24377</v>
+        <v>15400</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5">
-        <v>0.095683864513362887</v>
+        <v>0.094262295081967207</v>
       </c>
     </row>
     <row r="187">
@@ -3773,12 +3780,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="4">
-        <v>21412</v>
+        <v>24377</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5">
-        <v>0.085629629629629639</v>
+        <v>0.095683864513362873</v>
       </c>
     </row>
     <row r="188">
@@ -3786,12 +3793,12 @@
         <v>186</v>
       </c>
       <c r="B188" s="4">
-        <v>17071</v>
+        <v>21412</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5">
-        <v>0.08273646161054958</v>
+        <v>0.085629629629629625</v>
       </c>
     </row>
     <row r="189">
@@ -3799,12 +3806,12 @@
         <v>187</v>
       </c>
       <c r="B189" s="4">
-        <v>13726</v>
+        <v>17071</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5">
-        <v>0.080589995724668656</v>
+        <v>0.082736461610549566</v>
       </c>
     </row>
     <row r="190">
@@ -3812,12 +3819,12 @@
         <v>188</v>
       </c>
       <c r="B190" s="4">
-        <v>12694</v>
+        <v>13726</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5">
-        <v>0.090584369195599368</v>
+        <v>0.080589995724668656</v>
       </c>
     </row>
     <row r="191">
@@ -3825,12 +3832,12 @@
         <v>189</v>
       </c>
       <c r="B191" s="4">
-        <v>13541</v>
+        <v>12694</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5">
-        <v>0.082567458275126834</v>
+        <v>0.090584369195599368</v>
       </c>
     </row>
     <row r="192">
@@ -3838,12 +3845,12 @@
         <v>190</v>
       </c>
       <c r="B192" s="4">
-        <v>16049</v>
+        <v>13541</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5">
-        <v>0.09158986175115208</v>
+        <v>0.082567458275126834</v>
       </c>
     </row>
     <row r="193">
@@ -3851,12 +3858,12 @@
         <v>191</v>
       </c>
       <c r="B193" s="4">
-        <v>22126</v>
+        <v>16049</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5">
-        <v>0.092715231788079472</v>
+        <v>0.09158986175115208</v>
       </c>
     </row>
     <row r="194">
@@ -3864,12 +3871,12 @@
         <v>192</v>
       </c>
       <c r="B194" s="4">
-        <v>19471</v>
+        <v>22126</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5">
-        <v>0.098454569677591267</v>
+        <v>0.092715231788079472</v>
       </c>
     </row>
     <row r="195">
@@ -3877,12 +3884,12 @@
         <v>193</v>
       </c>
       <c r="B195" s="4">
-        <v>15356</v>
+        <v>19471</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5">
-        <v>0.084617085575293002</v>
+        <v>0.098454569677591267</v>
       </c>
     </row>
     <row r="196">
@@ -3890,12 +3897,12 @@
         <v>194</v>
       </c>
       <c r="B196" s="4">
-        <v>15719</v>
+        <v>15356</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5">
-        <v>0.076364370019166752</v>
+        <v>0.084617085575292988</v>
       </c>
     </row>
     <row r="197">
@@ -3903,12 +3910,12 @@
         <v>195</v>
       </c>
       <c r="B197" s="4">
-        <v>9326</v>
+        <v>15719</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5">
-        <v>0.086844498332828132</v>
+        <v>0.076364370019166752</v>
       </c>
     </row>
     <row r="198">
@@ -3916,12 +3923,12 @@
         <v>196</v>
       </c>
       <c r="B198" s="4">
-        <v>12929</v>
+        <v>9326</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5">
-        <v>0.090048180760923746</v>
+        <v>0.086844498332828132</v>
       </c>
     </row>
     <row r="199">
@@ -3929,12 +3936,12 @@
         <v>197</v>
       </c>
       <c r="B199" s="4">
-        <v>15790</v>
+        <v>12929</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="5">
-        <v>0.093366357958216684</v>
+        <v>0.090048180760923746</v>
       </c>
     </row>
     <row r="200">
@@ -3942,12 +3949,12 @@
         <v>198</v>
       </c>
       <c r="B200" s="4">
-        <v>12921</v>
+        <v>15790</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5">
-        <v>0.097781051468557242</v>
+        <v>0.09336635795821667</v>
       </c>
     </row>
     <row r="201">
@@ -3955,12 +3962,12 @@
         <v>199</v>
       </c>
       <c r="B201" s="4">
-        <v>18746</v>
+        <v>12921</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5">
-        <v>0.086270643332511721</v>
+        <v>0.097781051468557229</v>
       </c>
     </row>
     <row r="202">
@@ -3968,12 +3975,12 @@
         <v>200</v>
       </c>
       <c r="B202" s="4">
-        <v>12966</v>
+        <v>18746</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="5">
-        <v>0.089300829524293218</v>
+        <v>0.086270643332511707</v>
       </c>
     </row>
     <row r="203">
@@ -3981,12 +3988,12 @@
         <v>201</v>
       </c>
       <c r="B203" s="4">
-        <v>12313</v>
+        <v>12966</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="5">
-        <v>0.077984142500271539</v>
+        <v>0.089300829524293218</v>
       </c>
     </row>
     <row r="204">
@@ -3994,12 +4001,12 @@
         <v>202</v>
       </c>
       <c r="B204" s="4">
-        <v>4552</v>
+        <v>12313</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="5">
-        <v>0.078296703296703296</v>
+        <v>0.077984142500271539</v>
       </c>
     </row>
     <row r="205">
@@ -4007,12 +4014,12 @@
         <v>203</v>
       </c>
       <c r="B205" s="4">
-        <v>13931</v>
+        <v>4552</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="5">
-        <v>0.080954907161803716</v>
+        <v>0.078296703296703296</v>
       </c>
     </row>
     <row r="206">
@@ -4020,12 +4027,12 @@
         <v>204</v>
       </c>
       <c r="B206" s="4">
-        <v>11978</v>
+        <v>13931</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="5">
-        <v>0.081773207876612672</v>
+        <v>0.080954907161803716</v>
       </c>
     </row>
     <row r="207">
@@ -4033,12 +4040,12 @@
         <v>205</v>
       </c>
       <c r="B207" s="4">
-        <v>16706</v>
+        <v>11978</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="5">
-        <v>0.099014238773274935</v>
+        <v>0.081773207876612672</v>
       </c>
     </row>
     <row r="208">
@@ -4046,12 +4053,12 @@
         <v>206</v>
       </c>
       <c r="B208" s="4">
-        <v>10116</v>
+        <v>16706</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="5">
-        <v>0.090081892629663332</v>
+        <v>0.099014238773274921</v>
       </c>
     </row>
     <row r="209">
@@ -4059,12 +4066,12 @@
         <v>207</v>
       </c>
       <c r="B209" s="4">
-        <v>11573</v>
+        <v>10116</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="5">
-        <v>0.076517547823467383</v>
+        <v>0.090081892629663332</v>
       </c>
     </row>
     <row r="210">
@@ -4072,12 +4079,12 @@
         <v>208</v>
       </c>
       <c r="B210" s="4">
-        <v>3571</v>
+        <v>11573</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="5">
-        <v>0.07063734146733025</v>
+        <v>0.076517547823467383</v>
       </c>
     </row>
     <row r="211">
@@ -4085,12 +4092,12 @@
         <v>209</v>
       </c>
       <c r="B211" s="4">
-        <v>7748</v>
+        <v>3571</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="5">
-        <v>0.076528674515761494</v>
+        <v>0.070637341467330236</v>
       </c>
     </row>
     <row r="212">
@@ -4098,12 +4105,12 @@
         <v>210</v>
       </c>
       <c r="B212" s="4">
-        <v>7154</v>
+        <v>7748</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="5">
-        <v>0.08187221396731055</v>
+        <v>0.076528674515761494</v>
       </c>
     </row>
     <row r="213">
@@ -4111,12 +4118,12 @@
         <v>211</v>
       </c>
       <c r="B213" s="4">
-        <v>9046</v>
+        <v>7154</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="5">
-        <v>0.087829360100376425</v>
+        <v>0.08187221396731055</v>
       </c>
     </row>
     <row r="214">
@@ -4124,12 +4131,12 @@
         <v>212</v>
       </c>
       <c r="B214" s="4">
-        <v>11829</v>
+        <v>9046</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="5">
-        <v>0.097303206997084557</v>
+        <v>0.087829360100376411</v>
       </c>
     </row>
     <row r="215">
@@ -4137,12 +4144,12 @@
         <v>213</v>
       </c>
       <c r="B215" s="4">
-        <v>10185</v>
+        <v>11829</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="5">
-        <v>0.082924373977601606</v>
+        <v>0.097303206997084543</v>
       </c>
     </row>
     <row r="216">
@@ -4150,12 +4157,12 @@
         <v>214</v>
       </c>
       <c r="B216" s="4">
-        <v>12313</v>
+        <v>10185</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="5">
-        <v>0.073159579332418859</v>
+        <v>0.082913940613990947</v>
       </c>
     </row>
     <row r="217">
@@ -4163,12 +4170,12 @@
         <v>215</v>
       </c>
       <c r="B217" s="4">
-        <v>8647</v>
+        <v>12313</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="5">
-        <v>0.0629848540820096</v>
+        <v>0.073159579332418845</v>
       </c>
     </row>
     <row r="218">
@@ -4176,12 +4183,12 @@
         <v>216</v>
       </c>
       <c r="B218" s="4">
-        <v>8397</v>
+        <v>8647</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="5">
-        <v>0.055847441136407869</v>
+        <v>0.0629848540820096</v>
       </c>
     </row>
     <row r="219">
@@ -4189,12 +4196,12 @@
         <v>217</v>
       </c>
       <c r="B219" s="4">
-        <v>9508</v>
+        <v>8397</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="5">
-        <v>0.061016949152542382</v>
+        <v>0.055847441136407862</v>
       </c>
     </row>
     <row r="220">
@@ -4202,12 +4209,12 @@
         <v>218</v>
       </c>
       <c r="B220" s="4">
-        <v>10708</v>
+        <v>9508</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="5">
-        <v>0.070926966292134838</v>
+        <v>0.061016949152542375</v>
       </c>
     </row>
     <row r="221">
@@ -4215,12 +4222,12 @@
         <v>219</v>
       </c>
       <c r="B221" s="4">
-        <v>13923</v>
+        <v>10708</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="5">
-        <v>0.068536371603856283</v>
+        <v>0.070926966292134838</v>
       </c>
     </row>
     <row r="222">
@@ -4228,12 +4235,12 @@
         <v>220</v>
       </c>
       <c r="B222" s="4">
-        <v>9317</v>
+        <v>13923</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="5">
-        <v>0.067188638018936639</v>
+        <v>0.068536371603856269</v>
       </c>
     </row>
     <row r="223">
@@ -4241,12 +4248,12 @@
         <v>221</v>
       </c>
       <c r="B223" s="4">
-        <v>7919</v>
+        <v>9317</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="5">
-        <v>0.071962313190383362</v>
+        <v>0.067188638018936639</v>
       </c>
     </row>
     <row r="224">
@@ -4254,12 +4261,12 @@
         <v>222</v>
       </c>
       <c r="B224" s="4">
-        <v>6686</v>
+        <v>7919</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="5">
-        <v>0.054404791614674326</v>
+        <v>0.071962313190383362</v>
       </c>
     </row>
     <row r="225">
@@ -4267,12 +4274,12 @@
         <v>223</v>
       </c>
       <c r="B225" s="4">
-        <v>2741</v>
+        <v>6686</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="5">
-        <v>0.04138950480413895</v>
+        <v>0.054404791614674319</v>
       </c>
     </row>
     <row r="226">
@@ -4280,12 +4287,12 @@
         <v>224</v>
       </c>
       <c r="B226" s="4">
-        <v>5318</v>
+        <v>2741</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="5">
-        <v>0.064686152371825595</v>
+        <v>0.04138950480413895</v>
       </c>
     </row>
     <row r="227">
@@ -4293,12 +4300,12 @@
         <v>225</v>
       </c>
       <c r="B227" s="4">
-        <v>7457</v>
+        <v>5318</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="5">
-        <v>0.082644628099173556</v>
+        <v>0.064686152371825581</v>
       </c>
     </row>
     <row r="228">
@@ -4306,12 +4313,12 @@
         <v>226</v>
       </c>
       <c r="B228" s="4">
-        <v>7917</v>
+        <v>7457</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="5">
-        <v>0.072844518748507281</v>
+        <v>0.082644628099173556</v>
       </c>
     </row>
     <row r="229">
@@ -4319,12 +4326,12 @@
         <v>227</v>
       </c>
       <c r="B229" s="4">
-        <v>6871</v>
+        <v>7917</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="5">
-        <v>0.083333333333333329</v>
+        <v>0.072844518748507281</v>
       </c>
     </row>
     <row r="230">
@@ -4332,12 +4339,12 @@
         <v>228</v>
       </c>
       <c r="B230" s="4">
-        <v>9330</v>
+        <v>6871</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="5">
-        <v>0.080795634571378297</v>
+        <v>0.083333333333333329</v>
       </c>
     </row>
     <row r="231">
@@ -4345,12 +4352,12 @@
         <v>229</v>
       </c>
       <c r="B231" s="4">
-        <v>5972</v>
+        <v>9330</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="5">
-        <v>0.071404738071404739</v>
+        <v>0.080795634571378283</v>
       </c>
     </row>
     <row r="232">
@@ -4358,12 +4365,12 @@
         <v>230</v>
       </c>
       <c r="B232" s="4">
-        <v>2701</v>
+        <v>5972</v>
       </c>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="5">
-        <v>0.065079365079365098</v>
+        <v>0.071404738071404739</v>
       </c>
     </row>
     <row r="233">
@@ -4371,12 +4378,12 @@
         <v>231</v>
       </c>
       <c r="B233" s="4">
-        <v>5202</v>
+        <v>2701</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="5">
-        <v>0.063455149501661146</v>
+        <v>0.065079365079365084</v>
       </c>
     </row>
     <row r="234">
@@ -4384,12 +4391,12 @@
         <v>232</v>
       </c>
       <c r="B234" s="4">
-        <v>5961</v>
+        <v>5202</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="5">
-        <v>0.077714873906330417</v>
+        <v>0.063455149501661132</v>
       </c>
     </row>
     <row r="235">
@@ -4397,12 +4404,12 @@
         <v>233</v>
       </c>
       <c r="B235" s="4">
-        <v>5490</v>
+        <v>5961</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="5">
-        <v>0.070118662351672065</v>
+        <v>0.077714873906330417</v>
       </c>
     </row>
     <row r="236">
@@ -4410,12 +4417,12 @@
         <v>234</v>
       </c>
       <c r="B236" s="4">
-        <v>6598</v>
+        <v>5490</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="5">
-        <v>0.0738349241998877</v>
+        <v>0.070118662351672065</v>
       </c>
     </row>
     <row r="237">
@@ -4423,12 +4430,12 @@
         <v>235</v>
       </c>
       <c r="B237" s="4">
-        <v>5318</v>
+        <v>6598</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="5">
-        <v>0.097365702479338859</v>
+        <v>0.0738349241998877</v>
       </c>
     </row>
     <row r="238">
@@ -4436,12 +4443,12 @@
         <v>236</v>
       </c>
       <c r="B238" s="4">
-        <v>3751</v>
+        <v>5318</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="5">
-        <v>0.08019559902200489</v>
+        <v>0.097365702479338845</v>
       </c>
     </row>
     <row r="239">
@@ -4449,12 +4456,12 @@
         <v>237</v>
       </c>
       <c r="B239" s="4">
-        <v>2134</v>
+        <v>3751</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="5">
-        <v>0.11082693947144077</v>
+        <v>0.08019559902200489</v>
       </c>
     </row>
     <row r="240">
@@ -4462,12 +4469,12 @@
         <v>238</v>
       </c>
       <c r="B240" s="4">
-        <v>2985</v>
+        <v>2134</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="5">
-        <v>0.12969924812030076</v>
+        <v>0.11082693947144075</v>
       </c>
     </row>
     <row r="241">
@@ -4475,12 +4482,12 @@
         <v>239</v>
       </c>
       <c r="B241" s="4">
-        <v>5298</v>
+        <v>2985</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="5">
-        <v>0.088114754098360656</v>
+        <v>0.12969924812030076</v>
       </c>
     </row>
     <row r="242">
@@ -4488,12 +4495,12 @@
         <v>240</v>
       </c>
       <c r="B242" s="4">
-        <v>4788</v>
+        <v>5298</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="5">
-        <v>0.10689767898005885</v>
+        <v>0.088114754098360656</v>
       </c>
     </row>
     <row r="243">
@@ -4501,12 +4508,12 @@
         <v>241</v>
       </c>
       <c r="B243" s="4">
-        <v>6406</v>
+        <v>4788</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="5">
-        <v>0.11588132635253055</v>
+        <v>0.10689767898005885</v>
       </c>
     </row>
     <row r="244">
@@ -4514,12 +4521,12 @@
         <v>242</v>
       </c>
       <c r="B244" s="4">
-        <v>7796</v>
+        <v>6406</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="5">
-        <v>0.10599536270288176</v>
+        <v>0.11588132635253054</v>
       </c>
     </row>
     <row r="245">
@@ -4527,12 +4534,12 @@
         <v>243</v>
       </c>
       <c r="B245" s="4">
-        <v>4520</v>
+        <v>7796</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="5">
-        <v>0.10867117117117117</v>
+        <v>0.10599536270288175</v>
       </c>
     </row>
     <row r="246">
@@ -4540,12 +4547,12 @@
         <v>244</v>
       </c>
       <c r="B246" s="4">
-        <v>773</v>
+        <v>4520</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="5">
-        <v>0.089951377633711527</v>
+        <v>0.10867117117117117</v>
       </c>
     </row>
     <row r="247">
@@ -4553,12 +4560,12 @@
         <v>245</v>
       </c>
       <c r="B247" s="4">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="5">
-        <v>0.12877082395317424</v>
+        <v>0.089951377633711513</v>
       </c>
     </row>
     <row r="248">
@@ -4566,12 +4573,12 @@
         <v>246</v>
       </c>
       <c r="B248" s="4">
-        <v>3600</v>
+        <v>2592</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="5">
-        <v>0.13959085439229846</v>
+        <v>0.12877082395317424</v>
       </c>
     </row>
     <row r="249">
@@ -4579,12 +4586,12 @@
         <v>247</v>
       </c>
       <c r="B249" s="4">
-        <v>2472</v>
+        <v>3600</v>
       </c>
      